--- a/Master/2025_MASTER.xlsx
+++ b/Master/2025_MASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work TC\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6017F939-4706-46A2-8062-3F5DEC1A605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA773AE-F5B6-4D30-9115-DC1F87DD9683}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="1440" windowWidth="14595" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL 250115" sheetId="12" r:id="rId1"/>
@@ -24,9 +24,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4523,7 +4523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4897,9 +4897,6 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="35" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4915,9 +4912,6 @@
     <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4973,158 +4967,176 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="314">
@@ -5668,12 +5680,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E3568-5A38-4555-95C2-66ABB16BC5FB}">
   <dimension ref="A1:AM264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E166" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H264" sqref="H264"/>
+      <selection pane="bottomRight" activeCell="B180" sqref="B180:E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5682,7 +5694,7 @@
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="150" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="148" customWidth="1"/>
     <col min="6" max="6" width="10.6640625" customWidth="1"/>
     <col min="7" max="7" width="24.88671875" customWidth="1"/>
     <col min="8" max="8" width="10.77734375" customWidth="1"/>
@@ -5743,24 +5755,24 @@
       <c r="N1" s="15"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="59"/>
-      <c r="R1" s="153" t="s">
+      <c r="R1" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="155" t="s">
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="156"/>
-      <c r="AB1" s="156"/>
-      <c r="AC1" s="156"/>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="158"/>
+      <c r="AB1" s="158"/>
+      <c r="AC1" s="158"/>
+      <c r="AD1" s="158"/>
+      <c r="AE1" s="158"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
@@ -5795,24 +5807,24 @@
       <c r="N2" s="15"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="59"/>
-      <c r="R2" s="153" t="s">
+      <c r="R2" s="155" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="155" t="s">
+      <c r="S2" s="156"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="156"/>
-      <c r="AA2" s="156"/>
-      <c r="AB2" s="156"/>
-      <c r="AC2" s="156"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="43"/>
@@ -5852,11 +5864,11 @@
       <c r="J3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="201" t="s">
+      <c r="K3" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="201"/>
-      <c r="M3" s="201"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
       <c r="N3" s="23" t="s">
         <v>2</v>
       </c>
@@ -5924,7 +5936,7 @@
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
-      <c r="E4" s="146"/>
+      <c r="E4" s="144"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" s="50"/>
@@ -5960,13 +5972,13 @@
       <c r="AM4" s="27"/>
     </row>
     <row r="5" spans="1:39" ht="40.5">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="199" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="152"/>
+      <c r="B5" s="199"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
-      <c r="E5" s="146"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
       <c r="H5" s="50"/>
@@ -6006,7 +6018,7 @@
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
-      <c r="E6" s="146"/>
+      <c r="E6" s="144"/>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
@@ -6042,7 +6054,7 @@
       <c r="AM6" s="27"/>
     </row>
     <row r="7" spans="1:39" s="2" customFormat="1" ht="21">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="200" t="s">
         <v>214</v>
       </c>
       <c r="B7" s="115" t="s">
@@ -6087,11 +6099,11 @@
       </c>
     </row>
     <row r="8" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A8" s="130"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="147"/>
+      <c r="A8" s="201"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="118">
         <v>1</v>
       </c>
@@ -6112,7 +6124,7 @@
       <c r="O8" s="120"/>
     </row>
     <row r="9" spans="1:39" s="2" customFormat="1" ht="21">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="200" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="115" t="s">
@@ -6157,11 +6169,11 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A10" s="130"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="147"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="145"/>
       <c r="F10" s="118">
         <v>1</v>
       </c>
@@ -6182,7 +6194,7 @@
       <c r="O10" s="120"/>
     </row>
     <row r="11" spans="1:39" s="2" customFormat="1" ht="42">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="200" t="s">
         <v>221</v>
       </c>
       <c r="B11" s="115" t="s">
@@ -6227,11 +6239,11 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A12" s="130"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="147"/>
+      <c r="A12" s="201"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="118">
         <v>1</v>
       </c>
@@ -6252,7 +6264,7 @@
       <c r="O12" s="120"/>
     </row>
     <row r="13" spans="1:39" s="2" customFormat="1" ht="42">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="200" t="s">
         <v>224</v>
       </c>
       <c r="B13" s="115" t="s">
@@ -6297,11 +6309,11 @@
       </c>
     </row>
     <row r="14" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A14" s="130"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="147"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="145"/>
       <c r="F14" s="118">
         <v>1</v>
       </c>
@@ -6322,7 +6334,7 @@
       <c r="O14" s="120"/>
     </row>
     <row r="15" spans="1:39" s="2" customFormat="1" ht="21">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="200" t="s">
         <v>227</v>
       </c>
       <c r="B15" s="115" t="s">
@@ -6363,11 +6375,11 @@
       <c r="O15" s="115"/>
     </row>
     <row r="16" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A16" s="130"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="147"/>
+      <c r="A16" s="201"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="145"/>
       <c r="F16" s="118">
         <v>1</v>
       </c>
@@ -6388,7 +6400,7 @@
       <c r="O16" s="120"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="200" t="s">
         <v>231</v>
       </c>
       <c r="B17" s="115" t="s">
@@ -6433,11 +6445,11 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A18" s="130"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="147"/>
+      <c r="A18" s="201"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
+      <c r="E18" s="145"/>
       <c r="F18" s="118">
         <v>1</v>
       </c>
@@ -6458,7 +6470,7 @@
       <c r="O18" s="120"/>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="200" t="s">
         <v>235</v>
       </c>
       <c r="B19" s="115" t="s">
@@ -6503,11 +6515,11 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A20" s="130"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="147"/>
+      <c r="A20" s="201"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="145"/>
       <c r="F20" s="118">
         <v>1</v>
       </c>
@@ -6528,7 +6540,7 @@
       <c r="O20" s="120"/>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="200" t="s">
         <v>238</v>
       </c>
       <c r="B21" s="115" t="s">
@@ -6573,11 +6585,11 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A22" s="130"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="147"/>
+      <c r="A22" s="201"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="145"/>
       <c r="F22" s="118">
         <v>1</v>
       </c>
@@ -6598,28 +6610,28 @@
       <c r="O22" s="120"/>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="200" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="198" t="s">
+      <c r="B23" s="149" t="s">
         <v>244</v>
       </c>
       <c r="C23" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="198" t="s">
+      <c r="D23" s="149" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="160">
+      <c r="E23" s="152">
         <v>45661</v>
       </c>
       <c r="F23" s="115">
         <v>1</v>
       </c>
-      <c r="G23" s="198" t="s">
+      <c r="G23" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="198">
+      <c r="H23" s="149">
         <v>2</v>
       </c>
       <c r="I23" s="115">
@@ -6638,25 +6650,25 @@
         <v>13</v>
       </c>
       <c r="N23" s="115"/>
-      <c r="O23" s="198" t="s">
+      <c r="O23" s="149" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="200" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="200"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="162"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="154"/>
       <c r="F24" s="115">
         <v>2</v>
       </c>
-      <c r="G24" s="200"/>
-      <c r="H24" s="200"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
       <c r="I24" s="115">
         <v>1.1000000000000001</v>
       </c>
@@ -6673,14 +6685,14 @@
         <v>13</v>
       </c>
       <c r="N24" s="115"/>
-      <c r="O24" s="200"/>
+      <c r="O24" s="151"/>
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A25" s="130"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="147"/>
+      <c r="A25" s="201"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="145"/>
       <c r="F25" s="118">
         <v>2</v>
       </c>
@@ -6701,7 +6713,7 @@
       <c r="O25" s="120"/>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="200" t="s">
         <v>248</v>
       </c>
       <c r="B26" s="115" t="s">
@@ -6746,11 +6758,11 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A27" s="130"/>
-      <c r="B27" s="130"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="147"/>
+      <c r="A27" s="201"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="129"/>
+      <c r="E27" s="145"/>
       <c r="F27" s="118">
         <v>1</v>
       </c>
@@ -6771,7 +6783,7 @@
       <c r="O27" s="120"/>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="200" t="s">
         <v>251</v>
       </c>
       <c r="B28" s="115" t="s">
@@ -6816,11 +6828,11 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A29" s="130"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="147"/>
+      <c r="A29" s="201"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="145"/>
       <c r="F29" s="118">
         <v>1</v>
       </c>
@@ -6841,7 +6853,7 @@
       <c r="O29" s="120"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="200" t="s">
         <v>254</v>
       </c>
       <c r="B30" s="115" t="s">
@@ -6884,11 +6896,11 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A31" s="130"/>
-      <c r="B31" s="130"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="147"/>
+      <c r="A31" s="201"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="145"/>
       <c r="F31" s="118">
         <v>1</v>
       </c>
@@ -6909,7 +6921,7 @@
       <c r="O31" s="120"/>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="200" t="s">
         <v>258</v>
       </c>
       <c r="B32" s="115" t="s">
@@ -6955,11 +6967,11 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A33" s="130"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="147"/>
+      <c r="A33" s="201"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="129"/>
+      <c r="E33" s="145"/>
       <c r="F33" s="118">
         <v>1</v>
       </c>
@@ -6980,7 +6992,7 @@
       <c r="O33" s="120"/>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A34" s="115" t="s">
+      <c r="A34" s="200" t="s">
         <v>261</v>
       </c>
       <c r="B34" s="115" t="s">
@@ -7026,11 +7038,11 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A35" s="130"/>
-      <c r="B35" s="130"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="147"/>
+      <c r="A35" s="201"/>
+      <c r="B35" s="129"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="145"/>
       <c r="F35" s="118">
         <v>1</v>
       </c>
@@ -7051,7 +7063,7 @@
       <c r="O35" s="120"/>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="200" t="s">
         <v>264</v>
       </c>
       <c r="B36" s="81" t="s">
@@ -7094,11 +7106,11 @@
       <c r="O36" s="81"/>
     </row>
     <row r="37" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A37" s="130"/>
-      <c r="B37" s="130"/>
-      <c r="C37" s="130"/>
-      <c r="D37" s="130"/>
-      <c r="E37" s="147"/>
+      <c r="A37" s="201"/>
+      <c r="B37" s="129"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="145"/>
       <c r="F37" s="118">
         <v>1</v>
       </c>
@@ -7119,7 +7131,7 @@
       <c r="O37" s="120"/>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A38" s="115" t="s">
+      <c r="A38" s="200" t="s">
         <v>269</v>
       </c>
       <c r="B38" s="115" t="s">
@@ -7160,11 +7172,11 @@
       <c r="O38" s="115"/>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A39" s="130"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="147"/>
+      <c r="A39" s="201"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="145"/>
       <c r="F39" s="118">
         <v>1</v>
       </c>
@@ -7185,7 +7197,7 @@
       <c r="O39" s="120"/>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="200" t="s">
         <v>274</v>
       </c>
       <c r="B40" s="115" t="s">
@@ -7230,11 +7242,11 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A41" s="130"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="147"/>
+      <c r="A41" s="201"/>
+      <c r="B41" s="129"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="129"/>
+      <c r="E41" s="145"/>
       <c r="F41" s="118">
         <v>1</v>
       </c>
@@ -7255,28 +7267,28 @@
       <c r="O41" s="120"/>
     </row>
     <row r="42" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A42" s="115" t="s">
+      <c r="A42" s="200" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="198" t="s">
+      <c r="B42" s="149" t="s">
         <v>279</v>
       </c>
       <c r="C42" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="198" t="s">
+      <c r="D42" s="149" t="s">
         <v>241</v>
       </c>
-      <c r="E42" s="160">
+      <c r="E42" s="152">
         <v>45664</v>
       </c>
       <c r="F42" s="115">
         <v>1</v>
       </c>
-      <c r="G42" s="198" t="s">
+      <c r="G42" s="149" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="198">
+      <c r="H42" s="149">
         <v>3</v>
       </c>
       <c r="I42" s="115">
@@ -7295,25 +7307,25 @@
         <v>20</v>
       </c>
       <c r="N42" s="115"/>
-      <c r="O42" s="198" t="s">
+      <c r="O42" s="149" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A43" s="115" t="s">
+      <c r="A43" s="200" t="s">
         <v>281</v>
       </c>
-      <c r="B43" s="199"/>
+      <c r="B43" s="150"/>
       <c r="C43" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="161"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="153"/>
       <c r="F43" s="115">
         <v>2</v>
       </c>
-      <c r="G43" s="199"/>
-      <c r="H43" s="199"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
       <c r="I43" s="115">
         <v>1.4</v>
       </c>
@@ -7330,23 +7342,23 @@
         <v>20</v>
       </c>
       <c r="N43" s="115"/>
-      <c r="O43" s="199"/>
+      <c r="O43" s="150"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A44" s="115" t="s">
+      <c r="A44" s="200" t="s">
         <v>283</v>
       </c>
-      <c r="B44" s="200"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="200"/>
-      <c r="E44" s="162"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="154"/>
       <c r="F44" s="115">
         <v>3</v>
       </c>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
       <c r="I44" s="115">
         <v>2</v>
       </c>
@@ -7363,14 +7375,14 @@
         <v>20</v>
       </c>
       <c r="N44" s="115"/>
-      <c r="O44" s="200"/>
+      <c r="O44" s="151"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A45" s="130"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="147"/>
+      <c r="A45" s="201"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="145"/>
       <c r="F45" s="118">
         <v>3</v>
       </c>
@@ -7391,7 +7403,7 @@
       <c r="O45" s="120"/>
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="200" t="s">
         <v>285</v>
       </c>
       <c r="B46" s="115" t="s">
@@ -7436,11 +7448,11 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A47" s="130"/>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="147"/>
+      <c r="A47" s="201"/>
+      <c r="B47" s="129"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="145"/>
       <c r="F47" s="118">
         <v>1</v>
       </c>
@@ -7461,7 +7473,7 @@
       <c r="O47" s="120"/>
     </row>
     <row r="48" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A48" s="90" t="s">
+      <c r="A48" s="202" t="s">
         <v>289</v>
       </c>
       <c r="B48" s="90" t="s">
@@ -7508,11 +7520,11 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A49" s="130"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="147"/>
+      <c r="A49" s="201"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="145"/>
       <c r="F49" s="118">
         <v>1</v>
       </c>
@@ -7533,7 +7545,7 @@
       <c r="O49" s="120"/>
     </row>
     <row r="50" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A50" s="90" t="s">
+      <c r="A50" s="202" t="s">
         <v>293</v>
       </c>
       <c r="B50" s="90" t="s">
@@ -7578,11 +7590,11 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A51" s="130"/>
-      <c r="B51" s="130"/>
-      <c r="C51" s="130"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="147"/>
+      <c r="A51" s="201"/>
+      <c r="B51" s="129"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="145"/>
       <c r="F51" s="118">
         <v>1</v>
       </c>
@@ -7603,75 +7615,75 @@
       <c r="O51" s="120"/>
     </row>
     <row r="52" spans="1:15" s="101" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A52" s="90" t="s">
+      <c r="A52" s="202" t="s">
         <v>296</v>
       </c>
-      <c r="B52" s="196" t="s">
+      <c r="B52" s="162" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="196" t="s">
+      <c r="C52" s="162" t="s">
         <v>298</v>
       </c>
-      <c r="D52" s="196" t="s">
+      <c r="D52" s="162" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="186">
+      <c r="E52" s="170">
         <v>45666</v>
       </c>
       <c r="F52" s="90">
         <v>1</v>
       </c>
-      <c r="G52" s="196" t="s">
+      <c r="G52" s="162" t="s">
         <v>97</v>
       </c>
       <c r="H52" s="90"/>
-      <c r="I52" s="196">
+      <c r="I52" s="162">
         <v>10.199999999999999</v>
       </c>
-      <c r="J52" s="194">
+      <c r="J52" s="160">
         <v>0.10335</v>
       </c>
-      <c r="K52" s="196">
+      <c r="K52" s="162">
         <v>53</v>
       </c>
-      <c r="L52" s="196">
+      <c r="L52" s="162">
         <v>39</v>
       </c>
-      <c r="M52" s="196">
+      <c r="M52" s="162">
         <v>50</v>
       </c>
       <c r="N52" s="90"/>
-      <c r="O52" s="196" t="s">
+      <c r="O52" s="162" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A53" s="90" t="s">
+      <c r="A53" s="202" t="s">
         <v>300</v>
       </c>
-      <c r="B53" s="197"/>
-      <c r="C53" s="197"/>
-      <c r="D53" s="197"/>
-      <c r="E53" s="188"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="171"/>
       <c r="F53" s="90">
         <v>2</v>
       </c>
-      <c r="G53" s="197"/>
+      <c r="G53" s="163"/>
       <c r="H53" s="90"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="195"/>
-      <c r="K53" s="197"/>
-      <c r="L53" s="197"/>
-      <c r="M53" s="197"/>
+      <c r="I53" s="163"/>
+      <c r="J53" s="161"/>
+      <c r="K53" s="163"/>
+      <c r="L53" s="163"/>
+      <c r="M53" s="163"/>
       <c r="N53" s="90"/>
-      <c r="O53" s="197"/>
+      <c r="O53" s="163"/>
     </row>
     <row r="54" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A54" s="130"/>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="147"/>
+      <c r="A54" s="201"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="145"/>
       <c r="F54" s="118">
         <v>2</v>
       </c>
@@ -7692,28 +7704,28 @@
       <c r="O54" s="120"/>
     </row>
     <row r="55" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="202" t="s">
         <v>301</v>
       </c>
-      <c r="B55" s="179" t="s">
+      <c r="B55" s="164" t="s">
         <v>302</v>
       </c>
-      <c r="C55" s="179" t="s">
+      <c r="C55" s="164" t="s">
         <v>303</v>
       </c>
-      <c r="D55" s="179" t="s">
+      <c r="D55" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="181">
+      <c r="E55" s="166">
         <v>45668</v>
       </c>
       <c r="F55" s="94">
         <v>1</v>
       </c>
-      <c r="G55" s="172" t="s">
+      <c r="G55" s="168" t="s">
         <v>304</v>
       </c>
-      <c r="H55" s="179">
+      <c r="H55" s="164">
         <v>1676</v>
       </c>
       <c r="I55" s="94">
@@ -7733,23 +7745,23 @@
         <v>43</v>
       </c>
       <c r="N55" s="94"/>
-      <c r="O55" s="179" t="s">
+      <c r="O55" s="164" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A56" s="94" t="s">
+      <c r="A56" s="202" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="180"/>
-      <c r="C56" s="180"/>
-      <c r="D56" s="180"/>
-      <c r="E56" s="182"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="167"/>
       <c r="F56" s="94">
         <v>2</v>
       </c>
-      <c r="G56" s="174"/>
-      <c r="H56" s="180"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="165"/>
       <c r="I56" s="94">
         <v>16.7</v>
       </c>
@@ -7767,14 +7779,14 @@
         <v>30</v>
       </c>
       <c r="N56" s="94"/>
-      <c r="O56" s="180"/>
+      <c r="O56" s="165"/>
     </row>
     <row r="57" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A57" s="130"/>
-      <c r="B57" s="130"/>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="147"/>
+      <c r="A57" s="201"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="145"/>
       <c r="F57" s="102">
         <v>2</v>
       </c>
@@ -7795,7 +7807,7 @@
       <c r="O57" s="96"/>
     </row>
     <row r="58" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="202" t="s">
         <v>307</v>
       </c>
       <c r="B58" s="99" t="s">
@@ -7839,11 +7851,11 @@
       <c r="O58" s="99"/>
     </row>
     <row r="59" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A59" s="130"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="147"/>
+      <c r="A59" s="201"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="145"/>
       <c r="F59" s="102">
         <v>1</v>
       </c>
@@ -7864,28 +7876,28 @@
       <c r="O59" s="104"/>
     </row>
     <row r="60" spans="1:15" s="101" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A60" s="94" t="s">
+      <c r="A60" s="202" t="s">
         <v>312</v>
       </c>
-      <c r="B60" s="179" t="s">
+      <c r="B60" s="164" t="s">
         <v>313</v>
       </c>
-      <c r="C60" s="179" t="s">
+      <c r="C60" s="164" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="179" t="s">
+      <c r="D60" s="164" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="181">
+      <c r="E60" s="166">
         <v>45670</v>
       </c>
       <c r="F60" s="94">
         <v>1</v>
       </c>
-      <c r="G60" s="172" t="s">
+      <c r="G60" s="168" t="s">
         <v>315</v>
       </c>
-      <c r="H60" s="179">
+      <c r="H60" s="164">
         <v>145</v>
       </c>
       <c r="I60" s="94">
@@ -7905,23 +7917,23 @@
         <v>23</v>
       </c>
       <c r="N60" s="53"/>
-      <c r="O60" s="179" t="s">
+      <c r="O60" s="164" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A61" s="94" t="s">
+      <c r="A61" s="202" t="s">
         <v>317</v>
       </c>
-      <c r="B61" s="180"/>
-      <c r="C61" s="180"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="182"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="167"/>
       <c r="F61" s="94">
         <v>2</v>
       </c>
-      <c r="G61" s="174"/>
-      <c r="H61" s="180"/>
+      <c r="G61" s="169"/>
+      <c r="H61" s="165"/>
       <c r="I61" s="94">
         <v>13.7</v>
       </c>
@@ -7939,14 +7951,14 @@
         <v>49</v>
       </c>
       <c r="N61" s="94"/>
-      <c r="O61" s="180"/>
+      <c r="O61" s="165"/>
     </row>
     <row r="62" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A62" s="130"/>
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="147"/>
+      <c r="A62" s="201"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="145"/>
       <c r="F62" s="102">
         <v>2</v>
       </c>
@@ -7967,7 +7979,7 @@
       <c r="O62" s="96"/>
     </row>
     <row r="63" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A63" s="99" t="s">
+      <c r="A63" s="202" t="s">
         <v>318</v>
       </c>
       <c r="B63" s="99" t="s">
@@ -8009,11 +8021,11 @@
       <c r="O63" s="90"/>
     </row>
     <row r="64" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A64" s="130"/>
-      <c r="B64" s="130"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="147"/>
+      <c r="A64" s="201"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="145"/>
       <c r="F64" s="102">
         <v>1</v>
       </c>
@@ -8034,7 +8046,7 @@
       <c r="O64" s="104"/>
     </row>
     <row r="65" spans="1:15" s="101" customFormat="1" ht="37.5">
-      <c r="A65" s="99" t="s">
+      <c r="A65" s="202" t="s">
         <v>323</v>
       </c>
       <c r="B65" s="99" t="s">
@@ -8076,11 +8088,11 @@
       <c r="O65" s="90"/>
     </row>
     <row r="66" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A66" s="130"/>
-      <c r="B66" s="130"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="147"/>
+      <c r="A66" s="201"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="145"/>
       <c r="F66" s="102">
         <v>1</v>
       </c>
@@ -8101,7 +8113,7 @@
       <c r="O66" s="104"/>
     </row>
     <row r="67" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A67" s="99" t="s">
+      <c r="A67" s="202" t="s">
         <v>327</v>
       </c>
       <c r="B67" s="99" t="s">
@@ -8143,11 +8155,11 @@
       <c r="O67" s="99"/>
     </row>
     <row r="68" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A68" s="130"/>
-      <c r="B68" s="130"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="147"/>
+      <c r="A68" s="201"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="129"/>
+      <c r="D68" s="129"/>
+      <c r="E68" s="145"/>
       <c r="F68" s="102">
         <v>1</v>
       </c>
@@ -8168,7 +8180,7 @@
       <c r="O68" s="104"/>
     </row>
     <row r="69" spans="1:15" s="101" customFormat="1" ht="60.75">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="202" t="s">
         <v>332</v>
       </c>
       <c r="B69" s="94" t="s">
@@ -8215,11 +8227,11 @@
       </c>
     </row>
     <row r="70" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A70" s="130"/>
-      <c r="B70" s="130"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="147"/>
+      <c r="A70" s="201"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="129"/>
+      <c r="D70" s="129"/>
+      <c r="E70" s="145"/>
       <c r="F70" s="102">
         <v>1</v>
       </c>
@@ -8238,7 +8250,7 @@
       <c r="O70" s="97"/>
     </row>
     <row r="71" spans="1:15" s="101" customFormat="1" ht="60.75">
-      <c r="A71" s="94" t="s">
+      <c r="A71" s="202" t="s">
         <v>339</v>
       </c>
       <c r="B71" s="94" t="s">
@@ -8283,11 +8295,11 @@
       </c>
     </row>
     <row r="72" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A72" s="130"/>
-      <c r="B72" s="130"/>
-      <c r="C72" s="130"/>
-      <c r="D72" s="130"/>
-      <c r="E72" s="147"/>
+      <c r="A72" s="201"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="129"/>
+      <c r="E72" s="145"/>
       <c r="F72" s="102">
         <v>1</v>
       </c>
@@ -8306,14 +8318,14 @@
       <c r="O72" s="97"/>
     </row>
     <row r="73" spans="1:15" s="101" customFormat="1" ht="37.5">
-      <c r="A73" s="125"/>
-      <c r="B73" s="126" t="s">
+      <c r="A73" s="203"/>
+      <c r="B73" s="125" t="s">
         <v>129</v>
       </c>
       <c r="C73" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="D73" s="126" t="s">
+      <c r="D73" s="125" t="s">
         <v>75</v>
       </c>
       <c r="E73" s="98">
@@ -8322,7 +8334,7 @@
       <c r="F73" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="G73" s="127" t="s">
+      <c r="G73" s="126" t="s">
         <v>76</v>
       </c>
       <c r="H73" s="94">
@@ -8350,11 +8362,11 @@
       <c r="O73" s="94"/>
     </row>
     <row r="74" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A74" s="130"/>
-      <c r="B74" s="130"/>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="147"/>
+      <c r="A74" s="201"/>
+      <c r="B74" s="129"/>
+      <c r="C74" s="129"/>
+      <c r="D74" s="129"/>
+      <c r="E74" s="145"/>
       <c r="F74" s="102">
         <v>1</v>
       </c>
@@ -8373,23 +8385,23 @@
       <c r="O74" s="97"/>
     </row>
     <row r="75" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A75" s="99" t="s">
+      <c r="A75" s="202" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="183" t="s">
+      <c r="B75" s="172" t="s">
         <v>345</v>
       </c>
-      <c r="C75" s="183"/>
-      <c r="D75" s="183" t="s">
+      <c r="C75" s="172"/>
+      <c r="D75" s="172" t="s">
         <v>346</v>
       </c>
-      <c r="E75" s="186">
+      <c r="E75" s="170">
         <v>45673</v>
       </c>
       <c r="F75" s="99">
         <v>1</v>
       </c>
-      <c r="G75" s="183" t="s">
+      <c r="G75" s="172" t="s">
         <v>347</v>
       </c>
       <c r="H75" s="99">
@@ -8415,17 +8427,17 @@
       <c r="O75" s="99"/>
     </row>
     <row r="76" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A76" s="99" t="s">
+      <c r="A76" s="202" t="s">
         <v>348</v>
       </c>
-      <c r="B76" s="184"/>
-      <c r="C76" s="184"/>
-      <c r="D76" s="184"/>
-      <c r="E76" s="187"/>
+      <c r="B76" s="173"/>
+      <c r="C76" s="173"/>
+      <c r="D76" s="173"/>
+      <c r="E76" s="175"/>
       <c r="F76" s="99">
         <v>2</v>
       </c>
-      <c r="G76" s="184"/>
+      <c r="G76" s="173"/>
       <c r="H76" s="99">
         <v>240</v>
       </c>
@@ -8449,17 +8461,17 @@
       <c r="O76" s="99"/>
     </row>
     <row r="77" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A77" s="99" t="s">
+      <c r="A77" s="202" t="s">
         <v>349</v>
       </c>
-      <c r="B77" s="184"/>
-      <c r="C77" s="184"/>
-      <c r="D77" s="184"/>
-      <c r="E77" s="187"/>
+      <c r="B77" s="173"/>
+      <c r="C77" s="173"/>
+      <c r="D77" s="173"/>
+      <c r="E77" s="175"/>
       <c r="F77" s="99">
         <v>3</v>
       </c>
-      <c r="G77" s="184"/>
+      <c r="G77" s="173"/>
       <c r="H77" s="99">
         <v>300</v>
       </c>
@@ -8483,17 +8495,17 @@
       <c r="O77" s="99"/>
     </row>
     <row r="78" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A78" s="99" t="s">
+      <c r="A78" s="202" t="s">
         <v>350</v>
       </c>
-      <c r="B78" s="184"/>
-      <c r="C78" s="184"/>
-      <c r="D78" s="184"/>
-      <c r="E78" s="187"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
+      <c r="D78" s="173"/>
+      <c r="E78" s="175"/>
       <c r="F78" s="99">
         <v>4</v>
       </c>
-      <c r="G78" s="184"/>
+      <c r="G78" s="173"/>
       <c r="H78" s="99">
         <v>230</v>
       </c>
@@ -8517,17 +8529,17 @@
       <c r="O78" s="99"/>
     </row>
     <row r="79" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A79" s="99" t="s">
+      <c r="A79" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="B79" s="184"/>
-      <c r="C79" s="184"/>
-      <c r="D79" s="184"/>
-      <c r="E79" s="187"/>
+      <c r="B79" s="173"/>
+      <c r="C79" s="173"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="175"/>
       <c r="F79" s="99">
         <v>5</v>
       </c>
-      <c r="G79" s="184"/>
+      <c r="G79" s="173"/>
       <c r="H79" s="99">
         <v>220</v>
       </c>
@@ -8551,17 +8563,17 @@
       <c r="O79" s="99"/>
     </row>
     <row r="80" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A80" s="99" t="s">
+      <c r="A80" s="202" t="s">
         <v>352</v>
       </c>
-      <c r="B80" s="184"/>
-      <c r="C80" s="184"/>
-      <c r="D80" s="184"/>
-      <c r="E80" s="187"/>
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="173"/>
+      <c r="E80" s="175"/>
       <c r="F80" s="99">
         <v>6</v>
       </c>
-      <c r="G80" s="184"/>
+      <c r="G80" s="173"/>
       <c r="H80" s="99">
         <v>200</v>
       </c>
@@ -8585,17 +8597,17 @@
       <c r="O80" s="99"/>
     </row>
     <row r="81" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A81" s="99" t="s">
+      <c r="A81" s="202" t="s">
         <v>353</v>
       </c>
-      <c r="B81" s="184"/>
-      <c r="C81" s="184"/>
-      <c r="D81" s="184"/>
-      <c r="E81" s="187"/>
+      <c r="B81" s="173"/>
+      <c r="C81" s="173"/>
+      <c r="D81" s="173"/>
+      <c r="E81" s="175"/>
       <c r="F81" s="99">
         <v>7</v>
       </c>
-      <c r="G81" s="184"/>
+      <c r="G81" s="173"/>
       <c r="H81" s="99">
         <v>190</v>
       </c>
@@ -8619,17 +8631,17 @@
       <c r="O81" s="99"/>
     </row>
     <row r="82" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A82" s="99" t="s">
+      <c r="A82" s="202" t="s">
         <v>354</v>
       </c>
-      <c r="B82" s="184"/>
-      <c r="C82" s="184"/>
-      <c r="D82" s="184"/>
-      <c r="E82" s="187"/>
+      <c r="B82" s="173"/>
+      <c r="C82" s="173"/>
+      <c r="D82" s="173"/>
+      <c r="E82" s="175"/>
       <c r="F82" s="99">
         <v>8</v>
       </c>
-      <c r="G82" s="184"/>
+      <c r="G82" s="173"/>
       <c r="H82" s="99">
         <v>200</v>
       </c>
@@ -8653,17 +8665,17 @@
       <c r="O82" s="99"/>
     </row>
     <row r="83" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A83" s="99" t="s">
+      <c r="A83" s="202" t="s">
         <v>355</v>
       </c>
-      <c r="B83" s="184"/>
-      <c r="C83" s="184"/>
-      <c r="D83" s="184"/>
-      <c r="E83" s="187"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="173"/>
+      <c r="D83" s="173"/>
+      <c r="E83" s="175"/>
       <c r="F83" s="99">
         <v>9</v>
       </c>
-      <c r="G83" s="184"/>
+      <c r="G83" s="173"/>
       <c r="H83" s="99">
         <v>200</v>
       </c>
@@ -8687,17 +8699,17 @@
       <c r="O83" s="99"/>
     </row>
     <row r="84" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A84" s="99" t="s">
+      <c r="A84" s="202" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="184"/>
-      <c r="C84" s="184"/>
-      <c r="D84" s="184"/>
-      <c r="E84" s="187"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
+      <c r="D84" s="173"/>
+      <c r="E84" s="175"/>
       <c r="F84" s="99">
         <v>10</v>
       </c>
-      <c r="G84" s="184"/>
+      <c r="G84" s="173"/>
       <c r="H84" s="99">
         <v>200</v>
       </c>
@@ -8721,17 +8733,17 @@
       <c r="O84" s="99"/>
     </row>
     <row r="85" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A85" s="99" t="s">
+      <c r="A85" s="202" t="s">
         <v>357</v>
       </c>
-      <c r="B85" s="185"/>
-      <c r="C85" s="185"/>
-      <c r="D85" s="185"/>
-      <c r="E85" s="188"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="174"/>
+      <c r="E85" s="171"/>
       <c r="F85" s="99">
         <v>11</v>
       </c>
-      <c r="G85" s="185"/>
+      <c r="G85" s="174"/>
       <c r="H85" s="99">
         <v>200</v>
       </c>
@@ -8755,11 +8767,11 @@
       <c r="O85" s="99"/>
     </row>
     <row r="86" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A86" s="130"/>
-      <c r="B86" s="130"/>
-      <c r="C86" s="130"/>
-      <c r="D86" s="130"/>
-      <c r="E86" s="147"/>
+      <c r="A86" s="201"/>
+      <c r="B86" s="129"/>
+      <c r="C86" s="129"/>
+      <c r="D86" s="129"/>
+      <c r="E86" s="145"/>
       <c r="F86" s="102">
         <v>11</v>
       </c>
@@ -8780,7 +8792,7 @@
       <c r="O86" s="104"/>
     </row>
     <row r="87" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A87" s="94" t="s">
+      <c r="A87" s="202" t="s">
         <v>358</v>
       </c>
       <c r="B87" s="94" t="s">
@@ -8789,7 +8801,7 @@
       <c r="C87" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="179" t="s">
+      <c r="D87" s="164" t="s">
         <v>361</v>
       </c>
       <c r="E87" s="98">
@@ -8798,91 +8810,91 @@
       <c r="F87" s="94">
         <v>1</v>
       </c>
-      <c r="G87" s="172" t="s">
+      <c r="G87" s="168" t="s">
         <v>362</v>
       </c>
-      <c r="H87" s="179">
+      <c r="H87" s="164">
         <v>62</v>
       </c>
-      <c r="I87" s="179">
+      <c r="I87" s="164">
         <v>11.7</v>
       </c>
-      <c r="J87" s="191">
+      <c r="J87" s="179">
         <f>K87*L87*M87/1000000</f>
         <v>4.8543999999999997E-2</v>
       </c>
-      <c r="K87" s="179">
+      <c r="K87" s="164">
         <v>32</v>
       </c>
-      <c r="L87" s="179">
+      <c r="L87" s="164">
         <v>37</v>
       </c>
-      <c r="M87" s="179">
+      <c r="M87" s="164">
         <v>41</v>
       </c>
       <c r="N87" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="O87" s="172" t="s">
+      <c r="O87" s="168" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A88" s="94" t="s">
+      <c r="A88" s="202" t="s">
         <v>365</v>
       </c>
-      <c r="B88" s="179" t="s">
+      <c r="B88" s="164" t="s">
         <v>366</v>
       </c>
-      <c r="C88" s="179" t="s">
+      <c r="C88" s="164" t="s">
         <v>367</v>
       </c>
-      <c r="D88" s="190"/>
-      <c r="E88" s="181">
+      <c r="D88" s="176"/>
+      <c r="E88" s="166">
         <v>45673</v>
       </c>
       <c r="F88" s="94">
         <v>1</v>
       </c>
-      <c r="G88" s="173"/>
-      <c r="H88" s="190"/>
-      <c r="I88" s="190"/>
-      <c r="J88" s="192"/>
-      <c r="K88" s="190"/>
-      <c r="L88" s="190"/>
-      <c r="M88" s="190"/>
-      <c r="N88" s="172" t="s">
+      <c r="G88" s="177"/>
+      <c r="H88" s="176"/>
+      <c r="I88" s="176"/>
+      <c r="J88" s="180"/>
+      <c r="K88" s="176"/>
+      <c r="L88" s="176"/>
+      <c r="M88" s="176"/>
+      <c r="N88" s="168" t="s">
         <v>368</v>
       </c>
-      <c r="O88" s="173"/>
+      <c r="O88" s="177"/>
     </row>
     <row r="89" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A89" s="94" t="s">
+      <c r="A89" s="202" t="s">
         <v>369</v>
       </c>
-      <c r="B89" s="180"/>
-      <c r="C89" s="180"/>
-      <c r="D89" s="180"/>
-      <c r="E89" s="182"/>
+      <c r="B89" s="165"/>
+      <c r="C89" s="165"/>
+      <c r="D89" s="165"/>
+      <c r="E89" s="167"/>
       <c r="F89" s="94">
         <v>2</v>
       </c>
-      <c r="G89" s="174"/>
-      <c r="H89" s="180"/>
-      <c r="I89" s="180"/>
-      <c r="J89" s="193"/>
-      <c r="K89" s="180"/>
-      <c r="L89" s="180"/>
-      <c r="M89" s="180"/>
-      <c r="N89" s="174"/>
-      <c r="O89" s="174"/>
+      <c r="G89" s="169"/>
+      <c r="H89" s="165"/>
+      <c r="I89" s="165"/>
+      <c r="J89" s="181"/>
+      <c r="K89" s="165"/>
+      <c r="L89" s="165"/>
+      <c r="M89" s="165"/>
+      <c r="N89" s="169"/>
+      <c r="O89" s="169"/>
     </row>
     <row r="90" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A90" s="130"/>
-      <c r="B90" s="130"/>
-      <c r="C90" s="130"/>
-      <c r="D90" s="130"/>
-      <c r="E90" s="147"/>
+      <c r="A90" s="201"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="129"/>
+      <c r="D90" s="129"/>
+      <c r="E90" s="145"/>
       <c r="F90" s="102">
         <v>1</v>
       </c>
@@ -8892,18 +8904,18 @@
         <f>SUM(I87:I89)</f>
         <v>11.7</v>
       </c>
-      <c r="J90" s="128">
+      <c r="J90" s="127">
         <f>SUM(J87:J89)</f>
         <v>4.8543999999999997E-2</v>
       </c>
       <c r="K90" s="110"/>
       <c r="L90" s="110"/>
       <c r="M90" s="110"/>
-      <c r="N90" s="129"/>
-      <c r="O90" s="129"/>
+      <c r="N90" s="128"/>
+      <c r="O90" s="128"/>
     </row>
     <row r="91" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A91" s="99" t="s">
+      <c r="A91" s="202" t="s">
         <v>370</v>
       </c>
       <c r="B91" s="99" t="s">
@@ -8948,11 +8960,11 @@
       </c>
     </row>
     <row r="92" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A92" s="130"/>
-      <c r="B92" s="130"/>
-      <c r="C92" s="130"/>
-      <c r="D92" s="130"/>
-      <c r="E92" s="147"/>
+      <c r="A92" s="201"/>
+      <c r="B92" s="129"/>
+      <c r="C92" s="129"/>
+      <c r="D92" s="129"/>
+      <c r="E92" s="145"/>
       <c r="F92" s="102">
         <v>1</v>
       </c>
@@ -8973,7 +8985,7 @@
       <c r="O92" s="92"/>
     </row>
     <row r="93" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A93" s="99" t="s">
+      <c r="A93" s="202" t="s">
         <v>59</v>
       </c>
       <c r="B93" s="99" t="s">
@@ -9016,11 +9028,11 @@
       <c r="O93" s="99"/>
     </row>
     <row r="94" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A94" s="42"/>
+      <c r="A94" s="201"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
       <c r="D94" s="42"/>
-      <c r="E94" s="148"/>
+      <c r="E94" s="146"/>
       <c r="F94" s="102">
         <v>1</v>
       </c>
@@ -9041,7 +9053,7 @@
       <c r="O94" s="92"/>
     </row>
     <row r="95" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A95" s="99" t="s">
+      <c r="A95" s="202" t="s">
         <v>142</v>
       </c>
       <c r="B95" s="99" t="s">
@@ -9084,11 +9096,11 @@
       <c r="O95" s="99"/>
     </row>
     <row r="96" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A96" s="42"/>
+      <c r="A96" s="201"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
       <c r="D96" s="42"/>
-      <c r="E96" s="148"/>
+      <c r="E96" s="146"/>
       <c r="F96" s="102">
         <v>1</v>
       </c>
@@ -9109,7 +9121,7 @@
       <c r="O96" s="92"/>
     </row>
     <row r="97" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A97" s="99" t="s">
+      <c r="A97" s="202" t="s">
         <v>145</v>
       </c>
       <c r="B97" s="99" t="s">
@@ -9152,11 +9164,11 @@
       <c r="O97" s="99"/>
     </row>
     <row r="98" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A98" s="42"/>
+      <c r="A98" s="201"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
       <c r="D98" s="42"/>
-      <c r="E98" s="148"/>
+      <c r="E98" s="146"/>
       <c r="F98" s="102">
         <v>1</v>
       </c>
@@ -9177,7 +9189,7 @@
       <c r="O98" s="92"/>
     </row>
     <row r="99" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A99" s="99" t="s">
+      <c r="A99" s="202" t="s">
         <v>149</v>
       </c>
       <c r="B99" s="99" t="s">
@@ -9218,11 +9230,11 @@
       <c r="O99" s="99"/>
     </row>
     <row r="100" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A100" s="42"/>
+      <c r="A100" s="201"/>
       <c r="B100" s="42"/>
       <c r="C100" s="42"/>
       <c r="D100" s="42"/>
-      <c r="E100" s="148"/>
+      <c r="E100" s="146"/>
       <c r="F100" s="102">
         <v>1</v>
       </c>
@@ -9243,7 +9255,7 @@
       <c r="O100" s="92"/>
     </row>
     <row r="101" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A101" s="90" t="s">
+      <c r="A101" s="202" t="s">
         <v>153</v>
       </c>
       <c r="B101" s="99" t="s">
@@ -9286,11 +9298,11 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A102" s="131"/>
-      <c r="B102" s="130"/>
-      <c r="C102" s="130"/>
-      <c r="D102" s="130"/>
-      <c r="E102" s="147"/>
+      <c r="A102" s="204"/>
+      <c r="B102" s="129"/>
+      <c r="C102" s="129"/>
+      <c r="D102" s="129"/>
+      <c r="E102" s="145"/>
       <c r="F102" s="102">
         <v>1</v>
       </c>
@@ -9311,7 +9323,7 @@
       <c r="O102" s="92"/>
     </row>
     <row r="103" spans="1:15" s="101" customFormat="1" ht="63">
-      <c r="A103" s="94" t="s">
+      <c r="A103" s="202" t="s">
         <v>157</v>
       </c>
       <c r="B103" s="94" t="s">
@@ -9352,11 +9364,11 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A104" s="42"/>
+      <c r="A104" s="201"/>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
-      <c r="E104" s="148"/>
+      <c r="E104" s="146"/>
       <c r="F104" s="102">
         <v>1</v>
       </c>
@@ -9375,7 +9387,7 @@
       <c r="O104" s="97"/>
     </row>
     <row r="105" spans="1:15" s="101" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A105" s="99" t="s">
+      <c r="A105" s="202" t="s">
         <v>161</v>
       </c>
       <c r="B105" s="99" t="s">
@@ -9419,11 +9431,11 @@
       </c>
     </row>
     <row r="106" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A106" s="42"/>
+      <c r="A106" s="201"/>
       <c r="B106" s="42"/>
       <c r="C106" s="42"/>
       <c r="D106" s="42"/>
-      <c r="E106" s="148"/>
+      <c r="E106" s="146"/>
       <c r="F106" s="102">
         <v>1</v>
       </c>
@@ -9444,7 +9456,7 @@
       <c r="O106" s="104"/>
     </row>
     <row r="107" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A107" s="99" t="s">
+      <c r="A107" s="202" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="99" t="s">
@@ -9485,11 +9497,11 @@
       <c r="O107" s="99"/>
     </row>
     <row r="108" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A108" s="42"/>
+      <c r="A108" s="201"/>
       <c r="B108" s="42"/>
       <c r="C108" s="42"/>
       <c r="D108" s="42"/>
-      <c r="E108" s="148"/>
+      <c r="E108" s="146"/>
       <c r="F108" s="102">
         <v>1</v>
       </c>
@@ -9510,7 +9522,7 @@
       <c r="O108" s="104"/>
     </row>
     <row r="109" spans="1:15" s="101" customFormat="1" ht="58.5">
-      <c r="A109" s="99" t="s">
+      <c r="A109" s="202" t="s">
         <v>168</v>
       </c>
       <c r="B109" s="99" t="s">
@@ -9555,11 +9567,11 @@
       </c>
     </row>
     <row r="110" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A110" s="42"/>
+      <c r="A110" s="201"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
       <c r="D110" s="42"/>
-      <c r="E110" s="148"/>
+      <c r="E110" s="146"/>
       <c r="F110" s="102">
         <v>1</v>
       </c>
@@ -9581,22 +9593,22 @@
       <c r="A111" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="183" t="s">
+      <c r="B111" s="172" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="183" t="s">
+      <c r="C111" s="172" t="s">
         <v>174</v>
       </c>
-      <c r="D111" s="183" t="s">
+      <c r="D111" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="186">
+      <c r="E111" s="170">
         <v>45680</v>
       </c>
       <c r="F111" s="99">
         <v>1</v>
       </c>
-      <c r="G111" s="189" t="s">
+      <c r="G111" s="178" t="s">
         <v>175</v>
       </c>
       <c r="H111" s="99"/>
@@ -9623,14 +9635,14 @@
       <c r="A112" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="B112" s="184"/>
-      <c r="C112" s="184"/>
-      <c r="D112" s="184"/>
-      <c r="E112" s="187"/>
+      <c r="B112" s="173"/>
+      <c r="C112" s="173"/>
+      <c r="D112" s="173"/>
+      <c r="E112" s="175"/>
       <c r="F112" s="99">
         <v>2</v>
       </c>
-      <c r="G112" s="184"/>
+      <c r="G112" s="173"/>
       <c r="H112" s="99"/>
       <c r="I112" s="99">
         <v>9.1</v>
@@ -9655,14 +9667,14 @@
       <c r="A113" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="B113" s="184"/>
-      <c r="C113" s="184"/>
-      <c r="D113" s="184"/>
-      <c r="E113" s="187"/>
+      <c r="B113" s="173"/>
+      <c r="C113" s="173"/>
+      <c r="D113" s="173"/>
+      <c r="E113" s="175"/>
       <c r="F113" s="99">
         <v>3</v>
       </c>
-      <c r="G113" s="184"/>
+      <c r="G113" s="173"/>
       <c r="H113" s="99"/>
       <c r="I113" s="99">
         <v>24.1</v>
@@ -9687,14 +9699,14 @@
       <c r="A114" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="B114" s="185"/>
-      <c r="C114" s="185"/>
-      <c r="D114" s="185"/>
-      <c r="E114" s="188"/>
+      <c r="B114" s="174"/>
+      <c r="C114" s="174"/>
+      <c r="D114" s="174"/>
+      <c r="E114" s="171"/>
       <c r="F114" s="99">
         <v>4</v>
       </c>
-      <c r="G114" s="185"/>
+      <c r="G114" s="174"/>
       <c r="H114" s="99"/>
       <c r="I114" s="99">
         <v>6.4</v>
@@ -9720,7 +9732,7 @@
       <c r="B115" s="42"/>
       <c r="C115" s="42"/>
       <c r="D115" s="42"/>
-      <c r="E115" s="148"/>
+      <c r="E115" s="146"/>
       <c r="F115" s="102">
         <v>4</v>
       </c>
@@ -9741,15 +9753,16 @@
       <c r="O115" s="104"/>
     </row>
     <row r="116" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E116" s="149"/>
+      <c r="E116" s="147"/>
     </row>
     <row r="133" spans="1:16" ht="40.5">
-      <c r="A133" s="151" t="s">
+      <c r="A133" s="198" t="s">
         <v>450</v>
       </c>
-      <c r="B133" s="151"/>
+      <c r="B133" s="198"/>
     </row>
     <row r="135" spans="1:16" ht="84">
+      <c r="A135" s="205"/>
       <c r="B135" s="81" t="s">
         <v>374</v>
       </c>
@@ -9795,12 +9808,13 @@
       </c>
     </row>
     <row r="136" spans="1:16" ht="22.5">
-      <c r="B136" s="163" t="s">
+      <c r="A136" s="205"/>
+      <c r="B136" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="163"/>
-      <c r="D136" s="163"/>
-      <c r="E136" s="163"/>
+      <c r="C136" s="186"/>
+      <c r="D136" s="186"/>
+      <c r="E136" s="186"/>
       <c r="F136" s="64" t="s">
         <v>378</v>
       </c>
@@ -9820,16 +9834,17 @@
       <c r="P136" s="67"/>
     </row>
     <row r="137" spans="1:16" ht="37.5">
-      <c r="B137" s="166" t="s">
+      <c r="A137" s="205"/>
+      <c r="B137" s="185" t="s">
         <v>379</v>
       </c>
-      <c r="C137" s="172" t="s">
+      <c r="C137" s="168" t="s">
         <v>380</v>
       </c>
-      <c r="D137" s="166" t="s">
+      <c r="D137" s="185" t="s">
         <v>381</v>
       </c>
-      <c r="E137" s="169">
+      <c r="E137" s="187">
         <v>45659</v>
       </c>
       <c r="F137" s="62" t="s">
@@ -9841,7 +9856,7 @@
       <c r="H137" s="60">
         <v>1</v>
       </c>
-      <c r="I137" s="166">
+      <c r="I137" s="185">
         <v>255</v>
       </c>
       <c r="J137" s="63">
@@ -9856,21 +9871,22 @@
       <c r="M137" s="60">
         <v>62</v>
       </c>
-      <c r="N137" s="175">
+      <c r="N137" s="182">
         <v>45663</v>
       </c>
-      <c r="O137" s="175">
+      <c r="O137" s="182">
         <v>45705</v>
       </c>
-      <c r="P137" s="166" t="s">
+      <c r="P137" s="185" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="21">
-      <c r="B138" s="167"/>
-      <c r="C138" s="173"/>
-      <c r="D138" s="167"/>
-      <c r="E138" s="170"/>
+      <c r="A138" s="205"/>
+      <c r="B138" s="183"/>
+      <c r="C138" s="177"/>
+      <c r="D138" s="183"/>
+      <c r="E138" s="188"/>
       <c r="F138" s="62" t="s">
         <v>15</v>
       </c>
@@ -9880,7 +9896,7 @@
       <c r="H138" s="60">
         <v>1</v>
       </c>
-      <c r="I138" s="167"/>
+      <c r="I138" s="183"/>
       <c r="J138" s="63">
         <v>0.54978000000000005</v>
       </c>
@@ -9893,15 +9909,16 @@
       <c r="M138" s="60">
         <v>77</v>
       </c>
-      <c r="N138" s="167"/>
-      <c r="O138" s="167"/>
-      <c r="P138" s="167"/>
+      <c r="N138" s="183"/>
+      <c r="O138" s="183"/>
+      <c r="P138" s="183"/>
     </row>
     <row r="139" spans="1:16" ht="37.5">
-      <c r="B139" s="167"/>
-      <c r="C139" s="173"/>
-      <c r="D139" s="167"/>
-      <c r="E139" s="170"/>
+      <c r="A139" s="205"/>
+      <c r="B139" s="183"/>
+      <c r="C139" s="177"/>
+      <c r="D139" s="183"/>
+      <c r="E139" s="188"/>
       <c r="F139" s="62" t="s">
         <v>30</v>
       </c>
@@ -9911,7 +9928,7 @@
       <c r="H139" s="60">
         <v>1</v>
       </c>
-      <c r="I139" s="167"/>
+      <c r="I139" s="183"/>
       <c r="J139" s="63">
         <v>0.51480000000000004</v>
       </c>
@@ -9924,15 +9941,16 @@
       <c r="M139" s="60">
         <v>65</v>
       </c>
-      <c r="N139" s="167"/>
-      <c r="O139" s="167"/>
-      <c r="P139" s="167"/>
+      <c r="N139" s="183"/>
+      <c r="O139" s="183"/>
+      <c r="P139" s="183"/>
     </row>
     <row r="140" spans="1:16" ht="56.25">
-      <c r="B140" s="168"/>
-      <c r="C140" s="174"/>
-      <c r="D140" s="168"/>
-      <c r="E140" s="171"/>
+      <c r="A140" s="205"/>
+      <c r="B140" s="184"/>
+      <c r="C140" s="169"/>
+      <c r="D140" s="184"/>
+      <c r="E140" s="189"/>
       <c r="F140" s="62" t="s">
         <v>25</v>
       </c>
@@ -9942,7 +9960,7 @@
       <c r="H140" s="60">
         <v>1</v>
       </c>
-      <c r="I140" s="168"/>
+      <c r="I140" s="184"/>
       <c r="J140" s="63">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -9955,17 +9973,18 @@
       <c r="M140" s="60">
         <v>18</v>
       </c>
-      <c r="N140" s="168"/>
-      <c r="O140" s="168"/>
-      <c r="P140" s="168"/>
+      <c r="N140" s="184"/>
+      <c r="O140" s="184"/>
+      <c r="P140" s="184"/>
     </row>
     <row r="141" spans="1:16" ht="22.5">
-      <c r="B141" s="163" t="s">
+      <c r="A141" s="205"/>
+      <c r="B141" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C141" s="163"/>
-      <c r="D141" s="163"/>
-      <c r="E141" s="163"/>
+      <c r="C141" s="186"/>
+      <c r="D141" s="186"/>
+      <c r="E141" s="186"/>
       <c r="F141" s="64" t="s">
         <v>25</v>
       </c>
@@ -9980,15 +9999,16 @@
       <c r="K141" s="52"/>
       <c r="L141" s="52"/>
       <c r="M141" s="52"/>
-      <c r="N141" s="134"/>
-      <c r="O141" s="134"/>
+      <c r="N141" s="132"/>
+      <c r="O141" s="132"/>
       <c r="P141" s="55"/>
     </row>
     <row r="142" spans="1:16" ht="117">
+      <c r="A142" s="205"/>
       <c r="B142" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="C142" s="135" t="s">
+      <c r="C142" s="133" t="s">
         <v>388</v>
       </c>
       <c r="D142" s="81" t="s">
@@ -10035,12 +10055,13 @@
       </c>
     </row>
     <row r="143" spans="1:16" ht="22.5">
-      <c r="B143" s="163" t="s">
+      <c r="A143" s="205"/>
+      <c r="B143" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="163"/>
-      <c r="D143" s="163"/>
-      <c r="E143" s="163"/>
+      <c r="C143" s="186"/>
+      <c r="D143" s="186"/>
+      <c r="E143" s="186"/>
       <c r="F143" s="64" t="s">
         <v>391</v>
       </c>
@@ -10062,10 +10083,11 @@
       <c r="P143" s="67"/>
     </row>
     <row r="144" spans="1:16" ht="117">
+      <c r="A144" s="205"/>
       <c r="B144" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="C144" s="135" t="s">
+      <c r="C144" s="133" t="s">
         <v>388</v>
       </c>
       <c r="D144" s="81" t="s">
@@ -10111,13 +10133,14 @@
         <v>393</v>
       </c>
     </row>
-    <row r="145" spans="2:16" ht="22.5">
-      <c r="B145" s="163" t="s">
+    <row r="145" spans="1:16" ht="22.5">
+      <c r="A145" s="205"/>
+      <c r="B145" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="163"/>
-      <c r="D145" s="163"/>
-      <c r="E145" s="163"/>
+      <c r="C145" s="186"/>
+      <c r="D145" s="186"/>
+      <c r="E145" s="186"/>
       <c r="F145" s="64" t="s">
         <v>394</v>
       </c>
@@ -10138,11 +10161,12 @@
       <c r="O145" s="67"/>
       <c r="P145" s="67"/>
     </row>
-    <row r="146" spans="2:16" ht="98.25">
+    <row r="146" spans="1:16" ht="98.25">
+      <c r="A146" s="205"/>
       <c r="B146" s="81" t="s">
         <v>387</v>
       </c>
-      <c r="C146" s="135" t="s">
+      <c r="C146" s="133" t="s">
         <v>388</v>
       </c>
       <c r="D146" s="81" t="s">
@@ -10185,13 +10209,14 @@
         <v>396</v>
       </c>
     </row>
-    <row r="147" spans="2:16" ht="22.5">
-      <c r="B147" s="163" t="s">
+    <row r="147" spans="1:16" ht="22.5">
+      <c r="A147" s="205"/>
+      <c r="B147" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="163"/>
-      <c r="D147" s="163"/>
-      <c r="E147" s="163"/>
+      <c r="C147" s="186"/>
+      <c r="D147" s="186"/>
+      <c r="E147" s="186"/>
       <c r="F147" s="64" t="s">
         <v>397</v>
       </c>
@@ -10210,29 +10235,30 @@
       <c r="O147" s="67"/>
       <c r="P147" s="67"/>
     </row>
-    <row r="148" spans="2:16" ht="21">
-      <c r="B148" s="157" t="s">
+    <row r="148" spans="1:16" ht="21">
+      <c r="A148" s="205"/>
+      <c r="B148" s="190" t="s">
         <v>398</v>
       </c>
-      <c r="C148" s="157" t="s">
+      <c r="C148" s="190" t="s">
         <v>399</v>
       </c>
-      <c r="D148" s="157" t="s">
+      <c r="D148" s="190" t="s">
         <v>400</v>
       </c>
-      <c r="E148" s="160">
+      <c r="E148" s="152">
         <v>45660</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G148" s="165" t="s">
+      <c r="G148" s="193" t="s">
         <v>401</v>
       </c>
       <c r="H148" s="81">
         <v>130</v>
       </c>
-      <c r="I148" s="157">
+      <c r="I148" s="190">
         <v>7600</v>
       </c>
       <c r="J148" s="10">
@@ -10247,29 +10273,30 @@
       <c r="M148" s="81">
         <v>66</v>
       </c>
-      <c r="N148" s="176">
+      <c r="N148" s="196">
         <v>45665</v>
       </c>
-      <c r="O148" s="176">
+      <c r="O148" s="196">
         <v>45706</v>
       </c>
-      <c r="P148" s="157" t="s">
+      <c r="P148" s="190" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="149" spans="2:16" ht="21">
-      <c r="B149" s="158"/>
-      <c r="C149" s="158"/>
-      <c r="D149" s="158"/>
-      <c r="E149" s="161"/>
+    <row r="149" spans="1:16" ht="21">
+      <c r="A149" s="205"/>
+      <c r="B149" s="191"/>
+      <c r="C149" s="191"/>
+      <c r="D149" s="191"/>
+      <c r="E149" s="153"/>
       <c r="F149" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="177"/>
+      <c r="G149" s="194"/>
       <c r="H149" s="81">
         <v>120</v>
       </c>
-      <c r="I149" s="158"/>
+      <c r="I149" s="191"/>
       <c r="J149" s="10">
         <v>3.167424</v>
       </c>
@@ -10282,23 +10309,24 @@
       <c r="M149" s="81">
         <v>72</v>
       </c>
-      <c r="N149" s="158"/>
-      <c r="O149" s="158"/>
-      <c r="P149" s="158"/>
-    </row>
-    <row r="150" spans="2:16" ht="21">
-      <c r="B150" s="158"/>
-      <c r="C150" s="158"/>
-      <c r="D150" s="158"/>
-      <c r="E150" s="161"/>
+      <c r="N149" s="191"/>
+      <c r="O149" s="191"/>
+      <c r="P149" s="191"/>
+    </row>
+    <row r="150" spans="1:16" ht="21">
+      <c r="A150" s="205"/>
+      <c r="B150" s="191"/>
+      <c r="C150" s="191"/>
+      <c r="D150" s="191"/>
+      <c r="E150" s="153"/>
       <c r="F150" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G150" s="177"/>
+      <c r="G150" s="194"/>
       <c r="H150" s="81">
         <v>130</v>
       </c>
-      <c r="I150" s="158"/>
+      <c r="I150" s="191"/>
       <c r="J150" s="10">
         <v>3.383718</v>
       </c>
@@ -10311,23 +10339,24 @@
       <c r="M150" s="81">
         <v>71</v>
       </c>
-      <c r="N150" s="158"/>
-      <c r="O150" s="158"/>
-      <c r="P150" s="158"/>
-    </row>
-    <row r="151" spans="2:16" ht="21">
-      <c r="B151" s="158"/>
-      <c r="C151" s="158"/>
-      <c r="D151" s="158"/>
-      <c r="E151" s="161"/>
+      <c r="N150" s="191"/>
+      <c r="O150" s="191"/>
+      <c r="P150" s="191"/>
+    </row>
+    <row r="151" spans="1:16" ht="21">
+      <c r="A151" s="205"/>
+      <c r="B151" s="191"/>
+      <c r="C151" s="191"/>
+      <c r="D151" s="191"/>
+      <c r="E151" s="153"/>
       <c r="F151" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G151" s="178"/>
+      <c r="G151" s="195"/>
       <c r="H151" s="81">
         <v>220</v>
       </c>
-      <c r="I151" s="158"/>
+      <c r="I151" s="191"/>
       <c r="J151" s="10">
         <v>2.5405380000000002</v>
       </c>
@@ -10340,15 +10369,16 @@
       <c r="M151" s="81">
         <v>63</v>
       </c>
-      <c r="N151" s="158"/>
-      <c r="O151" s="158"/>
-      <c r="P151" s="158"/>
-    </row>
-    <row r="152" spans="2:16" ht="21">
-      <c r="B152" s="159"/>
-      <c r="C152" s="159"/>
-      <c r="D152" s="159"/>
-      <c r="E152" s="162"/>
+      <c r="N151" s="191"/>
+      <c r="O151" s="191"/>
+      <c r="P151" s="191"/>
+    </row>
+    <row r="152" spans="1:16" ht="21">
+      <c r="A152" s="205"/>
+      <c r="B152" s="192"/>
+      <c r="C152" s="192"/>
+      <c r="D152" s="192"/>
+      <c r="E152" s="154"/>
       <c r="F152" s="3" t="s">
         <v>13</v>
       </c>
@@ -10358,7 +10388,7 @@
       <c r="H152" s="81">
         <v>1599</v>
       </c>
-      <c r="I152" s="159"/>
+      <c r="I152" s="192"/>
       <c r="J152" s="10">
         <v>0.68834399999999996</v>
       </c>
@@ -10371,17 +10401,18 @@
       <c r="M152" s="81">
         <v>92</v>
       </c>
-      <c r="N152" s="159"/>
-      <c r="O152" s="159"/>
-      <c r="P152" s="159"/>
-    </row>
-    <row r="153" spans="2:16" ht="22.5">
-      <c r="B153" s="163" t="s">
+      <c r="N152" s="192"/>
+      <c r="O152" s="192"/>
+      <c r="P152" s="192"/>
+    </row>
+    <row r="153" spans="1:16" ht="22.5">
+      <c r="A153" s="205"/>
+      <c r="B153" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="163"/>
-      <c r="D153" s="163"/>
-      <c r="E153" s="163"/>
+      <c r="C153" s="186"/>
+      <c r="D153" s="186"/>
+      <c r="E153" s="186"/>
       <c r="F153" s="64" t="s">
         <v>13</v>
       </c>
@@ -10400,7 +10431,8 @@
       <c r="O153" s="67"/>
       <c r="P153" s="67"/>
     </row>
-    <row r="154" spans="2:16" ht="42">
+    <row r="154" spans="1:16" ht="42">
+      <c r="A154" s="205"/>
       <c r="B154" s="60" t="s">
         <v>404</v>
       </c>
@@ -10445,13 +10477,14 @@
         <v>408</v>
       </c>
     </row>
-    <row r="155" spans="2:16" ht="22.5">
-      <c r="B155" s="163" t="s">
+    <row r="155" spans="1:16" ht="22.5">
+      <c r="A155" s="205"/>
+      <c r="B155" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="163"/>
-      <c r="D155" s="163"/>
-      <c r="E155" s="163"/>
+      <c r="C155" s="186"/>
+      <c r="D155" s="186"/>
+      <c r="E155" s="186"/>
       <c r="F155" s="64" t="s">
         <v>409</v>
       </c>
@@ -10470,7 +10503,8 @@
       <c r="O155" s="55"/>
       <c r="P155" s="55"/>
     </row>
-    <row r="156" spans="2:16" ht="42">
+    <row r="156" spans="1:16" ht="42">
+      <c r="A156" s="205"/>
       <c r="B156" s="81" t="s">
         <v>410</v>
       </c>
@@ -10518,13 +10552,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:16" ht="22.5">
-      <c r="B157" s="163" t="s">
+    <row r="157" spans="1:16" ht="22.5">
+      <c r="A157" s="205"/>
+      <c r="B157" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="163"/>
-      <c r="D157" s="163"/>
-      <c r="E157" s="163"/>
+      <c r="C157" s="186"/>
+      <c r="D157" s="186"/>
+      <c r="E157" s="186"/>
       <c r="F157" s="64" t="s">
         <v>412</v>
       </c>
@@ -10545,17 +10580,17 @@
       <c r="O157" s="67"/>
       <c r="P157" s="67"/>
     </row>
-    <row r="158" spans="2:16" ht="37.5">
-      <c r="B158" s="157" t="s">
+    <row r="158" spans="1:16" ht="37.5">
+      <c r="B158" s="190" t="s">
         <v>413</v>
       </c>
-      <c r="C158" s="157" t="s">
+      <c r="C158" s="190" t="s">
         <v>414</v>
       </c>
-      <c r="D158" s="157" t="s">
+      <c r="D158" s="190" t="s">
         <v>415</v>
       </c>
-      <c r="E158" s="160">
+      <c r="E158" s="152">
         <v>45665</v>
       </c>
       <c r="F158" s="3" t="s">
@@ -10584,21 +10619,21 @@
       <c r="M158" s="81">
         <v>39</v>
       </c>
-      <c r="N158" s="176">
+      <c r="N158" s="196">
         <v>45670</v>
       </c>
-      <c r="O158" s="176">
+      <c r="O158" s="196">
         <v>45712</v>
       </c>
-      <c r="P158" s="157" t="s">
+      <c r="P158" s="190" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="159" spans="2:16" ht="37.5">
-      <c r="B159" s="158"/>
-      <c r="C159" s="158"/>
-      <c r="D159" s="158"/>
-      <c r="E159" s="161"/>
+    <row r="159" spans="1:16" ht="37.5">
+      <c r="B159" s="191"/>
+      <c r="C159" s="191"/>
+      <c r="D159" s="191"/>
+      <c r="E159" s="153"/>
       <c r="F159" s="3" t="s">
         <v>99</v>
       </c>
@@ -10625,19 +10660,19 @@
       <c r="M159" s="81">
         <v>28</v>
       </c>
-      <c r="N159" s="158"/>
-      <c r="O159" s="158"/>
-      <c r="P159" s="158"/>
-    </row>
-    <row r="160" spans="2:16" ht="21">
-      <c r="B160" s="158"/>
-      <c r="C160" s="158"/>
-      <c r="D160" s="158"/>
-      <c r="E160" s="161"/>
+      <c r="N159" s="191"/>
+      <c r="O159" s="191"/>
+      <c r="P159" s="191"/>
+    </row>
+    <row r="160" spans="1:16" ht="21">
+      <c r="B160" s="191"/>
+      <c r="C160" s="191"/>
+      <c r="D160" s="191"/>
+      <c r="E160" s="153"/>
       <c r="F160" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G160" s="165" t="s">
+      <c r="G160" s="193" t="s">
         <v>420</v>
       </c>
       <c r="H160" s="81">
@@ -10660,19 +10695,19 @@
       <c r="M160" s="81">
         <v>39</v>
       </c>
-      <c r="N160" s="158"/>
-      <c r="O160" s="158"/>
-      <c r="P160" s="158"/>
+      <c r="N160" s="191"/>
+      <c r="O160" s="191"/>
+      <c r="P160" s="191"/>
     </row>
     <row r="161" spans="2:16" ht="21">
-      <c r="B161" s="158"/>
-      <c r="C161" s="158"/>
-      <c r="D161" s="158"/>
-      <c r="E161" s="161"/>
+      <c r="B161" s="191"/>
+      <c r="C161" s="191"/>
+      <c r="D161" s="191"/>
+      <c r="E161" s="153"/>
       <c r="F161" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G161" s="178"/>
+      <c r="G161" s="195"/>
       <c r="H161" s="81">
         <v>48</v>
       </c>
@@ -10692,15 +10727,15 @@
       <c r="M161" s="81">
         <v>23</v>
       </c>
-      <c r="N161" s="158"/>
-      <c r="O161" s="158"/>
-      <c r="P161" s="158"/>
+      <c r="N161" s="191"/>
+      <c r="O161" s="191"/>
+      <c r="P161" s="191"/>
     </row>
     <row r="162" spans="2:16" ht="37.5">
-      <c r="B162" s="159"/>
-      <c r="C162" s="159"/>
-      <c r="D162" s="159"/>
-      <c r="E162" s="162"/>
+      <c r="B162" s="192"/>
+      <c r="C162" s="192"/>
+      <c r="D162" s="192"/>
+      <c r="E162" s="154"/>
       <c r="F162" s="3" t="s">
         <v>422</v>
       </c>
@@ -10727,17 +10762,17 @@
       <c r="M162" s="81">
         <v>47</v>
       </c>
-      <c r="N162" s="159"/>
-      <c r="O162" s="159"/>
-      <c r="P162" s="159"/>
+      <c r="N162" s="192"/>
+      <c r="O162" s="192"/>
+      <c r="P162" s="192"/>
     </row>
     <row r="163" spans="2:16" ht="22.5">
-      <c r="B163" s="163" t="s">
+      <c r="B163" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C163" s="163"/>
-      <c r="D163" s="163"/>
-      <c r="E163" s="163"/>
+      <c r="C163" s="186"/>
+      <c r="D163" s="186"/>
+      <c r="E163" s="186"/>
       <c r="F163" s="64" t="s">
         <v>424</v>
       </c>
@@ -10806,12 +10841,12 @@
       </c>
     </row>
     <row r="165" spans="2:16" ht="22.5">
-      <c r="B165" s="163" t="s">
+      <c r="B165" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="163"/>
-      <c r="D165" s="163"/>
-      <c r="E165" s="163"/>
+      <c r="C165" s="186"/>
+      <c r="D165" s="186"/>
+      <c r="E165" s="186"/>
       <c r="F165" s="64" t="s">
         <v>25</v>
       </c>
@@ -10831,26 +10866,26 @@
       <c r="P165" s="67"/>
     </row>
     <row r="166" spans="2:16" ht="21">
-      <c r="B166" s="157" t="s">
+      <c r="B166" s="190" t="s">
         <v>429</v>
       </c>
-      <c r="C166" s="165" t="s">
+      <c r="C166" s="193" t="s">
         <v>430</v>
       </c>
-      <c r="D166" s="157" t="s">
+      <c r="D166" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="E166" s="160">
+      <c r="E166" s="152">
         <v>45666</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G166" s="165" t="s">
+      <c r="G166" s="193" t="s">
         <v>431</v>
       </c>
       <c r="H166" s="81"/>
-      <c r="I166" s="157">
+      <c r="I166" s="190">
         <v>13</v>
       </c>
       <c r="J166" s="10">
@@ -10865,27 +10900,27 @@
       <c r="M166" s="81">
         <v>36</v>
       </c>
-      <c r="N166" s="176">
+      <c r="N166" s="196">
         <v>45670</v>
       </c>
-      <c r="O166" s="176">
+      <c r="O166" s="196">
         <v>45712</v>
       </c>
-      <c r="P166" s="157" t="s">
+      <c r="P166" s="190" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="167" spans="2:16" ht="21">
-      <c r="B167" s="159"/>
-      <c r="C167" s="178"/>
-      <c r="D167" s="159"/>
-      <c r="E167" s="162"/>
+      <c r="B167" s="192"/>
+      <c r="C167" s="195"/>
+      <c r="D167" s="192"/>
+      <c r="E167" s="154"/>
       <c r="F167" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="159"/>
+      <c r="G167" s="192"/>
       <c r="H167" s="81"/>
-      <c r="I167" s="159"/>
+      <c r="I167" s="192"/>
       <c r="J167" s="10">
         <v>2.3751000000000001E-2</v>
       </c>
@@ -10898,17 +10933,17 @@
       <c r="M167" s="81">
         <v>29</v>
       </c>
-      <c r="N167" s="159"/>
-      <c r="O167" s="159"/>
-      <c r="P167" s="159"/>
+      <c r="N167" s="192"/>
+      <c r="O167" s="192"/>
+      <c r="P167" s="192"/>
     </row>
     <row r="168" spans="2:16" ht="22.5">
-      <c r="B168" s="163" t="s">
+      <c r="B168" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="163"/>
-      <c r="D168" s="163"/>
-      <c r="E168" s="163"/>
+      <c r="C168" s="186"/>
+      <c r="D168" s="186"/>
+      <c r="E168" s="186"/>
       <c r="F168" s="64" t="s">
         <v>15</v>
       </c>
@@ -10928,41 +10963,41 @@
       <c r="P168" s="67"/>
     </row>
     <row r="169" spans="2:16" ht="42">
-      <c r="B169" s="136" t="s">
+      <c r="B169" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="C169" s="136"/>
-      <c r="D169" s="136" t="s">
+      <c r="C169" s="134"/>
+      <c r="D169" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="E169" s="137">
+      <c r="E169" s="135">
         <v>45667</v>
       </c>
-      <c r="F169" s="138" t="s">
+      <c r="F169" s="136" t="s">
         <v>434</v>
       </c>
-      <c r="G169" s="139" t="s">
+      <c r="G169" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="H169" s="136">
+      <c r="H169" s="134">
         <f>2*750</f>
         <v>1500</v>
       </c>
-      <c r="I169" s="136">
+      <c r="I169" s="134">
         <f>24*200</f>
         <v>4800</v>
       </c>
-      <c r="J169" s="140">
+      <c r="J169" s="138">
         <f>K169*L169*M169/1000000*200</f>
         <v>8.16</v>
       </c>
-      <c r="K169" s="136">
+      <c r="K169" s="134">
         <v>40</v>
       </c>
-      <c r="L169" s="136">
+      <c r="L169" s="134">
         <v>34</v>
       </c>
-      <c r="M169" s="136">
+      <c r="M169" s="134">
         <v>30</v>
       </c>
       <c r="N169" s="82">
@@ -10976,28 +11011,28 @@
       </c>
     </row>
     <row r="170" spans="2:16" ht="22.5">
-      <c r="B170" s="163" t="s">
+      <c r="B170" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C170" s="163"/>
-      <c r="D170" s="163"/>
-      <c r="E170" s="163"/>
-      <c r="F170" s="141" t="s">
+      <c r="C170" s="186"/>
+      <c r="D170" s="186"/>
+      <c r="E170" s="186"/>
+      <c r="F170" s="139" t="s">
         <v>436</v>
       </c>
-      <c r="G170" s="142"/>
-      <c r="H170" s="143"/>
-      <c r="I170" s="144">
+      <c r="G170" s="140"/>
+      <c r="H170" s="141"/>
+      <c r="I170" s="142">
         <f>SUM(I169:I169)</f>
         <v>4800</v>
       </c>
-      <c r="J170" s="145">
+      <c r="J170" s="143">
         <f>SUM(J169:J169)</f>
         <v>8.16</v>
       </c>
-      <c r="K170" s="143"/>
-      <c r="L170" s="143"/>
-      <c r="M170" s="143"/>
+      <c r="K170" s="141"/>
+      <c r="L170" s="141"/>
+      <c r="M170" s="141"/>
       <c r="N170" s="67"/>
       <c r="O170" s="67"/>
       <c r="P170" s="67"/>
@@ -11051,12 +11086,12 @@
       </c>
     </row>
     <row r="172" spans="2:16" ht="22.5">
-      <c r="B172" s="163" t="s">
+      <c r="B172" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C172" s="163"/>
-      <c r="D172" s="163"/>
-      <c r="E172" s="163"/>
+      <c r="C172" s="186"/>
+      <c r="D172" s="186"/>
+      <c r="E172" s="186"/>
       <c r="F172" s="64" t="s">
         <v>391</v>
       </c>
@@ -11126,12 +11161,12 @@
       </c>
     </row>
     <row r="174" spans="2:16" ht="22.5">
-      <c r="B174" s="163" t="s">
+      <c r="B174" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="163"/>
-      <c r="D174" s="163"/>
-      <c r="E174" s="163"/>
+      <c r="C174" s="186"/>
+      <c r="D174" s="186"/>
+      <c r="E174" s="186"/>
       <c r="F174" s="64" t="s">
         <v>436</v>
       </c>
@@ -11153,41 +11188,41 @@
       <c r="P174" s="67"/>
     </row>
     <row r="175" spans="2:16" ht="42">
-      <c r="B175" s="136" t="s">
+      <c r="B175" s="134" t="s">
         <v>433</v>
       </c>
-      <c r="C175" s="136"/>
-      <c r="D175" s="136" t="s">
+      <c r="C175" s="134"/>
+      <c r="D175" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="E175" s="137">
+      <c r="E175" s="135">
         <v>45667</v>
       </c>
-      <c r="F175" s="138" t="s">
+      <c r="F175" s="136" t="s">
         <v>434</v>
       </c>
-      <c r="G175" s="139" t="s">
+      <c r="G175" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="H175" s="136">
+      <c r="H175" s="134">
         <f>2*750</f>
         <v>1500</v>
       </c>
-      <c r="I175" s="136">
+      <c r="I175" s="134">
         <f>24*200</f>
         <v>4800</v>
       </c>
-      <c r="J175" s="140">
+      <c r="J175" s="138">
         <f>K175*L175*M175/1000000*200</f>
         <v>8.16</v>
       </c>
-      <c r="K175" s="136">
+      <c r="K175" s="134">
         <v>40</v>
       </c>
-      <c r="L175" s="136">
+      <c r="L175" s="134">
         <v>34</v>
       </c>
-      <c r="M175" s="136">
+      <c r="M175" s="134">
         <v>30</v>
       </c>
       <c r="N175" s="82">
@@ -11201,28 +11236,28 @@
       </c>
     </row>
     <row r="176" spans="2:16" ht="22.5">
-      <c r="B176" s="163" t="s">
+      <c r="B176" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="163"/>
-      <c r="D176" s="163"/>
-      <c r="E176" s="163"/>
-      <c r="F176" s="141" t="s">
+      <c r="C176" s="186"/>
+      <c r="D176" s="186"/>
+      <c r="E176" s="186"/>
+      <c r="F176" s="139" t="s">
         <v>436</v>
       </c>
-      <c r="G176" s="142"/>
-      <c r="H176" s="143"/>
-      <c r="I176" s="144">
+      <c r="G176" s="140"/>
+      <c r="H176" s="141"/>
+      <c r="I176" s="142">
         <f>SUM(I175:I175)</f>
         <v>4800</v>
       </c>
-      <c r="J176" s="145">
+      <c r="J176" s="143">
         <f>SUM(J175:J175)</f>
         <v>8.16</v>
       </c>
-      <c r="K176" s="143"/>
-      <c r="L176" s="143"/>
-      <c r="M176" s="143"/>
+      <c r="K176" s="141"/>
+      <c r="L176" s="141"/>
+      <c r="M176" s="141"/>
       <c r="N176" s="67"/>
       <c r="O176" s="67"/>
       <c r="P176" s="67"/>
@@ -11276,12 +11311,12 @@
       </c>
     </row>
     <row r="178" spans="2:16" ht="22.5">
-      <c r="B178" s="163" t="s">
+      <c r="B178" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C178" s="163"/>
-      <c r="D178" s="163"/>
-      <c r="E178" s="163"/>
+      <c r="C178" s="186"/>
+      <c r="D178" s="186"/>
+      <c r="E178" s="186"/>
       <c r="F178" s="64" t="s">
         <v>391</v>
       </c>
@@ -11349,12 +11384,12 @@
       </c>
     </row>
     <row r="180" spans="2:16" ht="22.5">
-      <c r="B180" s="163" t="s">
+      <c r="B180" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C180" s="163"/>
-      <c r="D180" s="163"/>
-      <c r="E180" s="163"/>
+      <c r="C180" s="186"/>
+      <c r="D180" s="186"/>
+      <c r="E180" s="186"/>
       <c r="F180" s="64" t="s">
         <v>436</v>
       </c>
@@ -11419,12 +11454,12 @@
       <c r="P181" s="81"/>
     </row>
     <row r="182" spans="2:16" ht="22.5">
-      <c r="B182" s="163" t="s">
+      <c r="B182" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="163"/>
-      <c r="D182" s="163"/>
-      <c r="E182" s="163"/>
+      <c r="C182" s="186"/>
+      <c r="D182" s="186"/>
+      <c r="E182" s="186"/>
       <c r="F182" s="64" t="s">
         <v>444</v>
       </c>
@@ -11444,28 +11479,28 @@
       <c r="P182" s="67"/>
     </row>
     <row r="183" spans="2:16" ht="21">
-      <c r="B183" s="157" t="s">
+      <c r="B183" s="190" t="s">
         <v>100</v>
       </c>
-      <c r="C183" s="157">
+      <c r="C183" s="190">
         <v>1392620920</v>
       </c>
-      <c r="D183" s="157" t="s">
+      <c r="D183" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="160">
+      <c r="E183" s="152">
         <v>45667</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G183" s="165" t="s">
+      <c r="G183" s="193" t="s">
         <v>68</v>
       </c>
       <c r="H183" s="81">
         <v>8</v>
       </c>
-      <c r="I183" s="157">
+      <c r="I183" s="190">
         <v>357</v>
       </c>
       <c r="J183" s="10">
@@ -11480,29 +11515,29 @@
       <c r="M183" s="81">
         <v>26</v>
       </c>
-      <c r="N183" s="176">
+      <c r="N183" s="196">
         <v>45670</v>
       </c>
-      <c r="O183" s="176">
+      <c r="O183" s="196">
         <v>45699</v>
       </c>
-      <c r="P183" s="157" t="s">
+      <c r="P183" s="190" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="184" spans="2:16" ht="21">
-      <c r="B184" s="158"/>
-      <c r="C184" s="158"/>
-      <c r="D184" s="158"/>
-      <c r="E184" s="161"/>
+      <c r="B184" s="191"/>
+      <c r="C184" s="191"/>
+      <c r="D184" s="191"/>
+      <c r="E184" s="153"/>
       <c r="F184" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G184" s="177"/>
+      <c r="G184" s="194"/>
       <c r="H184" s="81">
         <v>2</v>
       </c>
-      <c r="I184" s="158"/>
+      <c r="I184" s="191"/>
       <c r="J184" s="10">
         <v>7.7219999999999997E-2</v>
       </c>
@@ -11515,23 +11550,23 @@
       <c r="M184" s="81">
         <v>26</v>
       </c>
-      <c r="N184" s="158"/>
-      <c r="O184" s="158"/>
-      <c r="P184" s="158"/>
+      <c r="N184" s="191"/>
+      <c r="O184" s="191"/>
+      <c r="P184" s="191"/>
     </row>
     <row r="185" spans="2:16" ht="21">
-      <c r="B185" s="158"/>
-      <c r="C185" s="158"/>
-      <c r="D185" s="158"/>
-      <c r="E185" s="161"/>
+      <c r="B185" s="191"/>
+      <c r="C185" s="191"/>
+      <c r="D185" s="191"/>
+      <c r="E185" s="153"/>
       <c r="F185" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G185" s="178"/>
+      <c r="G185" s="195"/>
       <c r="H185" s="81">
         <v>4</v>
       </c>
-      <c r="I185" s="158"/>
+      <c r="I185" s="191"/>
       <c r="J185" s="10">
         <v>0.12675</v>
       </c>
@@ -11544,25 +11579,25 @@
       <c r="M185" s="81">
         <v>25</v>
       </c>
-      <c r="N185" s="158"/>
-      <c r="O185" s="158"/>
-      <c r="P185" s="158"/>
+      <c r="N185" s="191"/>
+      <c r="O185" s="191"/>
+      <c r="P185" s="191"/>
     </row>
     <row r="186" spans="2:16" ht="21">
-      <c r="B186" s="158"/>
-      <c r="C186" s="158"/>
-      <c r="D186" s="158"/>
-      <c r="E186" s="161"/>
+      <c r="B186" s="191"/>
+      <c r="C186" s="191"/>
+      <c r="D186" s="191"/>
+      <c r="E186" s="153"/>
       <c r="F186" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G186" s="165" t="s">
+      <c r="G186" s="193" t="s">
         <v>58</v>
       </c>
       <c r="H186" s="81">
         <v>20</v>
       </c>
-      <c r="I186" s="158"/>
+      <c r="I186" s="191"/>
       <c r="J186" s="10">
         <v>0.31099199999999999</v>
       </c>
@@ -11575,23 +11610,23 @@
       <c r="M186" s="81">
         <v>38</v>
       </c>
-      <c r="N186" s="158"/>
-      <c r="O186" s="158"/>
-      <c r="P186" s="158"/>
+      <c r="N186" s="191"/>
+      <c r="O186" s="191"/>
+      <c r="P186" s="191"/>
     </row>
     <row r="187" spans="2:16" ht="21">
-      <c r="B187" s="158"/>
-      <c r="C187" s="158"/>
-      <c r="D187" s="158"/>
-      <c r="E187" s="161"/>
+      <c r="B187" s="191"/>
+      <c r="C187" s="191"/>
+      <c r="D187" s="191"/>
+      <c r="E187" s="153"/>
       <c r="F187" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G187" s="177"/>
+      <c r="G187" s="194"/>
       <c r="H187" s="81">
         <v>10</v>
       </c>
-      <c r="I187" s="158"/>
+      <c r="I187" s="191"/>
       <c r="J187" s="10">
         <v>0.13718</v>
       </c>
@@ -11604,23 +11639,23 @@
       <c r="M187" s="81">
         <v>38</v>
       </c>
-      <c r="N187" s="158"/>
-      <c r="O187" s="158"/>
-      <c r="P187" s="158"/>
+      <c r="N187" s="191"/>
+      <c r="O187" s="191"/>
+      <c r="P187" s="191"/>
     </row>
     <row r="188" spans="2:16" ht="21">
-      <c r="B188" s="158"/>
-      <c r="C188" s="158"/>
-      <c r="D188" s="158"/>
-      <c r="E188" s="161"/>
+      <c r="B188" s="191"/>
+      <c r="C188" s="191"/>
+      <c r="D188" s="191"/>
+      <c r="E188" s="153"/>
       <c r="F188" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G188" s="177"/>
+      <c r="G188" s="194"/>
       <c r="H188" s="81">
         <v>10</v>
       </c>
-      <c r="I188" s="158"/>
+      <c r="I188" s="191"/>
       <c r="J188" s="10">
         <v>0.13718</v>
       </c>
@@ -11633,23 +11668,23 @@
       <c r="M188" s="81">
         <v>38</v>
       </c>
-      <c r="N188" s="158"/>
-      <c r="O188" s="158"/>
-      <c r="P188" s="158"/>
+      <c r="N188" s="191"/>
+      <c r="O188" s="191"/>
+      <c r="P188" s="191"/>
     </row>
     <row r="189" spans="2:16" ht="21">
-      <c r="B189" s="158"/>
-      <c r="C189" s="158"/>
-      <c r="D189" s="158"/>
-      <c r="E189" s="161"/>
+      <c r="B189" s="191"/>
+      <c r="C189" s="191"/>
+      <c r="D189" s="191"/>
+      <c r="E189" s="153"/>
       <c r="F189" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G189" s="177"/>
+      <c r="G189" s="194"/>
       <c r="H189" s="81">
         <v>20</v>
       </c>
-      <c r="I189" s="158"/>
+      <c r="I189" s="191"/>
       <c r="J189" s="10">
         <v>0.13718</v>
       </c>
@@ -11662,23 +11697,23 @@
       <c r="M189" s="81">
         <v>38</v>
       </c>
-      <c r="N189" s="158"/>
-      <c r="O189" s="158"/>
-      <c r="P189" s="158"/>
+      <c r="N189" s="191"/>
+      <c r="O189" s="191"/>
+      <c r="P189" s="191"/>
     </row>
     <row r="190" spans="2:16" ht="21">
-      <c r="B190" s="158"/>
-      <c r="C190" s="158"/>
-      <c r="D190" s="158"/>
-      <c r="E190" s="161"/>
+      <c r="B190" s="191"/>
+      <c r="C190" s="191"/>
+      <c r="D190" s="191"/>
+      <c r="E190" s="153"/>
       <c r="F190" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G190" s="177"/>
+      <c r="G190" s="194"/>
       <c r="H190" s="81">
         <v>50</v>
       </c>
-      <c r="I190" s="158"/>
+      <c r="I190" s="191"/>
       <c r="J190" s="10">
         <v>0.68589999999999995</v>
       </c>
@@ -11691,23 +11726,23 @@
       <c r="M190" s="81">
         <v>38</v>
       </c>
-      <c r="N190" s="158"/>
-      <c r="O190" s="158"/>
-      <c r="P190" s="158"/>
+      <c r="N190" s="191"/>
+      <c r="O190" s="191"/>
+      <c r="P190" s="191"/>
     </row>
     <row r="191" spans="2:16" ht="21">
-      <c r="B191" s="158"/>
-      <c r="C191" s="158"/>
-      <c r="D191" s="158"/>
-      <c r="E191" s="161"/>
+      <c r="B191" s="191"/>
+      <c r="C191" s="191"/>
+      <c r="D191" s="191"/>
+      <c r="E191" s="153"/>
       <c r="F191" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G191" s="178"/>
+      <c r="G191" s="195"/>
       <c r="H191" s="81">
         <v>10</v>
       </c>
-      <c r="I191" s="158"/>
+      <c r="I191" s="191"/>
       <c r="J191" s="10">
         <v>6.93E-2</v>
       </c>
@@ -11720,15 +11755,15 @@
       <c r="M191" s="81">
         <v>33</v>
       </c>
-      <c r="N191" s="158"/>
-      <c r="O191" s="158"/>
-      <c r="P191" s="158"/>
+      <c r="N191" s="191"/>
+      <c r="O191" s="191"/>
+      <c r="P191" s="191"/>
     </row>
     <row r="192" spans="2:16" ht="21">
-      <c r="B192" s="158"/>
-      <c r="C192" s="158"/>
-      <c r="D192" s="158"/>
-      <c r="E192" s="161"/>
+      <c r="B192" s="191"/>
+      <c r="C192" s="191"/>
+      <c r="D192" s="191"/>
+      <c r="E192" s="153"/>
       <c r="F192" s="3" t="s">
         <v>28</v>
       </c>
@@ -11738,7 +11773,7 @@
       <c r="H192" s="81">
         <v>85</v>
       </c>
-      <c r="I192" s="158"/>
+      <c r="I192" s="191"/>
       <c r="J192" s="10">
         <v>3.0096000000000001E-2</v>
       </c>
@@ -11751,15 +11786,15 @@
       <c r="M192" s="81">
         <v>24</v>
       </c>
-      <c r="N192" s="158"/>
-      <c r="O192" s="158"/>
-      <c r="P192" s="158"/>
+      <c r="N192" s="191"/>
+      <c r="O192" s="191"/>
+      <c r="P192" s="191"/>
     </row>
     <row r="193" spans="2:16" ht="21">
-      <c r="B193" s="158"/>
-      <c r="C193" s="158"/>
-      <c r="D193" s="158"/>
-      <c r="E193" s="161"/>
+      <c r="B193" s="191"/>
+      <c r="C193" s="191"/>
+      <c r="D193" s="191"/>
+      <c r="E193" s="153"/>
       <c r="F193" s="3" t="s">
         <v>29</v>
       </c>
@@ -11769,7 +11804,7 @@
       <c r="H193" s="81">
         <v>50</v>
       </c>
-      <c r="I193" s="158"/>
+      <c r="I193" s="191"/>
       <c r="J193" s="10">
         <v>5.3921999999999998E-2</v>
       </c>
@@ -11782,15 +11817,15 @@
       <c r="M193" s="81">
         <v>33</v>
       </c>
-      <c r="N193" s="158"/>
-      <c r="O193" s="158"/>
-      <c r="P193" s="158"/>
+      <c r="N193" s="191"/>
+      <c r="O193" s="191"/>
+      <c r="P193" s="191"/>
     </row>
     <row r="194" spans="2:16" ht="21">
-      <c r="B194" s="158"/>
-      <c r="C194" s="158"/>
-      <c r="D194" s="158"/>
-      <c r="E194" s="161"/>
+      <c r="B194" s="191"/>
+      <c r="C194" s="191"/>
+      <c r="D194" s="191"/>
+      <c r="E194" s="153"/>
       <c r="F194" s="3" t="s">
         <v>57</v>
       </c>
@@ -11800,7 +11835,7 @@
       <c r="H194" s="81">
         <v>14</v>
       </c>
-      <c r="I194" s="158"/>
+      <c r="I194" s="191"/>
       <c r="J194" s="10">
         <v>0.16819999999999999</v>
       </c>
@@ -11813,15 +11848,15 @@
       <c r="M194" s="81">
         <v>20</v>
       </c>
-      <c r="N194" s="158"/>
-      <c r="O194" s="158"/>
-      <c r="P194" s="158"/>
+      <c r="N194" s="191"/>
+      <c r="O194" s="191"/>
+      <c r="P194" s="191"/>
     </row>
     <row r="195" spans="2:16" ht="37.5">
-      <c r="B195" s="159"/>
-      <c r="C195" s="159"/>
-      <c r="D195" s="159"/>
-      <c r="E195" s="162"/>
+      <c r="B195" s="192"/>
+      <c r="C195" s="192"/>
+      <c r="D195" s="192"/>
+      <c r="E195" s="154"/>
       <c r="F195" s="3" t="s">
         <v>87</v>
       </c>
@@ -11831,7 +11866,7 @@
       <c r="H195" s="81">
         <v>10</v>
       </c>
-      <c r="I195" s="159"/>
+      <c r="I195" s="192"/>
       <c r="J195" s="10">
         <v>0.35963200000000001</v>
       </c>
@@ -11844,17 +11879,17 @@
       <c r="M195" s="81">
         <v>38</v>
       </c>
-      <c r="N195" s="159"/>
-      <c r="O195" s="159"/>
-      <c r="P195" s="159"/>
+      <c r="N195" s="192"/>
+      <c r="O195" s="192"/>
+      <c r="P195" s="192"/>
     </row>
     <row r="196" spans="2:16" ht="22.5">
-      <c r="B196" s="163" t="s">
+      <c r="B196" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C196" s="163"/>
-      <c r="D196" s="163"/>
-      <c r="E196" s="163"/>
+      <c r="C196" s="186"/>
+      <c r="D196" s="186"/>
+      <c r="E196" s="186"/>
       <c r="F196" s="64" t="s">
         <v>19</v>
       </c>
@@ -11877,7 +11912,7 @@
       <c r="B197" s="81" t="s">
         <v>104</v>
       </c>
-      <c r="C197" s="135" t="s">
+      <c r="C197" s="133" t="s">
         <v>105</v>
       </c>
       <c r="D197" s="81" t="s">
@@ -11919,12 +11954,12 @@
       </c>
     </row>
     <row r="198" spans="2:16" ht="22.5">
-      <c r="B198" s="163" t="s">
+      <c r="B198" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C198" s="163"/>
-      <c r="D198" s="163"/>
-      <c r="E198" s="163"/>
+      <c r="C198" s="186"/>
+      <c r="D198" s="186"/>
+      <c r="E198" s="186"/>
       <c r="F198" s="64" t="s">
         <v>25</v>
       </c>
@@ -11949,7 +11984,7 @@
       <c r="B199" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="C199" s="135" t="s">
+      <c r="C199" s="133" t="s">
         <v>107</v>
       </c>
       <c r="D199" s="81" t="s">
@@ -11993,12 +12028,12 @@
       </c>
     </row>
     <row r="200" spans="2:16" ht="22.5">
-      <c r="B200" s="163" t="s">
+      <c r="B200" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C200" s="163"/>
-      <c r="D200" s="163"/>
-      <c r="E200" s="163"/>
+      <c r="C200" s="186"/>
+      <c r="D200" s="186"/>
+      <c r="E200" s="186"/>
       <c r="F200" s="64" t="s">
         <v>25</v>
       </c>
@@ -12018,28 +12053,28 @@
       <c r="P200" s="67"/>
     </row>
     <row r="201" spans="2:16" ht="21">
-      <c r="B201" s="166" t="s">
+      <c r="B201" s="185" t="s">
         <v>108</v>
       </c>
-      <c r="C201" s="172" t="s">
+      <c r="C201" s="168" t="s">
         <v>445</v>
       </c>
-      <c r="D201" s="166" t="s">
+      <c r="D201" s="185" t="s">
         <v>109</v>
       </c>
-      <c r="E201" s="169">
+      <c r="E201" s="187">
         <v>45668</v>
       </c>
       <c r="F201" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G201" s="172" t="s">
+      <c r="G201" s="168" t="s">
         <v>111</v>
       </c>
       <c r="H201" s="60">
         <v>385</v>
       </c>
-      <c r="I201" s="166">
+      <c r="I201" s="185">
         <v>1451</v>
       </c>
       <c r="J201" s="63">
@@ -12054,29 +12089,29 @@
       <c r="M201" s="60">
         <v>30</v>
       </c>
-      <c r="N201" s="175">
+      <c r="N201" s="182">
         <v>45671</v>
       </c>
-      <c r="O201" s="175">
+      <c r="O201" s="182">
         <v>45714</v>
       </c>
-      <c r="P201" s="166" t="s">
+      <c r="P201" s="185" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="202" spans="2:16" ht="21">
-      <c r="B202" s="167"/>
-      <c r="C202" s="173"/>
-      <c r="D202" s="167"/>
-      <c r="E202" s="170"/>
+      <c r="B202" s="183"/>
+      <c r="C202" s="177"/>
+      <c r="D202" s="183"/>
+      <c r="E202" s="188"/>
       <c r="F202" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G202" s="174"/>
+      <c r="G202" s="169"/>
       <c r="H202" s="60">
         <v>36</v>
       </c>
-      <c r="I202" s="167"/>
+      <c r="I202" s="183"/>
       <c r="J202" s="63">
         <v>0.29759999999999998</v>
       </c>
@@ -12089,15 +12124,15 @@
       <c r="M202" s="60">
         <v>20</v>
       </c>
-      <c r="N202" s="167"/>
-      <c r="O202" s="167"/>
-      <c r="P202" s="167"/>
+      <c r="N202" s="183"/>
+      <c r="O202" s="183"/>
+      <c r="P202" s="183"/>
     </row>
     <row r="203" spans="2:16" ht="21">
-      <c r="B203" s="167"/>
-      <c r="C203" s="173"/>
-      <c r="D203" s="167"/>
-      <c r="E203" s="170"/>
+      <c r="B203" s="183"/>
+      <c r="C203" s="177"/>
+      <c r="D203" s="183"/>
+      <c r="E203" s="188"/>
       <c r="F203" s="62" t="s">
         <v>113</v>
       </c>
@@ -12107,7 +12142,7 @@
       <c r="H203" s="60">
         <v>26</v>
       </c>
-      <c r="I203" s="167"/>
+      <c r="I203" s="183"/>
       <c r="J203" s="63">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -12120,15 +12155,15 @@
       <c r="M203" s="60">
         <v>33</v>
       </c>
-      <c r="N203" s="167"/>
-      <c r="O203" s="167"/>
-      <c r="P203" s="167"/>
+      <c r="N203" s="183"/>
+      <c r="O203" s="183"/>
+      <c r="P203" s="183"/>
     </row>
     <row r="204" spans="2:16" ht="21">
-      <c r="B204" s="167"/>
-      <c r="C204" s="173"/>
-      <c r="D204" s="167"/>
-      <c r="E204" s="170"/>
+      <c r="B204" s="183"/>
+      <c r="C204" s="177"/>
+      <c r="D204" s="183"/>
+      <c r="E204" s="188"/>
       <c r="F204" s="62" t="s">
         <v>115</v>
       </c>
@@ -12138,7 +12173,7 @@
       <c r="H204" s="60">
         <v>121</v>
       </c>
-      <c r="I204" s="167"/>
+      <c r="I204" s="183"/>
       <c r="J204" s="63">
         <v>3.456E-2</v>
       </c>
@@ -12151,15 +12186,15 @@
       <c r="M204" s="60">
         <v>24</v>
       </c>
-      <c r="N204" s="167"/>
-      <c r="O204" s="167"/>
-      <c r="P204" s="167"/>
+      <c r="N204" s="183"/>
+      <c r="O204" s="183"/>
+      <c r="P204" s="183"/>
     </row>
     <row r="205" spans="2:16" ht="37.5">
-      <c r="B205" s="167"/>
-      <c r="C205" s="173"/>
-      <c r="D205" s="167"/>
-      <c r="E205" s="170"/>
+      <c r="B205" s="183"/>
+      <c r="C205" s="177"/>
+      <c r="D205" s="183"/>
+      <c r="E205" s="188"/>
       <c r="F205" s="62" t="s">
         <v>117</v>
       </c>
@@ -12169,7 +12204,7 @@
       <c r="H205" s="60">
         <v>24</v>
       </c>
-      <c r="I205" s="167"/>
+      <c r="I205" s="183"/>
       <c r="J205" s="63">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -12182,15 +12217,15 @@
       <c r="M205" s="60">
         <v>15</v>
       </c>
-      <c r="N205" s="167"/>
-      <c r="O205" s="167"/>
-      <c r="P205" s="167"/>
+      <c r="N205" s="183"/>
+      <c r="O205" s="183"/>
+      <c r="P205" s="183"/>
     </row>
     <row r="206" spans="2:16" ht="21">
-      <c r="B206" s="168"/>
-      <c r="C206" s="174"/>
-      <c r="D206" s="168"/>
-      <c r="E206" s="171"/>
+      <c r="B206" s="184"/>
+      <c r="C206" s="169"/>
+      <c r="D206" s="184"/>
+      <c r="E206" s="189"/>
       <c r="F206" s="62" t="s">
         <v>118</v>
       </c>
@@ -12200,7 +12235,7 @@
       <c r="H206" s="60">
         <v>150</v>
       </c>
-      <c r="I206" s="168"/>
+      <c r="I206" s="184"/>
       <c r="J206" s="63">
         <v>1.512</v>
       </c>
@@ -12213,17 +12248,17 @@
       <c r="M206" s="60">
         <v>30</v>
       </c>
-      <c r="N206" s="168"/>
-      <c r="O206" s="168"/>
-      <c r="P206" s="168"/>
+      <c r="N206" s="184"/>
+      <c r="O206" s="184"/>
+      <c r="P206" s="184"/>
     </row>
     <row r="207" spans="2:16" ht="22.5">
-      <c r="B207" s="163" t="s">
+      <c r="B207" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C207" s="163"/>
-      <c r="D207" s="163"/>
-      <c r="E207" s="163"/>
+      <c r="C207" s="186"/>
+      <c r="D207" s="186"/>
+      <c r="E207" s="186"/>
       <c r="F207" s="64" t="s">
         <v>119</v>
       </c>
@@ -12238,33 +12273,33 @@
       <c r="K207" s="52"/>
       <c r="L207" s="52"/>
       <c r="M207" s="52"/>
-      <c r="N207" s="134"/>
-      <c r="O207" s="134"/>
+      <c r="N207" s="132"/>
+      <c r="O207" s="132"/>
       <c r="P207" s="55"/>
     </row>
     <row r="208" spans="2:16" ht="21">
-      <c r="B208" s="166" t="s">
+      <c r="B208" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="C208" s="172" t="s">
+      <c r="C208" s="168" t="s">
         <v>447</v>
       </c>
-      <c r="D208" s="166" t="s">
+      <c r="D208" s="185" t="s">
         <v>62</v>
       </c>
-      <c r="E208" s="169">
+      <c r="E208" s="187">
         <v>45668</v>
       </c>
       <c r="F208" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G208" s="172" t="s">
+      <c r="G208" s="168" t="s">
         <v>77</v>
       </c>
       <c r="H208" s="60">
         <v>300</v>
       </c>
-      <c r="I208" s="166">
+      <c r="I208" s="185">
         <v>680</v>
       </c>
       <c r="J208" s="63">
@@ -12279,29 +12314,29 @@
       <c r="M208" s="60">
         <v>24</v>
       </c>
-      <c r="N208" s="175">
+      <c r="N208" s="182">
         <v>45671</v>
       </c>
-      <c r="O208" s="175">
+      <c r="O208" s="182">
         <v>45714</v>
       </c>
-      <c r="P208" s="166" t="s">
+      <c r="P208" s="185" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="209" spans="2:16" ht="21">
-      <c r="B209" s="167"/>
-      <c r="C209" s="173"/>
-      <c r="D209" s="167"/>
-      <c r="E209" s="170"/>
+      <c r="B209" s="183"/>
+      <c r="C209" s="177"/>
+      <c r="D209" s="183"/>
+      <c r="E209" s="188"/>
       <c r="F209" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="G209" s="167"/>
+      <c r="G209" s="183"/>
       <c r="H209" s="60">
         <v>80</v>
       </c>
-      <c r="I209" s="167"/>
+      <c r="I209" s="183"/>
       <c r="J209" s="63">
         <v>0.189</v>
       </c>
@@ -12314,23 +12349,23 @@
       <c r="M209" s="60">
         <v>30</v>
       </c>
-      <c r="N209" s="167"/>
-      <c r="O209" s="167"/>
-      <c r="P209" s="167"/>
+      <c r="N209" s="183"/>
+      <c r="O209" s="183"/>
+      <c r="P209" s="183"/>
     </row>
     <row r="210" spans="2:16" ht="21">
-      <c r="B210" s="168"/>
-      <c r="C210" s="174"/>
-      <c r="D210" s="168"/>
-      <c r="E210" s="171"/>
+      <c r="B210" s="184"/>
+      <c r="C210" s="169"/>
+      <c r="D210" s="184"/>
+      <c r="E210" s="189"/>
       <c r="F210" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G210" s="168"/>
+      <c r="G210" s="184"/>
       <c r="H210" s="60">
         <v>5100</v>
       </c>
-      <c r="I210" s="168"/>
+      <c r="I210" s="184"/>
       <c r="J210" s="63">
         <v>2.7820800000000001</v>
       </c>
@@ -12343,17 +12378,17 @@
       <c r="M210" s="60">
         <v>28</v>
       </c>
-      <c r="N210" s="168"/>
-      <c r="O210" s="168"/>
-      <c r="P210" s="168"/>
+      <c r="N210" s="184"/>
+      <c r="O210" s="184"/>
+      <c r="P210" s="184"/>
     </row>
     <row r="211" spans="2:16" ht="22.5">
-      <c r="B211" s="163" t="s">
+      <c r="B211" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C211" s="163"/>
-      <c r="D211" s="163"/>
-      <c r="E211" s="163"/>
+      <c r="C211" s="186"/>
+      <c r="D211" s="186"/>
+      <c r="E211" s="186"/>
       <c r="F211" s="64" t="s">
         <v>113</v>
       </c>
@@ -12418,12 +12453,12 @@
       </c>
     </row>
     <row r="213" spans="2:16" ht="22.5">
-      <c r="B213" s="163" t="s">
+      <c r="B213" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C213" s="163"/>
-      <c r="D213" s="163"/>
-      <c r="E213" s="163"/>
+      <c r="C213" s="186"/>
+      <c r="D213" s="186"/>
+      <c r="E213" s="186"/>
       <c r="F213" s="64" t="s">
         <v>23</v>
       </c>
@@ -12446,7 +12481,7 @@
       <c r="B214" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="C214" s="135" t="s">
+      <c r="C214" s="133" t="s">
         <v>126</v>
       </c>
       <c r="D214" s="81" t="s">
@@ -12482,12 +12517,12 @@
       <c r="P214" s="81"/>
     </row>
     <row r="215" spans="2:16" ht="22.5">
-      <c r="B215" s="163" t="s">
+      <c r="B215" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C215" s="163"/>
-      <c r="D215" s="163"/>
-      <c r="E215" s="163"/>
+      <c r="C215" s="186"/>
+      <c r="D215" s="186"/>
+      <c r="E215" s="186"/>
       <c r="F215" s="64" t="s">
         <v>21</v>
       </c>
@@ -12547,12 +12582,12 @@
       <c r="P216" s="60"/>
     </row>
     <row r="217" spans="2:16" ht="22.5">
-      <c r="B217" s="163" t="s">
+      <c r="B217" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C217" s="163"/>
-      <c r="D217" s="163"/>
-      <c r="E217" s="163"/>
+      <c r="C217" s="186"/>
+      <c r="D217" s="186"/>
+      <c r="E217" s="186"/>
       <c r="F217" s="64" t="s">
         <v>21</v>
       </c>
@@ -12619,12 +12654,12 @@
       <c r="P218" s="60"/>
     </row>
     <row r="219" spans="2:16" ht="22.5">
-      <c r="B219" s="163" t="s">
+      <c r="B219" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C219" s="163"/>
-      <c r="D219" s="163"/>
-      <c r="E219" s="163"/>
+      <c r="C219" s="186"/>
+      <c r="D219" s="186"/>
+      <c r="E219" s="186"/>
       <c r="F219" s="64" t="s">
         <v>56</v>
       </c>
@@ -12644,24 +12679,24 @@
       <c r="P219" s="55"/>
     </row>
     <row r="220" spans="2:16" ht="21">
-      <c r="B220" s="157" t="s">
+      <c r="B220" s="190" t="s">
         <v>132</v>
       </c>
       <c r="C220" s="81"/>
-      <c r="D220" s="157" t="s">
+      <c r="D220" s="190" t="s">
         <v>53</v>
       </c>
-      <c r="E220" s="160">
+      <c r="E220" s="152">
         <v>45671</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G220" s="157" t="s">
+      <c r="G220" s="190" t="s">
         <v>54</v>
       </c>
       <c r="H220" s="81"/>
-      <c r="I220" s="157"/>
+      <c r="I220" s="190"/>
       <c r="J220" s="10">
         <v>7.7367000000000008</v>
       </c>
@@ -12683,16 +12718,16 @@
       <c r="P220" s="81"/>
     </row>
     <row r="221" spans="2:16" ht="21">
-      <c r="B221" s="159"/>
+      <c r="B221" s="192"/>
       <c r="C221" s="81"/>
-      <c r="D221" s="159"/>
-      <c r="E221" s="162"/>
+      <c r="D221" s="192"/>
+      <c r="E221" s="154"/>
       <c r="F221" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G221" s="159"/>
+      <c r="G221" s="192"/>
       <c r="H221" s="81"/>
-      <c r="I221" s="159"/>
+      <c r="I221" s="192"/>
       <c r="J221" s="10">
         <v>0.67200000000000004</v>
       </c>
@@ -12710,12 +12745,12 @@
       <c r="P221" s="81"/>
     </row>
     <row r="222" spans="2:16" ht="22.5">
-      <c r="B222" s="163" t="s">
+      <c r="B222" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C222" s="163"/>
-      <c r="D222" s="163"/>
-      <c r="E222" s="163"/>
+      <c r="C222" s="186"/>
+      <c r="D222" s="186"/>
+      <c r="E222" s="186"/>
       <c r="F222" s="64" t="s">
         <v>134</v>
       </c>
@@ -12735,28 +12770,28 @@
       <c r="P222" s="67"/>
     </row>
     <row r="223" spans="2:16" ht="42">
-      <c r="B223" s="166" t="s">
+      <c r="B223" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="C223" s="166">
+      <c r="C223" s="185">
         <v>13924006350</v>
       </c>
-      <c r="D223" s="166" t="s">
+      <c r="D223" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="E223" s="169">
+      <c r="E223" s="187">
         <v>45672</v>
       </c>
       <c r="F223" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G223" s="172" t="s">
+      <c r="G223" s="168" t="s">
         <v>136</v>
       </c>
       <c r="H223" s="60">
         <v>2</v>
       </c>
-      <c r="I223" s="166">
+      <c r="I223" s="185">
         <v>1478</v>
       </c>
       <c r="J223" s="63">
@@ -12772,10 +12807,10 @@
       <c r="M223" s="60">
         <v>43</v>
       </c>
-      <c r="N223" s="166" t="s">
+      <c r="N223" s="185" t="s">
         <v>82</v>
       </c>
-      <c r="O223" s="166" t="s">
+      <c r="O223" s="185" t="s">
         <v>82</v>
       </c>
       <c r="P223" s="106" t="s">
@@ -12783,18 +12818,18 @@
       </c>
     </row>
     <row r="224" spans="2:16" ht="21">
-      <c r="B224" s="167"/>
-      <c r="C224" s="167"/>
-      <c r="D224" s="167"/>
-      <c r="E224" s="170"/>
+      <c r="B224" s="183"/>
+      <c r="C224" s="183"/>
+      <c r="D224" s="183"/>
+      <c r="E224" s="188"/>
       <c r="F224" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G224" s="173"/>
+      <c r="G224" s="177"/>
       <c r="H224" s="60">
         <v>1</v>
       </c>
-      <c r="I224" s="167"/>
+      <c r="I224" s="183"/>
       <c r="J224" s="63">
         <f t="shared" ref="J224:J230" si="1">K224*L224*M224/1000000</f>
         <v>2.494008</v>
@@ -12808,23 +12843,23 @@
       <c r="M224" s="60">
         <v>188</v>
       </c>
-      <c r="N224" s="167"/>
-      <c r="O224" s="167"/>
-      <c r="P224" s="132"/>
+      <c r="N224" s="183"/>
+      <c r="O224" s="183"/>
+      <c r="P224" s="130"/>
     </row>
     <row r="225" spans="2:16" ht="21">
-      <c r="B225" s="167"/>
-      <c r="C225" s="167"/>
-      <c r="D225" s="167"/>
-      <c r="E225" s="170"/>
+      <c r="B225" s="183"/>
+      <c r="C225" s="183"/>
+      <c r="D225" s="183"/>
+      <c r="E225" s="188"/>
       <c r="F225" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G225" s="173"/>
+      <c r="G225" s="177"/>
       <c r="H225" s="60">
         <v>1</v>
       </c>
-      <c r="I225" s="167"/>
+      <c r="I225" s="183"/>
       <c r="J225" s="63">
         <f t="shared" si="1"/>
         <v>2.4490620000000001</v>
@@ -12838,23 +12873,23 @@
       <c r="M225" s="60">
         <v>133</v>
       </c>
-      <c r="N225" s="167"/>
-      <c r="O225" s="167"/>
-      <c r="P225" s="132"/>
+      <c r="N225" s="183"/>
+      <c r="O225" s="183"/>
+      <c r="P225" s="130"/>
     </row>
     <row r="226" spans="2:16" ht="21">
-      <c r="B226" s="167"/>
-      <c r="C226" s="167"/>
-      <c r="D226" s="167"/>
-      <c r="E226" s="170"/>
+      <c r="B226" s="183"/>
+      <c r="C226" s="183"/>
+      <c r="D226" s="183"/>
+      <c r="E226" s="188"/>
       <c r="F226" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G226" s="173"/>
+      <c r="G226" s="177"/>
       <c r="H226" s="60">
         <v>1</v>
       </c>
-      <c r="I226" s="167"/>
+      <c r="I226" s="183"/>
       <c r="J226" s="63">
         <f t="shared" si="1"/>
         <v>0.10374</v>
@@ -12868,23 +12903,23 @@
       <c r="M226" s="60">
         <v>15</v>
       </c>
-      <c r="N226" s="167"/>
-      <c r="O226" s="167"/>
-      <c r="P226" s="132"/>
+      <c r="N226" s="183"/>
+      <c r="O226" s="183"/>
+      <c r="P226" s="130"/>
     </row>
     <row r="227" spans="2:16" ht="21">
-      <c r="B227" s="167"/>
-      <c r="C227" s="167"/>
-      <c r="D227" s="167"/>
-      <c r="E227" s="170"/>
+      <c r="B227" s="183"/>
+      <c r="C227" s="183"/>
+      <c r="D227" s="183"/>
+      <c r="E227" s="188"/>
       <c r="F227" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G227" s="173"/>
+      <c r="G227" s="177"/>
       <c r="H227" s="60">
         <v>1</v>
       </c>
-      <c r="I227" s="167"/>
+      <c r="I227" s="183"/>
       <c r="J227" s="63">
         <f t="shared" si="1"/>
         <v>1.81044</v>
@@ -12898,23 +12933,23 @@
       <c r="M227" s="60">
         <v>188</v>
       </c>
-      <c r="N227" s="167"/>
-      <c r="O227" s="167"/>
-      <c r="P227" s="132"/>
+      <c r="N227" s="183"/>
+      <c r="O227" s="183"/>
+      <c r="P227" s="130"/>
     </row>
     <row r="228" spans="2:16" ht="21">
-      <c r="B228" s="167"/>
-      <c r="C228" s="167"/>
-      <c r="D228" s="167"/>
-      <c r="E228" s="170"/>
+      <c r="B228" s="183"/>
+      <c r="C228" s="183"/>
+      <c r="D228" s="183"/>
+      <c r="E228" s="188"/>
       <c r="F228" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G228" s="173"/>
+      <c r="G228" s="177"/>
       <c r="H228" s="60">
         <v>1</v>
       </c>
-      <c r="I228" s="167"/>
+      <c r="I228" s="183"/>
       <c r="J228" s="63">
         <f t="shared" si="1"/>
         <v>1.7482500000000001</v>
@@ -12928,23 +12963,23 @@
       <c r="M228" s="60">
         <v>175</v>
       </c>
-      <c r="N228" s="167"/>
-      <c r="O228" s="167"/>
-      <c r="P228" s="132"/>
+      <c r="N228" s="183"/>
+      <c r="O228" s="183"/>
+      <c r="P228" s="130"/>
     </row>
     <row r="229" spans="2:16" ht="21">
-      <c r="B229" s="167"/>
-      <c r="C229" s="167"/>
-      <c r="D229" s="167"/>
-      <c r="E229" s="170"/>
+      <c r="B229" s="183"/>
+      <c r="C229" s="183"/>
+      <c r="D229" s="183"/>
+      <c r="E229" s="188"/>
       <c r="F229" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G229" s="173"/>
+      <c r="G229" s="177"/>
       <c r="H229" s="60">
         <v>1</v>
       </c>
-      <c r="I229" s="167"/>
+      <c r="I229" s="183"/>
       <c r="J229" s="63">
         <f t="shared" si="1"/>
         <v>1.2261599999999999</v>
@@ -12958,23 +12993,23 @@
       <c r="M229" s="60">
         <v>117</v>
       </c>
-      <c r="N229" s="167"/>
-      <c r="O229" s="167"/>
-      <c r="P229" s="132"/>
+      <c r="N229" s="183"/>
+      <c r="O229" s="183"/>
+      <c r="P229" s="130"/>
     </row>
     <row r="230" spans="2:16" ht="21">
-      <c r="B230" s="168"/>
-      <c r="C230" s="168"/>
-      <c r="D230" s="168"/>
-      <c r="E230" s="171"/>
+      <c r="B230" s="184"/>
+      <c r="C230" s="184"/>
+      <c r="D230" s="184"/>
+      <c r="E230" s="189"/>
       <c r="F230" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G230" s="174"/>
+      <c r="G230" s="169"/>
       <c r="H230" s="60">
         <v>1</v>
       </c>
-      <c r="I230" s="168"/>
+      <c r="I230" s="184"/>
       <c r="J230" s="63">
         <f t="shared" si="1"/>
         <v>2.0717599999999998</v>
@@ -12988,17 +13023,17 @@
       <c r="M230" s="60">
         <v>188</v>
       </c>
-      <c r="N230" s="168"/>
-      <c r="O230" s="168"/>
-      <c r="P230" s="133"/>
+      <c r="N230" s="184"/>
+      <c r="O230" s="184"/>
+      <c r="P230" s="131"/>
     </row>
     <row r="231" spans="2:16" ht="22.5">
-      <c r="B231" s="163" t="s">
+      <c r="B231" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C231" s="163"/>
-      <c r="D231" s="163"/>
-      <c r="E231" s="163"/>
+      <c r="C231" s="186"/>
+      <c r="D231" s="186"/>
+      <c r="E231" s="186"/>
       <c r="F231" s="64" t="s">
         <v>22</v>
       </c>
@@ -13015,9 +13050,9 @@
       <c r="K231" s="52"/>
       <c r="L231" s="52"/>
       <c r="M231" s="52"/>
-      <c r="N231" s="134"/>
-      <c r="O231" s="134"/>
-      <c r="P231" s="134"/>
+      <c r="N231" s="132"/>
+      <c r="O231" s="132"/>
+      <c r="P231" s="132"/>
     </row>
     <row r="232" spans="2:16" ht="37.5">
       <c r="B232" s="112" t="s">
@@ -13061,12 +13096,12 @@
       <c r="P232" s="81"/>
     </row>
     <row r="233" spans="2:16" ht="22.5">
-      <c r="B233" s="163" t="s">
+      <c r="B233" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C233" s="163"/>
-      <c r="D233" s="163"/>
-      <c r="E233" s="163"/>
+      <c r="C233" s="186"/>
+      <c r="D233" s="186"/>
+      <c r="E233" s="186"/>
       <c r="F233" s="64" t="s">
         <v>21</v>
       </c>
@@ -13086,26 +13121,26 @@
       <c r="P233" s="67"/>
     </row>
     <row r="234" spans="2:16" ht="21">
-      <c r="B234" s="157" t="s">
+      <c r="B234" s="190" t="s">
         <v>183</v>
       </c>
-      <c r="C234" s="164" t="s">
+      <c r="C234" s="197" t="s">
         <v>184</v>
       </c>
-      <c r="D234" s="157" t="s">
+      <c r="D234" s="190" t="s">
         <v>185</v>
       </c>
-      <c r="E234" s="160">
+      <c r="E234" s="152">
         <v>45674</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G234" s="165" t="s">
+      <c r="G234" s="193" t="s">
         <v>186</v>
       </c>
       <c r="H234" s="81"/>
-      <c r="I234" s="157">
+      <c r="I234" s="190">
         <v>80</v>
       </c>
       <c r="J234" s="10">
@@ -13125,16 +13160,16 @@
       <c r="P234" s="81"/>
     </row>
     <row r="235" spans="2:16" ht="21">
-      <c r="B235" s="158"/>
-      <c r="C235" s="158"/>
-      <c r="D235" s="158"/>
-      <c r="E235" s="161"/>
+      <c r="B235" s="191"/>
+      <c r="C235" s="191"/>
+      <c r="D235" s="191"/>
+      <c r="E235" s="153"/>
       <c r="F235" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G235" s="158"/>
+      <c r="G235" s="191"/>
       <c r="H235" s="81"/>
-      <c r="I235" s="158"/>
+      <c r="I235" s="191"/>
       <c r="J235" s="10">
         <v>9.3149999999999997E-2</v>
       </c>
@@ -13152,16 +13187,16 @@
       <c r="P235" s="81"/>
     </row>
     <row r="236" spans="2:16" ht="21">
-      <c r="B236" s="158"/>
-      <c r="C236" s="158"/>
-      <c r="D236" s="158"/>
-      <c r="E236" s="161"/>
+      <c r="B236" s="191"/>
+      <c r="C236" s="191"/>
+      <c r="D236" s="191"/>
+      <c r="E236" s="153"/>
       <c r="F236" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G236" s="158"/>
+      <c r="G236" s="191"/>
       <c r="H236" s="81"/>
-      <c r="I236" s="158"/>
+      <c r="I236" s="191"/>
       <c r="J236" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -13179,16 +13214,16 @@
       <c r="P236" s="81"/>
     </row>
     <row r="237" spans="2:16" ht="21">
-      <c r="B237" s="158"/>
-      <c r="C237" s="158"/>
-      <c r="D237" s="158"/>
-      <c r="E237" s="161"/>
+      <c r="B237" s="191"/>
+      <c r="C237" s="191"/>
+      <c r="D237" s="191"/>
+      <c r="E237" s="153"/>
       <c r="F237" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G237" s="158"/>
+      <c r="G237" s="191"/>
       <c r="H237" s="81"/>
-      <c r="I237" s="158"/>
+      <c r="I237" s="191"/>
       <c r="J237" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -13206,16 +13241,16 @@
       <c r="P237" s="81"/>
     </row>
     <row r="238" spans="2:16" ht="21">
-      <c r="B238" s="159"/>
-      <c r="C238" s="159"/>
-      <c r="D238" s="159"/>
-      <c r="E238" s="162"/>
+      <c r="B238" s="192"/>
+      <c r="C238" s="192"/>
+      <c r="D238" s="192"/>
+      <c r="E238" s="154"/>
       <c r="F238" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G238" s="159"/>
+      <c r="G238" s="192"/>
       <c r="H238" s="81"/>
-      <c r="I238" s="159"/>
+      <c r="I238" s="192"/>
       <c r="J238" s="10">
         <v>2.4570000000000002E-2</v>
       </c>
@@ -13233,12 +13268,12 @@
       <c r="P238" s="81"/>
     </row>
     <row r="239" spans="2:16" ht="22.5">
-      <c r="B239" s="163" t="s">
+      <c r="B239" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C239" s="163"/>
-      <c r="D239" s="163"/>
-      <c r="E239" s="163"/>
+      <c r="C239" s="186"/>
+      <c r="D239" s="186"/>
+      <c r="E239" s="186"/>
       <c r="F239" s="64" t="s">
         <v>13</v>
       </c>
@@ -13304,12 +13339,12 @@
       <c r="P240" s="60"/>
     </row>
     <row r="241" spans="2:16" ht="22.5">
-      <c r="B241" s="163" t="s">
+      <c r="B241" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C241" s="163"/>
-      <c r="D241" s="163"/>
-      <c r="E241" s="163"/>
+      <c r="C241" s="186"/>
+      <c r="D241" s="186"/>
+      <c r="E241" s="186"/>
       <c r="F241" s="64" t="s">
         <v>21</v>
       </c>
@@ -13331,29 +13366,29 @@
       <c r="P241" s="55"/>
     </row>
     <row r="242" spans="2:16" ht="21">
-      <c r="B242" s="157" t="s">
+      <c r="B242" s="190" t="s">
         <v>191</v>
       </c>
-      <c r="C242" s="157" t="s">
+      <c r="C242" s="190" t="s">
         <v>192</v>
       </c>
-      <c r="D242" s="157" t="s">
+      <c r="D242" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="E242" s="160">
+      <c r="E242" s="152">
         <v>45675</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G242" s="157" t="s">
+      <c r="G242" s="190" t="s">
         <v>193</v>
       </c>
       <c r="H242" s="81">
         <f>247*2</f>
         <v>494</v>
       </c>
-      <c r="I242" s="157">
+      <c r="I242" s="190">
         <v>1907</v>
       </c>
       <c r="J242" s="10">
@@ -13374,19 +13409,19 @@
       <c r="P242" s="81"/>
     </row>
     <row r="243" spans="2:16" ht="21">
-      <c r="B243" s="158"/>
-      <c r="C243" s="158"/>
-      <c r="D243" s="158"/>
-      <c r="E243" s="161"/>
+      <c r="B243" s="191"/>
+      <c r="C243" s="191"/>
+      <c r="D243" s="191"/>
+      <c r="E243" s="153"/>
       <c r="F243" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G243" s="158"/>
+      <c r="G243" s="191"/>
       <c r="H243" s="81">
         <f>247*5</f>
         <v>1235</v>
       </c>
-      <c r="I243" s="158"/>
+      <c r="I243" s="191"/>
       <c r="J243" s="10">
         <f>K243*L243*M243/1000000*5</f>
         <v>0.30887999999999999</v>
@@ -13405,19 +13440,19 @@
       <c r="P243" s="81"/>
     </row>
     <row r="244" spans="2:16" ht="21">
-      <c r="B244" s="158"/>
-      <c r="C244" s="158"/>
-      <c r="D244" s="158"/>
-      <c r="E244" s="161"/>
+      <c r="B244" s="191"/>
+      <c r="C244" s="191"/>
+      <c r="D244" s="191"/>
+      <c r="E244" s="153"/>
       <c r="F244" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G244" s="158"/>
+      <c r="G244" s="191"/>
       <c r="H244" s="81">
         <f>248*4</f>
         <v>992</v>
       </c>
-      <c r="I244" s="158"/>
+      <c r="I244" s="191"/>
       <c r="J244" s="10">
         <f>K244*L244*M244/1000000*4</f>
         <v>6.0720000000000003E-2</v>
@@ -13436,19 +13471,19 @@
       <c r="P244" s="81"/>
     </row>
     <row r="245" spans="2:16" ht="21">
-      <c r="B245" s="158"/>
-      <c r="C245" s="158"/>
-      <c r="D245" s="158"/>
-      <c r="E245" s="161"/>
+      <c r="B245" s="191"/>
+      <c r="C245" s="191"/>
+      <c r="D245" s="191"/>
+      <c r="E245" s="153"/>
       <c r="F245" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G245" s="158"/>
+      <c r="G245" s="191"/>
       <c r="H245" s="81">
         <f>247*25</f>
         <v>6175</v>
       </c>
-      <c r="I245" s="158"/>
+      <c r="I245" s="191"/>
       <c r="J245" s="10">
         <f>K245*L245*M245/1000000*25</f>
         <v>0.39899999999999997</v>
@@ -13467,19 +13502,19 @@
       <c r="P245" s="81"/>
     </row>
     <row r="246" spans="2:16" ht="21">
-      <c r="B246" s="158"/>
-      <c r="C246" s="158"/>
-      <c r="D246" s="158"/>
-      <c r="E246" s="161"/>
+      <c r="B246" s="191"/>
+      <c r="C246" s="191"/>
+      <c r="D246" s="191"/>
+      <c r="E246" s="153"/>
       <c r="F246" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G246" s="158"/>
+      <c r="G246" s="191"/>
       <c r="H246" s="81">
         <f>247*10</f>
         <v>2470</v>
       </c>
-      <c r="I246" s="158"/>
+      <c r="I246" s="191"/>
       <c r="J246" s="10">
         <f>K246*L246*M246/1000000*10</f>
         <v>0.60060000000000002</v>
@@ -13498,19 +13533,19 @@
       <c r="P246" s="81"/>
     </row>
     <row r="247" spans="2:16" ht="21">
-      <c r="B247" s="158"/>
-      <c r="C247" s="158"/>
-      <c r="D247" s="158"/>
-      <c r="E247" s="161"/>
+      <c r="B247" s="191"/>
+      <c r="C247" s="191"/>
+      <c r="D247" s="191"/>
+      <c r="E247" s="153"/>
       <c r="F247" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G247" s="158"/>
+      <c r="G247" s="191"/>
       <c r="H247" s="81">
         <f>248*5</f>
         <v>1240</v>
       </c>
-      <c r="I247" s="158"/>
+      <c r="I247" s="191"/>
       <c r="J247" s="10">
         <f>K247*L247*M247/1000000*5</f>
         <v>0.16355999999999998</v>
@@ -13529,19 +13564,19 @@
       <c r="P247" s="81"/>
     </row>
     <row r="248" spans="2:16" ht="21">
-      <c r="B248" s="159"/>
-      <c r="C248" s="159"/>
-      <c r="D248" s="159"/>
-      <c r="E248" s="162"/>
+      <c r="B248" s="192"/>
+      <c r="C248" s="192"/>
+      <c r="D248" s="192"/>
+      <c r="E248" s="154"/>
       <c r="F248" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G248" s="159"/>
+      <c r="G248" s="192"/>
       <c r="H248" s="81">
         <f>248*15</f>
         <v>3720</v>
       </c>
-      <c r="I248" s="159"/>
+      <c r="I248" s="192"/>
       <c r="J248" s="10">
         <f>K248*L248*M248/1000000*15</f>
         <v>0.76690499999999995</v>
@@ -13560,12 +13595,12 @@
       <c r="P248" s="81"/>
     </row>
     <row r="249" spans="2:16" ht="22.5">
-      <c r="B249" s="163" t="s">
+      <c r="B249" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C249" s="163"/>
-      <c r="D249" s="163"/>
-      <c r="E249" s="163"/>
+      <c r="C249" s="186"/>
+      <c r="D249" s="186"/>
+      <c r="E249" s="186"/>
       <c r="F249" s="64" t="s">
         <v>199</v>
       </c>
@@ -13587,29 +13622,29 @@
       <c r="P249" s="67"/>
     </row>
     <row r="250" spans="2:16" ht="21">
-      <c r="B250" s="157" t="s">
+      <c r="B250" s="190" t="s">
         <v>200</v>
       </c>
-      <c r="C250" s="157" t="s">
+      <c r="C250" s="190" t="s">
         <v>201</v>
       </c>
-      <c r="D250" s="157" t="s">
+      <c r="D250" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="E250" s="160">
+      <c r="E250" s="152">
         <v>45676</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G250" s="157" t="s">
+      <c r="G250" s="190" t="s">
         <v>71</v>
       </c>
       <c r="H250" s="81">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I250" s="157">
+      <c r="I250" s="190">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -13626,10 +13661,10 @@
       <c r="M250" s="81">
         <v>29</v>
       </c>
-      <c r="N250" s="165" t="s">
+      <c r="N250" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="O250" s="165" t="s">
+      <c r="O250" s="193" t="s">
         <v>88</v>
       </c>
       <c r="P250" s="111" t="s">
@@ -13637,19 +13672,19 @@
       </c>
     </row>
     <row r="251" spans="2:16" ht="21">
-      <c r="B251" s="159"/>
-      <c r="C251" s="159"/>
-      <c r="D251" s="159"/>
-      <c r="E251" s="162"/>
+      <c r="B251" s="192"/>
+      <c r="C251" s="192"/>
+      <c r="D251" s="192"/>
+      <c r="E251" s="154"/>
       <c r="F251" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G251" s="159"/>
+      <c r="G251" s="192"/>
       <c r="H251" s="81">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I251" s="159"/>
+      <c r="I251" s="192"/>
       <c r="J251" s="10">
         <f>K251*L251*M251/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -13663,17 +13698,17 @@
       <c r="M251" s="81">
         <v>36</v>
       </c>
-      <c r="N251" s="159"/>
-      <c r="O251" s="159"/>
+      <c r="N251" s="192"/>
+      <c r="O251" s="192"/>
       <c r="P251" s="112"/>
     </row>
     <row r="252" spans="2:16" ht="22.5">
-      <c r="B252" s="163" t="s">
+      <c r="B252" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C252" s="163"/>
-      <c r="D252" s="163"/>
-      <c r="E252" s="163"/>
+      <c r="C252" s="186"/>
+      <c r="D252" s="186"/>
+      <c r="E252" s="186"/>
       <c r="F252" s="64" t="s">
         <v>202</v>
       </c>
@@ -13695,27 +13730,27 @@
       <c r="P252" s="67"/>
     </row>
     <row r="253" spans="2:16" ht="21">
-      <c r="B253" s="157" t="s">
+      <c r="B253" s="190" t="s">
         <v>203</v>
       </c>
-      <c r="C253" s="157"/>
-      <c r="D253" s="157" t="s">
+      <c r="C253" s="190"/>
+      <c r="D253" s="190" t="s">
         <v>73</v>
       </c>
-      <c r="E253" s="160">
+      <c r="E253" s="152">
         <v>45677</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G253" s="157" t="s">
+      <c r="G253" s="190" t="s">
         <v>71</v>
       </c>
       <c r="H253" s="81">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I253" s="157">
+      <c r="I253" s="190">
         <f>25*339</f>
         <v>8475</v>
       </c>
@@ -13732,10 +13767,10 @@
       <c r="M253" s="81">
         <v>40</v>
       </c>
-      <c r="N253" s="157" t="s">
+      <c r="N253" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="O253" s="157" t="s">
+      <c r="O253" s="190" t="s">
         <v>88</v>
       </c>
       <c r="P253" s="81" t="s">
@@ -13743,19 +13778,19 @@
       </c>
     </row>
     <row r="254" spans="2:16" ht="21">
-      <c r="B254" s="158"/>
-      <c r="C254" s="158"/>
-      <c r="D254" s="158"/>
-      <c r="E254" s="161"/>
+      <c r="B254" s="191"/>
+      <c r="C254" s="191"/>
+      <c r="D254" s="191"/>
+      <c r="E254" s="153"/>
       <c r="F254" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G254" s="158"/>
+      <c r="G254" s="191"/>
       <c r="H254" s="81">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I254" s="158"/>
+      <c r="I254" s="191"/>
       <c r="J254" s="10">
         <f>K254*L254*M254/1000000*16</f>
         <v>1.66656</v>
@@ -13769,26 +13804,26 @@
       <c r="M254" s="81">
         <v>28</v>
       </c>
-      <c r="N254" s="158"/>
-      <c r="O254" s="158"/>
+      <c r="N254" s="191"/>
+      <c r="O254" s="191"/>
       <c r="P254" s="81" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="255" spans="2:16" ht="21">
-      <c r="B255" s="159"/>
-      <c r="C255" s="159"/>
-      <c r="D255" s="159"/>
-      <c r="E255" s="162"/>
+      <c r="B255" s="192"/>
+      <c r="C255" s="192"/>
+      <c r="D255" s="192"/>
+      <c r="E255" s="154"/>
       <c r="F255" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G255" s="159"/>
+      <c r="G255" s="192"/>
       <c r="H255" s="81">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I255" s="159"/>
+      <c r="I255" s="192"/>
       <c r="J255" s="10">
         <f>K255*L255*M255/1000000*270</f>
         <v>32.129999999999995</v>
@@ -13802,19 +13837,19 @@
       <c r="M255" s="81">
         <v>70</v>
       </c>
-      <c r="N255" s="159"/>
-      <c r="O255" s="159"/>
+      <c r="N255" s="192"/>
+      <c r="O255" s="192"/>
       <c r="P255" s="81" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="256" spans="2:16" ht="22.5">
-      <c r="B256" s="163" t="s">
+      <c r="B256" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C256" s="163"/>
-      <c r="D256" s="163"/>
-      <c r="E256" s="163"/>
+      <c r="C256" s="186"/>
+      <c r="D256" s="186"/>
+      <c r="E256" s="186"/>
       <c r="F256" s="64" t="s">
         <v>207</v>
       </c>
@@ -13836,28 +13871,28 @@
       <c r="P256" s="67"/>
     </row>
     <row r="257" spans="2:16" ht="21">
-      <c r="B257" s="157" t="s">
+      <c r="B257" s="190" t="s">
         <v>208</v>
       </c>
-      <c r="C257" s="164" t="s">
+      <c r="C257" s="197" t="s">
         <v>209</v>
       </c>
-      <c r="D257" s="157" t="s">
+      <c r="D257" s="190" t="s">
         <v>210</v>
       </c>
-      <c r="E257" s="160">
+      <c r="E257" s="152">
         <v>45678</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G257" s="157" t="s">
+      <c r="G257" s="190" t="s">
         <v>32</v>
       </c>
       <c r="H257" s="81">
         <v>1</v>
       </c>
-      <c r="I257" s="157">
+      <c r="I257" s="190">
         <v>37</v>
       </c>
       <c r="J257" s="10">
@@ -13878,18 +13913,18 @@
       <c r="P257" s="81"/>
     </row>
     <row r="258" spans="2:16" ht="21">
-      <c r="B258" s="158"/>
-      <c r="C258" s="158"/>
-      <c r="D258" s="158"/>
-      <c r="E258" s="161"/>
+      <c r="B258" s="191"/>
+      <c r="C258" s="191"/>
+      <c r="D258" s="191"/>
+      <c r="E258" s="153"/>
       <c r="F258" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G258" s="158"/>
+      <c r="G258" s="191"/>
       <c r="H258" s="81">
         <v>10</v>
       </c>
-      <c r="I258" s="158"/>
+      <c r="I258" s="191"/>
       <c r="J258" s="10">
         <f t="shared" si="2"/>
         <v>0.18360000000000001</v>
@@ -13908,18 +13943,18 @@
       <c r="P258" s="81"/>
     </row>
     <row r="259" spans="2:16" ht="21">
-      <c r="B259" s="158"/>
-      <c r="C259" s="158"/>
-      <c r="D259" s="158"/>
-      <c r="E259" s="161"/>
+      <c r="B259" s="191"/>
+      <c r="C259" s="191"/>
+      <c r="D259" s="191"/>
+      <c r="E259" s="153"/>
       <c r="F259" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G259" s="158"/>
+      <c r="G259" s="191"/>
       <c r="H259" s="81">
         <v>10</v>
       </c>
-      <c r="I259" s="158"/>
+      <c r="I259" s="191"/>
       <c r="J259" s="10">
         <f t="shared" si="2"/>
         <v>0.18240999999999999</v>
@@ -13938,18 +13973,18 @@
       <c r="P259" s="81"/>
     </row>
     <row r="260" spans="2:16" ht="21">
-      <c r="B260" s="159"/>
-      <c r="C260" s="159"/>
-      <c r="D260" s="159"/>
-      <c r="E260" s="162"/>
+      <c r="B260" s="192"/>
+      <c r="C260" s="192"/>
+      <c r="D260" s="192"/>
+      <c r="E260" s="154"/>
       <c r="F260" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G260" s="159"/>
+      <c r="G260" s="192"/>
       <c r="H260" s="81">
         <v>2</v>
       </c>
-      <c r="I260" s="159"/>
+      <c r="I260" s="192"/>
       <c r="J260" s="10">
         <f t="shared" si="2"/>
         <v>4.9919999999999999E-2</v>
@@ -13968,28 +14003,28 @@
       <c r="P260" s="81"/>
     </row>
     <row r="261" spans="2:16" ht="21">
-      <c r="B261" s="157" t="s">
+      <c r="B261" s="190" t="s">
         <v>211</v>
       </c>
       <c r="C261" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D261" s="157" t="s">
+      <c r="D261" s="190" t="s">
         <v>210</v>
       </c>
-      <c r="E261" s="160">
+      <c r="E261" s="152">
         <v>45678</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G261" s="157" t="s">
+      <c r="G261" s="190" t="s">
         <v>32</v>
       </c>
       <c r="H261" s="81">
         <v>3</v>
       </c>
-      <c r="I261" s="157">
+      <c r="I261" s="190">
         <v>20</v>
       </c>
       <c r="J261" s="10">
@@ -14010,20 +14045,20 @@
       <c r="P261" s="81"/>
     </row>
     <row r="262" spans="2:16" ht="21">
-      <c r="B262" s="158"/>
+      <c r="B262" s="191"/>
       <c r="C262" s="81">
         <v>2660</v>
       </c>
-      <c r="D262" s="158"/>
-      <c r="E262" s="161"/>
+      <c r="D262" s="191"/>
+      <c r="E262" s="153"/>
       <c r="F262" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G262" s="158"/>
+      <c r="G262" s="191"/>
       <c r="H262" s="81">
         <v>10</v>
       </c>
-      <c r="I262" s="158"/>
+      <c r="I262" s="191"/>
       <c r="J262" s="10">
         <f t="shared" si="2"/>
         <v>4.2335999999999999E-2</v>
@@ -14042,20 +14077,20 @@
       <c r="P262" s="81"/>
     </row>
     <row r="263" spans="2:16" ht="21">
-      <c r="B263" s="159"/>
+      <c r="B263" s="192"/>
       <c r="C263" s="81">
         <v>2461</v>
       </c>
-      <c r="D263" s="159"/>
-      <c r="E263" s="162"/>
+      <c r="D263" s="192"/>
+      <c r="E263" s="154"/>
       <c r="F263" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G263" s="159"/>
+      <c r="G263" s="192"/>
       <c r="H263" s="81">
         <v>130</v>
       </c>
-      <c r="I263" s="159"/>
+      <c r="I263" s="192"/>
       <c r="J263" s="10">
         <f t="shared" si="2"/>
         <v>0.1176</v>
@@ -14074,12 +14109,12 @@
       <c r="P263" s="81"/>
     </row>
     <row r="264" spans="2:16" ht="22.5">
-      <c r="B264" s="163" t="s">
+      <c r="B264" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C264" s="163"/>
-      <c r="D264" s="163"/>
-      <c r="E264" s="163"/>
+      <c r="C264" s="186"/>
+      <c r="D264" s="186"/>
+      <c r="E264" s="186"/>
       <c r="F264" s="64" t="s">
         <v>31</v>
       </c>
@@ -14102,199 +14137,6 @@
     </row>
   </sheetData>
   <mergeCells count="217">
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="B75:B85"/>
-    <mergeCell ref="C75:C85"/>
-    <mergeCell ref="D75:D85"/>
-    <mergeCell ref="E75:E85"/>
-    <mergeCell ref="G75:G85"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="O87:O89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="G111:G114"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="K87:K89"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="N137:N140"/>
-    <mergeCell ref="O137:O140"/>
-    <mergeCell ref="P137:P140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="I137:I140"/>
-    <mergeCell ref="P148:P152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="E158:E162"/>
-    <mergeCell ref="N158:N162"/>
-    <mergeCell ref="I148:I152"/>
-    <mergeCell ref="N148:N152"/>
-    <mergeCell ref="O148:O152"/>
-    <mergeCell ref="P166:P167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="O158:O162"/>
-    <mergeCell ref="P158:P162"/>
-    <mergeCell ref="G160:G161"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="O166:O167"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="N183:N195"/>
-    <mergeCell ref="O183:O195"/>
-    <mergeCell ref="P183:P195"/>
-    <mergeCell ref="G186:G191"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B183:B195"/>
-    <mergeCell ref="C183:C195"/>
-    <mergeCell ref="D183:D195"/>
-    <mergeCell ref="E183:E195"/>
-    <mergeCell ref="G183:G185"/>
-    <mergeCell ref="I183:I195"/>
-    <mergeCell ref="P208:P210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="N201:N206"/>
-    <mergeCell ref="O201:O206"/>
-    <mergeCell ref="P201:P206"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="D208:D210"/>
-    <mergeCell ref="E208:E210"/>
-    <mergeCell ref="G208:G210"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="I208:I210"/>
-    <mergeCell ref="N208:N210"/>
-    <mergeCell ref="O208:O210"/>
-    <mergeCell ref="G220:G221"/>
-    <mergeCell ref="I220:I221"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:B230"/>
-    <mergeCell ref="C223:C230"/>
-    <mergeCell ref="D223:D230"/>
-    <mergeCell ref="E223:E230"/>
-    <mergeCell ref="G223:G230"/>
-    <mergeCell ref="I223:I230"/>
-    <mergeCell ref="C242:C248"/>
-    <mergeCell ref="D242:D248"/>
-    <mergeCell ref="E242:E248"/>
-    <mergeCell ref="N223:N230"/>
-    <mergeCell ref="O223:O230"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="C234:C238"/>
-    <mergeCell ref="D234:D238"/>
-    <mergeCell ref="E234:E238"/>
-    <mergeCell ref="G234:G238"/>
-    <mergeCell ref="I234:I238"/>
-    <mergeCell ref="B264:E264"/>
-    <mergeCell ref="O253:O255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="E257:E260"/>
-    <mergeCell ref="G257:G260"/>
-    <mergeCell ref="I257:I260"/>
-    <mergeCell ref="B253:B255"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="D253:D255"/>
-    <mergeCell ref="E253:E255"/>
-    <mergeCell ref="G253:G255"/>
-    <mergeCell ref="I253:I255"/>
-    <mergeCell ref="N253:N255"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="R2:X2"/>
@@ -14319,6 +14161,199 @@
     <mergeCell ref="B239:E239"/>
     <mergeCell ref="B241:E241"/>
     <mergeCell ref="B242:B248"/>
+    <mergeCell ref="B264:E264"/>
+    <mergeCell ref="O253:O255"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="E257:E260"/>
+    <mergeCell ref="G257:G260"/>
+    <mergeCell ref="I257:I260"/>
+    <mergeCell ref="B253:B255"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="D253:D255"/>
+    <mergeCell ref="E253:E255"/>
+    <mergeCell ref="G253:G255"/>
+    <mergeCell ref="I253:I255"/>
+    <mergeCell ref="N253:N255"/>
+    <mergeCell ref="N223:N230"/>
+    <mergeCell ref="O223:O230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="C234:C238"/>
+    <mergeCell ref="D234:D238"/>
+    <mergeCell ref="E234:E238"/>
+    <mergeCell ref="G234:G238"/>
+    <mergeCell ref="I234:I238"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:B230"/>
+    <mergeCell ref="C223:C230"/>
+    <mergeCell ref="D223:D230"/>
+    <mergeCell ref="E223:E230"/>
+    <mergeCell ref="G223:G230"/>
+    <mergeCell ref="I223:I230"/>
+    <mergeCell ref="C242:C248"/>
+    <mergeCell ref="D242:D248"/>
+    <mergeCell ref="E242:E248"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="I208:I210"/>
+    <mergeCell ref="N208:N210"/>
+    <mergeCell ref="O208:O210"/>
+    <mergeCell ref="G220:G221"/>
+    <mergeCell ref="I220:I221"/>
+    <mergeCell ref="P208:P210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="N201:N206"/>
+    <mergeCell ref="O201:O206"/>
+    <mergeCell ref="P201:P206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="D208:D210"/>
+    <mergeCell ref="E208:E210"/>
+    <mergeCell ref="G208:G210"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="N183:N195"/>
+    <mergeCell ref="O183:O195"/>
+    <mergeCell ref="P183:P195"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B183:B195"/>
+    <mergeCell ref="C183:C195"/>
+    <mergeCell ref="D183:D195"/>
+    <mergeCell ref="E183:E195"/>
+    <mergeCell ref="G183:G185"/>
+    <mergeCell ref="I183:I195"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="O166:O167"/>
+    <mergeCell ref="P166:P167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="O158:O162"/>
+    <mergeCell ref="P158:P162"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="N158:N162"/>
+    <mergeCell ref="I148:I152"/>
+    <mergeCell ref="N148:N152"/>
+    <mergeCell ref="O148:O152"/>
+    <mergeCell ref="P148:P152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="N137:N140"/>
+    <mergeCell ref="O137:O140"/>
+    <mergeCell ref="P137:P140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="I137:I140"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="G111:G114"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="K87:K89"/>
+    <mergeCell ref="B75:B85"/>
+    <mergeCell ref="C75:C85"/>
+    <mergeCell ref="D75:D85"/>
+    <mergeCell ref="E75:E85"/>
+    <mergeCell ref="G75:G85"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O87:O89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="O23:O24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14393,12 +14428,12 @@
     </row>
     <row r="6" spans="1:16" ht="22.5">
       <c r="A6" s="30"/>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
       <c r="F6" s="64" t="s">
         <v>21</v>
       </c>
@@ -14463,12 +14498,12 @@
     </row>
     <row r="9" spans="1:16" ht="22.5">
       <c r="A9" s="30"/>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="76" t="s">
         <v>25</v>
       </c>
@@ -14537,12 +14572,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5">
       <c r="A12" s="30"/>
-      <c r="B12" s="163" t="s">
+      <c r="B12" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="76" t="s">
         <v>15</v>
       </c>

--- a/Master/2025_MASTER.xlsx
+++ b/Master/2025_MASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work TC\Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA773AE-F5B6-4D30-9115-DC1F87DD9683}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F823B159-ED6B-4A6A-B9AB-1D7371D9081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="1440" windowWidth="14595" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL 250115" sheetId="12" r:id="rId1"/>
@@ -24,9 +24,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4523,7 +4523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4967,23 +4967,29 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4997,146 +5003,155 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="23" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="314">
@@ -5680,12 +5695,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E3568-5A38-4555-95C2-66ABB16BC5FB}">
   <dimension ref="A1:AM264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E166" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E150" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B180" sqref="B180:E180"/>
+      <selection pane="bottomRight" activeCell="B158" sqref="B158:B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5755,24 +5770,24 @@
       <c r="N1" s="15"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="59"/>
-      <c r="R1" s="155" t="s">
+      <c r="R1" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="156"/>
-      <c r="T1" s="156"/>
-      <c r="U1" s="156"/>
-      <c r="V1" s="156"/>
-      <c r="W1" s="156"/>
-      <c r="X1" s="156"/>
-      <c r="Y1" s="157" t="s">
+      <c r="S1" s="158"/>
+      <c r="T1" s="158"/>
+      <c r="U1" s="158"/>
+      <c r="V1" s="158"/>
+      <c r="W1" s="158"/>
+      <c r="X1" s="158"/>
+      <c r="Y1" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="158"/>
-      <c r="AA1" s="158"/>
-      <c r="AB1" s="158"/>
-      <c r="AC1" s="158"/>
-      <c r="AD1" s="158"/>
-      <c r="AE1" s="158"/>
+      <c r="Z1" s="160"/>
+      <c r="AA1" s="160"/>
+      <c r="AB1" s="160"/>
+      <c r="AC1" s="160"/>
+      <c r="AD1" s="160"/>
+      <c r="AE1" s="160"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
@@ -5807,24 +5822,24 @@
       <c r="N2" s="15"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="59"/>
-      <c r="R2" s="155" t="s">
+      <c r="R2" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="156"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="157" t="s">
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
+      <c r="Z2" s="160"/>
+      <c r="AA2" s="160"/>
+      <c r="AB2" s="160"/>
+      <c r="AC2" s="160"/>
+      <c r="AD2" s="160"/>
+      <c r="AE2" s="160"/>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="43"/>
@@ -5864,11 +5879,11 @@
       <c r="J3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="159" t="s">
+      <c r="K3" s="205" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="159"/>
-      <c r="M3" s="159"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="205"/>
       <c r="N3" s="23" t="s">
         <v>2</v>
       </c>
@@ -5972,10 +5987,10 @@
       <c r="AM4" s="27"/>
     </row>
     <row r="5" spans="1:39" ht="40.5">
-      <c r="A5" s="199" t="s">
+      <c r="A5" s="156" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="199"/>
+      <c r="B5" s="156"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="144"/>
@@ -6054,7 +6069,7 @@
       <c r="AM6" s="27"/>
     </row>
     <row r="7" spans="1:39" s="2" customFormat="1" ht="21">
-      <c r="A7" s="200" t="s">
+      <c r="A7" s="149" t="s">
         <v>214</v>
       </c>
       <c r="B7" s="115" t="s">
@@ -6099,7 +6114,7 @@
       </c>
     </row>
     <row r="8" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A8" s="201"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="129"/>
       <c r="C8" s="129"/>
       <c r="D8" s="129"/>
@@ -6124,7 +6139,7 @@
       <c r="O8" s="120"/>
     </row>
     <row r="9" spans="1:39" s="2" customFormat="1" ht="21">
-      <c r="A9" s="200" t="s">
+      <c r="A9" s="149" t="s">
         <v>218</v>
       </c>
       <c r="B9" s="115" t="s">
@@ -6169,7 +6184,7 @@
       </c>
     </row>
     <row r="10" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A10" s="201"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="129"/>
       <c r="C10" s="129"/>
       <c r="D10" s="129"/>
@@ -6194,7 +6209,7 @@
       <c r="O10" s="120"/>
     </row>
     <row r="11" spans="1:39" s="2" customFormat="1" ht="42">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="149" t="s">
         <v>221</v>
       </c>
       <c r="B11" s="115" t="s">
@@ -6239,7 +6254,7 @@
       </c>
     </row>
     <row r="12" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A12" s="201"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="129"/>
       <c r="C12" s="129"/>
       <c r="D12" s="129"/>
@@ -6264,7 +6279,7 @@
       <c r="O12" s="120"/>
     </row>
     <row r="13" spans="1:39" s="2" customFormat="1" ht="42">
-      <c r="A13" s="200" t="s">
+      <c r="A13" s="149" t="s">
         <v>224</v>
       </c>
       <c r="B13" s="115" t="s">
@@ -6309,7 +6324,7 @@
       </c>
     </row>
     <row r="14" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A14" s="201"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="129"/>
       <c r="C14" s="129"/>
       <c r="D14" s="129"/>
@@ -6334,7 +6349,7 @@
       <c r="O14" s="120"/>
     </row>
     <row r="15" spans="1:39" s="2" customFormat="1" ht="21">
-      <c r="A15" s="200" t="s">
+      <c r="A15" s="149" t="s">
         <v>227</v>
       </c>
       <c r="B15" s="115" t="s">
@@ -6375,7 +6390,7 @@
       <c r="O15" s="115"/>
     </row>
     <row r="16" spans="1:39" s="11" customFormat="1" ht="22.5">
-      <c r="A16" s="201"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="129"/>
       <c r="C16" s="129"/>
       <c r="D16" s="129"/>
@@ -6400,7 +6415,7 @@
       <c r="O16" s="120"/>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="149" t="s">
         <v>231</v>
       </c>
       <c r="B17" s="115" t="s">
@@ -6445,7 +6460,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A18" s="201"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="129"/>
       <c r="C18" s="129"/>
       <c r="D18" s="129"/>
@@ -6470,7 +6485,7 @@
       <c r="O18" s="120"/>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="149" t="s">
         <v>235</v>
       </c>
       <c r="B19" s="115" t="s">
@@ -6515,7 +6530,7 @@
       </c>
     </row>
     <row r="20" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A20" s="201"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="129"/>
       <c r="C20" s="129"/>
       <c r="D20" s="129"/>
@@ -6540,7 +6555,7 @@
       <c r="O20" s="120"/>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A21" s="200" t="s">
+      <c r="A21" s="149" t="s">
         <v>238</v>
       </c>
       <c r="B21" s="115" t="s">
@@ -6585,7 +6600,7 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A22" s="201"/>
+      <c r="A22" s="150"/>
       <c r="B22" s="129"/>
       <c r="C22" s="129"/>
       <c r="D22" s="129"/>
@@ -6610,28 +6625,28 @@
       <c r="O22" s="120"/>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="149" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="149" t="s">
+      <c r="B23" s="202" t="s">
         <v>244</v>
       </c>
       <c r="C23" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="149" t="s">
+      <c r="D23" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="164">
         <v>45661</v>
       </c>
       <c r="F23" s="115">
         <v>1</v>
       </c>
-      <c r="G23" s="149" t="s">
+      <c r="G23" s="202" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="149">
+      <c r="H23" s="202">
         <v>2</v>
       </c>
       <c r="I23" s="115">
@@ -6650,25 +6665,25 @@
         <v>13</v>
       </c>
       <c r="N23" s="115"/>
-      <c r="O23" s="149" t="s">
+      <c r="O23" s="202" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A24" s="200" t="s">
+      <c r="A24" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="151"/>
+      <c r="B24" s="204"/>
       <c r="C24" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="154"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="166"/>
       <c r="F24" s="115">
         <v>2</v>
       </c>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="204"/>
       <c r="I24" s="115">
         <v>1.1000000000000001</v>
       </c>
@@ -6685,10 +6700,10 @@
         <v>13</v>
       </c>
       <c r="N24" s="115"/>
-      <c r="O24" s="151"/>
+      <c r="O24" s="204"/>
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A25" s="201"/>
+      <c r="A25" s="150"/>
       <c r="B25" s="129"/>
       <c r="C25" s="129"/>
       <c r="D25" s="129"/>
@@ -6713,7 +6728,7 @@
       <c r="O25" s="120"/>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A26" s="200" t="s">
+      <c r="A26" s="149" t="s">
         <v>248</v>
       </c>
       <c r="B26" s="115" t="s">
@@ -6758,7 +6773,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A27" s="201"/>
+      <c r="A27" s="150"/>
       <c r="B27" s="129"/>
       <c r="C27" s="129"/>
       <c r="D27" s="129"/>
@@ -6783,7 +6798,7 @@
       <c r="O27" s="120"/>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A28" s="200" t="s">
+      <c r="A28" s="149" t="s">
         <v>251</v>
       </c>
       <c r="B28" s="115" t="s">
@@ -6828,7 +6843,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A29" s="201"/>
+      <c r="A29" s="150"/>
       <c r="B29" s="129"/>
       <c r="C29" s="129"/>
       <c r="D29" s="129"/>
@@ -6853,7 +6868,7 @@
       <c r="O29" s="120"/>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A30" s="200" t="s">
+      <c r="A30" s="149" t="s">
         <v>254</v>
       </c>
       <c r="B30" s="115" t="s">
@@ -6896,7 +6911,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A31" s="201"/>
+      <c r="A31" s="150"/>
       <c r="B31" s="129"/>
       <c r="C31" s="129"/>
       <c r="D31" s="129"/>
@@ -6921,7 +6936,7 @@
       <c r="O31" s="120"/>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A32" s="200" t="s">
+      <c r="A32" s="149" t="s">
         <v>258</v>
       </c>
       <c r="B32" s="115" t="s">
@@ -6967,7 +6982,7 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A33" s="201"/>
+      <c r="A33" s="150"/>
       <c r="B33" s="129"/>
       <c r="C33" s="129"/>
       <c r="D33" s="129"/>
@@ -6992,7 +7007,7 @@
       <c r="O33" s="120"/>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A34" s="200" t="s">
+      <c r="A34" s="149" t="s">
         <v>261</v>
       </c>
       <c r="B34" s="115" t="s">
@@ -7038,7 +7053,7 @@
       </c>
     </row>
     <row r="35" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A35" s="201"/>
+      <c r="A35" s="150"/>
       <c r="B35" s="129"/>
       <c r="C35" s="129"/>
       <c r="D35" s="129"/>
@@ -7063,7 +7078,7 @@
       <c r="O35" s="120"/>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A36" s="200" t="s">
+      <c r="A36" s="149" t="s">
         <v>264</v>
       </c>
       <c r="B36" s="81" t="s">
@@ -7106,7 +7121,7 @@
       <c r="O36" s="81"/>
     </row>
     <row r="37" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A37" s="201"/>
+      <c r="A37" s="150"/>
       <c r="B37" s="129"/>
       <c r="C37" s="129"/>
       <c r="D37" s="129"/>
@@ -7131,7 +7146,7 @@
       <c r="O37" s="120"/>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A38" s="200" t="s">
+      <c r="A38" s="149" t="s">
         <v>269</v>
       </c>
       <c r="B38" s="115" t="s">
@@ -7172,7 +7187,7 @@
       <c r="O38" s="115"/>
     </row>
     <row r="39" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A39" s="201"/>
+      <c r="A39" s="150"/>
       <c r="B39" s="129"/>
       <c r="C39" s="129"/>
       <c r="D39" s="129"/>
@@ -7197,7 +7212,7 @@
       <c r="O39" s="120"/>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1" ht="42">
-      <c r="A40" s="200" t="s">
+      <c r="A40" s="149" t="s">
         <v>274</v>
       </c>
       <c r="B40" s="115" t="s">
@@ -7242,7 +7257,7 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A41" s="201"/>
+      <c r="A41" s="150"/>
       <c r="B41" s="129"/>
       <c r="C41" s="129"/>
       <c r="D41" s="129"/>
@@ -7267,28 +7282,28 @@
       <c r="O41" s="120"/>
     </row>
     <row r="42" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A42" s="200" t="s">
+      <c r="A42" s="149" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="149" t="s">
+      <c r="B42" s="202" t="s">
         <v>279</v>
       </c>
       <c r="C42" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="149" t="s">
+      <c r="D42" s="202" t="s">
         <v>241</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="164">
         <v>45664</v>
       </c>
       <c r="F42" s="115">
         <v>1</v>
       </c>
-      <c r="G42" s="149" t="s">
+      <c r="G42" s="202" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="149">
+      <c r="H42" s="202">
         <v>3</v>
       </c>
       <c r="I42" s="115">
@@ -7307,25 +7322,25 @@
         <v>20</v>
       </c>
       <c r="N42" s="115"/>
-      <c r="O42" s="149" t="s">
+      <c r="O42" s="202" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A43" s="200" t="s">
+      <c r="A43" s="149" t="s">
         <v>281</v>
       </c>
-      <c r="B43" s="150"/>
+      <c r="B43" s="203"/>
       <c r="C43" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="D43" s="150"/>
-      <c r="E43" s="153"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="165"/>
       <c r="F43" s="115">
         <v>2</v>
       </c>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
       <c r="I43" s="115">
         <v>1.4</v>
       </c>
@@ -7342,23 +7357,23 @@
         <v>20</v>
       </c>
       <c r="N43" s="115"/>
-      <c r="O43" s="150"/>
+      <c r="O43" s="203"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A44" s="200" t="s">
+      <c r="A44" s="149" t="s">
         <v>283</v>
       </c>
-      <c r="B44" s="151"/>
+      <c r="B44" s="204"/>
       <c r="C44" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="151"/>
-      <c r="E44" s="154"/>
+      <c r="D44" s="204"/>
+      <c r="E44" s="166"/>
       <c r="F44" s="115">
         <v>3</v>
       </c>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="204"/>
       <c r="I44" s="115">
         <v>2</v>
       </c>
@@ -7375,10 +7390,10 @@
         <v>20</v>
       </c>
       <c r="N44" s="115"/>
-      <c r="O44" s="151"/>
+      <c r="O44" s="204"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A45" s="201"/>
+      <c r="A45" s="150"/>
       <c r="B45" s="129"/>
       <c r="C45" s="129"/>
       <c r="D45" s="129"/>
@@ -7403,7 +7418,7 @@
       <c r="O45" s="120"/>
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="21">
-      <c r="A46" s="200" t="s">
+      <c r="A46" s="149" t="s">
         <v>285</v>
       </c>
       <c r="B46" s="115" t="s">
@@ -7448,7 +7463,7 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A47" s="201"/>
+      <c r="A47" s="150"/>
       <c r="B47" s="129"/>
       <c r="C47" s="129"/>
       <c r="D47" s="129"/>
@@ -7473,7 +7488,7 @@
       <c r="O47" s="120"/>
     </row>
     <row r="48" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A48" s="202" t="s">
+      <c r="A48" s="151" t="s">
         <v>289</v>
       </c>
       <c r="B48" s="90" t="s">
@@ -7520,7 +7535,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A49" s="201"/>
+      <c r="A49" s="150"/>
       <c r="B49" s="129"/>
       <c r="C49" s="129"/>
       <c r="D49" s="129"/>
@@ -7545,7 +7560,7 @@
       <c r="O49" s="120"/>
     </row>
     <row r="50" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A50" s="202" t="s">
+      <c r="A50" s="151" t="s">
         <v>293</v>
       </c>
       <c r="B50" s="90" t="s">
@@ -7590,7 +7605,7 @@
       </c>
     </row>
     <row r="51" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A51" s="201"/>
+      <c r="A51" s="150"/>
       <c r="B51" s="129"/>
       <c r="C51" s="129"/>
       <c r="D51" s="129"/>
@@ -7615,71 +7630,71 @@
       <c r="O51" s="120"/>
     </row>
     <row r="52" spans="1:15" s="101" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A52" s="202" t="s">
+      <c r="A52" s="151" t="s">
         <v>296</v>
       </c>
-      <c r="B52" s="162" t="s">
+      <c r="B52" s="200" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="162" t="s">
+      <c r="C52" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="D52" s="162" t="s">
+      <c r="D52" s="200" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="170">
+      <c r="E52" s="186">
         <v>45666</v>
       </c>
       <c r="F52" s="90">
         <v>1</v>
       </c>
-      <c r="G52" s="162" t="s">
+      <c r="G52" s="200" t="s">
         <v>97</v>
       </c>
       <c r="H52" s="90"/>
-      <c r="I52" s="162">
+      <c r="I52" s="200">
         <v>10.199999999999999</v>
       </c>
-      <c r="J52" s="160">
+      <c r="J52" s="198">
         <v>0.10335</v>
       </c>
-      <c r="K52" s="162">
+      <c r="K52" s="200">
         <v>53</v>
       </c>
-      <c r="L52" s="162">
+      <c r="L52" s="200">
         <v>39</v>
       </c>
-      <c r="M52" s="162">
+      <c r="M52" s="200">
         <v>50</v>
       </c>
       <c r="N52" s="90"/>
-      <c r="O52" s="162" t="s">
+      <c r="O52" s="200" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A53" s="202" t="s">
+      <c r="A53" s="151" t="s">
         <v>300</v>
       </c>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="171"/>
+      <c r="B53" s="201"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="201"/>
+      <c r="E53" s="188"/>
       <c r="F53" s="90">
         <v>2</v>
       </c>
-      <c r="G53" s="163"/>
+      <c r="G53" s="201"/>
       <c r="H53" s="90"/>
-      <c r="I53" s="163"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="163"/>
-      <c r="L53" s="163"/>
-      <c r="M53" s="163"/>
+      <c r="I53" s="201"/>
+      <c r="J53" s="199"/>
+      <c r="K53" s="201"/>
+      <c r="L53" s="201"/>
+      <c r="M53" s="201"/>
       <c r="N53" s="90"/>
-      <c r="O53" s="163"/>
+      <c r="O53" s="201"/>
     </row>
     <row r="54" spans="1:15" s="11" customFormat="1" ht="22.5">
-      <c r="A54" s="201"/>
+      <c r="A54" s="150"/>
       <c r="B54" s="129"/>
       <c r="C54" s="129"/>
       <c r="D54" s="129"/>
@@ -7704,28 +7719,28 @@
       <c r="O54" s="120"/>
     </row>
     <row r="55" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A55" s="202" t="s">
+      <c r="A55" s="151" t="s">
         <v>301</v>
       </c>
-      <c r="B55" s="164" t="s">
+      <c r="B55" s="190" t="s">
         <v>302</v>
       </c>
-      <c r="C55" s="164" t="s">
+      <c r="C55" s="190" t="s">
         <v>303</v>
       </c>
-      <c r="D55" s="164" t="s">
+      <c r="D55" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="166">
+      <c r="E55" s="196">
         <v>45668</v>
       </c>
       <c r="F55" s="94">
         <v>1</v>
       </c>
-      <c r="G55" s="168" t="s">
+      <c r="G55" s="176" t="s">
         <v>304</v>
       </c>
-      <c r="H55" s="164">
+      <c r="H55" s="190">
         <v>1676</v>
       </c>
       <c r="I55" s="94">
@@ -7745,23 +7760,23 @@
         <v>43</v>
       </c>
       <c r="N55" s="94"/>
-      <c r="O55" s="164" t="s">
+      <c r="O55" s="190" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A56" s="202" t="s">
+      <c r="A56" s="151" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="167"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="192"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="197"/>
       <c r="F56" s="94">
         <v>2</v>
       </c>
-      <c r="G56" s="169"/>
-      <c r="H56" s="165"/>
+      <c r="G56" s="178"/>
+      <c r="H56" s="192"/>
       <c r="I56" s="94">
         <v>16.7</v>
       </c>
@@ -7779,10 +7794,10 @@
         <v>30</v>
       </c>
       <c r="N56" s="94"/>
-      <c r="O56" s="165"/>
+      <c r="O56" s="192"/>
     </row>
     <row r="57" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A57" s="201"/>
+      <c r="A57" s="150"/>
       <c r="B57" s="129"/>
       <c r="C57" s="129"/>
       <c r="D57" s="129"/>
@@ -7807,7 +7822,7 @@
       <c r="O57" s="96"/>
     </row>
     <row r="58" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A58" s="202" t="s">
+      <c r="A58" s="151" t="s">
         <v>307</v>
       </c>
       <c r="B58" s="99" t="s">
@@ -7851,7 +7866,7 @@
       <c r="O58" s="99"/>
     </row>
     <row r="59" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A59" s="201"/>
+      <c r="A59" s="150"/>
       <c r="B59" s="129"/>
       <c r="C59" s="129"/>
       <c r="D59" s="129"/>
@@ -7876,28 +7891,28 @@
       <c r="O59" s="104"/>
     </row>
     <row r="60" spans="1:15" s="101" customFormat="1" ht="48.75" customHeight="1">
-      <c r="A60" s="202" t="s">
+      <c r="A60" s="151" t="s">
         <v>312</v>
       </c>
-      <c r="B60" s="164" t="s">
+      <c r="B60" s="190" t="s">
         <v>313</v>
       </c>
-      <c r="C60" s="164" t="s">
+      <c r="C60" s="190" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="164" t="s">
+      <c r="D60" s="190" t="s">
         <v>272</v>
       </c>
-      <c r="E60" s="166">
+      <c r="E60" s="196">
         <v>45670</v>
       </c>
       <c r="F60" s="94">
         <v>1</v>
       </c>
-      <c r="G60" s="168" t="s">
+      <c r="G60" s="176" t="s">
         <v>315</v>
       </c>
-      <c r="H60" s="164">
+      <c r="H60" s="190">
         <v>145</v>
       </c>
       <c r="I60" s="94">
@@ -7917,23 +7932,23 @@
         <v>23</v>
       </c>
       <c r="N60" s="53"/>
-      <c r="O60" s="164" t="s">
+      <c r="O60" s="190" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A61" s="202" t="s">
+      <c r="A61" s="151" t="s">
         <v>317</v>
       </c>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="167"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="192"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="197"/>
       <c r="F61" s="94">
         <v>2</v>
       </c>
-      <c r="G61" s="169"/>
-      <c r="H61" s="165"/>
+      <c r="G61" s="178"/>
+      <c r="H61" s="192"/>
       <c r="I61" s="94">
         <v>13.7</v>
       </c>
@@ -7951,10 +7966,10 @@
         <v>49</v>
       </c>
       <c r="N61" s="94"/>
-      <c r="O61" s="165"/>
+      <c r="O61" s="192"/>
     </row>
     <row r="62" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A62" s="201"/>
+      <c r="A62" s="150"/>
       <c r="B62" s="129"/>
       <c r="C62" s="129"/>
       <c r="D62" s="129"/>
@@ -7978,8 +7993,8 @@
       <c r="N62" s="97"/>
       <c r="O62" s="96"/>
     </row>
-    <row r="63" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A63" s="202" t="s">
+    <row r="63" spans="1:15" s="101" customFormat="1" ht="37.5">
+      <c r="A63" s="151" t="s">
         <v>318</v>
       </c>
       <c r="B63" s="99" t="s">
@@ -8021,7 +8036,7 @@
       <c r="O63" s="90"/>
     </row>
     <row r="64" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A64" s="201"/>
+      <c r="A64" s="150"/>
       <c r="B64" s="129"/>
       <c r="C64" s="129"/>
       <c r="D64" s="129"/>
@@ -8046,7 +8061,7 @@
       <c r="O64" s="104"/>
     </row>
     <row r="65" spans="1:15" s="101" customFormat="1" ht="37.5">
-      <c r="A65" s="202" t="s">
+      <c r="A65" s="151" t="s">
         <v>323</v>
       </c>
       <c r="B65" s="99" t="s">
@@ -8088,7 +8103,7 @@
       <c r="O65" s="90"/>
     </row>
     <row r="66" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A66" s="201"/>
+      <c r="A66" s="150"/>
       <c r="B66" s="129"/>
       <c r="C66" s="129"/>
       <c r="D66" s="129"/>
@@ -8113,7 +8128,7 @@
       <c r="O66" s="104"/>
     </row>
     <row r="67" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A67" s="202" t="s">
+      <c r="A67" s="151" t="s">
         <v>327</v>
       </c>
       <c r="B67" s="99" t="s">
@@ -8155,7 +8170,7 @@
       <c r="O67" s="99"/>
     </row>
     <row r="68" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A68" s="201"/>
+      <c r="A68" s="150"/>
       <c r="B68" s="129"/>
       <c r="C68" s="129"/>
       <c r="D68" s="129"/>
@@ -8180,7 +8195,7 @@
       <c r="O68" s="104"/>
     </row>
     <row r="69" spans="1:15" s="101" customFormat="1" ht="60.75">
-      <c r="A69" s="202" t="s">
+      <c r="A69" s="151" t="s">
         <v>332</v>
       </c>
       <c r="B69" s="94" t="s">
@@ -8227,7 +8242,7 @@
       </c>
     </row>
     <row r="70" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A70" s="201"/>
+      <c r="A70" s="150"/>
       <c r="B70" s="129"/>
       <c r="C70" s="129"/>
       <c r="D70" s="129"/>
@@ -8250,7 +8265,7 @@
       <c r="O70" s="97"/>
     </row>
     <row r="71" spans="1:15" s="101" customFormat="1" ht="60.75">
-      <c r="A71" s="202" t="s">
+      <c r="A71" s="151" t="s">
         <v>339</v>
       </c>
       <c r="B71" s="94" t="s">
@@ -8295,7 +8310,7 @@
       </c>
     </row>
     <row r="72" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A72" s="201"/>
+      <c r="A72" s="150"/>
       <c r="B72" s="129"/>
       <c r="C72" s="129"/>
       <c r="D72" s="129"/>
@@ -8318,7 +8333,7 @@
       <c r="O72" s="97"/>
     </row>
     <row r="73" spans="1:15" s="101" customFormat="1" ht="37.5">
-      <c r="A73" s="203"/>
+      <c r="A73" s="152"/>
       <c r="B73" s="125" t="s">
         <v>129</v>
       </c>
@@ -8362,7 +8377,7 @@
       <c r="O73" s="94"/>
     </row>
     <row r="74" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A74" s="201"/>
+      <c r="A74" s="150"/>
       <c r="B74" s="129"/>
       <c r="C74" s="129"/>
       <c r="D74" s="129"/>
@@ -8385,23 +8400,23 @@
       <c r="O74" s="97"/>
     </row>
     <row r="75" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A75" s="202" t="s">
+      <c r="A75" s="151" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="172" t="s">
+      <c r="B75" s="183" t="s">
         <v>345</v>
       </c>
-      <c r="C75" s="172"/>
-      <c r="D75" s="172" t="s">
+      <c r="C75" s="183"/>
+      <c r="D75" s="183" t="s">
         <v>346</v>
       </c>
-      <c r="E75" s="170">
+      <c r="E75" s="186">
         <v>45673</v>
       </c>
       <c r="F75" s="99">
         <v>1</v>
       </c>
-      <c r="G75" s="172" t="s">
+      <c r="G75" s="183" t="s">
         <v>347</v>
       </c>
       <c r="H75" s="99">
@@ -8427,17 +8442,17 @@
       <c r="O75" s="99"/>
     </row>
     <row r="76" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A76" s="202" t="s">
+      <c r="A76" s="151" t="s">
         <v>348</v>
       </c>
-      <c r="B76" s="173"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="175"/>
+      <c r="B76" s="184"/>
+      <c r="C76" s="184"/>
+      <c r="D76" s="184"/>
+      <c r="E76" s="187"/>
       <c r="F76" s="99">
         <v>2</v>
       </c>
-      <c r="G76" s="173"/>
+      <c r="G76" s="184"/>
       <c r="H76" s="99">
         <v>240</v>
       </c>
@@ -8461,17 +8476,17 @@
       <c r="O76" s="99"/>
     </row>
     <row r="77" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A77" s="202" t="s">
+      <c r="A77" s="151" t="s">
         <v>349</v>
       </c>
-      <c r="B77" s="173"/>
-      <c r="C77" s="173"/>
-      <c r="D77" s="173"/>
-      <c r="E77" s="175"/>
+      <c r="B77" s="184"/>
+      <c r="C77" s="184"/>
+      <c r="D77" s="184"/>
+      <c r="E77" s="187"/>
       <c r="F77" s="99">
         <v>3</v>
       </c>
-      <c r="G77" s="173"/>
+      <c r="G77" s="184"/>
       <c r="H77" s="99">
         <v>300</v>
       </c>
@@ -8495,17 +8510,17 @@
       <c r="O77" s="99"/>
     </row>
     <row r="78" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A78" s="202" t="s">
+      <c r="A78" s="151" t="s">
         <v>350</v>
       </c>
-      <c r="B78" s="173"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="173"/>
-      <c r="E78" s="175"/>
+      <c r="B78" s="184"/>
+      <c r="C78" s="184"/>
+      <c r="D78" s="184"/>
+      <c r="E78" s="187"/>
       <c r="F78" s="99">
         <v>4</v>
       </c>
-      <c r="G78" s="173"/>
+      <c r="G78" s="184"/>
       <c r="H78" s="99">
         <v>230</v>
       </c>
@@ -8529,17 +8544,17 @@
       <c r="O78" s="99"/>
     </row>
     <row r="79" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A79" s="202" t="s">
+      <c r="A79" s="151" t="s">
         <v>351</v>
       </c>
-      <c r="B79" s="173"/>
-      <c r="C79" s="173"/>
-      <c r="D79" s="173"/>
-      <c r="E79" s="175"/>
+      <c r="B79" s="184"/>
+      <c r="C79" s="184"/>
+      <c r="D79" s="184"/>
+      <c r="E79" s="187"/>
       <c r="F79" s="99">
         <v>5</v>
       </c>
-      <c r="G79" s="173"/>
+      <c r="G79" s="184"/>
       <c r="H79" s="99">
         <v>220</v>
       </c>
@@ -8563,17 +8578,17 @@
       <c r="O79" s="99"/>
     </row>
     <row r="80" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A80" s="202" t="s">
+      <c r="A80" s="151" t="s">
         <v>352</v>
       </c>
-      <c r="B80" s="173"/>
-      <c r="C80" s="173"/>
-      <c r="D80" s="173"/>
-      <c r="E80" s="175"/>
+      <c r="B80" s="184"/>
+      <c r="C80" s="184"/>
+      <c r="D80" s="184"/>
+      <c r="E80" s="187"/>
       <c r="F80" s="99">
         <v>6</v>
       </c>
-      <c r="G80" s="173"/>
+      <c r="G80" s="184"/>
       <c r="H80" s="99">
         <v>200</v>
       </c>
@@ -8597,17 +8612,17 @@
       <c r="O80" s="99"/>
     </row>
     <row r="81" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A81" s="202" t="s">
+      <c r="A81" s="151" t="s">
         <v>353</v>
       </c>
-      <c r="B81" s="173"/>
-      <c r="C81" s="173"/>
-      <c r="D81" s="173"/>
-      <c r="E81" s="175"/>
+      <c r="B81" s="184"/>
+      <c r="C81" s="184"/>
+      <c r="D81" s="184"/>
+      <c r="E81" s="187"/>
       <c r="F81" s="99">
         <v>7</v>
       </c>
-      <c r="G81" s="173"/>
+      <c r="G81" s="184"/>
       <c r="H81" s="99">
         <v>190</v>
       </c>
@@ -8631,17 +8646,17 @@
       <c r="O81" s="99"/>
     </row>
     <row r="82" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A82" s="202" t="s">
+      <c r="A82" s="151" t="s">
         <v>354</v>
       </c>
-      <c r="B82" s="173"/>
-      <c r="C82" s="173"/>
-      <c r="D82" s="173"/>
-      <c r="E82" s="175"/>
+      <c r="B82" s="184"/>
+      <c r="C82" s="184"/>
+      <c r="D82" s="184"/>
+      <c r="E82" s="187"/>
       <c r="F82" s="99">
         <v>8</v>
       </c>
-      <c r="G82" s="173"/>
+      <c r="G82" s="184"/>
       <c r="H82" s="99">
         <v>200</v>
       </c>
@@ -8665,17 +8680,17 @@
       <c r="O82" s="99"/>
     </row>
     <row r="83" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A83" s="202" t="s">
+      <c r="A83" s="151" t="s">
         <v>355</v>
       </c>
-      <c r="B83" s="173"/>
-      <c r="C83" s="173"/>
-      <c r="D83" s="173"/>
-      <c r="E83" s="175"/>
+      <c r="B83" s="184"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="187"/>
       <c r="F83" s="99">
         <v>9</v>
       </c>
-      <c r="G83" s="173"/>
+      <c r="G83" s="184"/>
       <c r="H83" s="99">
         <v>200</v>
       </c>
@@ -8699,17 +8714,17 @@
       <c r="O83" s="99"/>
     </row>
     <row r="84" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A84" s="202" t="s">
+      <c r="A84" s="151" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="173"/>
-      <c r="C84" s="173"/>
-      <c r="D84" s="173"/>
-      <c r="E84" s="175"/>
+      <c r="B84" s="184"/>
+      <c r="C84" s="184"/>
+      <c r="D84" s="184"/>
+      <c r="E84" s="187"/>
       <c r="F84" s="99">
         <v>10</v>
       </c>
-      <c r="G84" s="173"/>
+      <c r="G84" s="184"/>
       <c r="H84" s="99">
         <v>200</v>
       </c>
@@ -8733,17 +8748,17 @@
       <c r="O84" s="99"/>
     </row>
     <row r="85" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A85" s="202" t="s">
+      <c r="A85" s="151" t="s">
         <v>357</v>
       </c>
-      <c r="B85" s="174"/>
-      <c r="C85" s="174"/>
-      <c r="D85" s="174"/>
-      <c r="E85" s="171"/>
+      <c r="B85" s="185"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="185"/>
+      <c r="E85" s="188"/>
       <c r="F85" s="99">
         <v>11</v>
       </c>
-      <c r="G85" s="174"/>
+      <c r="G85" s="185"/>
       <c r="H85" s="99">
         <v>200</v>
       </c>
@@ -8767,7 +8782,7 @@
       <c r="O85" s="99"/>
     </row>
     <row r="86" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A86" s="201"/>
+      <c r="A86" s="150"/>
       <c r="B86" s="129"/>
       <c r="C86" s="129"/>
       <c r="D86" s="129"/>
@@ -8792,7 +8807,7 @@
       <c r="O86" s="104"/>
     </row>
     <row r="87" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A87" s="202" t="s">
+      <c r="A87" s="151" t="s">
         <v>358</v>
       </c>
       <c r="B87" s="94" t="s">
@@ -8801,7 +8816,7 @@
       <c r="C87" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="164" t="s">
+      <c r="D87" s="190" t="s">
         <v>361</v>
       </c>
       <c r="E87" s="98">
@@ -8810,87 +8825,87 @@
       <c r="F87" s="94">
         <v>1</v>
       </c>
-      <c r="G87" s="168" t="s">
+      <c r="G87" s="176" t="s">
         <v>362</v>
       </c>
-      <c r="H87" s="164">
+      <c r="H87" s="190">
         <v>62</v>
       </c>
-      <c r="I87" s="164">
+      <c r="I87" s="190">
         <v>11.7</v>
       </c>
-      <c r="J87" s="179">
+      <c r="J87" s="193">
         <f>K87*L87*M87/1000000</f>
         <v>4.8543999999999997E-2</v>
       </c>
-      <c r="K87" s="164">
+      <c r="K87" s="190">
         <v>32</v>
       </c>
-      <c r="L87" s="164">
+      <c r="L87" s="190">
         <v>37</v>
       </c>
-      <c r="M87" s="164">
+      <c r="M87" s="190">
         <v>41</v>
       </c>
       <c r="N87" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="O87" s="168" t="s">
+      <c r="O87" s="176" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A88" s="202" t="s">
+      <c r="A88" s="151" t="s">
         <v>365</v>
       </c>
-      <c r="B88" s="164" t="s">
+      <c r="B88" s="190" t="s">
         <v>366</v>
       </c>
-      <c r="C88" s="164" t="s">
+      <c r="C88" s="190" t="s">
         <v>367</v>
       </c>
-      <c r="D88" s="176"/>
-      <c r="E88" s="166">
+      <c r="D88" s="191"/>
+      <c r="E88" s="196">
         <v>45673</v>
       </c>
       <c r="F88" s="94">
         <v>1</v>
       </c>
       <c r="G88" s="177"/>
-      <c r="H88" s="176"/>
-      <c r="I88" s="176"/>
-      <c r="J88" s="180"/>
-      <c r="K88" s="176"/>
-      <c r="L88" s="176"/>
-      <c r="M88" s="176"/>
-      <c r="N88" s="168" t="s">
+      <c r="H88" s="191"/>
+      <c r="I88" s="191"/>
+      <c r="J88" s="194"/>
+      <c r="K88" s="191"/>
+      <c r="L88" s="191"/>
+      <c r="M88" s="191"/>
+      <c r="N88" s="176" t="s">
         <v>368</v>
       </c>
       <c r="O88" s="177"/>
     </row>
     <row r="89" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A89" s="202" t="s">
+      <c r="A89" s="151" t="s">
         <v>369</v>
       </c>
-      <c r="B89" s="165"/>
-      <c r="C89" s="165"/>
-      <c r="D89" s="165"/>
-      <c r="E89" s="167"/>
+      <c r="B89" s="192"/>
+      <c r="C89" s="192"/>
+      <c r="D89" s="192"/>
+      <c r="E89" s="197"/>
       <c r="F89" s="94">
         <v>2</v>
       </c>
-      <c r="G89" s="169"/>
-      <c r="H89" s="165"/>
-      <c r="I89" s="165"/>
-      <c r="J89" s="181"/>
-      <c r="K89" s="165"/>
-      <c r="L89" s="165"/>
-      <c r="M89" s="165"/>
-      <c r="N89" s="169"/>
-      <c r="O89" s="169"/>
+      <c r="G89" s="178"/>
+      <c r="H89" s="192"/>
+      <c r="I89" s="192"/>
+      <c r="J89" s="195"/>
+      <c r="K89" s="192"/>
+      <c r="L89" s="192"/>
+      <c r="M89" s="192"/>
+      <c r="N89" s="178"/>
+      <c r="O89" s="178"/>
     </row>
     <row r="90" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A90" s="201"/>
+      <c r="A90" s="150"/>
       <c r="B90" s="129"/>
       <c r="C90" s="129"/>
       <c r="D90" s="129"/>
@@ -8915,7 +8930,7 @@
       <c r="O90" s="128"/>
     </row>
     <row r="91" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A91" s="202" t="s">
+      <c r="A91" s="151" t="s">
         <v>370</v>
       </c>
       <c r="B91" s="99" t="s">
@@ -8960,7 +8975,7 @@
       </c>
     </row>
     <row r="92" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A92" s="201"/>
+      <c r="A92" s="150"/>
       <c r="B92" s="129"/>
       <c r="C92" s="129"/>
       <c r="D92" s="129"/>
@@ -8985,7 +9000,7 @@
       <c r="O92" s="92"/>
     </row>
     <row r="93" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A93" s="202" t="s">
+      <c r="A93" s="151" t="s">
         <v>59</v>
       </c>
       <c r="B93" s="99" t="s">
@@ -9028,7 +9043,7 @@
       <c r="O93" s="99"/>
     </row>
     <row r="94" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A94" s="201"/>
+      <c r="A94" s="150"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
       <c r="D94" s="42"/>
@@ -9053,7 +9068,7 @@
       <c r="O94" s="92"/>
     </row>
     <row r="95" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A95" s="202" t="s">
+      <c r="A95" s="151" t="s">
         <v>142</v>
       </c>
       <c r="B95" s="99" t="s">
@@ -9096,7 +9111,7 @@
       <c r="O95" s="99"/>
     </row>
     <row r="96" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A96" s="201"/>
+      <c r="A96" s="150"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
       <c r="D96" s="42"/>
@@ -9121,7 +9136,7 @@
       <c r="O96" s="92"/>
     </row>
     <row r="97" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A97" s="202" t="s">
+      <c r="A97" s="151" t="s">
         <v>145</v>
       </c>
       <c r="B97" s="99" t="s">
@@ -9164,7 +9179,7 @@
       <c r="O97" s="99"/>
     </row>
     <row r="98" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A98" s="201"/>
+      <c r="A98" s="150"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
       <c r="D98" s="42"/>
@@ -9189,7 +9204,7 @@
       <c r="O98" s="92"/>
     </row>
     <row r="99" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A99" s="202" t="s">
+      <c r="A99" s="151" t="s">
         <v>149</v>
       </c>
       <c r="B99" s="99" t="s">
@@ -9230,7 +9245,7 @@
       <c r="O99" s="99"/>
     </row>
     <row r="100" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A100" s="201"/>
+      <c r="A100" s="150"/>
       <c r="B100" s="42"/>
       <c r="C100" s="42"/>
       <c r="D100" s="42"/>
@@ -9255,7 +9270,7 @@
       <c r="O100" s="92"/>
     </row>
     <row r="101" spans="1:15" s="101" customFormat="1" ht="21">
-      <c r="A101" s="202" t="s">
+      <c r="A101" s="151" t="s">
         <v>153</v>
       </c>
       <c r="B101" s="99" t="s">
@@ -9298,7 +9313,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A102" s="204"/>
+      <c r="A102" s="153"/>
       <c r="B102" s="129"/>
       <c r="C102" s="129"/>
       <c r="D102" s="129"/>
@@ -9323,7 +9338,7 @@
       <c r="O102" s="92"/>
     </row>
     <row r="103" spans="1:15" s="101" customFormat="1" ht="63">
-      <c r="A103" s="202" t="s">
+      <c r="A103" s="151" t="s">
         <v>157</v>
       </c>
       <c r="B103" s="94" t="s">
@@ -9364,7 +9379,7 @@
       </c>
     </row>
     <row r="104" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A104" s="201"/>
+      <c r="A104" s="150"/>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
       <c r="D104" s="42"/>
@@ -9387,7 +9402,7 @@
       <c r="O104" s="97"/>
     </row>
     <row r="105" spans="1:15" s="101" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A105" s="202" t="s">
+      <c r="A105" s="151" t="s">
         <v>161</v>
       </c>
       <c r="B105" s="99" t="s">
@@ -9431,7 +9446,7 @@
       </c>
     </row>
     <row r="106" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A106" s="201"/>
+      <c r="A106" s="150"/>
       <c r="B106" s="42"/>
       <c r="C106" s="42"/>
       <c r="D106" s="42"/>
@@ -9456,7 +9471,7 @@
       <c r="O106" s="104"/>
     </row>
     <row r="107" spans="1:15" s="101" customFormat="1" ht="42">
-      <c r="A107" s="202" t="s">
+      <c r="A107" s="151" t="s">
         <v>164</v>
       </c>
       <c r="B107" s="99" t="s">
@@ -9497,7 +9512,7 @@
       <c r="O107" s="99"/>
     </row>
     <row r="108" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A108" s="201"/>
+      <c r="A108" s="150"/>
       <c r="B108" s="42"/>
       <c r="C108" s="42"/>
       <c r="D108" s="42"/>
@@ -9522,7 +9537,7 @@
       <c r="O108" s="104"/>
     </row>
     <row r="109" spans="1:15" s="101" customFormat="1" ht="58.5">
-      <c r="A109" s="202" t="s">
+      <c r="A109" s="151" t="s">
         <v>168</v>
       </c>
       <c r="B109" s="99" t="s">
@@ -9567,7 +9582,7 @@
       </c>
     </row>
     <row r="110" spans="1:15" s="105" customFormat="1" ht="22.5">
-      <c r="A110" s="201"/>
+      <c r="A110" s="150"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
       <c r="D110" s="42"/>
@@ -9593,22 +9608,22 @@
       <c r="A111" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="172" t="s">
+      <c r="B111" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="172" t="s">
+      <c r="C111" s="183" t="s">
         <v>174</v>
       </c>
-      <c r="D111" s="172" t="s">
+      <c r="D111" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="170">
+      <c r="E111" s="186">
         <v>45680</v>
       </c>
       <c r="F111" s="99">
         <v>1</v>
       </c>
-      <c r="G111" s="178" t="s">
+      <c r="G111" s="189" t="s">
         <v>175</v>
       </c>
       <c r="H111" s="99"/>
@@ -9635,14 +9650,14 @@
       <c r="A112" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="B112" s="173"/>
-      <c r="C112" s="173"/>
-      <c r="D112" s="173"/>
-      <c r="E112" s="175"/>
+      <c r="B112" s="184"/>
+      <c r="C112" s="184"/>
+      <c r="D112" s="184"/>
+      <c r="E112" s="187"/>
       <c r="F112" s="99">
         <v>2</v>
       </c>
-      <c r="G112" s="173"/>
+      <c r="G112" s="184"/>
       <c r="H112" s="99"/>
       <c r="I112" s="99">
         <v>9.1</v>
@@ -9667,14 +9682,14 @@
       <c r="A113" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="B113" s="173"/>
-      <c r="C113" s="173"/>
-      <c r="D113" s="173"/>
-      <c r="E113" s="175"/>
+      <c r="B113" s="184"/>
+      <c r="C113" s="184"/>
+      <c r="D113" s="184"/>
+      <c r="E113" s="187"/>
       <c r="F113" s="99">
         <v>3</v>
       </c>
-      <c r="G113" s="173"/>
+      <c r="G113" s="184"/>
       <c r="H113" s="99"/>
       <c r="I113" s="99">
         <v>24.1</v>
@@ -9699,14 +9714,14 @@
       <c r="A114" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="B114" s="174"/>
-      <c r="C114" s="174"/>
-      <c r="D114" s="174"/>
-      <c r="E114" s="171"/>
+      <c r="B114" s="185"/>
+      <c r="C114" s="185"/>
+      <c r="D114" s="185"/>
+      <c r="E114" s="188"/>
       <c r="F114" s="99">
         <v>4</v>
       </c>
-      <c r="G114" s="174"/>
+      <c r="G114" s="185"/>
       <c r="H114" s="99"/>
       <c r="I114" s="99">
         <v>6.4</v>
@@ -9756,13 +9771,13 @@
       <c r="E116" s="147"/>
     </row>
     <row r="133" spans="1:16" ht="40.5">
-      <c r="A133" s="198" t="s">
+      <c r="A133" s="155" t="s">
         <v>450</v>
       </c>
-      <c r="B133" s="198"/>
+      <c r="B133" s="155"/>
     </row>
     <row r="135" spans="1:16" ht="84">
-      <c r="A135" s="205"/>
+      <c r="A135" s="154"/>
       <c r="B135" s="81" t="s">
         <v>374</v>
       </c>
@@ -9808,13 +9823,13 @@
       </c>
     </row>
     <row r="136" spans="1:16" ht="22.5">
-      <c r="A136" s="205"/>
-      <c r="B136" s="186" t="s">
+      <c r="A136" s="154"/>
+      <c r="B136" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="186"/>
-      <c r="D136" s="186"/>
-      <c r="E136" s="186"/>
+      <c r="C136" s="168"/>
+      <c r="D136" s="168"/>
+      <c r="E136" s="168"/>
       <c r="F136" s="64" t="s">
         <v>378</v>
       </c>
@@ -9834,17 +9849,17 @@
       <c r="P136" s="67"/>
     </row>
     <row r="137" spans="1:16" ht="37.5">
-      <c r="A137" s="205"/>
-      <c r="B137" s="185" t="s">
+      <c r="A137" s="154"/>
+      <c r="B137" s="170" t="s">
         <v>379</v>
       </c>
-      <c r="C137" s="168" t="s">
+      <c r="C137" s="176" t="s">
         <v>380</v>
       </c>
-      <c r="D137" s="185" t="s">
+      <c r="D137" s="170" t="s">
         <v>381</v>
       </c>
-      <c r="E137" s="187">
+      <c r="E137" s="173">
         <v>45659</v>
       </c>
       <c r="F137" s="62" t="s">
@@ -9856,7 +9871,7 @@
       <c r="H137" s="60">
         <v>1</v>
       </c>
-      <c r="I137" s="185">
+      <c r="I137" s="170">
         <v>255</v>
       </c>
       <c r="J137" s="63">
@@ -9871,22 +9886,22 @@
       <c r="M137" s="60">
         <v>62</v>
       </c>
-      <c r="N137" s="182">
+      <c r="N137" s="179">
         <v>45663</v>
       </c>
-      <c r="O137" s="182">
+      <c r="O137" s="179">
         <v>45705</v>
       </c>
-      <c r="P137" s="185" t="s">
+      <c r="P137" s="170" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="21">
-      <c r="A138" s="205"/>
-      <c r="B138" s="183"/>
+    <row r="138" spans="1:16" ht="37.5">
+      <c r="A138" s="154"/>
+      <c r="B138" s="171"/>
       <c r="C138" s="177"/>
-      <c r="D138" s="183"/>
-      <c r="E138" s="188"/>
+      <c r="D138" s="171"/>
+      <c r="E138" s="174"/>
       <c r="F138" s="62" t="s">
         <v>15</v>
       </c>
@@ -9896,7 +9911,7 @@
       <c r="H138" s="60">
         <v>1</v>
       </c>
-      <c r="I138" s="183"/>
+      <c r="I138" s="171"/>
       <c r="J138" s="63">
         <v>0.54978000000000005</v>
       </c>
@@ -9909,16 +9924,16 @@
       <c r="M138" s="60">
         <v>77</v>
       </c>
-      <c r="N138" s="183"/>
-      <c r="O138" s="183"/>
-      <c r="P138" s="183"/>
+      <c r="N138" s="171"/>
+      <c r="O138" s="171"/>
+      <c r="P138" s="171"/>
     </row>
     <row r="139" spans="1:16" ht="37.5">
-      <c r="A139" s="205"/>
-      <c r="B139" s="183"/>
+      <c r="A139" s="154"/>
+      <c r="B139" s="171"/>
       <c r="C139" s="177"/>
-      <c r="D139" s="183"/>
-      <c r="E139" s="188"/>
+      <c r="D139" s="171"/>
+      <c r="E139" s="174"/>
       <c r="F139" s="62" t="s">
         <v>30</v>
       </c>
@@ -9928,7 +9943,7 @@
       <c r="H139" s="60">
         <v>1</v>
       </c>
-      <c r="I139" s="183"/>
+      <c r="I139" s="171"/>
       <c r="J139" s="63">
         <v>0.51480000000000004</v>
       </c>
@@ -9941,16 +9956,16 @@
       <c r="M139" s="60">
         <v>65</v>
       </c>
-      <c r="N139" s="183"/>
-      <c r="O139" s="183"/>
-      <c r="P139" s="183"/>
+      <c r="N139" s="171"/>
+      <c r="O139" s="171"/>
+      <c r="P139" s="171"/>
     </row>
     <row r="140" spans="1:16" ht="56.25">
-      <c r="A140" s="205"/>
-      <c r="B140" s="184"/>
-      <c r="C140" s="169"/>
-      <c r="D140" s="184"/>
-      <c r="E140" s="189"/>
+      <c r="A140" s="154"/>
+      <c r="B140" s="172"/>
+      <c r="C140" s="178"/>
+      <c r="D140" s="172"/>
+      <c r="E140" s="175"/>
       <c r="F140" s="62" t="s">
         <v>25</v>
       </c>
@@ -9960,7 +9975,7 @@
       <c r="H140" s="60">
         <v>1</v>
       </c>
-      <c r="I140" s="184"/>
+      <c r="I140" s="172"/>
       <c r="J140" s="63">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -9973,18 +9988,18 @@
       <c r="M140" s="60">
         <v>18</v>
       </c>
-      <c r="N140" s="184"/>
-      <c r="O140" s="184"/>
-      <c r="P140" s="184"/>
+      <c r="N140" s="172"/>
+      <c r="O140" s="172"/>
+      <c r="P140" s="172"/>
     </row>
     <row r="141" spans="1:16" ht="22.5">
-      <c r="A141" s="205"/>
-      <c r="B141" s="186" t="s">
+      <c r="A141" s="154"/>
+      <c r="B141" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C141" s="186"/>
-      <c r="D141" s="186"/>
-      <c r="E141" s="186"/>
+      <c r="C141" s="168"/>
+      <c r="D141" s="168"/>
+      <c r="E141" s="168"/>
       <c r="F141" s="64" t="s">
         <v>25</v>
       </c>
@@ -10004,7 +10019,7 @@
       <c r="P141" s="55"/>
     </row>
     <row r="142" spans="1:16" ht="117">
-      <c r="A142" s="205"/>
+      <c r="A142" s="154"/>
       <c r="B142" s="81" t="s">
         <v>387</v>
       </c>
@@ -10055,13 +10070,13 @@
       </c>
     </row>
     <row r="143" spans="1:16" ht="22.5">
-      <c r="A143" s="205"/>
-      <c r="B143" s="186" t="s">
+      <c r="A143" s="154"/>
+      <c r="B143" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C143" s="186"/>
-      <c r="D143" s="186"/>
-      <c r="E143" s="186"/>
+      <c r="C143" s="168"/>
+      <c r="D143" s="168"/>
+      <c r="E143" s="168"/>
       <c r="F143" s="64" t="s">
         <v>391</v>
       </c>
@@ -10083,7 +10098,7 @@
       <c r="P143" s="67"/>
     </row>
     <row r="144" spans="1:16" ht="117">
-      <c r="A144" s="205"/>
+      <c r="A144" s="154"/>
       <c r="B144" s="81" t="s">
         <v>387</v>
       </c>
@@ -10134,13 +10149,13 @@
       </c>
     </row>
     <row r="145" spans="1:16" ht="22.5">
-      <c r="A145" s="205"/>
-      <c r="B145" s="186" t="s">
+      <c r="A145" s="154"/>
+      <c r="B145" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="186"/>
-      <c r="D145" s="186"/>
-      <c r="E145" s="186"/>
+      <c r="C145" s="168"/>
+      <c r="D145" s="168"/>
+      <c r="E145" s="168"/>
       <c r="F145" s="64" t="s">
         <v>394</v>
       </c>
@@ -10162,7 +10177,7 @@
       <c r="P145" s="67"/>
     </row>
     <row r="146" spans="1:16" ht="98.25">
-      <c r="A146" s="205"/>
+      <c r="A146" s="154"/>
       <c r="B146" s="81" t="s">
         <v>387</v>
       </c>
@@ -10210,13 +10225,13 @@
       </c>
     </row>
     <row r="147" spans="1:16" ht="22.5">
-      <c r="A147" s="205"/>
-      <c r="B147" s="186" t="s">
+      <c r="A147" s="154"/>
+      <c r="B147" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C147" s="186"/>
-      <c r="D147" s="186"/>
-      <c r="E147" s="186"/>
+      <c r="C147" s="168"/>
+      <c r="D147" s="168"/>
+      <c r="E147" s="168"/>
       <c r="F147" s="64" t="s">
         <v>397</v>
       </c>
@@ -10236,29 +10251,29 @@
       <c r="P147" s="67"/>
     </row>
     <row r="148" spans="1:16" ht="21">
-      <c r="A148" s="205"/>
-      <c r="B148" s="190" t="s">
+      <c r="A148" s="154"/>
+      <c r="B148" s="161" t="s">
         <v>398</v>
       </c>
-      <c r="C148" s="190" t="s">
+      <c r="C148" s="161" t="s">
         <v>399</v>
       </c>
-      <c r="D148" s="190" t="s">
+      <c r="D148" s="161" t="s">
         <v>400</v>
       </c>
-      <c r="E148" s="152">
+      <c r="E148" s="164">
         <v>45660</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G148" s="193" t="s">
+      <c r="G148" s="167" t="s">
         <v>401</v>
       </c>
       <c r="H148" s="81">
         <v>130</v>
       </c>
-      <c r="I148" s="190">
+      <c r="I148" s="161">
         <v>7600</v>
       </c>
       <c r="J148" s="10">
@@ -10273,30 +10288,30 @@
       <c r="M148" s="81">
         <v>66</v>
       </c>
-      <c r="N148" s="196">
+      <c r="N148" s="180">
         <v>45665</v>
       </c>
-      <c r="O148" s="196">
+      <c r="O148" s="180">
         <v>45706</v>
       </c>
-      <c r="P148" s="190" t="s">
+      <c r="P148" s="161" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="21">
-      <c r="A149" s="205"/>
-      <c r="B149" s="191"/>
-      <c r="C149" s="191"/>
-      <c r="D149" s="191"/>
-      <c r="E149" s="153"/>
+      <c r="A149" s="154"/>
+      <c r="B149" s="162"/>
+      <c r="C149" s="162"/>
+      <c r="D149" s="162"/>
+      <c r="E149" s="165"/>
       <c r="F149" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G149" s="194"/>
+      <c r="G149" s="181"/>
       <c r="H149" s="81">
         <v>120</v>
       </c>
-      <c r="I149" s="191"/>
+      <c r="I149" s="162"/>
       <c r="J149" s="10">
         <v>3.167424</v>
       </c>
@@ -10309,24 +10324,24 @@
       <c r="M149" s="81">
         <v>72</v>
       </c>
-      <c r="N149" s="191"/>
-      <c r="O149" s="191"/>
-      <c r="P149" s="191"/>
+      <c r="N149" s="162"/>
+      <c r="O149" s="162"/>
+      <c r="P149" s="162"/>
     </row>
     <row r="150" spans="1:16" ht="21">
-      <c r="A150" s="205"/>
-      <c r="B150" s="191"/>
-      <c r="C150" s="191"/>
-      <c r="D150" s="191"/>
-      <c r="E150" s="153"/>
+      <c r="A150" s="154"/>
+      <c r="B150" s="162"/>
+      <c r="C150" s="162"/>
+      <c r="D150" s="162"/>
+      <c r="E150" s="165"/>
       <c r="F150" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G150" s="194"/>
+      <c r="G150" s="181"/>
       <c r="H150" s="81">
         <v>130</v>
       </c>
-      <c r="I150" s="191"/>
+      <c r="I150" s="162"/>
       <c r="J150" s="10">
         <v>3.383718</v>
       </c>
@@ -10339,24 +10354,24 @@
       <c r="M150" s="81">
         <v>71</v>
       </c>
-      <c r="N150" s="191"/>
-      <c r="O150" s="191"/>
-      <c r="P150" s="191"/>
+      <c r="N150" s="162"/>
+      <c r="O150" s="162"/>
+      <c r="P150" s="162"/>
     </row>
     <row r="151" spans="1:16" ht="21">
-      <c r="A151" s="205"/>
-      <c r="B151" s="191"/>
-      <c r="C151" s="191"/>
-      <c r="D151" s="191"/>
-      <c r="E151" s="153"/>
+      <c r="A151" s="154"/>
+      <c r="B151" s="162"/>
+      <c r="C151" s="162"/>
+      <c r="D151" s="162"/>
+      <c r="E151" s="165"/>
       <c r="F151" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G151" s="195"/>
+      <c r="G151" s="182"/>
       <c r="H151" s="81">
         <v>220</v>
       </c>
-      <c r="I151" s="191"/>
+      <c r="I151" s="162"/>
       <c r="J151" s="10">
         <v>2.5405380000000002</v>
       </c>
@@ -10369,16 +10384,16 @@
       <c r="M151" s="81">
         <v>63</v>
       </c>
-      <c r="N151" s="191"/>
-      <c r="O151" s="191"/>
-      <c r="P151" s="191"/>
+      <c r="N151" s="162"/>
+      <c r="O151" s="162"/>
+      <c r="P151" s="162"/>
     </row>
     <row r="152" spans="1:16" ht="21">
-      <c r="A152" s="205"/>
-      <c r="B152" s="192"/>
-      <c r="C152" s="192"/>
-      <c r="D152" s="192"/>
-      <c r="E152" s="154"/>
+      <c r="A152" s="154"/>
+      <c r="B152" s="163"/>
+      <c r="C152" s="163"/>
+      <c r="D152" s="163"/>
+      <c r="E152" s="166"/>
       <c r="F152" s="3" t="s">
         <v>13</v>
       </c>
@@ -10388,7 +10403,7 @@
       <c r="H152" s="81">
         <v>1599</v>
       </c>
-      <c r="I152" s="192"/>
+      <c r="I152" s="163"/>
       <c r="J152" s="10">
         <v>0.68834399999999996</v>
       </c>
@@ -10401,18 +10416,18 @@
       <c r="M152" s="81">
         <v>92</v>
       </c>
-      <c r="N152" s="192"/>
-      <c r="O152" s="192"/>
-      <c r="P152" s="192"/>
+      <c r="N152" s="163"/>
+      <c r="O152" s="163"/>
+      <c r="P152" s="163"/>
     </row>
     <row r="153" spans="1:16" ht="22.5">
-      <c r="A153" s="205"/>
-      <c r="B153" s="186" t="s">
+      <c r="A153" s="154"/>
+      <c r="B153" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="186"/>
-      <c r="D153" s="186"/>
-      <c r="E153" s="186"/>
+      <c r="C153" s="168"/>
+      <c r="D153" s="168"/>
+      <c r="E153" s="168"/>
       <c r="F153" s="64" t="s">
         <v>13</v>
       </c>
@@ -10432,7 +10447,7 @@
       <c r="P153" s="67"/>
     </row>
     <row r="154" spans="1:16" ht="42">
-      <c r="A154" s="205"/>
+      <c r="A154" s="154"/>
       <c r="B154" s="60" t="s">
         <v>404</v>
       </c>
@@ -10478,13 +10493,13 @@
       </c>
     </row>
     <row r="155" spans="1:16" ht="22.5">
-      <c r="A155" s="205"/>
-      <c r="B155" s="186" t="s">
+      <c r="A155" s="154"/>
+      <c r="B155" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C155" s="186"/>
-      <c r="D155" s="186"/>
-      <c r="E155" s="186"/>
+      <c r="C155" s="168"/>
+      <c r="D155" s="168"/>
+      <c r="E155" s="168"/>
       <c r="F155" s="64" t="s">
         <v>409</v>
       </c>
@@ -10504,7 +10519,7 @@
       <c r="P155" s="55"/>
     </row>
     <row r="156" spans="1:16" ht="42">
-      <c r="A156" s="205"/>
+      <c r="A156" s="154"/>
       <c r="B156" s="81" t="s">
         <v>410</v>
       </c>
@@ -10553,13 +10568,13 @@
       </c>
     </row>
     <row r="157" spans="1:16" ht="22.5">
-      <c r="A157" s="205"/>
-      <c r="B157" s="186" t="s">
+      <c r="A157" s="154"/>
+      <c r="B157" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C157" s="186"/>
-      <c r="D157" s="186"/>
-      <c r="E157" s="186"/>
+      <c r="C157" s="168"/>
+      <c r="D157" s="168"/>
+      <c r="E157" s="168"/>
       <c r="F157" s="64" t="s">
         <v>412</v>
       </c>
@@ -10581,16 +10596,16 @@
       <c r="P157" s="67"/>
     </row>
     <row r="158" spans="1:16" ht="37.5">
-      <c r="B158" s="190" t="s">
+      <c r="B158" s="161" t="s">
         <v>413</v>
       </c>
-      <c r="C158" s="190" t="s">
+      <c r="C158" s="161" t="s">
         <v>414</v>
       </c>
-      <c r="D158" s="190" t="s">
+      <c r="D158" s="161" t="s">
         <v>415</v>
       </c>
-      <c r="E158" s="152">
+      <c r="E158" s="164">
         <v>45665</v>
       </c>
       <c r="F158" s="3" t="s">
@@ -10619,21 +10634,21 @@
       <c r="M158" s="81">
         <v>39</v>
       </c>
-      <c r="N158" s="196">
+      <c r="N158" s="180">
         <v>45670</v>
       </c>
-      <c r="O158" s="196">
+      <c r="O158" s="180">
         <v>45712</v>
       </c>
-      <c r="P158" s="190" t="s">
+      <c r="P158" s="161" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="37.5">
-      <c r="B159" s="191"/>
-      <c r="C159" s="191"/>
-      <c r="D159" s="191"/>
-      <c r="E159" s="153"/>
+      <c r="B159" s="162"/>
+      <c r="C159" s="162"/>
+      <c r="D159" s="162"/>
+      <c r="E159" s="165"/>
       <c r="F159" s="3" t="s">
         <v>99</v>
       </c>
@@ -10660,19 +10675,19 @@
       <c r="M159" s="81">
         <v>28</v>
       </c>
-      <c r="N159" s="191"/>
-      <c r="O159" s="191"/>
-      <c r="P159" s="191"/>
+      <c r="N159" s="162"/>
+      <c r="O159" s="162"/>
+      <c r="P159" s="162"/>
     </row>
     <row r="160" spans="1:16" ht="21">
-      <c r="B160" s="191"/>
-      <c r="C160" s="191"/>
-      <c r="D160" s="191"/>
-      <c r="E160" s="153"/>
+      <c r="B160" s="162"/>
+      <c r="C160" s="162"/>
+      <c r="D160" s="162"/>
+      <c r="E160" s="165"/>
       <c r="F160" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G160" s="193" t="s">
+      <c r="G160" s="167" t="s">
         <v>420</v>
       </c>
       <c r="H160" s="81">
@@ -10695,19 +10710,19 @@
       <c r="M160" s="81">
         <v>39</v>
       </c>
-      <c r="N160" s="191"/>
-      <c r="O160" s="191"/>
-      <c r="P160" s="191"/>
+      <c r="N160" s="162"/>
+      <c r="O160" s="162"/>
+      <c r="P160" s="162"/>
     </row>
     <row r="161" spans="2:16" ht="21">
-      <c r="B161" s="191"/>
-      <c r="C161" s="191"/>
-      <c r="D161" s="191"/>
-      <c r="E161" s="153"/>
+      <c r="B161" s="162"/>
+      <c r="C161" s="162"/>
+      <c r="D161" s="162"/>
+      <c r="E161" s="165"/>
       <c r="F161" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G161" s="195"/>
+      <c r="G161" s="182"/>
       <c r="H161" s="81">
         <v>48</v>
       </c>
@@ -10727,15 +10742,15 @@
       <c r="M161" s="81">
         <v>23</v>
       </c>
-      <c r="N161" s="191"/>
-      <c r="O161" s="191"/>
-      <c r="P161" s="191"/>
+      <c r="N161" s="162"/>
+      <c r="O161" s="162"/>
+      <c r="P161" s="162"/>
     </row>
     <row r="162" spans="2:16" ht="37.5">
-      <c r="B162" s="192"/>
-      <c r="C162" s="192"/>
-      <c r="D162" s="192"/>
-      <c r="E162" s="154"/>
+      <c r="B162" s="163"/>
+      <c r="C162" s="163"/>
+      <c r="D162" s="163"/>
+      <c r="E162" s="166"/>
       <c r="F162" s="3" t="s">
         <v>422</v>
       </c>
@@ -10762,17 +10777,17 @@
       <c r="M162" s="81">
         <v>47</v>
       </c>
-      <c r="N162" s="192"/>
-      <c r="O162" s="192"/>
-      <c r="P162" s="192"/>
+      <c r="N162" s="163"/>
+      <c r="O162" s="163"/>
+      <c r="P162" s="163"/>
     </row>
     <row r="163" spans="2:16" ht="22.5">
-      <c r="B163" s="186" t="s">
+      <c r="B163" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C163" s="186"/>
-      <c r="D163" s="186"/>
-      <c r="E163" s="186"/>
+      <c r="C163" s="168"/>
+      <c r="D163" s="168"/>
+      <c r="E163" s="168"/>
       <c r="F163" s="64" t="s">
         <v>424</v>
       </c>
@@ -10841,12 +10856,12 @@
       </c>
     </row>
     <row r="165" spans="2:16" ht="22.5">
-      <c r="B165" s="186" t="s">
+      <c r="B165" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C165" s="186"/>
-      <c r="D165" s="186"/>
-      <c r="E165" s="186"/>
+      <c r="C165" s="168"/>
+      <c r="D165" s="168"/>
+      <c r="E165" s="168"/>
       <c r="F165" s="64" t="s">
         <v>25</v>
       </c>
@@ -10866,26 +10881,26 @@
       <c r="P165" s="67"/>
     </row>
     <row r="166" spans="2:16" ht="21">
-      <c r="B166" s="190" t="s">
+      <c r="B166" s="161" t="s">
         <v>429</v>
       </c>
-      <c r="C166" s="193" t="s">
+      <c r="C166" s="167" t="s">
         <v>430</v>
       </c>
-      <c r="D166" s="190" t="s">
+      <c r="D166" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="E166" s="152">
+      <c r="E166" s="164">
         <v>45666</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G166" s="193" t="s">
+      <c r="G166" s="167" t="s">
         <v>431</v>
       </c>
       <c r="H166" s="81"/>
-      <c r="I166" s="190">
+      <c r="I166" s="161">
         <v>13</v>
       </c>
       <c r="J166" s="10">
@@ -10900,27 +10915,27 @@
       <c r="M166" s="81">
         <v>36</v>
       </c>
-      <c r="N166" s="196">
+      <c r="N166" s="180">
         <v>45670</v>
       </c>
-      <c r="O166" s="196">
+      <c r="O166" s="180">
         <v>45712</v>
       </c>
-      <c r="P166" s="190" t="s">
+      <c r="P166" s="207" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="167" spans="2:16" ht="21">
-      <c r="B167" s="192"/>
-      <c r="C167" s="195"/>
-      <c r="D167" s="192"/>
-      <c r="E167" s="154"/>
+      <c r="B167" s="163"/>
+      <c r="C167" s="182"/>
+      <c r="D167" s="163"/>
+      <c r="E167" s="166"/>
       <c r="F167" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="192"/>
+      <c r="G167" s="163"/>
       <c r="H167" s="81"/>
-      <c r="I167" s="192"/>
+      <c r="I167" s="163"/>
       <c r="J167" s="10">
         <v>2.3751000000000001E-2</v>
       </c>
@@ -10933,17 +10948,17 @@
       <c r="M167" s="81">
         <v>29</v>
       </c>
-      <c r="N167" s="192"/>
-      <c r="O167" s="192"/>
-      <c r="P167" s="192"/>
+      <c r="N167" s="163"/>
+      <c r="O167" s="163"/>
+      <c r="P167" s="208"/>
     </row>
     <row r="168" spans="2:16" ht="22.5">
-      <c r="B168" s="186" t="s">
+      <c r="B168" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C168" s="186"/>
-      <c r="D168" s="186"/>
-      <c r="E168" s="186"/>
+      <c r="C168" s="168"/>
+      <c r="D168" s="168"/>
+      <c r="E168" s="168"/>
       <c r="F168" s="64" t="s">
         <v>15</v>
       </c>
@@ -10960,7 +10975,7 @@
       <c r="M168" s="52"/>
       <c r="N168" s="67"/>
       <c r="O168" s="67"/>
-      <c r="P168" s="67"/>
+      <c r="P168" s="209"/>
     </row>
     <row r="169" spans="2:16" ht="42">
       <c r="B169" s="134" t="s">
@@ -11006,17 +11021,17 @@
       <c r="O169" s="82">
         <v>45715</v>
       </c>
-      <c r="P169" s="81" t="s">
+      <c r="P169" s="210" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="170" spans="2:16" ht="22.5">
-      <c r="B170" s="186" t="s">
+      <c r="B170" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C170" s="186"/>
-      <c r="D170" s="186"/>
-      <c r="E170" s="186"/>
+      <c r="C170" s="168"/>
+      <c r="D170" s="168"/>
+      <c r="E170" s="168"/>
       <c r="F170" s="139" t="s">
         <v>436</v>
       </c>
@@ -11035,7 +11050,7 @@
       <c r="M170" s="141"/>
       <c r="N170" s="67"/>
       <c r="O170" s="67"/>
-      <c r="P170" s="67"/>
+      <c r="P170" s="209"/>
     </row>
     <row r="171" spans="2:16" ht="42">
       <c r="B171" s="81" t="s">
@@ -11081,17 +11096,17 @@
       <c r="O171" s="82">
         <v>45715</v>
       </c>
-      <c r="P171" s="81" t="s">
+      <c r="P171" s="210" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="172" spans="2:16" ht="22.5">
-      <c r="B172" s="186" t="s">
+      <c r="B172" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C172" s="186"/>
-      <c r="D172" s="186"/>
-      <c r="E172" s="186"/>
+      <c r="C172" s="168"/>
+      <c r="D172" s="168"/>
+      <c r="E172" s="168"/>
       <c r="F172" s="64" t="s">
         <v>391</v>
       </c>
@@ -11110,7 +11125,7 @@
       <c r="M172" s="52"/>
       <c r="N172" s="67"/>
       <c r="O172" s="67"/>
-      <c r="P172" s="67"/>
+      <c r="P172" s="209"/>
     </row>
     <row r="173" spans="2:16" ht="42">
       <c r="B173" s="81" t="s">
@@ -11156,17 +11171,17 @@
       <c r="O173" s="82">
         <v>45714</v>
       </c>
-      <c r="P173" s="81" t="s">
+      <c r="P173" s="210" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="174" spans="2:16" ht="22.5">
-      <c r="B174" s="186" t="s">
+      <c r="B174" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C174" s="186"/>
-      <c r="D174" s="186"/>
-      <c r="E174" s="186"/>
+      <c r="C174" s="168"/>
+      <c r="D174" s="168"/>
+      <c r="E174" s="168"/>
       <c r="F174" s="64" t="s">
         <v>436</v>
       </c>
@@ -11185,7 +11200,7 @@
       <c r="M174" s="52"/>
       <c r="N174" s="67"/>
       <c r="O174" s="67"/>
-      <c r="P174" s="67"/>
+      <c r="P174" s="209"/>
     </row>
     <row r="175" spans="2:16" ht="42">
       <c r="B175" s="134" t="s">
@@ -11231,17 +11246,17 @@
       <c r="O175" s="82">
         <v>45715</v>
       </c>
-      <c r="P175" s="81" t="s">
+      <c r="P175" s="210" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="176" spans="2:16" ht="22.5">
-      <c r="B176" s="186" t="s">
+      <c r="B176" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C176" s="186"/>
-      <c r="D176" s="186"/>
-      <c r="E176" s="186"/>
+      <c r="C176" s="168"/>
+      <c r="D176" s="168"/>
+      <c r="E176" s="168"/>
       <c r="F176" s="139" t="s">
         <v>436</v>
       </c>
@@ -11260,7 +11275,7 @@
       <c r="M176" s="141"/>
       <c r="N176" s="67"/>
       <c r="O176" s="67"/>
-      <c r="P176" s="67"/>
+      <c r="P176" s="209"/>
     </row>
     <row r="177" spans="2:16" ht="42">
       <c r="B177" s="81" t="s">
@@ -11306,17 +11321,17 @@
       <c r="O177" s="82">
         <v>45715</v>
       </c>
-      <c r="P177" s="81" t="s">
+      <c r="P177" s="210" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="178" spans="2:16" ht="22.5">
-      <c r="B178" s="186" t="s">
+      <c r="B178" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C178" s="186"/>
-      <c r="D178" s="186"/>
-      <c r="E178" s="186"/>
+      <c r="C178" s="168"/>
+      <c r="D178" s="168"/>
+      <c r="E178" s="168"/>
       <c r="F178" s="64" t="s">
         <v>391</v>
       </c>
@@ -11335,7 +11350,7 @@
       <c r="M178" s="52"/>
       <c r="N178" s="67"/>
       <c r="O178" s="67"/>
-      <c r="P178" s="67"/>
+      <c r="P178" s="209"/>
     </row>
     <row r="179" spans="2:16" ht="42">
       <c r="B179" s="81" t="s">
@@ -11379,17 +11394,17 @@
         <v>45675</v>
       </c>
       <c r="O179" s="82"/>
-      <c r="P179" s="81" t="s">
+      <c r="P179" s="210" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="180" spans="2:16" ht="22.5">
-      <c r="B180" s="186" t="s">
+      <c r="B180" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C180" s="186"/>
-      <c r="D180" s="186"/>
-      <c r="E180" s="186"/>
+      <c r="C180" s="168"/>
+      <c r="D180" s="168"/>
+      <c r="E180" s="168"/>
       <c r="F180" s="64" t="s">
         <v>436</v>
       </c>
@@ -11454,12 +11469,12 @@
       <c r="P181" s="81"/>
     </row>
     <row r="182" spans="2:16" ht="22.5">
-      <c r="B182" s="186" t="s">
+      <c r="B182" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="186"/>
-      <c r="D182" s="186"/>
-      <c r="E182" s="186"/>
+      <c r="C182" s="168"/>
+      <c r="D182" s="168"/>
+      <c r="E182" s="168"/>
       <c r="F182" s="64" t="s">
         <v>444</v>
       </c>
@@ -11479,28 +11494,28 @@
       <c r="P182" s="67"/>
     </row>
     <row r="183" spans="2:16" ht="21">
-      <c r="B183" s="190" t="s">
+      <c r="B183" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="C183" s="190">
+      <c r="C183" s="161">
         <v>1392620920</v>
       </c>
-      <c r="D183" s="190" t="s">
+      <c r="D183" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="E183" s="152">
+      <c r="E183" s="164">
         <v>45667</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G183" s="193" t="s">
+      <c r="G183" s="167" t="s">
         <v>68</v>
       </c>
       <c r="H183" s="81">
         <v>8</v>
       </c>
-      <c r="I183" s="190">
+      <c r="I183" s="161">
         <v>357</v>
       </c>
       <c r="J183" s="10">
@@ -11515,29 +11530,29 @@
       <c r="M183" s="81">
         <v>26</v>
       </c>
-      <c r="N183" s="196">
+      <c r="N183" s="180">
         <v>45670</v>
       </c>
-      <c r="O183" s="196">
+      <c r="O183" s="180">
         <v>45699</v>
       </c>
-      <c r="P183" s="190" t="s">
+      <c r="P183" s="161" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="184" spans="2:16" ht="21">
-      <c r="B184" s="191"/>
-      <c r="C184" s="191"/>
-      <c r="D184" s="191"/>
-      <c r="E184" s="153"/>
+      <c r="B184" s="162"/>
+      <c r="C184" s="162"/>
+      <c r="D184" s="162"/>
+      <c r="E184" s="165"/>
       <c r="F184" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G184" s="194"/>
+      <c r="G184" s="181"/>
       <c r="H184" s="81">
         <v>2</v>
       </c>
-      <c r="I184" s="191"/>
+      <c r="I184" s="162"/>
       <c r="J184" s="10">
         <v>7.7219999999999997E-2</v>
       </c>
@@ -11550,23 +11565,23 @@
       <c r="M184" s="81">
         <v>26</v>
       </c>
-      <c r="N184" s="191"/>
-      <c r="O184" s="191"/>
-      <c r="P184" s="191"/>
+      <c r="N184" s="162"/>
+      <c r="O184" s="162"/>
+      <c r="P184" s="162"/>
     </row>
     <row r="185" spans="2:16" ht="21">
-      <c r="B185" s="191"/>
-      <c r="C185" s="191"/>
-      <c r="D185" s="191"/>
-      <c r="E185" s="153"/>
+      <c r="B185" s="162"/>
+      <c r="C185" s="162"/>
+      <c r="D185" s="162"/>
+      <c r="E185" s="165"/>
       <c r="F185" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G185" s="195"/>
+      <c r="G185" s="182"/>
       <c r="H185" s="81">
         <v>4</v>
       </c>
-      <c r="I185" s="191"/>
+      <c r="I185" s="162"/>
       <c r="J185" s="10">
         <v>0.12675</v>
       </c>
@@ -11579,25 +11594,25 @@
       <c r="M185" s="81">
         <v>25</v>
       </c>
-      <c r="N185" s="191"/>
-      <c r="O185" s="191"/>
-      <c r="P185" s="191"/>
+      <c r="N185" s="162"/>
+      <c r="O185" s="162"/>
+      <c r="P185" s="162"/>
     </row>
     <row r="186" spans="2:16" ht="21">
-      <c r="B186" s="191"/>
-      <c r="C186" s="191"/>
-      <c r="D186" s="191"/>
-      <c r="E186" s="153"/>
+      <c r="B186" s="162"/>
+      <c r="C186" s="162"/>
+      <c r="D186" s="162"/>
+      <c r="E186" s="165"/>
       <c r="F186" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G186" s="193" t="s">
+      <c r="G186" s="167" t="s">
         <v>58</v>
       </c>
       <c r="H186" s="81">
         <v>20</v>
       </c>
-      <c r="I186" s="191"/>
+      <c r="I186" s="162"/>
       <c r="J186" s="10">
         <v>0.31099199999999999</v>
       </c>
@@ -11610,23 +11625,23 @@
       <c r="M186" s="81">
         <v>38</v>
       </c>
-      <c r="N186" s="191"/>
-      <c r="O186" s="191"/>
-      <c r="P186" s="191"/>
+      <c r="N186" s="162"/>
+      <c r="O186" s="162"/>
+      <c r="P186" s="162"/>
     </row>
     <row r="187" spans="2:16" ht="21">
-      <c r="B187" s="191"/>
-      <c r="C187" s="191"/>
-      <c r="D187" s="191"/>
-      <c r="E187" s="153"/>
+      <c r="B187" s="162"/>
+      <c r="C187" s="162"/>
+      <c r="D187" s="162"/>
+      <c r="E187" s="165"/>
       <c r="F187" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G187" s="194"/>
+      <c r="G187" s="181"/>
       <c r="H187" s="81">
         <v>10</v>
       </c>
-      <c r="I187" s="191"/>
+      <c r="I187" s="162"/>
       <c r="J187" s="10">
         <v>0.13718</v>
       </c>
@@ -11639,23 +11654,23 @@
       <c r="M187" s="81">
         <v>38</v>
       </c>
-      <c r="N187" s="191"/>
-      <c r="O187" s="191"/>
-      <c r="P187" s="191"/>
+      <c r="N187" s="162"/>
+      <c r="O187" s="162"/>
+      <c r="P187" s="162"/>
     </row>
     <row r="188" spans="2:16" ht="21">
-      <c r="B188" s="191"/>
-      <c r="C188" s="191"/>
-      <c r="D188" s="191"/>
-      <c r="E188" s="153"/>
+      <c r="B188" s="162"/>
+      <c r="C188" s="162"/>
+      <c r="D188" s="162"/>
+      <c r="E188" s="165"/>
       <c r="F188" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G188" s="194"/>
+      <c r="G188" s="181"/>
       <c r="H188" s="81">
         <v>10</v>
       </c>
-      <c r="I188" s="191"/>
+      <c r="I188" s="162"/>
       <c r="J188" s="10">
         <v>0.13718</v>
       </c>
@@ -11668,23 +11683,23 @@
       <c r="M188" s="81">
         <v>38</v>
       </c>
-      <c r="N188" s="191"/>
-      <c r="O188" s="191"/>
-      <c r="P188" s="191"/>
+      <c r="N188" s="162"/>
+      <c r="O188" s="162"/>
+      <c r="P188" s="162"/>
     </row>
     <row r="189" spans="2:16" ht="21">
-      <c r="B189" s="191"/>
-      <c r="C189" s="191"/>
-      <c r="D189" s="191"/>
-      <c r="E189" s="153"/>
+      <c r="B189" s="162"/>
+      <c r="C189" s="162"/>
+      <c r="D189" s="162"/>
+      <c r="E189" s="165"/>
       <c r="F189" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G189" s="194"/>
+      <c r="G189" s="181"/>
       <c r="H189" s="81">
         <v>20</v>
       </c>
-      <c r="I189" s="191"/>
+      <c r="I189" s="162"/>
       <c r="J189" s="10">
         <v>0.13718</v>
       </c>
@@ -11697,23 +11712,23 @@
       <c r="M189" s="81">
         <v>38</v>
       </c>
-      <c r="N189" s="191"/>
-      <c r="O189" s="191"/>
-      <c r="P189" s="191"/>
+      <c r="N189" s="162"/>
+      <c r="O189" s="162"/>
+      <c r="P189" s="162"/>
     </row>
     <row r="190" spans="2:16" ht="21">
-      <c r="B190" s="191"/>
-      <c r="C190" s="191"/>
-      <c r="D190" s="191"/>
-      <c r="E190" s="153"/>
+      <c r="B190" s="162"/>
+      <c r="C190" s="162"/>
+      <c r="D190" s="162"/>
+      <c r="E190" s="165"/>
       <c r="F190" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G190" s="194"/>
+      <c r="G190" s="181"/>
       <c r="H190" s="81">
         <v>50</v>
       </c>
-      <c r="I190" s="191"/>
+      <c r="I190" s="162"/>
       <c r="J190" s="10">
         <v>0.68589999999999995</v>
       </c>
@@ -11726,23 +11741,23 @@
       <c r="M190" s="81">
         <v>38</v>
       </c>
-      <c r="N190" s="191"/>
-      <c r="O190" s="191"/>
-      <c r="P190" s="191"/>
+      <c r="N190" s="162"/>
+      <c r="O190" s="162"/>
+      <c r="P190" s="162"/>
     </row>
     <row r="191" spans="2:16" ht="21">
-      <c r="B191" s="191"/>
-      <c r="C191" s="191"/>
-      <c r="D191" s="191"/>
-      <c r="E191" s="153"/>
+      <c r="B191" s="162"/>
+      <c r="C191" s="162"/>
+      <c r="D191" s="162"/>
+      <c r="E191" s="165"/>
       <c r="F191" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G191" s="195"/>
+      <c r="G191" s="182"/>
       <c r="H191" s="81">
         <v>10</v>
       </c>
-      <c r="I191" s="191"/>
+      <c r="I191" s="162"/>
       <c r="J191" s="10">
         <v>6.93E-2</v>
       </c>
@@ -11755,15 +11770,15 @@
       <c r="M191" s="81">
         <v>33</v>
       </c>
-      <c r="N191" s="191"/>
-      <c r="O191" s="191"/>
-      <c r="P191" s="191"/>
+      <c r="N191" s="162"/>
+      <c r="O191" s="162"/>
+      <c r="P191" s="162"/>
     </row>
     <row r="192" spans="2:16" ht="21">
-      <c r="B192" s="191"/>
-      <c r="C192" s="191"/>
-      <c r="D192" s="191"/>
-      <c r="E192" s="153"/>
+      <c r="B192" s="162"/>
+      <c r="C192" s="162"/>
+      <c r="D192" s="162"/>
+      <c r="E192" s="165"/>
       <c r="F192" s="3" t="s">
         <v>28</v>
       </c>
@@ -11773,7 +11788,7 @@
       <c r="H192" s="81">
         <v>85</v>
       </c>
-      <c r="I192" s="191"/>
+      <c r="I192" s="162"/>
       <c r="J192" s="10">
         <v>3.0096000000000001E-2</v>
       </c>
@@ -11786,15 +11801,15 @@
       <c r="M192" s="81">
         <v>24</v>
       </c>
-      <c r="N192" s="191"/>
-      <c r="O192" s="191"/>
-      <c r="P192" s="191"/>
-    </row>
-    <row r="193" spans="2:16" ht="21">
-      <c r="B193" s="191"/>
-      <c r="C193" s="191"/>
-      <c r="D193" s="191"/>
-      <c r="E193" s="153"/>
+      <c r="N192" s="162"/>
+      <c r="O192" s="162"/>
+      <c r="P192" s="162"/>
+    </row>
+    <row r="193" spans="2:16" ht="37.5">
+      <c r="B193" s="162"/>
+      <c r="C193" s="162"/>
+      <c r="D193" s="162"/>
+      <c r="E193" s="165"/>
       <c r="F193" s="3" t="s">
         <v>29</v>
       </c>
@@ -11804,7 +11819,7 @@
       <c r="H193" s="81">
         <v>50</v>
       </c>
-      <c r="I193" s="191"/>
+      <c r="I193" s="162"/>
       <c r="J193" s="10">
         <v>5.3921999999999998E-2</v>
       </c>
@@ -11817,15 +11832,15 @@
       <c r="M193" s="81">
         <v>33</v>
       </c>
-      <c r="N193" s="191"/>
-      <c r="O193" s="191"/>
-      <c r="P193" s="191"/>
+      <c r="N193" s="162"/>
+      <c r="O193" s="162"/>
+      <c r="P193" s="162"/>
     </row>
     <row r="194" spans="2:16" ht="21">
-      <c r="B194" s="191"/>
-      <c r="C194" s="191"/>
-      <c r="D194" s="191"/>
-      <c r="E194" s="153"/>
+      <c r="B194" s="162"/>
+      <c r="C194" s="162"/>
+      <c r="D194" s="162"/>
+      <c r="E194" s="165"/>
       <c r="F194" s="3" t="s">
         <v>57</v>
       </c>
@@ -11835,7 +11850,7 @@
       <c r="H194" s="81">
         <v>14</v>
       </c>
-      <c r="I194" s="191"/>
+      <c r="I194" s="162"/>
       <c r="J194" s="10">
         <v>0.16819999999999999</v>
       </c>
@@ -11848,15 +11863,15 @@
       <c r="M194" s="81">
         <v>20</v>
       </c>
-      <c r="N194" s="191"/>
-      <c r="O194" s="191"/>
-      <c r="P194" s="191"/>
+      <c r="N194" s="162"/>
+      <c r="O194" s="162"/>
+      <c r="P194" s="162"/>
     </row>
     <row r="195" spans="2:16" ht="37.5">
-      <c r="B195" s="192"/>
-      <c r="C195" s="192"/>
-      <c r="D195" s="192"/>
-      <c r="E195" s="154"/>
+      <c r="B195" s="163"/>
+      <c r="C195" s="163"/>
+      <c r="D195" s="163"/>
+      <c r="E195" s="166"/>
       <c r="F195" s="3" t="s">
         <v>87</v>
       </c>
@@ -11866,7 +11881,7 @@
       <c r="H195" s="81">
         <v>10</v>
       </c>
-      <c r="I195" s="192"/>
+      <c r="I195" s="163"/>
       <c r="J195" s="10">
         <v>0.35963200000000001</v>
       </c>
@@ -11879,17 +11894,17 @@
       <c r="M195" s="81">
         <v>38</v>
       </c>
-      <c r="N195" s="192"/>
-      <c r="O195" s="192"/>
-      <c r="P195" s="192"/>
+      <c r="N195" s="163"/>
+      <c r="O195" s="163"/>
+      <c r="P195" s="163"/>
     </row>
     <row r="196" spans="2:16" ht="22.5">
-      <c r="B196" s="186" t="s">
+      <c r="B196" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C196" s="186"/>
-      <c r="D196" s="186"/>
-      <c r="E196" s="186"/>
+      <c r="C196" s="168"/>
+      <c r="D196" s="168"/>
+      <c r="E196" s="168"/>
       <c r="F196" s="64" t="s">
         <v>19</v>
       </c>
@@ -11954,12 +11969,12 @@
       </c>
     </row>
     <row r="198" spans="2:16" ht="22.5">
-      <c r="B198" s="186" t="s">
+      <c r="B198" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C198" s="186"/>
-      <c r="D198" s="186"/>
-      <c r="E198" s="186"/>
+      <c r="C198" s="168"/>
+      <c r="D198" s="168"/>
+      <c r="E198" s="168"/>
       <c r="F198" s="64" t="s">
         <v>25</v>
       </c>
@@ -12028,12 +12043,12 @@
       </c>
     </row>
     <row r="200" spans="2:16" ht="22.5">
-      <c r="B200" s="186" t="s">
+      <c r="B200" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C200" s="186"/>
-      <c r="D200" s="186"/>
-      <c r="E200" s="186"/>
+      <c r="C200" s="168"/>
+      <c r="D200" s="168"/>
+      <c r="E200" s="168"/>
       <c r="F200" s="64" t="s">
         <v>25</v>
       </c>
@@ -12053,28 +12068,28 @@
       <c r="P200" s="67"/>
     </row>
     <row r="201" spans="2:16" ht="21">
-      <c r="B201" s="185" t="s">
+      <c r="B201" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="C201" s="168" t="s">
+      <c r="C201" s="176" t="s">
         <v>445</v>
       </c>
-      <c r="D201" s="185" t="s">
+      <c r="D201" s="170" t="s">
         <v>109</v>
       </c>
-      <c r="E201" s="187">
+      <c r="E201" s="173">
         <v>45668</v>
       </c>
       <c r="F201" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G201" s="168" t="s">
+      <c r="G201" s="176" t="s">
         <v>111</v>
       </c>
       <c r="H201" s="60">
         <v>385</v>
       </c>
-      <c r="I201" s="185">
+      <c r="I201" s="170">
         <v>1451</v>
       </c>
       <c r="J201" s="63">
@@ -12089,29 +12104,29 @@
       <c r="M201" s="60">
         <v>30</v>
       </c>
-      <c r="N201" s="182">
+      <c r="N201" s="179">
         <v>45671</v>
       </c>
-      <c r="O201" s="182">
+      <c r="O201" s="179">
         <v>45714</v>
       </c>
-      <c r="P201" s="185" t="s">
+      <c r="P201" s="170" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="202" spans="2:16" ht="21">
-      <c r="B202" s="183"/>
+      <c r="B202" s="171"/>
       <c r="C202" s="177"/>
-      <c r="D202" s="183"/>
-      <c r="E202" s="188"/>
+      <c r="D202" s="171"/>
+      <c r="E202" s="174"/>
       <c r="F202" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G202" s="169"/>
+      <c r="G202" s="178"/>
       <c r="H202" s="60">
         <v>36</v>
       </c>
-      <c r="I202" s="183"/>
+      <c r="I202" s="171"/>
       <c r="J202" s="63">
         <v>0.29759999999999998</v>
       </c>
@@ -12124,15 +12139,15 @@
       <c r="M202" s="60">
         <v>20</v>
       </c>
-      <c r="N202" s="183"/>
-      <c r="O202" s="183"/>
-      <c r="P202" s="183"/>
+      <c r="N202" s="171"/>
+      <c r="O202" s="171"/>
+      <c r="P202" s="171"/>
     </row>
     <row r="203" spans="2:16" ht="21">
-      <c r="B203" s="183"/>
+      <c r="B203" s="171"/>
       <c r="C203" s="177"/>
-      <c r="D203" s="183"/>
-      <c r="E203" s="188"/>
+      <c r="D203" s="171"/>
+      <c r="E203" s="174"/>
       <c r="F203" s="62" t="s">
         <v>113</v>
       </c>
@@ -12142,7 +12157,7 @@
       <c r="H203" s="60">
         <v>26</v>
       </c>
-      <c r="I203" s="183"/>
+      <c r="I203" s="171"/>
       <c r="J203" s="63">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -12155,15 +12170,15 @@
       <c r="M203" s="60">
         <v>33</v>
       </c>
-      <c r="N203" s="183"/>
-      <c r="O203" s="183"/>
-      <c r="P203" s="183"/>
+      <c r="N203" s="171"/>
+      <c r="O203" s="171"/>
+      <c r="P203" s="171"/>
     </row>
     <row r="204" spans="2:16" ht="21">
-      <c r="B204" s="183"/>
+      <c r="B204" s="171"/>
       <c r="C204" s="177"/>
-      <c r="D204" s="183"/>
-      <c r="E204" s="188"/>
+      <c r="D204" s="171"/>
+      <c r="E204" s="174"/>
       <c r="F204" s="62" t="s">
         <v>115</v>
       </c>
@@ -12173,7 +12188,7 @@
       <c r="H204" s="60">
         <v>121</v>
       </c>
-      <c r="I204" s="183"/>
+      <c r="I204" s="171"/>
       <c r="J204" s="63">
         <v>3.456E-2</v>
       </c>
@@ -12186,15 +12201,15 @@
       <c r="M204" s="60">
         <v>24</v>
       </c>
-      <c r="N204" s="183"/>
-      <c r="O204" s="183"/>
-      <c r="P204" s="183"/>
+      <c r="N204" s="171"/>
+      <c r="O204" s="171"/>
+      <c r="P204" s="171"/>
     </row>
     <row r="205" spans="2:16" ht="37.5">
-      <c r="B205" s="183"/>
+      <c r="B205" s="171"/>
       <c r="C205" s="177"/>
-      <c r="D205" s="183"/>
-      <c r="E205" s="188"/>
+      <c r="D205" s="171"/>
+      <c r="E205" s="174"/>
       <c r="F205" s="62" t="s">
         <v>117</v>
       </c>
@@ -12204,7 +12219,7 @@
       <c r="H205" s="60">
         <v>24</v>
       </c>
-      <c r="I205" s="183"/>
+      <c r="I205" s="171"/>
       <c r="J205" s="63">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -12217,15 +12232,15 @@
       <c r="M205" s="60">
         <v>15</v>
       </c>
-      <c r="N205" s="183"/>
-      <c r="O205" s="183"/>
-      <c r="P205" s="183"/>
+      <c r="N205" s="171"/>
+      <c r="O205" s="171"/>
+      <c r="P205" s="171"/>
     </row>
     <row r="206" spans="2:16" ht="21">
-      <c r="B206" s="184"/>
-      <c r="C206" s="169"/>
-      <c r="D206" s="184"/>
-      <c r="E206" s="189"/>
+      <c r="B206" s="172"/>
+      <c r="C206" s="178"/>
+      <c r="D206" s="172"/>
+      <c r="E206" s="175"/>
       <c r="F206" s="62" t="s">
         <v>118</v>
       </c>
@@ -12235,7 +12250,7 @@
       <c r="H206" s="60">
         <v>150</v>
       </c>
-      <c r="I206" s="184"/>
+      <c r="I206" s="172"/>
       <c r="J206" s="63">
         <v>1.512</v>
       </c>
@@ -12248,17 +12263,17 @@
       <c r="M206" s="60">
         <v>30</v>
       </c>
-      <c r="N206" s="184"/>
-      <c r="O206" s="184"/>
-      <c r="P206" s="184"/>
+      <c r="N206" s="172"/>
+      <c r="O206" s="172"/>
+      <c r="P206" s="172"/>
     </row>
     <row r="207" spans="2:16" ht="22.5">
-      <c r="B207" s="186" t="s">
+      <c r="B207" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C207" s="186"/>
-      <c r="D207" s="186"/>
-      <c r="E207" s="186"/>
+      <c r="C207" s="168"/>
+      <c r="D207" s="168"/>
+      <c r="E207" s="168"/>
       <c r="F207" s="64" t="s">
         <v>119</v>
       </c>
@@ -12278,28 +12293,28 @@
       <c r="P207" s="55"/>
     </row>
     <row r="208" spans="2:16" ht="21">
-      <c r="B208" s="185" t="s">
+      <c r="B208" s="170" t="s">
         <v>120</v>
       </c>
-      <c r="C208" s="168" t="s">
+      <c r="C208" s="176" t="s">
         <v>447</v>
       </c>
-      <c r="D208" s="185" t="s">
+      <c r="D208" s="170" t="s">
         <v>62</v>
       </c>
-      <c r="E208" s="187">
+      <c r="E208" s="173">
         <v>45668</v>
       </c>
       <c r="F208" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G208" s="168" t="s">
+      <c r="G208" s="176" t="s">
         <v>77</v>
       </c>
       <c r="H208" s="60">
         <v>300</v>
       </c>
-      <c r="I208" s="185">
+      <c r="I208" s="170">
         <v>680</v>
       </c>
       <c r="J208" s="63">
@@ -12314,29 +12329,29 @@
       <c r="M208" s="60">
         <v>24</v>
       </c>
-      <c r="N208" s="182">
+      <c r="N208" s="179">
         <v>45671</v>
       </c>
-      <c r="O208" s="182">
+      <c r="O208" s="179">
         <v>45714</v>
       </c>
-      <c r="P208" s="185" t="s">
+      <c r="P208" s="170" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="209" spans="2:16" ht="21">
-      <c r="B209" s="183"/>
+      <c r="B209" s="171"/>
       <c r="C209" s="177"/>
-      <c r="D209" s="183"/>
-      <c r="E209" s="188"/>
+      <c r="D209" s="171"/>
+      <c r="E209" s="174"/>
       <c r="F209" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="G209" s="183"/>
+      <c r="G209" s="171"/>
       <c r="H209" s="60">
         <v>80</v>
       </c>
-      <c r="I209" s="183"/>
+      <c r="I209" s="171"/>
       <c r="J209" s="63">
         <v>0.189</v>
       </c>
@@ -12349,23 +12364,23 @@
       <c r="M209" s="60">
         <v>30</v>
       </c>
-      <c r="N209" s="183"/>
-      <c r="O209" s="183"/>
-      <c r="P209" s="183"/>
+      <c r="N209" s="171"/>
+      <c r="O209" s="171"/>
+      <c r="P209" s="171"/>
     </row>
     <row r="210" spans="2:16" ht="21">
-      <c r="B210" s="184"/>
-      <c r="C210" s="169"/>
-      <c r="D210" s="184"/>
-      <c r="E210" s="189"/>
+      <c r="B210" s="172"/>
+      <c r="C210" s="178"/>
+      <c r="D210" s="172"/>
+      <c r="E210" s="175"/>
       <c r="F210" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G210" s="184"/>
+      <c r="G210" s="172"/>
       <c r="H210" s="60">
         <v>5100</v>
       </c>
-      <c r="I210" s="184"/>
+      <c r="I210" s="172"/>
       <c r="J210" s="63">
         <v>2.7820800000000001</v>
       </c>
@@ -12378,17 +12393,17 @@
       <c r="M210" s="60">
         <v>28</v>
       </c>
-      <c r="N210" s="184"/>
-      <c r="O210" s="184"/>
-      <c r="P210" s="184"/>
+      <c r="N210" s="172"/>
+      <c r="O210" s="172"/>
+      <c r="P210" s="172"/>
     </row>
     <row r="211" spans="2:16" ht="22.5">
-      <c r="B211" s="186" t="s">
+      <c r="B211" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C211" s="186"/>
-      <c r="D211" s="186"/>
-      <c r="E211" s="186"/>
+      <c r="C211" s="168"/>
+      <c r="D211" s="168"/>
+      <c r="E211" s="168"/>
       <c r="F211" s="64" t="s">
         <v>113</v>
       </c>
@@ -12453,12 +12468,12 @@
       </c>
     </row>
     <row r="213" spans="2:16" ht="22.5">
-      <c r="B213" s="186" t="s">
+      <c r="B213" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C213" s="186"/>
-      <c r="D213" s="186"/>
-      <c r="E213" s="186"/>
+      <c r="C213" s="168"/>
+      <c r="D213" s="168"/>
+      <c r="E213" s="168"/>
       <c r="F213" s="64" t="s">
         <v>23</v>
       </c>
@@ -12517,12 +12532,12 @@
       <c r="P214" s="81"/>
     </row>
     <row r="215" spans="2:16" ht="22.5">
-      <c r="B215" s="186" t="s">
+      <c r="B215" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C215" s="186"/>
-      <c r="D215" s="186"/>
-      <c r="E215" s="186"/>
+      <c r="C215" s="168"/>
+      <c r="D215" s="168"/>
+      <c r="E215" s="168"/>
       <c r="F215" s="64" t="s">
         <v>21</v>
       </c>
@@ -12582,12 +12597,12 @@
       <c r="P216" s="60"/>
     </row>
     <row r="217" spans="2:16" ht="22.5">
-      <c r="B217" s="186" t="s">
+      <c r="B217" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C217" s="186"/>
-      <c r="D217" s="186"/>
-      <c r="E217" s="186"/>
+      <c r="C217" s="168"/>
+      <c r="D217" s="168"/>
+      <c r="E217" s="168"/>
       <c r="F217" s="64" t="s">
         <v>21</v>
       </c>
@@ -12654,12 +12669,12 @@
       <c r="P218" s="60"/>
     </row>
     <row r="219" spans="2:16" ht="22.5">
-      <c r="B219" s="186" t="s">
+      <c r="B219" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C219" s="186"/>
-      <c r="D219" s="186"/>
-      <c r="E219" s="186"/>
+      <c r="C219" s="168"/>
+      <c r="D219" s="168"/>
+      <c r="E219" s="168"/>
       <c r="F219" s="64" t="s">
         <v>56</v>
       </c>
@@ -12679,24 +12694,24 @@
       <c r="P219" s="55"/>
     </row>
     <row r="220" spans="2:16" ht="21">
-      <c r="B220" s="190" t="s">
+      <c r="B220" s="161" t="s">
         <v>132</v>
       </c>
       <c r="C220" s="81"/>
-      <c r="D220" s="190" t="s">
+      <c r="D220" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="E220" s="152">
+      <c r="E220" s="164">
         <v>45671</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G220" s="190" t="s">
+      <c r="G220" s="161" t="s">
         <v>54</v>
       </c>
       <c r="H220" s="81"/>
-      <c r="I220" s="190"/>
+      <c r="I220" s="161"/>
       <c r="J220" s="10">
         <v>7.7367000000000008</v>
       </c>
@@ -12718,16 +12733,16 @@
       <c r="P220" s="81"/>
     </row>
     <row r="221" spans="2:16" ht="21">
-      <c r="B221" s="192"/>
+      <c r="B221" s="163"/>
       <c r="C221" s="81"/>
-      <c r="D221" s="192"/>
-      <c r="E221" s="154"/>
+      <c r="D221" s="163"/>
+      <c r="E221" s="166"/>
       <c r="F221" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G221" s="192"/>
+      <c r="G221" s="163"/>
       <c r="H221" s="81"/>
-      <c r="I221" s="192"/>
+      <c r="I221" s="163"/>
       <c r="J221" s="10">
         <v>0.67200000000000004</v>
       </c>
@@ -12745,12 +12760,12 @@
       <c r="P221" s="81"/>
     </row>
     <row r="222" spans="2:16" ht="22.5">
-      <c r="B222" s="186" t="s">
+      <c r="B222" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C222" s="186"/>
-      <c r="D222" s="186"/>
-      <c r="E222" s="186"/>
+      <c r="C222" s="168"/>
+      <c r="D222" s="168"/>
+      <c r="E222" s="168"/>
       <c r="F222" s="64" t="s">
         <v>134</v>
       </c>
@@ -12770,28 +12785,28 @@
       <c r="P222" s="67"/>
     </row>
     <row r="223" spans="2:16" ht="42">
-      <c r="B223" s="185" t="s">
+      <c r="B223" s="170" t="s">
         <v>135</v>
       </c>
-      <c r="C223" s="185">
+      <c r="C223" s="170">
         <v>13924006350</v>
       </c>
-      <c r="D223" s="185" t="s">
+      <c r="D223" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="E223" s="187">
+      <c r="E223" s="173">
         <v>45672</v>
       </c>
       <c r="F223" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G223" s="168" t="s">
+      <c r="G223" s="176" t="s">
         <v>136</v>
       </c>
       <c r="H223" s="60">
         <v>2</v>
       </c>
-      <c r="I223" s="185">
+      <c r="I223" s="170">
         <v>1478</v>
       </c>
       <c r="J223" s="63">
@@ -12807,10 +12822,10 @@
       <c r="M223" s="60">
         <v>43</v>
       </c>
-      <c r="N223" s="185" t="s">
+      <c r="N223" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="O223" s="185" t="s">
+      <c r="O223" s="170" t="s">
         <v>82</v>
       </c>
       <c r="P223" s="106" t="s">
@@ -12818,10 +12833,10 @@
       </c>
     </row>
     <row r="224" spans="2:16" ht="21">
-      <c r="B224" s="183"/>
-      <c r="C224" s="183"/>
-      <c r="D224" s="183"/>
-      <c r="E224" s="188"/>
+      <c r="B224" s="171"/>
+      <c r="C224" s="171"/>
+      <c r="D224" s="171"/>
+      <c r="E224" s="174"/>
       <c r="F224" s="62" t="s">
         <v>30</v>
       </c>
@@ -12829,7 +12844,7 @@
       <c r="H224" s="60">
         <v>1</v>
       </c>
-      <c r="I224" s="183"/>
+      <c r="I224" s="171"/>
       <c r="J224" s="63">
         <f t="shared" ref="J224:J230" si="1">K224*L224*M224/1000000</f>
         <v>2.494008</v>
@@ -12843,15 +12858,15 @@
       <c r="M224" s="60">
         <v>188</v>
       </c>
-      <c r="N224" s="183"/>
-      <c r="O224" s="183"/>
+      <c r="N224" s="171"/>
+      <c r="O224" s="171"/>
       <c r="P224" s="130"/>
     </row>
     <row r="225" spans="2:16" ht="21">
-      <c r="B225" s="183"/>
-      <c r="C225" s="183"/>
-      <c r="D225" s="183"/>
-      <c r="E225" s="188"/>
+      <c r="B225" s="171"/>
+      <c r="C225" s="171"/>
+      <c r="D225" s="171"/>
+      <c r="E225" s="174"/>
       <c r="F225" s="62" t="s">
         <v>25</v>
       </c>
@@ -12859,7 +12874,7 @@
       <c r="H225" s="60">
         <v>1</v>
       </c>
-      <c r="I225" s="183"/>
+      <c r="I225" s="171"/>
       <c r="J225" s="63">
         <f t="shared" si="1"/>
         <v>2.4490620000000001</v>
@@ -12873,15 +12888,15 @@
       <c r="M225" s="60">
         <v>133</v>
       </c>
-      <c r="N225" s="183"/>
-      <c r="O225" s="183"/>
+      <c r="N225" s="171"/>
+      <c r="O225" s="171"/>
       <c r="P225" s="130"/>
     </row>
     <row r="226" spans="2:16" ht="21">
-      <c r="B226" s="183"/>
-      <c r="C226" s="183"/>
-      <c r="D226" s="183"/>
-      <c r="E226" s="188"/>
+      <c r="B226" s="171"/>
+      <c r="C226" s="171"/>
+      <c r="D226" s="171"/>
+      <c r="E226" s="174"/>
       <c r="F226" s="62" t="s">
         <v>13</v>
       </c>
@@ -12889,7 +12904,7 @@
       <c r="H226" s="60">
         <v>1</v>
       </c>
-      <c r="I226" s="183"/>
+      <c r="I226" s="171"/>
       <c r="J226" s="63">
         <f t="shared" si="1"/>
         <v>0.10374</v>
@@ -12903,15 +12918,15 @@
       <c r="M226" s="60">
         <v>15</v>
       </c>
-      <c r="N226" s="183"/>
-      <c r="O226" s="183"/>
+      <c r="N226" s="171"/>
+      <c r="O226" s="171"/>
       <c r="P226" s="130"/>
     </row>
     <row r="227" spans="2:16" ht="21">
-      <c r="B227" s="183"/>
-      <c r="C227" s="183"/>
-      <c r="D227" s="183"/>
-      <c r="E227" s="188"/>
+      <c r="B227" s="171"/>
+      <c r="C227" s="171"/>
+      <c r="D227" s="171"/>
+      <c r="E227" s="174"/>
       <c r="F227" s="62" t="s">
         <v>17</v>
       </c>
@@ -12919,7 +12934,7 @@
       <c r="H227" s="60">
         <v>1</v>
       </c>
-      <c r="I227" s="183"/>
+      <c r="I227" s="171"/>
       <c r="J227" s="63">
         <f t="shared" si="1"/>
         <v>1.81044</v>
@@ -12933,15 +12948,15 @@
       <c r="M227" s="60">
         <v>188</v>
       </c>
-      <c r="N227" s="183"/>
-      <c r="O227" s="183"/>
+      <c r="N227" s="171"/>
+      <c r="O227" s="171"/>
       <c r="P227" s="130"/>
     </row>
     <row r="228" spans="2:16" ht="21">
-      <c r="B228" s="183"/>
-      <c r="C228" s="183"/>
-      <c r="D228" s="183"/>
-      <c r="E228" s="188"/>
+      <c r="B228" s="171"/>
+      <c r="C228" s="171"/>
+      <c r="D228" s="171"/>
+      <c r="E228" s="174"/>
       <c r="F228" s="62" t="s">
         <v>31</v>
       </c>
@@ -12949,7 +12964,7 @@
       <c r="H228" s="60">
         <v>1</v>
       </c>
-      <c r="I228" s="183"/>
+      <c r="I228" s="171"/>
       <c r="J228" s="63">
         <f t="shared" si="1"/>
         <v>1.7482500000000001</v>
@@ -12963,15 +12978,15 @@
       <c r="M228" s="60">
         <v>175</v>
       </c>
-      <c r="N228" s="183"/>
-      <c r="O228" s="183"/>
+      <c r="N228" s="171"/>
+      <c r="O228" s="171"/>
       <c r="P228" s="130"/>
     </row>
     <row r="229" spans="2:16" ht="21">
-      <c r="B229" s="183"/>
-      <c r="C229" s="183"/>
-      <c r="D229" s="183"/>
-      <c r="E229" s="188"/>
+      <c r="B229" s="171"/>
+      <c r="C229" s="171"/>
+      <c r="D229" s="171"/>
+      <c r="E229" s="174"/>
       <c r="F229" s="62" t="s">
         <v>26</v>
       </c>
@@ -12979,7 +12994,7 @@
       <c r="H229" s="60">
         <v>1</v>
       </c>
-      <c r="I229" s="183"/>
+      <c r="I229" s="171"/>
       <c r="J229" s="63">
         <f t="shared" si="1"/>
         <v>1.2261599999999999</v>
@@ -12993,23 +13008,23 @@
       <c r="M229" s="60">
         <v>117</v>
       </c>
-      <c r="N229" s="183"/>
-      <c r="O229" s="183"/>
+      <c r="N229" s="171"/>
+      <c r="O229" s="171"/>
       <c r="P229" s="130"/>
     </row>
     <row r="230" spans="2:16" ht="21">
-      <c r="B230" s="184"/>
-      <c r="C230" s="184"/>
-      <c r="D230" s="184"/>
-      <c r="E230" s="189"/>
+      <c r="B230" s="172"/>
+      <c r="C230" s="172"/>
+      <c r="D230" s="172"/>
+      <c r="E230" s="175"/>
       <c r="F230" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G230" s="169"/>
+      <c r="G230" s="178"/>
       <c r="H230" s="60">
         <v>1</v>
       </c>
-      <c r="I230" s="184"/>
+      <c r="I230" s="172"/>
       <c r="J230" s="63">
         <f t="shared" si="1"/>
         <v>2.0717599999999998</v>
@@ -13023,17 +13038,17 @@
       <c r="M230" s="60">
         <v>188</v>
       </c>
-      <c r="N230" s="184"/>
-      <c r="O230" s="184"/>
+      <c r="N230" s="172"/>
+      <c r="O230" s="172"/>
       <c r="P230" s="131"/>
     </row>
     <row r="231" spans="2:16" ht="22.5">
-      <c r="B231" s="186" t="s">
+      <c r="B231" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C231" s="186"/>
-      <c r="D231" s="186"/>
-      <c r="E231" s="186"/>
+      <c r="C231" s="168"/>
+      <c r="D231" s="168"/>
+      <c r="E231" s="168"/>
       <c r="F231" s="64" t="s">
         <v>22</v>
       </c>
@@ -13096,12 +13111,12 @@
       <c r="P232" s="81"/>
     </row>
     <row r="233" spans="2:16" ht="22.5">
-      <c r="B233" s="186" t="s">
+      <c r="B233" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C233" s="186"/>
-      <c r="D233" s="186"/>
-      <c r="E233" s="186"/>
+      <c r="C233" s="168"/>
+      <c r="D233" s="168"/>
+      <c r="E233" s="168"/>
       <c r="F233" s="64" t="s">
         <v>21</v>
       </c>
@@ -13121,26 +13136,26 @@
       <c r="P233" s="67"/>
     </row>
     <row r="234" spans="2:16" ht="21">
-      <c r="B234" s="190" t="s">
+      <c r="B234" s="161" t="s">
         <v>183</v>
       </c>
-      <c r="C234" s="197" t="s">
+      <c r="C234" s="169" t="s">
         <v>184</v>
       </c>
-      <c r="D234" s="190" t="s">
+      <c r="D234" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="E234" s="152">
+      <c r="E234" s="164">
         <v>45674</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G234" s="193" t="s">
+      <c r="G234" s="167" t="s">
         <v>186</v>
       </c>
       <c r="H234" s="81"/>
-      <c r="I234" s="190">
+      <c r="I234" s="161">
         <v>80</v>
       </c>
       <c r="J234" s="10">
@@ -13160,16 +13175,16 @@
       <c r="P234" s="81"/>
     </row>
     <row r="235" spans="2:16" ht="21">
-      <c r="B235" s="191"/>
-      <c r="C235" s="191"/>
-      <c r="D235" s="191"/>
-      <c r="E235" s="153"/>
+      <c r="B235" s="162"/>
+      <c r="C235" s="162"/>
+      <c r="D235" s="162"/>
+      <c r="E235" s="165"/>
       <c r="F235" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G235" s="191"/>
+      <c r="G235" s="162"/>
       <c r="H235" s="81"/>
-      <c r="I235" s="191"/>
+      <c r="I235" s="162"/>
       <c r="J235" s="10">
         <v>9.3149999999999997E-2</v>
       </c>
@@ -13187,16 +13202,16 @@
       <c r="P235" s="81"/>
     </row>
     <row r="236" spans="2:16" ht="21">
-      <c r="B236" s="191"/>
-      <c r="C236" s="191"/>
-      <c r="D236" s="191"/>
-      <c r="E236" s="153"/>
+      <c r="B236" s="162"/>
+      <c r="C236" s="162"/>
+      <c r="D236" s="162"/>
+      <c r="E236" s="165"/>
       <c r="F236" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G236" s="191"/>
+      <c r="G236" s="162"/>
       <c r="H236" s="81"/>
-      <c r="I236" s="191"/>
+      <c r="I236" s="162"/>
       <c r="J236" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -13214,16 +13229,16 @@
       <c r="P236" s="81"/>
     </row>
     <row r="237" spans="2:16" ht="21">
-      <c r="B237" s="191"/>
-      <c r="C237" s="191"/>
-      <c r="D237" s="191"/>
-      <c r="E237" s="153"/>
+      <c r="B237" s="162"/>
+      <c r="C237" s="162"/>
+      <c r="D237" s="162"/>
+      <c r="E237" s="165"/>
       <c r="F237" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G237" s="191"/>
+      <c r="G237" s="162"/>
       <c r="H237" s="81"/>
-      <c r="I237" s="191"/>
+      <c r="I237" s="162"/>
       <c r="J237" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -13241,16 +13256,16 @@
       <c r="P237" s="81"/>
     </row>
     <row r="238" spans="2:16" ht="21">
-      <c r="B238" s="192"/>
-      <c r="C238" s="192"/>
-      <c r="D238" s="192"/>
-      <c r="E238" s="154"/>
+      <c r="B238" s="163"/>
+      <c r="C238" s="163"/>
+      <c r="D238" s="163"/>
+      <c r="E238" s="166"/>
       <c r="F238" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G238" s="192"/>
+      <c r="G238" s="163"/>
       <c r="H238" s="81"/>
-      <c r="I238" s="192"/>
+      <c r="I238" s="163"/>
       <c r="J238" s="10">
         <v>2.4570000000000002E-2</v>
       </c>
@@ -13268,12 +13283,12 @@
       <c r="P238" s="81"/>
     </row>
     <row r="239" spans="2:16" ht="22.5">
-      <c r="B239" s="186" t="s">
+      <c r="B239" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C239" s="186"/>
-      <c r="D239" s="186"/>
-      <c r="E239" s="186"/>
+      <c r="C239" s="168"/>
+      <c r="D239" s="168"/>
+      <c r="E239" s="168"/>
       <c r="F239" s="64" t="s">
         <v>13</v>
       </c>
@@ -13339,12 +13354,12 @@
       <c r="P240" s="60"/>
     </row>
     <row r="241" spans="2:16" ht="22.5">
-      <c r="B241" s="186" t="s">
+      <c r="B241" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C241" s="186"/>
-      <c r="D241" s="186"/>
-      <c r="E241" s="186"/>
+      <c r="C241" s="168"/>
+      <c r="D241" s="168"/>
+      <c r="E241" s="168"/>
       <c r="F241" s="64" t="s">
         <v>21</v>
       </c>
@@ -13366,29 +13381,29 @@
       <c r="P241" s="55"/>
     </row>
     <row r="242" spans="2:16" ht="21">
-      <c r="B242" s="190" t="s">
+      <c r="B242" s="161" t="s">
         <v>191</v>
       </c>
-      <c r="C242" s="190" t="s">
+      <c r="C242" s="161" t="s">
         <v>192</v>
       </c>
-      <c r="D242" s="190" t="s">
+      <c r="D242" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="E242" s="152">
+      <c r="E242" s="164">
         <v>45675</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G242" s="190" t="s">
+      <c r="G242" s="161" t="s">
         <v>193</v>
       </c>
       <c r="H242" s="81">
         <f>247*2</f>
         <v>494</v>
       </c>
-      <c r="I242" s="190">
+      <c r="I242" s="161">
         <v>1907</v>
       </c>
       <c r="J242" s="10">
@@ -13409,19 +13424,19 @@
       <c r="P242" s="81"/>
     </row>
     <row r="243" spans="2:16" ht="21">
-      <c r="B243" s="191"/>
-      <c r="C243" s="191"/>
-      <c r="D243" s="191"/>
-      <c r="E243" s="153"/>
+      <c r="B243" s="162"/>
+      <c r="C243" s="162"/>
+      <c r="D243" s="162"/>
+      <c r="E243" s="165"/>
       <c r="F243" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G243" s="191"/>
+      <c r="G243" s="162"/>
       <c r="H243" s="81">
         <f>247*5</f>
         <v>1235</v>
       </c>
-      <c r="I243" s="191"/>
+      <c r="I243" s="162"/>
       <c r="J243" s="10">
         <f>K243*L243*M243/1000000*5</f>
         <v>0.30887999999999999</v>
@@ -13440,19 +13455,19 @@
       <c r="P243" s="81"/>
     </row>
     <row r="244" spans="2:16" ht="21">
-      <c r="B244" s="191"/>
-      <c r="C244" s="191"/>
-      <c r="D244" s="191"/>
-      <c r="E244" s="153"/>
+      <c r="B244" s="162"/>
+      <c r="C244" s="162"/>
+      <c r="D244" s="162"/>
+      <c r="E244" s="165"/>
       <c r="F244" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G244" s="191"/>
+      <c r="G244" s="162"/>
       <c r="H244" s="81">
         <f>248*4</f>
         <v>992</v>
       </c>
-      <c r="I244" s="191"/>
+      <c r="I244" s="162"/>
       <c r="J244" s="10">
         <f>K244*L244*M244/1000000*4</f>
         <v>6.0720000000000003E-2</v>
@@ -13471,19 +13486,19 @@
       <c r="P244" s="81"/>
     </row>
     <row r="245" spans="2:16" ht="21">
-      <c r="B245" s="191"/>
-      <c r="C245" s="191"/>
-      <c r="D245" s="191"/>
-      <c r="E245" s="153"/>
+      <c r="B245" s="162"/>
+      <c r="C245" s="162"/>
+      <c r="D245" s="162"/>
+      <c r="E245" s="165"/>
       <c r="F245" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G245" s="191"/>
+      <c r="G245" s="162"/>
       <c r="H245" s="81">
         <f>247*25</f>
         <v>6175</v>
       </c>
-      <c r="I245" s="191"/>
+      <c r="I245" s="162"/>
       <c r="J245" s="10">
         <f>K245*L245*M245/1000000*25</f>
         <v>0.39899999999999997</v>
@@ -13502,19 +13517,19 @@
       <c r="P245" s="81"/>
     </row>
     <row r="246" spans="2:16" ht="21">
-      <c r="B246" s="191"/>
-      <c r="C246" s="191"/>
-      <c r="D246" s="191"/>
-      <c r="E246" s="153"/>
+      <c r="B246" s="162"/>
+      <c r="C246" s="162"/>
+      <c r="D246" s="162"/>
+      <c r="E246" s="165"/>
       <c r="F246" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G246" s="191"/>
+      <c r="G246" s="162"/>
       <c r="H246" s="81">
         <f>247*10</f>
         <v>2470</v>
       </c>
-      <c r="I246" s="191"/>
+      <c r="I246" s="162"/>
       <c r="J246" s="10">
         <f>K246*L246*M246/1000000*10</f>
         <v>0.60060000000000002</v>
@@ -13533,19 +13548,19 @@
       <c r="P246" s="81"/>
     </row>
     <row r="247" spans="2:16" ht="21">
-      <c r="B247" s="191"/>
-      <c r="C247" s="191"/>
-      <c r="D247" s="191"/>
-      <c r="E247" s="153"/>
+      <c r="B247" s="162"/>
+      <c r="C247" s="162"/>
+      <c r="D247" s="162"/>
+      <c r="E247" s="165"/>
       <c r="F247" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G247" s="191"/>
+      <c r="G247" s="162"/>
       <c r="H247" s="81">
         <f>248*5</f>
         <v>1240</v>
       </c>
-      <c r="I247" s="191"/>
+      <c r="I247" s="162"/>
       <c r="J247" s="10">
         <f>K247*L247*M247/1000000*5</f>
         <v>0.16355999999999998</v>
@@ -13564,19 +13579,19 @@
       <c r="P247" s="81"/>
     </row>
     <row r="248" spans="2:16" ht="21">
-      <c r="B248" s="192"/>
-      <c r="C248" s="192"/>
-      <c r="D248" s="192"/>
-      <c r="E248" s="154"/>
+      <c r="B248" s="163"/>
+      <c r="C248" s="163"/>
+      <c r="D248" s="163"/>
+      <c r="E248" s="166"/>
       <c r="F248" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G248" s="192"/>
+      <c r="G248" s="163"/>
       <c r="H248" s="81">
         <f>248*15</f>
         <v>3720</v>
       </c>
-      <c r="I248" s="192"/>
+      <c r="I248" s="163"/>
       <c r="J248" s="10">
         <f>K248*L248*M248/1000000*15</f>
         <v>0.76690499999999995</v>
@@ -13595,12 +13610,12 @@
       <c r="P248" s="81"/>
     </row>
     <row r="249" spans="2:16" ht="22.5">
-      <c r="B249" s="186" t="s">
+      <c r="B249" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C249" s="186"/>
-      <c r="D249" s="186"/>
-      <c r="E249" s="186"/>
+      <c r="C249" s="168"/>
+      <c r="D249" s="168"/>
+      <c r="E249" s="168"/>
       <c r="F249" s="64" t="s">
         <v>199</v>
       </c>
@@ -13622,29 +13637,29 @@
       <c r="P249" s="67"/>
     </row>
     <row r="250" spans="2:16" ht="21">
-      <c r="B250" s="190" t="s">
+      <c r="B250" s="161" t="s">
         <v>200</v>
       </c>
-      <c r="C250" s="190" t="s">
+      <c r="C250" s="161" t="s">
         <v>201</v>
       </c>
-      <c r="D250" s="190" t="s">
+      <c r="D250" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="E250" s="152">
+      <c r="E250" s="164">
         <v>45676</v>
       </c>
       <c r="F250" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G250" s="190" t="s">
+      <c r="G250" s="161" t="s">
         <v>71</v>
       </c>
       <c r="H250" s="81">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I250" s="190">
+      <c r="I250" s="161">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -13661,10 +13676,10 @@
       <c r="M250" s="81">
         <v>29</v>
       </c>
-      <c r="N250" s="193" t="s">
+      <c r="N250" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="O250" s="193" t="s">
+      <c r="O250" s="167" t="s">
         <v>88</v>
       </c>
       <c r="P250" s="111" t="s">
@@ -13672,19 +13687,19 @@
       </c>
     </row>
     <row r="251" spans="2:16" ht="21">
-      <c r="B251" s="192"/>
-      <c r="C251" s="192"/>
-      <c r="D251" s="192"/>
-      <c r="E251" s="154"/>
+      <c r="B251" s="163"/>
+      <c r="C251" s="163"/>
+      <c r="D251" s="163"/>
+      <c r="E251" s="166"/>
       <c r="F251" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G251" s="192"/>
+      <c r="G251" s="163"/>
       <c r="H251" s="81">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I251" s="192"/>
+      <c r="I251" s="163"/>
       <c r="J251" s="10">
         <f>K251*L251*M251/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -13698,17 +13713,17 @@
       <c r="M251" s="81">
         <v>36</v>
       </c>
-      <c r="N251" s="192"/>
-      <c r="O251" s="192"/>
+      <c r="N251" s="163"/>
+      <c r="O251" s="163"/>
       <c r="P251" s="112"/>
     </row>
     <row r="252" spans="2:16" ht="22.5">
-      <c r="B252" s="186" t="s">
+      <c r="B252" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C252" s="186"/>
-      <c r="D252" s="186"/>
-      <c r="E252" s="186"/>
+      <c r="C252" s="168"/>
+      <c r="D252" s="168"/>
+      <c r="E252" s="168"/>
       <c r="F252" s="64" t="s">
         <v>202</v>
       </c>
@@ -13730,27 +13745,27 @@
       <c r="P252" s="67"/>
     </row>
     <row r="253" spans="2:16" ht="21">
-      <c r="B253" s="190" t="s">
+      <c r="B253" s="161" t="s">
         <v>203</v>
       </c>
-      <c r="C253" s="190"/>
-      <c r="D253" s="190" t="s">
+      <c r="C253" s="161"/>
+      <c r="D253" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="E253" s="152">
+      <c r="E253" s="164">
         <v>45677</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G253" s="190" t="s">
+      <c r="G253" s="161" t="s">
         <v>71</v>
       </c>
       <c r="H253" s="81">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I253" s="190">
+      <c r="I253" s="161">
         <f>25*339</f>
         <v>8475</v>
       </c>
@@ -13767,10 +13782,10 @@
       <c r="M253" s="81">
         <v>40</v>
       </c>
-      <c r="N253" s="190" t="s">
+      <c r="N253" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="O253" s="190" t="s">
+      <c r="O253" s="161" t="s">
         <v>88</v>
       </c>
       <c r="P253" s="81" t="s">
@@ -13778,19 +13793,19 @@
       </c>
     </row>
     <row r="254" spans="2:16" ht="21">
-      <c r="B254" s="191"/>
-      <c r="C254" s="191"/>
-      <c r="D254" s="191"/>
-      <c r="E254" s="153"/>
+      <c r="B254" s="162"/>
+      <c r="C254" s="162"/>
+      <c r="D254" s="162"/>
+      <c r="E254" s="165"/>
       <c r="F254" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G254" s="191"/>
+      <c r="G254" s="162"/>
       <c r="H254" s="81">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I254" s="191"/>
+      <c r="I254" s="162"/>
       <c r="J254" s="10">
         <f>K254*L254*M254/1000000*16</f>
         <v>1.66656</v>
@@ -13804,26 +13819,26 @@
       <c r="M254" s="81">
         <v>28</v>
       </c>
-      <c r="N254" s="191"/>
-      <c r="O254" s="191"/>
+      <c r="N254" s="162"/>
+      <c r="O254" s="162"/>
       <c r="P254" s="81" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="255" spans="2:16" ht="21">
-      <c r="B255" s="192"/>
-      <c r="C255" s="192"/>
-      <c r="D255" s="192"/>
-      <c r="E255" s="154"/>
+      <c r="B255" s="163"/>
+      <c r="C255" s="163"/>
+      <c r="D255" s="163"/>
+      <c r="E255" s="166"/>
       <c r="F255" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G255" s="192"/>
+      <c r="G255" s="163"/>
       <c r="H255" s="81">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I255" s="192"/>
+      <c r="I255" s="163"/>
       <c r="J255" s="10">
         <f>K255*L255*M255/1000000*270</f>
         <v>32.129999999999995</v>
@@ -13837,19 +13852,19 @@
       <c r="M255" s="81">
         <v>70</v>
       </c>
-      <c r="N255" s="192"/>
-      <c r="O255" s="192"/>
+      <c r="N255" s="163"/>
+      <c r="O255" s="163"/>
       <c r="P255" s="81" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="256" spans="2:16" ht="22.5">
-      <c r="B256" s="186" t="s">
+      <c r="B256" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C256" s="186"/>
-      <c r="D256" s="186"/>
-      <c r="E256" s="186"/>
+      <c r="C256" s="168"/>
+      <c r="D256" s="168"/>
+      <c r="E256" s="168"/>
       <c r="F256" s="64" t="s">
         <v>207</v>
       </c>
@@ -13870,29 +13885,29 @@
       <c r="O256" s="67"/>
       <c r="P256" s="67"/>
     </row>
-    <row r="257" spans="2:16" ht="21">
-      <c r="B257" s="190" t="s">
+    <row r="257" spans="2:18" ht="21">
+      <c r="B257" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="C257" s="197" t="s">
+      <c r="C257" s="169" t="s">
         <v>209</v>
       </c>
-      <c r="D257" s="190" t="s">
+      <c r="D257" s="161" t="s">
         <v>210</v>
       </c>
-      <c r="E257" s="152">
+      <c r="E257" s="164">
         <v>45678</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G257" s="190" t="s">
+      <c r="G257" s="161" t="s">
         <v>32</v>
       </c>
       <c r="H257" s="81">
         <v>1</v>
       </c>
-      <c r="I257" s="190">
+      <c r="I257" s="161">
         <v>37</v>
       </c>
       <c r="J257" s="10">
@@ -13912,19 +13927,19 @@
       <c r="O257" s="81"/>
       <c r="P257" s="81"/>
     </row>
-    <row r="258" spans="2:16" ht="21">
-      <c r="B258" s="191"/>
-      <c r="C258" s="191"/>
-      <c r="D258" s="191"/>
-      <c r="E258" s="153"/>
+    <row r="258" spans="2:18" ht="21">
+      <c r="B258" s="162"/>
+      <c r="C258" s="162"/>
+      <c r="D258" s="162"/>
+      <c r="E258" s="165"/>
       <c r="F258" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G258" s="191"/>
+      <c r="G258" s="162"/>
       <c r="H258" s="81">
         <v>10</v>
       </c>
-      <c r="I258" s="191"/>
+      <c r="I258" s="162"/>
       <c r="J258" s="10">
         <f t="shared" si="2"/>
         <v>0.18360000000000001</v>
@@ -13941,20 +13956,21 @@
       <c r="N258" s="81"/>
       <c r="O258" s="81"/>
       <c r="P258" s="81"/>
-    </row>
-    <row r="259" spans="2:16" ht="21">
-      <c r="B259" s="191"/>
-      <c r="C259" s="191"/>
-      <c r="D259" s="191"/>
-      <c r="E259" s="153"/>
+      <c r="R258" s="206"/>
+    </row>
+    <row r="259" spans="2:18" ht="21">
+      <c r="B259" s="162"/>
+      <c r="C259" s="162"/>
+      <c r="D259" s="162"/>
+      <c r="E259" s="165"/>
       <c r="F259" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G259" s="191"/>
+      <c r="G259" s="162"/>
       <c r="H259" s="81">
         <v>10</v>
       </c>
-      <c r="I259" s="191"/>
+      <c r="I259" s="162"/>
       <c r="J259" s="10">
         <f t="shared" si="2"/>
         <v>0.18240999999999999</v>
@@ -13971,20 +13987,21 @@
       <c r="N259" s="81"/>
       <c r="O259" s="81"/>
       <c r="P259" s="81"/>
-    </row>
-    <row r="260" spans="2:16" ht="21">
-      <c r="B260" s="192"/>
-      <c r="C260" s="192"/>
-      <c r="D260" s="192"/>
-      <c r="E260" s="154"/>
+      <c r="R259" s="206"/>
+    </row>
+    <row r="260" spans="2:18" ht="21">
+      <c r="B260" s="163"/>
+      <c r="C260" s="163"/>
+      <c r="D260" s="163"/>
+      <c r="E260" s="166"/>
       <c r="F260" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G260" s="192"/>
+      <c r="G260" s="163"/>
       <c r="H260" s="81">
         <v>2</v>
       </c>
-      <c r="I260" s="192"/>
+      <c r="I260" s="163"/>
       <c r="J260" s="10">
         <f t="shared" si="2"/>
         <v>4.9919999999999999E-2</v>
@@ -14002,29 +14019,29 @@
       <c r="O260" s="81"/>
       <c r="P260" s="81"/>
     </row>
-    <row r="261" spans="2:16" ht="21">
-      <c r="B261" s="190" t="s">
+    <row r="261" spans="2:18" ht="21">
+      <c r="B261" s="161" t="s">
         <v>211</v>
       </c>
       <c r="C261" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D261" s="190" t="s">
+      <c r="D261" s="161" t="s">
         <v>210</v>
       </c>
-      <c r="E261" s="152">
+      <c r="E261" s="164">
         <v>45678</v>
       </c>
       <c r="F261" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G261" s="190" t="s">
+      <c r="G261" s="161" t="s">
         <v>32</v>
       </c>
       <c r="H261" s="81">
         <v>3</v>
       </c>
-      <c r="I261" s="190">
+      <c r="I261" s="161">
         <v>20</v>
       </c>
       <c r="J261" s="10">
@@ -14044,21 +14061,21 @@
       <c r="O261" s="81"/>
       <c r="P261" s="81"/>
     </row>
-    <row r="262" spans="2:16" ht="21">
-      <c r="B262" s="191"/>
+    <row r="262" spans="2:18" ht="21">
+      <c r="B262" s="162"/>
       <c r="C262" s="81">
         <v>2660</v>
       </c>
-      <c r="D262" s="191"/>
-      <c r="E262" s="153"/>
+      <c r="D262" s="162"/>
+      <c r="E262" s="165"/>
       <c r="F262" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G262" s="191"/>
+      <c r="G262" s="162"/>
       <c r="H262" s="81">
         <v>10</v>
       </c>
-      <c r="I262" s="191"/>
+      <c r="I262" s="162"/>
       <c r="J262" s="10">
         <f t="shared" si="2"/>
         <v>4.2335999999999999E-2</v>
@@ -14076,21 +14093,21 @@
       <c r="O262" s="81"/>
       <c r="P262" s="81"/>
     </row>
-    <row r="263" spans="2:16" ht="21">
-      <c r="B263" s="192"/>
+    <row r="263" spans="2:18" ht="21">
+      <c r="B263" s="163"/>
       <c r="C263" s="81">
         <v>2461</v>
       </c>
-      <c r="D263" s="192"/>
-      <c r="E263" s="154"/>
+      <c r="D263" s="163"/>
+      <c r="E263" s="166"/>
       <c r="F263" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G263" s="192"/>
+      <c r="G263" s="163"/>
       <c r="H263" s="81">
         <v>130</v>
       </c>
-      <c r="I263" s="192"/>
+      <c r="I263" s="163"/>
       <c r="J263" s="10">
         <f t="shared" si="2"/>
         <v>0.1176</v>
@@ -14108,13 +14125,13 @@
       <c r="O263" s="81"/>
       <c r="P263" s="81"/>
     </row>
-    <row r="264" spans="2:16" ht="22.5">
-      <c r="B264" s="186" t="s">
+    <row r="264" spans="2:18" ht="22.5">
+      <c r="B264" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C264" s="186"/>
-      <c r="D264" s="186"/>
-      <c r="E264" s="186"/>
+      <c r="C264" s="168"/>
+      <c r="D264" s="168"/>
+      <c r="E264" s="168"/>
       <c r="F264" s="64" t="s">
         <v>31</v>
       </c>
@@ -14137,6 +14154,199 @@
     </row>
   </sheetData>
   <mergeCells count="217">
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="B75:B85"/>
+    <mergeCell ref="C75:C85"/>
+    <mergeCell ref="D75:D85"/>
+    <mergeCell ref="E75:E85"/>
+    <mergeCell ref="G75:G85"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O87:O89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="G111:G114"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="K87:K89"/>
+    <mergeCell ref="N137:N140"/>
+    <mergeCell ref="O137:O140"/>
+    <mergeCell ref="P137:P140"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="B136:E136"/>
+    <mergeCell ref="B137:B140"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="D137:D140"/>
+    <mergeCell ref="E137:E140"/>
+    <mergeCell ref="I137:I140"/>
+    <mergeCell ref="P148:P152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="C148:C152"/>
+    <mergeCell ref="D148:D152"/>
+    <mergeCell ref="E148:E152"/>
+    <mergeCell ref="G148:G151"/>
+    <mergeCell ref="B157:E157"/>
+    <mergeCell ref="B158:B162"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="N158:N162"/>
+    <mergeCell ref="I148:I152"/>
+    <mergeCell ref="N148:N152"/>
+    <mergeCell ref="O148:O152"/>
+    <mergeCell ref="P166:P167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="O158:O162"/>
+    <mergeCell ref="P158:P162"/>
+    <mergeCell ref="G160:G161"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="B165:E165"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B178:E178"/>
+    <mergeCell ref="B180:E180"/>
+    <mergeCell ref="B182:E182"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="O166:O167"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:B206"/>
+    <mergeCell ref="C201:C206"/>
+    <mergeCell ref="D201:D206"/>
+    <mergeCell ref="E201:E206"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="N183:N195"/>
+    <mergeCell ref="O183:O195"/>
+    <mergeCell ref="P183:P195"/>
+    <mergeCell ref="G186:G191"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B183:B195"/>
+    <mergeCell ref="C183:C195"/>
+    <mergeCell ref="D183:D195"/>
+    <mergeCell ref="E183:E195"/>
+    <mergeCell ref="G183:G185"/>
+    <mergeCell ref="I183:I195"/>
+    <mergeCell ref="P208:P210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="I201:I206"/>
+    <mergeCell ref="N201:N206"/>
+    <mergeCell ref="O201:O206"/>
+    <mergeCell ref="P201:P206"/>
+    <mergeCell ref="B207:E207"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="C208:C210"/>
+    <mergeCell ref="D208:D210"/>
+    <mergeCell ref="E208:E210"/>
+    <mergeCell ref="G208:G210"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="I208:I210"/>
+    <mergeCell ref="N208:N210"/>
+    <mergeCell ref="O208:O210"/>
+    <mergeCell ref="G220:G221"/>
+    <mergeCell ref="I220:I221"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B223:B230"/>
+    <mergeCell ref="C223:C230"/>
+    <mergeCell ref="D223:D230"/>
+    <mergeCell ref="E223:E230"/>
+    <mergeCell ref="G223:G230"/>
+    <mergeCell ref="I223:I230"/>
+    <mergeCell ref="C242:C248"/>
+    <mergeCell ref="D242:D248"/>
+    <mergeCell ref="E242:E248"/>
+    <mergeCell ref="N223:N230"/>
+    <mergeCell ref="O223:O230"/>
+    <mergeCell ref="B231:E231"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="B234:B238"/>
+    <mergeCell ref="C234:C238"/>
+    <mergeCell ref="D234:D238"/>
+    <mergeCell ref="E234:E238"/>
+    <mergeCell ref="G234:G238"/>
+    <mergeCell ref="I234:I238"/>
+    <mergeCell ref="B264:E264"/>
+    <mergeCell ref="O253:O255"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="B257:B260"/>
+    <mergeCell ref="C257:C260"/>
+    <mergeCell ref="D257:D260"/>
+    <mergeCell ref="E257:E260"/>
+    <mergeCell ref="G257:G260"/>
+    <mergeCell ref="I257:I260"/>
+    <mergeCell ref="B253:B255"/>
+    <mergeCell ref="C253:C255"/>
+    <mergeCell ref="D253:D255"/>
+    <mergeCell ref="E253:E255"/>
+    <mergeCell ref="G253:G255"/>
+    <mergeCell ref="I253:I255"/>
+    <mergeCell ref="N253:N255"/>
     <mergeCell ref="A133:B133"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="R2:X2"/>
@@ -14161,199 +14371,6 @@
     <mergeCell ref="B239:E239"/>
     <mergeCell ref="B241:E241"/>
     <mergeCell ref="B242:B248"/>
-    <mergeCell ref="B264:E264"/>
-    <mergeCell ref="O253:O255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B257:B260"/>
-    <mergeCell ref="C257:C260"/>
-    <mergeCell ref="D257:D260"/>
-    <mergeCell ref="E257:E260"/>
-    <mergeCell ref="G257:G260"/>
-    <mergeCell ref="I257:I260"/>
-    <mergeCell ref="B253:B255"/>
-    <mergeCell ref="C253:C255"/>
-    <mergeCell ref="D253:D255"/>
-    <mergeCell ref="E253:E255"/>
-    <mergeCell ref="G253:G255"/>
-    <mergeCell ref="I253:I255"/>
-    <mergeCell ref="N253:N255"/>
-    <mergeCell ref="N223:N230"/>
-    <mergeCell ref="O223:O230"/>
-    <mergeCell ref="B231:E231"/>
-    <mergeCell ref="B233:E233"/>
-    <mergeCell ref="B234:B238"/>
-    <mergeCell ref="C234:C238"/>
-    <mergeCell ref="D234:D238"/>
-    <mergeCell ref="E234:E238"/>
-    <mergeCell ref="G234:G238"/>
-    <mergeCell ref="I234:I238"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B223:B230"/>
-    <mergeCell ref="C223:C230"/>
-    <mergeCell ref="D223:D230"/>
-    <mergeCell ref="E223:E230"/>
-    <mergeCell ref="G223:G230"/>
-    <mergeCell ref="I223:I230"/>
-    <mergeCell ref="C242:C248"/>
-    <mergeCell ref="D242:D248"/>
-    <mergeCell ref="E242:E248"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B220:B221"/>
-    <mergeCell ref="D220:D221"/>
-    <mergeCell ref="E220:E221"/>
-    <mergeCell ref="I208:I210"/>
-    <mergeCell ref="N208:N210"/>
-    <mergeCell ref="O208:O210"/>
-    <mergeCell ref="G220:G221"/>
-    <mergeCell ref="I220:I221"/>
-    <mergeCell ref="P208:P210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="I201:I206"/>
-    <mergeCell ref="N201:N206"/>
-    <mergeCell ref="O201:O206"/>
-    <mergeCell ref="P201:P206"/>
-    <mergeCell ref="B207:E207"/>
-    <mergeCell ref="B208:B210"/>
-    <mergeCell ref="C208:C210"/>
-    <mergeCell ref="D208:D210"/>
-    <mergeCell ref="E208:E210"/>
-    <mergeCell ref="G208:G210"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:B206"/>
-    <mergeCell ref="C201:C206"/>
-    <mergeCell ref="D201:D206"/>
-    <mergeCell ref="E201:E206"/>
-    <mergeCell ref="G201:G202"/>
-    <mergeCell ref="N183:N195"/>
-    <mergeCell ref="O183:O195"/>
-    <mergeCell ref="P183:P195"/>
-    <mergeCell ref="G186:G191"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B183:B195"/>
-    <mergeCell ref="C183:C195"/>
-    <mergeCell ref="D183:D195"/>
-    <mergeCell ref="E183:E195"/>
-    <mergeCell ref="G183:G185"/>
-    <mergeCell ref="I183:I195"/>
-    <mergeCell ref="B172:E172"/>
-    <mergeCell ref="B174:E174"/>
-    <mergeCell ref="B176:E176"/>
-    <mergeCell ref="B178:E178"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="O166:O167"/>
-    <mergeCell ref="P166:P167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="O158:O162"/>
-    <mergeCell ref="P158:P162"/>
-    <mergeCell ref="G160:G161"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="B165:E165"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="B157:E157"/>
-    <mergeCell ref="B158:B162"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="E158:E162"/>
-    <mergeCell ref="N158:N162"/>
-    <mergeCell ref="I148:I152"/>
-    <mergeCell ref="N148:N152"/>
-    <mergeCell ref="O148:O152"/>
-    <mergeCell ref="P148:P152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="C148:C152"/>
-    <mergeCell ref="D148:D152"/>
-    <mergeCell ref="E148:E152"/>
-    <mergeCell ref="G148:G151"/>
-    <mergeCell ref="N137:N140"/>
-    <mergeCell ref="O137:O140"/>
-    <mergeCell ref="P137:P140"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="B136:E136"/>
-    <mergeCell ref="B137:B140"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="D137:D140"/>
-    <mergeCell ref="E137:E140"/>
-    <mergeCell ref="I137:I140"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="G111:G114"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="K87:K89"/>
-    <mergeCell ref="B75:B85"/>
-    <mergeCell ref="C75:C85"/>
-    <mergeCell ref="D75:D85"/>
-    <mergeCell ref="E75:E85"/>
-    <mergeCell ref="G75:G85"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="O87:O89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="O23:O24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14428,12 +14445,12 @@
     </row>
     <row r="6" spans="1:16" ht="22.5">
       <c r="A6" s="30"/>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
       <c r="F6" s="64" t="s">
         <v>21</v>
       </c>
@@ -14498,12 +14515,12 @@
     </row>
     <row r="9" spans="1:16" ht="22.5">
       <c r="A9" s="30"/>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="168"/>
       <c r="F9" s="76" t="s">
         <v>25</v>
       </c>
@@ -14572,12 +14589,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5">
       <c r="A12" s="30"/>
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="168" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
       <c r="F12" s="76" t="s">
         <v>15</v>
       </c>

--- a/Master/2025_MASTER.xlsx
+++ b/Master/2025_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB4DF39-0F1D-4081-A27A-750FF5E6226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F869C7-4CCE-4733-9DA7-38D4C7F3348C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL 250115" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="539">
   <si>
     <t>Measurement</t>
   </si>
@@ -3665,6 +3665,99 @@
   </si>
   <si>
     <t>女士上衣blouse</t>
+  </si>
+  <si>
+    <t>B20</t>
+  </si>
+  <si>
+    <t>A0034842</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3145636032943</t>
+    </r>
+  </si>
+  <si>
+    <t>279-W99-GN165-AIR</t>
+  </si>
+  <si>
+    <t>耳机headset</t>
+  </si>
+  <si>
+    <t>B21</t>
+  </si>
+  <si>
+    <t>A0034843</t>
+  </si>
+  <si>
+    <r>
+      <t>JDK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>京东：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>003956450043</t>
+    </r>
+  </si>
+  <si>
+    <t>B46</t>
+  </si>
+  <si>
+    <t>A0034868</t>
+  </si>
+  <si>
+    <r>
+      <t>DPK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>德邦：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>212445793110</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5645,18 +5738,18 @@
     <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5666,6 +5759,57 @@
     <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5675,6 +5819,18 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5696,121 +5852,58 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6356,55 +6449,55 @@
   <dimension ref="A1:AM321"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="F305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E128" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B320" sqref="B320"/>
+      <selection pane="bottomRight" activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="148" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="13" width="7.77734375" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="13.33203125" customWidth="1"/>
-    <col min="17" max="17" width="9.21875" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" customWidth="1"/>
-    <col min="19" max="19" width="14.44140625" customWidth="1"/>
-    <col min="20" max="20" width="14.21875" customWidth="1"/>
-    <col min="21" max="22" width="12.88671875" customWidth="1"/>
-    <col min="23" max="23" width="22.21875" customWidth="1"/>
-    <col min="24" max="24" width="20.21875" customWidth="1"/>
-    <col min="25" max="25" width="10.88671875" customWidth="1"/>
-    <col min="26" max="26" width="14.6640625" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" customWidth="1"/>
-    <col min="28" max="28" width="12.21875" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="14.88671875" customWidth="1"/>
-    <col min="31" max="31" width="9.5546875" customWidth="1"/>
-    <col min="32" max="32" width="8.6640625" customWidth="1"/>
-    <col min="33" max="33" width="14.6640625" customWidth="1"/>
-    <col min="34" max="34" width="12.6640625" customWidth="1"/>
-    <col min="36" max="37" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.44140625" customWidth="1"/>
-    <col min="39" max="39" width="12.44140625" customWidth="1"/>
-    <col min="44" max="44" width="10.88671875" customWidth="1"/>
-    <col min="45" max="45" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" style="148" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
+    <col min="11" max="13" width="7.81640625" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.90625" customWidth="1"/>
+    <col min="16" max="16" width="13.36328125" customWidth="1"/>
+    <col min="17" max="17" width="9.1796875" customWidth="1"/>
+    <col min="18" max="18" width="9.08984375" customWidth="1"/>
+    <col min="19" max="19" width="14.453125" customWidth="1"/>
+    <col min="20" max="20" width="14.1796875" customWidth="1"/>
+    <col min="21" max="22" width="12.90625" customWidth="1"/>
+    <col min="23" max="23" width="22.1796875" customWidth="1"/>
+    <col min="24" max="24" width="20.1796875" customWidth="1"/>
+    <col min="25" max="25" width="10.90625" customWidth="1"/>
+    <col min="26" max="26" width="14.6328125" customWidth="1"/>
+    <col min="27" max="27" width="16.453125" customWidth="1"/>
+    <col min="28" max="28" width="12.1796875" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="14.90625" customWidth="1"/>
+    <col min="31" max="31" width="9.54296875" customWidth="1"/>
+    <col min="32" max="32" width="8.6328125" customWidth="1"/>
+    <col min="33" max="33" width="14.6328125" customWidth="1"/>
+    <col min="34" max="34" width="12.6328125" customWidth="1"/>
+    <col min="36" max="37" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.453125" customWidth="1"/>
+    <col min="39" max="39" width="12.453125" customWidth="1"/>
+    <col min="44" max="44" width="10.90625" customWidth="1"/>
+    <col min="45" max="45" width="12.6328125" customWidth="1"/>
     <col min="46" max="46" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="17" customFormat="1" ht="23.25" thickBot="1">
+    <row r="1" spans="1:39" s="17" customFormat="1" ht="21.6" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>47</v>
       </c>
@@ -6430,24 +6523,24 @@
       <c r="N1" s="15"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="59"/>
-      <c r="R1" s="194" t="s">
+      <c r="R1" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="196" t="s">
+      <c r="S1" s="216"/>
+      <c r="T1" s="216"/>
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="218"/>
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="218"/>
+      <c r="AD1" s="218"/>
+      <c r="AE1" s="218"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
@@ -6456,7 +6549,7 @@
       <c r="AL1" s="43"/>
       <c r="AM1" s="44"/>
     </row>
-    <row r="2" spans="1:39" s="17" customFormat="1" ht="23.25" thickBot="1">
+    <row r="2" spans="1:39" s="17" customFormat="1" ht="21.6" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -6482,24 +6575,24 @@
       <c r="N2" s="15"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="59"/>
-      <c r="R2" s="194" t="s">
+      <c r="R2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="196" t="s">
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197"/>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
+      <c r="Z2" s="218"/>
+      <c r="AA2" s="218"/>
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="218"/>
+      <c r="AD2" s="218"/>
+      <c r="AE2" s="218"/>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="43"/>
@@ -6508,7 +6601,7 @@
       <c r="AL2" s="43"/>
       <c r="AM2" s="44"/>
     </row>
-    <row r="3" spans="1:39" s="17" customFormat="1" ht="112.5">
+    <row r="3" spans="1:39" s="17" customFormat="1" ht="105">
       <c r="A3" s="29" t="s">
         <v>46</v>
       </c>
@@ -6539,11 +6632,11 @@
       <c r="J3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="198" t="s">
+      <c r="K3" s="219" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
       <c r="N3" s="23" t="s">
         <v>2</v>
       </c>
@@ -6606,7 +6699,7 @@
       <c r="AL3" s="43"/>
       <c r="AM3" s="44"/>
     </row>
-    <row r="4" spans="1:39" ht="22.5">
+    <row r="4" spans="1:39" ht="21">
       <c r="A4" s="48"/>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -6646,11 +6739,11 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="27"/>
     </row>
-    <row r="5" spans="1:39" ht="40.5">
-      <c r="A5" s="221" t="s">
+    <row r="5" spans="1:39" ht="39.6">
+      <c r="A5" s="220" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="221"/>
+      <c r="B5" s="220"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="144"/>
@@ -6688,7 +6781,7 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="27"/>
     </row>
-    <row r="6" spans="1:39" ht="22.5">
+    <row r="6" spans="1:39" ht="21">
       <c r="A6" s="48"/>
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
@@ -6728,7 +6821,7 @@
       <c r="AL6" s="5"/>
       <c r="AM6" s="27"/>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="21">
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="19.8">
       <c r="A7" s="149" t="s">
         <v>214</v>
       </c>
@@ -6773,7 +6866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="11" customFormat="1" ht="22.5">
+    <row r="8" spans="1:39" s="11" customFormat="1" ht="21">
       <c r="A8" s="150"/>
       <c r="B8" s="129"/>
       <c r="C8" s="129"/>
@@ -6798,7 +6891,7 @@
       <c r="N8" s="120"/>
       <c r="O8" s="120"/>
     </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" ht="21">
+    <row r="9" spans="1:39" s="2" customFormat="1" ht="19.8">
       <c r="A9" s="149" t="s">
         <v>218</v>
       </c>
@@ -6843,7 +6936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="11" customFormat="1" ht="22.5">
+    <row r="10" spans="1:39" s="11" customFormat="1" ht="21">
       <c r="A10" s="150"/>
       <c r="B10" s="129"/>
       <c r="C10" s="129"/>
@@ -6868,7 +6961,7 @@
       <c r="N10" s="120"/>
       <c r="O10" s="120"/>
     </row>
-    <row r="11" spans="1:39" s="2" customFormat="1" ht="42">
+    <row r="11" spans="1:39" s="2" customFormat="1" ht="39.6">
       <c r="A11" s="149" t="s">
         <v>221</v>
       </c>
@@ -6913,7 +7006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="11" customFormat="1" ht="22.5">
+    <row r="12" spans="1:39" s="11" customFormat="1" ht="21">
       <c r="A12" s="150"/>
       <c r="B12" s="129"/>
       <c r="C12" s="129"/>
@@ -6938,7 +7031,7 @@
       <c r="N12" s="120"/>
       <c r="O12" s="120"/>
     </row>
-    <row r="13" spans="1:39" s="2" customFormat="1" ht="42">
+    <row r="13" spans="1:39" s="2" customFormat="1" ht="39.6">
       <c r="A13" s="149" t="s">
         <v>224</v>
       </c>
@@ -6983,7 +7076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="11" customFormat="1" ht="22.5">
+    <row r="14" spans="1:39" s="11" customFormat="1" ht="21">
       <c r="A14" s="150"/>
       <c r="B14" s="129"/>
       <c r="C14" s="129"/>
@@ -7008,7 +7101,7 @@
       <c r="N14" s="120"/>
       <c r="O14" s="120"/>
     </row>
-    <row r="15" spans="1:39" s="2" customFormat="1" ht="21">
+    <row r="15" spans="1:39" s="2" customFormat="1" ht="19.8">
       <c r="A15" s="149" t="s">
         <v>227</v>
       </c>
@@ -7049,7 +7142,7 @@
       <c r="N15" s="115"/>
       <c r="O15" s="115"/>
     </row>
-    <row r="16" spans="1:39" s="11" customFormat="1" ht="22.5">
+    <row r="16" spans="1:39" s="11" customFormat="1" ht="21">
       <c r="A16" s="150"/>
       <c r="B16" s="129"/>
       <c r="C16" s="129"/>
@@ -7074,7 +7167,7 @@
       <c r="N16" s="120"/>
       <c r="O16" s="120"/>
     </row>
-    <row r="17" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A17" s="149" t="s">
         <v>231</v>
       </c>
@@ -7119,7 +7212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A18" s="150"/>
       <c r="B18" s="129"/>
       <c r="C18" s="129"/>
@@ -7144,7 +7237,7 @@
       <c r="N18" s="120"/>
       <c r="O18" s="120"/>
     </row>
-    <row r="19" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A19" s="149" t="s">
         <v>235</v>
       </c>
@@ -7189,7 +7282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A20" s="150"/>
       <c r="B20" s="129"/>
       <c r="C20" s="129"/>
@@ -7214,7 +7307,7 @@
       <c r="N20" s="120"/>
       <c r="O20" s="120"/>
     </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" ht="42">
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="39.6">
       <c r="A21" s="149" t="s">
         <v>238</v>
       </c>
@@ -7259,7 +7352,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A22" s="150"/>
       <c r="B22" s="129"/>
       <c r="C22" s="129"/>
@@ -7284,29 +7377,29 @@
       <c r="N22" s="120"/>
       <c r="O22" s="120"/>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" ht="42">
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A23" s="149" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="188" t="s">
+      <c r="B23" s="212" t="s">
         <v>244</v>
       </c>
       <c r="C23" s="115" t="s">
         <v>245</v>
       </c>
-      <c r="D23" s="188" t="s">
+      <c r="D23" s="212" t="s">
         <v>241</v>
       </c>
-      <c r="E23" s="191">
+      <c r="E23" s="186">
         <v>45661</v>
       </c>
       <c r="F23" s="115">
         <v>1</v>
       </c>
-      <c r="G23" s="188" t="s">
+      <c r="G23" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="188">
+      <c r="H23" s="212">
         <v>2</v>
       </c>
       <c r="I23" s="115">
@@ -7325,25 +7418,25 @@
         <v>13</v>
       </c>
       <c r="N23" s="115"/>
-      <c r="O23" s="188" t="s">
+      <c r="O23" s="212" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="2" customFormat="1" ht="42">
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="39.6">
       <c r="A24" s="149" t="s">
         <v>246</v>
       </c>
-      <c r="B24" s="190"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="190"/>
-      <c r="E24" s="193"/>
+      <c r="D24" s="214"/>
+      <c r="E24" s="187"/>
       <c r="F24" s="115">
         <v>2</v>
       </c>
-      <c r="G24" s="190"/>
-      <c r="H24" s="190"/>
+      <c r="G24" s="214"/>
+      <c r="H24" s="214"/>
       <c r="I24" s="115">
         <v>1.1000000000000001</v>
       </c>
@@ -7360,9 +7453,9 @@
         <v>13</v>
       </c>
       <c r="N24" s="115"/>
-      <c r="O24" s="190"/>
-    </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="22.5">
+      <c r="O24" s="214"/>
+    </row>
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A25" s="150"/>
       <c r="B25" s="129"/>
       <c r="C25" s="129"/>
@@ -7387,7 +7480,7 @@
       <c r="N25" s="120"/>
       <c r="O25" s="120"/>
     </row>
-    <row r="26" spans="1:15" s="2" customFormat="1" ht="42">
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="39.6">
       <c r="A26" s="149" t="s">
         <v>248</v>
       </c>
@@ -7432,7 +7525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A27" s="150"/>
       <c r="B27" s="129"/>
       <c r="C27" s="129"/>
@@ -7457,7 +7550,7 @@
       <c r="N27" s="120"/>
       <c r="O27" s="120"/>
     </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A28" s="149" t="s">
         <v>251</v>
       </c>
@@ -7502,7 +7595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A29" s="150"/>
       <c r="B29" s="129"/>
       <c r="C29" s="129"/>
@@ -7527,7 +7620,7 @@
       <c r="N29" s="120"/>
       <c r="O29" s="120"/>
     </row>
-    <row r="30" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A30" s="149" t="s">
         <v>254</v>
       </c>
@@ -7570,7 +7663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A31" s="150"/>
       <c r="B31" s="129"/>
       <c r="C31" s="129"/>
@@ -7595,7 +7688,7 @@
       <c r="N31" s="120"/>
       <c r="O31" s="120"/>
     </row>
-    <row r="32" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A32" s="149" t="s">
         <v>258</v>
       </c>
@@ -7641,7 +7734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A33" s="150"/>
       <c r="B33" s="129"/>
       <c r="C33" s="129"/>
@@ -7666,7 +7759,7 @@
       <c r="N33" s="120"/>
       <c r="O33" s="120"/>
     </row>
-    <row r="34" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="34" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A34" s="149" t="s">
         <v>261</v>
       </c>
@@ -7712,7 +7805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A35" s="150"/>
       <c r="B35" s="129"/>
       <c r="C35" s="129"/>
@@ -7737,7 +7830,7 @@
       <c r="N35" s="120"/>
       <c r="O35" s="120"/>
     </row>
-    <row r="36" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="36" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A36" s="149" t="s">
         <v>264</v>
       </c>
@@ -7780,7 +7873,7 @@
       <c r="N36" s="81"/>
       <c r="O36" s="81"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A37" s="150"/>
       <c r="B37" s="129"/>
       <c r="C37" s="129"/>
@@ -7805,7 +7898,7 @@
       <c r="N37" s="120"/>
       <c r="O37" s="120"/>
     </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="38" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A38" s="149" t="s">
         <v>269</v>
       </c>
@@ -7846,7 +7939,7 @@
       <c r="N38" s="115"/>
       <c r="O38" s="115"/>
     </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A39" s="150"/>
       <c r="B39" s="129"/>
       <c r="C39" s="129"/>
@@ -7871,7 +7964,7 @@
       <c r="N39" s="120"/>
       <c r="O39" s="120"/>
     </row>
-    <row r="40" spans="1:15" s="2" customFormat="1" ht="42">
+    <row r="40" spans="1:15" s="2" customFormat="1" ht="39.6">
       <c r="A40" s="149" t="s">
         <v>274</v>
       </c>
@@ -7916,7 +8009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A41" s="150"/>
       <c r="B41" s="129"/>
       <c r="C41" s="129"/>
@@ -7941,29 +8034,29 @@
       <c r="N41" s="120"/>
       <c r="O41" s="120"/>
     </row>
-    <row r="42" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="42" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A42" s="149" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="188" t="s">
+      <c r="B42" s="212" t="s">
         <v>279</v>
       </c>
       <c r="C42" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="D42" s="188" t="s">
+      <c r="D42" s="212" t="s">
         <v>241</v>
       </c>
-      <c r="E42" s="191">
+      <c r="E42" s="186">
         <v>45664</v>
       </c>
       <c r="F42" s="115">
         <v>1</v>
       </c>
-      <c r="G42" s="188" t="s">
+      <c r="G42" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="188">
+      <c r="H42" s="212">
         <v>3</v>
       </c>
       <c r="I42" s="115">
@@ -7982,25 +8075,25 @@
         <v>20</v>
       </c>
       <c r="N42" s="115"/>
-      <c r="O42" s="188" t="s">
+      <c r="O42" s="212" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="43" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A43" s="149" t="s">
         <v>281</v>
       </c>
-      <c r="B43" s="189"/>
+      <c r="B43" s="213"/>
       <c r="C43" s="115" t="s">
         <v>282</v>
       </c>
-      <c r="D43" s="189"/>
-      <c r="E43" s="192"/>
+      <c r="D43" s="213"/>
+      <c r="E43" s="189"/>
       <c r="F43" s="115">
         <v>2</v>
       </c>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
       <c r="I43" s="115">
         <v>1.4</v>
       </c>
@@ -8017,23 +8110,23 @@
         <v>20</v>
       </c>
       <c r="N43" s="115"/>
-      <c r="O43" s="189"/>
-    </row>
-    <row r="44" spans="1:15" s="2" customFormat="1" ht="21">
+      <c r="O43" s="213"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A44" s="149" t="s">
         <v>283</v>
       </c>
-      <c r="B44" s="190"/>
+      <c r="B44" s="214"/>
       <c r="C44" s="115" t="s">
         <v>284</v>
       </c>
-      <c r="D44" s="190"/>
-      <c r="E44" s="193"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="187"/>
       <c r="F44" s="115">
         <v>3</v>
       </c>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
       <c r="I44" s="115">
         <v>2</v>
       </c>
@@ -8050,9 +8143,9 @@
         <v>20</v>
       </c>
       <c r="N44" s="115"/>
-      <c r="O44" s="190"/>
-    </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="22.5">
+      <c r="O44" s="214"/>
+    </row>
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A45" s="150"/>
       <c r="B45" s="129"/>
       <c r="C45" s="129"/>
@@ -8077,7 +8170,7 @@
       <c r="N45" s="120"/>
       <c r="O45" s="120"/>
     </row>
-    <row r="46" spans="1:15" s="2" customFormat="1" ht="21">
+    <row r="46" spans="1:15" s="2" customFormat="1" ht="19.8">
       <c r="A46" s="149" t="s">
         <v>285</v>
       </c>
@@ -8122,7 +8215,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A47" s="150"/>
       <c r="B47" s="129"/>
       <c r="C47" s="129"/>
@@ -8147,7 +8240,7 @@
       <c r="N47" s="120"/>
       <c r="O47" s="120"/>
     </row>
-    <row r="48" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="48" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A48" s="151" t="s">
         <v>289</v>
       </c>
@@ -8194,7 +8287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="49" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A49" s="150"/>
       <c r="B49" s="129"/>
       <c r="C49" s="129"/>
@@ -8219,7 +8312,7 @@
       <c r="N49" s="120"/>
       <c r="O49" s="120"/>
     </row>
-    <row r="50" spans="1:15" s="101" customFormat="1" ht="42">
+    <row r="50" spans="1:15" s="101" customFormat="1" ht="39.6">
       <c r="A50" s="151" t="s">
         <v>293</v>
       </c>
@@ -8264,7 +8357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="11" customFormat="1" ht="22.5">
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A51" s="150"/>
       <c r="B51" s="129"/>
       <c r="C51" s="129"/>
@@ -8293,67 +8386,67 @@
       <c r="A52" s="151" t="s">
         <v>296</v>
       </c>
-      <c r="B52" s="201" t="s">
+      <c r="B52" s="210" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="201" t="s">
+      <c r="C52" s="210" t="s">
         <v>298</v>
       </c>
-      <c r="D52" s="201" t="s">
+      <c r="D52" s="210" t="s">
         <v>217</v>
       </c>
-      <c r="E52" s="182">
+      <c r="E52" s="203">
         <v>45666</v>
       </c>
       <c r="F52" s="90">
         <v>1</v>
       </c>
-      <c r="G52" s="201" t="s">
+      <c r="G52" s="210" t="s">
         <v>97</v>
       </c>
       <c r="H52" s="90"/>
-      <c r="I52" s="201">
+      <c r="I52" s="210">
         <v>10.199999999999999</v>
       </c>
-      <c r="J52" s="199">
+      <c r="J52" s="223">
         <v>0.10335</v>
       </c>
-      <c r="K52" s="201">
+      <c r="K52" s="210">
         <v>53</v>
       </c>
-      <c r="L52" s="201">
+      <c r="L52" s="210">
         <v>39</v>
       </c>
-      <c r="M52" s="201">
+      <c r="M52" s="210">
         <v>50</v>
       </c>
       <c r="N52" s="90"/>
-      <c r="O52" s="201" t="s">
+      <c r="O52" s="210" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="53" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A53" s="151" t="s">
         <v>300</v>
       </c>
-      <c r="B53" s="202"/>
-      <c r="C53" s="202"/>
-      <c r="D53" s="202"/>
-      <c r="E53" s="184"/>
+      <c r="B53" s="211"/>
+      <c r="C53" s="211"/>
+      <c r="D53" s="211"/>
+      <c r="E53" s="205"/>
       <c r="F53" s="90">
         <v>2</v>
       </c>
-      <c r="G53" s="202"/>
+      <c r="G53" s="211"/>
       <c r="H53" s="90"/>
-      <c r="I53" s="202"/>
-      <c r="J53" s="200"/>
-      <c r="K53" s="202"/>
-      <c r="L53" s="202"/>
-      <c r="M53" s="202"/>
+      <c r="I53" s="211"/>
+      <c r="J53" s="224"/>
+      <c r="K53" s="211"/>
+      <c r="L53" s="211"/>
+      <c r="M53" s="211"/>
       <c r="N53" s="90"/>
-      <c r="O53" s="202"/>
-    </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="22.5">
+      <c r="O53" s="211"/>
+    </row>
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="21">
       <c r="A54" s="150"/>
       <c r="B54" s="129"/>
       <c r="C54" s="129"/>
@@ -8378,17 +8471,17 @@
       <c r="N54" s="120"/>
       <c r="O54" s="120"/>
     </row>
-    <row r="55" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="55" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A55" s="151" t="s">
         <v>301</v>
       </c>
-      <c r="B55" s="170" t="s">
+      <c r="B55" s="169" t="s">
         <v>302</v>
       </c>
-      <c r="C55" s="170" t="s">
+      <c r="C55" s="169" t="s">
         <v>303</v>
       </c>
-      <c r="D55" s="170" t="s">
+      <c r="D55" s="169" t="s">
         <v>44</v>
       </c>
       <c r="E55" s="173">
@@ -8397,10 +8490,10 @@
       <c r="F55" s="94">
         <v>1</v>
       </c>
-      <c r="G55" s="176" t="s">
+      <c r="G55" s="193" t="s">
         <v>304</v>
       </c>
-      <c r="H55" s="170">
+      <c r="H55" s="169">
         <v>1676</v>
       </c>
       <c r="I55" s="94">
@@ -8420,23 +8513,23 @@
         <v>43</v>
       </c>
       <c r="N55" s="94"/>
-      <c r="O55" s="170" t="s">
+      <c r="O55" s="169" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="56" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A56" s="151" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="172"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="172"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="171"/>
       <c r="E56" s="175"/>
       <c r="F56" s="94">
         <v>2</v>
       </c>
-      <c r="G56" s="178"/>
-      <c r="H56" s="172"/>
+      <c r="G56" s="195"/>
+      <c r="H56" s="171"/>
       <c r="I56" s="94">
         <v>16.7</v>
       </c>
@@ -8454,9 +8547,9 @@
         <v>30</v>
       </c>
       <c r="N56" s="94"/>
-      <c r="O56" s="172"/>
-    </row>
-    <row r="57" spans="1:15" s="105" customFormat="1" ht="22.5">
+      <c r="O56" s="171"/>
+    </row>
+    <row r="57" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A57" s="150"/>
       <c r="B57" s="129"/>
       <c r="C57" s="129"/>
@@ -8481,7 +8574,7 @@
       <c r="N57" s="97"/>
       <c r="O57" s="96"/>
     </row>
-    <row r="58" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="58" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A58" s="151" t="s">
         <v>307</v>
       </c>
@@ -8525,7 +8618,7 @@
       </c>
       <c r="O58" s="99"/>
     </row>
-    <row r="59" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="59" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A59" s="150"/>
       <c r="B59" s="129"/>
       <c r="C59" s="129"/>
@@ -8554,13 +8647,13 @@
       <c r="A60" s="151" t="s">
         <v>312</v>
       </c>
-      <c r="B60" s="170" t="s">
+      <c r="B60" s="169" t="s">
         <v>313</v>
       </c>
-      <c r="C60" s="170" t="s">
+      <c r="C60" s="169" t="s">
         <v>314</v>
       </c>
-      <c r="D60" s="170" t="s">
+      <c r="D60" s="169" t="s">
         <v>272</v>
       </c>
       <c r="E60" s="173">
@@ -8569,10 +8662,10 @@
       <c r="F60" s="94">
         <v>1</v>
       </c>
-      <c r="G60" s="176" t="s">
+      <c r="G60" s="193" t="s">
         <v>315</v>
       </c>
-      <c r="H60" s="170">
+      <c r="H60" s="169">
         <v>145</v>
       </c>
       <c r="I60" s="94">
@@ -8592,23 +8685,23 @@
         <v>23</v>
       </c>
       <c r="N60" s="53"/>
-      <c r="O60" s="170" t="s">
+      <c r="O60" s="169" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="61" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A61" s="151" t="s">
         <v>317</v>
       </c>
-      <c r="B61" s="172"/>
-      <c r="C61" s="172"/>
-      <c r="D61" s="172"/>
+      <c r="B61" s="171"/>
+      <c r="C61" s="171"/>
+      <c r="D61" s="171"/>
       <c r="E61" s="175"/>
       <c r="F61" s="94">
         <v>2</v>
       </c>
-      <c r="G61" s="178"/>
-      <c r="H61" s="172"/>
+      <c r="G61" s="195"/>
+      <c r="H61" s="171"/>
       <c r="I61" s="94">
         <v>13.7</v>
       </c>
@@ -8626,9 +8719,9 @@
         <v>49</v>
       </c>
       <c r="N61" s="94"/>
-      <c r="O61" s="172"/>
-    </row>
-    <row r="62" spans="1:15" s="105" customFormat="1" ht="22.5">
+      <c r="O61" s="171"/>
+    </row>
+    <row r="62" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A62" s="150"/>
       <c r="B62" s="129"/>
       <c r="C62" s="129"/>
@@ -8653,7 +8746,7 @@
       <c r="N62" s="97"/>
       <c r="O62" s="96"/>
     </row>
-    <row r="63" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="63" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A63" s="151" t="s">
         <v>318</v>
       </c>
@@ -8695,7 +8788,7 @@
       <c r="N63" s="99"/>
       <c r="O63" s="90"/>
     </row>
-    <row r="64" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="64" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A64" s="150"/>
       <c r="B64" s="129"/>
       <c r="C64" s="129"/>
@@ -8720,7 +8813,7 @@
       <c r="N64" s="124"/>
       <c r="O64" s="104"/>
     </row>
-    <row r="65" spans="1:15" s="101" customFormat="1" ht="37.5">
+    <row r="65" spans="1:15" s="101" customFormat="1" ht="34.799999999999997">
       <c r="A65" s="151" t="s">
         <v>323</v>
       </c>
@@ -8762,7 +8855,7 @@
       <c r="N65" s="99"/>
       <c r="O65" s="90"/>
     </row>
-    <row r="66" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="66" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A66" s="150"/>
       <c r="B66" s="129"/>
       <c r="C66" s="129"/>
@@ -8787,7 +8880,7 @@
       <c r="N66" s="124"/>
       <c r="O66" s="104"/>
     </row>
-    <row r="67" spans="1:15" s="101" customFormat="1" ht="42">
+    <row r="67" spans="1:15" s="101" customFormat="1" ht="39.6">
       <c r="A67" s="151" t="s">
         <v>327</v>
       </c>
@@ -8829,7 +8922,7 @@
       <c r="N67" s="99"/>
       <c r="O67" s="99"/>
     </row>
-    <row r="68" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="68" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A68" s="150"/>
       <c r="B68" s="129"/>
       <c r="C68" s="129"/>
@@ -8854,7 +8947,7 @@
       <c r="N68" s="124"/>
       <c r="O68" s="104"/>
     </row>
-    <row r="69" spans="1:15" s="101" customFormat="1" ht="60.75">
+    <row r="69" spans="1:15" s="101" customFormat="1" ht="57">
       <c r="A69" s="151" t="s">
         <v>332</v>
       </c>
@@ -8901,7 +8994,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="70" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A70" s="150"/>
       <c r="B70" s="129"/>
       <c r="C70" s="129"/>
@@ -8924,7 +9017,7 @@
       <c r="N70" s="97"/>
       <c r="O70" s="97"/>
     </row>
-    <row r="71" spans="1:15" s="101" customFormat="1" ht="60.75">
+    <row r="71" spans="1:15" s="101" customFormat="1" ht="57">
       <c r="A71" s="151" t="s">
         <v>339</v>
       </c>
@@ -8969,7 +9062,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="72" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A72" s="150"/>
       <c r="B72" s="129"/>
       <c r="C72" s="129"/>
@@ -8992,7 +9085,7 @@
       <c r="N72" s="97"/>
       <c r="O72" s="97"/>
     </row>
-    <row r="73" spans="1:15" s="101" customFormat="1" ht="37.5">
+    <row r="73" spans="1:15" s="101" customFormat="1" ht="34.799999999999997">
       <c r="A73" s="152"/>
       <c r="B73" s="125" t="s">
         <v>129</v>
@@ -9036,7 +9129,7 @@
       </c>
       <c r="O73" s="94"/>
     </row>
-    <row r="74" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="74" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A74" s="150"/>
       <c r="B74" s="129"/>
       <c r="C74" s="129"/>
@@ -9059,24 +9152,24 @@
       <c r="N74" s="97"/>
       <c r="O74" s="97"/>
     </row>
-    <row r="75" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="75" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A75" s="151" t="s">
         <v>344</v>
       </c>
-      <c r="B75" s="179" t="s">
+      <c r="B75" s="200" t="s">
         <v>345</v>
       </c>
-      <c r="C75" s="179"/>
-      <c r="D75" s="179" t="s">
+      <c r="C75" s="200"/>
+      <c r="D75" s="200" t="s">
         <v>346</v>
       </c>
-      <c r="E75" s="182">
+      <c r="E75" s="203">
         <v>45673</v>
       </c>
       <c r="F75" s="99">
         <v>1</v>
       </c>
-      <c r="G75" s="179" t="s">
+      <c r="G75" s="200" t="s">
         <v>347</v>
       </c>
       <c r="H75" s="99">
@@ -9101,18 +9194,18 @@
       <c r="N75" s="99"/>
       <c r="O75" s="99"/>
     </row>
-    <row r="76" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="76" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A76" s="151" t="s">
         <v>348</v>
       </c>
-      <c r="B76" s="180"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
-      <c r="E76" s="183"/>
+      <c r="B76" s="201"/>
+      <c r="C76" s="201"/>
+      <c r="D76" s="201"/>
+      <c r="E76" s="204"/>
       <c r="F76" s="99">
         <v>2</v>
       </c>
-      <c r="G76" s="180"/>
+      <c r="G76" s="201"/>
       <c r="H76" s="99">
         <v>240</v>
       </c>
@@ -9135,18 +9228,18 @@
       <c r="N76" s="99"/>
       <c r="O76" s="99"/>
     </row>
-    <row r="77" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="77" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A77" s="151" t="s">
         <v>349</v>
       </c>
-      <c r="B77" s="180"/>
-      <c r="C77" s="180"/>
-      <c r="D77" s="180"/>
-      <c r="E77" s="183"/>
+      <c r="B77" s="201"/>
+      <c r="C77" s="201"/>
+      <c r="D77" s="201"/>
+      <c r="E77" s="204"/>
       <c r="F77" s="99">
         <v>3</v>
       </c>
-      <c r="G77" s="180"/>
+      <c r="G77" s="201"/>
       <c r="H77" s="99">
         <v>300</v>
       </c>
@@ -9169,18 +9262,18 @@
       <c r="N77" s="99"/>
       <c r="O77" s="99"/>
     </row>
-    <row r="78" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="78" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A78" s="151" t="s">
         <v>350</v>
       </c>
-      <c r="B78" s="180"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="180"/>
-      <c r="E78" s="183"/>
+      <c r="B78" s="201"/>
+      <c r="C78" s="201"/>
+      <c r="D78" s="201"/>
+      <c r="E78" s="204"/>
       <c r="F78" s="99">
         <v>4</v>
       </c>
-      <c r="G78" s="180"/>
+      <c r="G78" s="201"/>
       <c r="H78" s="99">
         <v>230</v>
       </c>
@@ -9203,18 +9296,18 @@
       <c r="N78" s="99"/>
       <c r="O78" s="99"/>
     </row>
-    <row r="79" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="79" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A79" s="151" t="s">
         <v>351</v>
       </c>
-      <c r="B79" s="180"/>
-      <c r="C79" s="180"/>
-      <c r="D79" s="180"/>
-      <c r="E79" s="183"/>
+      <c r="B79" s="201"/>
+      <c r="C79" s="201"/>
+      <c r="D79" s="201"/>
+      <c r="E79" s="204"/>
       <c r="F79" s="99">
         <v>5</v>
       </c>
-      <c r="G79" s="180"/>
+      <c r="G79" s="201"/>
       <c r="H79" s="99">
         <v>220</v>
       </c>
@@ -9237,18 +9330,18 @@
       <c r="N79" s="99"/>
       <c r="O79" s="99"/>
     </row>
-    <row r="80" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="80" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A80" s="151" t="s">
         <v>352</v>
       </c>
-      <c r="B80" s="180"/>
-      <c r="C80" s="180"/>
-      <c r="D80" s="180"/>
-      <c r="E80" s="183"/>
+      <c r="B80" s="201"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="201"/>
+      <c r="E80" s="204"/>
       <c r="F80" s="99">
         <v>6</v>
       </c>
-      <c r="G80" s="180"/>
+      <c r="G80" s="201"/>
       <c r="H80" s="99">
         <v>200</v>
       </c>
@@ -9271,18 +9364,18 @@
       <c r="N80" s="99"/>
       <c r="O80" s="99"/>
     </row>
-    <row r="81" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="81" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A81" s="151" t="s">
         <v>353</v>
       </c>
-      <c r="B81" s="180"/>
-      <c r="C81" s="180"/>
-      <c r="D81" s="180"/>
-      <c r="E81" s="183"/>
+      <c r="B81" s="201"/>
+      <c r="C81" s="201"/>
+      <c r="D81" s="201"/>
+      <c r="E81" s="204"/>
       <c r="F81" s="99">
         <v>7</v>
       </c>
-      <c r="G81" s="180"/>
+      <c r="G81" s="201"/>
       <c r="H81" s="99">
         <v>190</v>
       </c>
@@ -9305,18 +9398,18 @@
       <c r="N81" s="99"/>
       <c r="O81" s="99"/>
     </row>
-    <row r="82" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="82" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A82" s="151" t="s">
         <v>354</v>
       </c>
-      <c r="B82" s="180"/>
-      <c r="C82" s="180"/>
-      <c r="D82" s="180"/>
-      <c r="E82" s="183"/>
+      <c r="B82" s="201"/>
+      <c r="C82" s="201"/>
+      <c r="D82" s="201"/>
+      <c r="E82" s="204"/>
       <c r="F82" s="99">
         <v>8</v>
       </c>
-      <c r="G82" s="180"/>
+      <c r="G82" s="201"/>
       <c r="H82" s="99">
         <v>200</v>
       </c>
@@ -9339,18 +9432,18 @@
       <c r="N82" s="99"/>
       <c r="O82" s="99"/>
     </row>
-    <row r="83" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="83" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A83" s="151" t="s">
         <v>355</v>
       </c>
-      <c r="B83" s="180"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
-      <c r="E83" s="183"/>
+      <c r="B83" s="201"/>
+      <c r="C83" s="201"/>
+      <c r="D83" s="201"/>
+      <c r="E83" s="204"/>
       <c r="F83" s="99">
         <v>9</v>
       </c>
-      <c r="G83" s="180"/>
+      <c r="G83" s="201"/>
       <c r="H83" s="99">
         <v>200</v>
       </c>
@@ -9373,18 +9466,18 @@
       <c r="N83" s="99"/>
       <c r="O83" s="99"/>
     </row>
-    <row r="84" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="84" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A84" s="151" t="s">
         <v>356</v>
       </c>
-      <c r="B84" s="180"/>
-      <c r="C84" s="180"/>
-      <c r="D84" s="180"/>
-      <c r="E84" s="183"/>
+      <c r="B84" s="201"/>
+      <c r="C84" s="201"/>
+      <c r="D84" s="201"/>
+      <c r="E84" s="204"/>
       <c r="F84" s="99">
         <v>10</v>
       </c>
-      <c r="G84" s="180"/>
+      <c r="G84" s="201"/>
       <c r="H84" s="99">
         <v>200</v>
       </c>
@@ -9407,18 +9500,18 @@
       <c r="N84" s="99"/>
       <c r="O84" s="99"/>
     </row>
-    <row r="85" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="85" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A85" s="151" t="s">
         <v>357</v>
       </c>
-      <c r="B85" s="181"/>
-      <c r="C85" s="181"/>
-      <c r="D85" s="181"/>
-      <c r="E85" s="184"/>
+      <c r="B85" s="202"/>
+      <c r="C85" s="202"/>
+      <c r="D85" s="202"/>
+      <c r="E85" s="205"/>
       <c r="F85" s="99">
         <v>11</v>
       </c>
-      <c r="G85" s="181"/>
+      <c r="G85" s="202"/>
       <c r="H85" s="99">
         <v>200</v>
       </c>
@@ -9441,7 +9534,7 @@
       <c r="N85" s="99"/>
       <c r="O85" s="99"/>
     </row>
-    <row r="86" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="86" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A86" s="150"/>
       <c r="B86" s="129"/>
       <c r="C86" s="129"/>
@@ -9466,7 +9559,7 @@
       <c r="N86" s="104"/>
       <c r="O86" s="104"/>
     </row>
-    <row r="87" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="87" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A87" s="151" t="s">
         <v>358</v>
       </c>
@@ -9476,7 +9569,7 @@
       <c r="C87" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="D87" s="170" t="s">
+      <c r="D87" s="169" t="s">
         <v>361</v>
       </c>
       <c r="E87" s="98">
@@ -9485,86 +9578,86 @@
       <c r="F87" s="94">
         <v>1</v>
       </c>
-      <c r="G87" s="176" t="s">
+      <c r="G87" s="193" t="s">
         <v>362</v>
       </c>
-      <c r="H87" s="170">
+      <c r="H87" s="169">
         <v>62</v>
       </c>
-      <c r="I87" s="170">
+      <c r="I87" s="169">
         <v>11.7</v>
       </c>
-      <c r="J87" s="222">
+      <c r="J87" s="207">
         <f>K87*L87*M87/1000000</f>
         <v>4.8543999999999997E-2</v>
       </c>
-      <c r="K87" s="170">
+      <c r="K87" s="169">
         <v>32</v>
       </c>
-      <c r="L87" s="170">
+      <c r="L87" s="169">
         <v>37</v>
       </c>
-      <c r="M87" s="170">
+      <c r="M87" s="169">
         <v>41</v>
       </c>
       <c r="N87" s="53" t="s">
         <v>363</v>
       </c>
-      <c r="O87" s="176" t="s">
+      <c r="O87" s="193" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="88" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A88" s="151" t="s">
         <v>365</v>
       </c>
-      <c r="B88" s="170" t="s">
+      <c r="B88" s="169" t="s">
         <v>366</v>
       </c>
-      <c r="C88" s="170" t="s">
+      <c r="C88" s="169" t="s">
         <v>367</v>
       </c>
-      <c r="D88" s="171"/>
+      <c r="D88" s="170"/>
       <c r="E88" s="173">
         <v>45673</v>
       </c>
       <c r="F88" s="94">
         <v>1</v>
       </c>
-      <c r="G88" s="177"/>
-      <c r="H88" s="171"/>
-      <c r="I88" s="171"/>
-      <c r="J88" s="223"/>
-      <c r="K88" s="171"/>
-      <c r="L88" s="171"/>
-      <c r="M88" s="171"/>
-      <c r="N88" s="176" t="s">
+      <c r="G88" s="194"/>
+      <c r="H88" s="170"/>
+      <c r="I88" s="170"/>
+      <c r="J88" s="208"/>
+      <c r="K88" s="170"/>
+      <c r="L88" s="170"/>
+      <c r="M88" s="170"/>
+      <c r="N88" s="193" t="s">
         <v>368</v>
       </c>
-      <c r="O88" s="177"/>
-    </row>
-    <row r="89" spans="1:15" s="101" customFormat="1" ht="21">
+      <c r="O88" s="194"/>
+    </row>
+    <row r="89" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A89" s="151" t="s">
         <v>369</v>
       </c>
-      <c r="B89" s="172"/>
-      <c r="C89" s="172"/>
-      <c r="D89" s="172"/>
+      <c r="B89" s="171"/>
+      <c r="C89" s="171"/>
+      <c r="D89" s="171"/>
       <c r="E89" s="175"/>
       <c r="F89" s="94">
         <v>2</v>
       </c>
-      <c r="G89" s="178"/>
-      <c r="H89" s="172"/>
-      <c r="I89" s="172"/>
-      <c r="J89" s="224"/>
-      <c r="K89" s="172"/>
-      <c r="L89" s="172"/>
-      <c r="M89" s="172"/>
-      <c r="N89" s="178"/>
-      <c r="O89" s="178"/>
-    </row>
-    <row r="90" spans="1:15" s="105" customFormat="1" ht="22.5">
+      <c r="G89" s="195"/>
+      <c r="H89" s="171"/>
+      <c r="I89" s="171"/>
+      <c r="J89" s="209"/>
+      <c r="K89" s="171"/>
+      <c r="L89" s="171"/>
+      <c r="M89" s="171"/>
+      <c r="N89" s="195"/>
+      <c r="O89" s="195"/>
+    </row>
+    <row r="90" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A90" s="150"/>
       <c r="B90" s="129"/>
       <c r="C90" s="129"/>
@@ -9589,7 +9682,7 @@
       <c r="N90" s="128"/>
       <c r="O90" s="128"/>
     </row>
-    <row r="91" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="91" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A91" s="151" t="s">
         <v>370</v>
       </c>
@@ -9634,7 +9727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="92" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A92" s="150"/>
       <c r="B92" s="129"/>
       <c r="C92" s="129"/>
@@ -9659,7 +9752,7 @@
       <c r="N92" s="92"/>
       <c r="O92" s="92"/>
     </row>
-    <row r="93" spans="1:15" s="101" customFormat="1" ht="42">
+    <row r="93" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A93" s="151" t="s">
         <v>59</v>
       </c>
@@ -9702,7 +9795,7 @@
       <c r="N93" s="99"/>
       <c r="O93" s="99"/>
     </row>
-    <row r="94" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="94" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A94" s="150"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42"/>
@@ -9727,7 +9820,7 @@
       <c r="N94" s="92"/>
       <c r="O94" s="92"/>
     </row>
-    <row r="95" spans="1:15" s="101" customFormat="1" ht="42">
+    <row r="95" spans="1:15" s="101" customFormat="1" ht="39.6">
       <c r="A95" s="151" t="s">
         <v>142</v>
       </c>
@@ -9770,7 +9863,7 @@
       <c r="N95" s="99"/>
       <c r="O95" s="99"/>
     </row>
-    <row r="96" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="96" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A96" s="150"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
@@ -9795,7 +9888,7 @@
       <c r="N96" s="92"/>
       <c r="O96" s="92"/>
     </row>
-    <row r="97" spans="1:15" s="101" customFormat="1" ht="42">
+    <row r="97" spans="1:15" s="101" customFormat="1" ht="39.6">
       <c r="A97" s="151" t="s">
         <v>145</v>
       </c>
@@ -9838,7 +9931,7 @@
       <c r="N97" s="99"/>
       <c r="O97" s="99"/>
     </row>
-    <row r="98" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="98" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A98" s="150"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42"/>
@@ -9863,7 +9956,7 @@
       <c r="N98" s="92"/>
       <c r="O98" s="92"/>
     </row>
-    <row r="99" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="99" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A99" s="151" t="s">
         <v>149</v>
       </c>
@@ -9904,7 +9997,7 @@
       <c r="N99" s="99"/>
       <c r="O99" s="99"/>
     </row>
-    <row r="100" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="100" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A100" s="150"/>
       <c r="B100" s="42"/>
       <c r="C100" s="42"/>
@@ -9929,7 +10022,7 @@
       <c r="N100" s="92"/>
       <c r="O100" s="92"/>
     </row>
-    <row r="101" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="101" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A101" s="151" t="s">
         <v>153</v>
       </c>
@@ -9972,7 +10065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="102" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A102" s="153"/>
       <c r="B102" s="129"/>
       <c r="C102" s="129"/>
@@ -9997,7 +10090,7 @@
       <c r="N102" s="92"/>
       <c r="O102" s="92"/>
     </row>
-    <row r="103" spans="1:15" s="101" customFormat="1" ht="63">
+    <row r="103" spans="1:15" s="101" customFormat="1" ht="59.4">
       <c r="A103" s="151" t="s">
         <v>157</v>
       </c>
@@ -10038,7 +10131,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="104" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="104" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A104" s="150"/>
       <c r="B104" s="42"/>
       <c r="C104" s="42"/>
@@ -10105,7 +10198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="106" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A106" s="150"/>
       <c r="B106" s="42"/>
       <c r="C106" s="42"/>
@@ -10130,7 +10223,7 @@
       <c r="N106" s="104"/>
       <c r="O106" s="104"/>
     </row>
-    <row r="107" spans="1:15" s="101" customFormat="1" ht="42">
+    <row r="107" spans="1:15" s="101" customFormat="1" ht="39.6">
       <c r="A107" s="151" t="s">
         <v>164</v>
       </c>
@@ -10171,7 +10264,7 @@
       <c r="N107" s="99"/>
       <c r="O107" s="99"/>
     </row>
-    <row r="108" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="108" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A108" s="150"/>
       <c r="B108" s="42"/>
       <c r="C108" s="42"/>
@@ -10196,7 +10289,7 @@
       <c r="N108" s="104"/>
       <c r="O108" s="104"/>
     </row>
-    <row r="109" spans="1:15" s="101" customFormat="1" ht="58.5">
+    <row r="109" spans="1:15" s="101" customFormat="1" ht="54.6">
       <c r="A109" s="151" t="s">
         <v>168</v>
       </c>
@@ -10241,7 +10334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="110" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A110" s="150"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42"/>
@@ -10264,26 +10357,26 @@
       <c r="N110" s="104"/>
       <c r="O110" s="104"/>
     </row>
-    <row r="111" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="111" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A111" s="99" t="s">
         <v>172</v>
       </c>
-      <c r="B111" s="179" t="s">
+      <c r="B111" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="179" t="s">
+      <c r="C111" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="D111" s="179" t="s">
+      <c r="D111" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="182">
+      <c r="E111" s="203">
         <v>45680</v>
       </c>
       <c r="F111" s="99">
         <v>1</v>
       </c>
-      <c r="G111" s="185" t="s">
+      <c r="G111" s="206" t="s">
         <v>175</v>
       </c>
       <c r="H111" s="99"/>
@@ -10306,18 +10399,18 @@
       <c r="N111" s="99"/>
       <c r="O111" s="99"/>
     </row>
-    <row r="112" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="112" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A112" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="B112" s="180"/>
-      <c r="C112" s="180"/>
-      <c r="D112" s="180"/>
-      <c r="E112" s="183"/>
+      <c r="B112" s="201"/>
+      <c r="C112" s="201"/>
+      <c r="D112" s="201"/>
+      <c r="E112" s="204"/>
       <c r="F112" s="99">
         <v>2</v>
       </c>
-      <c r="G112" s="180"/>
+      <c r="G112" s="201"/>
       <c r="H112" s="99"/>
       <c r="I112" s="99">
         <v>9.1</v>
@@ -10338,18 +10431,18 @@
       <c r="N112" s="99"/>
       <c r="O112" s="99"/>
     </row>
-    <row r="113" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="113" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A113" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="B113" s="180"/>
-      <c r="C113" s="180"/>
-      <c r="D113" s="180"/>
-      <c r="E113" s="183"/>
+      <c r="B113" s="201"/>
+      <c r="C113" s="201"/>
+      <c r="D113" s="201"/>
+      <c r="E113" s="204"/>
       <c r="F113" s="99">
         <v>3</v>
       </c>
-      <c r="G113" s="180"/>
+      <c r="G113" s="201"/>
       <c r="H113" s="99"/>
       <c r="I113" s="99">
         <v>24.1</v>
@@ -10370,18 +10463,18 @@
       <c r="N113" s="99"/>
       <c r="O113" s="99"/>
     </row>
-    <row r="114" spans="1:15" s="101" customFormat="1" ht="21">
+    <row r="114" spans="1:15" s="101" customFormat="1" ht="19.8">
       <c r="A114" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="B114" s="181"/>
-      <c r="C114" s="181"/>
-      <c r="D114" s="181"/>
-      <c r="E114" s="184"/>
+      <c r="B114" s="202"/>
+      <c r="C114" s="202"/>
+      <c r="D114" s="202"/>
+      <c r="E114" s="205"/>
       <c r="F114" s="99">
         <v>4</v>
       </c>
-      <c r="G114" s="181"/>
+      <c r="G114" s="202"/>
       <c r="H114" s="99"/>
       <c r="I114" s="99">
         <v>6.4</v>
@@ -10402,7 +10495,7 @@
       <c r="N114" s="99"/>
       <c r="O114" s="99"/>
     </row>
-    <row r="115" spans="1:15" s="105" customFormat="1" ht="22.5">
+    <row r="115" spans="1:15" s="105" customFormat="1" ht="21">
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="42"/>
@@ -10503,25 +10596,25 @@
       <c r="A118" s="99" t="s">
         <v>458</v>
       </c>
-      <c r="B118" s="218" t="s">
+      <c r="B118" s="179" t="s">
         <v>459</v>
       </c>
       <c r="C118" s="99" t="s">
         <v>460</v>
       </c>
-      <c r="D118" s="218" t="s">
+      <c r="D118" s="179" t="s">
         <v>455</v>
       </c>
-      <c r="E118" s="219">
+      <c r="E118" s="180">
         <v>45698</v>
       </c>
       <c r="F118" s="99">
         <v>1</v>
       </c>
-      <c r="G118" s="218" t="s">
+      <c r="G118" s="179" t="s">
         <v>456</v>
       </c>
-      <c r="H118" s="218">
+      <c r="H118" s="179">
         <v>2</v>
       </c>
       <c r="I118" s="99">
@@ -10540,7 +10633,7 @@
         <v>10</v>
       </c>
       <c r="N118" s="99"/>
-      <c r="O118" s="218" t="s">
+      <c r="O118" s="179" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10548,17 +10641,17 @@
       <c r="A119" s="99" t="s">
         <v>461</v>
       </c>
-      <c r="B119" s="218"/>
+      <c r="B119" s="179"/>
       <c r="C119" s="99" t="s">
         <v>462</v>
       </c>
-      <c r="D119" s="218"/>
-      <c r="E119" s="219"/>
+      <c r="D119" s="179"/>
+      <c r="E119" s="180"/>
       <c r="F119" s="99">
         <v>2</v>
       </c>
-      <c r="G119" s="218"/>
-      <c r="H119" s="218"/>
+      <c r="G119" s="179"/>
+      <c r="H119" s="179"/>
       <c r="I119" s="99">
         <v>1.4</v>
       </c>
@@ -10575,7 +10668,7 @@
         <v>14</v>
       </c>
       <c r="N119" s="99"/>
-      <c r="O119" s="218"/>
+      <c r="O119" s="179"/>
     </row>
     <row r="120" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A120" s="42"/>
@@ -10952,25 +11045,25 @@
       <c r="A131" s="99" t="s">
         <v>502</v>
       </c>
-      <c r="B131" s="179" t="s">
+      <c r="B131" s="200" t="s">
         <v>503</v>
       </c>
-      <c r="C131" s="179" t="s">
+      <c r="C131" s="200" t="s">
         <v>504</v>
       </c>
-      <c r="D131" s="179" t="s">
+      <c r="D131" s="200" t="s">
         <v>361</v>
       </c>
-      <c r="E131" s="182">
+      <c r="E131" s="203">
         <v>45706</v>
       </c>
       <c r="F131" s="99">
         <v>1</v>
       </c>
-      <c r="G131" s="179" t="s">
+      <c r="G131" s="200" t="s">
         <v>505</v>
       </c>
-      <c r="H131" s="179">
+      <c r="H131" s="200">
         <v>16</v>
       </c>
       <c r="I131" s="99">
@@ -10988,7 +11081,7 @@
       <c r="M131" s="99">
         <v>31</v>
       </c>
-      <c r="N131" s="185" t="s">
+      <c r="N131" s="206" t="s">
         <v>506</v>
       </c>
       <c r="O131" s="99"/>
@@ -10997,15 +11090,15 @@
       <c r="A132" s="99" t="s">
         <v>507</v>
       </c>
-      <c r="B132" s="180"/>
-      <c r="C132" s="180"/>
-      <c r="D132" s="180"/>
-      <c r="E132" s="183"/>
+      <c r="B132" s="201"/>
+      <c r="C132" s="201"/>
+      <c r="D132" s="201"/>
+      <c r="E132" s="204"/>
       <c r="F132" s="99">
         <v>2</v>
       </c>
-      <c r="G132" s="180"/>
-      <c r="H132" s="180"/>
+      <c r="G132" s="201"/>
+      <c r="H132" s="201"/>
       <c r="I132" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -11021,22 +11114,22 @@
       <c r="M132" s="99">
         <v>31</v>
       </c>
-      <c r="N132" s="186"/>
+      <c r="N132" s="221"/>
       <c r="O132" s="99"/>
     </row>
     <row r="133" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A133" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="B133" s="180"/>
-      <c r="C133" s="180"/>
-      <c r="D133" s="180"/>
-      <c r="E133" s="183"/>
+      <c r="B133" s="201"/>
+      <c r="C133" s="201"/>
+      <c r="D133" s="201"/>
+      <c r="E133" s="204"/>
       <c r="F133" s="99">
         <v>3</v>
       </c>
-      <c r="G133" s="180"/>
-      <c r="H133" s="180"/>
+      <c r="G133" s="201"/>
+      <c r="H133" s="201"/>
       <c r="I133" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -11052,22 +11145,22 @@
       <c r="M133" s="99">
         <v>31</v>
       </c>
-      <c r="N133" s="186"/>
+      <c r="N133" s="221"/>
       <c r="O133" s="99"/>
     </row>
     <row r="134" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A134" s="99" t="s">
         <v>508</v>
       </c>
-      <c r="B134" s="181"/>
-      <c r="C134" s="181"/>
-      <c r="D134" s="181"/>
-      <c r="E134" s="184"/>
+      <c r="B134" s="202"/>
+      <c r="C134" s="202"/>
+      <c r="D134" s="202"/>
+      <c r="E134" s="205"/>
       <c r="F134" s="99">
         <v>4</v>
       </c>
-      <c r="G134" s="181"/>
-      <c r="H134" s="181"/>
+      <c r="G134" s="202"/>
+      <c r="H134" s="202"/>
       <c r="I134" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -11083,7 +11176,7 @@
       <c r="M134" s="99">
         <v>31</v>
       </c>
-      <c r="N134" s="187"/>
+      <c r="N134" s="222"/>
       <c r="O134" s="99"/>
     </row>
     <row r="135" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
@@ -11113,13 +11206,13 @@
       <c r="A136" s="94" t="s">
         <v>509</v>
       </c>
-      <c r="B136" s="170" t="s">
+      <c r="B136" s="169" t="s">
         <v>510</v>
       </c>
-      <c r="C136" s="170" t="s">
+      <c r="C136" s="169" t="s">
         <v>511</v>
       </c>
-      <c r="D136" s="170" t="s">
+      <c r="D136" s="169" t="s">
         <v>512</v>
       </c>
       <c r="E136" s="173">
@@ -11128,10 +11221,10 @@
       <c r="F136" s="94">
         <v>1</v>
       </c>
-      <c r="G136" s="176" t="s">
+      <c r="G136" s="193" t="s">
         <v>513</v>
       </c>
-      <c r="H136" s="170">
+      <c r="H136" s="169">
         <v>553</v>
       </c>
       <c r="I136" s="94">
@@ -11150,7 +11243,7 @@
         <v>49</v>
       </c>
       <c r="N136" s="94"/>
-      <c r="O136" s="170" t="s">
+      <c r="O136" s="169" t="s">
         <v>160</v>
       </c>
     </row>
@@ -11158,15 +11251,15 @@
       <c r="A137" s="94" t="s">
         <v>514</v>
       </c>
-      <c r="B137" s="171"/>
-      <c r="C137" s="171"/>
-      <c r="D137" s="171"/>
+      <c r="B137" s="170"/>
+      <c r="C137" s="170"/>
+      <c r="D137" s="170"/>
       <c r="E137" s="174"/>
       <c r="F137" s="94">
         <v>2</v>
       </c>
-      <c r="G137" s="177"/>
-      <c r="H137" s="171"/>
+      <c r="G137" s="194"/>
+      <c r="H137" s="170"/>
       <c r="I137" s="94">
         <v>11.9</v>
       </c>
@@ -11183,21 +11276,21 @@
         <v>49</v>
       </c>
       <c r="N137" s="94"/>
-      <c r="O137" s="171"/>
+      <c r="O137" s="170"/>
     </row>
     <row r="138" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A138" s="94" t="s">
         <v>515</v>
       </c>
-      <c r="B138" s="171"/>
-      <c r="C138" s="171"/>
-      <c r="D138" s="171"/>
+      <c r="B138" s="170"/>
+      <c r="C138" s="170"/>
+      <c r="D138" s="170"/>
       <c r="E138" s="174"/>
       <c r="F138" s="94">
         <v>3</v>
       </c>
-      <c r="G138" s="177"/>
-      <c r="H138" s="171"/>
+      <c r="G138" s="194"/>
+      <c r="H138" s="170"/>
       <c r="I138" s="94">
         <v>13.8</v>
       </c>
@@ -11214,21 +11307,21 @@
         <v>49</v>
       </c>
       <c r="N138" s="94"/>
-      <c r="O138" s="171"/>
+      <c r="O138" s="170"/>
     </row>
     <row r="139" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="94" t="s">
         <v>516</v>
       </c>
-      <c r="B139" s="171"/>
-      <c r="C139" s="171"/>
-      <c r="D139" s="171"/>
+      <c r="B139" s="170"/>
+      <c r="C139" s="170"/>
+      <c r="D139" s="170"/>
       <c r="E139" s="174"/>
       <c r="F139" s="94">
         <v>4</v>
       </c>
-      <c r="G139" s="177"/>
-      <c r="H139" s="171"/>
+      <c r="G139" s="194"/>
+      <c r="H139" s="170"/>
       <c r="I139" s="94">
         <v>17.600000000000001</v>
       </c>
@@ -11245,21 +11338,21 @@
         <v>49</v>
       </c>
       <c r="N139" s="94"/>
-      <c r="O139" s="171"/>
+      <c r="O139" s="170"/>
     </row>
     <row r="140" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="94" t="s">
         <v>517</v>
       </c>
-      <c r="B140" s="171"/>
-      <c r="C140" s="171"/>
-      <c r="D140" s="171"/>
+      <c r="B140" s="170"/>
+      <c r="C140" s="170"/>
+      <c r="D140" s="170"/>
       <c r="E140" s="174"/>
       <c r="F140" s="94">
         <v>5</v>
       </c>
-      <c r="G140" s="177"/>
-      <c r="H140" s="171"/>
+      <c r="G140" s="194"/>
+      <c r="H140" s="170"/>
       <c r="I140" s="94">
         <v>7.8</v>
       </c>
@@ -11276,21 +11369,21 @@
         <v>43</v>
       </c>
       <c r="N140" s="94"/>
-      <c r="O140" s="171"/>
+      <c r="O140" s="170"/>
     </row>
     <row r="141" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="94" t="s">
         <v>518</v>
       </c>
-      <c r="B141" s="171"/>
-      <c r="C141" s="171"/>
-      <c r="D141" s="171"/>
+      <c r="B141" s="170"/>
+      <c r="C141" s="170"/>
+      <c r="D141" s="170"/>
       <c r="E141" s="174"/>
       <c r="F141" s="94">
         <v>6</v>
       </c>
-      <c r="G141" s="177"/>
-      <c r="H141" s="171"/>
+      <c r="G141" s="194"/>
+      <c r="H141" s="170"/>
       <c r="I141" s="94">
         <v>15.5</v>
       </c>
@@ -11307,21 +11400,21 @@
         <v>49</v>
       </c>
       <c r="N141" s="94"/>
-      <c r="O141" s="171"/>
+      <c r="O141" s="170"/>
     </row>
     <row r="142" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="94" t="s">
         <v>519</v>
       </c>
-      <c r="B142" s="172"/>
-      <c r="C142" s="172"/>
-      <c r="D142" s="172"/>
+      <c r="B142" s="171"/>
+      <c r="C142" s="171"/>
+      <c r="D142" s="171"/>
       <c r="E142" s="175"/>
       <c r="F142" s="94">
         <v>7</v>
       </c>
-      <c r="G142" s="178"/>
-      <c r="H142" s="172"/>
+      <c r="G142" s="195"/>
+      <c r="H142" s="171"/>
       <c r="I142" s="94">
         <v>14.6</v>
       </c>
@@ -11338,7 +11431,7 @@
         <v>49</v>
       </c>
       <c r="N142" s="94"/>
-      <c r="O142" s="172"/>
+      <c r="O142" s="171"/>
     </row>
     <row r="143" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="42"/>
@@ -11364,60 +11457,246 @@
       <c r="O143" s="96"/>
     </row>
     <row r="144" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E144" s="147"/>
-    </row>
-    <row r="145" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E145" s="147"/>
-    </row>
-    <row r="146" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E146" s="147"/>
-    </row>
-    <row r="147" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E147" s="147"/>
-    </row>
-    <row r="148" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E148" s="147"/>
-    </row>
-    <row r="149" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E149" s="147"/>
-    </row>
-    <row r="150" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A144" s="99" t="s">
+        <v>528</v>
+      </c>
+      <c r="B144" s="99" t="s">
+        <v>529</v>
+      </c>
+      <c r="C144" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="D144" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="E144" s="91">
+        <v>45707</v>
+      </c>
+      <c r="F144" s="99">
+        <v>1</v>
+      </c>
+      <c r="G144" s="107" t="s">
+        <v>532</v>
+      </c>
+      <c r="H144" s="99"/>
+      <c r="I144" s="99">
+        <v>0.9</v>
+      </c>
+      <c r="J144" s="100">
+        <v>1.14E-2</v>
+      </c>
+      <c r="K144" s="99">
+        <v>30</v>
+      </c>
+      <c r="L144" s="99">
+        <v>20</v>
+      </c>
+      <c r="M144" s="99">
+        <v>19</v>
+      </c>
+      <c r="N144" s="99"/>
+      <c r="O144" s="99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A145" s="42"/>
+      <c r="B145" s="42"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="102">
+        <v>1</v>
+      </c>
+      <c r="G145" s="113"/>
+      <c r="H145" s="102"/>
+      <c r="I145" s="102">
+        <f>SUM(I144:I144)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J145" s="103">
+        <f>SUM(J144:J144)</f>
+        <v>1.14E-2</v>
+      </c>
+      <c r="K145" s="102"/>
+      <c r="L145" s="102"/>
+      <c r="M145" s="102"/>
+      <c r="N145" s="104"/>
+      <c r="O145" s="104"/>
+    </row>
+    <row r="146" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A146" s="99" t="s">
+        <v>533</v>
+      </c>
+      <c r="B146" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="C146" s="99" t="s">
+        <v>535</v>
+      </c>
+      <c r="D146" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="E146" s="91">
+        <v>45707</v>
+      </c>
+      <c r="F146" s="99">
+        <v>1</v>
+      </c>
+      <c r="G146" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="H146" s="99">
+        <v>1</v>
+      </c>
+      <c r="I146" s="99">
+        <v>2.1</v>
+      </c>
+      <c r="J146" s="100">
+        <v>1.8096000000000001E-2</v>
+      </c>
+      <c r="K146" s="99">
+        <v>39</v>
+      </c>
+      <c r="L146" s="99">
+        <v>29</v>
+      </c>
+      <c r="M146" s="99">
+        <v>16</v>
+      </c>
+      <c r="N146" s="99"/>
+      <c r="O146" s="99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A147" s="42"/>
+      <c r="B147" s="42"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="102">
+        <v>1</v>
+      </c>
+      <c r="G147" s="113"/>
+      <c r="H147" s="102"/>
+      <c r="I147" s="102">
+        <f>SUM(I146:I146)</f>
+        <v>2.1</v>
+      </c>
+      <c r="J147" s="103">
+        <f>SUM(J146:J146)</f>
+        <v>1.8096000000000001E-2</v>
+      </c>
+      <c r="K147" s="102"/>
+      <c r="L147" s="102"/>
+      <c r="M147" s="102"/>
+      <c r="N147" s="104"/>
+      <c r="O147" s="104"/>
+    </row>
+    <row r="148" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A148" s="99" t="s">
+        <v>536</v>
+      </c>
+      <c r="B148" s="99" t="s">
+        <v>537</v>
+      </c>
+      <c r="C148" s="99" t="s">
+        <v>538</v>
+      </c>
+      <c r="D148" s="99" t="s">
+        <v>512</v>
+      </c>
+      <c r="E148" s="91">
+        <v>45707</v>
+      </c>
+      <c r="F148" s="99">
+        <v>1</v>
+      </c>
+      <c r="G148" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="H148" s="99"/>
+      <c r="I148" s="99">
+        <v>20.9</v>
+      </c>
+      <c r="J148" s="100">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="K148" s="99">
+        <v>43</v>
+      </c>
+      <c r="L148" s="99">
+        <v>28</v>
+      </c>
+      <c r="M148" s="99">
+        <v>25</v>
+      </c>
+      <c r="N148" s="99"/>
+      <c r="O148" s="99"/>
+    </row>
+    <row r="149" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A149" s="42"/>
+      <c r="B149" s="42"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="102">
+        <v>1</v>
+      </c>
+      <c r="G149" s="113"/>
+      <c r="H149" s="102"/>
+      <c r="I149" s="102">
+        <f>SUM(I148:I148)</f>
+        <v>20.9</v>
+      </c>
+      <c r="J149" s="103">
+        <f>SUM(J148:J148)</f>
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="K149" s="102"/>
+      <c r="L149" s="102"/>
+      <c r="M149" s="102"/>
+      <c r="N149" s="104"/>
+      <c r="O149" s="104"/>
+    </row>
+    <row r="150" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E150" s="147"/>
     </row>
-    <row r="151" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="151" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E151" s="147"/>
     </row>
-    <row r="152" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="152" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E152" s="147"/>
     </row>
-    <row r="153" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="153" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E153" s="147"/>
     </row>
-    <row r="154" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="154" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E154" s="147"/>
     </row>
-    <row r="155" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="155" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E155" s="147"/>
     </row>
-    <row r="156" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="156" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E156" s="147"/>
     </row>
-    <row r="157" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="157" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E157" s="147"/>
     </row>
-    <row r="158" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="158" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E158" s="147"/>
     </row>
-    <row r="159" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="159" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E159" s="147"/>
     </row>
-    <row r="176" spans="1:2" ht="40.5">
-      <c r="A176" s="220" t="s">
+    <row r="176" spans="1:2" ht="39.6">
+      <c r="A176" s="181" t="s">
         <v>450</v>
       </c>
-      <c r="B176" s="220"/>
-    </row>
-    <row r="178" spans="1:16" ht="84">
+      <c r="B176" s="181"/>
+    </row>
+    <row r="178" spans="1:16" ht="79.2">
       <c r="A178" s="154"/>
       <c r="B178" s="81" t="s">
         <v>374</v>
@@ -11463,14 +11742,14 @@
         <v>377</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="22.5">
+    <row r="179" spans="1:16" ht="21">
       <c r="A179" s="154"/>
-      <c r="B179" s="169" t="s">
+      <c r="B179" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C179" s="169"/>
-      <c r="D179" s="169"/>
-      <c r="E179" s="169"/>
+      <c r="C179" s="172"/>
+      <c r="D179" s="172"/>
+      <c r="E179" s="172"/>
       <c r="F179" s="64" t="s">
         <v>378</v>
       </c>
@@ -11489,18 +11768,18 @@
       <c r="O179" s="67"/>
       <c r="P179" s="67"/>
     </row>
-    <row r="180" spans="1:16" ht="37.5">
+    <row r="180" spans="1:16" ht="34.799999999999997">
       <c r="A180" s="154"/>
-      <c r="B180" s="206" t="s">
+      <c r="B180" s="176" t="s">
         <v>379</v>
       </c>
-      <c r="C180" s="176" t="s">
+      <c r="C180" s="193" t="s">
         <v>380</v>
       </c>
-      <c r="D180" s="206" t="s">
+      <c r="D180" s="176" t="s">
         <v>381</v>
       </c>
-      <c r="E180" s="207">
+      <c r="E180" s="190">
         <v>45659</v>
       </c>
       <c r="F180" s="62" t="s">
@@ -11512,7 +11791,7 @@
       <c r="H180" s="60">
         <v>1</v>
       </c>
-      <c r="I180" s="206">
+      <c r="I180" s="176">
         <v>255</v>
       </c>
       <c r="J180" s="63">
@@ -11527,22 +11806,22 @@
       <c r="M180" s="60">
         <v>62</v>
       </c>
-      <c r="N180" s="203">
+      <c r="N180" s="196">
         <v>45663</v>
       </c>
-      <c r="O180" s="203">
+      <c r="O180" s="196">
         <v>45705</v>
       </c>
-      <c r="P180" s="206" t="s">
+      <c r="P180" s="176" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="21">
+    <row r="181" spans="1:16" ht="19.8">
       <c r="A181" s="154"/>
-      <c r="B181" s="204"/>
-      <c r="C181" s="177"/>
-      <c r="D181" s="204"/>
-      <c r="E181" s="208"/>
+      <c r="B181" s="177"/>
+      <c r="C181" s="194"/>
+      <c r="D181" s="177"/>
+      <c r="E181" s="191"/>
       <c r="F181" s="62" t="s">
         <v>15</v>
       </c>
@@ -11552,7 +11831,7 @@
       <c r="H181" s="60">
         <v>1</v>
       </c>
-      <c r="I181" s="204"/>
+      <c r="I181" s="177"/>
       <c r="J181" s="63">
         <v>0.54978000000000005</v>
       </c>
@@ -11565,16 +11844,16 @@
       <c r="M181" s="60">
         <v>77</v>
       </c>
-      <c r="N181" s="204"/>
-      <c r="O181" s="204"/>
-      <c r="P181" s="204"/>
-    </row>
-    <row r="182" spans="1:16" ht="37.5">
+      <c r="N181" s="177"/>
+      <c r="O181" s="177"/>
+      <c r="P181" s="177"/>
+    </row>
+    <row r="182" spans="1:16" ht="34.799999999999997">
       <c r="A182" s="154"/>
-      <c r="B182" s="204"/>
-      <c r="C182" s="177"/>
-      <c r="D182" s="204"/>
-      <c r="E182" s="208"/>
+      <c r="B182" s="177"/>
+      <c r="C182" s="194"/>
+      <c r="D182" s="177"/>
+      <c r="E182" s="191"/>
       <c r="F182" s="62" t="s">
         <v>30</v>
       </c>
@@ -11584,7 +11863,7 @@
       <c r="H182" s="60">
         <v>1</v>
       </c>
-      <c r="I182" s="204"/>
+      <c r="I182" s="177"/>
       <c r="J182" s="63">
         <v>0.51480000000000004</v>
       </c>
@@ -11597,16 +11876,16 @@
       <c r="M182" s="60">
         <v>65</v>
       </c>
-      <c r="N182" s="204"/>
-      <c r="O182" s="204"/>
-      <c r="P182" s="204"/>
-    </row>
-    <row r="183" spans="1:16" ht="56.25">
+      <c r="N182" s="177"/>
+      <c r="O182" s="177"/>
+      <c r="P182" s="177"/>
+    </row>
+    <row r="183" spans="1:16" ht="52.2">
       <c r="A183" s="154"/>
-      <c r="B183" s="205"/>
-      <c r="C183" s="178"/>
-      <c r="D183" s="205"/>
-      <c r="E183" s="209"/>
+      <c r="B183" s="178"/>
+      <c r="C183" s="195"/>
+      <c r="D183" s="178"/>
+      <c r="E183" s="192"/>
       <c r="F183" s="62" t="s">
         <v>25</v>
       </c>
@@ -11616,7 +11895,7 @@
       <c r="H183" s="60">
         <v>1</v>
       </c>
-      <c r="I183" s="205"/>
+      <c r="I183" s="178"/>
       <c r="J183" s="63">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -11629,18 +11908,18 @@
       <c r="M183" s="60">
         <v>18</v>
       </c>
-      <c r="N183" s="205"/>
-      <c r="O183" s="205"/>
-      <c r="P183" s="205"/>
-    </row>
-    <row r="184" spans="1:16" ht="22.5">
+      <c r="N183" s="178"/>
+      <c r="O183" s="178"/>
+      <c r="P183" s="178"/>
+    </row>
+    <row r="184" spans="1:16" ht="21">
       <c r="A184" s="154"/>
-      <c r="B184" s="169" t="s">
+      <c r="B184" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C184" s="169"/>
-      <c r="D184" s="169"/>
-      <c r="E184" s="169"/>
+      <c r="C184" s="172"/>
+      <c r="D184" s="172"/>
+      <c r="E184" s="172"/>
       <c r="F184" s="64" t="s">
         <v>25</v>
       </c>
@@ -11659,7 +11938,7 @@
       <c r="O184" s="132"/>
       <c r="P184" s="55"/>
     </row>
-    <row r="185" spans="1:16" ht="117">
+    <row r="185" spans="1:16" ht="109.2">
       <c r="A185" s="154"/>
       <c r="B185" s="81" t="s">
         <v>387</v>
@@ -11710,14 +11989,14 @@
         <v>390</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="22.5">
+    <row r="186" spans="1:16" ht="21">
       <c r="A186" s="154"/>
-      <c r="B186" s="169" t="s">
+      <c r="B186" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C186" s="169"/>
-      <c r="D186" s="169"/>
-      <c r="E186" s="169"/>
+      <c r="C186" s="172"/>
+      <c r="D186" s="172"/>
+      <c r="E186" s="172"/>
       <c r="F186" s="64" t="s">
         <v>391</v>
       </c>
@@ -11738,7 +12017,7 @@
       <c r="O186" s="67"/>
       <c r="P186" s="67"/>
     </row>
-    <row r="187" spans="1:16" ht="117">
+    <row r="187" spans="1:16" ht="109.2">
       <c r="A187" s="154"/>
       <c r="B187" s="81" t="s">
         <v>387</v>
@@ -11789,14 +12068,14 @@
         <v>393</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="22.5">
+    <row r="188" spans="1:16" ht="21">
       <c r="A188" s="154"/>
-      <c r="B188" s="169" t="s">
+      <c r="B188" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C188" s="169"/>
-      <c r="D188" s="169"/>
-      <c r="E188" s="169"/>
+      <c r="C188" s="172"/>
+      <c r="D188" s="172"/>
+      <c r="E188" s="172"/>
       <c r="F188" s="64" t="s">
         <v>394</v>
       </c>
@@ -11817,7 +12096,7 @@
       <c r="O188" s="67"/>
       <c r="P188" s="67"/>
     </row>
-    <row r="189" spans="1:16" ht="98.25">
+    <row r="189" spans="1:16" ht="91.8">
       <c r="A189" s="154"/>
       <c r="B189" s="81" t="s">
         <v>387</v>
@@ -11865,14 +12144,14 @@
         <v>396</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="22.5">
+    <row r="190" spans="1:16" ht="21">
       <c r="A190" s="154"/>
-      <c r="B190" s="169" t="s">
+      <c r="B190" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C190" s="169"/>
-      <c r="D190" s="169"/>
-      <c r="E190" s="169"/>
+      <c r="C190" s="172"/>
+      <c r="D190" s="172"/>
+      <c r="E190" s="172"/>
       <c r="F190" s="64" t="s">
         <v>397</v>
       </c>
@@ -11891,30 +12170,30 @@
       <c r="O190" s="67"/>
       <c r="P190" s="67"/>
     </row>
-    <row r="191" spans="1:16" ht="21">
+    <row r="191" spans="1:16" ht="19.8">
       <c r="A191" s="154"/>
-      <c r="B191" s="210" t="s">
+      <c r="B191" s="184" t="s">
         <v>398</v>
       </c>
-      <c r="C191" s="210" t="s">
+      <c r="C191" s="184" t="s">
         <v>399</v>
       </c>
-      <c r="D191" s="210" t="s">
+      <c r="D191" s="184" t="s">
         <v>400</v>
       </c>
-      <c r="E191" s="191">
+      <c r="E191" s="186">
         <v>45660</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G191" s="213" t="s">
+      <c r="G191" s="182" t="s">
         <v>401</v>
       </c>
       <c r="H191" s="81">
         <v>130</v>
       </c>
-      <c r="I191" s="210">
+      <c r="I191" s="184">
         <v>7600</v>
       </c>
       <c r="J191" s="10">
@@ -11929,30 +12208,30 @@
       <c r="M191" s="81">
         <v>66</v>
       </c>
-      <c r="N191" s="216">
+      <c r="N191" s="197">
         <v>45665</v>
       </c>
-      <c r="O191" s="216">
+      <c r="O191" s="197">
         <v>45706</v>
       </c>
-      <c r="P191" s="210" t="s">
+      <c r="P191" s="184" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="21">
+    <row r="192" spans="1:16" ht="19.8">
       <c r="A192" s="154"/>
-      <c r="B192" s="211"/>
-      <c r="C192" s="211"/>
-      <c r="D192" s="211"/>
-      <c r="E192" s="192"/>
+      <c r="B192" s="185"/>
+      <c r="C192" s="185"/>
+      <c r="D192" s="185"/>
+      <c r="E192" s="189"/>
       <c r="F192" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G192" s="214"/>
+      <c r="G192" s="198"/>
       <c r="H192" s="81">
         <v>120</v>
       </c>
-      <c r="I192" s="211"/>
+      <c r="I192" s="185"/>
       <c r="J192" s="10">
         <v>3.167424</v>
       </c>
@@ -11965,24 +12244,24 @@
       <c r="M192" s="81">
         <v>72</v>
       </c>
-      <c r="N192" s="211"/>
-      <c r="O192" s="211"/>
-      <c r="P192" s="211"/>
-    </row>
-    <row r="193" spans="1:16" ht="21">
+      <c r="N192" s="185"/>
+      <c r="O192" s="185"/>
+      <c r="P192" s="185"/>
+    </row>
+    <row r="193" spans="1:16" ht="19.8">
       <c r="A193" s="154"/>
-      <c r="B193" s="211"/>
-      <c r="C193" s="211"/>
-      <c r="D193" s="211"/>
-      <c r="E193" s="192"/>
+      <c r="B193" s="185"/>
+      <c r="C193" s="185"/>
+      <c r="D193" s="185"/>
+      <c r="E193" s="189"/>
       <c r="F193" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G193" s="214"/>
+      <c r="G193" s="198"/>
       <c r="H193" s="81">
         <v>130</v>
       </c>
-      <c r="I193" s="211"/>
+      <c r="I193" s="185"/>
       <c r="J193" s="10">
         <v>3.383718</v>
       </c>
@@ -11995,24 +12274,24 @@
       <c r="M193" s="81">
         <v>71</v>
       </c>
-      <c r="N193" s="211"/>
-      <c r="O193" s="211"/>
-      <c r="P193" s="211"/>
-    </row>
-    <row r="194" spans="1:16" ht="21">
+      <c r="N193" s="185"/>
+      <c r="O193" s="185"/>
+      <c r="P193" s="185"/>
+    </row>
+    <row r="194" spans="1:16" ht="19.8">
       <c r="A194" s="154"/>
-      <c r="B194" s="211"/>
-      <c r="C194" s="211"/>
-      <c r="D194" s="211"/>
-      <c r="E194" s="192"/>
+      <c r="B194" s="185"/>
+      <c r="C194" s="185"/>
+      <c r="D194" s="185"/>
+      <c r="E194" s="189"/>
       <c r="F194" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G194" s="215"/>
+      <c r="G194" s="199"/>
       <c r="H194" s="81">
         <v>220</v>
       </c>
-      <c r="I194" s="211"/>
+      <c r="I194" s="185"/>
       <c r="J194" s="10">
         <v>2.5405380000000002</v>
       </c>
@@ -12025,16 +12304,16 @@
       <c r="M194" s="81">
         <v>63</v>
       </c>
-      <c r="N194" s="211"/>
-      <c r="O194" s="211"/>
-      <c r="P194" s="211"/>
-    </row>
-    <row r="195" spans="1:16" ht="21">
+      <c r="N194" s="185"/>
+      <c r="O194" s="185"/>
+      <c r="P194" s="185"/>
+    </row>
+    <row r="195" spans="1:16" ht="19.8">
       <c r="A195" s="154"/>
-      <c r="B195" s="212"/>
-      <c r="C195" s="212"/>
-      <c r="D195" s="212"/>
-      <c r="E195" s="193"/>
+      <c r="B195" s="183"/>
+      <c r="C195" s="183"/>
+      <c r="D195" s="183"/>
+      <c r="E195" s="187"/>
       <c r="F195" s="3" t="s">
         <v>13</v>
       </c>
@@ -12044,7 +12323,7 @@
       <c r="H195" s="81">
         <v>1599</v>
       </c>
-      <c r="I195" s="212"/>
+      <c r="I195" s="183"/>
       <c r="J195" s="10">
         <v>0.68834399999999996</v>
       </c>
@@ -12057,18 +12336,18 @@
       <c r="M195" s="81">
         <v>92</v>
       </c>
-      <c r="N195" s="212"/>
-      <c r="O195" s="212"/>
-      <c r="P195" s="212"/>
-    </row>
-    <row r="196" spans="1:16" ht="22.5">
+      <c r="N195" s="183"/>
+      <c r="O195" s="183"/>
+      <c r="P195" s="183"/>
+    </row>
+    <row r="196" spans="1:16" ht="21">
       <c r="A196" s="154"/>
-      <c r="B196" s="169" t="s">
+      <c r="B196" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C196" s="169"/>
-      <c r="D196" s="169"/>
-      <c r="E196" s="169"/>
+      <c r="C196" s="172"/>
+      <c r="D196" s="172"/>
+      <c r="E196" s="172"/>
       <c r="F196" s="64" t="s">
         <v>13</v>
       </c>
@@ -12087,7 +12366,7 @@
       <c r="O196" s="67"/>
       <c r="P196" s="67"/>
     </row>
-    <row r="197" spans="1:16" ht="42">
+    <row r="197" spans="1:16" ht="19.8">
       <c r="A197" s="154"/>
       <c r="B197" s="60" t="s">
         <v>404</v>
@@ -12133,14 +12412,14 @@
         <v>408</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="22.5">
+    <row r="198" spans="1:16" ht="21">
       <c r="A198" s="154"/>
-      <c r="B198" s="169" t="s">
+      <c r="B198" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C198" s="169"/>
-      <c r="D198" s="169"/>
-      <c r="E198" s="169"/>
+      <c r="C198" s="172"/>
+      <c r="D198" s="172"/>
+      <c r="E198" s="172"/>
       <c r="F198" s="64" t="s">
         <v>409</v>
       </c>
@@ -12159,7 +12438,7 @@
       <c r="O198" s="55"/>
       <c r="P198" s="55"/>
     </row>
-    <row r="199" spans="1:16" ht="42">
+    <row r="199" spans="1:16" ht="39.6">
       <c r="A199" s="154"/>
       <c r="B199" s="81" t="s">
         <v>410</v>
@@ -12208,14 +12487,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="22.5">
+    <row r="200" spans="1:16" ht="21">
       <c r="A200" s="154"/>
-      <c r="B200" s="169" t="s">
+      <c r="B200" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C200" s="169"/>
-      <c r="D200" s="169"/>
-      <c r="E200" s="169"/>
+      <c r="C200" s="172"/>
+      <c r="D200" s="172"/>
+      <c r="E200" s="172"/>
       <c r="F200" s="64" t="s">
         <v>412</v>
       </c>
@@ -12236,17 +12515,17 @@
       <c r="O200" s="67"/>
       <c r="P200" s="67"/>
     </row>
-    <row r="201" spans="1:16" ht="37.5">
-      <c r="B201" s="210" t="s">
+    <row r="201" spans="1:16" ht="34.799999999999997">
+      <c r="B201" s="184" t="s">
         <v>413</v>
       </c>
-      <c r="C201" s="210" t="s">
+      <c r="C201" s="184" t="s">
         <v>414</v>
       </c>
-      <c r="D201" s="210" t="s">
+      <c r="D201" s="184" t="s">
         <v>415</v>
       </c>
-      <c r="E201" s="191">
+      <c r="E201" s="186">
         <v>45665</v>
       </c>
       <c r="F201" s="3" t="s">
@@ -12275,21 +12554,21 @@
       <c r="M201" s="81">
         <v>39</v>
       </c>
-      <c r="N201" s="216">
+      <c r="N201" s="197">
         <v>45670</v>
       </c>
-      <c r="O201" s="216">
+      <c r="O201" s="197">
         <v>45712</v>
       </c>
-      <c r="P201" s="210" t="s">
+      <c r="P201" s="184" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="37.5">
-      <c r="B202" s="211"/>
-      <c r="C202" s="211"/>
-      <c r="D202" s="211"/>
-      <c r="E202" s="192"/>
+    <row r="202" spans="1:16" ht="34.799999999999997">
+      <c r="B202" s="185"/>
+      <c r="C202" s="185"/>
+      <c r="D202" s="185"/>
+      <c r="E202" s="189"/>
       <c r="F202" s="3" t="s">
         <v>99</v>
       </c>
@@ -12316,19 +12595,19 @@
       <c r="M202" s="81">
         <v>28</v>
       </c>
-      <c r="N202" s="211"/>
-      <c r="O202" s="211"/>
-      <c r="P202" s="211"/>
-    </row>
-    <row r="203" spans="1:16" ht="21">
-      <c r="B203" s="211"/>
-      <c r="C203" s="211"/>
-      <c r="D203" s="211"/>
-      <c r="E203" s="192"/>
+      <c r="N202" s="185"/>
+      <c r="O202" s="185"/>
+      <c r="P202" s="185"/>
+    </row>
+    <row r="203" spans="1:16" ht="19.8">
+      <c r="B203" s="185"/>
+      <c r="C203" s="185"/>
+      <c r="D203" s="185"/>
+      <c r="E203" s="189"/>
       <c r="F203" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="G203" s="213" t="s">
+      <c r="G203" s="182" t="s">
         <v>420</v>
       </c>
       <c r="H203" s="81">
@@ -12351,19 +12630,19 @@
       <c r="M203" s="81">
         <v>39</v>
       </c>
-      <c r="N203" s="211"/>
-      <c r="O203" s="211"/>
-      <c r="P203" s="211"/>
-    </row>
-    <row r="204" spans="1:16" ht="21">
-      <c r="B204" s="211"/>
-      <c r="C204" s="211"/>
-      <c r="D204" s="211"/>
-      <c r="E204" s="192"/>
+      <c r="N203" s="185"/>
+      <c r="O203" s="185"/>
+      <c r="P203" s="185"/>
+    </row>
+    <row r="204" spans="1:16" ht="19.8">
+      <c r="B204" s="185"/>
+      <c r="C204" s="185"/>
+      <c r="D204" s="185"/>
+      <c r="E204" s="189"/>
       <c r="F204" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G204" s="215"/>
+      <c r="G204" s="199"/>
       <c r="H204" s="81">
         <v>48</v>
       </c>
@@ -12383,15 +12662,15 @@
       <c r="M204" s="81">
         <v>23</v>
       </c>
-      <c r="N204" s="211"/>
-      <c r="O204" s="211"/>
-      <c r="P204" s="211"/>
-    </row>
-    <row r="205" spans="1:16" ht="37.5">
-      <c r="B205" s="212"/>
-      <c r="C205" s="212"/>
-      <c r="D205" s="212"/>
-      <c r="E205" s="193"/>
+      <c r="N204" s="185"/>
+      <c r="O204" s="185"/>
+      <c r="P204" s="185"/>
+    </row>
+    <row r="205" spans="1:16" ht="34.799999999999997">
+      <c r="B205" s="183"/>
+      <c r="C205" s="183"/>
+      <c r="D205" s="183"/>
+      <c r="E205" s="187"/>
       <c r="F205" s="3" t="s">
         <v>422</v>
       </c>
@@ -12418,17 +12697,17 @@
       <c r="M205" s="81">
         <v>47</v>
       </c>
-      <c r="N205" s="212"/>
-      <c r="O205" s="212"/>
-      <c r="P205" s="212"/>
-    </row>
-    <row r="206" spans="1:16" ht="22.5">
-      <c r="B206" s="169" t="s">
+      <c r="N205" s="183"/>
+      <c r="O205" s="183"/>
+      <c r="P205" s="183"/>
+    </row>
+    <row r="206" spans="1:16" ht="21">
+      <c r="B206" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C206" s="169"/>
-      <c r="D206" s="169"/>
-      <c r="E206" s="169"/>
+      <c r="C206" s="172"/>
+      <c r="D206" s="172"/>
+      <c r="E206" s="172"/>
       <c r="F206" s="64" t="s">
         <v>424</v>
       </c>
@@ -12449,7 +12728,7 @@
       <c r="O206" s="67"/>
       <c r="P206" s="67"/>
     </row>
-    <row r="207" spans="1:16" ht="21">
+    <row r="207" spans="1:16" ht="19.8">
       <c r="B207" s="81" t="s">
         <v>425</v>
       </c>
@@ -12496,13 +12775,13 @@
         <v>417</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="22.5">
-      <c r="B208" s="169" t="s">
+    <row r="208" spans="1:16" ht="21">
+      <c r="B208" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C208" s="169"/>
-      <c r="D208" s="169"/>
-      <c r="E208" s="169"/>
+      <c r="C208" s="172"/>
+      <c r="D208" s="172"/>
+      <c r="E208" s="172"/>
       <c r="F208" s="64" t="s">
         <v>25</v>
       </c>
@@ -12521,27 +12800,27 @@
       <c r="O208" s="67"/>
       <c r="P208" s="67"/>
     </row>
-    <row r="209" spans="2:16" ht="21">
-      <c r="B209" s="210" t="s">
+    <row r="209" spans="2:16" ht="19.8">
+      <c r="B209" s="184" t="s">
         <v>429</v>
       </c>
-      <c r="C209" s="213" t="s">
+      <c r="C209" s="182" t="s">
         <v>430</v>
       </c>
-      <c r="D209" s="210" t="s">
+      <c r="D209" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="E209" s="191">
+      <c r="E209" s="186">
         <v>45666</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G209" s="213" t="s">
+      <c r="G209" s="182" t="s">
         <v>431</v>
       </c>
       <c r="H209" s="81"/>
-      <c r="I209" s="210">
+      <c r="I209" s="184">
         <v>13</v>
       </c>
       <c r="J209" s="10">
@@ -12556,27 +12835,27 @@
       <c r="M209" s="81">
         <v>36</v>
       </c>
-      <c r="N209" s="216">
+      <c r="N209" s="197">
         <v>45670</v>
       </c>
-      <c r="O209" s="216">
+      <c r="O209" s="197">
         <v>45712</v>
       </c>
-      <c r="P209" s="210" t="s">
+      <c r="P209" s="184" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="210" spans="2:16" ht="21">
-      <c r="B210" s="212"/>
-      <c r="C210" s="215"/>
-      <c r="D210" s="212"/>
-      <c r="E210" s="193"/>
+    <row r="210" spans="2:16" ht="19.8">
+      <c r="B210" s="183"/>
+      <c r="C210" s="199"/>
+      <c r="D210" s="183"/>
+      <c r="E210" s="187"/>
       <c r="F210" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G210" s="212"/>
+      <c r="G210" s="183"/>
       <c r="H210" s="81"/>
-      <c r="I210" s="212"/>
+      <c r="I210" s="183"/>
       <c r="J210" s="10">
         <v>2.3751000000000001E-2</v>
       </c>
@@ -12589,17 +12868,17 @@
       <c r="M210" s="81">
         <v>29</v>
       </c>
-      <c r="N210" s="212"/>
-      <c r="O210" s="212"/>
-      <c r="P210" s="212"/>
-    </row>
-    <row r="211" spans="2:16" ht="22.5">
-      <c r="B211" s="169" t="s">
+      <c r="N210" s="183"/>
+      <c r="O210" s="183"/>
+      <c r="P210" s="183"/>
+    </row>
+    <row r="211" spans="2:16" ht="21">
+      <c r="B211" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C211" s="169"/>
-      <c r="D211" s="169"/>
-      <c r="E211" s="169"/>
+      <c r="C211" s="172"/>
+      <c r="D211" s="172"/>
+      <c r="E211" s="172"/>
       <c r="F211" s="64" t="s">
         <v>15</v>
       </c>
@@ -12618,7 +12897,7 @@
       <c r="O211" s="67"/>
       <c r="P211" s="67"/>
     </row>
-    <row r="212" spans="2:16" ht="42">
+    <row r="212" spans="2:16" ht="39.6">
       <c r="B212" s="134" t="s">
         <v>433</v>
       </c>
@@ -12666,13 +12945,13 @@
         <v>435</v>
       </c>
     </row>
-    <row r="213" spans="2:16" ht="22.5">
-      <c r="B213" s="169" t="s">
+    <row r="213" spans="2:16" ht="21">
+      <c r="B213" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C213" s="169"/>
-      <c r="D213" s="169"/>
-      <c r="E213" s="169"/>
+      <c r="C213" s="172"/>
+      <c r="D213" s="172"/>
+      <c r="E213" s="172"/>
       <c r="F213" s="139" t="s">
         <v>436</v>
       </c>
@@ -12693,7 +12972,7 @@
       <c r="O213" s="67"/>
       <c r="P213" s="67"/>
     </row>
-    <row r="214" spans="2:16" ht="42">
+    <row r="214" spans="2:16" ht="39.6">
       <c r="B214" s="81" t="s">
         <v>433</v>
       </c>
@@ -12741,13 +13020,13 @@
         <v>438</v>
       </c>
     </row>
-    <row r="215" spans="2:16" ht="22.5">
-      <c r="B215" s="169" t="s">
+    <row r="215" spans="2:16" ht="21">
+      <c r="B215" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C215" s="169"/>
-      <c r="D215" s="169"/>
-      <c r="E215" s="169"/>
+      <c r="C215" s="172"/>
+      <c r="D215" s="172"/>
+      <c r="E215" s="172"/>
       <c r="F215" s="64" t="s">
         <v>391</v>
       </c>
@@ -12768,7 +13047,7 @@
       <c r="O215" s="67"/>
       <c r="P215" s="67"/>
     </row>
-    <row r="216" spans="2:16" ht="42">
+    <row r="216" spans="2:16" ht="39.6">
       <c r="B216" s="81" t="s">
         <v>433</v>
       </c>
@@ -12816,13 +13095,13 @@
         <v>440</v>
       </c>
     </row>
-    <row r="217" spans="2:16" ht="22.5">
-      <c r="B217" s="169" t="s">
+    <row r="217" spans="2:16" ht="21">
+      <c r="B217" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C217" s="169"/>
-      <c r="D217" s="169"/>
-      <c r="E217" s="169"/>
+      <c r="C217" s="172"/>
+      <c r="D217" s="172"/>
+      <c r="E217" s="172"/>
       <c r="F217" s="64" t="s">
         <v>436</v>
       </c>
@@ -12843,7 +13122,7 @@
       <c r="O217" s="67"/>
       <c r="P217" s="67"/>
     </row>
-    <row r="218" spans="2:16" ht="42">
+    <row r="218" spans="2:16" ht="39.6">
       <c r="B218" s="134" t="s">
         <v>433</v>
       </c>
@@ -12891,13 +13170,13 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="2:16" ht="22.5">
-      <c r="B219" s="169" t="s">
+    <row r="219" spans="2:16" ht="21">
+      <c r="B219" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C219" s="169"/>
-      <c r="D219" s="169"/>
-      <c r="E219" s="169"/>
+      <c r="C219" s="172"/>
+      <c r="D219" s="172"/>
+      <c r="E219" s="172"/>
       <c r="F219" s="139" t="s">
         <v>436</v>
       </c>
@@ -12918,7 +13197,7 @@
       <c r="O219" s="67"/>
       <c r="P219" s="67"/>
     </row>
-    <row r="220" spans="2:16" ht="42">
+    <row r="220" spans="2:16" ht="39.6">
       <c r="B220" s="81" t="s">
         <v>433</v>
       </c>
@@ -12966,13 +13245,13 @@
         <v>438</v>
       </c>
     </row>
-    <row r="221" spans="2:16" ht="22.5">
-      <c r="B221" s="169" t="s">
+    <row r="221" spans="2:16" ht="21">
+      <c r="B221" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C221" s="169"/>
-      <c r="D221" s="169"/>
-      <c r="E221" s="169"/>
+      <c r="C221" s="172"/>
+      <c r="D221" s="172"/>
+      <c r="E221" s="172"/>
       <c r="F221" s="64" t="s">
         <v>391</v>
       </c>
@@ -12993,7 +13272,7 @@
       <c r="O221" s="67"/>
       <c r="P221" s="67"/>
     </row>
-    <row r="222" spans="2:16" ht="42">
+    <row r="222" spans="2:16" ht="39.6">
       <c r="B222" s="81" t="s">
         <v>433</v>
       </c>
@@ -13039,13 +13318,13 @@
         <v>442</v>
       </c>
     </row>
-    <row r="223" spans="2:16" ht="22.5">
-      <c r="B223" s="169" t="s">
+    <row r="223" spans="2:16" ht="21">
+      <c r="B223" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C223" s="169"/>
-      <c r="D223" s="169"/>
-      <c r="E223" s="169"/>
+      <c r="C223" s="172"/>
+      <c r="D223" s="172"/>
+      <c r="E223" s="172"/>
       <c r="F223" s="64" t="s">
         <v>436</v>
       </c>
@@ -13066,7 +13345,7 @@
       <c r="O223" s="67"/>
       <c r="P223" s="67"/>
     </row>
-    <row r="224" spans="2:16" ht="21">
+    <row r="224" spans="2:16" ht="19.8">
       <c r="B224" s="81" t="s">
         <v>433</v>
       </c>
@@ -13109,13 +13388,13 @@
       </c>
       <c r="P224" s="81"/>
     </row>
-    <row r="225" spans="2:16" ht="22.5">
-      <c r="B225" s="169" t="s">
+    <row r="225" spans="2:16" ht="21">
+      <c r="B225" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C225" s="169"/>
-      <c r="D225" s="169"/>
-      <c r="E225" s="169"/>
+      <c r="C225" s="172"/>
+      <c r="D225" s="172"/>
+      <c r="E225" s="172"/>
       <c r="F225" s="64" t="s">
         <v>444</v>
       </c>
@@ -13134,29 +13413,29 @@
       <c r="O225" s="67"/>
       <c r="P225" s="67"/>
     </row>
-    <row r="226" spans="2:16" ht="21">
-      <c r="B226" s="210" t="s">
+    <row r="226" spans="2:16" ht="19.8">
+      <c r="B226" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="C226" s="210">
+      <c r="C226" s="184">
         <v>1392620920</v>
       </c>
-      <c r="D226" s="210" t="s">
+      <c r="D226" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="E226" s="191">
+      <c r="E226" s="186">
         <v>45667</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G226" s="213" t="s">
+      <c r="G226" s="182" t="s">
         <v>68</v>
       </c>
       <c r="H226" s="81">
         <v>8</v>
       </c>
-      <c r="I226" s="210">
+      <c r="I226" s="184">
         <v>357</v>
       </c>
       <c r="J226" s="10">
@@ -13171,29 +13450,29 @@
       <c r="M226" s="81">
         <v>26</v>
       </c>
-      <c r="N226" s="216">
+      <c r="N226" s="197">
         <v>45670</v>
       </c>
-      <c r="O226" s="216">
+      <c r="O226" s="197">
         <v>45699</v>
       </c>
-      <c r="P226" s="210" t="s">
+      <c r="P226" s="184" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="227" spans="2:16" ht="21">
-      <c r="B227" s="211"/>
-      <c r="C227" s="211"/>
-      <c r="D227" s="211"/>
-      <c r="E227" s="192"/>
+    <row r="227" spans="2:16" ht="19.8">
+      <c r="B227" s="185"/>
+      <c r="C227" s="185"/>
+      <c r="D227" s="185"/>
+      <c r="E227" s="189"/>
       <c r="F227" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G227" s="214"/>
+      <c r="G227" s="198"/>
       <c r="H227" s="81">
         <v>2</v>
       </c>
-      <c r="I227" s="211"/>
+      <c r="I227" s="185"/>
       <c r="J227" s="10">
         <v>7.7219999999999997E-2</v>
       </c>
@@ -13206,23 +13485,23 @@
       <c r="M227" s="81">
         <v>26</v>
       </c>
-      <c r="N227" s="211"/>
-      <c r="O227" s="211"/>
-      <c r="P227" s="211"/>
-    </row>
-    <row r="228" spans="2:16" ht="21">
-      <c r="B228" s="211"/>
-      <c r="C228" s="211"/>
-      <c r="D228" s="211"/>
-      <c r="E228" s="192"/>
+      <c r="N227" s="185"/>
+      <c r="O227" s="185"/>
+      <c r="P227" s="185"/>
+    </row>
+    <row r="228" spans="2:16" ht="19.8">
+      <c r="B228" s="185"/>
+      <c r="C228" s="185"/>
+      <c r="D228" s="185"/>
+      <c r="E228" s="189"/>
       <c r="F228" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G228" s="215"/>
+      <c r="G228" s="199"/>
       <c r="H228" s="81">
         <v>4</v>
       </c>
-      <c r="I228" s="211"/>
+      <c r="I228" s="185"/>
       <c r="J228" s="10">
         <v>0.12675</v>
       </c>
@@ -13235,25 +13514,25 @@
       <c r="M228" s="81">
         <v>25</v>
       </c>
-      <c r="N228" s="211"/>
-      <c r="O228" s="211"/>
-      <c r="P228" s="211"/>
-    </row>
-    <row r="229" spans="2:16" ht="21">
-      <c r="B229" s="211"/>
-      <c r="C229" s="211"/>
-      <c r="D229" s="211"/>
-      <c r="E229" s="192"/>
+      <c r="N228" s="185"/>
+      <c r="O228" s="185"/>
+      <c r="P228" s="185"/>
+    </row>
+    <row r="229" spans="2:16" ht="19.8">
+      <c r="B229" s="185"/>
+      <c r="C229" s="185"/>
+      <c r="D229" s="185"/>
+      <c r="E229" s="189"/>
       <c r="F229" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G229" s="213" t="s">
+      <c r="G229" s="182" t="s">
         <v>58</v>
       </c>
       <c r="H229" s="81">
         <v>20</v>
       </c>
-      <c r="I229" s="211"/>
+      <c r="I229" s="185"/>
       <c r="J229" s="10">
         <v>0.31099199999999999</v>
       </c>
@@ -13266,23 +13545,23 @@
       <c r="M229" s="81">
         <v>38</v>
       </c>
-      <c r="N229" s="211"/>
-      <c r="O229" s="211"/>
-      <c r="P229" s="211"/>
-    </row>
-    <row r="230" spans="2:16" ht="21">
-      <c r="B230" s="211"/>
-      <c r="C230" s="211"/>
-      <c r="D230" s="211"/>
-      <c r="E230" s="192"/>
+      <c r="N229" s="185"/>
+      <c r="O229" s="185"/>
+      <c r="P229" s="185"/>
+    </row>
+    <row r="230" spans="2:16" ht="19.8">
+      <c r="B230" s="185"/>
+      <c r="C230" s="185"/>
+      <c r="D230" s="185"/>
+      <c r="E230" s="189"/>
       <c r="F230" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G230" s="214"/>
+      <c r="G230" s="198"/>
       <c r="H230" s="81">
         <v>10</v>
       </c>
-      <c r="I230" s="211"/>
+      <c r="I230" s="185"/>
       <c r="J230" s="10">
         <v>0.13718</v>
       </c>
@@ -13295,23 +13574,23 @@
       <c r="M230" s="81">
         <v>38</v>
       </c>
-      <c r="N230" s="211"/>
-      <c r="O230" s="211"/>
-      <c r="P230" s="211"/>
-    </row>
-    <row r="231" spans="2:16" ht="21">
-      <c r="B231" s="211"/>
-      <c r="C231" s="211"/>
-      <c r="D231" s="211"/>
-      <c r="E231" s="192"/>
+      <c r="N230" s="185"/>
+      <c r="O230" s="185"/>
+      <c r="P230" s="185"/>
+    </row>
+    <row r="231" spans="2:16" ht="19.8">
+      <c r="B231" s="185"/>
+      <c r="C231" s="185"/>
+      <c r="D231" s="185"/>
+      <c r="E231" s="189"/>
       <c r="F231" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G231" s="214"/>
+      <c r="G231" s="198"/>
       <c r="H231" s="81">
         <v>10</v>
       </c>
-      <c r="I231" s="211"/>
+      <c r="I231" s="185"/>
       <c r="J231" s="10">
         <v>0.13718</v>
       </c>
@@ -13324,23 +13603,23 @@
       <c r="M231" s="81">
         <v>38</v>
       </c>
-      <c r="N231" s="211"/>
-      <c r="O231" s="211"/>
-      <c r="P231" s="211"/>
-    </row>
-    <row r="232" spans="2:16" ht="21">
-      <c r="B232" s="211"/>
-      <c r="C232" s="211"/>
-      <c r="D232" s="211"/>
-      <c r="E232" s="192"/>
+      <c r="N231" s="185"/>
+      <c r="O231" s="185"/>
+      <c r="P231" s="185"/>
+    </row>
+    <row r="232" spans="2:16" ht="19.8">
+      <c r="B232" s="185"/>
+      <c r="C232" s="185"/>
+      <c r="D232" s="185"/>
+      <c r="E232" s="189"/>
       <c r="F232" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G232" s="214"/>
+      <c r="G232" s="198"/>
       <c r="H232" s="81">
         <v>20</v>
       </c>
-      <c r="I232" s="211"/>
+      <c r="I232" s="185"/>
       <c r="J232" s="10">
         <v>0.13718</v>
       </c>
@@ -13353,23 +13632,23 @@
       <c r="M232" s="81">
         <v>38</v>
       </c>
-      <c r="N232" s="211"/>
-      <c r="O232" s="211"/>
-      <c r="P232" s="211"/>
-    </row>
-    <row r="233" spans="2:16" ht="21">
-      <c r="B233" s="211"/>
-      <c r="C233" s="211"/>
-      <c r="D233" s="211"/>
-      <c r="E233" s="192"/>
+      <c r="N232" s="185"/>
+      <c r="O232" s="185"/>
+      <c r="P232" s="185"/>
+    </row>
+    <row r="233" spans="2:16" ht="19.8">
+      <c r="B233" s="185"/>
+      <c r="C233" s="185"/>
+      <c r="D233" s="185"/>
+      <c r="E233" s="189"/>
       <c r="F233" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G233" s="214"/>
+      <c r="G233" s="198"/>
       <c r="H233" s="81">
         <v>50</v>
       </c>
-      <c r="I233" s="211"/>
+      <c r="I233" s="185"/>
       <c r="J233" s="10">
         <v>0.68589999999999995</v>
       </c>
@@ -13382,23 +13661,23 @@
       <c r="M233" s="81">
         <v>38</v>
       </c>
-      <c r="N233" s="211"/>
-      <c r="O233" s="211"/>
-      <c r="P233" s="211"/>
-    </row>
-    <row r="234" spans="2:16" ht="21">
-      <c r="B234" s="211"/>
-      <c r="C234" s="211"/>
-      <c r="D234" s="211"/>
-      <c r="E234" s="192"/>
+      <c r="N233" s="185"/>
+      <c r="O233" s="185"/>
+      <c r="P233" s="185"/>
+    </row>
+    <row r="234" spans="2:16" ht="19.8">
+      <c r="B234" s="185"/>
+      <c r="C234" s="185"/>
+      <c r="D234" s="185"/>
+      <c r="E234" s="189"/>
       <c r="F234" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G234" s="215"/>
+      <c r="G234" s="199"/>
       <c r="H234" s="81">
         <v>10</v>
       </c>
-      <c r="I234" s="211"/>
+      <c r="I234" s="185"/>
       <c r="J234" s="10">
         <v>6.93E-2</v>
       </c>
@@ -13411,15 +13690,15 @@
       <c r="M234" s="81">
         <v>33</v>
       </c>
-      <c r="N234" s="211"/>
-      <c r="O234" s="211"/>
-      <c r="P234" s="211"/>
-    </row>
-    <row r="235" spans="2:16" ht="21">
-      <c r="B235" s="211"/>
-      <c r="C235" s="211"/>
-      <c r="D235" s="211"/>
-      <c r="E235" s="192"/>
+      <c r="N234" s="185"/>
+      <c r="O234" s="185"/>
+      <c r="P234" s="185"/>
+    </row>
+    <row r="235" spans="2:16" ht="19.8">
+      <c r="B235" s="185"/>
+      <c r="C235" s="185"/>
+      <c r="D235" s="185"/>
+      <c r="E235" s="189"/>
       <c r="F235" s="3" t="s">
         <v>28</v>
       </c>
@@ -13429,7 +13708,7 @@
       <c r="H235" s="81">
         <v>85</v>
       </c>
-      <c r="I235" s="211"/>
+      <c r="I235" s="185"/>
       <c r="J235" s="10">
         <v>3.0096000000000001E-2</v>
       </c>
@@ -13442,15 +13721,15 @@
       <c r="M235" s="81">
         <v>24</v>
       </c>
-      <c r="N235" s="211"/>
-      <c r="O235" s="211"/>
-      <c r="P235" s="211"/>
-    </row>
-    <row r="236" spans="2:16" ht="21">
-      <c r="B236" s="211"/>
-      <c r="C236" s="211"/>
-      <c r="D236" s="211"/>
-      <c r="E236" s="192"/>
+      <c r="N235" s="185"/>
+      <c r="O235" s="185"/>
+      <c r="P235" s="185"/>
+    </row>
+    <row r="236" spans="2:16" ht="19.8">
+      <c r="B236" s="185"/>
+      <c r="C236" s="185"/>
+      <c r="D236" s="185"/>
+      <c r="E236" s="189"/>
       <c r="F236" s="3" t="s">
         <v>29</v>
       </c>
@@ -13460,7 +13739,7 @@
       <c r="H236" s="81">
         <v>50</v>
       </c>
-      <c r="I236" s="211"/>
+      <c r="I236" s="185"/>
       <c r="J236" s="10">
         <v>5.3921999999999998E-2</v>
       </c>
@@ -13473,15 +13752,15 @@
       <c r="M236" s="81">
         <v>33</v>
       </c>
-      <c r="N236" s="211"/>
-      <c r="O236" s="211"/>
-      <c r="P236" s="211"/>
-    </row>
-    <row r="237" spans="2:16" ht="21">
-      <c r="B237" s="211"/>
-      <c r="C237" s="211"/>
-      <c r="D237" s="211"/>
-      <c r="E237" s="192"/>
+      <c r="N236" s="185"/>
+      <c r="O236" s="185"/>
+      <c r="P236" s="185"/>
+    </row>
+    <row r="237" spans="2:16" ht="19.8">
+      <c r="B237" s="185"/>
+      <c r="C237" s="185"/>
+      <c r="D237" s="185"/>
+      <c r="E237" s="189"/>
       <c r="F237" s="3" t="s">
         <v>57</v>
       </c>
@@ -13491,7 +13770,7 @@
       <c r="H237" s="81">
         <v>14</v>
       </c>
-      <c r="I237" s="211"/>
+      <c r="I237" s="185"/>
       <c r="J237" s="10">
         <v>0.16819999999999999</v>
       </c>
@@ -13504,15 +13783,15 @@
       <c r="M237" s="81">
         <v>20</v>
       </c>
-      <c r="N237" s="211"/>
-      <c r="O237" s="211"/>
-      <c r="P237" s="211"/>
-    </row>
-    <row r="238" spans="2:16" ht="37.5">
-      <c r="B238" s="212"/>
-      <c r="C238" s="212"/>
-      <c r="D238" s="212"/>
-      <c r="E238" s="193"/>
+      <c r="N237" s="185"/>
+      <c r="O237" s="185"/>
+      <c r="P237" s="185"/>
+    </row>
+    <row r="238" spans="2:16" ht="34.799999999999997">
+      <c r="B238" s="183"/>
+      <c r="C238" s="183"/>
+      <c r="D238" s="183"/>
+      <c r="E238" s="187"/>
       <c r="F238" s="3" t="s">
         <v>87</v>
       </c>
@@ -13522,7 +13801,7 @@
       <c r="H238" s="81">
         <v>10</v>
       </c>
-      <c r="I238" s="212"/>
+      <c r="I238" s="183"/>
       <c r="J238" s="10">
         <v>0.35963200000000001</v>
       </c>
@@ -13535,17 +13814,17 @@
       <c r="M238" s="81">
         <v>38</v>
       </c>
-      <c r="N238" s="212"/>
-      <c r="O238" s="212"/>
-      <c r="P238" s="212"/>
-    </row>
-    <row r="239" spans="2:16" ht="22.5">
-      <c r="B239" s="169" t="s">
+      <c r="N238" s="183"/>
+      <c r="O238" s="183"/>
+      <c r="P238" s="183"/>
+    </row>
+    <row r="239" spans="2:16" ht="21">
+      <c r="B239" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C239" s="169"/>
-      <c r="D239" s="169"/>
-      <c r="E239" s="169"/>
+      <c r="C239" s="172"/>
+      <c r="D239" s="172"/>
+      <c r="E239" s="172"/>
       <c r="F239" s="64" t="s">
         <v>19</v>
       </c>
@@ -13564,7 +13843,7 @@
       <c r="O239" s="67"/>
       <c r="P239" s="67"/>
     </row>
-    <row r="240" spans="2:16" ht="42">
+    <row r="240" spans="2:16" ht="39.6">
       <c r="B240" s="81" t="s">
         <v>104</v>
       </c>
@@ -13609,13 +13888,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="241" spans="2:16" ht="22.5">
-      <c r="B241" s="169" t="s">
+    <row r="241" spans="2:16" ht="21">
+      <c r="B241" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C241" s="169"/>
-      <c r="D241" s="169"/>
-      <c r="E241" s="169"/>
+      <c r="C241" s="172"/>
+      <c r="D241" s="172"/>
+      <c r="E241" s="172"/>
       <c r="F241" s="64" t="s">
         <v>25</v>
       </c>
@@ -13636,7 +13915,7 @@
       <c r="O241" s="67"/>
       <c r="P241" s="67"/>
     </row>
-    <row r="242" spans="2:16" ht="37.5">
+    <row r="242" spans="2:16" ht="34.799999999999997">
       <c r="B242" s="81" t="s">
         <v>106</v>
       </c>
@@ -13683,13 +13962,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="243" spans="2:16" ht="22.5">
-      <c r="B243" s="169" t="s">
+    <row r="243" spans="2:16" ht="21">
+      <c r="B243" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C243" s="169"/>
-      <c r="D243" s="169"/>
-      <c r="E243" s="169"/>
+      <c r="C243" s="172"/>
+      <c r="D243" s="172"/>
+      <c r="E243" s="172"/>
       <c r="F243" s="64" t="s">
         <v>25</v>
       </c>
@@ -13708,29 +13987,29 @@
       <c r="O243" s="67"/>
       <c r="P243" s="67"/>
     </row>
-    <row r="244" spans="2:16" ht="21">
-      <c r="B244" s="206" t="s">
+    <row r="244" spans="2:16" ht="19.8">
+      <c r="B244" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="C244" s="176" t="s">
+      <c r="C244" s="193" t="s">
         <v>445</v>
       </c>
-      <c r="D244" s="206" t="s">
+      <c r="D244" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="E244" s="207">
+      <c r="E244" s="190">
         <v>45668</v>
       </c>
       <c r="F244" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G244" s="176" t="s">
+      <c r="G244" s="193" t="s">
         <v>111</v>
       </c>
       <c r="H244" s="60">
         <v>385</v>
       </c>
-      <c r="I244" s="206">
+      <c r="I244" s="176">
         <v>1451</v>
       </c>
       <c r="J244" s="63">
@@ -13745,29 +14024,29 @@
       <c r="M244" s="60">
         <v>30</v>
       </c>
-      <c r="N244" s="203">
+      <c r="N244" s="196">
         <v>45671</v>
       </c>
-      <c r="O244" s="203">
+      <c r="O244" s="196">
         <v>45714</v>
       </c>
-      <c r="P244" s="206" t="s">
+      <c r="P244" s="176" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="245" spans="2:16" ht="21">
-      <c r="B245" s="204"/>
-      <c r="C245" s="177"/>
-      <c r="D245" s="204"/>
-      <c r="E245" s="208"/>
+    <row r="245" spans="2:16" ht="19.8">
+      <c r="B245" s="177"/>
+      <c r="C245" s="194"/>
+      <c r="D245" s="177"/>
+      <c r="E245" s="191"/>
       <c r="F245" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G245" s="178"/>
+      <c r="G245" s="195"/>
       <c r="H245" s="60">
         <v>36</v>
       </c>
-      <c r="I245" s="204"/>
+      <c r="I245" s="177"/>
       <c r="J245" s="63">
         <v>0.29759999999999998</v>
       </c>
@@ -13780,15 +14059,15 @@
       <c r="M245" s="60">
         <v>20</v>
       </c>
-      <c r="N245" s="204"/>
-      <c r="O245" s="204"/>
-      <c r="P245" s="204"/>
-    </row>
-    <row r="246" spans="2:16" ht="21">
-      <c r="B246" s="204"/>
-      <c r="C246" s="177"/>
-      <c r="D246" s="204"/>
-      <c r="E246" s="208"/>
+      <c r="N245" s="177"/>
+      <c r="O245" s="177"/>
+      <c r="P245" s="177"/>
+    </row>
+    <row r="246" spans="2:16" ht="19.8">
+      <c r="B246" s="177"/>
+      <c r="C246" s="194"/>
+      <c r="D246" s="177"/>
+      <c r="E246" s="191"/>
       <c r="F246" s="62" t="s">
         <v>113</v>
       </c>
@@ -13798,7 +14077,7 @@
       <c r="H246" s="60">
         <v>26</v>
       </c>
-      <c r="I246" s="204"/>
+      <c r="I246" s="177"/>
       <c r="J246" s="63">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -13811,15 +14090,15 @@
       <c r="M246" s="60">
         <v>33</v>
       </c>
-      <c r="N246" s="204"/>
-      <c r="O246" s="204"/>
-      <c r="P246" s="204"/>
-    </row>
-    <row r="247" spans="2:16" ht="21">
-      <c r="B247" s="204"/>
-      <c r="C247" s="177"/>
-      <c r="D247" s="204"/>
-      <c r="E247" s="208"/>
+      <c r="N246" s="177"/>
+      <c r="O246" s="177"/>
+      <c r="P246" s="177"/>
+    </row>
+    <row r="247" spans="2:16" ht="19.8">
+      <c r="B247" s="177"/>
+      <c r="C247" s="194"/>
+      <c r="D247" s="177"/>
+      <c r="E247" s="191"/>
       <c r="F247" s="62" t="s">
         <v>115</v>
       </c>
@@ -13829,7 +14108,7 @@
       <c r="H247" s="60">
         <v>121</v>
       </c>
-      <c r="I247" s="204"/>
+      <c r="I247" s="177"/>
       <c r="J247" s="63">
         <v>3.456E-2</v>
       </c>
@@ -13842,15 +14121,15 @@
       <c r="M247" s="60">
         <v>24</v>
       </c>
-      <c r="N247" s="204"/>
-      <c r="O247" s="204"/>
-      <c r="P247" s="204"/>
-    </row>
-    <row r="248" spans="2:16" ht="37.5">
-      <c r="B248" s="204"/>
-      <c r="C248" s="177"/>
-      <c r="D248" s="204"/>
-      <c r="E248" s="208"/>
+      <c r="N247" s="177"/>
+      <c r="O247" s="177"/>
+      <c r="P247" s="177"/>
+    </row>
+    <row r="248" spans="2:16" ht="34.799999999999997">
+      <c r="B248" s="177"/>
+      <c r="C248" s="194"/>
+      <c r="D248" s="177"/>
+      <c r="E248" s="191"/>
       <c r="F248" s="62" t="s">
         <v>117</v>
       </c>
@@ -13860,7 +14139,7 @@
       <c r="H248" s="60">
         <v>24</v>
       </c>
-      <c r="I248" s="204"/>
+      <c r="I248" s="177"/>
       <c r="J248" s="63">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -13873,15 +14152,15 @@
       <c r="M248" s="60">
         <v>15</v>
       </c>
-      <c r="N248" s="204"/>
-      <c r="O248" s="204"/>
-      <c r="P248" s="204"/>
-    </row>
-    <row r="249" spans="2:16" ht="21">
-      <c r="B249" s="205"/>
-      <c r="C249" s="178"/>
-      <c r="D249" s="205"/>
-      <c r="E249" s="209"/>
+      <c r="N248" s="177"/>
+      <c r="O248" s="177"/>
+      <c r="P248" s="177"/>
+    </row>
+    <row r="249" spans="2:16" ht="19.8">
+      <c r="B249" s="178"/>
+      <c r="C249" s="195"/>
+      <c r="D249" s="178"/>
+      <c r="E249" s="192"/>
       <c r="F249" s="62" t="s">
         <v>118</v>
       </c>
@@ -13891,7 +14170,7 @@
       <c r="H249" s="60">
         <v>150</v>
       </c>
-      <c r="I249" s="205"/>
+      <c r="I249" s="178"/>
       <c r="J249" s="63">
         <v>1.512</v>
       </c>
@@ -13904,17 +14183,17 @@
       <c r="M249" s="60">
         <v>30</v>
       </c>
-      <c r="N249" s="205"/>
-      <c r="O249" s="205"/>
-      <c r="P249" s="205"/>
-    </row>
-    <row r="250" spans="2:16" ht="22.5">
-      <c r="B250" s="169" t="s">
+      <c r="N249" s="178"/>
+      <c r="O249" s="178"/>
+      <c r="P249" s="178"/>
+    </row>
+    <row r="250" spans="2:16" ht="21">
+      <c r="B250" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C250" s="169"/>
-      <c r="D250" s="169"/>
-      <c r="E250" s="169"/>
+      <c r="C250" s="172"/>
+      <c r="D250" s="172"/>
+      <c r="E250" s="172"/>
       <c r="F250" s="64" t="s">
         <v>119</v>
       </c>
@@ -13933,29 +14212,29 @@
       <c r="O250" s="132"/>
       <c r="P250" s="55"/>
     </row>
-    <row r="251" spans="2:16" ht="21">
-      <c r="B251" s="206" t="s">
+    <row r="251" spans="2:16" ht="19.8">
+      <c r="B251" s="176" t="s">
         <v>120</v>
       </c>
-      <c r="C251" s="176" t="s">
+      <c r="C251" s="193" t="s">
         <v>447</v>
       </c>
-      <c r="D251" s="206" t="s">
+      <c r="D251" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="E251" s="207">
+      <c r="E251" s="190">
         <v>45668</v>
       </c>
       <c r="F251" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G251" s="176" t="s">
+      <c r="G251" s="193" t="s">
         <v>77</v>
       </c>
       <c r="H251" s="60">
         <v>300</v>
       </c>
-      <c r="I251" s="206">
+      <c r="I251" s="176">
         <v>680</v>
       </c>
       <c r="J251" s="63">
@@ -13970,29 +14249,29 @@
       <c r="M251" s="60">
         <v>24</v>
       </c>
-      <c r="N251" s="203">
+      <c r="N251" s="196">
         <v>45671</v>
       </c>
-      <c r="O251" s="203">
+      <c r="O251" s="196">
         <v>45714</v>
       </c>
-      <c r="P251" s="206" t="s">
+      <c r="P251" s="176" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="2:16" ht="21">
-      <c r="B252" s="204"/>
-      <c r="C252" s="177"/>
-      <c r="D252" s="204"/>
-      <c r="E252" s="208"/>
+    <row r="252" spans="2:16" ht="19.8">
+      <c r="B252" s="177"/>
+      <c r="C252" s="194"/>
+      <c r="D252" s="177"/>
+      <c r="E252" s="191"/>
       <c r="F252" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="G252" s="204"/>
+      <c r="G252" s="177"/>
       <c r="H252" s="60">
         <v>80</v>
       </c>
-      <c r="I252" s="204"/>
+      <c r="I252" s="177"/>
       <c r="J252" s="63">
         <v>0.189</v>
       </c>
@@ -14005,23 +14284,23 @@
       <c r="M252" s="60">
         <v>30</v>
       </c>
-      <c r="N252" s="204"/>
-      <c r="O252" s="204"/>
-      <c r="P252" s="204"/>
-    </row>
-    <row r="253" spans="2:16" ht="21">
-      <c r="B253" s="205"/>
-      <c r="C253" s="178"/>
-      <c r="D253" s="205"/>
-      <c r="E253" s="209"/>
+      <c r="N252" s="177"/>
+      <c r="O252" s="177"/>
+      <c r="P252" s="177"/>
+    </row>
+    <row r="253" spans="2:16" ht="19.8">
+      <c r="B253" s="178"/>
+      <c r="C253" s="195"/>
+      <c r="D253" s="178"/>
+      <c r="E253" s="192"/>
       <c r="F253" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G253" s="205"/>
+      <c r="G253" s="178"/>
       <c r="H253" s="60">
         <v>5100</v>
       </c>
-      <c r="I253" s="205"/>
+      <c r="I253" s="178"/>
       <c r="J253" s="63">
         <v>2.7820800000000001</v>
       </c>
@@ -14034,17 +14313,17 @@
       <c r="M253" s="60">
         <v>28</v>
       </c>
-      <c r="N253" s="205"/>
-      <c r="O253" s="205"/>
-      <c r="P253" s="205"/>
-    </row>
-    <row r="254" spans="2:16" ht="22.5">
-      <c r="B254" s="169" t="s">
+      <c r="N253" s="178"/>
+      <c r="O253" s="178"/>
+      <c r="P253" s="178"/>
+    </row>
+    <row r="254" spans="2:16" ht="21">
+      <c r="B254" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C254" s="169"/>
-      <c r="D254" s="169"/>
-      <c r="E254" s="169"/>
+      <c r="C254" s="172"/>
+      <c r="D254" s="172"/>
+      <c r="E254" s="172"/>
       <c r="F254" s="64" t="s">
         <v>113</v>
       </c>
@@ -14063,7 +14342,7 @@
       <c r="O254" s="55"/>
       <c r="P254" s="55"/>
     </row>
-    <row r="255" spans="2:16" ht="42">
+    <row r="255" spans="2:16" ht="39.6">
       <c r="B255" s="81" t="s">
         <v>122</v>
       </c>
@@ -14108,13 +14387,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="256" spans="2:16" ht="22.5">
-      <c r="B256" s="169" t="s">
+    <row r="256" spans="2:16" ht="21">
+      <c r="B256" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C256" s="169"/>
-      <c r="D256" s="169"/>
-      <c r="E256" s="169"/>
+      <c r="C256" s="172"/>
+      <c r="D256" s="172"/>
+      <c r="E256" s="172"/>
       <c r="F256" s="64" t="s">
         <v>23</v>
       </c>
@@ -14133,7 +14412,7 @@
       <c r="O256" s="67"/>
       <c r="P256" s="67"/>
     </row>
-    <row r="257" spans="2:16" ht="21">
+    <row r="257" spans="2:16" ht="19.8">
       <c r="B257" s="81" t="s">
         <v>125</v>
       </c>
@@ -14172,13 +14451,13 @@
       <c r="O257" s="81"/>
       <c r="P257" s="81"/>
     </row>
-    <row r="258" spans="2:16" ht="22.5">
-      <c r="B258" s="169" t="s">
+    <row r="258" spans="2:16" ht="21">
+      <c r="B258" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C258" s="169"/>
-      <c r="D258" s="169"/>
-      <c r="E258" s="169"/>
+      <c r="C258" s="172"/>
+      <c r="D258" s="172"/>
+      <c r="E258" s="172"/>
       <c r="F258" s="64" t="s">
         <v>21</v>
       </c>
@@ -14197,7 +14476,7 @@
       <c r="O258" s="67"/>
       <c r="P258" s="67"/>
     </row>
-    <row r="259" spans="2:16" ht="21">
+    <row r="259" spans="2:16" ht="19.8">
       <c r="B259" s="60" t="s">
         <v>127</v>
       </c>
@@ -14237,13 +14516,13 @@
       </c>
       <c r="P259" s="60"/>
     </row>
-    <row r="260" spans="2:16" ht="22.5">
-      <c r="B260" s="169" t="s">
+    <row r="260" spans="2:16" ht="21">
+      <c r="B260" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C260" s="169"/>
-      <c r="D260" s="169"/>
-      <c r="E260" s="169"/>
+      <c r="C260" s="172"/>
+      <c r="D260" s="172"/>
+      <c r="E260" s="172"/>
       <c r="F260" s="64" t="s">
         <v>21</v>
       </c>
@@ -14264,7 +14543,7 @@
       <c r="O260" s="55"/>
       <c r="P260" s="55"/>
     </row>
-    <row r="261" spans="2:16" ht="37.5">
+    <row r="261" spans="2:16" ht="34.799999999999997">
       <c r="B261" s="60" t="s">
         <v>129</v>
       </c>
@@ -14309,13 +14588,13 @@
       </c>
       <c r="P261" s="60"/>
     </row>
-    <row r="262" spans="2:16" ht="22.5">
-      <c r="B262" s="169" t="s">
+    <row r="262" spans="2:16" ht="21">
+      <c r="B262" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C262" s="169"/>
-      <c r="D262" s="169"/>
-      <c r="E262" s="169"/>
+      <c r="C262" s="172"/>
+      <c r="D262" s="172"/>
+      <c r="E262" s="172"/>
       <c r="F262" s="64" t="s">
         <v>56</v>
       </c>
@@ -14334,25 +14613,25 @@
       <c r="O262" s="55"/>
       <c r="P262" s="55"/>
     </row>
-    <row r="263" spans="2:16" ht="21">
-      <c r="B263" s="210" t="s">
+    <row r="263" spans="2:16" ht="19.8">
+      <c r="B263" s="184" t="s">
         <v>132</v>
       </c>
       <c r="C263" s="81"/>
-      <c r="D263" s="210" t="s">
+      <c r="D263" s="184" t="s">
         <v>53</v>
       </c>
-      <c r="E263" s="191">
+      <c r="E263" s="186">
         <v>45671</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G263" s="210" t="s">
+      <c r="G263" s="184" t="s">
         <v>54</v>
       </c>
       <c r="H263" s="81"/>
-      <c r="I263" s="210"/>
+      <c r="I263" s="184"/>
       <c r="J263" s="10">
         <v>7.7367000000000008</v>
       </c>
@@ -14373,17 +14652,17 @@
       </c>
       <c r="P263" s="81"/>
     </row>
-    <row r="264" spans="2:16" ht="21">
-      <c r="B264" s="212"/>
+    <row r="264" spans="2:16" ht="19.8">
+      <c r="B264" s="183"/>
       <c r="C264" s="81"/>
-      <c r="D264" s="212"/>
-      <c r="E264" s="193"/>
+      <c r="D264" s="183"/>
+      <c r="E264" s="187"/>
       <c r="F264" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G264" s="212"/>
+      <c r="G264" s="183"/>
       <c r="H264" s="81"/>
-      <c r="I264" s="212"/>
+      <c r="I264" s="183"/>
       <c r="J264" s="10">
         <v>0.67200000000000004</v>
       </c>
@@ -14400,13 +14679,13 @@
       <c r="O264" s="81"/>
       <c r="P264" s="81"/>
     </row>
-    <row r="265" spans="2:16" ht="22.5">
-      <c r="B265" s="169" t="s">
+    <row r="265" spans="2:16" ht="21">
+      <c r="B265" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C265" s="169"/>
-      <c r="D265" s="169"/>
-      <c r="E265" s="169"/>
+      <c r="C265" s="172"/>
+      <c r="D265" s="172"/>
+      <c r="E265" s="172"/>
       <c r="F265" s="64" t="s">
         <v>134</v>
       </c>
@@ -14425,29 +14704,29 @@
       <c r="O265" s="67"/>
       <c r="P265" s="67"/>
     </row>
-    <row r="266" spans="2:16" ht="42">
-      <c r="B266" s="206" t="s">
+    <row r="266" spans="2:16" ht="39.6">
+      <c r="B266" s="176" t="s">
         <v>135</v>
       </c>
-      <c r="C266" s="206">
+      <c r="C266" s="176">
         <v>13924006350</v>
       </c>
-      <c r="D266" s="206" t="s">
+      <c r="D266" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="E266" s="207">
+      <c r="E266" s="190">
         <v>45672</v>
       </c>
       <c r="F266" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G266" s="176" t="s">
+      <c r="G266" s="193" t="s">
         <v>136</v>
       </c>
       <c r="H266" s="60">
         <v>2</v>
       </c>
-      <c r="I266" s="206">
+      <c r="I266" s="176">
         <v>1478</v>
       </c>
       <c r="J266" s="63">
@@ -14463,29 +14742,29 @@
       <c r="M266" s="60">
         <v>43</v>
       </c>
-      <c r="N266" s="206" t="s">
+      <c r="N266" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="O266" s="206" t="s">
+      <c r="O266" s="176" t="s">
         <v>82</v>
       </c>
       <c r="P266" s="106" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="267" spans="2:16" ht="21">
-      <c r="B267" s="204"/>
-      <c r="C267" s="204"/>
-      <c r="D267" s="204"/>
-      <c r="E267" s="208"/>
+    <row r="267" spans="2:16" ht="19.8">
+      <c r="B267" s="177"/>
+      <c r="C267" s="177"/>
+      <c r="D267" s="177"/>
+      <c r="E267" s="191"/>
       <c r="F267" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G267" s="177"/>
+      <c r="G267" s="194"/>
       <c r="H267" s="60">
         <v>1</v>
       </c>
-      <c r="I267" s="204"/>
+      <c r="I267" s="177"/>
       <c r="J267" s="63">
         <f t="shared" ref="J267:J273" si="1">K267*L267*M267/1000000</f>
         <v>2.494008</v>
@@ -14499,23 +14778,23 @@
       <c r="M267" s="60">
         <v>188</v>
       </c>
-      <c r="N267" s="204"/>
-      <c r="O267" s="204"/>
+      <c r="N267" s="177"/>
+      <c r="O267" s="177"/>
       <c r="P267" s="130"/>
     </row>
-    <row r="268" spans="2:16" ht="21">
-      <c r="B268" s="204"/>
-      <c r="C268" s="204"/>
-      <c r="D268" s="204"/>
-      <c r="E268" s="208"/>
+    <row r="268" spans="2:16" ht="19.8">
+      <c r="B268" s="177"/>
+      <c r="C268" s="177"/>
+      <c r="D268" s="177"/>
+      <c r="E268" s="191"/>
       <c r="F268" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G268" s="177"/>
+      <c r="G268" s="194"/>
       <c r="H268" s="60">
         <v>1</v>
       </c>
-      <c r="I268" s="204"/>
+      <c r="I268" s="177"/>
       <c r="J268" s="63">
         <f t="shared" si="1"/>
         <v>2.4490620000000001</v>
@@ -14529,23 +14808,23 @@
       <c r="M268" s="60">
         <v>133</v>
       </c>
-      <c r="N268" s="204"/>
-      <c r="O268" s="204"/>
+      <c r="N268" s="177"/>
+      <c r="O268" s="177"/>
       <c r="P268" s="130"/>
     </row>
-    <row r="269" spans="2:16" ht="21">
-      <c r="B269" s="204"/>
-      <c r="C269" s="204"/>
-      <c r="D269" s="204"/>
-      <c r="E269" s="208"/>
+    <row r="269" spans="2:16" ht="19.8">
+      <c r="B269" s="177"/>
+      <c r="C269" s="177"/>
+      <c r="D269" s="177"/>
+      <c r="E269" s="191"/>
       <c r="F269" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G269" s="177"/>
+      <c r="G269" s="194"/>
       <c r="H269" s="60">
         <v>1</v>
       </c>
-      <c r="I269" s="204"/>
+      <c r="I269" s="177"/>
       <c r="J269" s="63">
         <f t="shared" si="1"/>
         <v>0.10374</v>
@@ -14559,23 +14838,23 @@
       <c r="M269" s="60">
         <v>15</v>
       </c>
-      <c r="N269" s="204"/>
-      <c r="O269" s="204"/>
+      <c r="N269" s="177"/>
+      <c r="O269" s="177"/>
       <c r="P269" s="130"/>
     </row>
-    <row r="270" spans="2:16" ht="21">
-      <c r="B270" s="204"/>
-      <c r="C270" s="204"/>
-      <c r="D270" s="204"/>
-      <c r="E270" s="208"/>
+    <row r="270" spans="2:16" ht="19.8">
+      <c r="B270" s="177"/>
+      <c r="C270" s="177"/>
+      <c r="D270" s="177"/>
+      <c r="E270" s="191"/>
       <c r="F270" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G270" s="177"/>
+      <c r="G270" s="194"/>
       <c r="H270" s="60">
         <v>1</v>
       </c>
-      <c r="I270" s="204"/>
+      <c r="I270" s="177"/>
       <c r="J270" s="63">
         <f t="shared" si="1"/>
         <v>1.81044</v>
@@ -14589,23 +14868,23 @@
       <c r="M270" s="60">
         <v>188</v>
       </c>
-      <c r="N270" s="204"/>
-      <c r="O270" s="204"/>
+      <c r="N270" s="177"/>
+      <c r="O270" s="177"/>
       <c r="P270" s="130"/>
     </row>
-    <row r="271" spans="2:16" ht="21">
-      <c r="B271" s="204"/>
-      <c r="C271" s="204"/>
-      <c r="D271" s="204"/>
-      <c r="E271" s="208"/>
+    <row r="271" spans="2:16" ht="19.8">
+      <c r="B271" s="177"/>
+      <c r="C271" s="177"/>
+      <c r="D271" s="177"/>
+      <c r="E271" s="191"/>
       <c r="F271" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G271" s="177"/>
+      <c r="G271" s="194"/>
       <c r="H271" s="60">
         <v>1</v>
       </c>
-      <c r="I271" s="204"/>
+      <c r="I271" s="177"/>
       <c r="J271" s="63">
         <f t="shared" si="1"/>
         <v>1.7482500000000001</v>
@@ -14619,23 +14898,23 @@
       <c r="M271" s="60">
         <v>175</v>
       </c>
-      <c r="N271" s="204"/>
-      <c r="O271" s="204"/>
+      <c r="N271" s="177"/>
+      <c r="O271" s="177"/>
       <c r="P271" s="130"/>
     </row>
-    <row r="272" spans="2:16" ht="21">
-      <c r="B272" s="204"/>
-      <c r="C272" s="204"/>
-      <c r="D272" s="204"/>
-      <c r="E272" s="208"/>
+    <row r="272" spans="2:16" ht="19.8">
+      <c r="B272" s="177"/>
+      <c r="C272" s="177"/>
+      <c r="D272" s="177"/>
+      <c r="E272" s="191"/>
       <c r="F272" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G272" s="177"/>
+      <c r="G272" s="194"/>
       <c r="H272" s="60">
         <v>1</v>
       </c>
-      <c r="I272" s="204"/>
+      <c r="I272" s="177"/>
       <c r="J272" s="63">
         <f t="shared" si="1"/>
         <v>1.2261599999999999</v>
@@ -14649,23 +14928,23 @@
       <c r="M272" s="60">
         <v>117</v>
       </c>
-      <c r="N272" s="204"/>
-      <c r="O272" s="204"/>
+      <c r="N272" s="177"/>
+      <c r="O272" s="177"/>
       <c r="P272" s="130"/>
     </row>
-    <row r="273" spans="2:16" ht="21">
-      <c r="B273" s="205"/>
-      <c r="C273" s="205"/>
-      <c r="D273" s="205"/>
-      <c r="E273" s="209"/>
+    <row r="273" spans="2:16" ht="19.8">
+      <c r="B273" s="178"/>
+      <c r="C273" s="178"/>
+      <c r="D273" s="178"/>
+      <c r="E273" s="192"/>
       <c r="F273" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G273" s="178"/>
+      <c r="G273" s="195"/>
       <c r="H273" s="60">
         <v>1</v>
       </c>
-      <c r="I273" s="205"/>
+      <c r="I273" s="178"/>
       <c r="J273" s="63">
         <f t="shared" si="1"/>
         <v>2.0717599999999998</v>
@@ -14679,17 +14958,17 @@
       <c r="M273" s="60">
         <v>188</v>
       </c>
-      <c r="N273" s="205"/>
-      <c r="O273" s="205"/>
+      <c r="N273" s="178"/>
+      <c r="O273" s="178"/>
       <c r="P273" s="131"/>
     </row>
-    <row r="274" spans="2:16" ht="22.5">
-      <c r="B274" s="169" t="s">
+    <row r="274" spans="2:16" ht="21">
+      <c r="B274" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C274" s="169"/>
-      <c r="D274" s="169"/>
-      <c r="E274" s="169"/>
+      <c r="C274" s="172"/>
+      <c r="D274" s="172"/>
+      <c r="E274" s="172"/>
       <c r="F274" s="64" t="s">
         <v>22</v>
       </c>
@@ -14710,7 +14989,7 @@
       <c r="O274" s="132"/>
       <c r="P274" s="132"/>
     </row>
-    <row r="275" spans="2:16" ht="37.5">
+    <row r="275" spans="2:16" ht="34.799999999999997">
       <c r="B275" s="112" t="s">
         <v>179</v>
       </c>
@@ -14751,13 +15030,13 @@
       <c r="O275" s="81"/>
       <c r="P275" s="81"/>
     </row>
-    <row r="276" spans="2:16" ht="22.5">
-      <c r="B276" s="169" t="s">
+    <row r="276" spans="2:16" ht="21">
+      <c r="B276" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C276" s="169"/>
-      <c r="D276" s="169"/>
-      <c r="E276" s="169"/>
+      <c r="C276" s="172"/>
+      <c r="D276" s="172"/>
+      <c r="E276" s="172"/>
       <c r="F276" s="64" t="s">
         <v>21</v>
       </c>
@@ -14776,27 +15055,27 @@
       <c r="O276" s="67"/>
       <c r="P276" s="67"/>
     </row>
-    <row r="277" spans="2:16" ht="21">
-      <c r="B277" s="210" t="s">
+    <row r="277" spans="2:16" ht="19.8">
+      <c r="B277" s="184" t="s">
         <v>183</v>
       </c>
-      <c r="C277" s="217" t="s">
+      <c r="C277" s="188" t="s">
         <v>184</v>
       </c>
-      <c r="D277" s="210" t="s">
+      <c r="D277" s="184" t="s">
         <v>185</v>
       </c>
-      <c r="E277" s="191">
+      <c r="E277" s="186">
         <v>45674</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G277" s="213" t="s">
+      <c r="G277" s="182" t="s">
         <v>186</v>
       </c>
       <c r="H277" s="81"/>
-      <c r="I277" s="210">
+      <c r="I277" s="184">
         <v>80</v>
       </c>
       <c r="J277" s="10">
@@ -14815,17 +15094,17 @@
       <c r="O277" s="81"/>
       <c r="P277" s="81"/>
     </row>
-    <row r="278" spans="2:16" ht="21">
-      <c r="B278" s="211"/>
-      <c r="C278" s="211"/>
-      <c r="D278" s="211"/>
-      <c r="E278" s="192"/>
+    <row r="278" spans="2:16" ht="19.8">
+      <c r="B278" s="185"/>
+      <c r="C278" s="185"/>
+      <c r="D278" s="185"/>
+      <c r="E278" s="189"/>
       <c r="F278" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G278" s="211"/>
+      <c r="G278" s="185"/>
       <c r="H278" s="81"/>
-      <c r="I278" s="211"/>
+      <c r="I278" s="185"/>
       <c r="J278" s="10">
         <v>9.3149999999999997E-2</v>
       </c>
@@ -14842,17 +15121,17 @@
       <c r="O278" s="81"/>
       <c r="P278" s="81"/>
     </row>
-    <row r="279" spans="2:16" ht="21">
-      <c r="B279" s="211"/>
-      <c r="C279" s="211"/>
-      <c r="D279" s="211"/>
-      <c r="E279" s="192"/>
+    <row r="279" spans="2:16" ht="19.8">
+      <c r="B279" s="185"/>
+      <c r="C279" s="185"/>
+      <c r="D279" s="185"/>
+      <c r="E279" s="189"/>
       <c r="F279" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G279" s="211"/>
+      <c r="G279" s="185"/>
       <c r="H279" s="81"/>
-      <c r="I279" s="211"/>
+      <c r="I279" s="185"/>
       <c r="J279" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -14869,17 +15148,17 @@
       <c r="O279" s="81"/>
       <c r="P279" s="81"/>
     </row>
-    <row r="280" spans="2:16" ht="21">
-      <c r="B280" s="211"/>
-      <c r="C280" s="211"/>
-      <c r="D280" s="211"/>
-      <c r="E280" s="192"/>
+    <row r="280" spans="2:16" ht="19.8">
+      <c r="B280" s="185"/>
+      <c r="C280" s="185"/>
+      <c r="D280" s="185"/>
+      <c r="E280" s="189"/>
       <c r="F280" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G280" s="211"/>
+      <c r="G280" s="185"/>
       <c r="H280" s="81"/>
-      <c r="I280" s="211"/>
+      <c r="I280" s="185"/>
       <c r="J280" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -14896,17 +15175,17 @@
       <c r="O280" s="81"/>
       <c r="P280" s="81"/>
     </row>
-    <row r="281" spans="2:16" ht="21">
-      <c r="B281" s="212"/>
-      <c r="C281" s="212"/>
-      <c r="D281" s="212"/>
-      <c r="E281" s="193"/>
+    <row r="281" spans="2:16" ht="19.8">
+      <c r="B281" s="183"/>
+      <c r="C281" s="183"/>
+      <c r="D281" s="183"/>
+      <c r="E281" s="187"/>
       <c r="F281" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G281" s="212"/>
+      <c r="G281" s="183"/>
       <c r="H281" s="81"/>
-      <c r="I281" s="212"/>
+      <c r="I281" s="183"/>
       <c r="J281" s="10">
         <v>2.4570000000000002E-2</v>
       </c>
@@ -14923,13 +15202,13 @@
       <c r="O281" s="81"/>
       <c r="P281" s="81"/>
     </row>
-    <row r="282" spans="2:16" ht="22.5">
-      <c r="B282" s="169" t="s">
+    <row r="282" spans="2:16" ht="21">
+      <c r="B282" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C282" s="169"/>
-      <c r="D282" s="169"/>
-      <c r="E282" s="169"/>
+      <c r="C282" s="172"/>
+      <c r="D282" s="172"/>
+      <c r="E282" s="172"/>
       <c r="F282" s="64" t="s">
         <v>13</v>
       </c>
@@ -14948,7 +15227,7 @@
       <c r="O282" s="67"/>
       <c r="P282" s="67"/>
     </row>
-    <row r="283" spans="2:16" ht="75">
+    <row r="283" spans="2:16" ht="52.2">
       <c r="B283" s="60" t="s">
         <v>187</v>
       </c>
@@ -14994,13 +15273,13 @@
       </c>
       <c r="P283" s="60"/>
     </row>
-    <row r="284" spans="2:16" ht="22.5">
-      <c r="B284" s="169" t="s">
+    <row r="284" spans="2:16" ht="21">
+      <c r="B284" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C284" s="169"/>
-      <c r="D284" s="169"/>
-      <c r="E284" s="169"/>
+      <c r="C284" s="172"/>
+      <c r="D284" s="172"/>
+      <c r="E284" s="172"/>
       <c r="F284" s="64" t="s">
         <v>21</v>
       </c>
@@ -15021,30 +15300,30 @@
       <c r="O284" s="55"/>
       <c r="P284" s="55"/>
     </row>
-    <row r="285" spans="2:16" ht="21">
-      <c r="B285" s="210" t="s">
+    <row r="285" spans="2:16" ht="19.8">
+      <c r="B285" s="184" t="s">
         <v>191</v>
       </c>
-      <c r="C285" s="210" t="s">
+      <c r="C285" s="184" t="s">
         <v>192</v>
       </c>
-      <c r="D285" s="210" t="s">
+      <c r="D285" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="E285" s="191">
+      <c r="E285" s="186">
         <v>45675</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G285" s="210" t="s">
+      <c r="G285" s="184" t="s">
         <v>193</v>
       </c>
       <c r="H285" s="81">
         <f>247*2</f>
         <v>494</v>
       </c>
-      <c r="I285" s="210">
+      <c r="I285" s="184">
         <v>1907</v>
       </c>
       <c r="J285" s="10">
@@ -15064,20 +15343,20 @@
       <c r="O285" s="81"/>
       <c r="P285" s="81"/>
     </row>
-    <row r="286" spans="2:16" ht="21">
-      <c r="B286" s="211"/>
-      <c r="C286" s="211"/>
-      <c r="D286" s="211"/>
-      <c r="E286" s="192"/>
+    <row r="286" spans="2:16" ht="19.8">
+      <c r="B286" s="185"/>
+      <c r="C286" s="185"/>
+      <c r="D286" s="185"/>
+      <c r="E286" s="189"/>
       <c r="F286" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G286" s="211"/>
+      <c r="G286" s="185"/>
       <c r="H286" s="81">
         <f>247*5</f>
         <v>1235</v>
       </c>
-      <c r="I286" s="211"/>
+      <c r="I286" s="185"/>
       <c r="J286" s="10">
         <f>K286*L286*M286/1000000*5</f>
         <v>0.30887999999999999</v>
@@ -15095,20 +15374,20 @@
       <c r="O286" s="81"/>
       <c r="P286" s="81"/>
     </row>
-    <row r="287" spans="2:16" ht="21">
-      <c r="B287" s="211"/>
-      <c r="C287" s="211"/>
-      <c r="D287" s="211"/>
-      <c r="E287" s="192"/>
+    <row r="287" spans="2:16" ht="19.8">
+      <c r="B287" s="185"/>
+      <c r="C287" s="185"/>
+      <c r="D287" s="185"/>
+      <c r="E287" s="189"/>
       <c r="F287" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G287" s="211"/>
+      <c r="G287" s="185"/>
       <c r="H287" s="81">
         <f>248*4</f>
         <v>992</v>
       </c>
-      <c r="I287" s="211"/>
+      <c r="I287" s="185"/>
       <c r="J287" s="10">
         <f>K287*L287*M287/1000000*4</f>
         <v>6.0720000000000003E-2</v>
@@ -15126,20 +15405,20 @@
       <c r="O287" s="81"/>
       <c r="P287" s="81"/>
     </row>
-    <row r="288" spans="2:16" ht="21">
-      <c r="B288" s="211"/>
-      <c r="C288" s="211"/>
-      <c r="D288" s="211"/>
-      <c r="E288" s="192"/>
+    <row r="288" spans="2:16" ht="19.8">
+      <c r="B288" s="185"/>
+      <c r="C288" s="185"/>
+      <c r="D288" s="185"/>
+      <c r="E288" s="189"/>
       <c r="F288" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G288" s="211"/>
+      <c r="G288" s="185"/>
       <c r="H288" s="81">
         <f>247*25</f>
         <v>6175</v>
       </c>
-      <c r="I288" s="211"/>
+      <c r="I288" s="185"/>
       <c r="J288" s="10">
         <f>K288*L288*M288/1000000*25</f>
         <v>0.39899999999999997</v>
@@ -15157,20 +15436,20 @@
       <c r="O288" s="81"/>
       <c r="P288" s="81"/>
     </row>
-    <row r="289" spans="2:18" ht="21">
-      <c r="B289" s="211"/>
-      <c r="C289" s="211"/>
-      <c r="D289" s="211"/>
-      <c r="E289" s="192"/>
+    <row r="289" spans="2:18" ht="19.8">
+      <c r="B289" s="185"/>
+      <c r="C289" s="185"/>
+      <c r="D289" s="185"/>
+      <c r="E289" s="189"/>
       <c r="F289" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G289" s="211"/>
+      <c r="G289" s="185"/>
       <c r="H289" s="81">
         <f>247*10</f>
         <v>2470</v>
       </c>
-      <c r="I289" s="211"/>
+      <c r="I289" s="185"/>
       <c r="J289" s="10">
         <f>K289*L289*M289/1000000*10</f>
         <v>0.60060000000000002</v>
@@ -15188,20 +15467,20 @@
       <c r="O289" s="81"/>
       <c r="P289" s="81"/>
     </row>
-    <row r="290" spans="2:18" ht="21">
-      <c r="B290" s="211"/>
-      <c r="C290" s="211"/>
-      <c r="D290" s="211"/>
-      <c r="E290" s="192"/>
+    <row r="290" spans="2:18" ht="19.8">
+      <c r="B290" s="185"/>
+      <c r="C290" s="185"/>
+      <c r="D290" s="185"/>
+      <c r="E290" s="189"/>
       <c r="F290" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G290" s="211"/>
+      <c r="G290" s="185"/>
       <c r="H290" s="81">
         <f>248*5</f>
         <v>1240</v>
       </c>
-      <c r="I290" s="211"/>
+      <c r="I290" s="185"/>
       <c r="J290" s="10">
         <f>K290*L290*M290/1000000*5</f>
         <v>0.16355999999999998</v>
@@ -15219,20 +15498,20 @@
       <c r="O290" s="81"/>
       <c r="P290" s="81"/>
     </row>
-    <row r="291" spans="2:18" ht="21">
-      <c r="B291" s="212"/>
-      <c r="C291" s="212"/>
-      <c r="D291" s="212"/>
-      <c r="E291" s="193"/>
+    <row r="291" spans="2:18" ht="19.8">
+      <c r="B291" s="183"/>
+      <c r="C291" s="183"/>
+      <c r="D291" s="183"/>
+      <c r="E291" s="187"/>
       <c r="F291" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G291" s="212"/>
+      <c r="G291" s="183"/>
       <c r="H291" s="81">
         <f>248*15</f>
         <v>3720</v>
       </c>
-      <c r="I291" s="212"/>
+      <c r="I291" s="183"/>
       <c r="J291" s="10">
         <f>K291*L291*M291/1000000*15</f>
         <v>0.76690499999999995</v>
@@ -15250,13 +15529,13 @@
       <c r="O291" s="81"/>
       <c r="P291" s="81"/>
     </row>
-    <row r="292" spans="2:18" ht="22.5">
-      <c r="B292" s="169" t="s">
+    <row r="292" spans="2:18" ht="21">
+      <c r="B292" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C292" s="169"/>
-      <c r="D292" s="169"/>
-      <c r="E292" s="169"/>
+      <c r="C292" s="172"/>
+      <c r="D292" s="172"/>
+      <c r="E292" s="172"/>
       <c r="F292" s="64" t="s">
         <v>199</v>
       </c>
@@ -15277,30 +15556,30 @@
       <c r="O292" s="67"/>
       <c r="P292" s="67"/>
     </row>
-    <row r="293" spans="2:18" ht="21">
-      <c r="B293" s="210" t="s">
+    <row r="293" spans="2:18" ht="19.8">
+      <c r="B293" s="184" t="s">
         <v>200</v>
       </c>
-      <c r="C293" s="210" t="s">
+      <c r="C293" s="184" t="s">
         <v>201</v>
       </c>
-      <c r="D293" s="210" t="s">
+      <c r="D293" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="E293" s="191">
+      <c r="E293" s="186">
         <v>45676</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G293" s="210" t="s">
+      <c r="G293" s="184" t="s">
         <v>71</v>
       </c>
       <c r="H293" s="81">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I293" s="210">
+      <c r="I293" s="184">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -15317,30 +15596,30 @@
       <c r="M293" s="81">
         <v>29</v>
       </c>
-      <c r="N293" s="213" t="s">
+      <c r="N293" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="O293" s="213" t="s">
+      <c r="O293" s="182" t="s">
         <v>88</v>
       </c>
       <c r="P293" s="111" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="2:18" ht="21">
-      <c r="B294" s="212"/>
-      <c r="C294" s="212"/>
-      <c r="D294" s="212"/>
-      <c r="E294" s="193"/>
+    <row r="294" spans="2:18" ht="19.8">
+      <c r="B294" s="183"/>
+      <c r="C294" s="183"/>
+      <c r="D294" s="183"/>
+      <c r="E294" s="187"/>
       <c r="F294" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G294" s="212"/>
+      <c r="G294" s="183"/>
       <c r="H294" s="81">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I294" s="212"/>
+      <c r="I294" s="183"/>
       <c r="J294" s="10">
         <f>K294*L294*M294/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -15354,17 +15633,17 @@
       <c r="M294" s="81">
         <v>36</v>
       </c>
-      <c r="N294" s="212"/>
-      <c r="O294" s="212"/>
+      <c r="N294" s="183"/>
+      <c r="O294" s="183"/>
       <c r="P294" s="112"/>
     </row>
-    <row r="295" spans="2:18" ht="22.5">
-      <c r="B295" s="169" t="s">
+    <row r="295" spans="2:18" ht="21">
+      <c r="B295" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C295" s="169"/>
-      <c r="D295" s="169"/>
-      <c r="E295" s="169"/>
+      <c r="C295" s="172"/>
+      <c r="D295" s="172"/>
+      <c r="E295" s="172"/>
       <c r="F295" s="64" t="s">
         <v>202</v>
       </c>
@@ -15385,28 +15664,28 @@
       <c r="O295" s="67"/>
       <c r="P295" s="67"/>
     </row>
-    <row r="296" spans="2:18" ht="21">
-      <c r="B296" s="210" t="s">
+    <row r="296" spans="2:18" ht="19.8">
+      <c r="B296" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="C296" s="210"/>
-      <c r="D296" s="210" t="s">
+      <c r="C296" s="184"/>
+      <c r="D296" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="E296" s="191">
+      <c r="E296" s="186">
         <v>45677</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G296" s="210" t="s">
+      <c r="G296" s="184" t="s">
         <v>71</v>
       </c>
       <c r="H296" s="81">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I296" s="210">
+      <c r="I296" s="184">
         <f>25*339</f>
         <v>8475</v>
       </c>
@@ -15423,30 +15702,30 @@
       <c r="M296" s="81">
         <v>40</v>
       </c>
-      <c r="N296" s="210" t="s">
+      <c r="N296" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="O296" s="210" t="s">
+      <c r="O296" s="184" t="s">
         <v>88</v>
       </c>
       <c r="P296" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="2:18" ht="21">
-      <c r="B297" s="211"/>
-      <c r="C297" s="211"/>
-      <c r="D297" s="211"/>
-      <c r="E297" s="192"/>
+    <row r="297" spans="2:18" ht="19.8">
+      <c r="B297" s="185"/>
+      <c r="C297" s="185"/>
+      <c r="D297" s="185"/>
+      <c r="E297" s="189"/>
       <c r="F297" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="G297" s="211"/>
+      <c r="G297" s="185"/>
       <c r="H297" s="81">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I297" s="211"/>
+      <c r="I297" s="185"/>
       <c r="J297" s="10">
         <f>K297*L297*M297/1000000*16</f>
         <v>1.66656</v>
@@ -15460,26 +15739,26 @@
       <c r="M297" s="81">
         <v>28</v>
       </c>
-      <c r="N297" s="211"/>
-      <c r="O297" s="211"/>
+      <c r="N297" s="185"/>
+      <c r="O297" s="185"/>
       <c r="P297" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="2:18" ht="21">
-      <c r="B298" s="212"/>
-      <c r="C298" s="212"/>
-      <c r="D298" s="212"/>
-      <c r="E298" s="193"/>
+    <row r="298" spans="2:18" ht="19.8">
+      <c r="B298" s="183"/>
+      <c r="C298" s="183"/>
+      <c r="D298" s="183"/>
+      <c r="E298" s="187"/>
       <c r="F298" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="G298" s="212"/>
+      <c r="G298" s="183"/>
       <c r="H298" s="81">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I298" s="212"/>
+      <c r="I298" s="183"/>
       <c r="J298" s="10">
         <f>K298*L298*M298/1000000*270</f>
         <v>32.129999999999995</v>
@@ -15493,19 +15772,19 @@
       <c r="M298" s="81">
         <v>70</v>
       </c>
-      <c r="N298" s="212"/>
-      <c r="O298" s="212"/>
+      <c r="N298" s="183"/>
+      <c r="O298" s="183"/>
       <c r="P298" s="81" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="2:18" ht="22.5">
-      <c r="B299" s="169" t="s">
+    <row r="299" spans="2:18" ht="21">
+      <c r="B299" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C299" s="169"/>
-      <c r="D299" s="169"/>
-      <c r="E299" s="169"/>
+      <c r="C299" s="172"/>
+      <c r="D299" s="172"/>
+      <c r="E299" s="172"/>
       <c r="F299" s="64" t="s">
         <v>207</v>
       </c>
@@ -15526,29 +15805,29 @@
       <c r="O299" s="67"/>
       <c r="P299" s="67"/>
     </row>
-    <row r="300" spans="2:18" ht="21">
-      <c r="B300" s="210" t="s">
+    <row r="300" spans="2:18" ht="19.8">
+      <c r="B300" s="184" t="s">
         <v>208</v>
       </c>
-      <c r="C300" s="217" t="s">
+      <c r="C300" s="188" t="s">
         <v>209</v>
       </c>
-      <c r="D300" s="210" t="s">
+      <c r="D300" s="184" t="s">
         <v>210</v>
       </c>
-      <c r="E300" s="191">
+      <c r="E300" s="186">
         <v>45678</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G300" s="210" t="s">
+      <c r="G300" s="184" t="s">
         <v>32</v>
       </c>
       <c r="H300" s="81">
         <v>1</v>
       </c>
-      <c r="I300" s="210">
+      <c r="I300" s="184">
         <v>37</v>
       </c>
       <c r="J300" s="10">
@@ -15568,19 +15847,19 @@
       <c r="O300" s="81"/>
       <c r="P300" s="81"/>
     </row>
-    <row r="301" spans="2:18" ht="21">
-      <c r="B301" s="211"/>
-      <c r="C301" s="211"/>
-      <c r="D301" s="211"/>
-      <c r="E301" s="192"/>
+    <row r="301" spans="2:18" ht="19.8">
+      <c r="B301" s="185"/>
+      <c r="C301" s="185"/>
+      <c r="D301" s="185"/>
+      <c r="E301" s="189"/>
       <c r="F301" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G301" s="211"/>
+      <c r="G301" s="185"/>
       <c r="H301" s="81">
         <v>10</v>
       </c>
-      <c r="I301" s="211"/>
+      <c r="I301" s="185"/>
       <c r="J301" s="10">
         <f t="shared" si="2"/>
         <v>0.18360000000000001</v>
@@ -15599,19 +15878,19 @@
       <c r="P301" s="81"/>
       <c r="R301" s="155"/>
     </row>
-    <row r="302" spans="2:18" ht="21">
-      <c r="B302" s="211"/>
-      <c r="C302" s="211"/>
-      <c r="D302" s="211"/>
-      <c r="E302" s="192"/>
+    <row r="302" spans="2:18" ht="19.8">
+      <c r="B302" s="185"/>
+      <c r="C302" s="185"/>
+      <c r="D302" s="185"/>
+      <c r="E302" s="189"/>
       <c r="F302" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G302" s="211"/>
+      <c r="G302" s="185"/>
       <c r="H302" s="81">
         <v>10</v>
       </c>
-      <c r="I302" s="211"/>
+      <c r="I302" s="185"/>
       <c r="J302" s="10">
         <f t="shared" si="2"/>
         <v>0.18240999999999999</v>
@@ -15630,19 +15909,19 @@
       <c r="P302" s="81"/>
       <c r="R302" s="155"/>
     </row>
-    <row r="303" spans="2:18" ht="21">
-      <c r="B303" s="212"/>
-      <c r="C303" s="212"/>
-      <c r="D303" s="212"/>
-      <c r="E303" s="193"/>
+    <row r="303" spans="2:18" ht="19.8">
+      <c r="B303" s="183"/>
+      <c r="C303" s="183"/>
+      <c r="D303" s="183"/>
+      <c r="E303" s="187"/>
       <c r="F303" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G303" s="212"/>
+      <c r="G303" s="183"/>
       <c r="H303" s="81">
         <v>2</v>
       </c>
-      <c r="I303" s="212"/>
+      <c r="I303" s="183"/>
       <c r="J303" s="10">
         <f t="shared" si="2"/>
         <v>4.9919999999999999E-2</v>
@@ -15660,29 +15939,29 @@
       <c r="O303" s="81"/>
       <c r="P303" s="81"/>
     </row>
-    <row r="304" spans="2:18" ht="21">
-      <c r="B304" s="210" t="s">
+    <row r="304" spans="2:18" ht="19.8">
+      <c r="B304" s="184" t="s">
         <v>211</v>
       </c>
       <c r="C304" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="D304" s="210" t="s">
+      <c r="D304" s="184" t="s">
         <v>210</v>
       </c>
-      <c r="E304" s="191">
+      <c r="E304" s="186">
         <v>45678</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G304" s="210" t="s">
+      <c r="G304" s="184" t="s">
         <v>32</v>
       </c>
       <c r="H304" s="81">
         <v>3</v>
       </c>
-      <c r="I304" s="210">
+      <c r="I304" s="184">
         <v>20</v>
       </c>
       <c r="J304" s="10">
@@ -15702,21 +15981,21 @@
       <c r="O304" s="81"/>
       <c r="P304" s="81"/>
     </row>
-    <row r="305" spans="2:16" ht="21">
-      <c r="B305" s="211"/>
+    <row r="305" spans="2:16" ht="19.8">
+      <c r="B305" s="185"/>
       <c r="C305" s="81">
         <v>2660</v>
       </c>
-      <c r="D305" s="211"/>
-      <c r="E305" s="192"/>
+      <c r="D305" s="185"/>
+      <c r="E305" s="189"/>
       <c r="F305" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G305" s="211"/>
+      <c r="G305" s="185"/>
       <c r="H305" s="81">
         <v>10</v>
       </c>
-      <c r="I305" s="211"/>
+      <c r="I305" s="185"/>
       <c r="J305" s="10">
         <f t="shared" si="2"/>
         <v>4.2335999999999999E-2</v>
@@ -15734,21 +16013,21 @@
       <c r="O305" s="81"/>
       <c r="P305" s="81"/>
     </row>
-    <row r="306" spans="2:16" ht="21">
-      <c r="B306" s="212"/>
+    <row r="306" spans="2:16" ht="19.8">
+      <c r="B306" s="183"/>
       <c r="C306" s="81">
         <v>2461</v>
       </c>
-      <c r="D306" s="212"/>
-      <c r="E306" s="193"/>
+      <c r="D306" s="183"/>
+      <c r="E306" s="187"/>
       <c r="F306" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G306" s="212"/>
+      <c r="G306" s="183"/>
       <c r="H306" s="81">
         <v>130</v>
       </c>
-      <c r="I306" s="212"/>
+      <c r="I306" s="183"/>
       <c r="J306" s="10">
         <f t="shared" si="2"/>
         <v>0.1176</v>
@@ -15766,13 +16045,13 @@
       <c r="O306" s="81"/>
       <c r="P306" s="81"/>
     </row>
-    <row r="307" spans="2:16" ht="22.5">
-      <c r="B307" s="169" t="s">
+    <row r="307" spans="2:16" ht="21">
+      <c r="B307" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C307" s="169"/>
-      <c r="D307" s="169"/>
-      <c r="E307" s="169"/>
+      <c r="C307" s="172"/>
+      <c r="D307" s="172"/>
+      <c r="E307" s="172"/>
       <c r="F307" s="64" t="s">
         <v>31</v>
       </c>
@@ -15793,7 +16072,7 @@
       <c r="O307" s="67"/>
       <c r="P307" s="67"/>
     </row>
-    <row r="308" spans="2:16" ht="21">
+    <row r="308" spans="2:16" ht="19.8">
       <c r="B308" s="94" t="s">
         <v>480</v>
       </c>
@@ -15838,13 +16117,13 @@
       </c>
       <c r="P308" s="94"/>
     </row>
-    <row r="309" spans="2:16" ht="22.5">
-      <c r="B309" s="169" t="s">
+    <row r="309" spans="2:16" ht="21">
+      <c r="B309" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C309" s="169"/>
-      <c r="D309" s="169"/>
-      <c r="E309" s="169"/>
+      <c r="C309" s="172"/>
+      <c r="D309" s="172"/>
+      <c r="E309" s="172"/>
       <c r="F309" s="158" t="s">
         <v>30</v>
       </c>
@@ -15863,14 +16142,14 @@
       <c r="O309" s="97"/>
       <c r="P309" s="97"/>
     </row>
-    <row r="310" spans="2:16" ht="21">
-      <c r="B310" s="170" t="s">
+    <row r="310" spans="2:16" ht="19.8">
+      <c r="B310" s="169" t="s">
         <v>485</v>
       </c>
-      <c r="C310" s="170" t="s">
+      <c r="C310" s="169" t="s">
         <v>486</v>
       </c>
-      <c r="D310" s="170" t="s">
+      <c r="D310" s="169" t="s">
         <v>74</v>
       </c>
       <c r="E310" s="173">
@@ -15879,13 +16158,13 @@
       <c r="F310" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G310" s="170" t="s">
+      <c r="G310" s="169" t="s">
         <v>487</v>
       </c>
       <c r="H310" s="94">
         <v>65</v>
       </c>
-      <c r="I310" s="170">
+      <c r="I310" s="169">
         <v>2065</v>
       </c>
       <c r="J310" s="95">
@@ -15900,27 +16179,27 @@
       <c r="M310" s="94">
         <v>171</v>
       </c>
-      <c r="N310" s="170" t="s">
+      <c r="N310" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="O310" s="170" t="s">
+      <c r="O310" s="169" t="s">
         <v>82</v>
       </c>
       <c r="P310" s="94"/>
     </row>
-    <row r="311" spans="2:16" ht="21">
-      <c r="B311" s="171"/>
-      <c r="C311" s="171"/>
-      <c r="D311" s="171"/>
+    <row r="311" spans="2:16" ht="19.8">
+      <c r="B311" s="170"/>
+      <c r="C311" s="170"/>
+      <c r="D311" s="170"/>
       <c r="E311" s="174"/>
       <c r="F311" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="G311" s="172"/>
+      <c r="G311" s="171"/>
       <c r="H311" s="94">
         <v>65</v>
       </c>
-      <c r="I311" s="171"/>
+      <c r="I311" s="170"/>
       <c r="J311" s="95">
         <v>2.8498800000000002</v>
       </c>
@@ -15933,14 +16212,14 @@
       <c r="M311" s="94">
         <v>110</v>
       </c>
-      <c r="N311" s="171"/>
-      <c r="O311" s="171"/>
+      <c r="N311" s="170"/>
+      <c r="O311" s="170"/>
       <c r="P311" s="94"/>
     </row>
-    <row r="312" spans="2:16" ht="42">
-      <c r="B312" s="172"/>
-      <c r="C312" s="172"/>
-      <c r="D312" s="172"/>
+    <row r="312" spans="2:16" ht="39.6">
+      <c r="B312" s="171"/>
+      <c r="C312" s="171"/>
+      <c r="D312" s="171"/>
       <c r="E312" s="175"/>
       <c r="F312" s="93" t="s">
         <v>488</v>
@@ -15951,7 +16230,7 @@
       <c r="H312" s="94">
         <v>180</v>
       </c>
-      <c r="I312" s="172"/>
+      <c r="I312" s="171"/>
       <c r="J312" s="95">
         <v>4.4021999999999997</v>
       </c>
@@ -15964,17 +16243,17 @@
       <c r="M312" s="94">
         <v>165</v>
       </c>
-      <c r="N312" s="172"/>
-      <c r="O312" s="172"/>
+      <c r="N312" s="171"/>
+      <c r="O312" s="171"/>
       <c r="P312" s="94"/>
     </row>
-    <row r="313" spans="2:16" ht="22.5">
-      <c r="B313" s="169" t="s">
+    <row r="313" spans="2:16" ht="21">
+      <c r="B313" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C313" s="169"/>
-      <c r="D313" s="169"/>
-      <c r="E313" s="169"/>
+      <c r="C313" s="172"/>
+      <c r="D313" s="172"/>
+      <c r="E313" s="172"/>
       <c r="F313" s="158" t="s">
         <v>25</v>
       </c>
@@ -15993,7 +16272,7 @@
       <c r="O313" s="96"/>
       <c r="P313" s="97"/>
     </row>
-    <row r="314" spans="2:16" ht="42">
+    <row r="314" spans="2:16" ht="19.8">
       <c r="B314" s="90" t="s">
         <v>490</v>
       </c>
@@ -16034,13 +16313,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="315" spans="2:16" ht="22.5">
-      <c r="B315" s="169" t="s">
+    <row r="315" spans="2:16" ht="21">
+      <c r="B315" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C315" s="169"/>
-      <c r="D315" s="169"/>
-      <c r="E315" s="169"/>
+      <c r="C315" s="172"/>
+      <c r="D315" s="172"/>
+      <c r="E315" s="172"/>
       <c r="F315" s="158" t="s">
         <v>15</v>
       </c>
@@ -16059,7 +16338,7 @@
       <c r="O315" s="92"/>
       <c r="P315" s="92"/>
     </row>
-    <row r="316" spans="2:16" ht="42">
+    <row r="316" spans="2:16" ht="39.6">
       <c r="B316" s="164" t="s">
         <v>493</v>
       </c>
@@ -16100,13 +16379,13 @@
         <v>497</v>
       </c>
     </row>
-    <row r="317" spans="2:16" ht="22.5">
-      <c r="B317" s="169" t="s">
+    <row r="317" spans="2:16" ht="21">
+      <c r="B317" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C317" s="169"/>
-      <c r="D317" s="169"/>
-      <c r="E317" s="169"/>
+      <c r="C317" s="172"/>
+      <c r="D317" s="172"/>
+      <c r="E317" s="172"/>
       <c r="F317" s="158" t="s">
         <v>21</v>
       </c>
@@ -16127,7 +16406,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="318" spans="2:16" ht="42">
+    <row r="318" spans="2:16" ht="39.6">
       <c r="B318" s="90" t="s">
         <v>520</v>
       </c>
@@ -16174,13 +16453,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="2:16" ht="22.5">
-      <c r="B319" s="169" t="s">
+    <row r="319" spans="2:16" ht="21">
+      <c r="B319" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C319" s="169"/>
-      <c r="D319" s="169"/>
-      <c r="E319" s="169"/>
+      <c r="C319" s="172"/>
+      <c r="D319" s="172"/>
+      <c r="E319" s="172"/>
       <c r="F319" s="158" t="s">
         <v>523</v>
       </c>
@@ -16199,7 +16478,7 @@
       <c r="O319" s="92"/>
       <c r="P319" s="92"/>
     </row>
-    <row r="320" spans="2:16" ht="21">
+    <row r="320" spans="2:16" ht="19.8">
       <c r="B320" s="90" t="s">
         <v>524</v>
       </c>
@@ -16240,13 +16519,13 @@
       <c r="O320" s="54"/>
       <c r="P320" s="90"/>
     </row>
-    <row r="321" spans="2:16" ht="22.5">
-      <c r="B321" s="169" t="s">
+    <row r="321" spans="2:16" ht="21">
+      <c r="B321" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C321" s="169"/>
-      <c r="D321" s="169"/>
-      <c r="E321" s="169"/>
+      <c r="C321" s="172"/>
+      <c r="D321" s="172"/>
+      <c r="E321" s="172"/>
       <c r="F321" s="158" t="s">
         <v>19</v>
       </c>
@@ -16267,158 +16546,78 @@
     </row>
   </sheetData>
   <mergeCells count="251">
-    <mergeCell ref="I310:I312"/>
-    <mergeCell ref="N310:N312"/>
-    <mergeCell ref="O310:O312"/>
-    <mergeCell ref="B313:E313"/>
-    <mergeCell ref="B315:E315"/>
-    <mergeCell ref="B317:E317"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B310:B312"/>
-    <mergeCell ref="C310:C312"/>
-    <mergeCell ref="D310:D312"/>
-    <mergeCell ref="E310:E312"/>
-    <mergeCell ref="G310:G311"/>
-    <mergeCell ref="N266:N273"/>
-    <mergeCell ref="O266:O273"/>
-    <mergeCell ref="B274:E274"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="N293:N294"/>
-    <mergeCell ref="O293:O294"/>
-    <mergeCell ref="B295:E295"/>
-    <mergeCell ref="G285:G291"/>
-    <mergeCell ref="I285:I291"/>
-    <mergeCell ref="B292:E292"/>
-    <mergeCell ref="B293:B294"/>
-    <mergeCell ref="C293:C294"/>
-    <mergeCell ref="D293:D294"/>
-    <mergeCell ref="E293:E294"/>
-    <mergeCell ref="G293:G294"/>
-    <mergeCell ref="I293:I294"/>
-    <mergeCell ref="B285:B291"/>
-    <mergeCell ref="B307:E307"/>
-    <mergeCell ref="O296:O298"/>
-    <mergeCell ref="B299:E299"/>
-    <mergeCell ref="B300:B303"/>
-    <mergeCell ref="C300:C303"/>
-    <mergeCell ref="D300:D303"/>
-    <mergeCell ref="E300:E303"/>
-    <mergeCell ref="G300:G303"/>
-    <mergeCell ref="I300:I303"/>
-    <mergeCell ref="B296:B298"/>
-    <mergeCell ref="C296:C298"/>
-    <mergeCell ref="D296:D298"/>
-    <mergeCell ref="E296:E298"/>
-    <mergeCell ref="G296:G298"/>
-    <mergeCell ref="I296:I298"/>
-    <mergeCell ref="N296:N298"/>
-    <mergeCell ref="B304:B306"/>
-    <mergeCell ref="D304:D306"/>
-    <mergeCell ref="E304:E306"/>
-    <mergeCell ref="G304:G306"/>
-    <mergeCell ref="I304:I306"/>
-    <mergeCell ref="G277:G281"/>
-    <mergeCell ref="I277:I281"/>
-    <mergeCell ref="B265:E265"/>
-    <mergeCell ref="B266:B273"/>
-    <mergeCell ref="C266:C273"/>
-    <mergeCell ref="D266:D273"/>
-    <mergeCell ref="E266:E273"/>
-    <mergeCell ref="G266:G273"/>
-    <mergeCell ref="I266:I273"/>
-    <mergeCell ref="C285:C291"/>
-    <mergeCell ref="D285:D291"/>
-    <mergeCell ref="E285:E291"/>
-    <mergeCell ref="B258:E258"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B263:B264"/>
-    <mergeCell ref="D263:D264"/>
-    <mergeCell ref="E263:E264"/>
-    <mergeCell ref="B276:E276"/>
-    <mergeCell ref="B277:B281"/>
-    <mergeCell ref="C277:C281"/>
-    <mergeCell ref="D277:D281"/>
-    <mergeCell ref="E277:E281"/>
-    <mergeCell ref="B282:E282"/>
-    <mergeCell ref="B284:E284"/>
-    <mergeCell ref="I251:I253"/>
-    <mergeCell ref="N251:N253"/>
-    <mergeCell ref="O251:O253"/>
-    <mergeCell ref="G263:G264"/>
-    <mergeCell ref="I263:I264"/>
-    <mergeCell ref="P251:P253"/>
-    <mergeCell ref="B254:E254"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="I244:I249"/>
-    <mergeCell ref="N244:N249"/>
-    <mergeCell ref="O244:O249"/>
-    <mergeCell ref="P244:P249"/>
-    <mergeCell ref="B250:E250"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="G251:G253"/>
-    <mergeCell ref="D244:D249"/>
-    <mergeCell ref="E244:E249"/>
-    <mergeCell ref="G244:G245"/>
-    <mergeCell ref="N226:N238"/>
-    <mergeCell ref="O226:O238"/>
-    <mergeCell ref="P226:P238"/>
-    <mergeCell ref="G229:G234"/>
-    <mergeCell ref="B239:E239"/>
-    <mergeCell ref="B241:E241"/>
-    <mergeCell ref="B226:B238"/>
-    <mergeCell ref="C226:C238"/>
-    <mergeCell ref="D226:D238"/>
-    <mergeCell ref="E226:E238"/>
-    <mergeCell ref="G226:G228"/>
-    <mergeCell ref="I226:I238"/>
-    <mergeCell ref="P209:P210"/>
-    <mergeCell ref="B211:E211"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="O201:O205"/>
-    <mergeCell ref="P201:P205"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="B206:E206"/>
-    <mergeCell ref="B208:E208"/>
-    <mergeCell ref="B209:B210"/>
-    <mergeCell ref="C209:C210"/>
-    <mergeCell ref="D209:D210"/>
-    <mergeCell ref="E209:E210"/>
-    <mergeCell ref="G209:G210"/>
-    <mergeCell ref="I209:I210"/>
-    <mergeCell ref="N209:N210"/>
-    <mergeCell ref="O209:O210"/>
-    <mergeCell ref="P191:P195"/>
-    <mergeCell ref="B196:E196"/>
-    <mergeCell ref="B198:E198"/>
-    <mergeCell ref="B190:E190"/>
-    <mergeCell ref="B191:B195"/>
-    <mergeCell ref="C191:C195"/>
-    <mergeCell ref="D191:D195"/>
-    <mergeCell ref="E191:E195"/>
-    <mergeCell ref="G191:G194"/>
-    <mergeCell ref="I191:I195"/>
-    <mergeCell ref="N191:N195"/>
-    <mergeCell ref="O191:O195"/>
-    <mergeCell ref="P180:P183"/>
-    <mergeCell ref="B184:E184"/>
-    <mergeCell ref="B186:E186"/>
-    <mergeCell ref="B188:E188"/>
-    <mergeCell ref="B179:E179"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="C180:C183"/>
-    <mergeCell ref="D180:D183"/>
-    <mergeCell ref="E180:E183"/>
-    <mergeCell ref="I180:I183"/>
+    <mergeCell ref="B321:E321"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="G136:G142"/>
+    <mergeCell ref="H136:H142"/>
+    <mergeCell ref="O136:O142"/>
+    <mergeCell ref="B319:E319"/>
+    <mergeCell ref="B200:E200"/>
+    <mergeCell ref="B201:B205"/>
+    <mergeCell ref="C201:C205"/>
+    <mergeCell ref="D201:D205"/>
+    <mergeCell ref="E201:E205"/>
+    <mergeCell ref="N201:N205"/>
+    <mergeCell ref="B215:E215"/>
+    <mergeCell ref="B217:E217"/>
+    <mergeCell ref="B219:E219"/>
+    <mergeCell ref="B221:E221"/>
+    <mergeCell ref="B223:E223"/>
+    <mergeCell ref="B225:E225"/>
+    <mergeCell ref="B243:E243"/>
+    <mergeCell ref="B244:B249"/>
+    <mergeCell ref="C244:C249"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="G131:G134"/>
+    <mergeCell ref="H131:H134"/>
+    <mergeCell ref="N131:N134"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="O55:O56"/>
     <mergeCell ref="O60:O61"/>
     <mergeCell ref="O87:O89"/>
     <mergeCell ref="B88:B89"/>
@@ -16443,81 +16642,161 @@
     <mergeCell ref="D75:D85"/>
     <mergeCell ref="E75:E85"/>
     <mergeCell ref="G75:G85"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="P180:P183"/>
+    <mergeCell ref="B184:E184"/>
+    <mergeCell ref="B186:E186"/>
+    <mergeCell ref="B188:E188"/>
+    <mergeCell ref="B179:E179"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="C180:C183"/>
+    <mergeCell ref="D180:D183"/>
+    <mergeCell ref="E180:E183"/>
+    <mergeCell ref="I180:I183"/>
+    <mergeCell ref="P191:P195"/>
+    <mergeCell ref="B196:E196"/>
+    <mergeCell ref="B198:E198"/>
+    <mergeCell ref="B190:E190"/>
+    <mergeCell ref="B191:B195"/>
+    <mergeCell ref="C191:C195"/>
+    <mergeCell ref="D191:D195"/>
+    <mergeCell ref="E191:E195"/>
+    <mergeCell ref="G191:G194"/>
+    <mergeCell ref="I191:I195"/>
+    <mergeCell ref="N191:N195"/>
+    <mergeCell ref="O191:O195"/>
+    <mergeCell ref="P209:P210"/>
+    <mergeCell ref="B211:E211"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="O201:O205"/>
+    <mergeCell ref="P201:P205"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="B206:E206"/>
+    <mergeCell ref="B208:E208"/>
+    <mergeCell ref="B209:B210"/>
+    <mergeCell ref="C209:C210"/>
+    <mergeCell ref="D209:D210"/>
+    <mergeCell ref="E209:E210"/>
+    <mergeCell ref="G209:G210"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="N209:N210"/>
+    <mergeCell ref="O209:O210"/>
+    <mergeCell ref="P226:P238"/>
+    <mergeCell ref="G229:G234"/>
+    <mergeCell ref="B239:E239"/>
+    <mergeCell ref="B241:E241"/>
+    <mergeCell ref="B226:B238"/>
+    <mergeCell ref="C226:C238"/>
+    <mergeCell ref="D226:D238"/>
+    <mergeCell ref="E226:E238"/>
+    <mergeCell ref="G226:G228"/>
+    <mergeCell ref="I226:I238"/>
+    <mergeCell ref="P244:P249"/>
+    <mergeCell ref="B250:E250"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="G251:G253"/>
+    <mergeCell ref="D244:D249"/>
+    <mergeCell ref="E244:E249"/>
+    <mergeCell ref="G244:G245"/>
+    <mergeCell ref="B282:E282"/>
+    <mergeCell ref="B284:E284"/>
+    <mergeCell ref="I251:I253"/>
+    <mergeCell ref="N251:N253"/>
+    <mergeCell ref="O251:O253"/>
+    <mergeCell ref="G263:G264"/>
+    <mergeCell ref="I263:I264"/>
+    <mergeCell ref="P251:P253"/>
+    <mergeCell ref="B254:E254"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="G277:G281"/>
+    <mergeCell ref="I277:I281"/>
+    <mergeCell ref="B265:E265"/>
+    <mergeCell ref="B266:B273"/>
+    <mergeCell ref="C266:C273"/>
+    <mergeCell ref="D266:D273"/>
+    <mergeCell ref="E266:E273"/>
+    <mergeCell ref="G266:G273"/>
+    <mergeCell ref="I266:I273"/>
+    <mergeCell ref="B276:E276"/>
+    <mergeCell ref="B277:B281"/>
+    <mergeCell ref="C277:C281"/>
+    <mergeCell ref="D277:D281"/>
+    <mergeCell ref="E277:E281"/>
+    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="O296:O298"/>
+    <mergeCell ref="B299:E299"/>
+    <mergeCell ref="B300:B303"/>
+    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="D300:D303"/>
+    <mergeCell ref="E300:E303"/>
+    <mergeCell ref="G300:G303"/>
+    <mergeCell ref="I300:I303"/>
+    <mergeCell ref="B296:B298"/>
+    <mergeCell ref="C296:C298"/>
+    <mergeCell ref="D296:D298"/>
+    <mergeCell ref="E296:E298"/>
+    <mergeCell ref="G296:G298"/>
+    <mergeCell ref="I296:I298"/>
+    <mergeCell ref="N296:N298"/>
+    <mergeCell ref="B304:B306"/>
+    <mergeCell ref="D304:D306"/>
+    <mergeCell ref="E304:E306"/>
+    <mergeCell ref="G304:G306"/>
+    <mergeCell ref="I304:I306"/>
+    <mergeCell ref="N293:N294"/>
+    <mergeCell ref="O293:O294"/>
+    <mergeCell ref="B295:E295"/>
+    <mergeCell ref="G285:G291"/>
+    <mergeCell ref="I285:I291"/>
+    <mergeCell ref="B292:E292"/>
+    <mergeCell ref="B293:B294"/>
+    <mergeCell ref="C293:C294"/>
+    <mergeCell ref="D293:D294"/>
+    <mergeCell ref="E293:E294"/>
+    <mergeCell ref="G293:G294"/>
+    <mergeCell ref="I293:I294"/>
+    <mergeCell ref="B285:B291"/>
+    <mergeCell ref="C285:C291"/>
+    <mergeCell ref="D285:D291"/>
+    <mergeCell ref="E285:E291"/>
+    <mergeCell ref="N266:N273"/>
+    <mergeCell ref="O266:O273"/>
+    <mergeCell ref="B274:E274"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="B258:E258"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B263:B264"/>
+    <mergeCell ref="D263:D264"/>
+    <mergeCell ref="E263:E264"/>
+    <mergeCell ref="I244:I249"/>
+    <mergeCell ref="N244:N249"/>
+    <mergeCell ref="O244:O249"/>
+    <mergeCell ref="N226:N238"/>
+    <mergeCell ref="O226:O238"/>
     <mergeCell ref="B131:B134"/>
     <mergeCell ref="C131:C134"/>
     <mergeCell ref="D131:D134"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="G131:G134"/>
-    <mergeCell ref="H131:H134"/>
-    <mergeCell ref="N131:N134"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="B321:E321"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="C136:C142"/>
-    <mergeCell ref="D136:D142"/>
-    <mergeCell ref="E136:E142"/>
-    <mergeCell ref="G136:G142"/>
-    <mergeCell ref="H136:H142"/>
-    <mergeCell ref="O136:O142"/>
-    <mergeCell ref="B319:E319"/>
-    <mergeCell ref="B200:E200"/>
-    <mergeCell ref="B201:B205"/>
-    <mergeCell ref="C201:C205"/>
-    <mergeCell ref="D201:D205"/>
-    <mergeCell ref="E201:E205"/>
-    <mergeCell ref="N201:N205"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="B219:E219"/>
-    <mergeCell ref="B221:E221"/>
-    <mergeCell ref="B223:E223"/>
-    <mergeCell ref="B225:E225"/>
-    <mergeCell ref="B243:E243"/>
-    <mergeCell ref="B244:B249"/>
-    <mergeCell ref="C244:C249"/>
+    <mergeCell ref="I310:I312"/>
+    <mergeCell ref="N310:N312"/>
+    <mergeCell ref="O310:O312"/>
+    <mergeCell ref="B313:E313"/>
+    <mergeCell ref="B315:E315"/>
+    <mergeCell ref="B317:E317"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B310:B312"/>
+    <mergeCell ref="C310:C312"/>
+    <mergeCell ref="D310:D312"/>
+    <mergeCell ref="E310:E312"/>
+    <mergeCell ref="G310:G311"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16531,20 +16810,20 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="14" max="15" width="14.21875" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="31.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.6328125" customWidth="1"/>
+    <col min="14" max="15" width="14.1796875" customWidth="1"/>
+    <col min="16" max="16" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" ht="63">
+    <row r="5" spans="1:16" ht="59.4">
       <c r="A5" s="30"/>
       <c r="B5" s="81" t="s">
         <v>78</v>
@@ -16590,14 +16869,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="22.5">
+    <row r="6" spans="1:16" ht="21">
       <c r="A6" s="30"/>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="169"/>
-      <c r="D6" s="169"/>
-      <c r="E6" s="169"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
       <c r="F6" s="64" t="s">
         <v>21</v>
       </c>
@@ -16618,7 +16897,7 @@
       </c>
       <c r="P6" s="81"/>
     </row>
-    <row r="8" spans="1:16" ht="42">
+    <row r="8" spans="1:16" ht="39.6">
       <c r="A8" s="30"/>
       <c r="B8" s="71" t="s">
         <v>83</v>
@@ -16660,14 +16939,14 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="22.5">
+    <row r="9" spans="1:16" ht="21">
       <c r="A9" s="30"/>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
       <c r="F9" s="76" t="s">
         <v>25</v>
       </c>
@@ -16686,7 +16965,7 @@
       <c r="O9" s="75"/>
       <c r="P9" s="75"/>
     </row>
-    <row r="11" spans="1:16" ht="42">
+    <row r="11" spans="1:16" ht="39.6">
       <c r="A11" s="30"/>
       <c r="B11" s="71" t="s">
         <v>95</v>
@@ -16734,14 +17013,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="22.5">
+    <row r="12" spans="1:16" ht="21">
       <c r="A12" s="30"/>
-      <c r="B12" s="169" t="s">
+      <c r="B12" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
       <c r="F12" s="76" t="s">
         <v>15</v>
       </c>

--- a/Master/2025_MASTER.xlsx
+++ b/Master/2025_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76FC8C-CF68-49C1-96AF-9898AC61A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A81F4C8-2F70-4390-8FC9-EBA6A958A847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="699">
   <si>
     <t>Measurement</t>
   </si>
@@ -4830,6 +4830,105 @@
   </si>
   <si>
     <t>T66</t>
+  </si>
+  <si>
+    <t>S0085906</t>
+  </si>
+  <si>
+    <t>0009771 0663-2939593</t>
+  </si>
+  <si>
+    <t>软膏unguent</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>A0035490</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238757875</t>
+    </r>
+  </si>
+  <si>
+    <t>鞋子shoe</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238757884</t>
+    </r>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>A0035531</t>
+  </si>
+  <si>
+    <r>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238784047</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6323,7 +6422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6863,206 +6962,212 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="36" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="314">
@@ -7604,14 +7709,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E3568-5A38-4555-95C2-66ABB16BC5FB}">
-  <dimension ref="A1:AM411"/>
+  <dimension ref="A1:AM413"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E387" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E391" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B408" sqref="B408:B410"/>
+      <selection pane="bottomRight" activeCell="B412" sqref="B412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7681,24 +7786,24 @@
       <c r="N1" s="15"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="59"/>
-      <c r="R1" s="205" t="s">
+      <c r="R1" s="240" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="206"/>
-      <c r="T1" s="206"/>
-      <c r="U1" s="206"/>
-      <c r="V1" s="206"/>
-      <c r="W1" s="206"/>
-      <c r="X1" s="206"/>
-      <c r="Y1" s="207" t="s">
+      <c r="S1" s="241"/>
+      <c r="T1" s="241"/>
+      <c r="U1" s="241"/>
+      <c r="V1" s="241"/>
+      <c r="W1" s="241"/>
+      <c r="X1" s="241"/>
+      <c r="Y1" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="208"/>
-      <c r="AA1" s="208"/>
-      <c r="AB1" s="208"/>
-      <c r="AC1" s="208"/>
-      <c r="AD1" s="208"/>
-      <c r="AE1" s="208"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
@@ -7733,24 +7838,24 @@
       <c r="N2" s="15"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="59"/>
-      <c r="R2" s="205" t="s">
+      <c r="R2" s="240" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="206"/>
-      <c r="T2" s="206"/>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="207" t="s">
+      <c r="S2" s="241"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
+      <c r="Z2" s="243"/>
+      <c r="AA2" s="243"/>
+      <c r="AB2" s="243"/>
+      <c r="AC2" s="243"/>
+      <c r="AD2" s="243"/>
+      <c r="AE2" s="243"/>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="43"/>
@@ -7790,11 +7895,11 @@
       <c r="J3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="244" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="209"/>
-      <c r="M3" s="209"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
       <c r="N3" s="23" t="s">
         <v>2</v>
       </c>
@@ -7898,10 +8003,10 @@
       <c r="AM4" s="27"/>
     </row>
     <row r="5" spans="1:39" ht="40.5">
-      <c r="A5" s="210" t="s">
+      <c r="A5" s="245" t="s">
         <v>445</v>
       </c>
-      <c r="B5" s="210"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="140"/>
@@ -8539,25 +8644,25 @@
       <c r="A23" s="145" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="198" t="s">
         <v>241</v>
       </c>
       <c r="C23" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="198" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="193">
+      <c r="E23" s="201">
         <v>45661</v>
       </c>
       <c r="F23" s="113">
         <v>1</v>
       </c>
-      <c r="G23" s="182" t="s">
+      <c r="G23" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="182">
+      <c r="H23" s="198">
         <v>2</v>
       </c>
       <c r="I23" s="113">
@@ -8576,7 +8681,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="113"/>
-      <c r="O23" s="182" t="s">
+      <c r="O23" s="198" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8584,17 +8689,17 @@
       <c r="A24" s="145" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="183"/>
+      <c r="B24" s="200"/>
       <c r="C24" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="194"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="203"/>
       <c r="F24" s="113">
         <v>2</v>
       </c>
-      <c r="G24" s="183"/>
-      <c r="H24" s="183"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="200"/>
       <c r="I24" s="113">
         <v>1.1000000000000001</v>
       </c>
@@ -8611,7 +8716,7 @@
         <v>13</v>
       </c>
       <c r="N24" s="113"/>
-      <c r="O24" s="183"/>
+      <c r="O24" s="200"/>
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A25" s="146"/>
@@ -9196,25 +9301,25 @@
       <c r="A42" s="145" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="182" t="s">
+      <c r="B42" s="198" t="s">
         <v>276</v>
       </c>
       <c r="C42" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="198" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="193">
+      <c r="E42" s="201">
         <v>45664</v>
       </c>
       <c r="F42" s="113">
         <v>1</v>
       </c>
-      <c r="G42" s="182" t="s">
+      <c r="G42" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="182">
+      <c r="H42" s="198">
         <v>3</v>
       </c>
       <c r="I42" s="113">
@@ -9233,7 +9338,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="113"/>
-      <c r="O42" s="182" t="s">
+      <c r="O42" s="198" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9241,17 +9346,17 @@
       <c r="A43" s="145" t="s">
         <v>278</v>
       </c>
-      <c r="B43" s="186"/>
+      <c r="B43" s="199"/>
       <c r="C43" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="186"/>
-      <c r="E43" s="204"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="202"/>
       <c r="F43" s="113">
         <v>2</v>
       </c>
-      <c r="G43" s="186"/>
-      <c r="H43" s="186"/>
+      <c r="G43" s="199"/>
+      <c r="H43" s="199"/>
       <c r="I43" s="113">
         <v>1.4</v>
       </c>
@@ -9268,23 +9373,23 @@
         <v>20</v>
       </c>
       <c r="N43" s="113"/>
-      <c r="O43" s="186"/>
+      <c r="O43" s="199"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="21">
       <c r="A44" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="B44" s="183"/>
+      <c r="B44" s="200"/>
       <c r="C44" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="183"/>
-      <c r="E44" s="194"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="203"/>
       <c r="F44" s="113">
         <v>3</v>
       </c>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
       <c r="I44" s="113">
         <v>2</v>
       </c>
@@ -9301,7 +9406,7 @@
         <v>20</v>
       </c>
       <c r="N44" s="113"/>
-      <c r="O44" s="183"/>
+      <c r="O44" s="200"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A45" s="146"/>
@@ -9544,42 +9649,42 @@
       <c r="A52" s="147" t="s">
         <v>293</v>
       </c>
-      <c r="B52" s="211" t="s">
+      <c r="B52" s="205" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="211" t="s">
+      <c r="C52" s="205" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="211" t="s">
+      <c r="D52" s="205" t="s">
         <v>214</v>
       </c>
-      <c r="E52" s="213">
+      <c r="E52" s="186">
         <v>45666</v>
       </c>
       <c r="F52" s="90">
         <v>1</v>
       </c>
-      <c r="G52" s="211" t="s">
+      <c r="G52" s="205" t="s">
         <v>97</v>
       </c>
       <c r="H52" s="90"/>
-      <c r="I52" s="211">
+      <c r="I52" s="205">
         <v>10.199999999999999</v>
       </c>
-      <c r="J52" s="215">
+      <c r="J52" s="238">
         <v>0.10335</v>
       </c>
-      <c r="K52" s="211">
+      <c r="K52" s="205">
         <v>53</v>
       </c>
-      <c r="L52" s="211">
+      <c r="L52" s="205">
         <v>39</v>
       </c>
-      <c r="M52" s="211">
+      <c r="M52" s="205">
         <v>50</v>
       </c>
       <c r="N52" s="90"/>
-      <c r="O52" s="211" t="s">
+      <c r="O52" s="205" t="s">
         <v>296</v>
       </c>
     </row>
@@ -9587,22 +9692,22 @@
       <c r="A53" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="B53" s="212"/>
-      <c r="C53" s="212"/>
-      <c r="D53" s="212"/>
-      <c r="E53" s="214"/>
+      <c r="B53" s="207"/>
+      <c r="C53" s="207"/>
+      <c r="D53" s="207"/>
+      <c r="E53" s="187"/>
       <c r="F53" s="90">
         <v>2</v>
       </c>
-      <c r="G53" s="212"/>
+      <c r="G53" s="207"/>
       <c r="H53" s="90"/>
-      <c r="I53" s="212"/>
-      <c r="J53" s="216"/>
-      <c r="K53" s="212"/>
-      <c r="L53" s="212"/>
-      <c r="M53" s="212"/>
+      <c r="I53" s="207"/>
+      <c r="J53" s="239"/>
+      <c r="K53" s="207"/>
+      <c r="L53" s="207"/>
+      <c r="M53" s="207"/>
       <c r="N53" s="90"/>
-      <c r="O53" s="212"/>
+      <c r="O53" s="207"/>
     </row>
     <row r="54" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A54" s="146"/>
@@ -9633,25 +9738,25 @@
       <c r="A55" s="147" t="s">
         <v>298</v>
       </c>
-      <c r="B55" s="198" t="s">
+      <c r="B55" s="212" t="s">
         <v>299</v>
       </c>
-      <c r="C55" s="198" t="s">
+      <c r="C55" s="212" t="s">
         <v>300</v>
       </c>
-      <c r="D55" s="198" t="s">
+      <c r="D55" s="212" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="200">
+      <c r="E55" s="215">
         <v>45668</v>
       </c>
       <c r="F55" s="94">
         <v>1</v>
       </c>
-      <c r="G55" s="195" t="s">
+      <c r="G55" s="197" t="s">
         <v>301</v>
       </c>
-      <c r="H55" s="198">
+      <c r="H55" s="212">
         <v>1676</v>
       </c>
       <c r="I55" s="94">
@@ -9671,7 +9776,7 @@
         <v>43</v>
       </c>
       <c r="N55" s="94"/>
-      <c r="O55" s="198" t="s">
+      <c r="O55" s="212" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9679,15 +9784,15 @@
       <c r="A56" s="147" t="s">
         <v>303</v>
       </c>
-      <c r="B56" s="199"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="199"/>
-      <c r="E56" s="201"/>
+      <c r="B56" s="214"/>
+      <c r="C56" s="214"/>
+      <c r="D56" s="214"/>
+      <c r="E56" s="217"/>
       <c r="F56" s="94">
         <v>2</v>
       </c>
-      <c r="G56" s="197"/>
-      <c r="H56" s="199"/>
+      <c r="G56" s="220"/>
+      <c r="H56" s="214"/>
       <c r="I56" s="94">
         <v>16.7</v>
       </c>
@@ -9705,7 +9810,7 @@
         <v>30</v>
       </c>
       <c r="N56" s="94"/>
-      <c r="O56" s="199"/>
+      <c r="O56" s="214"/>
     </row>
     <row r="57" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A57" s="146"/>
@@ -9805,25 +9910,25 @@
       <c r="A60" s="147" t="s">
         <v>309</v>
       </c>
-      <c r="B60" s="198" t="s">
+      <c r="B60" s="212" t="s">
         <v>310</v>
       </c>
-      <c r="C60" s="198" t="s">
+      <c r="C60" s="212" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="198" t="s">
+      <c r="D60" s="212" t="s">
         <v>269</v>
       </c>
-      <c r="E60" s="200">
+      <c r="E60" s="215">
         <v>45670</v>
       </c>
       <c r="F60" s="94">
         <v>1</v>
       </c>
-      <c r="G60" s="195" t="s">
+      <c r="G60" s="197" t="s">
         <v>312</v>
       </c>
-      <c r="H60" s="198">
+      <c r="H60" s="212">
         <v>145</v>
       </c>
       <c r="I60" s="94">
@@ -9843,7 +9948,7 @@
         <v>23</v>
       </c>
       <c r="N60" s="53"/>
-      <c r="O60" s="198" t="s">
+      <c r="O60" s="212" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9851,15 +9956,15 @@
       <c r="A61" s="147" t="s">
         <v>314</v>
       </c>
-      <c r="B61" s="199"/>
-      <c r="C61" s="199"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="201"/>
+      <c r="B61" s="214"/>
+      <c r="C61" s="214"/>
+      <c r="D61" s="214"/>
+      <c r="E61" s="217"/>
       <c r="F61" s="94">
         <v>2</v>
       </c>
-      <c r="G61" s="197"/>
-      <c r="H61" s="199"/>
+      <c r="G61" s="220"/>
+      <c r="H61" s="214"/>
       <c r="I61" s="94">
         <v>13.7</v>
       </c>
@@ -9877,7 +9982,7 @@
         <v>49</v>
       </c>
       <c r="N61" s="94"/>
-      <c r="O61" s="199"/>
+      <c r="O61" s="214"/>
     </row>
     <row r="62" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A62" s="146"/>
@@ -10314,20 +10419,20 @@
       <c r="A75" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="B75" s="220" t="s">
+      <c r="B75" s="184" t="s">
         <v>342</v>
       </c>
-      <c r="C75" s="220"/>
-      <c r="D75" s="220" t="s">
+      <c r="C75" s="184"/>
+      <c r="D75" s="184" t="s">
         <v>343</v>
       </c>
-      <c r="E75" s="213">
+      <c r="E75" s="186">
         <v>45673</v>
       </c>
       <c r="F75" s="99">
         <v>1</v>
       </c>
-      <c r="G75" s="220" t="s">
+      <c r="G75" s="184" t="s">
         <v>344</v>
       </c>
       <c r="H75" s="99">
@@ -10356,14 +10461,14 @@
       <c r="A76" s="147" t="s">
         <v>345</v>
       </c>
-      <c r="B76" s="221"/>
-      <c r="C76" s="221"/>
-      <c r="D76" s="221"/>
-      <c r="E76" s="223"/>
+      <c r="B76" s="189"/>
+      <c r="C76" s="189"/>
+      <c r="D76" s="189"/>
+      <c r="E76" s="204"/>
       <c r="F76" s="99">
         <v>2</v>
       </c>
-      <c r="G76" s="221"/>
+      <c r="G76" s="189"/>
       <c r="H76" s="99">
         <v>240</v>
       </c>
@@ -10390,14 +10495,14 @@
       <c r="A77" s="147" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="221"/>
-      <c r="C77" s="221"/>
-      <c r="D77" s="221"/>
-      <c r="E77" s="223"/>
+      <c r="B77" s="189"/>
+      <c r="C77" s="189"/>
+      <c r="D77" s="189"/>
+      <c r="E77" s="204"/>
       <c r="F77" s="99">
         <v>3</v>
       </c>
-      <c r="G77" s="221"/>
+      <c r="G77" s="189"/>
       <c r="H77" s="99">
         <v>300</v>
       </c>
@@ -10424,14 +10529,14 @@
       <c r="A78" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="B78" s="221"/>
-      <c r="C78" s="221"/>
-      <c r="D78" s="221"/>
-      <c r="E78" s="223"/>
+      <c r="B78" s="189"/>
+      <c r="C78" s="189"/>
+      <c r="D78" s="189"/>
+      <c r="E78" s="204"/>
       <c r="F78" s="99">
         <v>4</v>
       </c>
-      <c r="G78" s="221"/>
+      <c r="G78" s="189"/>
       <c r="H78" s="99">
         <v>230</v>
       </c>
@@ -10458,14 +10563,14 @@
       <c r="A79" s="147" t="s">
         <v>348</v>
       </c>
-      <c r="B79" s="221"/>
-      <c r="C79" s="221"/>
-      <c r="D79" s="221"/>
-      <c r="E79" s="223"/>
+      <c r="B79" s="189"/>
+      <c r="C79" s="189"/>
+      <c r="D79" s="189"/>
+      <c r="E79" s="204"/>
       <c r="F79" s="99">
         <v>5</v>
       </c>
-      <c r="G79" s="221"/>
+      <c r="G79" s="189"/>
       <c r="H79" s="99">
         <v>220</v>
       </c>
@@ -10492,14 +10597,14 @@
       <c r="A80" s="147" t="s">
         <v>349</v>
       </c>
-      <c r="B80" s="221"/>
-      <c r="C80" s="221"/>
-      <c r="D80" s="221"/>
-      <c r="E80" s="223"/>
+      <c r="B80" s="189"/>
+      <c r="C80" s="189"/>
+      <c r="D80" s="189"/>
+      <c r="E80" s="204"/>
       <c r="F80" s="99">
         <v>6</v>
       </c>
-      <c r="G80" s="221"/>
+      <c r="G80" s="189"/>
       <c r="H80" s="99">
         <v>200</v>
       </c>
@@ -10526,14 +10631,14 @@
       <c r="A81" s="147" t="s">
         <v>350</v>
       </c>
-      <c r="B81" s="221"/>
-      <c r="C81" s="221"/>
-      <c r="D81" s="221"/>
-      <c r="E81" s="223"/>
+      <c r="B81" s="189"/>
+      <c r="C81" s="189"/>
+      <c r="D81" s="189"/>
+      <c r="E81" s="204"/>
       <c r="F81" s="99">
         <v>7</v>
       </c>
-      <c r="G81" s="221"/>
+      <c r="G81" s="189"/>
       <c r="H81" s="99">
         <v>190</v>
       </c>
@@ -10560,14 +10665,14 @@
       <c r="A82" s="147" t="s">
         <v>351</v>
       </c>
-      <c r="B82" s="221"/>
-      <c r="C82" s="221"/>
-      <c r="D82" s="221"/>
-      <c r="E82" s="223"/>
+      <c r="B82" s="189"/>
+      <c r="C82" s="189"/>
+      <c r="D82" s="189"/>
+      <c r="E82" s="204"/>
       <c r="F82" s="99">
         <v>8</v>
       </c>
-      <c r="G82" s="221"/>
+      <c r="G82" s="189"/>
       <c r="H82" s="99">
         <v>200</v>
       </c>
@@ -10594,14 +10699,14 @@
       <c r="A83" s="147" t="s">
         <v>352</v>
       </c>
-      <c r="B83" s="221"/>
-      <c r="C83" s="221"/>
-      <c r="D83" s="221"/>
-      <c r="E83" s="223"/>
+      <c r="B83" s="189"/>
+      <c r="C83" s="189"/>
+      <c r="D83" s="189"/>
+      <c r="E83" s="204"/>
       <c r="F83" s="99">
         <v>9</v>
       </c>
-      <c r="G83" s="221"/>
+      <c r="G83" s="189"/>
       <c r="H83" s="99">
         <v>200</v>
       </c>
@@ -10628,14 +10733,14 @@
       <c r="A84" s="147" t="s">
         <v>353</v>
       </c>
-      <c r="B84" s="221"/>
-      <c r="C84" s="221"/>
-      <c r="D84" s="221"/>
-      <c r="E84" s="223"/>
+      <c r="B84" s="189"/>
+      <c r="C84" s="189"/>
+      <c r="D84" s="189"/>
+      <c r="E84" s="204"/>
       <c r="F84" s="99">
         <v>10</v>
       </c>
-      <c r="G84" s="221"/>
+      <c r="G84" s="189"/>
       <c r="H84" s="99">
         <v>200</v>
       </c>
@@ -10662,14 +10767,14 @@
       <c r="A85" s="147" t="s">
         <v>354</v>
       </c>
-      <c r="B85" s="222"/>
-      <c r="C85" s="222"/>
-      <c r="D85" s="222"/>
-      <c r="E85" s="214"/>
+      <c r="B85" s="185"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="185"/>
+      <c r="E85" s="187"/>
       <c r="F85" s="99">
         <v>11</v>
       </c>
-      <c r="G85" s="222"/>
+      <c r="G85" s="185"/>
       <c r="H85" s="99">
         <v>200</v>
       </c>
@@ -10727,7 +10832,7 @@
       <c r="C87" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="D87" s="198" t="s">
+      <c r="D87" s="212" t="s">
         <v>358</v>
       </c>
       <c r="E87" s="98">
@@ -10736,32 +10841,32 @@
       <c r="F87" s="94">
         <v>1</v>
       </c>
-      <c r="G87" s="195" t="s">
+      <c r="G87" s="197" t="s">
         <v>359</v>
       </c>
-      <c r="H87" s="198">
+      <c r="H87" s="212">
         <v>62</v>
       </c>
-      <c r="I87" s="198">
+      <c r="I87" s="212">
         <v>11.7</v>
       </c>
-      <c r="J87" s="225">
+      <c r="J87" s="235">
         <f>K87*L87*M87/1000000</f>
         <v>4.8543999999999997E-2</v>
       </c>
-      <c r="K87" s="198">
+      <c r="K87" s="212">
         <v>32</v>
       </c>
-      <c r="L87" s="198">
+      <c r="L87" s="212">
         <v>37</v>
       </c>
-      <c r="M87" s="198">
+      <c r="M87" s="212">
         <v>41</v>
       </c>
       <c r="N87" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="O87" s="195" t="s">
+      <c r="O87" s="197" t="s">
         <v>361</v>
       </c>
     </row>
@@ -10769,51 +10874,51 @@
       <c r="A88" s="147" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="198" t="s">
+      <c r="B88" s="212" t="s">
         <v>363</v>
       </c>
-      <c r="C88" s="198" t="s">
+      <c r="C88" s="212" t="s">
         <v>364</v>
       </c>
-      <c r="D88" s="202"/>
-      <c r="E88" s="200">
+      <c r="D88" s="213"/>
+      <c r="E88" s="215">
         <v>45673</v>
       </c>
       <c r="F88" s="94">
         <v>1</v>
       </c>
-      <c r="G88" s="196"/>
-      <c r="H88" s="202"/>
-      <c r="I88" s="202"/>
-      <c r="J88" s="226"/>
-      <c r="K88" s="202"/>
-      <c r="L88" s="202"/>
-      <c r="M88" s="202"/>
-      <c r="N88" s="195" t="s">
+      <c r="G88" s="219"/>
+      <c r="H88" s="213"/>
+      <c r="I88" s="213"/>
+      <c r="J88" s="236"/>
+      <c r="K88" s="213"/>
+      <c r="L88" s="213"/>
+      <c r="M88" s="213"/>
+      <c r="N88" s="197" t="s">
         <v>365</v>
       </c>
-      <c r="O88" s="196"/>
+      <c r="O88" s="219"/>
     </row>
     <row r="89" spans="1:15" s="101" customFormat="1" ht="21">
       <c r="A89" s="147" t="s">
         <v>366</v>
       </c>
-      <c r="B89" s="199"/>
-      <c r="C89" s="199"/>
-      <c r="D89" s="199"/>
-      <c r="E89" s="201"/>
+      <c r="B89" s="214"/>
+      <c r="C89" s="214"/>
+      <c r="D89" s="214"/>
+      <c r="E89" s="217"/>
       <c r="F89" s="94">
         <v>2</v>
       </c>
-      <c r="G89" s="197"/>
-      <c r="H89" s="199"/>
-      <c r="I89" s="199"/>
-      <c r="J89" s="227"/>
-      <c r="K89" s="199"/>
-      <c r="L89" s="199"/>
-      <c r="M89" s="199"/>
-      <c r="N89" s="197"/>
-      <c r="O89" s="197"/>
+      <c r="G89" s="220"/>
+      <c r="H89" s="214"/>
+      <c r="I89" s="214"/>
+      <c r="J89" s="237"/>
+      <c r="K89" s="214"/>
+      <c r="L89" s="214"/>
+      <c r="M89" s="214"/>
+      <c r="N89" s="220"/>
+      <c r="O89" s="220"/>
     </row>
     <row r="90" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A90" s="146"/>
@@ -11519,22 +11624,22 @@
       <c r="A111" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="220" t="s">
+      <c r="B111" s="184" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="220" t="s">
+      <c r="C111" s="184" t="s">
         <v>173</v>
       </c>
-      <c r="D111" s="220" t="s">
+      <c r="D111" s="184" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="213">
+      <c r="E111" s="186">
         <v>45680</v>
       </c>
       <c r="F111" s="99">
         <v>1</v>
       </c>
-      <c r="G111" s="224" t="s">
+      <c r="G111" s="188" t="s">
         <v>174</v>
       </c>
       <c r="H111" s="99"/>
@@ -11561,14 +11666,14 @@
       <c r="A112" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="B112" s="221"/>
-      <c r="C112" s="221"/>
-      <c r="D112" s="221"/>
-      <c r="E112" s="223"/>
+      <c r="B112" s="189"/>
+      <c r="C112" s="189"/>
+      <c r="D112" s="189"/>
+      <c r="E112" s="204"/>
       <c r="F112" s="99">
         <v>2</v>
       </c>
-      <c r="G112" s="221"/>
+      <c r="G112" s="189"/>
       <c r="H112" s="99"/>
       <c r="I112" s="99">
         <v>9.1</v>
@@ -11593,14 +11698,14 @@
       <c r="A113" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="221"/>
-      <c r="C113" s="221"/>
-      <c r="D113" s="221"/>
-      <c r="E113" s="223"/>
+      <c r="B113" s="189"/>
+      <c r="C113" s="189"/>
+      <c r="D113" s="189"/>
+      <c r="E113" s="204"/>
       <c r="F113" s="99">
         <v>3</v>
       </c>
-      <c r="G113" s="221"/>
+      <c r="G113" s="189"/>
       <c r="H113" s="99"/>
       <c r="I113" s="99">
         <v>24.1</v>
@@ -11625,14 +11730,14 @@
       <c r="A114" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="B114" s="222"/>
-      <c r="C114" s="222"/>
-      <c r="D114" s="222"/>
-      <c r="E114" s="214"/>
+      <c r="B114" s="185"/>
+      <c r="C114" s="185"/>
+      <c r="D114" s="185"/>
+      <c r="E114" s="187"/>
       <c r="F114" s="99">
         <v>4</v>
       </c>
-      <c r="G114" s="222"/>
+      <c r="G114" s="185"/>
       <c r="H114" s="99"/>
       <c r="I114" s="99">
         <v>6.4</v>
@@ -11754,25 +11859,25 @@
       <c r="A118" s="99" t="s">
         <v>452</v>
       </c>
-      <c r="B118" s="239" t="s">
+      <c r="B118" s="223" t="s">
         <v>453</v>
       </c>
       <c r="C118" s="99" t="s">
         <v>454</v>
       </c>
-      <c r="D118" s="239" t="s">
+      <c r="D118" s="223" t="s">
         <v>449</v>
       </c>
-      <c r="E118" s="240">
+      <c r="E118" s="224">
         <v>45698</v>
       </c>
       <c r="F118" s="99">
         <v>1</v>
       </c>
-      <c r="G118" s="239" t="s">
+      <c r="G118" s="223" t="s">
         <v>450</v>
       </c>
-      <c r="H118" s="239">
+      <c r="H118" s="223">
         <v>2</v>
       </c>
       <c r="I118" s="99">
@@ -11791,7 +11896,7 @@
         <v>10</v>
       </c>
       <c r="N118" s="99"/>
-      <c r="O118" s="239" t="s">
+      <c r="O118" s="223" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11799,17 +11904,17 @@
       <c r="A119" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="B119" s="239"/>
+      <c r="B119" s="223"/>
       <c r="C119" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="D119" s="239"/>
-      <c r="E119" s="240"/>
+      <c r="D119" s="223"/>
+      <c r="E119" s="224"/>
       <c r="F119" s="99">
         <v>2</v>
       </c>
-      <c r="G119" s="239"/>
-      <c r="H119" s="239"/>
+      <c r="G119" s="223"/>
+      <c r="H119" s="223"/>
       <c r="I119" s="99">
         <v>1.4</v>
       </c>
@@ -11826,7 +11931,7 @@
         <v>14</v>
       </c>
       <c r="N119" s="99"/>
-      <c r="O119" s="239"/>
+      <c r="O119" s="223"/>
     </row>
     <row r="120" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A120" s="42"/>
@@ -12203,25 +12308,25 @@
       <c r="A131" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="B131" s="220" t="s">
+      <c r="B131" s="184" t="s">
         <v>496</v>
       </c>
-      <c r="C131" s="220" t="s">
+      <c r="C131" s="184" t="s">
         <v>497</v>
       </c>
-      <c r="D131" s="220" t="s">
+      <c r="D131" s="184" t="s">
         <v>358</v>
       </c>
-      <c r="E131" s="213">
+      <c r="E131" s="186">
         <v>45706</v>
       </c>
       <c r="F131" s="99">
         <v>1</v>
       </c>
-      <c r="G131" s="220" t="s">
+      <c r="G131" s="184" t="s">
         <v>498</v>
       </c>
-      <c r="H131" s="220">
+      <c r="H131" s="184">
         <v>16</v>
       </c>
       <c r="I131" s="99">
@@ -12239,7 +12344,7 @@
       <c r="M131" s="99">
         <v>31</v>
       </c>
-      <c r="N131" s="224" t="s">
+      <c r="N131" s="188" t="s">
         <v>499</v>
       </c>
       <c r="O131" s="99"/>
@@ -12248,15 +12353,15 @@
       <c r="A132" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="B132" s="221"/>
-      <c r="C132" s="221"/>
-      <c r="D132" s="221"/>
-      <c r="E132" s="223"/>
+      <c r="B132" s="189"/>
+      <c r="C132" s="189"/>
+      <c r="D132" s="189"/>
+      <c r="E132" s="204"/>
       <c r="F132" s="99">
         <v>2</v>
       </c>
-      <c r="G132" s="221"/>
-      <c r="H132" s="221"/>
+      <c r="G132" s="189"/>
+      <c r="H132" s="189"/>
       <c r="I132" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12272,22 +12377,22 @@
       <c r="M132" s="99">
         <v>31</v>
       </c>
-      <c r="N132" s="242"/>
+      <c r="N132" s="226"/>
       <c r="O132" s="99"/>
     </row>
     <row r="133" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A133" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="B133" s="221"/>
-      <c r="C133" s="221"/>
-      <c r="D133" s="221"/>
-      <c r="E133" s="223"/>
+      <c r="B133" s="189"/>
+      <c r="C133" s="189"/>
+      <c r="D133" s="189"/>
+      <c r="E133" s="204"/>
       <c r="F133" s="99">
         <v>3</v>
       </c>
-      <c r="G133" s="221"/>
-      <c r="H133" s="221"/>
+      <c r="G133" s="189"/>
+      <c r="H133" s="189"/>
       <c r="I133" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12303,22 +12408,22 @@
       <c r="M133" s="99">
         <v>31</v>
       </c>
-      <c r="N133" s="242"/>
+      <c r="N133" s="226"/>
       <c r="O133" s="99"/>
     </row>
     <row r="134" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A134" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="B134" s="222"/>
-      <c r="C134" s="222"/>
-      <c r="D134" s="222"/>
-      <c r="E134" s="214"/>
+      <c r="B134" s="185"/>
+      <c r="C134" s="185"/>
+      <c r="D134" s="185"/>
+      <c r="E134" s="187"/>
       <c r="F134" s="99">
         <v>4</v>
       </c>
-      <c r="G134" s="222"/>
-      <c r="H134" s="222"/>
+      <c r="G134" s="185"/>
+      <c r="H134" s="185"/>
       <c r="I134" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12334,7 +12439,7 @@
       <c r="M134" s="99">
         <v>31</v>
       </c>
-      <c r="N134" s="243"/>
+      <c r="N134" s="227"/>
       <c r="O134" s="99"/>
     </row>
     <row r="135" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
@@ -12364,25 +12469,25 @@
       <c r="A136" s="94" t="s">
         <v>502</v>
       </c>
-      <c r="B136" s="198" t="s">
+      <c r="B136" s="212" t="s">
         <v>503</v>
       </c>
-      <c r="C136" s="198" t="s">
+      <c r="C136" s="212" t="s">
         <v>504</v>
       </c>
-      <c r="D136" s="198" t="s">
+      <c r="D136" s="212" t="s">
         <v>505</v>
       </c>
-      <c r="E136" s="200">
+      <c r="E136" s="215">
         <v>45706</v>
       </c>
       <c r="F136" s="94">
         <v>1</v>
       </c>
-      <c r="G136" s="195" t="s">
+      <c r="G136" s="197" t="s">
         <v>506</v>
       </c>
-      <c r="H136" s="198">
+      <c r="H136" s="212">
         <v>553</v>
       </c>
       <c r="I136" s="94">
@@ -12401,7 +12506,7 @@
         <v>49</v>
       </c>
       <c r="N136" s="94"/>
-      <c r="O136" s="198" t="s">
+      <c r="O136" s="212" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12409,15 +12514,15 @@
       <c r="A137" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="B137" s="202"/>
-      <c r="C137" s="202"/>
-      <c r="D137" s="202"/>
-      <c r="E137" s="203"/>
+      <c r="B137" s="213"/>
+      <c r="C137" s="213"/>
+      <c r="D137" s="213"/>
+      <c r="E137" s="216"/>
       <c r="F137" s="94">
         <v>2</v>
       </c>
-      <c r="G137" s="196"/>
-      <c r="H137" s="202"/>
+      <c r="G137" s="219"/>
+      <c r="H137" s="213"/>
       <c r="I137" s="94">
         <v>11.9</v>
       </c>
@@ -12434,21 +12539,21 @@
         <v>49</v>
       </c>
       <c r="N137" s="94"/>
-      <c r="O137" s="202"/>
+      <c r="O137" s="213"/>
     </row>
     <row r="138" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A138" s="94" t="s">
         <v>508</v>
       </c>
-      <c r="B138" s="202"/>
-      <c r="C138" s="202"/>
-      <c r="D138" s="202"/>
-      <c r="E138" s="203"/>
+      <c r="B138" s="213"/>
+      <c r="C138" s="213"/>
+      <c r="D138" s="213"/>
+      <c r="E138" s="216"/>
       <c r="F138" s="94">
         <v>3</v>
       </c>
-      <c r="G138" s="196"/>
-      <c r="H138" s="202"/>
+      <c r="G138" s="219"/>
+      <c r="H138" s="213"/>
       <c r="I138" s="94">
         <v>13.8</v>
       </c>
@@ -12465,21 +12570,21 @@
         <v>49</v>
       </c>
       <c r="N138" s="94"/>
-      <c r="O138" s="202"/>
+      <c r="O138" s="213"/>
     </row>
     <row r="139" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="94" t="s">
         <v>509</v>
       </c>
-      <c r="B139" s="202"/>
-      <c r="C139" s="202"/>
-      <c r="D139" s="202"/>
-      <c r="E139" s="203"/>
+      <c r="B139" s="213"/>
+      <c r="C139" s="213"/>
+      <c r="D139" s="213"/>
+      <c r="E139" s="216"/>
       <c r="F139" s="94">
         <v>4</v>
       </c>
-      <c r="G139" s="196"/>
-      <c r="H139" s="202"/>
+      <c r="G139" s="219"/>
+      <c r="H139" s="213"/>
       <c r="I139" s="94">
         <v>17.600000000000001</v>
       </c>
@@ -12496,21 +12601,21 @@
         <v>49</v>
       </c>
       <c r="N139" s="94"/>
-      <c r="O139" s="202"/>
+      <c r="O139" s="213"/>
     </row>
     <row r="140" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="B140" s="202"/>
-      <c r="C140" s="202"/>
-      <c r="D140" s="202"/>
-      <c r="E140" s="203"/>
+      <c r="B140" s="213"/>
+      <c r="C140" s="213"/>
+      <c r="D140" s="213"/>
+      <c r="E140" s="216"/>
       <c r="F140" s="94">
         <v>5</v>
       </c>
-      <c r="G140" s="196"/>
-      <c r="H140" s="202"/>
+      <c r="G140" s="219"/>
+      <c r="H140" s="213"/>
       <c r="I140" s="94">
         <v>7.8</v>
       </c>
@@ -12527,21 +12632,21 @@
         <v>43</v>
       </c>
       <c r="N140" s="94"/>
-      <c r="O140" s="202"/>
+      <c r="O140" s="213"/>
     </row>
     <row r="141" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="94" t="s">
         <v>511</v>
       </c>
-      <c r="B141" s="202"/>
-      <c r="C141" s="202"/>
-      <c r="D141" s="202"/>
-      <c r="E141" s="203"/>
+      <c r="B141" s="213"/>
+      <c r="C141" s="213"/>
+      <c r="D141" s="213"/>
+      <c r="E141" s="216"/>
       <c r="F141" s="94">
         <v>6</v>
       </c>
-      <c r="G141" s="196"/>
-      <c r="H141" s="202"/>
+      <c r="G141" s="219"/>
+      <c r="H141" s="213"/>
       <c r="I141" s="94">
         <v>15.5</v>
       </c>
@@ -12558,21 +12663,21 @@
         <v>49</v>
       </c>
       <c r="N141" s="94"/>
-      <c r="O141" s="202"/>
+      <c r="O141" s="213"/>
     </row>
     <row r="142" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="94" t="s">
         <v>512</v>
       </c>
-      <c r="B142" s="199"/>
-      <c r="C142" s="199"/>
-      <c r="D142" s="199"/>
-      <c r="E142" s="201"/>
+      <c r="B142" s="214"/>
+      <c r="C142" s="214"/>
+      <c r="D142" s="214"/>
+      <c r="E142" s="217"/>
       <c r="F142" s="94">
         <v>7</v>
       </c>
-      <c r="G142" s="197"/>
-      <c r="H142" s="199"/>
+      <c r="G142" s="220"/>
+      <c r="H142" s="214"/>
       <c r="I142" s="94">
         <v>14.6</v>
       </c>
@@ -12589,7 +12694,7 @@
         <v>49</v>
       </c>
       <c r="N142" s="94"/>
-      <c r="O142" s="199"/>
+      <c r="O142" s="214"/>
     </row>
     <row r="143" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="42"/>
@@ -13237,22 +13342,22 @@
       <c r="A162" s="113" t="s">
         <v>598</v>
       </c>
-      <c r="B162" s="182" t="s">
+      <c r="B162" s="198" t="s">
         <v>599</v>
       </c>
       <c r="C162" s="113" t="s">
         <v>600</v>
       </c>
-      <c r="D162" s="182" t="s">
+      <c r="D162" s="198" t="s">
         <v>238</v>
       </c>
-      <c r="E162" s="184">
+      <c r="E162" s="246">
         <v>45713</v>
       </c>
       <c r="F162" s="113">
         <v>1</v>
       </c>
-      <c r="G162" s="182" t="s">
+      <c r="G162" s="198" t="s">
         <v>97</v>
       </c>
       <c r="H162" s="113"/>
@@ -13272,7 +13377,7 @@
         <v>37</v>
       </c>
       <c r="N162" s="113"/>
-      <c r="O162" s="182" t="s">
+      <c r="O162" s="198" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13280,16 +13385,16 @@
       <c r="A163" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="B163" s="183"/>
+      <c r="B163" s="200"/>
       <c r="C163" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="D163" s="183"/>
-      <c r="E163" s="185"/>
+      <c r="D163" s="200"/>
+      <c r="E163" s="247"/>
       <c r="F163" s="113">
         <v>2</v>
       </c>
-      <c r="G163" s="183"/>
+      <c r="G163" s="200"/>
       <c r="H163" s="113"/>
       <c r="I163" s="113">
         <v>2</v>
@@ -13307,7 +13412,7 @@
         <v>16</v>
       </c>
       <c r="N163" s="113"/>
-      <c r="O163" s="183"/>
+      <c r="O163" s="200"/>
     </row>
     <row r="164" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A164" s="42"/>
@@ -13338,25 +13443,25 @@
       <c r="A165" s="113" t="s">
         <v>603</v>
       </c>
-      <c r="B165" s="182" t="s">
+      <c r="B165" s="198" t="s">
         <v>604</v>
       </c>
-      <c r="C165" s="182" t="s">
+      <c r="C165" s="198" t="s">
         <v>605</v>
       </c>
-      <c r="D165" s="182" t="s">
+      <c r="D165" s="198" t="s">
         <v>606</v>
       </c>
-      <c r="E165" s="184">
+      <c r="E165" s="246">
         <v>45713</v>
       </c>
       <c r="F165" s="113">
         <v>1</v>
       </c>
-      <c r="G165" s="182" t="s">
+      <c r="G165" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H165" s="182">
+      <c r="H165" s="198">
         <v>120</v>
       </c>
       <c r="I165" s="113">
@@ -13375,7 +13480,7 @@
         <v>50</v>
       </c>
       <c r="N165" s="113"/>
-      <c r="O165" s="182" t="s">
+      <c r="O165" s="198" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13383,15 +13488,15 @@
       <c r="A166" s="113" t="s">
         <v>607</v>
       </c>
-      <c r="B166" s="186"/>
-      <c r="C166" s="186"/>
-      <c r="D166" s="186"/>
-      <c r="E166" s="187"/>
+      <c r="B166" s="199"/>
+      <c r="C166" s="199"/>
+      <c r="D166" s="199"/>
+      <c r="E166" s="211"/>
       <c r="F166" s="113">
         <v>2</v>
       </c>
-      <c r="G166" s="186"/>
-      <c r="H166" s="186"/>
+      <c r="G166" s="199"/>
+      <c r="H166" s="199"/>
       <c r="I166" s="113">
         <v>19.5</v>
       </c>
@@ -13408,21 +13513,21 @@
         <v>50</v>
       </c>
       <c r="N166" s="113"/>
-      <c r="O166" s="186"/>
+      <c r="O166" s="199"/>
     </row>
     <row r="167" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A167" s="113" t="s">
         <v>608</v>
       </c>
-      <c r="B167" s="186"/>
-      <c r="C167" s="186"/>
-      <c r="D167" s="186"/>
-      <c r="E167" s="187"/>
+      <c r="B167" s="199"/>
+      <c r="C167" s="199"/>
+      <c r="D167" s="199"/>
+      <c r="E167" s="211"/>
       <c r="F167" s="113">
         <v>3</v>
       </c>
-      <c r="G167" s="186"/>
-      <c r="H167" s="186"/>
+      <c r="G167" s="199"/>
+      <c r="H167" s="199"/>
       <c r="I167" s="113">
         <v>22</v>
       </c>
@@ -13439,21 +13544,21 @@
         <v>50</v>
       </c>
       <c r="N167" s="113"/>
-      <c r="O167" s="186"/>
+      <c r="O167" s="199"/>
     </row>
     <row r="168" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A168" s="113" t="s">
         <v>609</v>
       </c>
-      <c r="B168" s="186"/>
-      <c r="C168" s="186"/>
-      <c r="D168" s="186"/>
-      <c r="E168" s="187"/>
+      <c r="B168" s="199"/>
+      <c r="C168" s="199"/>
+      <c r="D168" s="199"/>
+      <c r="E168" s="211"/>
       <c r="F168" s="113">
         <v>4</v>
       </c>
-      <c r="G168" s="186"/>
-      <c r="H168" s="186"/>
+      <c r="G168" s="199"/>
+      <c r="H168" s="199"/>
       <c r="I168" s="113">
         <v>21.2</v>
       </c>
@@ -13470,21 +13575,21 @@
         <v>50</v>
       </c>
       <c r="N168" s="113"/>
-      <c r="O168" s="186"/>
+      <c r="O168" s="199"/>
     </row>
     <row r="169" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A169" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="B169" s="186"/>
-      <c r="C169" s="186"/>
-      <c r="D169" s="186"/>
-      <c r="E169" s="187"/>
+      <c r="B169" s="199"/>
+      <c r="C169" s="199"/>
+      <c r="D169" s="199"/>
+      <c r="E169" s="211"/>
       <c r="F169" s="113">
         <v>5</v>
       </c>
-      <c r="G169" s="186"/>
-      <c r="H169" s="186"/>
+      <c r="G169" s="199"/>
+      <c r="H169" s="199"/>
       <c r="I169" s="113">
         <v>19.600000000000001</v>
       </c>
@@ -13501,21 +13606,21 @@
         <v>50</v>
       </c>
       <c r="N169" s="113"/>
-      <c r="O169" s="186"/>
+      <c r="O169" s="199"/>
     </row>
     <row r="170" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A170" s="113" t="s">
         <v>611</v>
       </c>
-      <c r="B170" s="183"/>
-      <c r="C170" s="183"/>
-      <c r="D170" s="183"/>
-      <c r="E170" s="188"/>
+      <c r="B170" s="200"/>
+      <c r="C170" s="200"/>
+      <c r="D170" s="200"/>
+      <c r="E170" s="209"/>
       <c r="F170" s="113">
         <v>6</v>
       </c>
-      <c r="G170" s="183"/>
-      <c r="H170" s="183"/>
+      <c r="G170" s="200"/>
+      <c r="H170" s="200"/>
       <c r="I170" s="113">
         <v>20.2</v>
       </c>
@@ -13532,7 +13637,7 @@
         <v>50</v>
       </c>
       <c r="N170" s="113"/>
-      <c r="O170" s="183"/>
+      <c r="O170" s="200"/>
     </row>
     <row r="171" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A171" s="42"/>
@@ -13561,25 +13666,25 @@
       <c r="A172" s="99" t="s">
         <v>619</v>
       </c>
-      <c r="B172" s="220" t="s">
+      <c r="B172" s="184" t="s">
         <v>620</v>
       </c>
-      <c r="C172" s="220" t="s">
+      <c r="C172" s="184" t="s">
         <v>621</v>
       </c>
-      <c r="D172" s="220" t="s">
+      <c r="D172" s="184" t="s">
         <v>155</v>
       </c>
-      <c r="E172" s="213">
+      <c r="E172" s="186">
         <v>45714</v>
       </c>
       <c r="F172" s="99">
         <v>1</v>
       </c>
-      <c r="G172" s="220" t="s">
+      <c r="G172" s="184" t="s">
         <v>622</v>
       </c>
-      <c r="H172" s="220"/>
+      <c r="H172" s="184"/>
       <c r="I172" s="99">
         <v>7.1</v>
       </c>
@@ -13597,7 +13702,7 @@
         <v>40</v>
       </c>
       <c r="N172" s="99"/>
-      <c r="O172" s="220" t="s">
+      <c r="O172" s="184" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13605,15 +13710,15 @@
       <c r="A173" s="99" t="s">
         <v>623</v>
       </c>
-      <c r="B173" s="221"/>
-      <c r="C173" s="221"/>
-      <c r="D173" s="221"/>
-      <c r="E173" s="223"/>
+      <c r="B173" s="189"/>
+      <c r="C173" s="189"/>
+      <c r="D173" s="189"/>
+      <c r="E173" s="204"/>
       <c r="F173" s="99">
         <v>2</v>
       </c>
-      <c r="G173" s="221"/>
-      <c r="H173" s="221"/>
+      <c r="G173" s="189"/>
+      <c r="H173" s="189"/>
       <c r="I173" s="99">
         <v>7.3</v>
       </c>
@@ -13631,21 +13736,21 @@
         <v>40</v>
       </c>
       <c r="N173" s="99"/>
-      <c r="O173" s="221"/>
+      <c r="O173" s="189"/>
     </row>
     <row r="174" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A174" s="99" t="s">
         <v>624</v>
       </c>
-      <c r="B174" s="221"/>
-      <c r="C174" s="221"/>
-      <c r="D174" s="221"/>
-      <c r="E174" s="223"/>
+      <c r="B174" s="189"/>
+      <c r="C174" s="189"/>
+      <c r="D174" s="189"/>
+      <c r="E174" s="204"/>
       <c r="F174" s="99">
         <v>3</v>
       </c>
-      <c r="G174" s="221"/>
-      <c r="H174" s="221"/>
+      <c r="G174" s="189"/>
+      <c r="H174" s="189"/>
       <c r="I174" s="99">
         <v>7</v>
       </c>
@@ -13663,21 +13768,21 @@
         <v>40</v>
       </c>
       <c r="N174" s="99"/>
-      <c r="O174" s="221"/>
+      <c r="O174" s="189"/>
     </row>
     <row r="175" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A175" s="99" t="s">
         <v>625</v>
       </c>
-      <c r="B175" s="221"/>
-      <c r="C175" s="221"/>
-      <c r="D175" s="221"/>
-      <c r="E175" s="223"/>
+      <c r="B175" s="189"/>
+      <c r="C175" s="189"/>
+      <c r="D175" s="189"/>
+      <c r="E175" s="204"/>
       <c r="F175" s="99">
         <v>4</v>
       </c>
-      <c r="G175" s="221"/>
-      <c r="H175" s="221"/>
+      <c r="G175" s="189"/>
+      <c r="H175" s="189"/>
       <c r="I175" s="99">
         <v>8.4</v>
       </c>
@@ -13695,21 +13800,21 @@
         <v>40</v>
       </c>
       <c r="N175" s="99"/>
-      <c r="O175" s="221"/>
+      <c r="O175" s="189"/>
     </row>
     <row r="176" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A176" s="99" t="s">
         <v>626</v>
       </c>
-      <c r="B176" s="221"/>
-      <c r="C176" s="221"/>
-      <c r="D176" s="221"/>
-      <c r="E176" s="223"/>
+      <c r="B176" s="189"/>
+      <c r="C176" s="189"/>
+      <c r="D176" s="189"/>
+      <c r="E176" s="204"/>
       <c r="F176" s="99">
         <v>5</v>
       </c>
-      <c r="G176" s="221"/>
-      <c r="H176" s="221"/>
+      <c r="G176" s="189"/>
+      <c r="H176" s="189"/>
       <c r="I176" s="99">
         <v>6.7</v>
       </c>
@@ -13727,21 +13832,21 @@
         <v>40</v>
       </c>
       <c r="N176" s="99"/>
-      <c r="O176" s="221"/>
+      <c r="O176" s="189"/>
     </row>
     <row r="177" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A177" s="99" t="s">
         <v>627</v>
       </c>
-      <c r="B177" s="221"/>
-      <c r="C177" s="221"/>
-      <c r="D177" s="221"/>
-      <c r="E177" s="223"/>
+      <c r="B177" s="189"/>
+      <c r="C177" s="189"/>
+      <c r="D177" s="189"/>
+      <c r="E177" s="204"/>
       <c r="F177" s="99">
         <v>6</v>
       </c>
-      <c r="G177" s="221"/>
-      <c r="H177" s="221"/>
+      <c r="G177" s="189"/>
+      <c r="H177" s="189"/>
       <c r="I177" s="99">
         <v>6.9</v>
       </c>
@@ -13759,21 +13864,21 @@
         <v>40</v>
       </c>
       <c r="N177" s="99"/>
-      <c r="O177" s="221"/>
+      <c r="O177" s="189"/>
     </row>
     <row r="178" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A178" s="99" t="s">
         <v>628</v>
       </c>
-      <c r="B178" s="221"/>
-      <c r="C178" s="221"/>
-      <c r="D178" s="221"/>
-      <c r="E178" s="223"/>
+      <c r="B178" s="189"/>
+      <c r="C178" s="189"/>
+      <c r="D178" s="189"/>
+      <c r="E178" s="204"/>
       <c r="F178" s="99">
         <v>7</v>
       </c>
-      <c r="G178" s="221"/>
-      <c r="H178" s="221"/>
+      <c r="G178" s="189"/>
+      <c r="H178" s="189"/>
       <c r="I178" s="99">
         <v>5.8</v>
       </c>
@@ -13791,21 +13896,21 @@
         <v>40</v>
       </c>
       <c r="N178" s="99"/>
-      <c r="O178" s="221"/>
+      <c r="O178" s="189"/>
     </row>
     <row r="179" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A179" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="B179" s="222"/>
-      <c r="C179" s="222"/>
-      <c r="D179" s="222"/>
-      <c r="E179" s="214"/>
+      <c r="B179" s="185"/>
+      <c r="C179" s="185"/>
+      <c r="D179" s="185"/>
+      <c r="E179" s="187"/>
       <c r="F179" s="99">
         <v>8</v>
       </c>
-      <c r="G179" s="222"/>
-      <c r="H179" s="222"/>
+      <c r="G179" s="185"/>
+      <c r="H179" s="185"/>
       <c r="I179" s="99">
         <v>7.1</v>
       </c>
@@ -13823,7 +13928,7 @@
         <v>40</v>
       </c>
       <c r="N179" s="99"/>
-      <c r="O179" s="222"/>
+      <c r="O179" s="185"/>
     </row>
     <row r="180" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A180" s="178"/>
@@ -13992,31 +14097,31 @@
       <c r="A185" s="60" t="s">
         <v>644</v>
       </c>
-      <c r="B185" s="228" t="s">
+      <c r="B185" s="191" t="s">
         <v>645</v>
       </c>
-      <c r="C185" s="228" t="s">
+      <c r="C185" s="191" t="s">
         <v>646</v>
       </c>
-      <c r="D185" s="228" t="s">
+      <c r="D185" s="191" t="s">
         <v>44</v>
       </c>
-      <c r="E185" s="229">
+      <c r="E185" s="194">
         <v>45715</v>
       </c>
       <c r="F185" s="60">
         <v>1</v>
       </c>
-      <c r="G185" s="195" t="s">
+      <c r="G185" s="197" t="s">
         <v>647</v>
       </c>
-      <c r="H185" s="228">
+      <c r="H185" s="191">
         <v>604</v>
       </c>
       <c r="I185" s="60">
         <v>15.9</v>
       </c>
-      <c r="J185" s="246">
+      <c r="J185" s="182">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K185" s="60">
@@ -14029,7 +14134,7 @@
         <v>49</v>
       </c>
       <c r="N185" s="60"/>
-      <c r="O185" s="228" t="s">
+      <c r="O185" s="191" t="s">
         <v>648</v>
       </c>
     </row>
@@ -14037,19 +14142,19 @@
       <c r="A186" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="B186" s="218"/>
-      <c r="C186" s="218"/>
-      <c r="D186" s="218"/>
-      <c r="E186" s="230"/>
+      <c r="B186" s="192"/>
+      <c r="C186" s="192"/>
+      <c r="D186" s="192"/>
+      <c r="E186" s="195"/>
       <c r="F186" s="60">
         <v>2</v>
       </c>
-      <c r="G186" s="218"/>
-      <c r="H186" s="218"/>
+      <c r="G186" s="192"/>
+      <c r="H186" s="192"/>
       <c r="I186" s="60">
         <v>14.2</v>
       </c>
-      <c r="J186" s="246">
+      <c r="J186" s="182">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K186" s="60">
@@ -14062,25 +14167,25 @@
         <v>49</v>
       </c>
       <c r="N186" s="60"/>
-      <c r="O186" s="218"/>
+      <c r="O186" s="192"/>
     </row>
     <row r="187" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A187" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="B187" s="218"/>
-      <c r="C187" s="218"/>
-      <c r="D187" s="218"/>
-      <c r="E187" s="230"/>
+      <c r="B187" s="192"/>
+      <c r="C187" s="192"/>
+      <c r="D187" s="192"/>
+      <c r="E187" s="195"/>
       <c r="F187" s="60">
         <v>3</v>
       </c>
-      <c r="G187" s="218"/>
-      <c r="H187" s="218"/>
+      <c r="G187" s="192"/>
+      <c r="H187" s="192"/>
       <c r="I187" s="60">
         <v>14.8</v>
       </c>
-      <c r="J187" s="246">
+      <c r="J187" s="182">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K187" s="60">
@@ -14093,25 +14198,25 @@
         <v>49</v>
       </c>
       <c r="N187" s="60"/>
-      <c r="O187" s="218"/>
+      <c r="O187" s="192"/>
     </row>
     <row r="188" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A188" s="60" t="s">
         <v>651</v>
       </c>
-      <c r="B188" s="218"/>
-      <c r="C188" s="218"/>
-      <c r="D188" s="218"/>
-      <c r="E188" s="230"/>
+      <c r="B188" s="192"/>
+      <c r="C188" s="192"/>
+      <c r="D188" s="192"/>
+      <c r="E188" s="195"/>
       <c r="F188" s="60">
         <v>4</v>
       </c>
-      <c r="G188" s="218"/>
-      <c r="H188" s="218"/>
+      <c r="G188" s="192"/>
+      <c r="H188" s="192"/>
       <c r="I188" s="60">
         <v>16.7</v>
       </c>
-      <c r="J188" s="246">
+      <c r="J188" s="182">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K188" s="60">
@@ -14124,25 +14229,25 @@
         <v>49</v>
       </c>
       <c r="N188" s="60"/>
-      <c r="O188" s="218"/>
+      <c r="O188" s="192"/>
     </row>
     <row r="189" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A189" s="60" t="s">
         <v>652</v>
       </c>
-      <c r="B189" s="218"/>
-      <c r="C189" s="218"/>
-      <c r="D189" s="218"/>
-      <c r="E189" s="230"/>
+      <c r="B189" s="192"/>
+      <c r="C189" s="192"/>
+      <c r="D189" s="192"/>
+      <c r="E189" s="195"/>
       <c r="F189" s="60">
         <v>5</v>
       </c>
-      <c r="G189" s="218"/>
-      <c r="H189" s="218"/>
+      <c r="G189" s="192"/>
+      <c r="H189" s="192"/>
       <c r="I189" s="60">
         <v>7.4</v>
       </c>
-      <c r="J189" s="246">
+      <c r="J189" s="182">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K189" s="60">
@@ -14155,25 +14260,25 @@
         <v>49</v>
       </c>
       <c r="N189" s="60"/>
-      <c r="O189" s="218"/>
+      <c r="O189" s="192"/>
     </row>
     <row r="190" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A190" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="B190" s="218"/>
-      <c r="C190" s="218"/>
-      <c r="D190" s="218"/>
-      <c r="E190" s="230"/>
+      <c r="B190" s="192"/>
+      <c r="C190" s="192"/>
+      <c r="D190" s="192"/>
+      <c r="E190" s="195"/>
       <c r="F190" s="60">
         <v>6</v>
       </c>
-      <c r="G190" s="218"/>
-      <c r="H190" s="218"/>
+      <c r="G190" s="192"/>
+      <c r="H190" s="192"/>
       <c r="I190" s="60">
         <v>5.9</v>
       </c>
-      <c r="J190" s="246">
+      <c r="J190" s="182">
         <v>8.6730000000000002E-2</v>
       </c>
       <c r="K190" s="60">
@@ -14186,25 +14291,25 @@
         <v>49</v>
       </c>
       <c r="N190" s="60"/>
-      <c r="O190" s="218"/>
+      <c r="O190" s="192"/>
     </row>
     <row r="191" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A191" s="60" t="s">
         <v>653</v>
       </c>
-      <c r="B191" s="219"/>
-      <c r="C191" s="219"/>
-      <c r="D191" s="219"/>
-      <c r="E191" s="231"/>
+      <c r="B191" s="193"/>
+      <c r="C191" s="193"/>
+      <c r="D191" s="193"/>
+      <c r="E191" s="196"/>
       <c r="F191" s="60">
         <v>7</v>
       </c>
-      <c r="G191" s="219"/>
-      <c r="H191" s="219"/>
+      <c r="G191" s="193"/>
+      <c r="H191" s="193"/>
       <c r="I191" s="60">
         <v>3.6</v>
       </c>
-      <c r="J191" s="246">
+      <c r="J191" s="182">
         <v>2.8875000000000001E-2</v>
       </c>
       <c r="K191" s="60">
@@ -14217,7 +14322,7 @@
         <v>25</v>
       </c>
       <c r="N191" s="60"/>
-      <c r="O191" s="219"/>
+      <c r="O191" s="193"/>
     </row>
     <row r="192" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A192" s="42"/>
@@ -14246,25 +14351,25 @@
       <c r="A193" s="113" t="s">
         <v>654</v>
       </c>
-      <c r="B193" s="182" t="s">
+      <c r="B193" s="198" t="s">
         <v>655</v>
       </c>
-      <c r="C193" s="182" t="s">
+      <c r="C193" s="198" t="s">
         <v>656</v>
       </c>
-      <c r="D193" s="182" t="s">
+      <c r="D193" s="198" t="s">
         <v>155</v>
       </c>
-      <c r="E193" s="193">
+      <c r="E193" s="201">
         <v>45715</v>
       </c>
       <c r="F193" s="113">
         <v>1</v>
       </c>
-      <c r="G193" s="182" t="s">
+      <c r="G193" s="198" t="s">
         <v>97</v>
       </c>
-      <c r="H193" s="182">
+      <c r="H193" s="198">
         <v>20</v>
       </c>
       <c r="I193" s="113">
@@ -14283,7 +14388,7 @@
         <v>40</v>
       </c>
       <c r="N193" s="113"/>
-      <c r="O193" s="182" t="s">
+      <c r="O193" s="198" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14291,15 +14396,15 @@
       <c r="A194" s="113" t="s">
         <v>657</v>
       </c>
-      <c r="B194" s="186"/>
-      <c r="C194" s="186"/>
-      <c r="D194" s="186"/>
-      <c r="E194" s="204"/>
+      <c r="B194" s="199"/>
+      <c r="C194" s="199"/>
+      <c r="D194" s="199"/>
+      <c r="E194" s="202"/>
       <c r="F194" s="113">
         <v>2</v>
       </c>
-      <c r="G194" s="186"/>
-      <c r="H194" s="186"/>
+      <c r="G194" s="199"/>
+      <c r="H194" s="199"/>
       <c r="I194" s="113">
         <v>6.9</v>
       </c>
@@ -14316,21 +14421,21 @@
         <v>40</v>
       </c>
       <c r="N194" s="113"/>
-      <c r="O194" s="186"/>
+      <c r="O194" s="199"/>
     </row>
     <row r="195" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A195" s="113" t="s">
         <v>658</v>
       </c>
-      <c r="B195" s="183"/>
-      <c r="C195" s="183"/>
-      <c r="D195" s="183"/>
-      <c r="E195" s="194"/>
+      <c r="B195" s="200"/>
+      <c r="C195" s="200"/>
+      <c r="D195" s="200"/>
+      <c r="E195" s="203"/>
       <c r="F195" s="113">
         <v>3</v>
       </c>
-      <c r="G195" s="183"/>
-      <c r="H195" s="183"/>
+      <c r="G195" s="200"/>
+      <c r="H195" s="200"/>
       <c r="I195" s="113">
         <v>6.9</v>
       </c>
@@ -14347,7 +14452,7 @@
         <v>40</v>
       </c>
       <c r="N195" s="113"/>
-      <c r="O195" s="183"/>
+      <c r="O195" s="200"/>
     </row>
     <row r="196" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A196" s="42"/>
@@ -14376,22 +14481,22 @@
       <c r="A197" s="99" t="s">
         <v>659</v>
       </c>
-      <c r="B197" s="220" t="s">
+      <c r="B197" s="184" t="s">
         <v>660</v>
       </c>
       <c r="C197" s="99" t="s">
         <v>661</v>
       </c>
-      <c r="D197" s="220" t="s">
+      <c r="D197" s="184" t="s">
         <v>643</v>
       </c>
-      <c r="E197" s="213">
+      <c r="E197" s="186">
         <v>45716</v>
       </c>
       <c r="F197" s="99">
         <v>1</v>
       </c>
-      <c r="G197" s="220" t="s">
+      <c r="G197" s="184" t="s">
         <v>97</v>
       </c>
       <c r="H197" s="99">
@@ -14414,7 +14519,7 @@
         <v>60</v>
       </c>
       <c r="N197" s="99"/>
-      <c r="O197" s="220" t="s">
+      <c r="O197" s="184" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14422,16 +14527,16 @@
       <c r="A198" s="99" t="s">
         <v>662</v>
       </c>
-      <c r="B198" s="221"/>
+      <c r="B198" s="189"/>
       <c r="C198" s="99" t="s">
         <v>663</v>
       </c>
-      <c r="D198" s="221"/>
-      <c r="E198" s="223"/>
+      <c r="D198" s="189"/>
+      <c r="E198" s="204"/>
       <c r="F198" s="99">
         <v>2</v>
       </c>
-      <c r="G198" s="221"/>
+      <c r="G198" s="189"/>
       <c r="H198" s="99">
         <v>11</v>
       </c>
@@ -14452,22 +14557,22 @@
         <v>60</v>
       </c>
       <c r="N198" s="99"/>
-      <c r="O198" s="221"/>
+      <c r="O198" s="189"/>
     </row>
     <row r="199" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A199" s="99" t="s">
         <v>664</v>
       </c>
-      <c r="B199" s="222"/>
+      <c r="B199" s="185"/>
       <c r="C199" s="99" t="s">
         <v>665</v>
       </c>
-      <c r="D199" s="222"/>
-      <c r="E199" s="214"/>
+      <c r="D199" s="185"/>
+      <c r="E199" s="187"/>
       <c r="F199" s="99">
         <v>3</v>
       </c>
-      <c r="G199" s="222"/>
+      <c r="G199" s="185"/>
       <c r="H199" s="99">
         <v>10</v>
       </c>
@@ -14488,7 +14593,7 @@
         <v>60</v>
       </c>
       <c r="N199" s="99"/>
-      <c r="O199" s="222"/>
+      <c r="O199" s="185"/>
     </row>
     <row r="200" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A200" s="42"/>
@@ -14589,22 +14694,22 @@
       <c r="A203" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="B203" s="220" t="s">
+      <c r="B203" s="184" t="s">
         <v>670</v>
       </c>
       <c r="C203" s="99" t="s">
         <v>671</v>
       </c>
-      <c r="D203" s="220" t="s">
+      <c r="D203" s="184" t="s">
         <v>643</v>
       </c>
-      <c r="E203" s="213">
+      <c r="E203" s="186">
         <v>45717</v>
       </c>
       <c r="F203" s="99">
         <v>1</v>
       </c>
-      <c r="G203" s="220" t="s">
+      <c r="G203" s="184" t="s">
         <v>97</v>
       </c>
       <c r="H203" s="99">
@@ -14626,7 +14731,7 @@
         <v>60</v>
       </c>
       <c r="N203" s="99"/>
-      <c r="O203" s="220" t="s">
+      <c r="O203" s="184" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14634,16 +14739,16 @@
       <c r="A204" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="B204" s="222"/>
+      <c r="B204" s="185"/>
       <c r="C204" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="D204" s="222"/>
-      <c r="E204" s="214"/>
+      <c r="D204" s="185"/>
+      <c r="E204" s="187"/>
       <c r="F204" s="99">
         <v>2</v>
       </c>
-      <c r="G204" s="222"/>
+      <c r="G204" s="185"/>
       <c r="H204" s="99">
         <v>10</v>
       </c>
@@ -14663,7 +14768,7 @@
         <v>60</v>
       </c>
       <c r="N204" s="99"/>
-      <c r="O204" s="222"/>
+      <c r="O204" s="185"/>
     </row>
     <row r="205" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A205" s="178"/>
@@ -14686,7 +14791,7 @@
       <c r="L205" s="102"/>
       <c r="M205" s="102"/>
       <c r="N205" s="104"/>
-      <c r="O205" s="247"/>
+      <c r="O205" s="183"/>
     </row>
     <row r="206" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A206" s="99" t="s">
@@ -14832,20 +14937,20 @@
       <c r="A210" s="99" t="s">
         <v>682</v>
       </c>
-      <c r="B210" s="220" t="s">
+      <c r="B210" s="184" t="s">
         <v>683</v>
       </c>
       <c r="C210" s="99"/>
-      <c r="D210" s="220" t="s">
+      <c r="D210" s="184" t="s">
         <v>343</v>
       </c>
-      <c r="E210" s="213">
+      <c r="E210" s="186">
         <v>45719</v>
       </c>
       <c r="F210" s="99">
         <v>1</v>
       </c>
-      <c r="G210" s="224" t="s">
+      <c r="G210" s="188" t="s">
         <v>684</v>
       </c>
       <c r="H210" s="99">
@@ -14873,14 +14978,14 @@
       <c r="A211" s="99" t="s">
         <v>685</v>
       </c>
-      <c r="B211" s="222"/>
+      <c r="B211" s="185"/>
       <c r="C211" s="99"/>
-      <c r="D211" s="222"/>
-      <c r="E211" s="214"/>
+      <c r="D211" s="185"/>
+      <c r="E211" s="187"/>
       <c r="F211" s="99">
         <v>2</v>
       </c>
-      <c r="G211" s="222"/>
+      <c r="G211" s="185"/>
       <c r="H211" s="99">
         <v>100</v>
       </c>
@@ -14923,22 +15028,178 @@
       <c r="L212" s="102"/>
       <c r="M212" s="102"/>
       <c r="N212" s="104"/>
-      <c r="O212" s="247"/>
+      <c r="O212" s="183"/>
     </row>
     <row r="213" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E213" s="143"/>
+      <c r="A213" s="99" t="s">
+        <v>690</v>
+      </c>
+      <c r="B213" s="184" t="s">
+        <v>691</v>
+      </c>
+      <c r="C213" s="99" t="s">
+        <v>692</v>
+      </c>
+      <c r="D213" s="184" t="s">
+        <v>643</v>
+      </c>
+      <c r="E213" s="186">
+        <v>45720</v>
+      </c>
+      <c r="F213" s="99">
+        <v>1</v>
+      </c>
+      <c r="G213" s="188" t="s">
+        <v>693</v>
+      </c>
+      <c r="H213" s="99">
+        <v>12</v>
+      </c>
+      <c r="I213" s="99">
+        <v>12.8</v>
+      </c>
+      <c r="J213" s="100">
+        <v>0.108324</v>
+      </c>
+      <c r="K213" s="99">
+        <v>51</v>
+      </c>
+      <c r="L213" s="99">
+        <v>36</v>
+      </c>
+      <c r="M213" s="99">
+        <v>59</v>
+      </c>
+      <c r="N213" s="99"/>
+      <c r="O213" s="184" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="214" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E214" s="143"/>
+      <c r="A214" s="99" t="s">
+        <v>694</v>
+      </c>
+      <c r="B214" s="185"/>
+      <c r="C214" s="99" t="s">
+        <v>695</v>
+      </c>
+      <c r="D214" s="185"/>
+      <c r="E214" s="187"/>
+      <c r="F214" s="99">
+        <v>2</v>
+      </c>
+      <c r="G214" s="227"/>
+      <c r="H214" s="99">
+        <v>12</v>
+      </c>
+      <c r="I214" s="99">
+        <v>11.7</v>
+      </c>
+      <c r="J214" s="100">
+        <v>0.108324</v>
+      </c>
+      <c r="K214" s="99">
+        <v>51</v>
+      </c>
+      <c r="L214" s="99">
+        <v>36</v>
+      </c>
+      <c r="M214" s="99">
+        <v>59</v>
+      </c>
+      <c r="N214" s="99"/>
+      <c r="O214" s="185"/>
     </row>
     <row r="215" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E215" s="143"/>
+      <c r="A215" s="42"/>
+      <c r="B215" s="42"/>
+      <c r="C215" s="42"/>
+      <c r="D215" s="42"/>
+      <c r="E215" s="42"/>
+      <c r="F215" s="102">
+        <v>2</v>
+      </c>
+      <c r="G215" s="121"/>
+      <c r="H215" s="102"/>
+      <c r="I215" s="102">
+        <v>24.5</v>
+      </c>
+      <c r="J215" s="103">
+        <v>0.21664800000000001</v>
+      </c>
+      <c r="K215" s="102"/>
+      <c r="L215" s="102"/>
+      <c r="M215" s="102"/>
+      <c r="N215" s="104"/>
+      <c r="O215" s="183"/>
     </row>
     <row r="216" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E216" s="143"/>
+      <c r="A216" s="99" t="s">
+        <v>696</v>
+      </c>
+      <c r="B216" s="99" t="s">
+        <v>697</v>
+      </c>
+      <c r="C216" s="99" t="s">
+        <v>698</v>
+      </c>
+      <c r="D216" s="99" t="s">
+        <v>643</v>
+      </c>
+      <c r="E216" s="91">
+        <v>45721</v>
+      </c>
+      <c r="F216" s="99">
+        <v>1</v>
+      </c>
+      <c r="G216" s="106" t="s">
+        <v>693</v>
+      </c>
+      <c r="H216" s="99">
+        <v>12</v>
+      </c>
+      <c r="I216" s="99">
+        <v>12.3</v>
+      </c>
+      <c r="J216" s="100">
+        <v>0.108</v>
+      </c>
+      <c r="K216" s="99">
+        <v>50</v>
+      </c>
+      <c r="L216" s="99">
+        <v>36</v>
+      </c>
+      <c r="M216" s="99">
+        <v>60</v>
+      </c>
+      <c r="N216" s="99"/>
+      <c r="O216" s="99" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="217" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E217" s="143"/>
+      <c r="A217" s="42"/>
+      <c r="B217" s="42"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="42"/>
+      <c r="E217" s="42"/>
+      <c r="F217" s="102">
+        <v>1</v>
+      </c>
+      <c r="G217" s="111"/>
+      <c r="H217" s="102"/>
+      <c r="I217" s="102">
+        <v>12.3</v>
+      </c>
+      <c r="J217" s="103">
+        <v>0.108</v>
+      </c>
+      <c r="K217" s="102"/>
+      <c r="L217" s="102"/>
+      <c r="M217" s="102"/>
+      <c r="N217" s="104"/>
+      <c r="O217" s="104"/>
     </row>
     <row r="218" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E218" s="143"/>
@@ -14983,10 +15244,10 @@
       <c r="E231" s="143"/>
     </row>
     <row r="248" spans="1:16" ht="40.5">
-      <c r="A248" s="241" t="s">
+      <c r="A248" s="225" t="s">
         <v>444</v>
       </c>
-      <c r="B248" s="241"/>
+      <c r="B248" s="225"/>
     </row>
     <row r="250" spans="1:16" ht="84">
       <c r="A250" s="150"/>
@@ -15036,12 +15297,12 @@
     </row>
     <row r="251" spans="1:16" ht="22.5">
       <c r="A251" s="150"/>
-      <c r="B251" s="181" t="s">
+      <c r="B251" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C251" s="181"/>
-      <c r="D251" s="181"/>
-      <c r="E251" s="181"/>
+      <c r="C251" s="190"/>
+      <c r="D251" s="190"/>
+      <c r="E251" s="190"/>
       <c r="F251" s="64" t="s">
         <v>375</v>
       </c>
@@ -15062,16 +15323,16 @@
     </row>
     <row r="252" spans="1:16" ht="37.5">
       <c r="A252" s="150"/>
-      <c r="B252" s="228" t="s">
+      <c r="B252" s="191" t="s">
         <v>376</v>
       </c>
-      <c r="C252" s="195" t="s">
+      <c r="C252" s="197" t="s">
         <v>377</v>
       </c>
-      <c r="D252" s="228" t="s">
+      <c r="D252" s="191" t="s">
         <v>378</v>
       </c>
-      <c r="E252" s="229">
+      <c r="E252" s="194">
         <v>45659</v>
       </c>
       <c r="F252" s="62" t="s">
@@ -15083,7 +15344,7 @@
       <c r="H252" s="60">
         <v>1</v>
       </c>
-      <c r="I252" s="228">
+      <c r="I252" s="191">
         <v>255</v>
       </c>
       <c r="J252" s="63">
@@ -15098,22 +15359,22 @@
       <c r="M252" s="60">
         <v>62</v>
       </c>
-      <c r="N252" s="217">
+      <c r="N252" s="222">
         <v>45663</v>
       </c>
-      <c r="O252" s="217">
+      <c r="O252" s="222">
         <v>45705</v>
       </c>
-      <c r="P252" s="228" t="s">
+      <c r="P252" s="191" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="21">
       <c r="A253" s="150"/>
-      <c r="B253" s="218"/>
-      <c r="C253" s="196"/>
-      <c r="D253" s="218"/>
-      <c r="E253" s="230"/>
+      <c r="B253" s="192"/>
+      <c r="C253" s="219"/>
+      <c r="D253" s="192"/>
+      <c r="E253" s="195"/>
       <c r="F253" s="62" t="s">
         <v>15</v>
       </c>
@@ -15123,7 +15384,7 @@
       <c r="H253" s="60">
         <v>1</v>
       </c>
-      <c r="I253" s="218"/>
+      <c r="I253" s="192"/>
       <c r="J253" s="63">
         <v>0.54978000000000005</v>
       </c>
@@ -15136,16 +15397,16 @@
       <c r="M253" s="60">
         <v>77</v>
       </c>
-      <c r="N253" s="218"/>
-      <c r="O253" s="218"/>
-      <c r="P253" s="218"/>
+      <c r="N253" s="192"/>
+      <c r="O253" s="192"/>
+      <c r="P253" s="192"/>
     </row>
     <row r="254" spans="1:16" ht="37.5">
       <c r="A254" s="150"/>
-      <c r="B254" s="218"/>
-      <c r="C254" s="196"/>
-      <c r="D254" s="218"/>
-      <c r="E254" s="230"/>
+      <c r="B254" s="192"/>
+      <c r="C254" s="219"/>
+      <c r="D254" s="192"/>
+      <c r="E254" s="195"/>
       <c r="F254" s="62" t="s">
         <v>30</v>
       </c>
@@ -15155,7 +15416,7 @@
       <c r="H254" s="60">
         <v>1</v>
       </c>
-      <c r="I254" s="218"/>
+      <c r="I254" s="192"/>
       <c r="J254" s="63">
         <v>0.51480000000000004</v>
       </c>
@@ -15168,16 +15429,16 @@
       <c r="M254" s="60">
         <v>65</v>
       </c>
-      <c r="N254" s="218"/>
-      <c r="O254" s="218"/>
-      <c r="P254" s="218"/>
+      <c r="N254" s="192"/>
+      <c r="O254" s="192"/>
+      <c r="P254" s="192"/>
     </row>
     <row r="255" spans="1:16" ht="56.25">
       <c r="A255" s="150"/>
-      <c r="B255" s="219"/>
-      <c r="C255" s="197"/>
-      <c r="D255" s="219"/>
-      <c r="E255" s="231"/>
+      <c r="B255" s="193"/>
+      <c r="C255" s="220"/>
+      <c r="D255" s="193"/>
+      <c r="E255" s="196"/>
       <c r="F255" s="62" t="s">
         <v>25</v>
       </c>
@@ -15187,7 +15448,7 @@
       <c r="H255" s="60">
         <v>1</v>
       </c>
-      <c r="I255" s="219"/>
+      <c r="I255" s="193"/>
       <c r="J255" s="63">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -15200,20 +15461,20 @@
       <c r="M255" s="60">
         <v>18</v>
       </c>
-      <c r="N255" s="219"/>
-      <c r="O255" s="219"/>
-      <c r="P255" s="219"/>
+      <c r="N255" s="193"/>
+      <c r="O255" s="193"/>
+      <c r="P255" s="193"/>
     </row>
     <row r="256" spans="1:16" ht="22.5">
       <c r="A256" s="177">
         <v>45692</v>
       </c>
-      <c r="B256" s="181" t="s">
+      <c r="B256" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C256" s="181"/>
-      <c r="D256" s="181"/>
-      <c r="E256" s="181"/>
+      <c r="C256" s="190"/>
+      <c r="D256" s="190"/>
+      <c r="E256" s="190"/>
       <c r="F256" s="64" t="s">
         <v>25</v>
       </c>
@@ -15285,12 +15546,12 @@
     </row>
     <row r="258" spans="1:16" ht="22.5">
       <c r="A258" s="150"/>
-      <c r="B258" s="181" t="s">
+      <c r="B258" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C258" s="181"/>
-      <c r="D258" s="181"/>
-      <c r="E258" s="181"/>
+      <c r="C258" s="190"/>
+      <c r="D258" s="190"/>
+      <c r="E258" s="190"/>
       <c r="F258" s="64" t="s">
         <v>388</v>
       </c>
@@ -15364,12 +15625,12 @@
     </row>
     <row r="260" spans="1:16" ht="22.5">
       <c r="A260" s="150"/>
-      <c r="B260" s="181" t="s">
+      <c r="B260" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C260" s="181"/>
-      <c r="D260" s="181"/>
-      <c r="E260" s="181"/>
+      <c r="C260" s="190"/>
+      <c r="D260" s="190"/>
+      <c r="E260" s="190"/>
       <c r="F260" s="64" t="s">
         <v>391</v>
       </c>
@@ -15440,12 +15701,12 @@
     </row>
     <row r="262" spans="1:16" ht="22.5">
       <c r="A262" s="150"/>
-      <c r="B262" s="181" t="s">
+      <c r="B262" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C262" s="181"/>
-      <c r="D262" s="181"/>
-      <c r="E262" s="181"/>
+      <c r="C262" s="190"/>
+      <c r="D262" s="190"/>
+      <c r="E262" s="190"/>
       <c r="F262" s="64" t="s">
         <v>394</v>
       </c>
@@ -15466,28 +15727,28 @@
     </row>
     <row r="263" spans="1:16" ht="21">
       <c r="A263" s="150"/>
-      <c r="B263" s="192" t="s">
+      <c r="B263" s="210" t="s">
         <v>395</v>
       </c>
-      <c r="C263" s="192" t="s">
+      <c r="C263" s="210" t="s">
         <v>396</v>
       </c>
-      <c r="D263" s="192" t="s">
+      <c r="D263" s="210" t="s">
         <v>397</v>
       </c>
-      <c r="E263" s="193">
+      <c r="E263" s="201">
         <v>45660</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G263" s="232" t="s">
+      <c r="G263" s="229" t="s">
         <v>398</v>
       </c>
       <c r="H263" s="81">
         <v>130</v>
       </c>
-      <c r="I263" s="192">
+      <c r="I263" s="210">
         <v>7600</v>
       </c>
       <c r="J263" s="10">
@@ -15502,30 +15763,30 @@
       <c r="M263" s="81">
         <v>66</v>
       </c>
-      <c r="N263" s="235">
+      <c r="N263" s="208">
         <v>45665</v>
       </c>
-      <c r="O263" s="235">
+      <c r="O263" s="208">
         <v>45706</v>
       </c>
-      <c r="P263" s="192" t="s">
+      <c r="P263" s="210" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="21">
       <c r="A264" s="150"/>
-      <c r="B264" s="187"/>
-      <c r="C264" s="187"/>
-      <c r="D264" s="187"/>
-      <c r="E264" s="204"/>
+      <c r="B264" s="211"/>
+      <c r="C264" s="211"/>
+      <c r="D264" s="211"/>
+      <c r="E264" s="202"/>
       <c r="F264" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G264" s="233"/>
+      <c r="G264" s="230"/>
       <c r="H264" s="81">
         <v>120</v>
       </c>
-      <c r="I264" s="187"/>
+      <c r="I264" s="211"/>
       <c r="J264" s="10">
         <v>3.167424</v>
       </c>
@@ -15538,24 +15799,24 @@
       <c r="M264" s="81">
         <v>72</v>
       </c>
-      <c r="N264" s="187"/>
-      <c r="O264" s="187"/>
-      <c r="P264" s="187"/>
+      <c r="N264" s="211"/>
+      <c r="O264" s="211"/>
+      <c r="P264" s="211"/>
     </row>
     <row r="265" spans="1:16" ht="21">
       <c r="A265" s="150"/>
-      <c r="B265" s="187"/>
-      <c r="C265" s="187"/>
-      <c r="D265" s="187"/>
-      <c r="E265" s="204"/>
+      <c r="B265" s="211"/>
+      <c r="C265" s="211"/>
+      <c r="D265" s="211"/>
+      <c r="E265" s="202"/>
       <c r="F265" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G265" s="233"/>
+      <c r="G265" s="230"/>
       <c r="H265" s="81">
         <v>130</v>
       </c>
-      <c r="I265" s="187"/>
+      <c r="I265" s="211"/>
       <c r="J265" s="10">
         <v>3.383718</v>
       </c>
@@ -15568,24 +15829,24 @@
       <c r="M265" s="81">
         <v>71</v>
       </c>
-      <c r="N265" s="187"/>
-      <c r="O265" s="187"/>
-      <c r="P265" s="187"/>
+      <c r="N265" s="211"/>
+      <c r="O265" s="211"/>
+      <c r="P265" s="211"/>
     </row>
     <row r="266" spans="1:16" ht="21">
       <c r="A266" s="150"/>
-      <c r="B266" s="187"/>
-      <c r="C266" s="187"/>
-      <c r="D266" s="187"/>
-      <c r="E266" s="204"/>
+      <c r="B266" s="211"/>
+      <c r="C266" s="211"/>
+      <c r="D266" s="211"/>
+      <c r="E266" s="202"/>
       <c r="F266" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G266" s="234"/>
+      <c r="G266" s="231"/>
       <c r="H266" s="81">
         <v>220</v>
       </c>
-      <c r="I266" s="187"/>
+      <c r="I266" s="211"/>
       <c r="J266" s="10">
         <v>2.5405380000000002</v>
       </c>
@@ -15598,16 +15859,16 @@
       <c r="M266" s="81">
         <v>63</v>
       </c>
-      <c r="N266" s="187"/>
-      <c r="O266" s="187"/>
-      <c r="P266" s="187"/>
+      <c r="N266" s="211"/>
+      <c r="O266" s="211"/>
+      <c r="P266" s="211"/>
     </row>
     <row r="267" spans="1:16" ht="21">
       <c r="A267" s="150"/>
-      <c r="B267" s="188"/>
-      <c r="C267" s="188"/>
-      <c r="D267" s="188"/>
-      <c r="E267" s="194"/>
+      <c r="B267" s="209"/>
+      <c r="C267" s="209"/>
+      <c r="D267" s="209"/>
+      <c r="E267" s="203"/>
       <c r="F267" s="3" t="s">
         <v>13</v>
       </c>
@@ -15617,7 +15878,7 @@
       <c r="H267" s="81">
         <v>1599</v>
       </c>
-      <c r="I267" s="188"/>
+      <c r="I267" s="209"/>
       <c r="J267" s="10">
         <v>0.68834399999999996</v>
       </c>
@@ -15630,20 +15891,20 @@
       <c r="M267" s="81">
         <v>92</v>
       </c>
-      <c r="N267" s="188"/>
-      <c r="O267" s="188"/>
-      <c r="P267" s="188"/>
+      <c r="N267" s="209"/>
+      <c r="O267" s="209"/>
+      <c r="P267" s="209"/>
     </row>
     <row r="268" spans="1:16" ht="22.5">
       <c r="A268" s="177">
         <v>45689</v>
       </c>
-      <c r="B268" s="181" t="s">
+      <c r="B268" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C268" s="181"/>
-      <c r="D268" s="181"/>
-      <c r="E268" s="181"/>
+      <c r="C268" s="190"/>
+      <c r="D268" s="190"/>
+      <c r="E268" s="190"/>
       <c r="F268" s="64" t="s">
         <v>13</v>
       </c>
@@ -15710,12 +15971,12 @@
     </row>
     <row r="270" spans="1:16" ht="22.5">
       <c r="A270" s="150"/>
-      <c r="B270" s="181" t="s">
+      <c r="B270" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C270" s="181"/>
-      <c r="D270" s="181"/>
-      <c r="E270" s="181"/>
+      <c r="C270" s="190"/>
+      <c r="D270" s="190"/>
+      <c r="E270" s="190"/>
       <c r="F270" s="64" t="s">
         <v>406</v>
       </c>
@@ -15785,12 +16046,12 @@
     </row>
     <row r="272" spans="1:16" ht="22.5">
       <c r="A272" s="150"/>
-      <c r="B272" s="181" t="s">
+      <c r="B272" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C272" s="181"/>
-      <c r="D272" s="181"/>
-      <c r="E272" s="181"/>
+      <c r="C272" s="190"/>
+      <c r="D272" s="190"/>
+      <c r="E272" s="190"/>
       <c r="F272" s="64" t="s">
         <v>409</v>
       </c>
@@ -15813,16 +16074,16 @@
     </row>
     <row r="273" spans="1:16" ht="37.5">
       <c r="A273" s="177"/>
-      <c r="B273" s="192" t="s">
+      <c r="B273" s="210" t="s">
         <v>410</v>
       </c>
-      <c r="C273" s="192" t="s">
+      <c r="C273" s="210" t="s">
         <v>411</v>
       </c>
-      <c r="D273" s="192" t="s">
+      <c r="D273" s="210" t="s">
         <v>412</v>
       </c>
-      <c r="E273" s="193">
+      <c r="E273" s="201">
         <v>45665</v>
       </c>
       <c r="F273" s="3" t="s">
@@ -15851,22 +16112,22 @@
       <c r="M273" s="81">
         <v>39</v>
       </c>
-      <c r="N273" s="235">
+      <c r="N273" s="208">
         <v>45670</v>
       </c>
-      <c r="O273" s="235">
+      <c r="O273" s="208">
         <v>45712</v>
       </c>
-      <c r="P273" s="192" t="s">
+      <c r="P273" s="210" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="274" spans="1:16" ht="37.5">
       <c r="A274" s="177"/>
-      <c r="B274" s="187"/>
-      <c r="C274" s="187"/>
-      <c r="D274" s="187"/>
-      <c r="E274" s="204"/>
+      <c r="B274" s="211"/>
+      <c r="C274" s="211"/>
+      <c r="D274" s="211"/>
+      <c r="E274" s="202"/>
       <c r="F274" s="3" t="s">
         <v>99</v>
       </c>
@@ -15893,20 +16154,20 @@
       <c r="M274" s="81">
         <v>28</v>
       </c>
-      <c r="N274" s="187"/>
-      <c r="O274" s="187"/>
-      <c r="P274" s="187"/>
+      <c r="N274" s="211"/>
+      <c r="O274" s="211"/>
+      <c r="P274" s="211"/>
     </row>
     <row r="275" spans="1:16" ht="21">
       <c r="A275" s="177"/>
-      <c r="B275" s="187"/>
-      <c r="C275" s="187"/>
-      <c r="D275" s="187"/>
-      <c r="E275" s="204"/>
+      <c r="B275" s="211"/>
+      <c r="C275" s="211"/>
+      <c r="D275" s="211"/>
+      <c r="E275" s="202"/>
       <c r="F275" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="G275" s="232" t="s">
+      <c r="G275" s="229" t="s">
         <v>417</v>
       </c>
       <c r="H275" s="81">
@@ -15929,20 +16190,20 @@
       <c r="M275" s="81">
         <v>39</v>
       </c>
-      <c r="N275" s="187"/>
-      <c r="O275" s="187"/>
-      <c r="P275" s="187"/>
+      <c r="N275" s="211"/>
+      <c r="O275" s="211"/>
+      <c r="P275" s="211"/>
     </row>
     <row r="276" spans="1:16" ht="21">
       <c r="A276" s="177"/>
-      <c r="B276" s="187"/>
-      <c r="C276" s="187"/>
-      <c r="D276" s="187"/>
-      <c r="E276" s="204"/>
+      <c r="B276" s="211"/>
+      <c r="C276" s="211"/>
+      <c r="D276" s="211"/>
+      <c r="E276" s="202"/>
       <c r="F276" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="G276" s="234"/>
+      <c r="G276" s="231"/>
       <c r="H276" s="81">
         <v>48</v>
       </c>
@@ -15962,16 +16223,16 @@
       <c r="M276" s="81">
         <v>23</v>
       </c>
-      <c r="N276" s="187"/>
-      <c r="O276" s="187"/>
-      <c r="P276" s="187"/>
+      <c r="N276" s="211"/>
+      <c r="O276" s="211"/>
+      <c r="P276" s="211"/>
     </row>
     <row r="277" spans="1:16" ht="37.5">
       <c r="A277" s="177"/>
-      <c r="B277" s="188"/>
-      <c r="C277" s="188"/>
-      <c r="D277" s="188"/>
-      <c r="E277" s="194"/>
+      <c r="B277" s="209"/>
+      <c r="C277" s="209"/>
+      <c r="D277" s="209"/>
+      <c r="E277" s="203"/>
       <c r="F277" s="3" t="s">
         <v>419</v>
       </c>
@@ -15998,20 +16259,20 @@
       <c r="M277" s="81">
         <v>47</v>
       </c>
-      <c r="N277" s="188"/>
-      <c r="O277" s="188"/>
-      <c r="P277" s="188"/>
+      <c r="N277" s="209"/>
+      <c r="O277" s="209"/>
+      <c r="P277" s="209"/>
     </row>
     <row r="278" spans="1:16" ht="22.5">
       <c r="A278" s="177">
         <v>45702</v>
       </c>
-      <c r="B278" s="181" t="s">
+      <c r="B278" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="181"/>
-      <c r="D278" s="181"/>
-      <c r="E278" s="181"/>
+      <c r="C278" s="190"/>
+      <c r="D278" s="190"/>
+      <c r="E278" s="190"/>
       <c r="F278" s="64" t="s">
         <v>421</v>
       </c>
@@ -16084,12 +16345,12 @@
       <c r="A280" s="177">
         <v>45707</v>
       </c>
-      <c r="B280" s="181" t="s">
+      <c r="B280" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C280" s="181"/>
-      <c r="D280" s="181"/>
-      <c r="E280" s="181"/>
+      <c r="C280" s="190"/>
+      <c r="D280" s="190"/>
+      <c r="E280" s="190"/>
       <c r="F280" s="64" t="s">
         <v>25</v>
       </c>
@@ -16110,26 +16371,26 @@
     </row>
     <row r="281" spans="1:16" ht="21">
       <c r="A281" s="177"/>
-      <c r="B281" s="192" t="s">
+      <c r="B281" s="210" t="s">
         <v>426</v>
       </c>
-      <c r="C281" s="232" t="s">
+      <c r="C281" s="229" t="s">
         <v>427</v>
       </c>
-      <c r="D281" s="192" t="s">
+      <c r="D281" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="E281" s="193">
+      <c r="E281" s="201">
         <v>45666</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G281" s="232" t="s">
+      <c r="G281" s="229" t="s">
         <v>428</v>
       </c>
       <c r="H281" s="81"/>
-      <c r="I281" s="192">
+      <c r="I281" s="210">
         <v>13</v>
       </c>
       <c r="J281" s="10">
@@ -16144,28 +16405,28 @@
       <c r="M281" s="81">
         <v>36</v>
       </c>
-      <c r="N281" s="235">
+      <c r="N281" s="208">
         <v>45670</v>
       </c>
-      <c r="O281" s="235">
+      <c r="O281" s="208">
         <v>45712</v>
       </c>
-      <c r="P281" s="192" t="s">
+      <c r="P281" s="210" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="282" spans="1:16" ht="21">
       <c r="A282" s="177"/>
-      <c r="B282" s="188"/>
-      <c r="C282" s="234"/>
-      <c r="D282" s="188"/>
-      <c r="E282" s="194"/>
+      <c r="B282" s="209"/>
+      <c r="C282" s="231"/>
+      <c r="D282" s="209"/>
+      <c r="E282" s="203"/>
       <c r="F282" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G282" s="188"/>
+      <c r="G282" s="209"/>
       <c r="H282" s="81"/>
-      <c r="I282" s="188"/>
+      <c r="I282" s="209"/>
       <c r="J282" s="10">
         <v>2.3751000000000001E-2</v>
       </c>
@@ -16178,20 +16439,20 @@
       <c r="M282" s="81">
         <v>29</v>
       </c>
-      <c r="N282" s="188"/>
-      <c r="O282" s="188"/>
-      <c r="P282" s="188"/>
+      <c r="N282" s="209"/>
+      <c r="O282" s="209"/>
+      <c r="P282" s="209"/>
     </row>
     <row r="283" spans="1:16" ht="22.5">
       <c r="A283" s="177">
         <v>45694</v>
       </c>
-      <c r="B283" s="181" t="s">
+      <c r="B283" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C283" s="181"/>
-      <c r="D283" s="181"/>
-      <c r="E283" s="181"/>
+      <c r="C283" s="190"/>
+      <c r="D283" s="190"/>
+      <c r="E283" s="190"/>
       <c r="F283" s="64" t="s">
         <v>15</v>
       </c>
@@ -16259,12 +16520,12 @@
       </c>
     </row>
     <row r="285" spans="1:16" ht="22.5">
-      <c r="B285" s="189" t="s">
+      <c r="B285" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="C285" s="190"/>
-      <c r="D285" s="190"/>
-      <c r="E285" s="191"/>
+      <c r="C285" s="233"/>
+      <c r="D285" s="233"/>
+      <c r="E285" s="234"/>
       <c r="F285" s="64" t="s">
         <v>433</v>
       </c>
@@ -16334,12 +16595,12 @@
       </c>
     </row>
     <row r="287" spans="1:16" ht="22.5">
-      <c r="B287" s="189" t="s">
+      <c r="B287" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="C287" s="190"/>
-      <c r="D287" s="190"/>
-      <c r="E287" s="191"/>
+      <c r="C287" s="233"/>
+      <c r="D287" s="233"/>
+      <c r="E287" s="234"/>
       <c r="F287" s="135" t="s">
         <v>433</v>
       </c>
@@ -16409,12 +16670,12 @@
       </c>
     </row>
     <row r="289" spans="1:16" ht="22.5">
-      <c r="B289" s="189" t="s">
+      <c r="B289" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="C289" s="190"/>
-      <c r="D289" s="190"/>
-      <c r="E289" s="191"/>
+      <c r="C289" s="233"/>
+      <c r="D289" s="233"/>
+      <c r="E289" s="234"/>
       <c r="F289" s="64" t="s">
         <v>388</v>
       </c>
@@ -16484,12 +16745,12 @@
       </c>
     </row>
     <row r="291" spans="1:16" ht="22.5">
-      <c r="B291" s="189" t="s">
+      <c r="B291" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="C291" s="190"/>
-      <c r="D291" s="190"/>
-      <c r="E291" s="191"/>
+      <c r="C291" s="233"/>
+      <c r="D291" s="233"/>
+      <c r="E291" s="234"/>
       <c r="F291" s="64" t="s">
         <v>433</v>
       </c>
@@ -16512,28 +16773,28 @@
     </row>
     <row r="292" spans="1:16" ht="21">
       <c r="A292" s="177"/>
-      <c r="B292" s="192" t="s">
+      <c r="B292" s="210" t="s">
         <v>100</v>
       </c>
-      <c r="C292" s="192">
+      <c r="C292" s="210">
         <v>1392620920</v>
       </c>
-      <c r="D292" s="192" t="s">
+      <c r="D292" s="210" t="s">
         <v>20</v>
       </c>
-      <c r="E292" s="193">
+      <c r="E292" s="201">
         <v>45667</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G292" s="232" t="s">
+      <c r="G292" s="229" t="s">
         <v>68</v>
       </c>
       <c r="H292" s="81">
         <v>8</v>
       </c>
-      <c r="I292" s="192">
+      <c r="I292" s="210">
         <v>357</v>
       </c>
       <c r="J292" s="10">
@@ -16548,30 +16809,30 @@
       <c r="M292" s="81">
         <v>26</v>
       </c>
-      <c r="N292" s="235">
+      <c r="N292" s="208">
         <v>45670</v>
       </c>
-      <c r="O292" s="235">
+      <c r="O292" s="208">
         <v>45699</v>
       </c>
-      <c r="P292" s="192" t="s">
+      <c r="P292" s="210" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="21">
       <c r="A293" s="177"/>
-      <c r="B293" s="187"/>
-      <c r="C293" s="187"/>
-      <c r="D293" s="187"/>
-      <c r="E293" s="204"/>
+      <c r="B293" s="211"/>
+      <c r="C293" s="211"/>
+      <c r="D293" s="211"/>
+      <c r="E293" s="202"/>
       <c r="F293" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G293" s="233"/>
+      <c r="G293" s="230"/>
       <c r="H293" s="81">
         <v>2</v>
       </c>
-      <c r="I293" s="187"/>
+      <c r="I293" s="211"/>
       <c r="J293" s="10">
         <v>7.7219999999999997E-2</v>
       </c>
@@ -16584,24 +16845,24 @@
       <c r="M293" s="81">
         <v>26</v>
       </c>
-      <c r="N293" s="187"/>
-      <c r="O293" s="187"/>
-      <c r="P293" s="187"/>
+      <c r="N293" s="211"/>
+      <c r="O293" s="211"/>
+      <c r="P293" s="211"/>
     </row>
     <row r="294" spans="1:16" ht="21">
       <c r="A294" s="177"/>
-      <c r="B294" s="187"/>
-      <c r="C294" s="187"/>
-      <c r="D294" s="187"/>
-      <c r="E294" s="204"/>
+      <c r="B294" s="211"/>
+      <c r="C294" s="211"/>
+      <c r="D294" s="211"/>
+      <c r="E294" s="202"/>
       <c r="F294" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G294" s="234"/>
+      <c r="G294" s="231"/>
       <c r="H294" s="81">
         <v>4</v>
       </c>
-      <c r="I294" s="187"/>
+      <c r="I294" s="211"/>
       <c r="J294" s="10">
         <v>0.12675</v>
       </c>
@@ -16614,26 +16875,26 @@
       <c r="M294" s="81">
         <v>25</v>
       </c>
-      <c r="N294" s="187"/>
-      <c r="O294" s="187"/>
-      <c r="P294" s="187"/>
+      <c r="N294" s="211"/>
+      <c r="O294" s="211"/>
+      <c r="P294" s="211"/>
     </row>
     <row r="295" spans="1:16" ht="21">
       <c r="A295" s="177"/>
-      <c r="B295" s="187"/>
-      <c r="C295" s="187"/>
-      <c r="D295" s="187"/>
-      <c r="E295" s="204"/>
+      <c r="B295" s="211"/>
+      <c r="C295" s="211"/>
+      <c r="D295" s="211"/>
+      <c r="E295" s="202"/>
       <c r="F295" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G295" s="232" t="s">
+      <c r="G295" s="229" t="s">
         <v>58</v>
       </c>
       <c r="H295" s="81">
         <v>20</v>
       </c>
-      <c r="I295" s="187"/>
+      <c r="I295" s="211"/>
       <c r="J295" s="10">
         <v>0.31099199999999999</v>
       </c>
@@ -16646,24 +16907,24 @@
       <c r="M295" s="81">
         <v>38</v>
       </c>
-      <c r="N295" s="187"/>
-      <c r="O295" s="187"/>
-      <c r="P295" s="187"/>
+      <c r="N295" s="211"/>
+      <c r="O295" s="211"/>
+      <c r="P295" s="211"/>
     </row>
     <row r="296" spans="1:16" ht="21">
       <c r="A296" s="177"/>
-      <c r="B296" s="187"/>
-      <c r="C296" s="187"/>
-      <c r="D296" s="187"/>
-      <c r="E296" s="204"/>
+      <c r="B296" s="211"/>
+      <c r="C296" s="211"/>
+      <c r="D296" s="211"/>
+      <c r="E296" s="202"/>
       <c r="F296" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G296" s="233"/>
+      <c r="G296" s="230"/>
       <c r="H296" s="81">
         <v>10</v>
       </c>
-      <c r="I296" s="187"/>
+      <c r="I296" s="211"/>
       <c r="J296" s="10">
         <v>0.13718</v>
       </c>
@@ -16676,24 +16937,24 @@
       <c r="M296" s="81">
         <v>38</v>
       </c>
-      <c r="N296" s="187"/>
-      <c r="O296" s="187"/>
-      <c r="P296" s="187"/>
+      <c r="N296" s="211"/>
+      <c r="O296" s="211"/>
+      <c r="P296" s="211"/>
     </row>
     <row r="297" spans="1:16" ht="21">
       <c r="A297" s="177"/>
-      <c r="B297" s="187"/>
-      <c r="C297" s="187"/>
-      <c r="D297" s="187"/>
-      <c r="E297" s="204"/>
+      <c r="B297" s="211"/>
+      <c r="C297" s="211"/>
+      <c r="D297" s="211"/>
+      <c r="E297" s="202"/>
       <c r="F297" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G297" s="233"/>
+      <c r="G297" s="230"/>
       <c r="H297" s="81">
         <v>10</v>
       </c>
-      <c r="I297" s="187"/>
+      <c r="I297" s="211"/>
       <c r="J297" s="10">
         <v>0.13718</v>
       </c>
@@ -16706,24 +16967,24 @@
       <c r="M297" s="81">
         <v>38</v>
       </c>
-      <c r="N297" s="187"/>
-      <c r="O297" s="187"/>
-      <c r="P297" s="187"/>
+      <c r="N297" s="211"/>
+      <c r="O297" s="211"/>
+      <c r="P297" s="211"/>
     </row>
     <row r="298" spans="1:16" ht="21">
       <c r="A298" s="177"/>
-      <c r="B298" s="187"/>
-      <c r="C298" s="187"/>
-      <c r="D298" s="187"/>
-      <c r="E298" s="204"/>
+      <c r="B298" s="211"/>
+      <c r="C298" s="211"/>
+      <c r="D298" s="211"/>
+      <c r="E298" s="202"/>
       <c r="F298" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G298" s="233"/>
+      <c r="G298" s="230"/>
       <c r="H298" s="81">
         <v>20</v>
       </c>
-      <c r="I298" s="187"/>
+      <c r="I298" s="211"/>
       <c r="J298" s="10">
         <v>0.13718</v>
       </c>
@@ -16736,24 +16997,24 @@
       <c r="M298" s="81">
         <v>38</v>
       </c>
-      <c r="N298" s="187"/>
-      <c r="O298" s="187"/>
-      <c r="P298" s="187"/>
+      <c r="N298" s="211"/>
+      <c r="O298" s="211"/>
+      <c r="P298" s="211"/>
     </row>
     <row r="299" spans="1:16" ht="21">
       <c r="A299" s="177"/>
-      <c r="B299" s="187"/>
-      <c r="C299" s="187"/>
-      <c r="D299" s="187"/>
-      <c r="E299" s="204"/>
+      <c r="B299" s="211"/>
+      <c r="C299" s="211"/>
+      <c r="D299" s="211"/>
+      <c r="E299" s="202"/>
       <c r="F299" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G299" s="233"/>
+      <c r="G299" s="230"/>
       <c r="H299" s="81">
         <v>50</v>
       </c>
-      <c r="I299" s="187"/>
+      <c r="I299" s="211"/>
       <c r="J299" s="10">
         <v>0.68589999999999995</v>
       </c>
@@ -16766,24 +17027,24 @@
       <c r="M299" s="81">
         <v>38</v>
       </c>
-      <c r="N299" s="187"/>
-      <c r="O299" s="187"/>
-      <c r="P299" s="187"/>
+      <c r="N299" s="211"/>
+      <c r="O299" s="211"/>
+      <c r="P299" s="211"/>
     </row>
     <row r="300" spans="1:16" ht="21">
       <c r="A300" s="177"/>
-      <c r="B300" s="187"/>
-      <c r="C300" s="187"/>
-      <c r="D300" s="187"/>
-      <c r="E300" s="204"/>
+      <c r="B300" s="211"/>
+      <c r="C300" s="211"/>
+      <c r="D300" s="211"/>
+      <c r="E300" s="202"/>
       <c r="F300" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G300" s="234"/>
+      <c r="G300" s="231"/>
       <c r="H300" s="81">
         <v>10</v>
       </c>
-      <c r="I300" s="187"/>
+      <c r="I300" s="211"/>
       <c r="J300" s="10">
         <v>6.93E-2</v>
       </c>
@@ -16796,16 +17057,16 @@
       <c r="M300" s="81">
         <v>33</v>
       </c>
-      <c r="N300" s="187"/>
-      <c r="O300" s="187"/>
-      <c r="P300" s="187"/>
+      <c r="N300" s="211"/>
+      <c r="O300" s="211"/>
+      <c r="P300" s="211"/>
     </row>
     <row r="301" spans="1:16" ht="21">
       <c r="A301" s="177"/>
-      <c r="B301" s="187"/>
-      <c r="C301" s="187"/>
-      <c r="D301" s="187"/>
-      <c r="E301" s="204"/>
+      <c r="B301" s="211"/>
+      <c r="C301" s="211"/>
+      <c r="D301" s="211"/>
+      <c r="E301" s="202"/>
       <c r="F301" s="3" t="s">
         <v>28</v>
       </c>
@@ -16815,7 +17076,7 @@
       <c r="H301" s="81">
         <v>85</v>
       </c>
-      <c r="I301" s="187"/>
+      <c r="I301" s="211"/>
       <c r="J301" s="10">
         <v>3.0096000000000001E-2</v>
       </c>
@@ -16828,16 +17089,16 @@
       <c r="M301" s="81">
         <v>24</v>
       </c>
-      <c r="N301" s="187"/>
-      <c r="O301" s="187"/>
-      <c r="P301" s="187"/>
+      <c r="N301" s="211"/>
+      <c r="O301" s="211"/>
+      <c r="P301" s="211"/>
     </row>
     <row r="302" spans="1:16" ht="21">
       <c r="A302" s="177"/>
-      <c r="B302" s="187"/>
-      <c r="C302" s="187"/>
-      <c r="D302" s="187"/>
-      <c r="E302" s="204"/>
+      <c r="B302" s="211"/>
+      <c r="C302" s="211"/>
+      <c r="D302" s="211"/>
+      <c r="E302" s="202"/>
       <c r="F302" s="3" t="s">
         <v>29</v>
       </c>
@@ -16847,7 +17108,7 @@
       <c r="H302" s="81">
         <v>50</v>
       </c>
-      <c r="I302" s="187"/>
+      <c r="I302" s="211"/>
       <c r="J302" s="10">
         <v>5.3921999999999998E-2</v>
       </c>
@@ -16860,16 +17121,16 @@
       <c r="M302" s="81">
         <v>33</v>
       </c>
-      <c r="N302" s="187"/>
-      <c r="O302" s="187"/>
-      <c r="P302" s="187"/>
+      <c r="N302" s="211"/>
+      <c r="O302" s="211"/>
+      <c r="P302" s="211"/>
     </row>
     <row r="303" spans="1:16" ht="21">
       <c r="A303" s="177"/>
-      <c r="B303" s="187"/>
-      <c r="C303" s="187"/>
-      <c r="D303" s="187"/>
-      <c r="E303" s="204"/>
+      <c r="B303" s="211"/>
+      <c r="C303" s="211"/>
+      <c r="D303" s="211"/>
+      <c r="E303" s="202"/>
       <c r="F303" s="3" t="s">
         <v>57</v>
       </c>
@@ -16879,7 +17140,7 @@
       <c r="H303" s="81">
         <v>14</v>
       </c>
-      <c r="I303" s="187"/>
+      <c r="I303" s="211"/>
       <c r="J303" s="10">
         <v>0.16819999999999999</v>
       </c>
@@ -16892,16 +17153,16 @@
       <c r="M303" s="81">
         <v>20</v>
       </c>
-      <c r="N303" s="187"/>
-      <c r="O303" s="187"/>
-      <c r="P303" s="187"/>
+      <c r="N303" s="211"/>
+      <c r="O303" s="211"/>
+      <c r="P303" s="211"/>
     </row>
     <row r="304" spans="1:16" ht="37.5">
       <c r="A304" s="177"/>
-      <c r="B304" s="188"/>
-      <c r="C304" s="188"/>
-      <c r="D304" s="188"/>
-      <c r="E304" s="194"/>
+      <c r="B304" s="209"/>
+      <c r="C304" s="209"/>
+      <c r="D304" s="209"/>
+      <c r="E304" s="203"/>
       <c r="F304" s="3" t="s">
         <v>87</v>
       </c>
@@ -16911,7 +17172,7 @@
       <c r="H304" s="81">
         <v>10</v>
       </c>
-      <c r="I304" s="188"/>
+      <c r="I304" s="209"/>
       <c r="J304" s="10">
         <v>0.35963200000000001</v>
       </c>
@@ -16924,20 +17185,20 @@
       <c r="M304" s="81">
         <v>38</v>
       </c>
-      <c r="N304" s="188"/>
-      <c r="O304" s="188"/>
-      <c r="P304" s="188"/>
+      <c r="N304" s="209"/>
+      <c r="O304" s="209"/>
+      <c r="P304" s="209"/>
     </row>
     <row r="305" spans="1:16" ht="22.5">
       <c r="A305" s="177">
         <v>45702</v>
       </c>
-      <c r="B305" s="181" t="s">
+      <c r="B305" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C305" s="181"/>
-      <c r="D305" s="181"/>
-      <c r="E305" s="181"/>
+      <c r="C305" s="190"/>
+      <c r="D305" s="190"/>
+      <c r="E305" s="190"/>
       <c r="F305" s="64" t="s">
         <v>19</v>
       </c>
@@ -17006,12 +17267,12 @@
       <c r="A307" s="177">
         <v>45702</v>
       </c>
-      <c r="B307" s="181" t="s">
+      <c r="B307" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C307" s="181"/>
-      <c r="D307" s="181"/>
-      <c r="E307" s="181"/>
+      <c r="C307" s="190"/>
+      <c r="D307" s="190"/>
+      <c r="E307" s="190"/>
       <c r="F307" s="64" t="s">
         <v>25</v>
       </c>
@@ -17084,12 +17345,12 @@
       <c r="A309" s="177">
         <v>45702</v>
       </c>
-      <c r="B309" s="181" t="s">
+      <c r="B309" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C309" s="181"/>
-      <c r="D309" s="181"/>
-      <c r="E309" s="181"/>
+      <c r="C309" s="190"/>
+      <c r="D309" s="190"/>
+      <c r="E309" s="190"/>
       <c r="F309" s="64" t="s">
         <v>25</v>
       </c>
@@ -17110,28 +17371,28 @@
     </row>
     <row r="310" spans="1:16" ht="21">
       <c r="A310" s="177"/>
-      <c r="B310" s="228" t="s">
+      <c r="B310" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="C310" s="195" t="s">
+      <c r="C310" s="197" t="s">
         <v>440</v>
       </c>
-      <c r="D310" s="228" t="s">
+      <c r="D310" s="191" t="s">
         <v>109</v>
       </c>
-      <c r="E310" s="229">
+      <c r="E310" s="194">
         <v>45668</v>
       </c>
       <c r="F310" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G310" s="195" t="s">
+      <c r="G310" s="197" t="s">
         <v>111</v>
       </c>
       <c r="H310" s="60">
         <v>385</v>
       </c>
-      <c r="I310" s="228">
+      <c r="I310" s="191">
         <v>1451</v>
       </c>
       <c r="J310" s="63">
@@ -17146,30 +17407,30 @@
       <c r="M310" s="60">
         <v>30</v>
       </c>
-      <c r="N310" s="217">
+      <c r="N310" s="222">
         <v>45671</v>
       </c>
-      <c r="O310" s="217">
+      <c r="O310" s="222">
         <v>45714</v>
       </c>
-      <c r="P310" s="228" t="s">
+      <c r="P310" s="191" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="21">
       <c r="A311" s="177"/>
-      <c r="B311" s="218"/>
-      <c r="C311" s="196"/>
-      <c r="D311" s="218"/>
-      <c r="E311" s="230"/>
+      <c r="B311" s="192"/>
+      <c r="C311" s="219"/>
+      <c r="D311" s="192"/>
+      <c r="E311" s="195"/>
       <c r="F311" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G311" s="197"/>
+      <c r="G311" s="220"/>
       <c r="H311" s="60">
         <v>36</v>
       </c>
-      <c r="I311" s="218"/>
+      <c r="I311" s="192"/>
       <c r="J311" s="63">
         <v>0.29759999999999998</v>
       </c>
@@ -17182,16 +17443,16 @@
       <c r="M311" s="60">
         <v>20</v>
       </c>
-      <c r="N311" s="218"/>
-      <c r="O311" s="218"/>
-      <c r="P311" s="218"/>
+      <c r="N311" s="192"/>
+      <c r="O311" s="192"/>
+      <c r="P311" s="192"/>
     </row>
     <row r="312" spans="1:16" ht="21">
       <c r="A312" s="177"/>
-      <c r="B312" s="218"/>
-      <c r="C312" s="196"/>
-      <c r="D312" s="218"/>
-      <c r="E312" s="230"/>
+      <c r="B312" s="192"/>
+      <c r="C312" s="219"/>
+      <c r="D312" s="192"/>
+      <c r="E312" s="195"/>
       <c r="F312" s="62" t="s">
         <v>113</v>
       </c>
@@ -17201,7 +17462,7 @@
       <c r="H312" s="60">
         <v>26</v>
       </c>
-      <c r="I312" s="218"/>
+      <c r="I312" s="192"/>
       <c r="J312" s="63">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -17214,16 +17475,16 @@
       <c r="M312" s="60">
         <v>33</v>
       </c>
-      <c r="N312" s="218"/>
-      <c r="O312" s="218"/>
-      <c r="P312" s="218"/>
+      <c r="N312" s="192"/>
+      <c r="O312" s="192"/>
+      <c r="P312" s="192"/>
     </row>
     <row r="313" spans="1:16" ht="21">
       <c r="A313" s="177"/>
-      <c r="B313" s="218"/>
-      <c r="C313" s="196"/>
-      <c r="D313" s="218"/>
-      <c r="E313" s="230"/>
+      <c r="B313" s="192"/>
+      <c r="C313" s="219"/>
+      <c r="D313" s="192"/>
+      <c r="E313" s="195"/>
       <c r="F313" s="62" t="s">
         <v>115</v>
       </c>
@@ -17233,7 +17494,7 @@
       <c r="H313" s="60">
         <v>121</v>
       </c>
-      <c r="I313" s="218"/>
+      <c r="I313" s="192"/>
       <c r="J313" s="63">
         <v>3.456E-2</v>
       </c>
@@ -17246,16 +17507,16 @@
       <c r="M313" s="60">
         <v>24</v>
       </c>
-      <c r="N313" s="218"/>
-      <c r="O313" s="218"/>
-      <c r="P313" s="218"/>
+      <c r="N313" s="192"/>
+      <c r="O313" s="192"/>
+      <c r="P313" s="192"/>
     </row>
     <row r="314" spans="1:16" ht="37.5">
       <c r="A314" s="177"/>
-      <c r="B314" s="218"/>
-      <c r="C314" s="196"/>
-      <c r="D314" s="218"/>
-      <c r="E314" s="230"/>
+      <c r="B314" s="192"/>
+      <c r="C314" s="219"/>
+      <c r="D314" s="192"/>
+      <c r="E314" s="195"/>
       <c r="F314" s="62" t="s">
         <v>117</v>
       </c>
@@ -17265,7 +17526,7 @@
       <c r="H314" s="60">
         <v>24</v>
       </c>
-      <c r="I314" s="218"/>
+      <c r="I314" s="192"/>
       <c r="J314" s="63">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -17278,16 +17539,16 @@
       <c r="M314" s="60">
         <v>15</v>
       </c>
-      <c r="N314" s="218"/>
-      <c r="O314" s="218"/>
-      <c r="P314" s="218"/>
+      <c r="N314" s="192"/>
+      <c r="O314" s="192"/>
+      <c r="P314" s="192"/>
     </row>
     <row r="315" spans="1:16" ht="21">
       <c r="A315" s="177"/>
-      <c r="B315" s="219"/>
-      <c r="C315" s="197"/>
-      <c r="D315" s="219"/>
-      <c r="E315" s="231"/>
+      <c r="B315" s="193"/>
+      <c r="C315" s="220"/>
+      <c r="D315" s="193"/>
+      <c r="E315" s="196"/>
       <c r="F315" s="62" t="s">
         <v>118</v>
       </c>
@@ -17297,7 +17558,7 @@
       <c r="H315" s="60">
         <v>150</v>
       </c>
-      <c r="I315" s="219"/>
+      <c r="I315" s="193"/>
       <c r="J315" s="63">
         <v>1.512</v>
       </c>
@@ -17310,20 +17571,20 @@
       <c r="M315" s="60">
         <v>30</v>
       </c>
-      <c r="N315" s="219"/>
-      <c r="O315" s="219"/>
-      <c r="P315" s="219"/>
+      <c r="N315" s="193"/>
+      <c r="O315" s="193"/>
+      <c r="P315" s="193"/>
     </row>
     <row r="316" spans="1:16" ht="22.5">
       <c r="A316" s="177">
         <v>45698</v>
       </c>
-      <c r="B316" s="181" t="s">
+      <c r="B316" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C316" s="181"/>
-      <c r="D316" s="181"/>
-      <c r="E316" s="181"/>
+      <c r="C316" s="190"/>
+      <c r="D316" s="190"/>
+      <c r="E316" s="190"/>
       <c r="F316" s="64" t="s">
         <v>119</v>
       </c>
@@ -17344,28 +17605,28 @@
     </row>
     <row r="317" spans="1:16" ht="21">
       <c r="A317" s="177"/>
-      <c r="B317" s="228" t="s">
+      <c r="B317" s="191" t="s">
         <v>120</v>
       </c>
-      <c r="C317" s="195" t="s">
+      <c r="C317" s="197" t="s">
         <v>442</v>
       </c>
-      <c r="D317" s="228" t="s">
+      <c r="D317" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="E317" s="229">
+      <c r="E317" s="194">
         <v>45668</v>
       </c>
       <c r="F317" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G317" s="195" t="s">
+      <c r="G317" s="197" t="s">
         <v>77</v>
       </c>
       <c r="H317" s="60">
         <v>300</v>
       </c>
-      <c r="I317" s="228">
+      <c r="I317" s="191">
         <v>680</v>
       </c>
       <c r="J317" s="63">
@@ -17380,30 +17641,30 @@
       <c r="M317" s="60">
         <v>24</v>
       </c>
-      <c r="N317" s="217">
+      <c r="N317" s="222">
         <v>45671</v>
       </c>
-      <c r="O317" s="217">
+      <c r="O317" s="222">
         <v>45714</v>
       </c>
-      <c r="P317" s="228" t="s">
+      <c r="P317" s="191" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="318" spans="1:16" ht="21">
       <c r="A318" s="177"/>
-      <c r="B318" s="218"/>
-      <c r="C318" s="196"/>
-      <c r="D318" s="218"/>
-      <c r="E318" s="230"/>
+      <c r="B318" s="192"/>
+      <c r="C318" s="219"/>
+      <c r="D318" s="192"/>
+      <c r="E318" s="195"/>
       <c r="F318" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="G318" s="218"/>
+      <c r="G318" s="192"/>
       <c r="H318" s="60">
         <v>80</v>
       </c>
-      <c r="I318" s="218"/>
+      <c r="I318" s="192"/>
       <c r="J318" s="63">
         <v>0.189</v>
       </c>
@@ -17416,24 +17677,24 @@
       <c r="M318" s="60">
         <v>30</v>
       </c>
-      <c r="N318" s="218"/>
-      <c r="O318" s="218"/>
-      <c r="P318" s="218"/>
+      <c r="N318" s="192"/>
+      <c r="O318" s="192"/>
+      <c r="P318" s="192"/>
     </row>
     <row r="319" spans="1:16" ht="21">
       <c r="A319" s="177"/>
-      <c r="B319" s="219"/>
-      <c r="C319" s="197"/>
-      <c r="D319" s="219"/>
-      <c r="E319" s="231"/>
+      <c r="B319" s="193"/>
+      <c r="C319" s="220"/>
+      <c r="D319" s="193"/>
+      <c r="E319" s="196"/>
       <c r="F319" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G319" s="219"/>
+      <c r="G319" s="193"/>
       <c r="H319" s="60">
         <v>5100</v>
       </c>
-      <c r="I319" s="219"/>
+      <c r="I319" s="193"/>
       <c r="J319" s="63">
         <v>2.7820800000000001</v>
       </c>
@@ -17446,20 +17707,20 @@
       <c r="M319" s="60">
         <v>28</v>
       </c>
-      <c r="N319" s="219"/>
-      <c r="O319" s="219"/>
-      <c r="P319" s="219"/>
+      <c r="N319" s="193"/>
+      <c r="O319" s="193"/>
+      <c r="P319" s="193"/>
     </row>
     <row r="320" spans="1:16" ht="22.5">
       <c r="A320" s="177">
         <v>45694</v>
       </c>
-      <c r="B320" s="181" t="s">
+      <c r="B320" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C320" s="181"/>
-      <c r="D320" s="181"/>
-      <c r="E320" s="181"/>
+      <c r="C320" s="190"/>
+      <c r="D320" s="190"/>
+      <c r="E320" s="190"/>
       <c r="F320" s="64" t="s">
         <v>113</v>
       </c>
@@ -17528,12 +17789,12 @@
       <c r="A322" s="177">
         <v>45694</v>
       </c>
-      <c r="B322" s="181" t="s">
+      <c r="B322" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C322" s="181"/>
-      <c r="D322" s="181"/>
-      <c r="E322" s="181"/>
+      <c r="C322" s="190"/>
+      <c r="D322" s="190"/>
+      <c r="E322" s="190"/>
       <c r="F322" s="64" t="s">
         <v>23</v>
       </c>
@@ -17602,12 +17863,12 @@
       <c r="A324" s="177">
         <v>45706</v>
       </c>
-      <c r="B324" s="181" t="s">
+      <c r="B324" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C324" s="181"/>
-      <c r="D324" s="181"/>
-      <c r="E324" s="181"/>
+      <c r="C324" s="190"/>
+      <c r="D324" s="190"/>
+      <c r="E324" s="190"/>
       <c r="F324" s="64" t="s">
         <v>21</v>
       </c>
@@ -17676,12 +17937,12 @@
       </c>
     </row>
     <row r="326" spans="1:16" ht="22.5">
-      <c r="B326" s="181" t="s">
+      <c r="B326" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C326" s="181"/>
-      <c r="D326" s="181"/>
-      <c r="E326" s="181"/>
+      <c r="C326" s="190"/>
+      <c r="D326" s="190"/>
+      <c r="E326" s="190"/>
       <c r="F326" s="64" t="s">
         <v>21</v>
       </c>
@@ -17748,12 +18009,12 @@
       <c r="P327" s="60"/>
     </row>
     <row r="328" spans="1:16" ht="22.5">
-      <c r="B328" s="181" t="s">
+      <c r="B328" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C328" s="181"/>
-      <c r="D328" s="181"/>
-      <c r="E328" s="181"/>
+      <c r="C328" s="190"/>
+      <c r="D328" s="190"/>
+      <c r="E328" s="190"/>
       <c r="F328" s="64" t="s">
         <v>56</v>
       </c>
@@ -17773,14 +18034,14 @@
       <c r="P328" s="55"/>
     </row>
     <row r="329" spans="1:16" ht="42">
-      <c r="B329" s="192" t="s">
+      <c r="B329" s="210" t="s">
         <v>131</v>
       </c>
       <c r="C329" s="81"/>
-      <c r="D329" s="192" t="s">
+      <c r="D329" s="210" t="s">
         <v>53</v>
       </c>
-      <c r="E329" s="193">
+      <c r="E329" s="201">
         <v>45671</v>
       </c>
       <c r="F329" s="3" t="s">
@@ -17821,10 +18082,10 @@
       </c>
     </row>
     <row r="330" spans="1:16" ht="21">
-      <c r="B330" s="188"/>
+      <c r="B330" s="209"/>
       <c r="C330" s="81"/>
-      <c r="D330" s="188"/>
-      <c r="E330" s="194"/>
+      <c r="D330" s="209"/>
+      <c r="E330" s="203"/>
       <c r="F330" s="3" t="s">
         <v>133</v>
       </c>
@@ -17855,12 +18116,12 @@
       <c r="P330" s="81"/>
     </row>
     <row r="331" spans="1:16" ht="22.5">
-      <c r="B331" s="181" t="s">
+      <c r="B331" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C331" s="181"/>
-      <c r="D331" s="181"/>
-      <c r="E331" s="181"/>
+      <c r="C331" s="190"/>
+      <c r="D331" s="190"/>
+      <c r="E331" s="190"/>
       <c r="F331" s="64" t="s">
         <v>133</v>
       </c>
@@ -17882,28 +18143,28 @@
       <c r="P331" s="67"/>
     </row>
     <row r="332" spans="1:16" ht="21">
-      <c r="B332" s="228" t="s">
+      <c r="B332" s="191" t="s">
         <v>134</v>
       </c>
-      <c r="C332" s="228">
+      <c r="C332" s="191">
         <v>13924006350</v>
       </c>
-      <c r="D332" s="228" t="s">
+      <c r="D332" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="E332" s="229">
+      <c r="E332" s="194">
         <v>45672</v>
       </c>
       <c r="F332" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G332" s="195" t="s">
+      <c r="G332" s="197" t="s">
         <v>135</v>
       </c>
       <c r="H332" s="60">
         <v>2</v>
       </c>
-      <c r="I332" s="228">
+      <c r="I332" s="191">
         <v>1478</v>
       </c>
       <c r="J332" s="63">
@@ -17919,29 +18180,29 @@
       <c r="M332" s="60">
         <v>43</v>
       </c>
-      <c r="N332" s="217">
+      <c r="N332" s="222">
         <v>45675</v>
       </c>
-      <c r="O332" s="217">
+      <c r="O332" s="222">
         <v>45703</v>
       </c>
-      <c r="P332" s="195" t="s">
+      <c r="P332" s="197" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="333" spans="1:16" ht="21">
-      <c r="B333" s="218"/>
-      <c r="C333" s="218"/>
-      <c r="D333" s="218"/>
-      <c r="E333" s="230"/>
+      <c r="B333" s="192"/>
+      <c r="C333" s="192"/>
+      <c r="D333" s="192"/>
+      <c r="E333" s="195"/>
       <c r="F333" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G333" s="196"/>
+      <c r="G333" s="219"/>
       <c r="H333" s="60">
         <v>1</v>
       </c>
-      <c r="I333" s="218"/>
+      <c r="I333" s="192"/>
       <c r="J333" s="63">
         <f t="shared" ref="J333:J339" si="2">K333*L333*M333/1000000</f>
         <v>2.494008</v>
@@ -17955,23 +18216,23 @@
       <c r="M333" s="60">
         <v>188</v>
       </c>
-      <c r="N333" s="218"/>
-      <c r="O333" s="218"/>
-      <c r="P333" s="196"/>
+      <c r="N333" s="192"/>
+      <c r="O333" s="192"/>
+      <c r="P333" s="219"/>
     </row>
     <row r="334" spans="1:16" ht="21">
-      <c r="B334" s="218"/>
-      <c r="C334" s="218"/>
-      <c r="D334" s="218"/>
-      <c r="E334" s="230"/>
+      <c r="B334" s="192"/>
+      <c r="C334" s="192"/>
+      <c r="D334" s="192"/>
+      <c r="E334" s="195"/>
       <c r="F334" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G334" s="196"/>
+      <c r="G334" s="219"/>
       <c r="H334" s="60">
         <v>1</v>
       </c>
-      <c r="I334" s="218"/>
+      <c r="I334" s="192"/>
       <c r="J334" s="63">
         <f t="shared" si="2"/>
         <v>2.4490620000000001</v>
@@ -17985,23 +18246,23 @@
       <c r="M334" s="60">
         <v>133</v>
       </c>
-      <c r="N334" s="218"/>
-      <c r="O334" s="218"/>
-      <c r="P334" s="196"/>
+      <c r="N334" s="192"/>
+      <c r="O334" s="192"/>
+      <c r="P334" s="219"/>
     </row>
     <row r="335" spans="1:16" ht="21">
-      <c r="B335" s="218"/>
-      <c r="C335" s="218"/>
-      <c r="D335" s="218"/>
-      <c r="E335" s="230"/>
+      <c r="B335" s="192"/>
+      <c r="C335" s="192"/>
+      <c r="D335" s="192"/>
+      <c r="E335" s="195"/>
       <c r="F335" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G335" s="196"/>
+      <c r="G335" s="219"/>
       <c r="H335" s="60">
         <v>1</v>
       </c>
-      <c r="I335" s="218"/>
+      <c r="I335" s="192"/>
       <c r="J335" s="63">
         <f t="shared" si="2"/>
         <v>0.10374</v>
@@ -18015,23 +18276,23 @@
       <c r="M335" s="60">
         <v>15</v>
       </c>
-      <c r="N335" s="218"/>
-      <c r="O335" s="218"/>
-      <c r="P335" s="196"/>
+      <c r="N335" s="192"/>
+      <c r="O335" s="192"/>
+      <c r="P335" s="219"/>
     </row>
     <row r="336" spans="1:16" ht="21">
-      <c r="B336" s="218"/>
-      <c r="C336" s="218"/>
-      <c r="D336" s="218"/>
-      <c r="E336" s="230"/>
+      <c r="B336" s="192"/>
+      <c r="C336" s="192"/>
+      <c r="D336" s="192"/>
+      <c r="E336" s="195"/>
       <c r="F336" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G336" s="196"/>
+      <c r="G336" s="219"/>
       <c r="H336" s="60">
         <v>1</v>
       </c>
-      <c r="I336" s="218"/>
+      <c r="I336" s="192"/>
       <c r="J336" s="63">
         <f t="shared" si="2"/>
         <v>1.81044</v>
@@ -18045,23 +18306,23 @@
       <c r="M336" s="60">
         <v>188</v>
       </c>
-      <c r="N336" s="218"/>
-      <c r="O336" s="218"/>
-      <c r="P336" s="196"/>
+      <c r="N336" s="192"/>
+      <c r="O336" s="192"/>
+      <c r="P336" s="219"/>
     </row>
     <row r="337" spans="1:16" ht="21">
-      <c r="B337" s="218"/>
-      <c r="C337" s="218"/>
-      <c r="D337" s="218"/>
-      <c r="E337" s="230"/>
+      <c r="B337" s="192"/>
+      <c r="C337" s="192"/>
+      <c r="D337" s="192"/>
+      <c r="E337" s="195"/>
       <c r="F337" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G337" s="196"/>
+      <c r="G337" s="219"/>
       <c r="H337" s="60">
         <v>1</v>
       </c>
-      <c r="I337" s="218"/>
+      <c r="I337" s="192"/>
       <c r="J337" s="63">
         <f t="shared" si="2"/>
         <v>1.7482500000000001</v>
@@ -18075,23 +18336,23 @@
       <c r="M337" s="60">
         <v>175</v>
       </c>
-      <c r="N337" s="218"/>
-      <c r="O337" s="218"/>
-      <c r="P337" s="196"/>
+      <c r="N337" s="192"/>
+      <c r="O337" s="192"/>
+      <c r="P337" s="219"/>
     </row>
     <row r="338" spans="1:16" ht="21">
-      <c r="B338" s="218"/>
-      <c r="C338" s="218"/>
-      <c r="D338" s="218"/>
-      <c r="E338" s="230"/>
+      <c r="B338" s="192"/>
+      <c r="C338" s="192"/>
+      <c r="D338" s="192"/>
+      <c r="E338" s="195"/>
       <c r="F338" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G338" s="196"/>
+      <c r="G338" s="219"/>
       <c r="H338" s="60">
         <v>1</v>
       </c>
-      <c r="I338" s="218"/>
+      <c r="I338" s="192"/>
       <c r="J338" s="63">
         <f t="shared" si="2"/>
         <v>1.2261599999999999</v>
@@ -18105,23 +18366,23 @@
       <c r="M338" s="60">
         <v>117</v>
       </c>
-      <c r="N338" s="218"/>
-      <c r="O338" s="218"/>
-      <c r="P338" s="196"/>
+      <c r="N338" s="192"/>
+      <c r="O338" s="192"/>
+      <c r="P338" s="219"/>
     </row>
     <row r="339" spans="1:16" ht="21">
-      <c r="B339" s="219"/>
-      <c r="C339" s="219"/>
-      <c r="D339" s="219"/>
-      <c r="E339" s="231"/>
+      <c r="B339" s="193"/>
+      <c r="C339" s="193"/>
+      <c r="D339" s="193"/>
+      <c r="E339" s="196"/>
       <c r="F339" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G339" s="197"/>
+      <c r="G339" s="220"/>
       <c r="H339" s="60">
         <v>1</v>
       </c>
-      <c r="I339" s="219"/>
+      <c r="I339" s="193"/>
       <c r="J339" s="63">
         <f t="shared" si="2"/>
         <v>2.0717599999999998</v>
@@ -18135,17 +18396,17 @@
       <c r="M339" s="60">
         <v>188</v>
       </c>
-      <c r="N339" s="219"/>
-      <c r="O339" s="219"/>
-      <c r="P339" s="197"/>
+      <c r="N339" s="193"/>
+      <c r="O339" s="193"/>
+      <c r="P339" s="220"/>
     </row>
     <row r="340" spans="1:16" ht="22.5">
-      <c r="B340" s="181" t="s">
+      <c r="B340" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C340" s="181"/>
-      <c r="D340" s="181"/>
-      <c r="E340" s="181"/>
+      <c r="C340" s="190"/>
+      <c r="D340" s="190"/>
+      <c r="E340" s="190"/>
       <c r="F340" s="64" t="s">
         <v>22</v>
       </c>
@@ -18214,12 +18475,12 @@
       </c>
     </row>
     <row r="342" spans="1:16" ht="22.5">
-      <c r="B342" s="181" t="s">
+      <c r="B342" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C342" s="181"/>
-      <c r="D342" s="181"/>
-      <c r="E342" s="181"/>
+      <c r="C342" s="190"/>
+      <c r="D342" s="190"/>
+      <c r="E342" s="190"/>
       <c r="F342" s="64" t="s">
         <v>21</v>
       </c>
@@ -18239,26 +18500,26 @@
       <c r="P342" s="67"/>
     </row>
     <row r="343" spans="1:16" ht="21">
-      <c r="B343" s="192" t="s">
+      <c r="B343" s="210" t="s">
         <v>182</v>
       </c>
-      <c r="C343" s="236" t="s">
+      <c r="C343" s="221" t="s">
         <v>183</v>
       </c>
-      <c r="D343" s="192" t="s">
+      <c r="D343" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="E343" s="193">
+      <c r="E343" s="201">
         <v>45674</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G343" s="232" t="s">
+      <c r="G343" s="229" t="s">
         <v>185</v>
       </c>
       <c r="H343" s="81"/>
-      <c r="I343" s="192">
+      <c r="I343" s="210">
         <v>80</v>
       </c>
       <c r="J343" s="10">
@@ -18278,16 +18539,16 @@
       <c r="P343" s="81"/>
     </row>
     <row r="344" spans="1:16" ht="21">
-      <c r="B344" s="187"/>
-      <c r="C344" s="187"/>
-      <c r="D344" s="187"/>
-      <c r="E344" s="204"/>
+      <c r="B344" s="211"/>
+      <c r="C344" s="211"/>
+      <c r="D344" s="211"/>
+      <c r="E344" s="202"/>
       <c r="F344" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G344" s="187"/>
+      <c r="G344" s="211"/>
       <c r="H344" s="81"/>
-      <c r="I344" s="187"/>
+      <c r="I344" s="211"/>
       <c r="J344" s="10">
         <v>9.3149999999999997E-2</v>
       </c>
@@ -18305,16 +18566,16 @@
       <c r="P344" s="81"/>
     </row>
     <row r="345" spans="1:16" ht="21">
-      <c r="B345" s="187"/>
-      <c r="C345" s="187"/>
-      <c r="D345" s="187"/>
-      <c r="E345" s="204"/>
+      <c r="B345" s="211"/>
+      <c r="C345" s="211"/>
+      <c r="D345" s="211"/>
+      <c r="E345" s="202"/>
       <c r="F345" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G345" s="187"/>
+      <c r="G345" s="211"/>
       <c r="H345" s="81"/>
-      <c r="I345" s="187"/>
+      <c r="I345" s="211"/>
       <c r="J345" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -18332,16 +18593,16 @@
       <c r="P345" s="81"/>
     </row>
     <row r="346" spans="1:16" ht="21">
-      <c r="B346" s="187"/>
-      <c r="C346" s="187"/>
-      <c r="D346" s="187"/>
-      <c r="E346" s="204"/>
+      <c r="B346" s="211"/>
+      <c r="C346" s="211"/>
+      <c r="D346" s="211"/>
+      <c r="E346" s="202"/>
       <c r="F346" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G346" s="187"/>
+      <c r="G346" s="211"/>
       <c r="H346" s="81"/>
-      <c r="I346" s="187"/>
+      <c r="I346" s="211"/>
       <c r="J346" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -18359,16 +18620,16 @@
       <c r="P346" s="81"/>
     </row>
     <row r="347" spans="1:16" ht="21">
-      <c r="B347" s="188"/>
-      <c r="C347" s="188"/>
-      <c r="D347" s="188"/>
-      <c r="E347" s="194"/>
+      <c r="B347" s="209"/>
+      <c r="C347" s="209"/>
+      <c r="D347" s="209"/>
+      <c r="E347" s="203"/>
       <c r="F347" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G347" s="188"/>
+      <c r="G347" s="209"/>
       <c r="H347" s="81"/>
-      <c r="I347" s="188"/>
+      <c r="I347" s="209"/>
       <c r="J347" s="10">
         <v>2.4570000000000002E-2</v>
       </c>
@@ -18386,12 +18647,12 @@
       <c r="P347" s="81"/>
     </row>
     <row r="348" spans="1:16" ht="22.5">
-      <c r="B348" s="181" t="s">
+      <c r="B348" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C348" s="181"/>
-      <c r="D348" s="181"/>
-      <c r="E348" s="181"/>
+      <c r="C348" s="190"/>
+      <c r="D348" s="190"/>
+      <c r="E348" s="190"/>
       <c r="F348" s="64" t="s">
         <v>13</v>
       </c>
@@ -18459,12 +18720,12 @@
       </c>
     </row>
     <row r="350" spans="1:16" ht="22.5">
-      <c r="B350" s="189" t="s">
+      <c r="B350" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="C350" s="190"/>
-      <c r="D350" s="190"/>
-      <c r="E350" s="191"/>
+      <c r="C350" s="233"/>
+      <c r="D350" s="233"/>
+      <c r="E350" s="234"/>
       <c r="F350" s="64" t="s">
         <v>21</v>
       </c>
@@ -18487,29 +18748,29 @@
     </row>
     <row r="351" spans="1:16" ht="21">
       <c r="A351" s="177"/>
-      <c r="B351" s="192" t="s">
+      <c r="B351" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="C351" s="192" t="s">
+      <c r="C351" s="210" t="s">
         <v>191</v>
       </c>
-      <c r="D351" s="192" t="s">
+      <c r="D351" s="210" t="s">
         <v>18</v>
       </c>
-      <c r="E351" s="193">
+      <c r="E351" s="201">
         <v>45675</v>
       </c>
       <c r="F351" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G351" s="192" t="s">
+      <c r="G351" s="210" t="s">
         <v>192</v>
       </c>
       <c r="H351" s="81">
         <f>247*2</f>
         <v>494</v>
       </c>
-      <c r="I351" s="192">
+      <c r="I351" s="210">
         <v>1907</v>
       </c>
       <c r="J351" s="10">
@@ -18525,31 +18786,31 @@
       <c r="M351" s="81">
         <v>26</v>
       </c>
-      <c r="N351" s="235">
+      <c r="N351" s="208">
         <v>45680</v>
       </c>
-      <c r="O351" s="235">
+      <c r="O351" s="208">
         <v>45712</v>
       </c>
-      <c r="P351" s="192" t="s">
+      <c r="P351" s="210" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="352" spans="1:16" ht="21">
       <c r="A352" s="177"/>
-      <c r="B352" s="187"/>
-      <c r="C352" s="187"/>
-      <c r="D352" s="187"/>
-      <c r="E352" s="204"/>
+      <c r="B352" s="211"/>
+      <c r="C352" s="211"/>
+      <c r="D352" s="211"/>
+      <c r="E352" s="202"/>
       <c r="F352" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G352" s="187"/>
+      <c r="G352" s="211"/>
       <c r="H352" s="81">
         <f>247*5</f>
         <v>1235</v>
       </c>
-      <c r="I352" s="187"/>
+      <c r="I352" s="211"/>
       <c r="J352" s="10">
         <f>K352*L352*M352/1000000*5</f>
         <v>0.30887999999999999</v>
@@ -18563,25 +18824,25 @@
       <c r="M352" s="81">
         <v>36</v>
       </c>
-      <c r="N352" s="187"/>
-      <c r="O352" s="187"/>
-      <c r="P352" s="187"/>
+      <c r="N352" s="211"/>
+      <c r="O352" s="211"/>
+      <c r="P352" s="211"/>
     </row>
     <row r="353" spans="1:16" ht="21">
       <c r="A353" s="177"/>
-      <c r="B353" s="187"/>
-      <c r="C353" s="187"/>
-      <c r="D353" s="187"/>
-      <c r="E353" s="204"/>
+      <c r="B353" s="211"/>
+      <c r="C353" s="211"/>
+      <c r="D353" s="211"/>
+      <c r="E353" s="202"/>
       <c r="F353" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G353" s="187"/>
+      <c r="G353" s="211"/>
       <c r="H353" s="81">
         <f>248*4</f>
         <v>992</v>
       </c>
-      <c r="I353" s="187"/>
+      <c r="I353" s="211"/>
       <c r="J353" s="10">
         <f>K353*L353*M353/1000000*4</f>
         <v>6.0720000000000003E-2</v>
@@ -18595,25 +18856,25 @@
       <c r="M353" s="81">
         <v>20</v>
       </c>
-      <c r="N353" s="187"/>
-      <c r="O353" s="187"/>
-      <c r="P353" s="187"/>
+      <c r="N353" s="211"/>
+      <c r="O353" s="211"/>
+      <c r="P353" s="211"/>
     </row>
     <row r="354" spans="1:16" ht="21">
       <c r="A354" s="177"/>
-      <c r="B354" s="187"/>
-      <c r="C354" s="187"/>
-      <c r="D354" s="187"/>
-      <c r="E354" s="204"/>
+      <c r="B354" s="211"/>
+      <c r="C354" s="211"/>
+      <c r="D354" s="211"/>
+      <c r="E354" s="202"/>
       <c r="F354" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G354" s="187"/>
+      <c r="G354" s="211"/>
       <c r="H354" s="81">
         <f>247*25</f>
         <v>6175</v>
       </c>
-      <c r="I354" s="187"/>
+      <c r="I354" s="211"/>
       <c r="J354" s="10">
         <f>K354*L354*M354/1000000*25</f>
         <v>0.39899999999999997</v>
@@ -18627,25 +18888,25 @@
       <c r="M354" s="81">
         <v>19</v>
       </c>
-      <c r="N354" s="187"/>
-      <c r="O354" s="187"/>
-      <c r="P354" s="187"/>
+      <c r="N354" s="211"/>
+      <c r="O354" s="211"/>
+      <c r="P354" s="211"/>
     </row>
     <row r="355" spans="1:16" ht="21">
       <c r="A355" s="177"/>
-      <c r="B355" s="187"/>
-      <c r="C355" s="187"/>
-      <c r="D355" s="187"/>
-      <c r="E355" s="204"/>
+      <c r="B355" s="211"/>
+      <c r="C355" s="211"/>
+      <c r="D355" s="211"/>
+      <c r="E355" s="202"/>
       <c r="F355" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G355" s="187"/>
+      <c r="G355" s="211"/>
       <c r="H355" s="81">
         <f>247*10</f>
         <v>2470</v>
       </c>
-      <c r="I355" s="187"/>
+      <c r="I355" s="211"/>
       <c r="J355" s="10">
         <f>K355*L355*M355/1000000*10</f>
         <v>0.60060000000000002</v>
@@ -18659,25 +18920,25 @@
       <c r="M355" s="81">
         <v>35</v>
       </c>
-      <c r="N355" s="187"/>
-      <c r="O355" s="187"/>
-      <c r="P355" s="187"/>
+      <c r="N355" s="211"/>
+      <c r="O355" s="211"/>
+      <c r="P355" s="211"/>
     </row>
     <row r="356" spans="1:16" ht="21">
       <c r="A356" s="177"/>
-      <c r="B356" s="187"/>
-      <c r="C356" s="187"/>
-      <c r="D356" s="187"/>
-      <c r="E356" s="204"/>
+      <c r="B356" s="211"/>
+      <c r="C356" s="211"/>
+      <c r="D356" s="211"/>
+      <c r="E356" s="202"/>
       <c r="F356" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G356" s="187"/>
+      <c r="G356" s="211"/>
       <c r="H356" s="81">
         <f>248*5</f>
         <v>1240</v>
       </c>
-      <c r="I356" s="187"/>
+      <c r="I356" s="211"/>
       <c r="J356" s="10">
         <f>K356*L356*M356/1000000*5</f>
         <v>0.16355999999999998</v>
@@ -18691,25 +18952,25 @@
       <c r="M356" s="81">
         <v>24</v>
       </c>
-      <c r="N356" s="187"/>
-      <c r="O356" s="187"/>
-      <c r="P356" s="187"/>
+      <c r="N356" s="211"/>
+      <c r="O356" s="211"/>
+      <c r="P356" s="211"/>
     </row>
     <row r="357" spans="1:16" ht="21">
       <c r="A357" s="177"/>
-      <c r="B357" s="188"/>
-      <c r="C357" s="188"/>
-      <c r="D357" s="188"/>
-      <c r="E357" s="194"/>
+      <c r="B357" s="209"/>
+      <c r="C357" s="209"/>
+      <c r="D357" s="209"/>
+      <c r="E357" s="203"/>
       <c r="F357" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G357" s="188"/>
+      <c r="G357" s="209"/>
       <c r="H357" s="81">
         <f>248*15</f>
         <v>3720</v>
       </c>
-      <c r="I357" s="188"/>
+      <c r="I357" s="209"/>
       <c r="J357" s="10">
         <f>K357*L357*M357/1000000*15</f>
         <v>0.76690499999999995</v>
@@ -18723,20 +18984,20 @@
       <c r="M357" s="81">
         <v>29</v>
       </c>
-      <c r="N357" s="188"/>
-      <c r="O357" s="188"/>
-      <c r="P357" s="188"/>
+      <c r="N357" s="209"/>
+      <c r="O357" s="209"/>
+      <c r="P357" s="209"/>
     </row>
     <row r="358" spans="1:16" ht="22.5">
       <c r="A358" s="177">
         <v>45708</v>
       </c>
-      <c r="B358" s="181" t="s">
+      <c r="B358" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C358" s="181"/>
-      <c r="D358" s="181"/>
-      <c r="E358" s="181"/>
+      <c r="C358" s="190"/>
+      <c r="D358" s="190"/>
+      <c r="E358" s="190"/>
       <c r="F358" s="64" t="s">
         <v>198</v>
       </c>
@@ -18758,29 +19019,29 @@
       <c r="P358" s="67"/>
     </row>
     <row r="359" spans="1:16" ht="21">
-      <c r="B359" s="192" t="s">
+      <c r="B359" s="210" t="s">
         <v>199</v>
       </c>
-      <c r="C359" s="192" t="s">
+      <c r="C359" s="210" t="s">
         <v>200</v>
       </c>
-      <c r="D359" s="192" t="s">
+      <c r="D359" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="E359" s="193">
+      <c r="E359" s="201">
         <v>45676</v>
       </c>
       <c r="F359" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G359" s="192" t="s">
+      <c r="G359" s="210" t="s">
         <v>71</v>
       </c>
       <c r="H359" s="81">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I359" s="192">
+      <c r="I359" s="210">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -18797,30 +19058,30 @@
       <c r="M359" s="81">
         <v>29</v>
       </c>
-      <c r="N359" s="235">
+      <c r="N359" s="208">
         <v>45679</v>
       </c>
-      <c r="O359" s="235">
+      <c r="O359" s="208">
         <v>45716</v>
       </c>
-      <c r="P359" s="192" t="s">
+      <c r="P359" s="210" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="360" spans="1:16" ht="21">
-      <c r="B360" s="188"/>
-      <c r="C360" s="188"/>
-      <c r="D360" s="188"/>
-      <c r="E360" s="194"/>
+      <c r="B360" s="209"/>
+      <c r="C360" s="209"/>
+      <c r="D360" s="209"/>
+      <c r="E360" s="203"/>
       <c r="F360" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G360" s="188"/>
+      <c r="G360" s="209"/>
       <c r="H360" s="81">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I360" s="188"/>
+      <c r="I360" s="209"/>
       <c r="J360" s="10">
         <f>K360*L360*M360/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -18834,17 +19095,17 @@
       <c r="M360" s="81">
         <v>36</v>
       </c>
-      <c r="N360" s="188"/>
-      <c r="O360" s="188"/>
-      <c r="P360" s="188"/>
+      <c r="N360" s="209"/>
+      <c r="O360" s="209"/>
+      <c r="P360" s="209"/>
     </row>
     <row r="361" spans="1:16" ht="22.5">
-      <c r="B361" s="181" t="s">
+      <c r="B361" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C361" s="181"/>
-      <c r="D361" s="181"/>
-      <c r="E361" s="181"/>
+      <c r="C361" s="190"/>
+      <c r="D361" s="190"/>
+      <c r="E361" s="190"/>
       <c r="F361" s="64" t="s">
         <v>201</v>
       </c>
@@ -18866,27 +19127,27 @@
       <c r="P361" s="67"/>
     </row>
     <row r="362" spans="1:16" ht="21">
-      <c r="B362" s="211" t="s">
+      <c r="B362" s="205" t="s">
         <v>202</v>
       </c>
-      <c r="C362" s="211"/>
-      <c r="D362" s="211" t="s">
+      <c r="C362" s="205"/>
+      <c r="D362" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="E362" s="213">
+      <c r="E362" s="186">
         <v>45677</v>
       </c>
       <c r="F362" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="G362" s="211" t="s">
+      <c r="G362" s="205" t="s">
         <v>71</v>
       </c>
       <c r="H362" s="90">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I362" s="211">
+      <c r="I362" s="205">
         <f>25*169</f>
         <v>4225</v>
       </c>
@@ -18903,30 +19164,30 @@
       <c r="M362" s="90">
         <v>40</v>
       </c>
-      <c r="N362" s="237">
+      <c r="N362" s="228">
         <v>45680</v>
       </c>
-      <c r="O362" s="237">
+      <c r="O362" s="228">
         <v>45716</v>
       </c>
-      <c r="P362" s="211" t="s">
+      <c r="P362" s="205" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="363" spans="1:16" ht="21">
-      <c r="B363" s="238"/>
-      <c r="C363" s="238"/>
-      <c r="D363" s="238"/>
-      <c r="E363" s="223"/>
+      <c r="B363" s="206"/>
+      <c r="C363" s="206"/>
+      <c r="D363" s="206"/>
+      <c r="E363" s="204"/>
       <c r="F363" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="G363" s="238"/>
+      <c r="G363" s="206"/>
       <c r="H363" s="90">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I363" s="238"/>
+      <c r="I363" s="206"/>
       <c r="J363" s="158">
         <f>K363*L363*M363/1000000*16</f>
         <v>1.66656</v>
@@ -18940,24 +19201,24 @@
       <c r="M363" s="90">
         <v>28</v>
       </c>
-      <c r="N363" s="238"/>
-      <c r="O363" s="238"/>
-      <c r="P363" s="238"/>
+      <c r="N363" s="206"/>
+      <c r="O363" s="206"/>
+      <c r="P363" s="206"/>
     </row>
     <row r="364" spans="1:16" ht="21">
-      <c r="B364" s="212"/>
-      <c r="C364" s="212"/>
-      <c r="D364" s="212"/>
-      <c r="E364" s="214"/>
+      <c r="B364" s="207"/>
+      <c r="C364" s="207"/>
+      <c r="D364" s="207"/>
+      <c r="E364" s="187"/>
       <c r="F364" s="157" t="s">
         <v>544</v>
       </c>
-      <c r="G364" s="212"/>
+      <c r="G364" s="207"/>
       <c r="H364" s="90">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I364" s="212"/>
+      <c r="I364" s="207"/>
       <c r="J364" s="158">
         <f>K364*L364*M364/1000000*100</f>
         <v>11.899999999999999</v>
@@ -18971,17 +19232,17 @@
       <c r="M364" s="90">
         <v>70</v>
       </c>
-      <c r="N364" s="212"/>
-      <c r="O364" s="212"/>
-      <c r="P364" s="212"/>
+      <c r="N364" s="207"/>
+      <c r="O364" s="207"/>
+      <c r="P364" s="207"/>
     </row>
     <row r="365" spans="1:16" ht="22.5">
-      <c r="B365" s="181" t="s">
+      <c r="B365" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C365" s="181"/>
-      <c r="D365" s="181"/>
-      <c r="E365" s="181"/>
+      <c r="C365" s="190"/>
+      <c r="D365" s="190"/>
+      <c r="E365" s="190"/>
       <c r="F365" s="153" t="s">
         <v>545</v>
       </c>
@@ -19051,12 +19312,12 @@
       </c>
     </row>
     <row r="367" spans="1:16" ht="22.5">
-      <c r="B367" s="181" t="s">
+      <c r="B367" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C367" s="181"/>
-      <c r="D367" s="181"/>
-      <c r="E367" s="181"/>
+      <c r="C367" s="190"/>
+      <c r="D367" s="190"/>
+      <c r="E367" s="190"/>
       <c r="F367" s="153" t="s">
         <v>548</v>
       </c>
@@ -19078,28 +19339,28 @@
       <c r="P367" s="92"/>
     </row>
     <row r="368" spans="1:16" ht="21">
-      <c r="B368" s="192" t="s">
+      <c r="B368" s="210" t="s">
         <v>205</v>
       </c>
-      <c r="C368" s="236" t="s">
+      <c r="C368" s="221" t="s">
         <v>206</v>
       </c>
-      <c r="D368" s="192" t="s">
+      <c r="D368" s="210" t="s">
         <v>207</v>
       </c>
-      <c r="E368" s="193">
+      <c r="E368" s="201">
         <v>45678</v>
       </c>
       <c r="F368" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G368" s="192" t="s">
+      <c r="G368" s="210" t="s">
         <v>32</v>
       </c>
       <c r="H368" s="81">
         <v>1</v>
       </c>
-      <c r="I368" s="192">
+      <c r="I368" s="210">
         <v>37</v>
       </c>
       <c r="J368" s="10">
@@ -19115,29 +19376,29 @@
       <c r="M368" s="81">
         <v>40</v>
       </c>
-      <c r="N368" s="235">
+      <c r="N368" s="208">
         <v>45681</v>
       </c>
-      <c r="O368" s="235">
+      <c r="O368" s="208">
         <v>45714</v>
       </c>
-      <c r="P368" s="192" t="s">
+      <c r="P368" s="210" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="369" spans="2:16" ht="21">
-      <c r="B369" s="187"/>
-      <c r="C369" s="187"/>
-      <c r="D369" s="187"/>
-      <c r="E369" s="204"/>
+      <c r="B369" s="211"/>
+      <c r="C369" s="211"/>
+      <c r="D369" s="211"/>
+      <c r="E369" s="202"/>
       <c r="F369" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G369" s="187"/>
+      <c r="G369" s="211"/>
       <c r="H369" s="81">
         <v>10</v>
       </c>
-      <c r="I369" s="187"/>
+      <c r="I369" s="211"/>
       <c r="J369" s="10">
         <f t="shared" si="3"/>
         <v>0.18360000000000001</v>
@@ -19151,23 +19412,23 @@
       <c r="M369" s="81">
         <v>85</v>
       </c>
-      <c r="N369" s="187"/>
-      <c r="O369" s="187"/>
-      <c r="P369" s="187"/>
+      <c r="N369" s="211"/>
+      <c r="O369" s="211"/>
+      <c r="P369" s="211"/>
     </row>
     <row r="370" spans="2:16" ht="21">
-      <c r="B370" s="187"/>
-      <c r="C370" s="187"/>
-      <c r="D370" s="187"/>
-      <c r="E370" s="204"/>
+      <c r="B370" s="211"/>
+      <c r="C370" s="211"/>
+      <c r="D370" s="211"/>
+      <c r="E370" s="202"/>
       <c r="F370" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G370" s="187"/>
+      <c r="G370" s="211"/>
       <c r="H370" s="81">
         <v>10</v>
       </c>
-      <c r="I370" s="187"/>
+      <c r="I370" s="211"/>
       <c r="J370" s="10">
         <f t="shared" si="3"/>
         <v>0.18240999999999999</v>
@@ -19181,23 +19442,23 @@
       <c r="M370" s="81">
         <v>37</v>
       </c>
-      <c r="N370" s="187"/>
-      <c r="O370" s="187"/>
-      <c r="P370" s="187"/>
+      <c r="N370" s="211"/>
+      <c r="O370" s="211"/>
+      <c r="P370" s="211"/>
     </row>
     <row r="371" spans="2:16" ht="21">
-      <c r="B371" s="188"/>
-      <c r="C371" s="188"/>
-      <c r="D371" s="188"/>
-      <c r="E371" s="194"/>
+      <c r="B371" s="209"/>
+      <c r="C371" s="209"/>
+      <c r="D371" s="209"/>
+      <c r="E371" s="203"/>
       <c r="F371" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G371" s="188"/>
+      <c r="G371" s="209"/>
       <c r="H371" s="81">
         <v>2</v>
       </c>
-      <c r="I371" s="188"/>
+      <c r="I371" s="209"/>
       <c r="J371" s="10">
         <f t="shared" si="3"/>
         <v>4.9919999999999999E-2</v>
@@ -19211,33 +19472,33 @@
       <c r="M371" s="81">
         <v>20</v>
       </c>
-      <c r="N371" s="187"/>
-      <c r="O371" s="187"/>
-      <c r="P371" s="187"/>
+      <c r="N371" s="211"/>
+      <c r="O371" s="211"/>
+      <c r="P371" s="211"/>
     </row>
     <row r="372" spans="2:16" ht="21">
-      <c r="B372" s="192" t="s">
+      <c r="B372" s="210" t="s">
         <v>208</v>
       </c>
       <c r="C372" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="D372" s="192" t="s">
+      <c r="D372" s="210" t="s">
         <v>207</v>
       </c>
-      <c r="E372" s="193">
+      <c r="E372" s="201">
         <v>45678</v>
       </c>
       <c r="F372" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G372" s="192" t="s">
+      <c r="G372" s="210" t="s">
         <v>32</v>
       </c>
       <c r="H372" s="81">
         <v>3</v>
       </c>
-      <c r="I372" s="192">
+      <c r="I372" s="210">
         <v>20</v>
       </c>
       <c r="J372" s="10">
@@ -19253,25 +19514,25 @@
       <c r="M372" s="81">
         <v>28</v>
       </c>
-      <c r="N372" s="187"/>
-      <c r="O372" s="187"/>
-      <c r="P372" s="187"/>
+      <c r="N372" s="211"/>
+      <c r="O372" s="211"/>
+      <c r="P372" s="211"/>
     </row>
     <row r="373" spans="2:16" ht="21">
-      <c r="B373" s="187"/>
+      <c r="B373" s="211"/>
       <c r="C373" s="81">
         <v>2660</v>
       </c>
-      <c r="D373" s="187"/>
-      <c r="E373" s="204"/>
+      <c r="D373" s="211"/>
+      <c r="E373" s="202"/>
       <c r="F373" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G373" s="187"/>
+      <c r="G373" s="211"/>
       <c r="H373" s="81">
         <v>10</v>
       </c>
-      <c r="I373" s="187"/>
+      <c r="I373" s="211"/>
       <c r="J373" s="10">
         <f t="shared" si="3"/>
         <v>4.2335999999999999E-2</v>
@@ -19285,25 +19546,25 @@
       <c r="M373" s="81">
         <v>28</v>
       </c>
-      <c r="N373" s="187"/>
-      <c r="O373" s="187"/>
-      <c r="P373" s="187"/>
+      <c r="N373" s="211"/>
+      <c r="O373" s="211"/>
+      <c r="P373" s="211"/>
     </row>
     <row r="374" spans="2:16" ht="21">
-      <c r="B374" s="188"/>
+      <c r="B374" s="209"/>
       <c r="C374" s="81">
         <v>2461</v>
       </c>
-      <c r="D374" s="188"/>
-      <c r="E374" s="194"/>
+      <c r="D374" s="209"/>
+      <c r="E374" s="203"/>
       <c r="F374" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G374" s="188"/>
+      <c r="G374" s="209"/>
       <c r="H374" s="81">
         <v>130</v>
       </c>
-      <c r="I374" s="188"/>
+      <c r="I374" s="209"/>
       <c r="J374" s="10">
         <f t="shared" si="3"/>
         <v>0.1176</v>
@@ -19317,17 +19578,17 @@
       <c r="M374" s="81">
         <v>56</v>
       </c>
-      <c r="N374" s="188"/>
-      <c r="O374" s="188"/>
-      <c r="P374" s="188"/>
+      <c r="N374" s="209"/>
+      <c r="O374" s="209"/>
+      <c r="P374" s="209"/>
     </row>
     <row r="375" spans="2:16" ht="22.5">
-      <c r="B375" s="181" t="s">
+      <c r="B375" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C375" s="181"/>
-      <c r="D375" s="181"/>
-      <c r="E375" s="181"/>
+      <c r="C375" s="190"/>
+      <c r="D375" s="190"/>
+      <c r="E375" s="190"/>
       <c r="F375" s="64" t="s">
         <v>31</v>
       </c>
@@ -19396,12 +19657,12 @@
       </c>
     </row>
     <row r="377" spans="2:16" ht="22.5">
-      <c r="B377" s="181" t="s">
+      <c r="B377" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C377" s="181"/>
-      <c r="D377" s="181"/>
-      <c r="E377" s="181"/>
+      <c r="C377" s="190"/>
+      <c r="D377" s="190"/>
+      <c r="E377" s="190"/>
       <c r="F377" s="153" t="s">
         <v>30</v>
       </c>
@@ -19421,28 +19682,28 @@
       <c r="P377" s="97"/>
     </row>
     <row r="378" spans="2:16" ht="21">
-      <c r="B378" s="198" t="s">
+      <c r="B378" s="212" t="s">
         <v>479</v>
       </c>
-      <c r="C378" s="198" t="s">
+      <c r="C378" s="212" t="s">
         <v>480</v>
       </c>
-      <c r="D378" s="198" t="s">
+      <c r="D378" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="E378" s="200">
+      <c r="E378" s="215">
         <v>45702</v>
       </c>
       <c r="F378" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G378" s="198" t="s">
+      <c r="G378" s="212" t="s">
         <v>481</v>
       </c>
       <c r="H378" s="94">
         <v>65</v>
       </c>
-      <c r="I378" s="198">
+      <c r="I378" s="212">
         <v>2065</v>
       </c>
       <c r="J378" s="95">
@@ -19457,29 +19718,29 @@
       <c r="M378" s="94">
         <v>171</v>
       </c>
-      <c r="N378" s="244">
+      <c r="N378" s="218">
         <v>45707</v>
       </c>
-      <c r="O378" s="244">
+      <c r="O378" s="218">
         <v>45737</v>
       </c>
-      <c r="P378" s="198" t="s">
+      <c r="P378" s="212" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="379" spans="2:16" ht="21">
-      <c r="B379" s="202"/>
-      <c r="C379" s="202"/>
-      <c r="D379" s="202"/>
-      <c r="E379" s="203"/>
+      <c r="B379" s="213"/>
+      <c r="C379" s="213"/>
+      <c r="D379" s="213"/>
+      <c r="E379" s="216"/>
       <c r="F379" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="G379" s="199"/>
+      <c r="G379" s="214"/>
       <c r="H379" s="94">
         <v>65</v>
       </c>
-      <c r="I379" s="202"/>
+      <c r="I379" s="213"/>
       <c r="J379" s="95">
         <v>2.8498800000000002</v>
       </c>
@@ -19492,15 +19753,15 @@
       <c r="M379" s="94">
         <v>110</v>
       </c>
-      <c r="N379" s="202"/>
-      <c r="O379" s="202"/>
-      <c r="P379" s="202"/>
+      <c r="N379" s="213"/>
+      <c r="O379" s="213"/>
+      <c r="P379" s="213"/>
     </row>
     <row r="380" spans="2:16" ht="42">
-      <c r="B380" s="199"/>
-      <c r="C380" s="199"/>
-      <c r="D380" s="199"/>
-      <c r="E380" s="201"/>
+      <c r="B380" s="214"/>
+      <c r="C380" s="214"/>
+      <c r="D380" s="214"/>
+      <c r="E380" s="217"/>
       <c r="F380" s="93" t="s">
         <v>482</v>
       </c>
@@ -19510,7 +19771,7 @@
       <c r="H380" s="94">
         <v>180</v>
       </c>
-      <c r="I380" s="199"/>
+      <c r="I380" s="214"/>
       <c r="J380" s="95">
         <v>4.4021999999999997</v>
       </c>
@@ -19523,17 +19784,17 @@
       <c r="M380" s="94">
         <v>165</v>
       </c>
-      <c r="N380" s="199"/>
-      <c r="O380" s="199"/>
-      <c r="P380" s="199"/>
+      <c r="N380" s="214"/>
+      <c r="O380" s="214"/>
+      <c r="P380" s="214"/>
     </row>
     <row r="381" spans="2:16" ht="22.5">
-      <c r="B381" s="181" t="s">
+      <c r="B381" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C381" s="181"/>
-      <c r="D381" s="181"/>
-      <c r="E381" s="181"/>
+      <c r="C381" s="190"/>
+      <c r="D381" s="190"/>
+      <c r="E381" s="190"/>
       <c r="F381" s="153" t="s">
         <v>25</v>
       </c>
@@ -19600,12 +19861,12 @@
       </c>
     </row>
     <row r="383" spans="2:16" ht="22.5">
-      <c r="B383" s="181" t="s">
+      <c r="B383" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C383" s="181"/>
-      <c r="D383" s="181"/>
-      <c r="E383" s="181"/>
+      <c r="C383" s="190"/>
+      <c r="D383" s="190"/>
+      <c r="E383" s="190"/>
       <c r="F383" s="153" t="s">
         <v>15</v>
       </c>
@@ -19666,12 +19927,12 @@
       </c>
     </row>
     <row r="385" spans="2:16" ht="22.5">
-      <c r="B385" s="181" t="s">
+      <c r="B385" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C385" s="181"/>
-      <c r="D385" s="181"/>
-      <c r="E385" s="181"/>
+      <c r="C385" s="190"/>
+      <c r="D385" s="190"/>
+      <c r="E385" s="190"/>
       <c r="F385" s="153" t="s">
         <v>21</v>
       </c>
@@ -19740,12 +20001,12 @@
       </c>
     </row>
     <row r="387" spans="2:16" ht="22.5">
-      <c r="B387" s="181" t="s">
+      <c r="B387" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C387" s="181"/>
-      <c r="D387" s="181"/>
-      <c r="E387" s="181"/>
+      <c r="C387" s="190"/>
+      <c r="D387" s="190"/>
+      <c r="E387" s="190"/>
       <c r="F387" s="153" t="s">
         <v>516</v>
       </c>
@@ -19806,12 +20067,12 @@
       <c r="P388" s="90"/>
     </row>
     <row r="389" spans="2:16" ht="22.5">
-      <c r="B389" s="181" t="s">
+      <c r="B389" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C389" s="181"/>
-      <c r="D389" s="181"/>
-      <c r="E389" s="181"/>
+      <c r="C389" s="190"/>
+      <c r="D389" s="190"/>
+      <c r="E389" s="190"/>
       <c r="F389" s="153" t="s">
         <v>19</v>
       </c>
@@ -19875,12 +20136,12 @@
       <c r="P390" s="94"/>
     </row>
     <row r="391" spans="2:16" ht="22.5">
-      <c r="B391" s="181" t="s">
+      <c r="B391" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C391" s="181"/>
-      <c r="D391" s="181"/>
-      <c r="E391" s="181"/>
+      <c r="C391" s="190"/>
+      <c r="D391" s="190"/>
+      <c r="E391" s="190"/>
       <c r="F391" s="153" t="s">
         <v>557</v>
       </c>
@@ -19947,12 +20208,12 @@
       <c r="P392" s="90"/>
     </row>
     <row r="393" spans="2:16" ht="22.5">
-      <c r="B393" s="181" t="s">
+      <c r="B393" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C393" s="181"/>
-      <c r="D393" s="181"/>
-      <c r="E393" s="181"/>
+      <c r="C393" s="190"/>
+      <c r="D393" s="190"/>
+      <c r="E393" s="190"/>
       <c r="F393" s="153" t="s">
         <v>560</v>
       </c>
@@ -20021,12 +20282,12 @@
       </c>
     </row>
     <row r="395" spans="2:16" ht="22.5">
-      <c r="B395" s="181" t="s">
+      <c r="B395" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C395" s="181"/>
-      <c r="D395" s="181"/>
-      <c r="E395" s="181"/>
+      <c r="C395" s="190"/>
+      <c r="D395" s="190"/>
+      <c r="E395" s="190"/>
       <c r="F395" s="153" t="s">
         <v>564</v>
       </c>
@@ -20089,12 +20350,12 @@
       </c>
     </row>
     <row r="397" spans="2:16" ht="22.5">
-      <c r="B397" s="181" t="s">
+      <c r="B397" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C397" s="181"/>
-      <c r="D397" s="181"/>
-      <c r="E397" s="181"/>
+      <c r="C397" s="190"/>
+      <c r="D397" s="190"/>
+      <c r="E397" s="190"/>
       <c r="F397" s="153" t="s">
         <v>22</v>
       </c>
@@ -20159,12 +20420,12 @@
       </c>
     </row>
     <row r="399" spans="2:16" ht="22.5">
-      <c r="B399" s="181" t="s">
+      <c r="B399" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C399" s="181"/>
-      <c r="D399" s="181"/>
-      <c r="E399" s="181"/>
+      <c r="C399" s="190"/>
+      <c r="D399" s="190"/>
+      <c r="E399" s="190"/>
       <c r="F399" s="64" t="s">
         <v>30</v>
       </c>
@@ -20231,12 +20492,12 @@
       </c>
     </row>
     <row r="401" spans="2:16" ht="22.5">
-      <c r="B401" s="181" t="s">
+      <c r="B401" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C401" s="181"/>
-      <c r="D401" s="181"/>
-      <c r="E401" s="181"/>
+      <c r="C401" s="190"/>
+      <c r="D401" s="190"/>
+      <c r="E401" s="190"/>
       <c r="F401" s="64" t="s">
         <v>516</v>
       </c>
@@ -20299,12 +20560,12 @@
       <c r="P402" s="81"/>
     </row>
     <row r="403" spans="2:16" ht="22.5">
-      <c r="B403" s="181" t="s">
+      <c r="B403" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C403" s="181"/>
-      <c r="D403" s="181"/>
-      <c r="E403" s="181"/>
+      <c r="C403" s="190"/>
+      <c r="D403" s="190"/>
+      <c r="E403" s="190"/>
       <c r="F403" s="64" t="s">
         <v>388</v>
       </c>
@@ -20371,12 +20632,12 @@
       <c r="P404" s="90"/>
     </row>
     <row r="405" spans="2:16" ht="22.5">
-      <c r="B405" s="181" t="s">
+      <c r="B405" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C405" s="181"/>
-      <c r="D405" s="181"/>
-      <c r="E405" s="181"/>
+      <c r="C405" s="190"/>
+      <c r="D405" s="190"/>
+      <c r="E405" s="190"/>
       <c r="F405" s="153" t="s">
         <v>618</v>
       </c>
@@ -20413,7 +20674,7 @@
       <c r="F406" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="G406" s="245"/>
+      <c r="G406" s="181"/>
       <c r="H406" s="90"/>
       <c r="I406" s="90">
         <v>419</v>
@@ -20435,12 +20696,12 @@
       <c r="P406" s="90"/>
     </row>
     <row r="407" spans="2:16" ht="22.5">
-      <c r="B407" s="181" t="s">
+      <c r="B407" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C407" s="181"/>
-      <c r="D407" s="181"/>
-      <c r="E407" s="181"/>
+      <c r="C407" s="190"/>
+      <c r="D407" s="190"/>
+      <c r="E407" s="190"/>
       <c r="F407" s="153" t="s">
         <v>21</v>
       </c>
@@ -20460,28 +20721,28 @@
       <c r="P407" s="92"/>
     </row>
     <row r="408" spans="2:16" ht="21">
-      <c r="B408" s="211" t="s">
+      <c r="B408" s="205" t="s">
         <v>633</v>
       </c>
-      <c r="C408" s="211">
+      <c r="C408" s="205">
         <v>15262730846</v>
       </c>
-      <c r="D408" s="211" t="s">
+      <c r="D408" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="E408" s="213">
+      <c r="E408" s="186">
         <v>45719</v>
       </c>
       <c r="F408" s="157" t="s">
         <v>634</v>
       </c>
-      <c r="G408" s="211" t="s">
+      <c r="G408" s="205" t="s">
         <v>71</v>
       </c>
       <c r="H408" s="90">
         <v>1500</v>
       </c>
-      <c r="I408" s="211">
+      <c r="I408" s="205">
         <v>2675</v>
       </c>
       <c r="J408" s="158">
@@ -20496,10 +20757,10 @@
       <c r="M408" s="90">
         <v>19</v>
       </c>
-      <c r="N408" s="211" t="s">
+      <c r="N408" s="205" t="s">
         <v>88</v>
       </c>
-      <c r="O408" s="211" t="s">
+      <c r="O408" s="205" t="s">
         <v>88</v>
       </c>
       <c r="P408" s="90" t="s">
@@ -20507,18 +20768,18 @@
       </c>
     </row>
     <row r="409" spans="2:16" ht="21">
-      <c r="B409" s="238"/>
-      <c r="C409" s="238"/>
-      <c r="D409" s="238"/>
-      <c r="E409" s="223"/>
+      <c r="B409" s="206"/>
+      <c r="C409" s="206"/>
+      <c r="D409" s="206"/>
+      <c r="E409" s="204"/>
       <c r="F409" s="157" t="s">
         <v>635</v>
       </c>
-      <c r="G409" s="238"/>
+      <c r="G409" s="206"/>
       <c r="H409" s="90">
         <v>1500</v>
       </c>
-      <c r="I409" s="238"/>
+      <c r="I409" s="206"/>
       <c r="J409" s="158">
         <v>4.8099999999999996</v>
       </c>
@@ -20531,25 +20792,25 @@
       <c r="M409" s="90">
         <v>25</v>
       </c>
-      <c r="N409" s="238"/>
-      <c r="O409" s="238"/>
+      <c r="N409" s="206"/>
+      <c r="O409" s="206"/>
       <c r="P409" s="90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="410" spans="2:16" ht="21">
-      <c r="B410" s="212"/>
-      <c r="C410" s="212"/>
-      <c r="D410" s="212"/>
-      <c r="E410" s="214"/>
+      <c r="B410" s="207"/>
+      <c r="C410" s="207"/>
+      <c r="D410" s="207"/>
+      <c r="E410" s="187"/>
       <c r="F410" s="157" t="s">
         <v>636</v>
       </c>
-      <c r="G410" s="212"/>
+      <c r="G410" s="207"/>
       <c r="H410" s="90">
         <v>210</v>
       </c>
-      <c r="I410" s="212"/>
+      <c r="I410" s="207"/>
       <c r="J410" s="158">
         <v>0.63724500000000006</v>
       </c>
@@ -20562,19 +20823,19 @@
       <c r="M410" s="90">
         <v>35</v>
       </c>
-      <c r="N410" s="212"/>
-      <c r="O410" s="212"/>
+      <c r="N410" s="207"/>
+      <c r="O410" s="207"/>
       <c r="P410" s="90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="411" spans="2:16" ht="22.5">
-      <c r="B411" s="181" t="s">
+      <c r="B411" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C411" s="181"/>
-      <c r="D411" s="181"/>
-      <c r="E411" s="181"/>
+      <c r="C411" s="190"/>
+      <c r="D411" s="190"/>
+      <c r="E411" s="190"/>
       <c r="F411" s="153" t="s">
         <v>409</v>
       </c>
@@ -20593,17 +20854,377 @@
       <c r="O411" s="92"/>
       <c r="P411" s="92"/>
     </row>
+    <row r="412" spans="2:16" ht="21">
+      <c r="B412" s="90" t="s">
+        <v>686</v>
+      </c>
+      <c r="C412" s="90" t="s">
+        <v>687</v>
+      </c>
+      <c r="D412" s="90" t="s">
+        <v>614</v>
+      </c>
+      <c r="E412" s="91">
+        <v>45721</v>
+      </c>
+      <c r="F412" s="157" t="s">
+        <v>634</v>
+      </c>
+      <c r="G412" s="54" t="s">
+        <v>688</v>
+      </c>
+      <c r="H412" s="90">
+        <f>960*50</f>
+        <v>48000</v>
+      </c>
+      <c r="I412" s="90">
+        <v>600</v>
+      </c>
+      <c r="J412" s="248">
+        <f>K412*L412*M412/1000000*50</f>
+        <v>3.17625</v>
+      </c>
+      <c r="K412" s="90">
+        <v>55</v>
+      </c>
+      <c r="L412" s="90">
+        <v>35</v>
+      </c>
+      <c r="M412" s="90">
+        <v>33</v>
+      </c>
+      <c r="N412" s="90" t="s">
+        <v>617</v>
+      </c>
+      <c r="O412" s="90" t="s">
+        <v>617</v>
+      </c>
+      <c r="P412" s="90"/>
+    </row>
+    <row r="413" spans="2:16" ht="22.5">
+      <c r="B413" s="190" t="s">
+        <v>12</v>
+      </c>
+      <c r="C413" s="190"/>
+      <c r="D413" s="190"/>
+      <c r="E413" s="190"/>
+      <c r="F413" s="153" t="s">
+        <v>689</v>
+      </c>
+      <c r="G413" s="154"/>
+      <c r="H413" s="154"/>
+      <c r="I413" s="154">
+        <f>SUM(I412:I412)</f>
+        <v>600</v>
+      </c>
+      <c r="J413" s="249">
+        <f>SUM(J412:J412)</f>
+        <v>3.17625</v>
+      </c>
+      <c r="K413" s="154"/>
+      <c r="L413" s="154"/>
+      <c r="M413" s="154"/>
+      <c r="N413" s="92"/>
+      <c r="O413" s="92"/>
+      <c r="P413" s="92"/>
+    </row>
   </sheetData>
-  <mergeCells count="322">
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="G210:G211"/>
-    <mergeCell ref="O197:O199"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="O203:O204"/>
+  <mergeCells count="328">
+    <mergeCell ref="B413:E413"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="B399:E399"/>
+    <mergeCell ref="B401:E401"/>
+    <mergeCell ref="B403:E403"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="B348:E348"/>
+    <mergeCell ref="B350:E350"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B322:E322"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="D329:D330"/>
+    <mergeCell ref="E329:E330"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B385:E385"/>
+    <mergeCell ref="B387:E387"/>
+    <mergeCell ref="B389:E389"/>
+    <mergeCell ref="B391:E391"/>
+    <mergeCell ref="B393:E393"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="B383:E383"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="G136:G142"/>
+    <mergeCell ref="H136:H142"/>
+    <mergeCell ref="B381:E381"/>
+    <mergeCell ref="B272:E272"/>
+    <mergeCell ref="B273:B277"/>
+    <mergeCell ref="C273:C277"/>
+    <mergeCell ref="D273:D277"/>
+    <mergeCell ref="E273:E277"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B289:E289"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O87:O89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="N252:N255"/>
+    <mergeCell ref="O252:O255"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="G111:G114"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="K87:K89"/>
+    <mergeCell ref="B75:B85"/>
+    <mergeCell ref="C75:C85"/>
+    <mergeCell ref="D75:D85"/>
+    <mergeCell ref="E75:E85"/>
+    <mergeCell ref="G75:G85"/>
+    <mergeCell ref="P252:P255"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="B258:E258"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B251:E251"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="E252:E255"/>
+    <mergeCell ref="I252:I255"/>
+    <mergeCell ref="P263:P267"/>
+    <mergeCell ref="B268:E268"/>
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="C263:C267"/>
+    <mergeCell ref="D263:D267"/>
+    <mergeCell ref="E263:E267"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="I263:I267"/>
+    <mergeCell ref="N263:N267"/>
+    <mergeCell ref="O263:O267"/>
+    <mergeCell ref="P281:P282"/>
+    <mergeCell ref="B283:E283"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="O273:O277"/>
+    <mergeCell ref="P273:P277"/>
+    <mergeCell ref="G275:G276"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B280:E280"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="G281:G282"/>
+    <mergeCell ref="I281:I282"/>
+    <mergeCell ref="N281:N282"/>
+    <mergeCell ref="O281:O282"/>
+    <mergeCell ref="N273:N277"/>
+    <mergeCell ref="P292:P304"/>
+    <mergeCell ref="G295:G300"/>
+    <mergeCell ref="B305:E305"/>
+    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B292:B304"/>
+    <mergeCell ref="C292:C304"/>
+    <mergeCell ref="D292:D304"/>
+    <mergeCell ref="E292:E304"/>
+    <mergeCell ref="G292:G294"/>
+    <mergeCell ref="I292:I304"/>
+    <mergeCell ref="N292:N304"/>
+    <mergeCell ref="O292:O304"/>
+    <mergeCell ref="P310:P315"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B317:B319"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="E317:E319"/>
+    <mergeCell ref="G317:G319"/>
+    <mergeCell ref="D310:D315"/>
+    <mergeCell ref="E310:E315"/>
+    <mergeCell ref="G310:G311"/>
+    <mergeCell ref="B310:B315"/>
+    <mergeCell ref="C310:C315"/>
+    <mergeCell ref="I317:I319"/>
+    <mergeCell ref="N317:N319"/>
+    <mergeCell ref="O317:O319"/>
+    <mergeCell ref="P317:P319"/>
+    <mergeCell ref="I310:I315"/>
+    <mergeCell ref="N310:N315"/>
+    <mergeCell ref="O310:O315"/>
+    <mergeCell ref="N362:N364"/>
+    <mergeCell ref="G343:G347"/>
+    <mergeCell ref="I343:I347"/>
+    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B332:B339"/>
+    <mergeCell ref="C332:C339"/>
+    <mergeCell ref="D332:D339"/>
+    <mergeCell ref="E332:E339"/>
+    <mergeCell ref="G332:G339"/>
+    <mergeCell ref="I332:I339"/>
+    <mergeCell ref="B342:E342"/>
+    <mergeCell ref="B343:B347"/>
+    <mergeCell ref="C343:C347"/>
+    <mergeCell ref="D343:D347"/>
+    <mergeCell ref="E343:E347"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="D131:D134"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="G131:G134"/>
+    <mergeCell ref="H131:H134"/>
+    <mergeCell ref="N131:N134"/>
+    <mergeCell ref="O136:O142"/>
+    <mergeCell ref="G162:G163"/>
+    <mergeCell ref="O162:O163"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="O165:O170"/>
+    <mergeCell ref="O185:O191"/>
+    <mergeCell ref="O193:O195"/>
+    <mergeCell ref="P332:P339"/>
+    <mergeCell ref="N351:N357"/>
+    <mergeCell ref="O351:O357"/>
+    <mergeCell ref="P351:P357"/>
+    <mergeCell ref="P359:P360"/>
+    <mergeCell ref="P362:P364"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="I372:I374"/>
+    <mergeCell ref="B375:E375"/>
+    <mergeCell ref="B372:B374"/>
+    <mergeCell ref="D372:D374"/>
+    <mergeCell ref="E372:E374"/>
+    <mergeCell ref="B368:B371"/>
+    <mergeCell ref="C368:C371"/>
+    <mergeCell ref="D368:D371"/>
+    <mergeCell ref="E368:E371"/>
+    <mergeCell ref="G368:G371"/>
+    <mergeCell ref="I368:I371"/>
+    <mergeCell ref="N368:N374"/>
+    <mergeCell ref="O368:O374"/>
+    <mergeCell ref="N332:N339"/>
+    <mergeCell ref="O332:O339"/>
+    <mergeCell ref="B340:E340"/>
+    <mergeCell ref="N359:N360"/>
+    <mergeCell ref="B351:B357"/>
+    <mergeCell ref="C351:C357"/>
+    <mergeCell ref="D351:D357"/>
+    <mergeCell ref="P368:P374"/>
+    <mergeCell ref="G372:G374"/>
+    <mergeCell ref="B378:B380"/>
+    <mergeCell ref="C378:C380"/>
+    <mergeCell ref="D378:D380"/>
+    <mergeCell ref="E378:E380"/>
+    <mergeCell ref="G378:G379"/>
+    <mergeCell ref="I378:I380"/>
+    <mergeCell ref="N378:N380"/>
+    <mergeCell ref="O378:O380"/>
+    <mergeCell ref="P378:P380"/>
+    <mergeCell ref="B377:E377"/>
+    <mergeCell ref="E351:E357"/>
+    <mergeCell ref="O362:O364"/>
+    <mergeCell ref="B365:E365"/>
+    <mergeCell ref="B362:B364"/>
+    <mergeCell ref="C362:C364"/>
+    <mergeCell ref="D362:D364"/>
+    <mergeCell ref="E362:E364"/>
+    <mergeCell ref="G362:G364"/>
+    <mergeCell ref="I362:I364"/>
+    <mergeCell ref="I408:I410"/>
+    <mergeCell ref="N408:N410"/>
+    <mergeCell ref="O408:O410"/>
+    <mergeCell ref="B405:E405"/>
+    <mergeCell ref="B172:B179"/>
+    <mergeCell ref="C172:C179"/>
+    <mergeCell ref="D172:D179"/>
+    <mergeCell ref="E172:E179"/>
+    <mergeCell ref="G172:G179"/>
+    <mergeCell ref="H172:H179"/>
+    <mergeCell ref="O172:O179"/>
+    <mergeCell ref="B395:E395"/>
+    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="O359:O360"/>
+    <mergeCell ref="B361:E361"/>
+    <mergeCell ref="G351:G357"/>
+    <mergeCell ref="I351:I357"/>
+    <mergeCell ref="B358:E358"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="G359:G360"/>
+    <mergeCell ref="I359:I360"/>
     <mergeCell ref="B411:E411"/>
     <mergeCell ref="B185:B191"/>
     <mergeCell ref="C185:C191"/>
@@ -20628,295 +21249,15 @@
     <mergeCell ref="D408:D410"/>
     <mergeCell ref="E408:E410"/>
     <mergeCell ref="G408:G410"/>
-    <mergeCell ref="I408:I410"/>
-    <mergeCell ref="N408:N410"/>
-    <mergeCell ref="O408:O410"/>
-    <mergeCell ref="B405:E405"/>
-    <mergeCell ref="B172:B179"/>
-    <mergeCell ref="C172:C179"/>
-    <mergeCell ref="D172:D179"/>
-    <mergeCell ref="E172:E179"/>
-    <mergeCell ref="G172:G179"/>
-    <mergeCell ref="H172:H179"/>
-    <mergeCell ref="O172:O179"/>
-    <mergeCell ref="B395:E395"/>
-    <mergeCell ref="B397:E397"/>
-    <mergeCell ref="O359:O360"/>
-    <mergeCell ref="B361:E361"/>
-    <mergeCell ref="G351:G357"/>
-    <mergeCell ref="I351:I357"/>
-    <mergeCell ref="B358:E358"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="E359:E360"/>
-    <mergeCell ref="G359:G360"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="B351:B357"/>
-    <mergeCell ref="C351:C357"/>
-    <mergeCell ref="D351:D357"/>
-    <mergeCell ref="P368:P374"/>
-    <mergeCell ref="G372:G374"/>
-    <mergeCell ref="B378:B380"/>
-    <mergeCell ref="C378:C380"/>
-    <mergeCell ref="D378:D380"/>
-    <mergeCell ref="E378:E380"/>
-    <mergeCell ref="G378:G379"/>
-    <mergeCell ref="I378:I380"/>
-    <mergeCell ref="N378:N380"/>
-    <mergeCell ref="O378:O380"/>
-    <mergeCell ref="P378:P380"/>
-    <mergeCell ref="B377:E377"/>
-    <mergeCell ref="P332:P339"/>
-    <mergeCell ref="N351:N357"/>
-    <mergeCell ref="O351:O357"/>
-    <mergeCell ref="P351:P357"/>
-    <mergeCell ref="P359:P360"/>
-    <mergeCell ref="P362:P364"/>
-    <mergeCell ref="B367:E367"/>
-    <mergeCell ref="I372:I374"/>
-    <mergeCell ref="B375:E375"/>
-    <mergeCell ref="B372:B374"/>
-    <mergeCell ref="D372:D374"/>
-    <mergeCell ref="E372:E374"/>
-    <mergeCell ref="B368:B371"/>
-    <mergeCell ref="C368:C371"/>
-    <mergeCell ref="D368:D371"/>
-    <mergeCell ref="E368:E371"/>
-    <mergeCell ref="G368:G371"/>
-    <mergeCell ref="I368:I371"/>
-    <mergeCell ref="N368:N374"/>
-    <mergeCell ref="O368:O374"/>
-    <mergeCell ref="N332:N339"/>
-    <mergeCell ref="O332:O339"/>
-    <mergeCell ref="B340:E340"/>
-    <mergeCell ref="N359:N360"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="D131:D134"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="G131:G134"/>
-    <mergeCell ref="H131:H134"/>
-    <mergeCell ref="N131:N134"/>
-    <mergeCell ref="O136:O142"/>
-    <mergeCell ref="G162:G163"/>
-    <mergeCell ref="O162:O163"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="O165:O170"/>
-    <mergeCell ref="O185:O191"/>
-    <mergeCell ref="O193:O195"/>
-    <mergeCell ref="E351:E357"/>
-    <mergeCell ref="O362:O364"/>
-    <mergeCell ref="B365:E365"/>
-    <mergeCell ref="B362:B364"/>
-    <mergeCell ref="C362:C364"/>
-    <mergeCell ref="D362:D364"/>
-    <mergeCell ref="E362:E364"/>
-    <mergeCell ref="G362:G364"/>
-    <mergeCell ref="I362:I364"/>
-    <mergeCell ref="N362:N364"/>
-    <mergeCell ref="G343:G347"/>
-    <mergeCell ref="I343:I347"/>
-    <mergeCell ref="B331:E331"/>
-    <mergeCell ref="B332:B339"/>
-    <mergeCell ref="C332:C339"/>
-    <mergeCell ref="D332:D339"/>
-    <mergeCell ref="E332:E339"/>
-    <mergeCell ref="G332:G339"/>
-    <mergeCell ref="I332:I339"/>
-    <mergeCell ref="B342:E342"/>
-    <mergeCell ref="B343:B347"/>
-    <mergeCell ref="C343:C347"/>
-    <mergeCell ref="D343:D347"/>
-    <mergeCell ref="E343:E347"/>
-    <mergeCell ref="P310:P315"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B317:B319"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="E317:E319"/>
-    <mergeCell ref="G317:G319"/>
-    <mergeCell ref="D310:D315"/>
-    <mergeCell ref="E310:E315"/>
-    <mergeCell ref="G310:G311"/>
-    <mergeCell ref="B310:B315"/>
-    <mergeCell ref="C310:C315"/>
-    <mergeCell ref="I317:I319"/>
-    <mergeCell ref="N317:N319"/>
-    <mergeCell ref="O317:O319"/>
-    <mergeCell ref="P317:P319"/>
-    <mergeCell ref="I310:I315"/>
-    <mergeCell ref="N310:N315"/>
-    <mergeCell ref="O310:O315"/>
-    <mergeCell ref="P292:P304"/>
-    <mergeCell ref="G295:G300"/>
-    <mergeCell ref="B305:E305"/>
-    <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B292:B304"/>
-    <mergeCell ref="C292:C304"/>
-    <mergeCell ref="D292:D304"/>
-    <mergeCell ref="E292:E304"/>
-    <mergeCell ref="G292:G294"/>
-    <mergeCell ref="I292:I304"/>
-    <mergeCell ref="N292:N304"/>
-    <mergeCell ref="O292:O304"/>
-    <mergeCell ref="P281:P282"/>
-    <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="O273:O277"/>
-    <mergeCell ref="P273:P277"/>
-    <mergeCell ref="G275:G276"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="G281:G282"/>
-    <mergeCell ref="I281:I282"/>
-    <mergeCell ref="N281:N282"/>
-    <mergeCell ref="O281:O282"/>
-    <mergeCell ref="N273:N277"/>
-    <mergeCell ref="P263:P267"/>
-    <mergeCell ref="B268:E268"/>
-    <mergeCell ref="B270:E270"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="C263:C267"/>
-    <mergeCell ref="D263:D267"/>
-    <mergeCell ref="E263:E267"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="I263:I267"/>
-    <mergeCell ref="N263:N267"/>
-    <mergeCell ref="O263:O267"/>
-    <mergeCell ref="P252:P255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B258:E258"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B251:E251"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="E252:E255"/>
-    <mergeCell ref="I252:I255"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="O87:O89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="N252:N255"/>
-    <mergeCell ref="O252:O255"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="G111:G114"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="K87:K89"/>
-    <mergeCell ref="B75:B85"/>
-    <mergeCell ref="C75:C85"/>
-    <mergeCell ref="D75:D85"/>
-    <mergeCell ref="E75:E85"/>
-    <mergeCell ref="G75:G85"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="B383:E383"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="C136:C142"/>
-    <mergeCell ref="D136:D142"/>
-    <mergeCell ref="E136:E142"/>
-    <mergeCell ref="G136:G142"/>
-    <mergeCell ref="H136:H142"/>
-    <mergeCell ref="B381:E381"/>
-    <mergeCell ref="B272:E272"/>
-    <mergeCell ref="B273:B277"/>
-    <mergeCell ref="C273:C277"/>
-    <mergeCell ref="D273:D277"/>
-    <mergeCell ref="E273:E277"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B289:E289"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B399:E399"/>
-    <mergeCell ref="B401:E401"/>
-    <mergeCell ref="B403:E403"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="B348:E348"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="B329:B330"/>
-    <mergeCell ref="D329:D330"/>
-    <mergeCell ref="E329:E330"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B385:E385"/>
-    <mergeCell ref="B387:E387"/>
-    <mergeCell ref="B389:E389"/>
-    <mergeCell ref="B391:E391"/>
-    <mergeCell ref="B393:E393"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="O197:O199"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="O203:O204"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20991,12 +21332,12 @@
     </row>
     <row r="6" spans="1:16" ht="22.5">
       <c r="A6" s="30"/>
-      <c r="B6" s="181" t="s">
+      <c r="B6" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
       <c r="F6" s="64" t="s">
         <v>21</v>
       </c>
@@ -21061,12 +21402,12 @@
     </row>
     <row r="9" spans="1:16" ht="22.5">
       <c r="A9" s="30"/>
-      <c r="B9" s="181" t="s">
+      <c r="B9" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
       <c r="F9" s="76" t="s">
         <v>25</v>
       </c>
@@ -21135,12 +21476,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5">
       <c r="A12" s="30"/>
-      <c r="B12" s="181" t="s">
+      <c r="B12" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="181"/>
-      <c r="D12" s="181"/>
-      <c r="E12" s="181"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="190"/>
+      <c r="E12" s="190"/>
       <c r="F12" s="76" t="s">
         <v>15</v>
       </c>

--- a/Master/2025_MASTER.xlsx
+++ b/Master/2025_MASTER.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A81F4C8-2F70-4390-8FC9-EBA6A958A847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997C73D3-04E6-4D0B-9F72-0255BDBD1082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="750">
   <si>
     <t>Measurement</t>
   </si>
@@ -4928,6 +4928,233 @@
         <charset val="134"/>
       </rPr>
       <t>1543238784047</t>
+    </r>
+  </si>
+  <si>
+    <t>S0086105</t>
+  </si>
+  <si>
+    <t>hylh25030031 15194677757</t>
+  </si>
+  <si>
+    <t>279/W99/BMK/SEA</t>
+  </si>
+  <si>
+    <t>食用明胶Engine mount</t>
+  </si>
+  <si>
+    <t>颗粒</t>
+  </si>
+  <si>
+    <t>S0086112</t>
+  </si>
+  <si>
+    <t>1-250</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>S0086054</t>
+  </si>
+  <si>
+    <t>279/UIE/WW/SEA</t>
+  </si>
+  <si>
+    <t>胡须套Beard net</t>
+  </si>
+  <si>
+    <t>S0086061</t>
+  </si>
+  <si>
+    <t>110031377388 /18111611101</t>
+  </si>
+  <si>
+    <t>1-27</t>
+  </si>
+  <si>
+    <t>28-90</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>S0086042</t>
+  </si>
+  <si>
+    <t>1-58</t>
+  </si>
+  <si>
+    <t>机脚胶Rubber for sewing feet</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>S0086240</t>
+  </si>
+  <si>
+    <r>
+      <t>安能：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>300598805723</t>
+    </r>
+  </si>
+  <si>
+    <t>胶水glue</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>S0086129</t>
+  </si>
+  <si>
+    <t>尾灯taillight</t>
+  </si>
+  <si>
+    <t>S0086257</t>
+  </si>
+  <si>
+    <t>202507294831</t>
+  </si>
+  <si>
+    <t>279/W99/GMU/SEA</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>密封胶sealant</t>
+  </si>
+  <si>
+    <t>S0086413</t>
+  </si>
+  <si>
+    <t>935193652 /18969779651</t>
+  </si>
+  <si>
+    <t>气缸盖Cylinder head</t>
+  </si>
+  <si>
+    <t>S0086416</t>
+  </si>
+  <si>
+    <t>800118483014 /15130082868</t>
+  </si>
+  <si>
+    <t>279/W99/CY/SEA</t>
+  </si>
+  <si>
+    <t>静踝脚Static ankle crura</t>
+  </si>
+  <si>
+    <t>7-9</t>
+  </si>
+  <si>
+    <t>锁紧lock</t>
+  </si>
+  <si>
+    <t>双轴动踝Double axis ankle</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A0035565</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1543238784108</t>
+    </r>
+  </si>
+  <si>
+    <t>A0035625</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺丰：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1548346494252</t>
+    </r>
+  </si>
+  <si>
+    <t>五金配件Hardware accessories</t>
+  </si>
+  <si>
+    <t>B19</t>
+  </si>
+  <si>
+    <t>E67</t>
+  </si>
+  <si>
+    <t>A0035722</t>
+  </si>
+  <si>
+    <r>
+      <t>上衣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Comic Sans MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  tops</t>
     </r>
   </si>
 </sst>
@@ -6422,7 +6649,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6971,6 +7198,15 @@
     <xf numFmtId="0" fontId="36" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6986,21 +7222,135 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7010,164 +7360,44 @@
     <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="36" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="314">
@@ -7709,14 +7939,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E3568-5A38-4555-95C2-66ABB16BC5FB}">
-  <dimension ref="A1:AM413"/>
+  <dimension ref="A1:AM439"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E391" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E415" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B412" sqref="B412"/>
+      <selection pane="bottomRight" activeCell="B436" sqref="B436:B438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7786,24 +8016,24 @@
       <c r="N1" s="15"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="59"/>
-      <c r="R1" s="240" t="s">
+      <c r="R1" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="241"/>
-      <c r="T1" s="241"/>
-      <c r="U1" s="241"/>
-      <c r="V1" s="241"/>
-      <c r="W1" s="241"/>
-      <c r="X1" s="241"/>
-      <c r="Y1" s="242" t="s">
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
+      <c r="Z1" s="219"/>
+      <c r="AA1" s="219"/>
+      <c r="AB1" s="219"/>
+      <c r="AC1" s="219"/>
+      <c r="AD1" s="219"/>
+      <c r="AE1" s="219"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
@@ -7838,24 +8068,24 @@
       <c r="N2" s="15"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="59"/>
-      <c r="R2" s="240" t="s">
+      <c r="R2" s="216" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="241"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="242" t="s">
+      <c r="S2" s="217"/>
+      <c r="T2" s="217"/>
+      <c r="U2" s="217"/>
+      <c r="V2" s="217"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="217"/>
+      <c r="Y2" s="218" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="243"/>
-      <c r="AA2" s="243"/>
-      <c r="AB2" s="243"/>
-      <c r="AC2" s="243"/>
-      <c r="AD2" s="243"/>
-      <c r="AE2" s="243"/>
+      <c r="Z2" s="219"/>
+      <c r="AA2" s="219"/>
+      <c r="AB2" s="219"/>
+      <c r="AC2" s="219"/>
+      <c r="AD2" s="219"/>
+      <c r="AE2" s="219"/>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="43"/>
@@ -7895,11 +8125,11 @@
       <c r="J3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="244" t="s">
+      <c r="K3" s="220" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="220"/>
       <c r="N3" s="23" t="s">
         <v>2</v>
       </c>
@@ -8003,10 +8233,10 @@
       <c r="AM4" s="27"/>
     </row>
     <row r="5" spans="1:39" ht="40.5">
-      <c r="A5" s="245" t="s">
+      <c r="A5" s="221" t="s">
         <v>445</v>
       </c>
-      <c r="B5" s="245"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="140"/>
@@ -8644,25 +8874,25 @@
       <c r="A23" s="145" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="198" t="s">
+      <c r="B23" s="193" t="s">
         <v>241</v>
       </c>
       <c r="C23" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="198" t="s">
+      <c r="D23" s="193" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="201">
+      <c r="E23" s="204">
         <v>45661</v>
       </c>
       <c r="F23" s="113">
         <v>1</v>
       </c>
-      <c r="G23" s="198" t="s">
+      <c r="G23" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="198">
+      <c r="H23" s="193">
         <v>2</v>
       </c>
       <c r="I23" s="113">
@@ -8681,7 +8911,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="113"/>
-      <c r="O23" s="198" t="s">
+      <c r="O23" s="193" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8689,17 +8919,17 @@
       <c r="A24" s="145" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="200"/>
+      <c r="B24" s="194"/>
       <c r="C24" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="200"/>
-      <c r="E24" s="203"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="205"/>
       <c r="F24" s="113">
         <v>2</v>
       </c>
-      <c r="G24" s="200"/>
-      <c r="H24" s="200"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
       <c r="I24" s="113">
         <v>1.1000000000000001</v>
       </c>
@@ -8716,7 +8946,7 @@
         <v>13</v>
       </c>
       <c r="N24" s="113"/>
-      <c r="O24" s="200"/>
+      <c r="O24" s="194"/>
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A25" s="146"/>
@@ -9301,25 +9531,25 @@
       <c r="A42" s="145" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="198" t="s">
+      <c r="B42" s="193" t="s">
         <v>276</v>
       </c>
       <c r="C42" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="D42" s="198" t="s">
+      <c r="D42" s="193" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="201">
+      <c r="E42" s="204">
         <v>45664</v>
       </c>
       <c r="F42" s="113">
         <v>1</v>
       </c>
-      <c r="G42" s="198" t="s">
+      <c r="G42" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="198">
+      <c r="H42" s="193">
         <v>3</v>
       </c>
       <c r="I42" s="113">
@@ -9338,7 +9568,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="113"/>
-      <c r="O42" s="198" t="s">
+      <c r="O42" s="193" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9346,17 +9576,17 @@
       <c r="A43" s="145" t="s">
         <v>278</v>
       </c>
-      <c r="B43" s="199"/>
+      <c r="B43" s="197"/>
       <c r="C43" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="202"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="215"/>
       <c r="F43" s="113">
         <v>2</v>
       </c>
-      <c r="G43" s="199"/>
-      <c r="H43" s="199"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
       <c r="I43" s="113">
         <v>1.4</v>
       </c>
@@ -9373,23 +9603,23 @@
         <v>20</v>
       </c>
       <c r="N43" s="113"/>
-      <c r="O43" s="199"/>
+      <c r="O43" s="197"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="21">
       <c r="A44" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="B44" s="200"/>
+      <c r="B44" s="194"/>
       <c r="C44" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="200"/>
-      <c r="E44" s="203"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="205"/>
       <c r="F44" s="113">
         <v>3</v>
       </c>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
       <c r="I44" s="113">
         <v>2</v>
       </c>
@@ -9406,7 +9636,7 @@
         <v>20</v>
       </c>
       <c r="N44" s="113"/>
-      <c r="O44" s="200"/>
+      <c r="O44" s="194"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A45" s="146"/>
@@ -9649,42 +9879,42 @@
       <c r="A52" s="147" t="s">
         <v>293</v>
       </c>
-      <c r="B52" s="205" t="s">
+      <c r="B52" s="222" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="205" t="s">
+      <c r="C52" s="222" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="205" t="s">
+      <c r="D52" s="222" t="s">
         <v>214</v>
       </c>
-      <c r="E52" s="186">
+      <c r="E52" s="189">
         <v>45666</v>
       </c>
       <c r="F52" s="90">
         <v>1</v>
       </c>
-      <c r="G52" s="205" t="s">
+      <c r="G52" s="222" t="s">
         <v>97</v>
       </c>
       <c r="H52" s="90"/>
-      <c r="I52" s="205">
+      <c r="I52" s="222">
         <v>10.199999999999999</v>
       </c>
-      <c r="J52" s="238">
+      <c r="J52" s="224">
         <v>0.10335</v>
       </c>
-      <c r="K52" s="205">
+      <c r="K52" s="222">
         <v>53</v>
       </c>
-      <c r="L52" s="205">
+      <c r="L52" s="222">
         <v>39</v>
       </c>
-      <c r="M52" s="205">
+      <c r="M52" s="222">
         <v>50</v>
       </c>
       <c r="N52" s="90"/>
-      <c r="O52" s="205" t="s">
+      <c r="O52" s="222" t="s">
         <v>296</v>
       </c>
     </row>
@@ -9692,22 +9922,22 @@
       <c r="A53" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="B53" s="207"/>
-      <c r="C53" s="207"/>
-      <c r="D53" s="207"/>
-      <c r="E53" s="187"/>
+      <c r="B53" s="223"/>
+      <c r="C53" s="223"/>
+      <c r="D53" s="223"/>
+      <c r="E53" s="190"/>
       <c r="F53" s="90">
         <v>2</v>
       </c>
-      <c r="G53" s="207"/>
+      <c r="G53" s="223"/>
       <c r="H53" s="90"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="239"/>
-      <c r="K53" s="207"/>
-      <c r="L53" s="207"/>
-      <c r="M53" s="207"/>
+      <c r="I53" s="223"/>
+      <c r="J53" s="225"/>
+      <c r="K53" s="223"/>
+      <c r="L53" s="223"/>
+      <c r="M53" s="223"/>
       <c r="N53" s="90"/>
-      <c r="O53" s="207"/>
+      <c r="O53" s="223"/>
     </row>
     <row r="54" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A54" s="146"/>
@@ -9738,25 +9968,25 @@
       <c r="A55" s="147" t="s">
         <v>298</v>
       </c>
-      <c r="B55" s="212" t="s">
+      <c r="B55" s="209" t="s">
         <v>299</v>
       </c>
-      <c r="C55" s="212" t="s">
+      <c r="C55" s="209" t="s">
         <v>300</v>
       </c>
-      <c r="D55" s="212" t="s">
+      <c r="D55" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="215">
+      <c r="E55" s="211">
         <v>45668</v>
       </c>
       <c r="F55" s="94">
         <v>1</v>
       </c>
-      <c r="G55" s="197" t="s">
+      <c r="G55" s="206" t="s">
         <v>301</v>
       </c>
-      <c r="H55" s="212">
+      <c r="H55" s="209">
         <v>1676</v>
       </c>
       <c r="I55" s="94">
@@ -9776,7 +10006,7 @@
         <v>43</v>
       </c>
       <c r="N55" s="94"/>
-      <c r="O55" s="212" t="s">
+      <c r="O55" s="209" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9784,15 +10014,15 @@
       <c r="A56" s="147" t="s">
         <v>303</v>
       </c>
-      <c r="B56" s="214"/>
-      <c r="C56" s="214"/>
-      <c r="D56" s="214"/>
-      <c r="E56" s="217"/>
+      <c r="B56" s="210"/>
+      <c r="C56" s="210"/>
+      <c r="D56" s="210"/>
+      <c r="E56" s="212"/>
       <c r="F56" s="94">
         <v>2</v>
       </c>
-      <c r="G56" s="220"/>
-      <c r="H56" s="214"/>
+      <c r="G56" s="208"/>
+      <c r="H56" s="210"/>
       <c r="I56" s="94">
         <v>16.7</v>
       </c>
@@ -9810,7 +10040,7 @@
         <v>30</v>
       </c>
       <c r="N56" s="94"/>
-      <c r="O56" s="214"/>
+      <c r="O56" s="210"/>
     </row>
     <row r="57" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A57" s="146"/>
@@ -9910,25 +10140,25 @@
       <c r="A60" s="147" t="s">
         <v>309</v>
       </c>
-      <c r="B60" s="212" t="s">
+      <c r="B60" s="209" t="s">
         <v>310</v>
       </c>
-      <c r="C60" s="212" t="s">
+      <c r="C60" s="209" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="212" t="s">
+      <c r="D60" s="209" t="s">
         <v>269</v>
       </c>
-      <c r="E60" s="215">
+      <c r="E60" s="211">
         <v>45670</v>
       </c>
       <c r="F60" s="94">
         <v>1</v>
       </c>
-      <c r="G60" s="197" t="s">
+      <c r="G60" s="206" t="s">
         <v>312</v>
       </c>
-      <c r="H60" s="212">
+      <c r="H60" s="209">
         <v>145</v>
       </c>
       <c r="I60" s="94">
@@ -9948,7 +10178,7 @@
         <v>23</v>
       </c>
       <c r="N60" s="53"/>
-      <c r="O60" s="212" t="s">
+      <c r="O60" s="209" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9956,15 +10186,15 @@
       <c r="A61" s="147" t="s">
         <v>314</v>
       </c>
-      <c r="B61" s="214"/>
-      <c r="C61" s="214"/>
-      <c r="D61" s="214"/>
-      <c r="E61" s="217"/>
+      <c r="B61" s="210"/>
+      <c r="C61" s="210"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="212"/>
       <c r="F61" s="94">
         <v>2</v>
       </c>
-      <c r="G61" s="220"/>
-      <c r="H61" s="214"/>
+      <c r="G61" s="208"/>
+      <c r="H61" s="210"/>
       <c r="I61" s="94">
         <v>13.7</v>
       </c>
@@ -9982,7 +10212,7 @@
         <v>49</v>
       </c>
       <c r="N61" s="94"/>
-      <c r="O61" s="214"/>
+      <c r="O61" s="210"/>
     </row>
     <row r="62" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A62" s="146"/>
@@ -10419,20 +10649,20 @@
       <c r="A75" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="B75" s="184" t="s">
+      <c r="B75" s="187" t="s">
         <v>342</v>
       </c>
-      <c r="C75" s="184"/>
-      <c r="D75" s="184" t="s">
+      <c r="C75" s="187"/>
+      <c r="D75" s="187" t="s">
         <v>343</v>
       </c>
-      <c r="E75" s="186">
+      <c r="E75" s="189">
         <v>45673</v>
       </c>
       <c r="F75" s="99">
         <v>1</v>
       </c>
-      <c r="G75" s="184" t="s">
+      <c r="G75" s="187" t="s">
         <v>344</v>
       </c>
       <c r="H75" s="99">
@@ -10461,14 +10691,14 @@
       <c r="A76" s="147" t="s">
         <v>345</v>
       </c>
-      <c r="B76" s="189"/>
-      <c r="C76" s="189"/>
-      <c r="D76" s="189"/>
-      <c r="E76" s="204"/>
+      <c r="B76" s="229"/>
+      <c r="C76" s="229"/>
+      <c r="D76" s="229"/>
+      <c r="E76" s="230"/>
       <c r="F76" s="99">
         <v>2</v>
       </c>
-      <c r="G76" s="189"/>
+      <c r="G76" s="229"/>
       <c r="H76" s="99">
         <v>240</v>
       </c>
@@ -10495,14 +10725,14 @@
       <c r="A77" s="147" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="189"/>
-      <c r="C77" s="189"/>
-      <c r="D77" s="189"/>
-      <c r="E77" s="204"/>
+      <c r="B77" s="229"/>
+      <c r="C77" s="229"/>
+      <c r="D77" s="229"/>
+      <c r="E77" s="230"/>
       <c r="F77" s="99">
         <v>3</v>
       </c>
-      <c r="G77" s="189"/>
+      <c r="G77" s="229"/>
       <c r="H77" s="99">
         <v>300</v>
       </c>
@@ -10529,14 +10759,14 @@
       <c r="A78" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="B78" s="189"/>
-      <c r="C78" s="189"/>
-      <c r="D78" s="189"/>
-      <c r="E78" s="204"/>
+      <c r="B78" s="229"/>
+      <c r="C78" s="229"/>
+      <c r="D78" s="229"/>
+      <c r="E78" s="230"/>
       <c r="F78" s="99">
         <v>4</v>
       </c>
-      <c r="G78" s="189"/>
+      <c r="G78" s="229"/>
       <c r="H78" s="99">
         <v>230</v>
       </c>
@@ -10563,14 +10793,14 @@
       <c r="A79" s="147" t="s">
         <v>348</v>
       </c>
-      <c r="B79" s="189"/>
-      <c r="C79" s="189"/>
-      <c r="D79" s="189"/>
-      <c r="E79" s="204"/>
+      <c r="B79" s="229"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="229"/>
+      <c r="E79" s="230"/>
       <c r="F79" s="99">
         <v>5</v>
       </c>
-      <c r="G79" s="189"/>
+      <c r="G79" s="229"/>
       <c r="H79" s="99">
         <v>220</v>
       </c>
@@ -10597,14 +10827,14 @@
       <c r="A80" s="147" t="s">
         <v>349</v>
       </c>
-      <c r="B80" s="189"/>
-      <c r="C80" s="189"/>
-      <c r="D80" s="189"/>
-      <c r="E80" s="204"/>
+      <c r="B80" s="229"/>
+      <c r="C80" s="229"/>
+      <c r="D80" s="229"/>
+      <c r="E80" s="230"/>
       <c r="F80" s="99">
         <v>6</v>
       </c>
-      <c r="G80" s="189"/>
+      <c r="G80" s="229"/>
       <c r="H80" s="99">
         <v>200</v>
       </c>
@@ -10631,14 +10861,14 @@
       <c r="A81" s="147" t="s">
         <v>350</v>
       </c>
-      <c r="B81" s="189"/>
-      <c r="C81" s="189"/>
-      <c r="D81" s="189"/>
-      <c r="E81" s="204"/>
+      <c r="B81" s="229"/>
+      <c r="C81" s="229"/>
+      <c r="D81" s="229"/>
+      <c r="E81" s="230"/>
       <c r="F81" s="99">
         <v>7</v>
       </c>
-      <c r="G81" s="189"/>
+      <c r="G81" s="229"/>
       <c r="H81" s="99">
         <v>190</v>
       </c>
@@ -10665,14 +10895,14 @@
       <c r="A82" s="147" t="s">
         <v>351</v>
       </c>
-      <c r="B82" s="189"/>
-      <c r="C82" s="189"/>
-      <c r="D82" s="189"/>
-      <c r="E82" s="204"/>
+      <c r="B82" s="229"/>
+      <c r="C82" s="229"/>
+      <c r="D82" s="229"/>
+      <c r="E82" s="230"/>
       <c r="F82" s="99">
         <v>8</v>
       </c>
-      <c r="G82" s="189"/>
+      <c r="G82" s="229"/>
       <c r="H82" s="99">
         <v>200</v>
       </c>
@@ -10699,14 +10929,14 @@
       <c r="A83" s="147" t="s">
         <v>352</v>
       </c>
-      <c r="B83" s="189"/>
-      <c r="C83" s="189"/>
-      <c r="D83" s="189"/>
-      <c r="E83" s="204"/>
+      <c r="B83" s="229"/>
+      <c r="C83" s="229"/>
+      <c r="D83" s="229"/>
+      <c r="E83" s="230"/>
       <c r="F83" s="99">
         <v>9</v>
       </c>
-      <c r="G83" s="189"/>
+      <c r="G83" s="229"/>
       <c r="H83" s="99">
         <v>200</v>
       </c>
@@ -10733,14 +10963,14 @@
       <c r="A84" s="147" t="s">
         <v>353</v>
       </c>
-      <c r="B84" s="189"/>
-      <c r="C84" s="189"/>
-      <c r="D84" s="189"/>
-      <c r="E84" s="204"/>
+      <c r="B84" s="229"/>
+      <c r="C84" s="229"/>
+      <c r="D84" s="229"/>
+      <c r="E84" s="230"/>
       <c r="F84" s="99">
         <v>10</v>
       </c>
-      <c r="G84" s="189"/>
+      <c r="G84" s="229"/>
       <c r="H84" s="99">
         <v>200</v>
       </c>
@@ -10767,14 +10997,14 @@
       <c r="A85" s="147" t="s">
         <v>354</v>
       </c>
-      <c r="B85" s="185"/>
-      <c r="C85" s="185"/>
-      <c r="D85" s="185"/>
-      <c r="E85" s="187"/>
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="190"/>
       <c r="F85" s="99">
         <v>11</v>
       </c>
-      <c r="G85" s="185"/>
+      <c r="G85" s="188"/>
       <c r="H85" s="99">
         <v>200</v>
       </c>
@@ -10832,7 +11062,7 @@
       <c r="C87" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="D87" s="212" t="s">
+      <c r="D87" s="209" t="s">
         <v>358</v>
       </c>
       <c r="E87" s="98">
@@ -10841,32 +11071,32 @@
       <c r="F87" s="94">
         <v>1</v>
       </c>
-      <c r="G87" s="197" t="s">
+      <c r="G87" s="206" t="s">
         <v>359</v>
       </c>
-      <c r="H87" s="212">
+      <c r="H87" s="209">
         <v>62</v>
       </c>
-      <c r="I87" s="212">
+      <c r="I87" s="209">
         <v>11.7</v>
       </c>
-      <c r="J87" s="235">
+      <c r="J87" s="231">
         <f>K87*L87*M87/1000000</f>
         <v>4.8543999999999997E-2</v>
       </c>
-      <c r="K87" s="212">
+      <c r="K87" s="209">
         <v>32</v>
       </c>
-      <c r="L87" s="212">
+      <c r="L87" s="209">
         <v>37</v>
       </c>
-      <c r="M87" s="212">
+      <c r="M87" s="209">
         <v>41</v>
       </c>
       <c r="N87" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="O87" s="197" t="s">
+      <c r="O87" s="206" t="s">
         <v>361</v>
       </c>
     </row>
@@ -10874,51 +11104,51 @@
       <c r="A88" s="147" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="212" t="s">
+      <c r="B88" s="209" t="s">
         <v>363</v>
       </c>
-      <c r="C88" s="212" t="s">
+      <c r="C88" s="209" t="s">
         <v>364</v>
       </c>
       <c r="D88" s="213"/>
-      <c r="E88" s="215">
+      <c r="E88" s="211">
         <v>45673</v>
       </c>
       <c r="F88" s="94">
         <v>1</v>
       </c>
-      <c r="G88" s="219"/>
+      <c r="G88" s="207"/>
       <c r="H88" s="213"/>
       <c r="I88" s="213"/>
-      <c r="J88" s="236"/>
+      <c r="J88" s="232"/>
       <c r="K88" s="213"/>
       <c r="L88" s="213"/>
       <c r="M88" s="213"/>
-      <c r="N88" s="197" t="s">
+      <c r="N88" s="206" t="s">
         <v>365</v>
       </c>
-      <c r="O88" s="219"/>
+      <c r="O88" s="207"/>
     </row>
     <row r="89" spans="1:15" s="101" customFormat="1" ht="21">
       <c r="A89" s="147" t="s">
         <v>366</v>
       </c>
-      <c r="B89" s="214"/>
-      <c r="C89" s="214"/>
-      <c r="D89" s="214"/>
-      <c r="E89" s="217"/>
+      <c r="B89" s="210"/>
+      <c r="C89" s="210"/>
+      <c r="D89" s="210"/>
+      <c r="E89" s="212"/>
       <c r="F89" s="94">
         <v>2</v>
       </c>
-      <c r="G89" s="220"/>
-      <c r="H89" s="214"/>
-      <c r="I89" s="214"/>
-      <c r="J89" s="237"/>
-      <c r="K89" s="214"/>
-      <c r="L89" s="214"/>
-      <c r="M89" s="214"/>
-      <c r="N89" s="220"/>
-      <c r="O89" s="220"/>
+      <c r="G89" s="208"/>
+      <c r="H89" s="210"/>
+      <c r="I89" s="210"/>
+      <c r="J89" s="233"/>
+      <c r="K89" s="210"/>
+      <c r="L89" s="210"/>
+      <c r="M89" s="210"/>
+      <c r="N89" s="208"/>
+      <c r="O89" s="208"/>
     </row>
     <row r="90" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A90" s="146"/>
@@ -11624,22 +11854,22 @@
       <c r="A111" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="184" t="s">
+      <c r="B111" s="187" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="184" t="s">
+      <c r="C111" s="187" t="s">
         <v>173</v>
       </c>
-      <c r="D111" s="184" t="s">
+      <c r="D111" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="186">
+      <c r="E111" s="189">
         <v>45680</v>
       </c>
       <c r="F111" s="99">
         <v>1</v>
       </c>
-      <c r="G111" s="188" t="s">
+      <c r="G111" s="191" t="s">
         <v>174</v>
       </c>
       <c r="H111" s="99"/>
@@ -11666,14 +11896,14 @@
       <c r="A112" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="B112" s="189"/>
-      <c r="C112" s="189"/>
-      <c r="D112" s="189"/>
-      <c r="E112" s="204"/>
+      <c r="B112" s="229"/>
+      <c r="C112" s="229"/>
+      <c r="D112" s="229"/>
+      <c r="E112" s="230"/>
       <c r="F112" s="99">
         <v>2</v>
       </c>
-      <c r="G112" s="189"/>
+      <c r="G112" s="229"/>
       <c r="H112" s="99"/>
       <c r="I112" s="99">
         <v>9.1</v>
@@ -11698,14 +11928,14 @@
       <c r="A113" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="189"/>
-      <c r="C113" s="189"/>
-      <c r="D113" s="189"/>
-      <c r="E113" s="204"/>
+      <c r="B113" s="229"/>
+      <c r="C113" s="229"/>
+      <c r="D113" s="229"/>
+      <c r="E113" s="230"/>
       <c r="F113" s="99">
         <v>3</v>
       </c>
-      <c r="G113" s="189"/>
+      <c r="G113" s="229"/>
       <c r="H113" s="99"/>
       <c r="I113" s="99">
         <v>24.1</v>
@@ -11730,14 +11960,14 @@
       <c r="A114" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="B114" s="185"/>
-      <c r="C114" s="185"/>
-      <c r="D114" s="185"/>
-      <c r="E114" s="187"/>
+      <c r="B114" s="188"/>
+      <c r="C114" s="188"/>
+      <c r="D114" s="188"/>
+      <c r="E114" s="190"/>
       <c r="F114" s="99">
         <v>4</v>
       </c>
-      <c r="G114" s="185"/>
+      <c r="G114" s="188"/>
       <c r="H114" s="99"/>
       <c r="I114" s="99">
         <v>6.4</v>
@@ -11859,25 +12089,25 @@
       <c r="A118" s="99" t="s">
         <v>452</v>
       </c>
-      <c r="B118" s="223" t="s">
+      <c r="B118" s="245" t="s">
         <v>453</v>
       </c>
       <c r="C118" s="99" t="s">
         <v>454</v>
       </c>
-      <c r="D118" s="223" t="s">
+      <c r="D118" s="245" t="s">
         <v>449</v>
       </c>
-      <c r="E118" s="224">
+      <c r="E118" s="246">
         <v>45698</v>
       </c>
       <c r="F118" s="99">
         <v>1</v>
       </c>
-      <c r="G118" s="223" t="s">
+      <c r="G118" s="245" t="s">
         <v>450</v>
       </c>
-      <c r="H118" s="223">
+      <c r="H118" s="245">
         <v>2</v>
       </c>
       <c r="I118" s="99">
@@ -11896,7 +12126,7 @@
         <v>10</v>
       </c>
       <c r="N118" s="99"/>
-      <c r="O118" s="223" t="s">
+      <c r="O118" s="245" t="s">
         <v>24</v>
       </c>
     </row>
@@ -11904,17 +12134,17 @@
       <c r="A119" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="B119" s="223"/>
+      <c r="B119" s="245"/>
       <c r="C119" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="D119" s="223"/>
-      <c r="E119" s="224"/>
+      <c r="D119" s="245"/>
+      <c r="E119" s="246"/>
       <c r="F119" s="99">
         <v>2</v>
       </c>
-      <c r="G119" s="223"/>
-      <c r="H119" s="223"/>
+      <c r="G119" s="245"/>
+      <c r="H119" s="245"/>
       <c r="I119" s="99">
         <v>1.4</v>
       </c>
@@ -11931,7 +12161,7 @@
         <v>14</v>
       </c>
       <c r="N119" s="99"/>
-      <c r="O119" s="223"/>
+      <c r="O119" s="245"/>
     </row>
     <row r="120" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A120" s="42"/>
@@ -12308,25 +12538,25 @@
       <c r="A131" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="B131" s="184" t="s">
+      <c r="B131" s="187" t="s">
         <v>496</v>
       </c>
-      <c r="C131" s="184" t="s">
+      <c r="C131" s="187" t="s">
         <v>497</v>
       </c>
-      <c r="D131" s="184" t="s">
+      <c r="D131" s="187" t="s">
         <v>358</v>
       </c>
-      <c r="E131" s="186">
+      <c r="E131" s="189">
         <v>45706</v>
       </c>
       <c r="F131" s="99">
         <v>1</v>
       </c>
-      <c r="G131" s="184" t="s">
+      <c r="G131" s="187" t="s">
         <v>498</v>
       </c>
-      <c r="H131" s="184">
+      <c r="H131" s="187">
         <v>16</v>
       </c>
       <c r="I131" s="99">
@@ -12344,7 +12574,7 @@
       <c r="M131" s="99">
         <v>31</v>
       </c>
-      <c r="N131" s="188" t="s">
+      <c r="N131" s="191" t="s">
         <v>499</v>
       </c>
       <c r="O131" s="99"/>
@@ -12353,15 +12583,15 @@
       <c r="A132" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="B132" s="189"/>
-      <c r="C132" s="189"/>
-      <c r="D132" s="189"/>
-      <c r="E132" s="204"/>
+      <c r="B132" s="229"/>
+      <c r="C132" s="229"/>
+      <c r="D132" s="229"/>
+      <c r="E132" s="230"/>
       <c r="F132" s="99">
         <v>2</v>
       </c>
-      <c r="G132" s="189"/>
-      <c r="H132" s="189"/>
+      <c r="G132" s="229"/>
+      <c r="H132" s="229"/>
       <c r="I132" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12377,22 +12607,22 @@
       <c r="M132" s="99">
         <v>31</v>
       </c>
-      <c r="N132" s="226"/>
+      <c r="N132" s="248"/>
       <c r="O132" s="99"/>
     </row>
     <row r="133" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A133" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="B133" s="189"/>
-      <c r="C133" s="189"/>
-      <c r="D133" s="189"/>
-      <c r="E133" s="204"/>
+      <c r="B133" s="229"/>
+      <c r="C133" s="229"/>
+      <c r="D133" s="229"/>
+      <c r="E133" s="230"/>
       <c r="F133" s="99">
         <v>3</v>
       </c>
-      <c r="G133" s="189"/>
-      <c r="H133" s="189"/>
+      <c r="G133" s="229"/>
+      <c r="H133" s="229"/>
       <c r="I133" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12408,22 +12638,22 @@
       <c r="M133" s="99">
         <v>31</v>
       </c>
-      <c r="N133" s="226"/>
+      <c r="N133" s="248"/>
       <c r="O133" s="99"/>
     </row>
     <row r="134" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A134" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="B134" s="185"/>
-      <c r="C134" s="185"/>
-      <c r="D134" s="185"/>
-      <c r="E134" s="187"/>
+      <c r="B134" s="188"/>
+      <c r="C134" s="188"/>
+      <c r="D134" s="188"/>
+      <c r="E134" s="190"/>
       <c r="F134" s="99">
         <v>4</v>
       </c>
-      <c r="G134" s="185"/>
-      <c r="H134" s="185"/>
+      <c r="G134" s="188"/>
+      <c r="H134" s="188"/>
       <c r="I134" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12439,7 +12669,7 @@
       <c r="M134" s="99">
         <v>31</v>
       </c>
-      <c r="N134" s="227"/>
+      <c r="N134" s="192"/>
       <c r="O134" s="99"/>
     </row>
     <row r="135" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
@@ -12469,25 +12699,25 @@
       <c r="A136" s="94" t="s">
         <v>502</v>
       </c>
-      <c r="B136" s="212" t="s">
+      <c r="B136" s="209" t="s">
         <v>503</v>
       </c>
-      <c r="C136" s="212" t="s">
+      <c r="C136" s="209" t="s">
         <v>504</v>
       </c>
-      <c r="D136" s="212" t="s">
+      <c r="D136" s="209" t="s">
         <v>505</v>
       </c>
-      <c r="E136" s="215">
+      <c r="E136" s="211">
         <v>45706</v>
       </c>
       <c r="F136" s="94">
         <v>1</v>
       </c>
-      <c r="G136" s="197" t="s">
+      <c r="G136" s="206" t="s">
         <v>506</v>
       </c>
-      <c r="H136" s="212">
+      <c r="H136" s="209">
         <v>553</v>
       </c>
       <c r="I136" s="94">
@@ -12506,7 +12736,7 @@
         <v>49</v>
       </c>
       <c r="N136" s="94"/>
-      <c r="O136" s="212" t="s">
+      <c r="O136" s="209" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12517,11 +12747,11 @@
       <c r="B137" s="213"/>
       <c r="C137" s="213"/>
       <c r="D137" s="213"/>
-      <c r="E137" s="216"/>
+      <c r="E137" s="214"/>
       <c r="F137" s="94">
         <v>2</v>
       </c>
-      <c r="G137" s="219"/>
+      <c r="G137" s="207"/>
       <c r="H137" s="213"/>
       <c r="I137" s="94">
         <v>11.9</v>
@@ -12548,11 +12778,11 @@
       <c r="B138" s="213"/>
       <c r="C138" s="213"/>
       <c r="D138" s="213"/>
-      <c r="E138" s="216"/>
+      <c r="E138" s="214"/>
       <c r="F138" s="94">
         <v>3</v>
       </c>
-      <c r="G138" s="219"/>
+      <c r="G138" s="207"/>
       <c r="H138" s="213"/>
       <c r="I138" s="94">
         <v>13.8</v>
@@ -12579,11 +12809,11 @@
       <c r="B139" s="213"/>
       <c r="C139" s="213"/>
       <c r="D139" s="213"/>
-      <c r="E139" s="216"/>
+      <c r="E139" s="214"/>
       <c r="F139" s="94">
         <v>4</v>
       </c>
-      <c r="G139" s="219"/>
+      <c r="G139" s="207"/>
       <c r="H139" s="213"/>
       <c r="I139" s="94">
         <v>17.600000000000001</v>
@@ -12610,11 +12840,11 @@
       <c r="B140" s="213"/>
       <c r="C140" s="213"/>
       <c r="D140" s="213"/>
-      <c r="E140" s="216"/>
+      <c r="E140" s="214"/>
       <c r="F140" s="94">
         <v>5</v>
       </c>
-      <c r="G140" s="219"/>
+      <c r="G140" s="207"/>
       <c r="H140" s="213"/>
       <c r="I140" s="94">
         <v>7.8</v>
@@ -12641,11 +12871,11 @@
       <c r="B141" s="213"/>
       <c r="C141" s="213"/>
       <c r="D141" s="213"/>
-      <c r="E141" s="216"/>
+      <c r="E141" s="214"/>
       <c r="F141" s="94">
         <v>6</v>
       </c>
-      <c r="G141" s="219"/>
+      <c r="G141" s="207"/>
       <c r="H141" s="213"/>
       <c r="I141" s="94">
         <v>15.5</v>
@@ -12669,15 +12899,15 @@
       <c r="A142" s="94" t="s">
         <v>512</v>
       </c>
-      <c r="B142" s="214"/>
-      <c r="C142" s="214"/>
-      <c r="D142" s="214"/>
-      <c r="E142" s="217"/>
+      <c r="B142" s="210"/>
+      <c r="C142" s="210"/>
+      <c r="D142" s="210"/>
+      <c r="E142" s="212"/>
       <c r="F142" s="94">
         <v>7</v>
       </c>
-      <c r="G142" s="220"/>
-      <c r="H142" s="214"/>
+      <c r="G142" s="208"/>
+      <c r="H142" s="210"/>
       <c r="I142" s="94">
         <v>14.6</v>
       </c>
@@ -12694,7 +12924,7 @@
         <v>49</v>
       </c>
       <c r="N142" s="94"/>
-      <c r="O142" s="214"/>
+      <c r="O142" s="210"/>
     </row>
     <row r="143" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="42"/>
@@ -13342,22 +13572,22 @@
       <c r="A162" s="113" t="s">
         <v>598</v>
       </c>
-      <c r="B162" s="198" t="s">
+      <c r="B162" s="193" t="s">
         <v>599</v>
       </c>
       <c r="C162" s="113" t="s">
         <v>600</v>
       </c>
-      <c r="D162" s="198" t="s">
+      <c r="D162" s="193" t="s">
         <v>238</v>
       </c>
-      <c r="E162" s="246">
+      <c r="E162" s="195">
         <v>45713</v>
       </c>
       <c r="F162" s="113">
         <v>1</v>
       </c>
-      <c r="G162" s="198" t="s">
+      <c r="G162" s="193" t="s">
         <v>97</v>
       </c>
       <c r="H162" s="113"/>
@@ -13377,7 +13607,7 @@
         <v>37</v>
       </c>
       <c r="N162" s="113"/>
-      <c r="O162" s="198" t="s">
+      <c r="O162" s="193" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13385,16 +13615,16 @@
       <c r="A163" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="B163" s="200"/>
+      <c r="B163" s="194"/>
       <c r="C163" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="D163" s="200"/>
-      <c r="E163" s="247"/>
+      <c r="D163" s="194"/>
+      <c r="E163" s="196"/>
       <c r="F163" s="113">
         <v>2</v>
       </c>
-      <c r="G163" s="200"/>
+      <c r="G163" s="194"/>
       <c r="H163" s="113"/>
       <c r="I163" s="113">
         <v>2</v>
@@ -13412,7 +13642,7 @@
         <v>16</v>
       </c>
       <c r="N163" s="113"/>
-      <c r="O163" s="200"/>
+      <c r="O163" s="194"/>
     </row>
     <row r="164" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A164" s="42"/>
@@ -13443,25 +13673,25 @@
       <c r="A165" s="113" t="s">
         <v>603</v>
       </c>
-      <c r="B165" s="198" t="s">
+      <c r="B165" s="193" t="s">
         <v>604</v>
       </c>
-      <c r="C165" s="198" t="s">
+      <c r="C165" s="193" t="s">
         <v>605</v>
       </c>
-      <c r="D165" s="198" t="s">
+      <c r="D165" s="193" t="s">
         <v>606</v>
       </c>
-      <c r="E165" s="246">
+      <c r="E165" s="195">
         <v>45713</v>
       </c>
       <c r="F165" s="113">
         <v>1</v>
       </c>
-      <c r="G165" s="198" t="s">
+      <c r="G165" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="H165" s="198">
+      <c r="H165" s="193">
         <v>120</v>
       </c>
       <c r="I165" s="113">
@@ -13480,7 +13710,7 @@
         <v>50</v>
       </c>
       <c r="N165" s="113"/>
-      <c r="O165" s="198" t="s">
+      <c r="O165" s="193" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13488,15 +13718,15 @@
       <c r="A166" s="113" t="s">
         <v>607</v>
       </c>
-      <c r="B166" s="199"/>
-      <c r="C166" s="199"/>
-      <c r="D166" s="199"/>
-      <c r="E166" s="211"/>
+      <c r="B166" s="197"/>
+      <c r="C166" s="197"/>
+      <c r="D166" s="197"/>
+      <c r="E166" s="198"/>
       <c r="F166" s="113">
         <v>2</v>
       </c>
-      <c r="G166" s="199"/>
-      <c r="H166" s="199"/>
+      <c r="G166" s="197"/>
+      <c r="H166" s="197"/>
       <c r="I166" s="113">
         <v>19.5</v>
       </c>
@@ -13513,21 +13743,21 @@
         <v>50</v>
       </c>
       <c r="N166" s="113"/>
-      <c r="O166" s="199"/>
+      <c r="O166" s="197"/>
     </row>
     <row r="167" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A167" s="113" t="s">
         <v>608</v>
       </c>
-      <c r="B167" s="199"/>
-      <c r="C167" s="199"/>
-      <c r="D167" s="199"/>
-      <c r="E167" s="211"/>
+      <c r="B167" s="197"/>
+      <c r="C167" s="197"/>
+      <c r="D167" s="197"/>
+      <c r="E167" s="198"/>
       <c r="F167" s="113">
         <v>3</v>
       </c>
-      <c r="G167" s="199"/>
-      <c r="H167" s="199"/>
+      <c r="G167" s="197"/>
+      <c r="H167" s="197"/>
       <c r="I167" s="113">
         <v>22</v>
       </c>
@@ -13544,21 +13774,21 @@
         <v>50</v>
       </c>
       <c r="N167" s="113"/>
-      <c r="O167" s="199"/>
+      <c r="O167" s="197"/>
     </row>
     <row r="168" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A168" s="113" t="s">
         <v>609</v>
       </c>
-      <c r="B168" s="199"/>
-      <c r="C168" s="199"/>
-      <c r="D168" s="199"/>
-      <c r="E168" s="211"/>
+      <c r="B168" s="197"/>
+      <c r="C168" s="197"/>
+      <c r="D168" s="197"/>
+      <c r="E168" s="198"/>
       <c r="F168" s="113">
         <v>4</v>
       </c>
-      <c r="G168" s="199"/>
-      <c r="H168" s="199"/>
+      <c r="G168" s="197"/>
+      <c r="H168" s="197"/>
       <c r="I168" s="113">
         <v>21.2</v>
       </c>
@@ -13575,21 +13805,21 @@
         <v>50</v>
       </c>
       <c r="N168" s="113"/>
-      <c r="O168" s="199"/>
+      <c r="O168" s="197"/>
     </row>
     <row r="169" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A169" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="B169" s="199"/>
-      <c r="C169" s="199"/>
-      <c r="D169" s="199"/>
-      <c r="E169" s="211"/>
+      <c r="B169" s="197"/>
+      <c r="C169" s="197"/>
+      <c r="D169" s="197"/>
+      <c r="E169" s="198"/>
       <c r="F169" s="113">
         <v>5</v>
       </c>
-      <c r="G169" s="199"/>
-      <c r="H169" s="199"/>
+      <c r="G169" s="197"/>
+      <c r="H169" s="197"/>
       <c r="I169" s="113">
         <v>19.600000000000001</v>
       </c>
@@ -13606,21 +13836,21 @@
         <v>50</v>
       </c>
       <c r="N169" s="113"/>
-      <c r="O169" s="199"/>
+      <c r="O169" s="197"/>
     </row>
     <row r="170" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A170" s="113" t="s">
         <v>611</v>
       </c>
-      <c r="B170" s="200"/>
-      <c r="C170" s="200"/>
-      <c r="D170" s="200"/>
-      <c r="E170" s="209"/>
+      <c r="B170" s="194"/>
+      <c r="C170" s="194"/>
+      <c r="D170" s="194"/>
+      <c r="E170" s="199"/>
       <c r="F170" s="113">
         <v>6</v>
       </c>
-      <c r="G170" s="200"/>
-      <c r="H170" s="200"/>
+      <c r="G170" s="194"/>
+      <c r="H170" s="194"/>
       <c r="I170" s="113">
         <v>20.2</v>
       </c>
@@ -13637,7 +13867,7 @@
         <v>50</v>
       </c>
       <c r="N170" s="113"/>
-      <c r="O170" s="200"/>
+      <c r="O170" s="194"/>
     </row>
     <row r="171" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A171" s="42"/>
@@ -13666,25 +13896,25 @@
       <c r="A172" s="99" t="s">
         <v>619</v>
       </c>
-      <c r="B172" s="184" t="s">
+      <c r="B172" s="187" t="s">
         <v>620</v>
       </c>
-      <c r="C172" s="184" t="s">
+      <c r="C172" s="187" t="s">
         <v>621</v>
       </c>
-      <c r="D172" s="184" t="s">
+      <c r="D172" s="187" t="s">
         <v>155</v>
       </c>
-      <c r="E172" s="186">
+      <c r="E172" s="189">
         <v>45714</v>
       </c>
       <c r="F172" s="99">
         <v>1</v>
       </c>
-      <c r="G172" s="184" t="s">
+      <c r="G172" s="187" t="s">
         <v>622</v>
       </c>
-      <c r="H172" s="184"/>
+      <c r="H172" s="187"/>
       <c r="I172" s="99">
         <v>7.1</v>
       </c>
@@ -13702,7 +13932,7 @@
         <v>40</v>
       </c>
       <c r="N172" s="99"/>
-      <c r="O172" s="184" t="s">
+      <c r="O172" s="187" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13710,15 +13940,15 @@
       <c r="A173" s="99" t="s">
         <v>623</v>
       </c>
-      <c r="B173" s="189"/>
-      <c r="C173" s="189"/>
-      <c r="D173" s="189"/>
-      <c r="E173" s="204"/>
+      <c r="B173" s="229"/>
+      <c r="C173" s="229"/>
+      <c r="D173" s="229"/>
+      <c r="E173" s="230"/>
       <c r="F173" s="99">
         <v>2</v>
       </c>
-      <c r="G173" s="189"/>
-      <c r="H173" s="189"/>
+      <c r="G173" s="229"/>
+      <c r="H173" s="229"/>
       <c r="I173" s="99">
         <v>7.3</v>
       </c>
@@ -13736,21 +13966,21 @@
         <v>40</v>
       </c>
       <c r="N173" s="99"/>
-      <c r="O173" s="189"/>
+      <c r="O173" s="229"/>
     </row>
     <row r="174" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A174" s="99" t="s">
         <v>624</v>
       </c>
-      <c r="B174" s="189"/>
-      <c r="C174" s="189"/>
-      <c r="D174" s="189"/>
-      <c r="E174" s="204"/>
+      <c r="B174" s="229"/>
+      <c r="C174" s="229"/>
+      <c r="D174" s="229"/>
+      <c r="E174" s="230"/>
       <c r="F174" s="99">
         <v>3</v>
       </c>
-      <c r="G174" s="189"/>
-      <c r="H174" s="189"/>
+      <c r="G174" s="229"/>
+      <c r="H174" s="229"/>
       <c r="I174" s="99">
         <v>7</v>
       </c>
@@ -13768,21 +13998,21 @@
         <v>40</v>
       </c>
       <c r="N174" s="99"/>
-      <c r="O174" s="189"/>
+      <c r="O174" s="229"/>
     </row>
     <row r="175" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A175" s="99" t="s">
         <v>625</v>
       </c>
-      <c r="B175" s="189"/>
-      <c r="C175" s="189"/>
-      <c r="D175" s="189"/>
-      <c r="E175" s="204"/>
+      <c r="B175" s="229"/>
+      <c r="C175" s="229"/>
+      <c r="D175" s="229"/>
+      <c r="E175" s="230"/>
       <c r="F175" s="99">
         <v>4</v>
       </c>
-      <c r="G175" s="189"/>
-      <c r="H175" s="189"/>
+      <c r="G175" s="229"/>
+      <c r="H175" s="229"/>
       <c r="I175" s="99">
         <v>8.4</v>
       </c>
@@ -13800,21 +14030,21 @@
         <v>40</v>
       </c>
       <c r="N175" s="99"/>
-      <c r="O175" s="189"/>
+      <c r="O175" s="229"/>
     </row>
     <row r="176" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A176" s="99" t="s">
         <v>626</v>
       </c>
-      <c r="B176" s="189"/>
-      <c r="C176" s="189"/>
-      <c r="D176" s="189"/>
-      <c r="E176" s="204"/>
+      <c r="B176" s="229"/>
+      <c r="C176" s="229"/>
+      <c r="D176" s="229"/>
+      <c r="E176" s="230"/>
       <c r="F176" s="99">
         <v>5</v>
       </c>
-      <c r="G176" s="189"/>
-      <c r="H176" s="189"/>
+      <c r="G176" s="229"/>
+      <c r="H176" s="229"/>
       <c r="I176" s="99">
         <v>6.7</v>
       </c>
@@ -13832,21 +14062,21 @@
         <v>40</v>
       </c>
       <c r="N176" s="99"/>
-      <c r="O176" s="189"/>
+      <c r="O176" s="229"/>
     </row>
     <row r="177" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A177" s="99" t="s">
         <v>627</v>
       </c>
-      <c r="B177" s="189"/>
-      <c r="C177" s="189"/>
-      <c r="D177" s="189"/>
-      <c r="E177" s="204"/>
+      <c r="B177" s="229"/>
+      <c r="C177" s="229"/>
+      <c r="D177" s="229"/>
+      <c r="E177" s="230"/>
       <c r="F177" s="99">
         <v>6</v>
       </c>
-      <c r="G177" s="189"/>
-      <c r="H177" s="189"/>
+      <c r="G177" s="229"/>
+      <c r="H177" s="229"/>
       <c r="I177" s="99">
         <v>6.9</v>
       </c>
@@ -13864,21 +14094,21 @@
         <v>40</v>
       </c>
       <c r="N177" s="99"/>
-      <c r="O177" s="189"/>
+      <c r="O177" s="229"/>
     </row>
     <row r="178" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A178" s="99" t="s">
         <v>628</v>
       </c>
-      <c r="B178" s="189"/>
-      <c r="C178" s="189"/>
-      <c r="D178" s="189"/>
-      <c r="E178" s="204"/>
+      <c r="B178" s="229"/>
+      <c r="C178" s="229"/>
+      <c r="D178" s="229"/>
+      <c r="E178" s="230"/>
       <c r="F178" s="99">
         <v>7</v>
       </c>
-      <c r="G178" s="189"/>
-      <c r="H178" s="189"/>
+      <c r="G178" s="229"/>
+      <c r="H178" s="229"/>
       <c r="I178" s="99">
         <v>5.8</v>
       </c>
@@ -13896,21 +14126,21 @@
         <v>40</v>
       </c>
       <c r="N178" s="99"/>
-      <c r="O178" s="189"/>
+      <c r="O178" s="229"/>
     </row>
     <row r="179" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A179" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="B179" s="185"/>
-      <c r="C179" s="185"/>
-      <c r="D179" s="185"/>
-      <c r="E179" s="187"/>
+      <c r="B179" s="188"/>
+      <c r="C179" s="188"/>
+      <c r="D179" s="188"/>
+      <c r="E179" s="190"/>
       <c r="F179" s="99">
         <v>8</v>
       </c>
-      <c r="G179" s="185"/>
-      <c r="H179" s="185"/>
+      <c r="G179" s="188"/>
+      <c r="H179" s="188"/>
       <c r="I179" s="99">
         <v>7.1</v>
       </c>
@@ -13928,7 +14158,7 @@
         <v>40</v>
       </c>
       <c r="N179" s="99"/>
-      <c r="O179" s="185"/>
+      <c r="O179" s="188"/>
     </row>
     <row r="180" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A180" s="178"/>
@@ -14097,25 +14327,25 @@
       <c r="A185" s="60" t="s">
         <v>644</v>
       </c>
-      <c r="B185" s="191" t="s">
+      <c r="B185" s="234" t="s">
         <v>645</v>
       </c>
-      <c r="C185" s="191" t="s">
+      <c r="C185" s="234" t="s">
         <v>646</v>
       </c>
-      <c r="D185" s="191" t="s">
+      <c r="D185" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="E185" s="194">
+      <c r="E185" s="235">
         <v>45715</v>
       </c>
       <c r="F185" s="60">
         <v>1</v>
       </c>
-      <c r="G185" s="197" t="s">
+      <c r="G185" s="206" t="s">
         <v>647</v>
       </c>
-      <c r="H185" s="191">
+      <c r="H185" s="234">
         <v>604</v>
       </c>
       <c r="I185" s="60">
@@ -14134,7 +14364,7 @@
         <v>49</v>
       </c>
       <c r="N185" s="60"/>
-      <c r="O185" s="191" t="s">
+      <c r="O185" s="234" t="s">
         <v>648</v>
       </c>
     </row>
@@ -14142,15 +14372,15 @@
       <c r="A186" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="B186" s="192"/>
-      <c r="C186" s="192"/>
-      <c r="D186" s="192"/>
-      <c r="E186" s="195"/>
+      <c r="B186" s="227"/>
+      <c r="C186" s="227"/>
+      <c r="D186" s="227"/>
+      <c r="E186" s="236"/>
       <c r="F186" s="60">
         <v>2</v>
       </c>
-      <c r="G186" s="192"/>
-      <c r="H186" s="192"/>
+      <c r="G186" s="227"/>
+      <c r="H186" s="227"/>
       <c r="I186" s="60">
         <v>14.2</v>
       </c>
@@ -14167,21 +14397,21 @@
         <v>49</v>
       </c>
       <c r="N186" s="60"/>
-      <c r="O186" s="192"/>
+      <c r="O186" s="227"/>
     </row>
     <row r="187" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A187" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="B187" s="192"/>
-      <c r="C187" s="192"/>
-      <c r="D187" s="192"/>
-      <c r="E187" s="195"/>
+      <c r="B187" s="227"/>
+      <c r="C187" s="227"/>
+      <c r="D187" s="227"/>
+      <c r="E187" s="236"/>
       <c r="F187" s="60">
         <v>3</v>
       </c>
-      <c r="G187" s="192"/>
-      <c r="H187" s="192"/>
+      <c r="G187" s="227"/>
+      <c r="H187" s="227"/>
       <c r="I187" s="60">
         <v>14.8</v>
       </c>
@@ -14198,21 +14428,21 @@
         <v>49</v>
       </c>
       <c r="N187" s="60"/>
-      <c r="O187" s="192"/>
+      <c r="O187" s="227"/>
     </row>
     <row r="188" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A188" s="60" t="s">
         <v>651</v>
       </c>
-      <c r="B188" s="192"/>
-      <c r="C188" s="192"/>
-      <c r="D188" s="192"/>
-      <c r="E188" s="195"/>
+      <c r="B188" s="227"/>
+      <c r="C188" s="227"/>
+      <c r="D188" s="227"/>
+      <c r="E188" s="236"/>
       <c r="F188" s="60">
         <v>4</v>
       </c>
-      <c r="G188" s="192"/>
-      <c r="H188" s="192"/>
+      <c r="G188" s="227"/>
+      <c r="H188" s="227"/>
       <c r="I188" s="60">
         <v>16.7</v>
       </c>
@@ -14229,21 +14459,21 @@
         <v>49</v>
       </c>
       <c r="N188" s="60"/>
-      <c r="O188" s="192"/>
+      <c r="O188" s="227"/>
     </row>
     <row r="189" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A189" s="60" t="s">
         <v>652</v>
       </c>
-      <c r="B189" s="192"/>
-      <c r="C189" s="192"/>
-      <c r="D189" s="192"/>
-      <c r="E189" s="195"/>
+      <c r="B189" s="227"/>
+      <c r="C189" s="227"/>
+      <c r="D189" s="227"/>
+      <c r="E189" s="236"/>
       <c r="F189" s="60">
         <v>5</v>
       </c>
-      <c r="G189" s="192"/>
-      <c r="H189" s="192"/>
+      <c r="G189" s="227"/>
+      <c r="H189" s="227"/>
       <c r="I189" s="60">
         <v>7.4</v>
       </c>
@@ -14260,21 +14490,21 @@
         <v>49</v>
       </c>
       <c r="N189" s="60"/>
-      <c r="O189" s="192"/>
+      <c r="O189" s="227"/>
     </row>
     <row r="190" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A190" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="B190" s="192"/>
-      <c r="C190" s="192"/>
-      <c r="D190" s="192"/>
-      <c r="E190" s="195"/>
+      <c r="B190" s="227"/>
+      <c r="C190" s="227"/>
+      <c r="D190" s="227"/>
+      <c r="E190" s="236"/>
       <c r="F190" s="60">
         <v>6</v>
       </c>
-      <c r="G190" s="192"/>
-      <c r="H190" s="192"/>
+      <c r="G190" s="227"/>
+      <c r="H190" s="227"/>
       <c r="I190" s="60">
         <v>5.9</v>
       </c>
@@ -14291,21 +14521,21 @@
         <v>49</v>
       </c>
       <c r="N190" s="60"/>
-      <c r="O190" s="192"/>
+      <c r="O190" s="227"/>
     </row>
     <row r="191" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A191" s="60" t="s">
         <v>653</v>
       </c>
-      <c r="B191" s="193"/>
-      <c r="C191" s="193"/>
-      <c r="D191" s="193"/>
-      <c r="E191" s="196"/>
+      <c r="B191" s="228"/>
+      <c r="C191" s="228"/>
+      <c r="D191" s="228"/>
+      <c r="E191" s="237"/>
       <c r="F191" s="60">
         <v>7</v>
       </c>
-      <c r="G191" s="193"/>
-      <c r="H191" s="193"/>
+      <c r="G191" s="228"/>
+      <c r="H191" s="228"/>
       <c r="I191" s="60">
         <v>3.6</v>
       </c>
@@ -14322,7 +14552,7 @@
         <v>25</v>
       </c>
       <c r="N191" s="60"/>
-      <c r="O191" s="193"/>
+      <c r="O191" s="228"/>
     </row>
     <row r="192" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A192" s="42"/>
@@ -14351,25 +14581,25 @@
       <c r="A193" s="113" t="s">
         <v>654</v>
       </c>
-      <c r="B193" s="198" t="s">
+      <c r="B193" s="193" t="s">
         <v>655</v>
       </c>
-      <c r="C193" s="198" t="s">
+      <c r="C193" s="193" t="s">
         <v>656</v>
       </c>
-      <c r="D193" s="198" t="s">
+      <c r="D193" s="193" t="s">
         <v>155</v>
       </c>
-      <c r="E193" s="201">
+      <c r="E193" s="204">
         <v>45715</v>
       </c>
       <c r="F193" s="113">
         <v>1</v>
       </c>
-      <c r="G193" s="198" t="s">
+      <c r="G193" s="193" t="s">
         <v>97</v>
       </c>
-      <c r="H193" s="198">
+      <c r="H193" s="193">
         <v>20</v>
       </c>
       <c r="I193" s="113">
@@ -14388,7 +14618,7 @@
         <v>40</v>
       </c>
       <c r="N193" s="113"/>
-      <c r="O193" s="198" t="s">
+      <c r="O193" s="193" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14396,15 +14626,15 @@
       <c r="A194" s="113" t="s">
         <v>657</v>
       </c>
-      <c r="B194" s="199"/>
-      <c r="C194" s="199"/>
-      <c r="D194" s="199"/>
-      <c r="E194" s="202"/>
+      <c r="B194" s="197"/>
+      <c r="C194" s="197"/>
+      <c r="D194" s="197"/>
+      <c r="E194" s="215"/>
       <c r="F194" s="113">
         <v>2</v>
       </c>
-      <c r="G194" s="199"/>
-      <c r="H194" s="199"/>
+      <c r="G194" s="197"/>
+      <c r="H194" s="197"/>
       <c r="I194" s="113">
         <v>6.9</v>
       </c>
@@ -14421,21 +14651,21 @@
         <v>40</v>
       </c>
       <c r="N194" s="113"/>
-      <c r="O194" s="199"/>
+      <c r="O194" s="197"/>
     </row>
     <row r="195" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A195" s="113" t="s">
         <v>658</v>
       </c>
-      <c r="B195" s="200"/>
-      <c r="C195" s="200"/>
-      <c r="D195" s="200"/>
-      <c r="E195" s="203"/>
+      <c r="B195" s="194"/>
+      <c r="C195" s="194"/>
+      <c r="D195" s="194"/>
+      <c r="E195" s="205"/>
       <c r="F195" s="113">
         <v>3</v>
       </c>
-      <c r="G195" s="200"/>
-      <c r="H195" s="200"/>
+      <c r="G195" s="194"/>
+      <c r="H195" s="194"/>
       <c r="I195" s="113">
         <v>6.9</v>
       </c>
@@ -14452,7 +14682,7 @@
         <v>40</v>
       </c>
       <c r="N195" s="113"/>
-      <c r="O195" s="200"/>
+      <c r="O195" s="194"/>
     </row>
     <row r="196" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A196" s="42"/>
@@ -14481,22 +14711,22 @@
       <c r="A197" s="99" t="s">
         <v>659</v>
       </c>
-      <c r="B197" s="184" t="s">
+      <c r="B197" s="187" t="s">
         <v>660</v>
       </c>
       <c r="C197" s="99" t="s">
         <v>661</v>
       </c>
-      <c r="D197" s="184" t="s">
+      <c r="D197" s="187" t="s">
         <v>643</v>
       </c>
-      <c r="E197" s="186">
+      <c r="E197" s="189">
         <v>45716</v>
       </c>
       <c r="F197" s="99">
         <v>1</v>
       </c>
-      <c r="G197" s="184" t="s">
+      <c r="G197" s="187" t="s">
         <v>97</v>
       </c>
       <c r="H197" s="99">
@@ -14519,7 +14749,7 @@
         <v>60</v>
       </c>
       <c r="N197" s="99"/>
-      <c r="O197" s="184" t="s">
+      <c r="O197" s="187" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14527,16 +14757,16 @@
       <c r="A198" s="99" t="s">
         <v>662</v>
       </c>
-      <c r="B198" s="189"/>
+      <c r="B198" s="229"/>
       <c r="C198" s="99" t="s">
         <v>663</v>
       </c>
-      <c r="D198" s="189"/>
-      <c r="E198" s="204"/>
+      <c r="D198" s="229"/>
+      <c r="E198" s="230"/>
       <c r="F198" s="99">
         <v>2</v>
       </c>
-      <c r="G198" s="189"/>
+      <c r="G198" s="229"/>
       <c r="H198" s="99">
         <v>11</v>
       </c>
@@ -14557,22 +14787,22 @@
         <v>60</v>
       </c>
       <c r="N198" s="99"/>
-      <c r="O198" s="189"/>
+      <c r="O198" s="229"/>
     </row>
     <row r="199" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A199" s="99" t="s">
         <v>664</v>
       </c>
-      <c r="B199" s="185"/>
+      <c r="B199" s="188"/>
       <c r="C199" s="99" t="s">
         <v>665</v>
       </c>
-      <c r="D199" s="185"/>
-      <c r="E199" s="187"/>
+      <c r="D199" s="188"/>
+      <c r="E199" s="190"/>
       <c r="F199" s="99">
         <v>3</v>
       </c>
-      <c r="G199" s="185"/>
+      <c r="G199" s="188"/>
       <c r="H199" s="99">
         <v>10</v>
       </c>
@@ -14593,7 +14823,7 @@
         <v>60</v>
       </c>
       <c r="N199" s="99"/>
-      <c r="O199" s="185"/>
+      <c r="O199" s="188"/>
     </row>
     <row r="200" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A200" s="42"/>
@@ -14694,22 +14924,22 @@
       <c r="A203" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="B203" s="184" t="s">
+      <c r="B203" s="187" t="s">
         <v>670</v>
       </c>
       <c r="C203" s="99" t="s">
         <v>671</v>
       </c>
-      <c r="D203" s="184" t="s">
+      <c r="D203" s="187" t="s">
         <v>643</v>
       </c>
-      <c r="E203" s="186">
+      <c r="E203" s="189">
         <v>45717</v>
       </c>
       <c r="F203" s="99">
         <v>1</v>
       </c>
-      <c r="G203" s="184" t="s">
+      <c r="G203" s="187" t="s">
         <v>97</v>
       </c>
       <c r="H203" s="99">
@@ -14731,7 +14961,7 @@
         <v>60</v>
       </c>
       <c r="N203" s="99"/>
-      <c r="O203" s="184" t="s">
+      <c r="O203" s="187" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14739,16 +14969,16 @@
       <c r="A204" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="B204" s="185"/>
+      <c r="B204" s="188"/>
       <c r="C204" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="D204" s="185"/>
-      <c r="E204" s="187"/>
+      <c r="D204" s="188"/>
+      <c r="E204" s="190"/>
       <c r="F204" s="99">
         <v>2</v>
       </c>
-      <c r="G204" s="185"/>
+      <c r="G204" s="188"/>
       <c r="H204" s="99">
         <v>10</v>
       </c>
@@ -14768,7 +14998,7 @@
         <v>60</v>
       </c>
       <c r="N204" s="99"/>
-      <c r="O204" s="185"/>
+      <c r="O204" s="188"/>
     </row>
     <row r="205" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A205" s="178"/>
@@ -14937,20 +15167,20 @@
       <c r="A210" s="99" t="s">
         <v>682</v>
       </c>
-      <c r="B210" s="184" t="s">
+      <c r="B210" s="187" t="s">
         <v>683</v>
       </c>
       <c r="C210" s="99"/>
-      <c r="D210" s="184" t="s">
+      <c r="D210" s="187" t="s">
         <v>343</v>
       </c>
-      <c r="E210" s="186">
+      <c r="E210" s="189">
         <v>45719</v>
       </c>
       <c r="F210" s="99">
         <v>1</v>
       </c>
-      <c r="G210" s="188" t="s">
+      <c r="G210" s="191" t="s">
         <v>684</v>
       </c>
       <c r="H210" s="99">
@@ -14978,14 +15208,14 @@
       <c r="A211" s="99" t="s">
         <v>685</v>
       </c>
-      <c r="B211" s="185"/>
+      <c r="B211" s="188"/>
       <c r="C211" s="99"/>
-      <c r="D211" s="185"/>
-      <c r="E211" s="187"/>
+      <c r="D211" s="188"/>
+      <c r="E211" s="190"/>
       <c r="F211" s="99">
         <v>2</v>
       </c>
-      <c r="G211" s="185"/>
+      <c r="G211" s="188"/>
       <c r="H211" s="99">
         <v>100</v>
       </c>
@@ -15034,22 +15264,22 @@
       <c r="A213" s="99" t="s">
         <v>690</v>
       </c>
-      <c r="B213" s="184" t="s">
+      <c r="B213" s="187" t="s">
         <v>691</v>
       </c>
       <c r="C213" s="99" t="s">
         <v>692</v>
       </c>
-      <c r="D213" s="184" t="s">
+      <c r="D213" s="187" t="s">
         <v>643</v>
       </c>
-      <c r="E213" s="186">
+      <c r="E213" s="189">
         <v>45720</v>
       </c>
       <c r="F213" s="99">
         <v>1</v>
       </c>
-      <c r="G213" s="188" t="s">
+      <c r="G213" s="191" t="s">
         <v>693</v>
       </c>
       <c r="H213" s="99">
@@ -15071,7 +15301,7 @@
         <v>59</v>
       </c>
       <c r="N213" s="99"/>
-      <c r="O213" s="184" t="s">
+      <c r="O213" s="187" t="s">
         <v>24</v>
       </c>
     </row>
@@ -15079,16 +15309,16 @@
       <c r="A214" s="99" t="s">
         <v>694</v>
       </c>
-      <c r="B214" s="185"/>
+      <c r="B214" s="188"/>
       <c r="C214" s="99" t="s">
         <v>695</v>
       </c>
-      <c r="D214" s="185"/>
-      <c r="E214" s="187"/>
+      <c r="D214" s="188"/>
+      <c r="E214" s="190"/>
       <c r="F214" s="99">
         <v>2</v>
       </c>
-      <c r="G214" s="227"/>
+      <c r="G214" s="192"/>
       <c r="H214" s="99">
         <v>12</v>
       </c>
@@ -15108,7 +15338,7 @@
         <v>59</v>
       </c>
       <c r="N214" s="99"/>
-      <c r="O214" s="185"/>
+      <c r="O214" s="188"/>
     </row>
     <row r="215" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A215" s="42"/>
@@ -15202,52 +15432,297 @@
       <c r="O217" s="104"/>
     </row>
     <row r="218" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E218" s="143"/>
+      <c r="A218" s="99" t="s">
+        <v>740</v>
+      </c>
+      <c r="B218" s="99" t="s">
+        <v>741</v>
+      </c>
+      <c r="C218" s="99" t="s">
+        <v>742</v>
+      </c>
+      <c r="D218" s="99" t="s">
+        <v>643</v>
+      </c>
+      <c r="E218" s="91">
+        <v>45722</v>
+      </c>
+      <c r="F218" s="99">
+        <v>1</v>
+      </c>
+      <c r="G218" s="99" t="s">
+        <v>97</v>
+      </c>
+      <c r="H218" s="99">
+        <v>10</v>
+      </c>
+      <c r="I218" s="99">
+        <v>12.8</v>
+      </c>
+      <c r="J218" s="100">
+        <f>K218*L218*M218/1000000</f>
+        <v>0.108324</v>
+      </c>
+      <c r="K218" s="99">
+        <v>51</v>
+      </c>
+      <c r="L218" s="99">
+        <v>36</v>
+      </c>
+      <c r="M218" s="99">
+        <v>59</v>
+      </c>
+      <c r="N218" s="99"/>
+      <c r="O218" s="99" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="219" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E219" s="143"/>
+      <c r="A219" s="42"/>
+      <c r="B219" s="42"/>
+      <c r="C219" s="42"/>
+      <c r="D219" s="42"/>
+      <c r="E219" s="42"/>
+      <c r="F219" s="102">
+        <v>1</v>
+      </c>
+      <c r="G219" s="102"/>
+      <c r="H219" s="102"/>
+      <c r="I219" s="102">
+        <f>SUM(I218:I218)</f>
+        <v>12.8</v>
+      </c>
+      <c r="J219" s="103">
+        <f>SUM(J218:J218)</f>
+        <v>0.108324</v>
+      </c>
+      <c r="K219" s="102"/>
+      <c r="L219" s="102"/>
+      <c r="M219" s="102"/>
+      <c r="N219" s="104"/>
+      <c r="O219" s="104"/>
     </row>
     <row r="220" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E220" s="143"/>
+      <c r="A220" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="B220" s="187" t="s">
+        <v>743</v>
+      </c>
+      <c r="C220" s="187" t="s">
+        <v>744</v>
+      </c>
+      <c r="D220" s="187" t="s">
+        <v>44</v>
+      </c>
+      <c r="E220" s="189">
+        <v>45723</v>
+      </c>
+      <c r="F220" s="99">
+        <v>1</v>
+      </c>
+      <c r="G220" s="187" t="s">
+        <v>745</v>
+      </c>
+      <c r="H220" s="187"/>
+      <c r="I220" s="99">
+        <v>27.4</v>
+      </c>
+      <c r="J220" s="100">
+        <f>K220*L220*M220/1000000</f>
+        <v>3.7949999999999998E-2</v>
+      </c>
+      <c r="K220" s="99">
+        <v>50</v>
+      </c>
+      <c r="L220" s="99">
+        <v>33</v>
+      </c>
+      <c r="M220" s="99">
+        <v>23</v>
+      </c>
+      <c r="N220" s="99"/>
+      <c r="O220" s="99"/>
     </row>
     <row r="221" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E221" s="143"/>
+      <c r="A221" s="99" t="s">
+        <v>746</v>
+      </c>
+      <c r="B221" s="229"/>
+      <c r="C221" s="229"/>
+      <c r="D221" s="229"/>
+      <c r="E221" s="230"/>
+      <c r="F221" s="99">
+        <v>2</v>
+      </c>
+      <c r="G221" s="229"/>
+      <c r="H221" s="229"/>
+      <c r="I221" s="99">
+        <v>16.5</v>
+      </c>
+      <c r="J221" s="100">
+        <f>K221*L221*M221/1000000</f>
+        <v>3.7949999999999998E-2</v>
+      </c>
+      <c r="K221" s="99">
+        <v>50</v>
+      </c>
+      <c r="L221" s="99">
+        <v>33</v>
+      </c>
+      <c r="M221" s="99">
+        <v>23</v>
+      </c>
+      <c r="N221" s="99"/>
+      <c r="O221" s="99"/>
     </row>
     <row r="222" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E222" s="143"/>
+      <c r="A222" s="99" t="s">
+        <v>521</v>
+      </c>
+      <c r="B222" s="188"/>
+      <c r="C222" s="188"/>
+      <c r="D222" s="188"/>
+      <c r="E222" s="190"/>
+      <c r="F222" s="99">
+        <v>3</v>
+      </c>
+      <c r="G222" s="188"/>
+      <c r="H222" s="188"/>
+      <c r="I222" s="99">
+        <v>24.2</v>
+      </c>
+      <c r="J222" s="100">
+        <f>K222*L222*M222/1000000</f>
+        <v>3.7949999999999998E-2</v>
+      </c>
+      <c r="K222" s="99">
+        <v>50</v>
+      </c>
+      <c r="L222" s="99">
+        <v>33</v>
+      </c>
+      <c r="M222" s="99">
+        <v>23</v>
+      </c>
+      <c r="N222" s="99"/>
+      <c r="O222" s="99"/>
     </row>
     <row r="223" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E223" s="143"/>
+      <c r="A223" s="42"/>
+      <c r="B223" s="42"/>
+      <c r="C223" s="42"/>
+      <c r="D223" s="42"/>
+      <c r="E223" s="42"/>
+      <c r="F223" s="102">
+        <v>3</v>
+      </c>
+      <c r="G223" s="102"/>
+      <c r="H223" s="102"/>
+      <c r="I223" s="102">
+        <f>SUM(I220:I222)</f>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="J223" s="103">
+        <f>SUM(J220:J222)</f>
+        <v>0.11384999999999999</v>
+      </c>
+      <c r="K223" s="102"/>
+      <c r="L223" s="102"/>
+      <c r="M223" s="102"/>
+      <c r="N223" s="104"/>
+      <c r="O223" s="104"/>
     </row>
     <row r="224" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E224" s="143"/>
-    </row>
-    <row r="225" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
-      <c r="E225" s="143"/>
-    </row>
-    <row r="226" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A224" s="99" t="s">
+        <v>747</v>
+      </c>
+      <c r="B224" s="99" t="s">
+        <v>748</v>
+      </c>
+      <c r="C224" s="99">
+        <v>17347080229</v>
+      </c>
+      <c r="D224" s="99" t="s">
+        <v>343</v>
+      </c>
+      <c r="E224" s="91">
+        <v>45726</v>
+      </c>
+      <c r="F224" s="99">
+        <v>1</v>
+      </c>
+      <c r="G224" s="106" t="s">
+        <v>749</v>
+      </c>
+      <c r="H224" s="99"/>
+      <c r="I224" s="99">
+        <v>4.3</v>
+      </c>
+      <c r="J224" s="100">
+        <f>K224*L224*M224/1000000</f>
+        <v>3.8808000000000002E-2</v>
+      </c>
+      <c r="K224" s="99">
+        <v>42</v>
+      </c>
+      <c r="L224" s="99">
+        <v>33</v>
+      </c>
+      <c r="M224" s="99">
+        <v>28</v>
+      </c>
+      <c r="N224" s="99"/>
+      <c r="O224" s="99"/>
+    </row>
+    <row r="225" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
+      <c r="A225" s="42"/>
+      <c r="B225" s="42"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
+      <c r="E225" s="42"/>
+      <c r="F225" s="102">
+        <v>1</v>
+      </c>
+      <c r="G225" s="102"/>
+      <c r="H225" s="102"/>
+      <c r="I225" s="102">
+        <f>SUM(I224:I224)</f>
+        <v>4.3</v>
+      </c>
+      <c r="J225" s="103">
+        <f>SUM(J224:J224)</f>
+        <v>3.8808000000000002E-2</v>
+      </c>
+      <c r="K225" s="102"/>
+      <c r="L225" s="102"/>
+      <c r="M225" s="102"/>
+      <c r="N225" s="104"/>
+      <c r="O225" s="104"/>
+    </row>
+    <row r="226" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E226" s="143"/>
     </row>
-    <row r="227" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="227" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E227" s="143"/>
     </row>
-    <row r="228" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="228" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E228" s="143"/>
     </row>
-    <row r="229" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="229" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E229" s="143"/>
     </row>
-    <row r="230" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="230" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E230" s="143"/>
     </row>
-    <row r="231" spans="5:5" s="56" customFormat="1" ht="21" customHeight="1">
+    <row r="231" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="E231" s="143"/>
     </row>
     <row r="248" spans="1:16" ht="40.5">
-      <c r="A248" s="225" t="s">
+      <c r="A248" s="247" t="s">
         <v>444</v>
       </c>
-      <c r="B248" s="225"/>
+      <c r="B248" s="247"/>
     </row>
     <row r="250" spans="1:16" ht="84">
       <c r="A250" s="150"/>
@@ -15297,12 +15772,12 @@
     </row>
     <row r="251" spans="1:16" ht="22.5">
       <c r="A251" s="150"/>
-      <c r="B251" s="190" t="s">
+      <c r="B251" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C251" s="190"/>
-      <c r="D251" s="190"/>
-      <c r="E251" s="190"/>
+      <c r="C251" s="186"/>
+      <c r="D251" s="186"/>
+      <c r="E251" s="186"/>
       <c r="F251" s="64" t="s">
         <v>375</v>
       </c>
@@ -15323,16 +15798,16 @@
     </row>
     <row r="252" spans="1:16" ht="37.5">
       <c r="A252" s="150"/>
-      <c r="B252" s="191" t="s">
+      <c r="B252" s="234" t="s">
         <v>376</v>
       </c>
-      <c r="C252" s="197" t="s">
+      <c r="C252" s="206" t="s">
         <v>377</v>
       </c>
-      <c r="D252" s="191" t="s">
+      <c r="D252" s="234" t="s">
         <v>378</v>
       </c>
-      <c r="E252" s="194">
+      <c r="E252" s="235">
         <v>45659</v>
       </c>
       <c r="F252" s="62" t="s">
@@ -15344,7 +15819,7 @@
       <c r="H252" s="60">
         <v>1</v>
       </c>
-      <c r="I252" s="191">
+      <c r="I252" s="234">
         <v>255</v>
       </c>
       <c r="J252" s="63">
@@ -15359,22 +15834,22 @@
       <c r="M252" s="60">
         <v>62</v>
       </c>
-      <c r="N252" s="222">
+      <c r="N252" s="226">
         <v>45663</v>
       </c>
-      <c r="O252" s="222">
+      <c r="O252" s="226">
         <v>45705</v>
       </c>
-      <c r="P252" s="191" t="s">
+      <c r="P252" s="234" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="21">
       <c r="A253" s="150"/>
-      <c r="B253" s="192"/>
-      <c r="C253" s="219"/>
-      <c r="D253" s="192"/>
-      <c r="E253" s="195"/>
+      <c r="B253" s="227"/>
+      <c r="C253" s="207"/>
+      <c r="D253" s="227"/>
+      <c r="E253" s="236"/>
       <c r="F253" s="62" t="s">
         <v>15</v>
       </c>
@@ -15384,7 +15859,7 @@
       <c r="H253" s="60">
         <v>1</v>
       </c>
-      <c r="I253" s="192"/>
+      <c r="I253" s="227"/>
       <c r="J253" s="63">
         <v>0.54978000000000005</v>
       </c>
@@ -15397,16 +15872,16 @@
       <c r="M253" s="60">
         <v>77</v>
       </c>
-      <c r="N253" s="192"/>
-      <c r="O253" s="192"/>
-      <c r="P253" s="192"/>
+      <c r="N253" s="227"/>
+      <c r="O253" s="227"/>
+      <c r="P253" s="227"/>
     </row>
     <row r="254" spans="1:16" ht="37.5">
       <c r="A254" s="150"/>
-      <c r="B254" s="192"/>
-      <c r="C254" s="219"/>
-      <c r="D254" s="192"/>
-      <c r="E254" s="195"/>
+      <c r="B254" s="227"/>
+      <c r="C254" s="207"/>
+      <c r="D254" s="227"/>
+      <c r="E254" s="236"/>
       <c r="F254" s="62" t="s">
         <v>30</v>
       </c>
@@ -15416,7 +15891,7 @@
       <c r="H254" s="60">
         <v>1</v>
       </c>
-      <c r="I254" s="192"/>
+      <c r="I254" s="227"/>
       <c r="J254" s="63">
         <v>0.51480000000000004</v>
       </c>
@@ -15429,16 +15904,16 @@
       <c r="M254" s="60">
         <v>65</v>
       </c>
-      <c r="N254" s="192"/>
-      <c r="O254" s="192"/>
-      <c r="P254" s="192"/>
+      <c r="N254" s="227"/>
+      <c r="O254" s="227"/>
+      <c r="P254" s="227"/>
     </row>
     <row r="255" spans="1:16" ht="56.25">
       <c r="A255" s="150"/>
-      <c r="B255" s="193"/>
-      <c r="C255" s="220"/>
-      <c r="D255" s="193"/>
-      <c r="E255" s="196"/>
+      <c r="B255" s="228"/>
+      <c r="C255" s="208"/>
+      <c r="D255" s="228"/>
+      <c r="E255" s="237"/>
       <c r="F255" s="62" t="s">
         <v>25</v>
       </c>
@@ -15448,7 +15923,7 @@
       <c r="H255" s="60">
         <v>1</v>
       </c>
-      <c r="I255" s="193"/>
+      <c r="I255" s="228"/>
       <c r="J255" s="63">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -15461,20 +15936,20 @@
       <c r="M255" s="60">
         <v>18</v>
       </c>
-      <c r="N255" s="193"/>
-      <c r="O255" s="193"/>
-      <c r="P255" s="193"/>
+      <c r="N255" s="228"/>
+      <c r="O255" s="228"/>
+      <c r="P255" s="228"/>
     </row>
     <row r="256" spans="1:16" ht="22.5">
       <c r="A256" s="177">
         <v>45692</v>
       </c>
-      <c r="B256" s="190" t="s">
+      <c r="B256" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C256" s="190"/>
-      <c r="D256" s="190"/>
-      <c r="E256" s="190"/>
+      <c r="C256" s="186"/>
+      <c r="D256" s="186"/>
+      <c r="E256" s="186"/>
       <c r="F256" s="64" t="s">
         <v>25</v>
       </c>
@@ -15546,12 +16021,12 @@
     </row>
     <row r="258" spans="1:16" ht="22.5">
       <c r="A258" s="150"/>
-      <c r="B258" s="190" t="s">
+      <c r="B258" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C258" s="190"/>
-      <c r="D258" s="190"/>
-      <c r="E258" s="190"/>
+      <c r="C258" s="186"/>
+      <c r="D258" s="186"/>
+      <c r="E258" s="186"/>
       <c r="F258" s="64" t="s">
         <v>388</v>
       </c>
@@ -15625,12 +16100,12 @@
     </row>
     <row r="260" spans="1:16" ht="22.5">
       <c r="A260" s="150"/>
-      <c r="B260" s="190" t="s">
+      <c r="B260" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C260" s="190"/>
-      <c r="D260" s="190"/>
-      <c r="E260" s="190"/>
+      <c r="C260" s="186"/>
+      <c r="D260" s="186"/>
+      <c r="E260" s="186"/>
       <c r="F260" s="64" t="s">
         <v>391</v>
       </c>
@@ -15701,12 +16176,12 @@
     </row>
     <row r="262" spans="1:16" ht="22.5">
       <c r="A262" s="150"/>
-      <c r="B262" s="190" t="s">
+      <c r="B262" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C262" s="190"/>
-      <c r="D262" s="190"/>
-      <c r="E262" s="190"/>
+      <c r="C262" s="186"/>
+      <c r="D262" s="186"/>
+      <c r="E262" s="186"/>
       <c r="F262" s="64" t="s">
         <v>394</v>
       </c>
@@ -15727,28 +16202,28 @@
     </row>
     <row r="263" spans="1:16" ht="21">
       <c r="A263" s="150"/>
-      <c r="B263" s="210" t="s">
+      <c r="B263" s="203" t="s">
         <v>395</v>
       </c>
-      <c r="C263" s="210" t="s">
+      <c r="C263" s="203" t="s">
         <v>396</v>
       </c>
-      <c r="D263" s="210" t="s">
+      <c r="D263" s="203" t="s">
         <v>397</v>
       </c>
-      <c r="E263" s="201">
+      <c r="E263" s="204">
         <v>45660</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G263" s="229" t="s">
+      <c r="G263" s="238" t="s">
         <v>398</v>
       </c>
       <c r="H263" s="81">
         <v>130</v>
       </c>
-      <c r="I263" s="210">
+      <c r="I263" s="203">
         <v>7600</v>
       </c>
       <c r="J263" s="10">
@@ -15763,30 +16238,30 @@
       <c r="M263" s="81">
         <v>66</v>
       </c>
-      <c r="N263" s="208">
+      <c r="N263" s="241">
         <v>45665</v>
       </c>
-      <c r="O263" s="208">
+      <c r="O263" s="241">
         <v>45706</v>
       </c>
-      <c r="P263" s="210" t="s">
+      <c r="P263" s="203" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="21">
       <c r="A264" s="150"/>
-      <c r="B264" s="211"/>
-      <c r="C264" s="211"/>
-      <c r="D264" s="211"/>
-      <c r="E264" s="202"/>
+      <c r="B264" s="198"/>
+      <c r="C264" s="198"/>
+      <c r="D264" s="198"/>
+      <c r="E264" s="215"/>
       <c r="F264" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G264" s="230"/>
+      <c r="G264" s="239"/>
       <c r="H264" s="81">
         <v>120</v>
       </c>
-      <c r="I264" s="211"/>
+      <c r="I264" s="198"/>
       <c r="J264" s="10">
         <v>3.167424</v>
       </c>
@@ -15799,24 +16274,24 @@
       <c r="M264" s="81">
         <v>72</v>
       </c>
-      <c r="N264" s="211"/>
-      <c r="O264" s="211"/>
-      <c r="P264" s="211"/>
+      <c r="N264" s="198"/>
+      <c r="O264" s="198"/>
+      <c r="P264" s="198"/>
     </row>
     <row r="265" spans="1:16" ht="21">
       <c r="A265" s="150"/>
-      <c r="B265" s="211"/>
-      <c r="C265" s="211"/>
-      <c r="D265" s="211"/>
-      <c r="E265" s="202"/>
+      <c r="B265" s="198"/>
+      <c r="C265" s="198"/>
+      <c r="D265" s="198"/>
+      <c r="E265" s="215"/>
       <c r="F265" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G265" s="230"/>
+      <c r="G265" s="239"/>
       <c r="H265" s="81">
         <v>130</v>
       </c>
-      <c r="I265" s="211"/>
+      <c r="I265" s="198"/>
       <c r="J265" s="10">
         <v>3.383718</v>
       </c>
@@ -15829,24 +16304,24 @@
       <c r="M265" s="81">
         <v>71</v>
       </c>
-      <c r="N265" s="211"/>
-      <c r="O265" s="211"/>
-      <c r="P265" s="211"/>
+      <c r="N265" s="198"/>
+      <c r="O265" s="198"/>
+      <c r="P265" s="198"/>
     </row>
     <row r="266" spans="1:16" ht="21">
       <c r="A266" s="150"/>
-      <c r="B266" s="211"/>
-      <c r="C266" s="211"/>
-      <c r="D266" s="211"/>
-      <c r="E266" s="202"/>
+      <c r="B266" s="198"/>
+      <c r="C266" s="198"/>
+      <c r="D266" s="198"/>
+      <c r="E266" s="215"/>
       <c r="F266" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G266" s="231"/>
+      <c r="G266" s="240"/>
       <c r="H266" s="81">
         <v>220</v>
       </c>
-      <c r="I266" s="211"/>
+      <c r="I266" s="198"/>
       <c r="J266" s="10">
         <v>2.5405380000000002</v>
       </c>
@@ -15859,16 +16334,16 @@
       <c r="M266" s="81">
         <v>63</v>
       </c>
-      <c r="N266" s="211"/>
-      <c r="O266" s="211"/>
-      <c r="P266" s="211"/>
+      <c r="N266" s="198"/>
+      <c r="O266" s="198"/>
+      <c r="P266" s="198"/>
     </row>
     <row r="267" spans="1:16" ht="21">
       <c r="A267" s="150"/>
-      <c r="B267" s="209"/>
-      <c r="C267" s="209"/>
-      <c r="D267" s="209"/>
-      <c r="E267" s="203"/>
+      <c r="B267" s="199"/>
+      <c r="C267" s="199"/>
+      <c r="D267" s="199"/>
+      <c r="E267" s="205"/>
       <c r="F267" s="3" t="s">
         <v>13</v>
       </c>
@@ -15878,7 +16353,7 @@
       <c r="H267" s="81">
         <v>1599</v>
       </c>
-      <c r="I267" s="209"/>
+      <c r="I267" s="199"/>
       <c r="J267" s="10">
         <v>0.68834399999999996</v>
       </c>
@@ -15891,20 +16366,20 @@
       <c r="M267" s="81">
         <v>92</v>
       </c>
-      <c r="N267" s="209"/>
-      <c r="O267" s="209"/>
-      <c r="P267" s="209"/>
+      <c r="N267" s="199"/>
+      <c r="O267" s="199"/>
+      <c r="P267" s="199"/>
     </row>
     <row r="268" spans="1:16" ht="22.5">
       <c r="A268" s="177">
         <v>45689</v>
       </c>
-      <c r="B268" s="190" t="s">
+      <c r="B268" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C268" s="190"/>
-      <c r="D268" s="190"/>
-      <c r="E268" s="190"/>
+      <c r="C268" s="186"/>
+      <c r="D268" s="186"/>
+      <c r="E268" s="186"/>
       <c r="F268" s="64" t="s">
         <v>13</v>
       </c>
@@ -15971,12 +16446,12 @@
     </row>
     <row r="270" spans="1:16" ht="22.5">
       <c r="A270" s="150"/>
-      <c r="B270" s="190" t="s">
+      <c r="B270" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C270" s="190"/>
-      <c r="D270" s="190"/>
-      <c r="E270" s="190"/>
+      <c r="C270" s="186"/>
+      <c r="D270" s="186"/>
+      <c r="E270" s="186"/>
       <c r="F270" s="64" t="s">
         <v>406</v>
       </c>
@@ -16046,12 +16521,12 @@
     </row>
     <row r="272" spans="1:16" ht="22.5">
       <c r="A272" s="150"/>
-      <c r="B272" s="190" t="s">
+      <c r="B272" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C272" s="190"/>
-      <c r="D272" s="190"/>
-      <c r="E272" s="190"/>
+      <c r="C272" s="186"/>
+      <c r="D272" s="186"/>
+      <c r="E272" s="186"/>
       <c r="F272" s="64" t="s">
         <v>409</v>
       </c>
@@ -16074,16 +16549,16 @@
     </row>
     <row r="273" spans="1:16" ht="37.5">
       <c r="A273" s="177"/>
-      <c r="B273" s="210" t="s">
+      <c r="B273" s="203" t="s">
         <v>410</v>
       </c>
-      <c r="C273" s="210" t="s">
+      <c r="C273" s="203" t="s">
         <v>411</v>
       </c>
-      <c r="D273" s="210" t="s">
+      <c r="D273" s="203" t="s">
         <v>412</v>
       </c>
-      <c r="E273" s="201">
+      <c r="E273" s="204">
         <v>45665</v>
       </c>
       <c r="F273" s="3" t="s">
@@ -16112,22 +16587,22 @@
       <c r="M273" s="81">
         <v>39</v>
       </c>
-      <c r="N273" s="208">
+      <c r="N273" s="241">
         <v>45670</v>
       </c>
-      <c r="O273" s="208">
+      <c r="O273" s="241">
         <v>45712</v>
       </c>
-      <c r="P273" s="210" t="s">
+      <c r="P273" s="203" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="274" spans="1:16" ht="37.5">
       <c r="A274" s="177"/>
-      <c r="B274" s="211"/>
-      <c r="C274" s="211"/>
-      <c r="D274" s="211"/>
-      <c r="E274" s="202"/>
+      <c r="B274" s="198"/>
+      <c r="C274" s="198"/>
+      <c r="D274" s="198"/>
+      <c r="E274" s="215"/>
       <c r="F274" s="3" t="s">
         <v>99</v>
       </c>
@@ -16154,20 +16629,20 @@
       <c r="M274" s="81">
         <v>28</v>
       </c>
-      <c r="N274" s="211"/>
-      <c r="O274" s="211"/>
-      <c r="P274" s="211"/>
+      <c r="N274" s="198"/>
+      <c r="O274" s="198"/>
+      <c r="P274" s="198"/>
     </row>
     <row r="275" spans="1:16" ht="21">
       <c r="A275" s="177"/>
-      <c r="B275" s="211"/>
-      <c r="C275" s="211"/>
-      <c r="D275" s="211"/>
-      <c r="E275" s="202"/>
+      <c r="B275" s="198"/>
+      <c r="C275" s="198"/>
+      <c r="D275" s="198"/>
+      <c r="E275" s="215"/>
       <c r="F275" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="G275" s="229" t="s">
+      <c r="G275" s="238" t="s">
         <v>417</v>
       </c>
       <c r="H275" s="81">
@@ -16190,20 +16665,20 @@
       <c r="M275" s="81">
         <v>39</v>
       </c>
-      <c r="N275" s="211"/>
-      <c r="O275" s="211"/>
-      <c r="P275" s="211"/>
+      <c r="N275" s="198"/>
+      <c r="O275" s="198"/>
+      <c r="P275" s="198"/>
     </row>
     <row r="276" spans="1:16" ht="21">
       <c r="A276" s="177"/>
-      <c r="B276" s="211"/>
-      <c r="C276" s="211"/>
-      <c r="D276" s="211"/>
-      <c r="E276" s="202"/>
+      <c r="B276" s="198"/>
+      <c r="C276" s="198"/>
+      <c r="D276" s="198"/>
+      <c r="E276" s="215"/>
       <c r="F276" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="G276" s="231"/>
+      <c r="G276" s="240"/>
       <c r="H276" s="81">
         <v>48</v>
       </c>
@@ -16223,16 +16698,16 @@
       <c r="M276" s="81">
         <v>23</v>
       </c>
-      <c r="N276" s="211"/>
-      <c r="O276" s="211"/>
-      <c r="P276" s="211"/>
+      <c r="N276" s="198"/>
+      <c r="O276" s="198"/>
+      <c r="P276" s="198"/>
     </row>
     <row r="277" spans="1:16" ht="37.5">
       <c r="A277" s="177"/>
-      <c r="B277" s="209"/>
-      <c r="C277" s="209"/>
-      <c r="D277" s="209"/>
-      <c r="E277" s="203"/>
+      <c r="B277" s="199"/>
+      <c r="C277" s="199"/>
+      <c r="D277" s="199"/>
+      <c r="E277" s="205"/>
       <c r="F277" s="3" t="s">
         <v>419</v>
       </c>
@@ -16259,20 +16734,20 @@
       <c r="M277" s="81">
         <v>47</v>
       </c>
-      <c r="N277" s="209"/>
-      <c r="O277" s="209"/>
-      <c r="P277" s="209"/>
+      <c r="N277" s="199"/>
+      <c r="O277" s="199"/>
+      <c r="P277" s="199"/>
     </row>
     <row r="278" spans="1:16" ht="22.5">
       <c r="A278" s="177">
         <v>45702</v>
       </c>
-      <c r="B278" s="190" t="s">
+      <c r="B278" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="190"/>
-      <c r="D278" s="190"/>
-      <c r="E278" s="190"/>
+      <c r="C278" s="186"/>
+      <c r="D278" s="186"/>
+      <c r="E278" s="186"/>
       <c r="F278" s="64" t="s">
         <v>421</v>
       </c>
@@ -16345,12 +16820,12 @@
       <c r="A280" s="177">
         <v>45707</v>
       </c>
-      <c r="B280" s="190" t="s">
+      <c r="B280" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C280" s="190"/>
-      <c r="D280" s="190"/>
-      <c r="E280" s="190"/>
+      <c r="C280" s="186"/>
+      <c r="D280" s="186"/>
+      <c r="E280" s="186"/>
       <c r="F280" s="64" t="s">
         <v>25</v>
       </c>
@@ -16371,26 +16846,26 @@
     </row>
     <row r="281" spans="1:16" ht="21">
       <c r="A281" s="177"/>
-      <c r="B281" s="210" t="s">
+      <c r="B281" s="203" t="s">
         <v>426</v>
       </c>
-      <c r="C281" s="229" t="s">
+      <c r="C281" s="238" t="s">
         <v>427</v>
       </c>
-      <c r="D281" s="210" t="s">
+      <c r="D281" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="E281" s="201">
+      <c r="E281" s="204">
         <v>45666</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G281" s="229" t="s">
+      <c r="G281" s="238" t="s">
         <v>428</v>
       </c>
       <c r="H281" s="81"/>
-      <c r="I281" s="210">
+      <c r="I281" s="203">
         <v>13</v>
       </c>
       <c r="J281" s="10">
@@ -16405,28 +16880,28 @@
       <c r="M281" s="81">
         <v>36</v>
       </c>
-      <c r="N281" s="208">
+      <c r="N281" s="241">
         <v>45670</v>
       </c>
-      <c r="O281" s="208">
+      <c r="O281" s="241">
         <v>45712</v>
       </c>
-      <c r="P281" s="210" t="s">
+      <c r="P281" s="203" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="282" spans="1:16" ht="21">
       <c r="A282" s="177"/>
-      <c r="B282" s="209"/>
-      <c r="C282" s="231"/>
-      <c r="D282" s="209"/>
-      <c r="E282" s="203"/>
+      <c r="B282" s="199"/>
+      <c r="C282" s="240"/>
+      <c r="D282" s="199"/>
+      <c r="E282" s="205"/>
       <c r="F282" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G282" s="209"/>
+      <c r="G282" s="199"/>
       <c r="H282" s="81"/>
-      <c r="I282" s="209"/>
+      <c r="I282" s="199"/>
       <c r="J282" s="10">
         <v>2.3751000000000001E-2</v>
       </c>
@@ -16439,20 +16914,20 @@
       <c r="M282" s="81">
         <v>29</v>
       </c>
-      <c r="N282" s="209"/>
-      <c r="O282" s="209"/>
-      <c r="P282" s="209"/>
+      <c r="N282" s="199"/>
+      <c r="O282" s="199"/>
+      <c r="P282" s="199"/>
     </row>
     <row r="283" spans="1:16" ht="22.5">
       <c r="A283" s="177">
         <v>45694</v>
       </c>
-      <c r="B283" s="190" t="s">
+      <c r="B283" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C283" s="190"/>
-      <c r="D283" s="190"/>
-      <c r="E283" s="190"/>
+      <c r="C283" s="186"/>
+      <c r="D283" s="186"/>
+      <c r="E283" s="186"/>
       <c r="F283" s="64" t="s">
         <v>15</v>
       </c>
@@ -16520,12 +16995,12 @@
       </c>
     </row>
     <row r="285" spans="1:16" ht="22.5">
-      <c r="B285" s="232" t="s">
+      <c r="B285" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C285" s="233"/>
-      <c r="D285" s="233"/>
-      <c r="E285" s="234"/>
+      <c r="C285" s="201"/>
+      <c r="D285" s="201"/>
+      <c r="E285" s="202"/>
       <c r="F285" s="64" t="s">
         <v>433</v>
       </c>
@@ -16595,12 +17070,12 @@
       </c>
     </row>
     <row r="287" spans="1:16" ht="22.5">
-      <c r="B287" s="232" t="s">
+      <c r="B287" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C287" s="233"/>
-      <c r="D287" s="233"/>
-      <c r="E287" s="234"/>
+      <c r="C287" s="201"/>
+      <c r="D287" s="201"/>
+      <c r="E287" s="202"/>
       <c r="F287" s="135" t="s">
         <v>433</v>
       </c>
@@ -16670,12 +17145,12 @@
       </c>
     </row>
     <row r="289" spans="1:16" ht="22.5">
-      <c r="B289" s="232" t="s">
+      <c r="B289" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C289" s="233"/>
-      <c r="D289" s="233"/>
-      <c r="E289" s="234"/>
+      <c r="C289" s="201"/>
+      <c r="D289" s="201"/>
+      <c r="E289" s="202"/>
       <c r="F289" s="64" t="s">
         <v>388</v>
       </c>
@@ -16745,12 +17220,12 @@
       </c>
     </row>
     <row r="291" spans="1:16" ht="22.5">
-      <c r="B291" s="232" t="s">
+      <c r="B291" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C291" s="233"/>
-      <c r="D291" s="233"/>
-      <c r="E291" s="234"/>
+      <c r="C291" s="201"/>
+      <c r="D291" s="201"/>
+      <c r="E291" s="202"/>
       <c r="F291" s="64" t="s">
         <v>433</v>
       </c>
@@ -16773,28 +17248,28 @@
     </row>
     <row r="292" spans="1:16" ht="21">
       <c r="A292" s="177"/>
-      <c r="B292" s="210" t="s">
+      <c r="B292" s="203" t="s">
         <v>100</v>
       </c>
-      <c r="C292" s="210">
+      <c r="C292" s="203">
         <v>1392620920</v>
       </c>
-      <c r="D292" s="210" t="s">
+      <c r="D292" s="203" t="s">
         <v>20</v>
       </c>
-      <c r="E292" s="201">
+      <c r="E292" s="204">
         <v>45667</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G292" s="229" t="s">
+      <c r="G292" s="238" t="s">
         <v>68</v>
       </c>
       <c r="H292" s="81">
         <v>8</v>
       </c>
-      <c r="I292" s="210">
+      <c r="I292" s="203">
         <v>357</v>
       </c>
       <c r="J292" s="10">
@@ -16809,30 +17284,30 @@
       <c r="M292" s="81">
         <v>26</v>
       </c>
-      <c r="N292" s="208">
+      <c r="N292" s="241">
         <v>45670</v>
       </c>
-      <c r="O292" s="208">
+      <c r="O292" s="241">
         <v>45699</v>
       </c>
-      <c r="P292" s="210" t="s">
+      <c r="P292" s="203" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="21">
       <c r="A293" s="177"/>
-      <c r="B293" s="211"/>
-      <c r="C293" s="211"/>
-      <c r="D293" s="211"/>
-      <c r="E293" s="202"/>
+      <c r="B293" s="198"/>
+      <c r="C293" s="198"/>
+      <c r="D293" s="198"/>
+      <c r="E293" s="215"/>
       <c r="F293" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G293" s="230"/>
+      <c r="G293" s="239"/>
       <c r="H293" s="81">
         <v>2</v>
       </c>
-      <c r="I293" s="211"/>
+      <c r="I293" s="198"/>
       <c r="J293" s="10">
         <v>7.7219999999999997E-2</v>
       </c>
@@ -16845,24 +17320,24 @@
       <c r="M293" s="81">
         <v>26</v>
       </c>
-      <c r="N293" s="211"/>
-      <c r="O293" s="211"/>
-      <c r="P293" s="211"/>
+      <c r="N293" s="198"/>
+      <c r="O293" s="198"/>
+      <c r="P293" s="198"/>
     </row>
     <row r="294" spans="1:16" ht="21">
       <c r="A294" s="177"/>
-      <c r="B294" s="211"/>
-      <c r="C294" s="211"/>
-      <c r="D294" s="211"/>
-      <c r="E294" s="202"/>
+      <c r="B294" s="198"/>
+      <c r="C294" s="198"/>
+      <c r="D294" s="198"/>
+      <c r="E294" s="215"/>
       <c r="F294" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G294" s="231"/>
+      <c r="G294" s="240"/>
       <c r="H294" s="81">
         <v>4</v>
       </c>
-      <c r="I294" s="211"/>
+      <c r="I294" s="198"/>
       <c r="J294" s="10">
         <v>0.12675</v>
       </c>
@@ -16875,26 +17350,26 @@
       <c r="M294" s="81">
         <v>25</v>
       </c>
-      <c r="N294" s="211"/>
-      <c r="O294" s="211"/>
-      <c r="P294" s="211"/>
+      <c r="N294" s="198"/>
+      <c r="O294" s="198"/>
+      <c r="P294" s="198"/>
     </row>
     <row r="295" spans="1:16" ht="21">
       <c r="A295" s="177"/>
-      <c r="B295" s="211"/>
-      <c r="C295" s="211"/>
-      <c r="D295" s="211"/>
-      <c r="E295" s="202"/>
+      <c r="B295" s="198"/>
+      <c r="C295" s="198"/>
+      <c r="D295" s="198"/>
+      <c r="E295" s="215"/>
       <c r="F295" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G295" s="229" t="s">
+      <c r="G295" s="238" t="s">
         <v>58</v>
       </c>
       <c r="H295" s="81">
         <v>20</v>
       </c>
-      <c r="I295" s="211"/>
+      <c r="I295" s="198"/>
       <c r="J295" s="10">
         <v>0.31099199999999999</v>
       </c>
@@ -16907,24 +17382,24 @@
       <c r="M295" s="81">
         <v>38</v>
       </c>
-      <c r="N295" s="211"/>
-      <c r="O295" s="211"/>
-      <c r="P295" s="211"/>
+      <c r="N295" s="198"/>
+      <c r="O295" s="198"/>
+      <c r="P295" s="198"/>
     </row>
     <row r="296" spans="1:16" ht="21">
       <c r="A296" s="177"/>
-      <c r="B296" s="211"/>
-      <c r="C296" s="211"/>
-      <c r="D296" s="211"/>
-      <c r="E296" s="202"/>
+      <c r="B296" s="198"/>
+      <c r="C296" s="198"/>
+      <c r="D296" s="198"/>
+      <c r="E296" s="215"/>
       <c r="F296" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G296" s="230"/>
+      <c r="G296" s="239"/>
       <c r="H296" s="81">
         <v>10</v>
       </c>
-      <c r="I296" s="211"/>
+      <c r="I296" s="198"/>
       <c r="J296" s="10">
         <v>0.13718</v>
       </c>
@@ -16937,24 +17412,24 @@
       <c r="M296" s="81">
         <v>38</v>
       </c>
-      <c r="N296" s="211"/>
-      <c r="O296" s="211"/>
-      <c r="P296" s="211"/>
+      <c r="N296" s="198"/>
+      <c r="O296" s="198"/>
+      <c r="P296" s="198"/>
     </row>
     <row r="297" spans="1:16" ht="21">
       <c r="A297" s="177"/>
-      <c r="B297" s="211"/>
-      <c r="C297" s="211"/>
-      <c r="D297" s="211"/>
-      <c r="E297" s="202"/>
+      <c r="B297" s="198"/>
+      <c r="C297" s="198"/>
+      <c r="D297" s="198"/>
+      <c r="E297" s="215"/>
       <c r="F297" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G297" s="230"/>
+      <c r="G297" s="239"/>
       <c r="H297" s="81">
         <v>10</v>
       </c>
-      <c r="I297" s="211"/>
+      <c r="I297" s="198"/>
       <c r="J297" s="10">
         <v>0.13718</v>
       </c>
@@ -16967,24 +17442,24 @@
       <c r="M297" s="81">
         <v>38</v>
       </c>
-      <c r="N297" s="211"/>
-      <c r="O297" s="211"/>
-      <c r="P297" s="211"/>
+      <c r="N297" s="198"/>
+      <c r="O297" s="198"/>
+      <c r="P297" s="198"/>
     </row>
     <row r="298" spans="1:16" ht="21">
       <c r="A298" s="177"/>
-      <c r="B298" s="211"/>
-      <c r="C298" s="211"/>
-      <c r="D298" s="211"/>
-      <c r="E298" s="202"/>
+      <c r="B298" s="198"/>
+      <c r="C298" s="198"/>
+      <c r="D298" s="198"/>
+      <c r="E298" s="215"/>
       <c r="F298" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G298" s="230"/>
+      <c r="G298" s="239"/>
       <c r="H298" s="81">
         <v>20</v>
       </c>
-      <c r="I298" s="211"/>
+      <c r="I298" s="198"/>
       <c r="J298" s="10">
         <v>0.13718</v>
       </c>
@@ -16997,24 +17472,24 @@
       <c r="M298" s="81">
         <v>38</v>
       </c>
-      <c r="N298" s="211"/>
-      <c r="O298" s="211"/>
-      <c r="P298" s="211"/>
+      <c r="N298" s="198"/>
+      <c r="O298" s="198"/>
+      <c r="P298" s="198"/>
     </row>
     <row r="299" spans="1:16" ht="21">
       <c r="A299" s="177"/>
-      <c r="B299" s="211"/>
-      <c r="C299" s="211"/>
-      <c r="D299" s="211"/>
-      <c r="E299" s="202"/>
+      <c r="B299" s="198"/>
+      <c r="C299" s="198"/>
+      <c r="D299" s="198"/>
+      <c r="E299" s="215"/>
       <c r="F299" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G299" s="230"/>
+      <c r="G299" s="239"/>
       <c r="H299" s="81">
         <v>50</v>
       </c>
-      <c r="I299" s="211"/>
+      <c r="I299" s="198"/>
       <c r="J299" s="10">
         <v>0.68589999999999995</v>
       </c>
@@ -17027,24 +17502,24 @@
       <c r="M299" s="81">
         <v>38</v>
       </c>
-      <c r="N299" s="211"/>
-      <c r="O299" s="211"/>
-      <c r="P299" s="211"/>
+      <c r="N299" s="198"/>
+      <c r="O299" s="198"/>
+      <c r="P299" s="198"/>
     </row>
     <row r="300" spans="1:16" ht="21">
       <c r="A300" s="177"/>
-      <c r="B300" s="211"/>
-      <c r="C300" s="211"/>
-      <c r="D300" s="211"/>
-      <c r="E300" s="202"/>
+      <c r="B300" s="198"/>
+      <c r="C300" s="198"/>
+      <c r="D300" s="198"/>
+      <c r="E300" s="215"/>
       <c r="F300" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G300" s="231"/>
+      <c r="G300" s="240"/>
       <c r="H300" s="81">
         <v>10</v>
       </c>
-      <c r="I300" s="211"/>
+      <c r="I300" s="198"/>
       <c r="J300" s="10">
         <v>6.93E-2</v>
       </c>
@@ -17057,16 +17532,16 @@
       <c r="M300" s="81">
         <v>33</v>
       </c>
-      <c r="N300" s="211"/>
-      <c r="O300" s="211"/>
-      <c r="P300" s="211"/>
+      <c r="N300" s="198"/>
+      <c r="O300" s="198"/>
+      <c r="P300" s="198"/>
     </row>
     <row r="301" spans="1:16" ht="21">
       <c r="A301" s="177"/>
-      <c r="B301" s="211"/>
-      <c r="C301" s="211"/>
-      <c r="D301" s="211"/>
-      <c r="E301" s="202"/>
+      <c r="B301" s="198"/>
+      <c r="C301" s="198"/>
+      <c r="D301" s="198"/>
+      <c r="E301" s="215"/>
       <c r="F301" s="3" t="s">
         <v>28</v>
       </c>
@@ -17076,7 +17551,7 @@
       <c r="H301" s="81">
         <v>85</v>
       </c>
-      <c r="I301" s="211"/>
+      <c r="I301" s="198"/>
       <c r="J301" s="10">
         <v>3.0096000000000001E-2</v>
       </c>
@@ -17089,16 +17564,16 @@
       <c r="M301" s="81">
         <v>24</v>
       </c>
-      <c r="N301" s="211"/>
-      <c r="O301" s="211"/>
-      <c r="P301" s="211"/>
+      <c r="N301" s="198"/>
+      <c r="O301" s="198"/>
+      <c r="P301" s="198"/>
     </row>
     <row r="302" spans="1:16" ht="21">
       <c r="A302" s="177"/>
-      <c r="B302" s="211"/>
-      <c r="C302" s="211"/>
-      <c r="D302" s="211"/>
-      <c r="E302" s="202"/>
+      <c r="B302" s="198"/>
+      <c r="C302" s="198"/>
+      <c r="D302" s="198"/>
+      <c r="E302" s="215"/>
       <c r="F302" s="3" t="s">
         <v>29</v>
       </c>
@@ -17108,7 +17583,7 @@
       <c r="H302" s="81">
         <v>50</v>
       </c>
-      <c r="I302" s="211"/>
+      <c r="I302" s="198"/>
       <c r="J302" s="10">
         <v>5.3921999999999998E-2</v>
       </c>
@@ -17121,16 +17596,16 @@
       <c r="M302" s="81">
         <v>33</v>
       </c>
-      <c r="N302" s="211"/>
-      <c r="O302" s="211"/>
-      <c r="P302" s="211"/>
+      <c r="N302" s="198"/>
+      <c r="O302" s="198"/>
+      <c r="P302" s="198"/>
     </row>
     <row r="303" spans="1:16" ht="21">
       <c r="A303" s="177"/>
-      <c r="B303" s="211"/>
-      <c r="C303" s="211"/>
-      <c r="D303" s="211"/>
-      <c r="E303" s="202"/>
+      <c r="B303" s="198"/>
+      <c r="C303" s="198"/>
+      <c r="D303" s="198"/>
+      <c r="E303" s="215"/>
       <c r="F303" s="3" t="s">
         <v>57</v>
       </c>
@@ -17140,7 +17615,7 @@
       <c r="H303" s="81">
         <v>14</v>
       </c>
-      <c r="I303" s="211"/>
+      <c r="I303" s="198"/>
       <c r="J303" s="10">
         <v>0.16819999999999999</v>
       </c>
@@ -17153,16 +17628,16 @@
       <c r="M303" s="81">
         <v>20</v>
       </c>
-      <c r="N303" s="211"/>
-      <c r="O303" s="211"/>
-      <c r="P303" s="211"/>
+      <c r="N303" s="198"/>
+      <c r="O303" s="198"/>
+      <c r="P303" s="198"/>
     </row>
     <row r="304" spans="1:16" ht="37.5">
       <c r="A304" s="177"/>
-      <c r="B304" s="209"/>
-      <c r="C304" s="209"/>
-      <c r="D304" s="209"/>
-      <c r="E304" s="203"/>
+      <c r="B304" s="199"/>
+      <c r="C304" s="199"/>
+      <c r="D304" s="199"/>
+      <c r="E304" s="205"/>
       <c r="F304" s="3" t="s">
         <v>87</v>
       </c>
@@ -17172,7 +17647,7 @@
       <c r="H304" s="81">
         <v>10</v>
       </c>
-      <c r="I304" s="209"/>
+      <c r="I304" s="199"/>
       <c r="J304" s="10">
         <v>0.35963200000000001</v>
       </c>
@@ -17185,20 +17660,20 @@
       <c r="M304" s="81">
         <v>38</v>
       </c>
-      <c r="N304" s="209"/>
-      <c r="O304" s="209"/>
-      <c r="P304" s="209"/>
+      <c r="N304" s="199"/>
+      <c r="O304" s="199"/>
+      <c r="P304" s="199"/>
     </row>
     <row r="305" spans="1:16" ht="22.5">
       <c r="A305" s="177">
         <v>45702</v>
       </c>
-      <c r="B305" s="190" t="s">
+      <c r="B305" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C305" s="190"/>
-      <c r="D305" s="190"/>
-      <c r="E305" s="190"/>
+      <c r="C305" s="186"/>
+      <c r="D305" s="186"/>
+      <c r="E305" s="186"/>
       <c r="F305" s="64" t="s">
         <v>19</v>
       </c>
@@ -17267,12 +17742,12 @@
       <c r="A307" s="177">
         <v>45702</v>
       </c>
-      <c r="B307" s="190" t="s">
+      <c r="B307" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C307" s="190"/>
-      <c r="D307" s="190"/>
-      <c r="E307" s="190"/>
+      <c r="C307" s="186"/>
+      <c r="D307" s="186"/>
+      <c r="E307" s="186"/>
       <c r="F307" s="64" t="s">
         <v>25</v>
       </c>
@@ -17345,12 +17820,12 @@
       <c r="A309" s="177">
         <v>45702</v>
       </c>
-      <c r="B309" s="190" t="s">
+      <c r="B309" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C309" s="190"/>
-      <c r="D309" s="190"/>
-      <c r="E309" s="190"/>
+      <c r="C309" s="186"/>
+      <c r="D309" s="186"/>
+      <c r="E309" s="186"/>
       <c r="F309" s="64" t="s">
         <v>25</v>
       </c>
@@ -17371,28 +17846,28 @@
     </row>
     <row r="310" spans="1:16" ht="21">
       <c r="A310" s="177"/>
-      <c r="B310" s="191" t="s">
+      <c r="B310" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="C310" s="197" t="s">
+      <c r="C310" s="206" t="s">
         <v>440</v>
       </c>
-      <c r="D310" s="191" t="s">
+      <c r="D310" s="234" t="s">
         <v>109</v>
       </c>
-      <c r="E310" s="194">
+      <c r="E310" s="235">
         <v>45668</v>
       </c>
       <c r="F310" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G310" s="197" t="s">
+      <c r="G310" s="206" t="s">
         <v>111</v>
       </c>
       <c r="H310" s="60">
         <v>385</v>
       </c>
-      <c r="I310" s="191">
+      <c r="I310" s="234">
         <v>1451</v>
       </c>
       <c r="J310" s="63">
@@ -17407,30 +17882,30 @@
       <c r="M310" s="60">
         <v>30</v>
       </c>
-      <c r="N310" s="222">
+      <c r="N310" s="226">
         <v>45671</v>
       </c>
-      <c r="O310" s="222">
+      <c r="O310" s="226">
         <v>45714</v>
       </c>
-      <c r="P310" s="191" t="s">
+      <c r="P310" s="234" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="21">
       <c r="A311" s="177"/>
-      <c r="B311" s="192"/>
-      <c r="C311" s="219"/>
-      <c r="D311" s="192"/>
-      <c r="E311" s="195"/>
+      <c r="B311" s="227"/>
+      <c r="C311" s="207"/>
+      <c r="D311" s="227"/>
+      <c r="E311" s="236"/>
       <c r="F311" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G311" s="220"/>
+      <c r="G311" s="208"/>
       <c r="H311" s="60">
         <v>36</v>
       </c>
-      <c r="I311" s="192"/>
+      <c r="I311" s="227"/>
       <c r="J311" s="63">
         <v>0.29759999999999998</v>
       </c>
@@ -17443,16 +17918,16 @@
       <c r="M311" s="60">
         <v>20</v>
       </c>
-      <c r="N311" s="192"/>
-      <c r="O311" s="192"/>
-      <c r="P311" s="192"/>
+      <c r="N311" s="227"/>
+      <c r="O311" s="227"/>
+      <c r="P311" s="227"/>
     </row>
     <row r="312" spans="1:16" ht="21">
       <c r="A312" s="177"/>
-      <c r="B312" s="192"/>
-      <c r="C312" s="219"/>
-      <c r="D312" s="192"/>
-      <c r="E312" s="195"/>
+      <c r="B312" s="227"/>
+      <c r="C312" s="207"/>
+      <c r="D312" s="227"/>
+      <c r="E312" s="236"/>
       <c r="F312" s="62" t="s">
         <v>113</v>
       </c>
@@ -17462,7 +17937,7 @@
       <c r="H312" s="60">
         <v>26</v>
       </c>
-      <c r="I312" s="192"/>
+      <c r="I312" s="227"/>
       <c r="J312" s="63">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -17475,16 +17950,16 @@
       <c r="M312" s="60">
         <v>33</v>
       </c>
-      <c r="N312" s="192"/>
-      <c r="O312" s="192"/>
-      <c r="P312" s="192"/>
+      <c r="N312" s="227"/>
+      <c r="O312" s="227"/>
+      <c r="P312" s="227"/>
     </row>
     <row r="313" spans="1:16" ht="21">
       <c r="A313" s="177"/>
-      <c r="B313" s="192"/>
-      <c r="C313" s="219"/>
-      <c r="D313" s="192"/>
-      <c r="E313" s="195"/>
+      <c r="B313" s="227"/>
+      <c r="C313" s="207"/>
+      <c r="D313" s="227"/>
+      <c r="E313" s="236"/>
       <c r="F313" s="62" t="s">
         <v>115</v>
       </c>
@@ -17494,7 +17969,7 @@
       <c r="H313" s="60">
         <v>121</v>
       </c>
-      <c r="I313" s="192"/>
+      <c r="I313" s="227"/>
       <c r="J313" s="63">
         <v>3.456E-2</v>
       </c>
@@ -17507,16 +17982,16 @@
       <c r="M313" s="60">
         <v>24</v>
       </c>
-      <c r="N313" s="192"/>
-      <c r="O313" s="192"/>
-      <c r="P313" s="192"/>
+      <c r="N313" s="227"/>
+      <c r="O313" s="227"/>
+      <c r="P313" s="227"/>
     </row>
     <row r="314" spans="1:16" ht="37.5">
       <c r="A314" s="177"/>
-      <c r="B314" s="192"/>
-      <c r="C314" s="219"/>
-      <c r="D314" s="192"/>
-      <c r="E314" s="195"/>
+      <c r="B314" s="227"/>
+      <c r="C314" s="207"/>
+      <c r="D314" s="227"/>
+      <c r="E314" s="236"/>
       <c r="F314" s="62" t="s">
         <v>117</v>
       </c>
@@ -17526,7 +18001,7 @@
       <c r="H314" s="60">
         <v>24</v>
       </c>
-      <c r="I314" s="192"/>
+      <c r="I314" s="227"/>
       <c r="J314" s="63">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -17539,16 +18014,16 @@
       <c r="M314" s="60">
         <v>15</v>
       </c>
-      <c r="N314" s="192"/>
-      <c r="O314" s="192"/>
-      <c r="P314" s="192"/>
+      <c r="N314" s="227"/>
+      <c r="O314" s="227"/>
+      <c r="P314" s="227"/>
     </row>
     <row r="315" spans="1:16" ht="21">
       <c r="A315" s="177"/>
-      <c r="B315" s="193"/>
-      <c r="C315" s="220"/>
-      <c r="D315" s="193"/>
-      <c r="E315" s="196"/>
+      <c r="B315" s="228"/>
+      <c r="C315" s="208"/>
+      <c r="D315" s="228"/>
+      <c r="E315" s="237"/>
       <c r="F315" s="62" t="s">
         <v>118</v>
       </c>
@@ -17558,7 +18033,7 @@
       <c r="H315" s="60">
         <v>150</v>
       </c>
-      <c r="I315" s="193"/>
+      <c r="I315" s="228"/>
       <c r="J315" s="63">
         <v>1.512</v>
       </c>
@@ -17571,20 +18046,20 @@
       <c r="M315" s="60">
         <v>30</v>
       </c>
-      <c r="N315" s="193"/>
-      <c r="O315" s="193"/>
-      <c r="P315" s="193"/>
+      <c r="N315" s="228"/>
+      <c r="O315" s="228"/>
+      <c r="P315" s="228"/>
     </row>
     <row r="316" spans="1:16" ht="22.5">
       <c r="A316" s="177">
         <v>45698</v>
       </c>
-      <c r="B316" s="190" t="s">
+      <c r="B316" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C316" s="190"/>
-      <c r="D316" s="190"/>
-      <c r="E316" s="190"/>
+      <c r="C316" s="186"/>
+      <c r="D316" s="186"/>
+      <c r="E316" s="186"/>
       <c r="F316" s="64" t="s">
         <v>119</v>
       </c>
@@ -17605,28 +18080,28 @@
     </row>
     <row r="317" spans="1:16" ht="21">
       <c r="A317" s="177"/>
-      <c r="B317" s="191" t="s">
+      <c r="B317" s="234" t="s">
         <v>120</v>
       </c>
-      <c r="C317" s="197" t="s">
+      <c r="C317" s="206" t="s">
         <v>442</v>
       </c>
-      <c r="D317" s="191" t="s">
+      <c r="D317" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="E317" s="194">
+      <c r="E317" s="235">
         <v>45668</v>
       </c>
       <c r="F317" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G317" s="197" t="s">
+      <c r="G317" s="206" t="s">
         <v>77</v>
       </c>
       <c r="H317" s="60">
         <v>300</v>
       </c>
-      <c r="I317" s="191">
+      <c r="I317" s="234">
         <v>680</v>
       </c>
       <c r="J317" s="63">
@@ -17641,30 +18116,30 @@
       <c r="M317" s="60">
         <v>24</v>
       </c>
-      <c r="N317" s="222">
+      <c r="N317" s="226">
         <v>45671</v>
       </c>
-      <c r="O317" s="222">
+      <c r="O317" s="226">
         <v>45714</v>
       </c>
-      <c r="P317" s="191" t="s">
+      <c r="P317" s="234" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="318" spans="1:16" ht="21">
       <c r="A318" s="177"/>
-      <c r="B318" s="192"/>
-      <c r="C318" s="219"/>
-      <c r="D318" s="192"/>
-      <c r="E318" s="195"/>
+      <c r="B318" s="227"/>
+      <c r="C318" s="207"/>
+      <c r="D318" s="227"/>
+      <c r="E318" s="236"/>
       <c r="F318" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="G318" s="192"/>
+      <c r="G318" s="227"/>
       <c r="H318" s="60">
         <v>80</v>
       </c>
-      <c r="I318" s="192"/>
+      <c r="I318" s="227"/>
       <c r="J318" s="63">
         <v>0.189</v>
       </c>
@@ -17677,24 +18152,24 @@
       <c r="M318" s="60">
         <v>30</v>
       </c>
-      <c r="N318" s="192"/>
-      <c r="O318" s="192"/>
-      <c r="P318" s="192"/>
+      <c r="N318" s="227"/>
+      <c r="O318" s="227"/>
+      <c r="P318" s="227"/>
     </row>
     <row r="319" spans="1:16" ht="21">
       <c r="A319" s="177"/>
-      <c r="B319" s="193"/>
-      <c r="C319" s="220"/>
-      <c r="D319" s="193"/>
-      <c r="E319" s="196"/>
+      <c r="B319" s="228"/>
+      <c r="C319" s="208"/>
+      <c r="D319" s="228"/>
+      <c r="E319" s="237"/>
       <c r="F319" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G319" s="193"/>
+      <c r="G319" s="228"/>
       <c r="H319" s="60">
         <v>5100</v>
       </c>
-      <c r="I319" s="193"/>
+      <c r="I319" s="228"/>
       <c r="J319" s="63">
         <v>2.7820800000000001</v>
       </c>
@@ -17707,20 +18182,20 @@
       <c r="M319" s="60">
         <v>28</v>
       </c>
-      <c r="N319" s="193"/>
-      <c r="O319" s="193"/>
-      <c r="P319" s="193"/>
+      <c r="N319" s="228"/>
+      <c r="O319" s="228"/>
+      <c r="P319" s="228"/>
     </row>
     <row r="320" spans="1:16" ht="22.5">
       <c r="A320" s="177">
         <v>45694</v>
       </c>
-      <c r="B320" s="190" t="s">
+      <c r="B320" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C320" s="190"/>
-      <c r="D320" s="190"/>
-      <c r="E320" s="190"/>
+      <c r="C320" s="186"/>
+      <c r="D320" s="186"/>
+      <c r="E320" s="186"/>
       <c r="F320" s="64" t="s">
         <v>113</v>
       </c>
@@ -17789,12 +18264,12 @@
       <c r="A322" s="177">
         <v>45694</v>
       </c>
-      <c r="B322" s="190" t="s">
+      <c r="B322" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C322" s="190"/>
-      <c r="D322" s="190"/>
-      <c r="E322" s="190"/>
+      <c r="C322" s="186"/>
+      <c r="D322" s="186"/>
+      <c r="E322" s="186"/>
       <c r="F322" s="64" t="s">
         <v>23</v>
       </c>
@@ -17863,12 +18338,12 @@
       <c r="A324" s="177">
         <v>45706</v>
       </c>
-      <c r="B324" s="190" t="s">
+      <c r="B324" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C324" s="190"/>
-      <c r="D324" s="190"/>
-      <c r="E324" s="190"/>
+      <c r="C324" s="186"/>
+      <c r="D324" s="186"/>
+      <c r="E324" s="186"/>
       <c r="F324" s="64" t="s">
         <v>21</v>
       </c>
@@ -17937,12 +18412,12 @@
       </c>
     </row>
     <row r="326" spans="1:16" ht="22.5">
-      <c r="B326" s="190" t="s">
+      <c r="B326" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C326" s="190"/>
-      <c r="D326" s="190"/>
-      <c r="E326" s="190"/>
+      <c r="C326" s="186"/>
+      <c r="D326" s="186"/>
+      <c r="E326" s="186"/>
       <c r="F326" s="64" t="s">
         <v>21</v>
       </c>
@@ -18009,12 +18484,12 @@
       <c r="P327" s="60"/>
     </row>
     <row r="328" spans="1:16" ht="22.5">
-      <c r="B328" s="190" t="s">
+      <c r="B328" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C328" s="190"/>
-      <c r="D328" s="190"/>
-      <c r="E328" s="190"/>
+      <c r="C328" s="186"/>
+      <c r="D328" s="186"/>
+      <c r="E328" s="186"/>
       <c r="F328" s="64" t="s">
         <v>56</v>
       </c>
@@ -18034,14 +18509,14 @@
       <c r="P328" s="55"/>
     </row>
     <row r="329" spans="1:16" ht="42">
-      <c r="B329" s="210" t="s">
+      <c r="B329" s="203" t="s">
         <v>131</v>
       </c>
       <c r="C329" s="81"/>
-      <c r="D329" s="210" t="s">
+      <c r="D329" s="203" t="s">
         <v>53</v>
       </c>
-      <c r="E329" s="201">
+      <c r="E329" s="204">
         <v>45671</v>
       </c>
       <c r="F329" s="3" t="s">
@@ -18082,10 +18557,10 @@
       </c>
     </row>
     <row r="330" spans="1:16" ht="21">
-      <c r="B330" s="209"/>
+      <c r="B330" s="199"/>
       <c r="C330" s="81"/>
-      <c r="D330" s="209"/>
-      <c r="E330" s="203"/>
+      <c r="D330" s="199"/>
+      <c r="E330" s="205"/>
       <c r="F330" s="3" t="s">
         <v>133</v>
       </c>
@@ -18116,12 +18591,12 @@
       <c r="P330" s="81"/>
     </row>
     <row r="331" spans="1:16" ht="22.5">
-      <c r="B331" s="190" t="s">
+      <c r="B331" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C331" s="190"/>
-      <c r="D331" s="190"/>
-      <c r="E331" s="190"/>
+      <c r="C331" s="186"/>
+      <c r="D331" s="186"/>
+      <c r="E331" s="186"/>
       <c r="F331" s="64" t="s">
         <v>133</v>
       </c>
@@ -18143,28 +18618,28 @@
       <c r="P331" s="67"/>
     </row>
     <row r="332" spans="1:16" ht="21">
-      <c r="B332" s="191" t="s">
+      <c r="B332" s="234" t="s">
         <v>134</v>
       </c>
-      <c r="C332" s="191">
+      <c r="C332" s="234">
         <v>13924006350</v>
       </c>
-      <c r="D332" s="191" t="s">
+      <c r="D332" s="234" t="s">
         <v>64</v>
       </c>
-      <c r="E332" s="194">
+      <c r="E332" s="235">
         <v>45672</v>
       </c>
       <c r="F332" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G332" s="197" t="s">
+      <c r="G332" s="206" t="s">
         <v>135</v>
       </c>
       <c r="H332" s="60">
         <v>2</v>
       </c>
-      <c r="I332" s="191">
+      <c r="I332" s="234">
         <v>1478</v>
       </c>
       <c r="J332" s="63">
@@ -18180,29 +18655,29 @@
       <c r="M332" s="60">
         <v>43</v>
       </c>
-      <c r="N332" s="222">
+      <c r="N332" s="226">
         <v>45675</v>
       </c>
-      <c r="O332" s="222">
+      <c r="O332" s="226">
         <v>45703</v>
       </c>
-      <c r="P332" s="197" t="s">
+      <c r="P332" s="206" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="333" spans="1:16" ht="21">
-      <c r="B333" s="192"/>
-      <c r="C333" s="192"/>
-      <c r="D333" s="192"/>
-      <c r="E333" s="195"/>
+      <c r="B333" s="227"/>
+      <c r="C333" s="227"/>
+      <c r="D333" s="227"/>
+      <c r="E333" s="236"/>
       <c r="F333" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G333" s="219"/>
+      <c r="G333" s="207"/>
       <c r="H333" s="60">
         <v>1</v>
       </c>
-      <c r="I333" s="192"/>
+      <c r="I333" s="227"/>
       <c r="J333" s="63">
         <f t="shared" ref="J333:J339" si="2">K333*L333*M333/1000000</f>
         <v>2.494008</v>
@@ -18216,23 +18691,23 @@
       <c r="M333" s="60">
         <v>188</v>
       </c>
-      <c r="N333" s="192"/>
-      <c r="O333" s="192"/>
-      <c r="P333" s="219"/>
+      <c r="N333" s="227"/>
+      <c r="O333" s="227"/>
+      <c r="P333" s="207"/>
     </row>
     <row r="334" spans="1:16" ht="21">
-      <c r="B334" s="192"/>
-      <c r="C334" s="192"/>
-      <c r="D334" s="192"/>
-      <c r="E334" s="195"/>
+      <c r="B334" s="227"/>
+      <c r="C334" s="227"/>
+      <c r="D334" s="227"/>
+      <c r="E334" s="236"/>
       <c r="F334" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G334" s="219"/>
+      <c r="G334" s="207"/>
       <c r="H334" s="60">
         <v>1</v>
       </c>
-      <c r="I334" s="192"/>
+      <c r="I334" s="227"/>
       <c r="J334" s="63">
         <f t="shared" si="2"/>
         <v>2.4490620000000001</v>
@@ -18246,23 +18721,23 @@
       <c r="M334" s="60">
         <v>133</v>
       </c>
-      <c r="N334" s="192"/>
-      <c r="O334" s="192"/>
-      <c r="P334" s="219"/>
+      <c r="N334" s="227"/>
+      <c r="O334" s="227"/>
+      <c r="P334" s="207"/>
     </row>
     <row r="335" spans="1:16" ht="21">
-      <c r="B335" s="192"/>
-      <c r="C335" s="192"/>
-      <c r="D335" s="192"/>
-      <c r="E335" s="195"/>
+      <c r="B335" s="227"/>
+      <c r="C335" s="227"/>
+      <c r="D335" s="227"/>
+      <c r="E335" s="236"/>
       <c r="F335" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G335" s="219"/>
+      <c r="G335" s="207"/>
       <c r="H335" s="60">
         <v>1</v>
       </c>
-      <c r="I335" s="192"/>
+      <c r="I335" s="227"/>
       <c r="J335" s="63">
         <f t="shared" si="2"/>
         <v>0.10374</v>
@@ -18276,23 +18751,23 @@
       <c r="M335" s="60">
         <v>15</v>
       </c>
-      <c r="N335" s="192"/>
-      <c r="O335" s="192"/>
-      <c r="P335" s="219"/>
+      <c r="N335" s="227"/>
+      <c r="O335" s="227"/>
+      <c r="P335" s="207"/>
     </row>
     <row r="336" spans="1:16" ht="21">
-      <c r="B336" s="192"/>
-      <c r="C336" s="192"/>
-      <c r="D336" s="192"/>
-      <c r="E336" s="195"/>
+      <c r="B336" s="227"/>
+      <c r="C336" s="227"/>
+      <c r="D336" s="227"/>
+      <c r="E336" s="236"/>
       <c r="F336" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G336" s="219"/>
+      <c r="G336" s="207"/>
       <c r="H336" s="60">
         <v>1</v>
       </c>
-      <c r="I336" s="192"/>
+      <c r="I336" s="227"/>
       <c r="J336" s="63">
         <f t="shared" si="2"/>
         <v>1.81044</v>
@@ -18306,23 +18781,23 @@
       <c r="M336" s="60">
         <v>188</v>
       </c>
-      <c r="N336" s="192"/>
-      <c r="O336" s="192"/>
-      <c r="P336" s="219"/>
+      <c r="N336" s="227"/>
+      <c r="O336" s="227"/>
+      <c r="P336" s="207"/>
     </row>
     <row r="337" spans="1:16" ht="21">
-      <c r="B337" s="192"/>
-      <c r="C337" s="192"/>
-      <c r="D337" s="192"/>
-      <c r="E337" s="195"/>
+      <c r="B337" s="227"/>
+      <c r="C337" s="227"/>
+      <c r="D337" s="227"/>
+      <c r="E337" s="236"/>
       <c r="F337" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G337" s="219"/>
+      <c r="G337" s="207"/>
       <c r="H337" s="60">
         <v>1</v>
       </c>
-      <c r="I337" s="192"/>
+      <c r="I337" s="227"/>
       <c r="J337" s="63">
         <f t="shared" si="2"/>
         <v>1.7482500000000001</v>
@@ -18336,23 +18811,23 @@
       <c r="M337" s="60">
         <v>175</v>
       </c>
-      <c r="N337" s="192"/>
-      <c r="O337" s="192"/>
-      <c r="P337" s="219"/>
+      <c r="N337" s="227"/>
+      <c r="O337" s="227"/>
+      <c r="P337" s="207"/>
     </row>
     <row r="338" spans="1:16" ht="21">
-      <c r="B338" s="192"/>
-      <c r="C338" s="192"/>
-      <c r="D338" s="192"/>
-      <c r="E338" s="195"/>
+      <c r="B338" s="227"/>
+      <c r="C338" s="227"/>
+      <c r="D338" s="227"/>
+      <c r="E338" s="236"/>
       <c r="F338" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G338" s="219"/>
+      <c r="G338" s="207"/>
       <c r="H338" s="60">
         <v>1</v>
       </c>
-      <c r="I338" s="192"/>
+      <c r="I338" s="227"/>
       <c r="J338" s="63">
         <f t="shared" si="2"/>
         <v>1.2261599999999999</v>
@@ -18366,23 +18841,23 @@
       <c r="M338" s="60">
         <v>117</v>
       </c>
-      <c r="N338" s="192"/>
-      <c r="O338" s="192"/>
-      <c r="P338" s="219"/>
+      <c r="N338" s="227"/>
+      <c r="O338" s="227"/>
+      <c r="P338" s="207"/>
     </row>
     <row r="339" spans="1:16" ht="21">
-      <c r="B339" s="193"/>
-      <c r="C339" s="193"/>
-      <c r="D339" s="193"/>
-      <c r="E339" s="196"/>
+      <c r="B339" s="228"/>
+      <c r="C339" s="228"/>
+      <c r="D339" s="228"/>
+      <c r="E339" s="237"/>
       <c r="F339" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G339" s="220"/>
+      <c r="G339" s="208"/>
       <c r="H339" s="60">
         <v>1</v>
       </c>
-      <c r="I339" s="193"/>
+      <c r="I339" s="228"/>
       <c r="J339" s="63">
         <f t="shared" si="2"/>
         <v>2.0717599999999998</v>
@@ -18396,17 +18871,17 @@
       <c r="M339" s="60">
         <v>188</v>
       </c>
-      <c r="N339" s="193"/>
-      <c r="O339" s="193"/>
-      <c r="P339" s="220"/>
+      <c r="N339" s="228"/>
+      <c r="O339" s="228"/>
+      <c r="P339" s="208"/>
     </row>
     <row r="340" spans="1:16" ht="22.5">
-      <c r="B340" s="190" t="s">
+      <c r="B340" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C340" s="190"/>
-      <c r="D340" s="190"/>
-      <c r="E340" s="190"/>
+      <c r="C340" s="186"/>
+      <c r="D340" s="186"/>
+      <c r="E340" s="186"/>
       <c r="F340" s="64" t="s">
         <v>22</v>
       </c>
@@ -18475,12 +18950,12 @@
       </c>
     </row>
     <row r="342" spans="1:16" ht="22.5">
-      <c r="B342" s="190" t="s">
+      <c r="B342" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C342" s="190"/>
-      <c r="D342" s="190"/>
-      <c r="E342" s="190"/>
+      <c r="C342" s="186"/>
+      <c r="D342" s="186"/>
+      <c r="E342" s="186"/>
       <c r="F342" s="64" t="s">
         <v>21</v>
       </c>
@@ -18500,26 +18975,26 @@
       <c r="P342" s="67"/>
     </row>
     <row r="343" spans="1:16" ht="21">
-      <c r="B343" s="210" t="s">
+      <c r="B343" s="203" t="s">
         <v>182</v>
       </c>
-      <c r="C343" s="221" t="s">
+      <c r="C343" s="244" t="s">
         <v>183</v>
       </c>
-      <c r="D343" s="210" t="s">
+      <c r="D343" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="E343" s="201">
+      <c r="E343" s="204">
         <v>45674</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G343" s="229" t="s">
+      <c r="G343" s="238" t="s">
         <v>185</v>
       </c>
       <c r="H343" s="81"/>
-      <c r="I343" s="210">
+      <c r="I343" s="203">
         <v>80</v>
       </c>
       <c r="J343" s="10">
@@ -18539,16 +19014,16 @@
       <c r="P343" s="81"/>
     </row>
     <row r="344" spans="1:16" ht="21">
-      <c r="B344" s="211"/>
-      <c r="C344" s="211"/>
-      <c r="D344" s="211"/>
-      <c r="E344" s="202"/>
+      <c r="B344" s="198"/>
+      <c r="C344" s="198"/>
+      <c r="D344" s="198"/>
+      <c r="E344" s="215"/>
       <c r="F344" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G344" s="211"/>
+      <c r="G344" s="198"/>
       <c r="H344" s="81"/>
-      <c r="I344" s="211"/>
+      <c r="I344" s="198"/>
       <c r="J344" s="10">
         <v>9.3149999999999997E-2</v>
       </c>
@@ -18566,16 +19041,16 @@
       <c r="P344" s="81"/>
     </row>
     <row r="345" spans="1:16" ht="21">
-      <c r="B345" s="211"/>
-      <c r="C345" s="211"/>
-      <c r="D345" s="211"/>
-      <c r="E345" s="202"/>
+      <c r="B345" s="198"/>
+      <c r="C345" s="198"/>
+      <c r="D345" s="198"/>
+      <c r="E345" s="215"/>
       <c r="F345" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G345" s="211"/>
+      <c r="G345" s="198"/>
       <c r="H345" s="81"/>
-      <c r="I345" s="211"/>
+      <c r="I345" s="198"/>
       <c r="J345" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -18593,16 +19068,16 @@
       <c r="P345" s="81"/>
     </row>
     <row r="346" spans="1:16" ht="21">
-      <c r="B346" s="211"/>
-      <c r="C346" s="211"/>
-      <c r="D346" s="211"/>
-      <c r="E346" s="202"/>
+      <c r="B346" s="198"/>
+      <c r="C346" s="198"/>
+      <c r="D346" s="198"/>
+      <c r="E346" s="215"/>
       <c r="F346" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G346" s="211"/>
+      <c r="G346" s="198"/>
       <c r="H346" s="81"/>
-      <c r="I346" s="211"/>
+      <c r="I346" s="198"/>
       <c r="J346" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -18620,16 +19095,16 @@
       <c r="P346" s="81"/>
     </row>
     <row r="347" spans="1:16" ht="21">
-      <c r="B347" s="209"/>
-      <c r="C347" s="209"/>
-      <c r="D347" s="209"/>
-      <c r="E347" s="203"/>
+      <c r="B347" s="199"/>
+      <c r="C347" s="199"/>
+      <c r="D347" s="199"/>
+      <c r="E347" s="205"/>
       <c r="F347" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G347" s="209"/>
+      <c r="G347" s="199"/>
       <c r="H347" s="81"/>
-      <c r="I347" s="209"/>
+      <c r="I347" s="199"/>
       <c r="J347" s="10">
         <v>2.4570000000000002E-2</v>
       </c>
@@ -18647,12 +19122,12 @@
       <c r="P347" s="81"/>
     </row>
     <row r="348" spans="1:16" ht="22.5">
-      <c r="B348" s="190" t="s">
+      <c r="B348" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C348" s="190"/>
-      <c r="D348" s="190"/>
-      <c r="E348" s="190"/>
+      <c r="C348" s="186"/>
+      <c r="D348" s="186"/>
+      <c r="E348" s="186"/>
       <c r="F348" s="64" t="s">
         <v>13</v>
       </c>
@@ -18720,12 +19195,12 @@
       </c>
     </row>
     <row r="350" spans="1:16" ht="22.5">
-      <c r="B350" s="232" t="s">
+      <c r="B350" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C350" s="233"/>
-      <c r="D350" s="233"/>
-      <c r="E350" s="234"/>
+      <c r="C350" s="201"/>
+      <c r="D350" s="201"/>
+      <c r="E350" s="202"/>
       <c r="F350" s="64" t="s">
         <v>21</v>
       </c>
@@ -18748,29 +19223,29 @@
     </row>
     <row r="351" spans="1:16" ht="21">
       <c r="A351" s="177"/>
-      <c r="B351" s="210" t="s">
+      <c r="B351" s="203" t="s">
         <v>190</v>
       </c>
-      <c r="C351" s="210" t="s">
+      <c r="C351" s="203" t="s">
         <v>191</v>
       </c>
-      <c r="D351" s="210" t="s">
+      <c r="D351" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="E351" s="201">
+      <c r="E351" s="204">
         <v>45675</v>
       </c>
       <c r="F351" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G351" s="210" t="s">
+      <c r="G351" s="203" t="s">
         <v>192</v>
       </c>
       <c r="H351" s="81">
         <f>247*2</f>
         <v>494</v>
       </c>
-      <c r="I351" s="210">
+      <c r="I351" s="203">
         <v>1907</v>
       </c>
       <c r="J351" s="10">
@@ -18786,31 +19261,31 @@
       <c r="M351" s="81">
         <v>26</v>
       </c>
-      <c r="N351" s="208">
+      <c r="N351" s="241">
         <v>45680</v>
       </c>
-      <c r="O351" s="208">
+      <c r="O351" s="241">
         <v>45712</v>
       </c>
-      <c r="P351" s="210" t="s">
+      <c r="P351" s="203" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="352" spans="1:16" ht="21">
       <c r="A352" s="177"/>
-      <c r="B352" s="211"/>
-      <c r="C352" s="211"/>
-      <c r="D352" s="211"/>
-      <c r="E352" s="202"/>
+      <c r="B352" s="198"/>
+      <c r="C352" s="198"/>
+      <c r="D352" s="198"/>
+      <c r="E352" s="215"/>
       <c r="F352" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G352" s="211"/>
+      <c r="G352" s="198"/>
       <c r="H352" s="81">
         <f>247*5</f>
         <v>1235</v>
       </c>
-      <c r="I352" s="211"/>
+      <c r="I352" s="198"/>
       <c r="J352" s="10">
         <f>K352*L352*M352/1000000*5</f>
         <v>0.30887999999999999</v>
@@ -18824,25 +19299,25 @@
       <c r="M352" s="81">
         <v>36</v>
       </c>
-      <c r="N352" s="211"/>
-      <c r="O352" s="211"/>
-      <c r="P352" s="211"/>
+      <c r="N352" s="198"/>
+      <c r="O352" s="198"/>
+      <c r="P352" s="198"/>
     </row>
     <row r="353" spans="1:16" ht="21">
       <c r="A353" s="177"/>
-      <c r="B353" s="211"/>
-      <c r="C353" s="211"/>
-      <c r="D353" s="211"/>
-      <c r="E353" s="202"/>
+      <c r="B353" s="198"/>
+      <c r="C353" s="198"/>
+      <c r="D353" s="198"/>
+      <c r="E353" s="215"/>
       <c r="F353" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G353" s="211"/>
+      <c r="G353" s="198"/>
       <c r="H353" s="81">
         <f>248*4</f>
         <v>992</v>
       </c>
-      <c r="I353" s="211"/>
+      <c r="I353" s="198"/>
       <c r="J353" s="10">
         <f>K353*L353*M353/1000000*4</f>
         <v>6.0720000000000003E-2</v>
@@ -18856,25 +19331,25 @@
       <c r="M353" s="81">
         <v>20</v>
       </c>
-      <c r="N353" s="211"/>
-      <c r="O353" s="211"/>
-      <c r="P353" s="211"/>
+      <c r="N353" s="198"/>
+      <c r="O353" s="198"/>
+      <c r="P353" s="198"/>
     </row>
     <row r="354" spans="1:16" ht="21">
       <c r="A354" s="177"/>
-      <c r="B354" s="211"/>
-      <c r="C354" s="211"/>
-      <c r="D354" s="211"/>
-      <c r="E354" s="202"/>
+      <c r="B354" s="198"/>
+      <c r="C354" s="198"/>
+      <c r="D354" s="198"/>
+      <c r="E354" s="215"/>
       <c r="F354" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G354" s="211"/>
+      <c r="G354" s="198"/>
       <c r="H354" s="81">
         <f>247*25</f>
         <v>6175</v>
       </c>
-      <c r="I354" s="211"/>
+      <c r="I354" s="198"/>
       <c r="J354" s="10">
         <f>K354*L354*M354/1000000*25</f>
         <v>0.39899999999999997</v>
@@ -18888,25 +19363,25 @@
       <c r="M354" s="81">
         <v>19</v>
       </c>
-      <c r="N354" s="211"/>
-      <c r="O354" s="211"/>
-      <c r="P354" s="211"/>
+      <c r="N354" s="198"/>
+      <c r="O354" s="198"/>
+      <c r="P354" s="198"/>
     </row>
     <row r="355" spans="1:16" ht="21">
       <c r="A355" s="177"/>
-      <c r="B355" s="211"/>
-      <c r="C355" s="211"/>
-      <c r="D355" s="211"/>
-      <c r="E355" s="202"/>
+      <c r="B355" s="198"/>
+      <c r="C355" s="198"/>
+      <c r="D355" s="198"/>
+      <c r="E355" s="215"/>
       <c r="F355" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G355" s="211"/>
+      <c r="G355" s="198"/>
       <c r="H355" s="81">
         <f>247*10</f>
         <v>2470</v>
       </c>
-      <c r="I355" s="211"/>
+      <c r="I355" s="198"/>
       <c r="J355" s="10">
         <f>K355*L355*M355/1000000*10</f>
         <v>0.60060000000000002</v>
@@ -18920,25 +19395,25 @@
       <c r="M355" s="81">
         <v>35</v>
       </c>
-      <c r="N355" s="211"/>
-      <c r="O355" s="211"/>
-      <c r="P355" s="211"/>
+      <c r="N355" s="198"/>
+      <c r="O355" s="198"/>
+      <c r="P355" s="198"/>
     </row>
     <row r="356" spans="1:16" ht="21">
       <c r="A356" s="177"/>
-      <c r="B356" s="211"/>
-      <c r="C356" s="211"/>
-      <c r="D356" s="211"/>
-      <c r="E356" s="202"/>
+      <c r="B356" s="198"/>
+      <c r="C356" s="198"/>
+      <c r="D356" s="198"/>
+      <c r="E356" s="215"/>
       <c r="F356" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G356" s="211"/>
+      <c r="G356" s="198"/>
       <c r="H356" s="81">
         <f>248*5</f>
         <v>1240</v>
       </c>
-      <c r="I356" s="211"/>
+      <c r="I356" s="198"/>
       <c r="J356" s="10">
         <f>K356*L356*M356/1000000*5</f>
         <v>0.16355999999999998</v>
@@ -18952,25 +19427,25 @@
       <c r="M356" s="81">
         <v>24</v>
       </c>
-      <c r="N356" s="211"/>
-      <c r="O356" s="211"/>
-      <c r="P356" s="211"/>
+      <c r="N356" s="198"/>
+      <c r="O356" s="198"/>
+      <c r="P356" s="198"/>
     </row>
     <row r="357" spans="1:16" ht="21">
       <c r="A357" s="177"/>
-      <c r="B357" s="209"/>
-      <c r="C357" s="209"/>
-      <c r="D357" s="209"/>
-      <c r="E357" s="203"/>
+      <c r="B357" s="199"/>
+      <c r="C357" s="199"/>
+      <c r="D357" s="199"/>
+      <c r="E357" s="205"/>
       <c r="F357" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G357" s="209"/>
+      <c r="G357" s="199"/>
       <c r="H357" s="81">
         <f>248*15</f>
         <v>3720</v>
       </c>
-      <c r="I357" s="209"/>
+      <c r="I357" s="199"/>
       <c r="J357" s="10">
         <f>K357*L357*M357/1000000*15</f>
         <v>0.76690499999999995</v>
@@ -18984,20 +19459,20 @@
       <c r="M357" s="81">
         <v>29</v>
       </c>
-      <c r="N357" s="209"/>
-      <c r="O357" s="209"/>
-      <c r="P357" s="209"/>
+      <c r="N357" s="199"/>
+      <c r="O357" s="199"/>
+      <c r="P357" s="199"/>
     </row>
     <row r="358" spans="1:16" ht="22.5">
       <c r="A358" s="177">
         <v>45708</v>
       </c>
-      <c r="B358" s="190" t="s">
+      <c r="B358" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C358" s="190"/>
-      <c r="D358" s="190"/>
-      <c r="E358" s="190"/>
+      <c r="C358" s="186"/>
+      <c r="D358" s="186"/>
+      <c r="E358" s="186"/>
       <c r="F358" s="64" t="s">
         <v>198</v>
       </c>
@@ -19019,29 +19494,29 @@
       <c r="P358" s="67"/>
     </row>
     <row r="359" spans="1:16" ht="21">
-      <c r="B359" s="210" t="s">
+      <c r="B359" s="203" t="s">
         <v>199</v>
       </c>
-      <c r="C359" s="210" t="s">
+      <c r="C359" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="D359" s="210" t="s">
+      <c r="D359" s="203" t="s">
         <v>73</v>
       </c>
-      <c r="E359" s="201">
+      <c r="E359" s="204">
         <v>45676</v>
       </c>
       <c r="F359" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G359" s="210" t="s">
+      <c r="G359" s="203" t="s">
         <v>71</v>
       </c>
       <c r="H359" s="81">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I359" s="210">
+      <c r="I359" s="203">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -19058,30 +19533,30 @@
       <c r="M359" s="81">
         <v>29</v>
       </c>
-      <c r="N359" s="208">
+      <c r="N359" s="241">
         <v>45679</v>
       </c>
-      <c r="O359" s="208">
+      <c r="O359" s="241">
         <v>45716</v>
       </c>
-      <c r="P359" s="210" t="s">
+      <c r="P359" s="203" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="360" spans="1:16" ht="21">
-      <c r="B360" s="209"/>
-      <c r="C360" s="209"/>
-      <c r="D360" s="209"/>
-      <c r="E360" s="203"/>
+      <c r="B360" s="199"/>
+      <c r="C360" s="199"/>
+      <c r="D360" s="199"/>
+      <c r="E360" s="205"/>
       <c r="F360" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G360" s="209"/>
+      <c r="G360" s="199"/>
       <c r="H360" s="81">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I360" s="209"/>
+      <c r="I360" s="199"/>
       <c r="J360" s="10">
         <f>K360*L360*M360/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -19095,17 +19570,17 @@
       <c r="M360" s="81">
         <v>36</v>
       </c>
-      <c r="N360" s="209"/>
-      <c r="O360" s="209"/>
-      <c r="P360" s="209"/>
+      <c r="N360" s="199"/>
+      <c r="O360" s="199"/>
+      <c r="P360" s="199"/>
     </row>
     <row r="361" spans="1:16" ht="22.5">
-      <c r="B361" s="190" t="s">
+      <c r="B361" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C361" s="190"/>
-      <c r="D361" s="190"/>
-      <c r="E361" s="190"/>
+      <c r="C361" s="186"/>
+      <c r="D361" s="186"/>
+      <c r="E361" s="186"/>
       <c r="F361" s="64" t="s">
         <v>201</v>
       </c>
@@ -19127,27 +19602,27 @@
       <c r="P361" s="67"/>
     </row>
     <row r="362" spans="1:16" ht="21">
-      <c r="B362" s="205" t="s">
+      <c r="B362" s="222" t="s">
         <v>202</v>
       </c>
-      <c r="C362" s="205"/>
-      <c r="D362" s="205" t="s">
+      <c r="C362" s="222"/>
+      <c r="D362" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="E362" s="186">
+      <c r="E362" s="189">
         <v>45677</v>
       </c>
       <c r="F362" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="G362" s="205" t="s">
+      <c r="G362" s="222" t="s">
         <v>71</v>
       </c>
       <c r="H362" s="90">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I362" s="205">
+      <c r="I362" s="222">
         <f>25*169</f>
         <v>4225</v>
       </c>
@@ -19164,30 +19639,30 @@
       <c r="M362" s="90">
         <v>40</v>
       </c>
-      <c r="N362" s="228">
+      <c r="N362" s="242">
         <v>45680</v>
       </c>
-      <c r="O362" s="228">
+      <c r="O362" s="242">
         <v>45716</v>
       </c>
-      <c r="P362" s="205" t="s">
+      <c r="P362" s="222" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="363" spans="1:16" ht="21">
-      <c r="B363" s="206"/>
-      <c r="C363" s="206"/>
-      <c r="D363" s="206"/>
-      <c r="E363" s="204"/>
+      <c r="B363" s="243"/>
+      <c r="C363" s="243"/>
+      <c r="D363" s="243"/>
+      <c r="E363" s="230"/>
       <c r="F363" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="G363" s="206"/>
+      <c r="G363" s="243"/>
       <c r="H363" s="90">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I363" s="206"/>
+      <c r="I363" s="243"/>
       <c r="J363" s="158">
         <f>K363*L363*M363/1000000*16</f>
         <v>1.66656</v>
@@ -19201,24 +19676,24 @@
       <c r="M363" s="90">
         <v>28</v>
       </c>
-      <c r="N363" s="206"/>
-      <c r="O363" s="206"/>
-      <c r="P363" s="206"/>
+      <c r="N363" s="243"/>
+      <c r="O363" s="243"/>
+      <c r="P363" s="243"/>
     </row>
     <row r="364" spans="1:16" ht="21">
-      <c r="B364" s="207"/>
-      <c r="C364" s="207"/>
-      <c r="D364" s="207"/>
-      <c r="E364" s="187"/>
+      <c r="B364" s="223"/>
+      <c r="C364" s="223"/>
+      <c r="D364" s="223"/>
+      <c r="E364" s="190"/>
       <c r="F364" s="157" t="s">
         <v>544</v>
       </c>
-      <c r="G364" s="207"/>
+      <c r="G364" s="223"/>
       <c r="H364" s="90">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I364" s="207"/>
+      <c r="I364" s="223"/>
       <c r="J364" s="158">
         <f>K364*L364*M364/1000000*100</f>
         <v>11.899999999999999</v>
@@ -19232,17 +19707,17 @@
       <c r="M364" s="90">
         <v>70</v>
       </c>
-      <c r="N364" s="207"/>
-      <c r="O364" s="207"/>
-      <c r="P364" s="207"/>
+      <c r="N364" s="223"/>
+      <c r="O364" s="223"/>
+      <c r="P364" s="223"/>
     </row>
     <row r="365" spans="1:16" ht="22.5">
-      <c r="B365" s="190" t="s">
+      <c r="B365" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C365" s="190"/>
-      <c r="D365" s="190"/>
-      <c r="E365" s="190"/>
+      <c r="C365" s="186"/>
+      <c r="D365" s="186"/>
+      <c r="E365" s="186"/>
       <c r="F365" s="153" t="s">
         <v>545</v>
       </c>
@@ -19312,12 +19787,12 @@
       </c>
     </row>
     <row r="367" spans="1:16" ht="22.5">
-      <c r="B367" s="190" t="s">
+      <c r="B367" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C367" s="190"/>
-      <c r="D367" s="190"/>
-      <c r="E367" s="190"/>
+      <c r="C367" s="186"/>
+      <c r="D367" s="186"/>
+      <c r="E367" s="186"/>
       <c r="F367" s="153" t="s">
         <v>548</v>
       </c>
@@ -19339,28 +19814,28 @@
       <c r="P367" s="92"/>
     </row>
     <row r="368" spans="1:16" ht="21">
-      <c r="B368" s="210" t="s">
+      <c r="B368" s="203" t="s">
         <v>205</v>
       </c>
-      <c r="C368" s="221" t="s">
+      <c r="C368" s="244" t="s">
         <v>206</v>
       </c>
-      <c r="D368" s="210" t="s">
+      <c r="D368" s="203" t="s">
         <v>207</v>
       </c>
-      <c r="E368" s="201">
+      <c r="E368" s="204">
         <v>45678</v>
       </c>
       <c r="F368" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G368" s="210" t="s">
+      <c r="G368" s="203" t="s">
         <v>32</v>
       </c>
       <c r="H368" s="81">
         <v>1</v>
       </c>
-      <c r="I368" s="210">
+      <c r="I368" s="203">
         <v>37</v>
       </c>
       <c r="J368" s="10">
@@ -19376,29 +19851,29 @@
       <c r="M368" s="81">
         <v>40</v>
       </c>
-      <c r="N368" s="208">
+      <c r="N368" s="241">
         <v>45681</v>
       </c>
-      <c r="O368" s="208">
+      <c r="O368" s="241">
         <v>45714</v>
       </c>
-      <c r="P368" s="210" t="s">
+      <c r="P368" s="203" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="369" spans="2:16" ht="21">
-      <c r="B369" s="211"/>
-      <c r="C369" s="211"/>
-      <c r="D369" s="211"/>
-      <c r="E369" s="202"/>
+      <c r="B369" s="198"/>
+      <c r="C369" s="198"/>
+      <c r="D369" s="198"/>
+      <c r="E369" s="215"/>
       <c r="F369" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G369" s="211"/>
+      <c r="G369" s="198"/>
       <c r="H369" s="81">
         <v>10</v>
       </c>
-      <c r="I369" s="211"/>
+      <c r="I369" s="198"/>
       <c r="J369" s="10">
         <f t="shared" si="3"/>
         <v>0.18360000000000001</v>
@@ -19412,23 +19887,23 @@
       <c r="M369" s="81">
         <v>85</v>
       </c>
-      <c r="N369" s="211"/>
-      <c r="O369" s="211"/>
-      <c r="P369" s="211"/>
+      <c r="N369" s="198"/>
+      <c r="O369" s="198"/>
+      <c r="P369" s="198"/>
     </row>
     <row r="370" spans="2:16" ht="21">
-      <c r="B370" s="211"/>
-      <c r="C370" s="211"/>
-      <c r="D370" s="211"/>
-      <c r="E370" s="202"/>
+      <c r="B370" s="198"/>
+      <c r="C370" s="198"/>
+      <c r="D370" s="198"/>
+      <c r="E370" s="215"/>
       <c r="F370" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G370" s="211"/>
+      <c r="G370" s="198"/>
       <c r="H370" s="81">
         <v>10</v>
       </c>
-      <c r="I370" s="211"/>
+      <c r="I370" s="198"/>
       <c r="J370" s="10">
         <f t="shared" si="3"/>
         <v>0.18240999999999999</v>
@@ -19442,23 +19917,23 @@
       <c r="M370" s="81">
         <v>37</v>
       </c>
-      <c r="N370" s="211"/>
-      <c r="O370" s="211"/>
-      <c r="P370" s="211"/>
+      <c r="N370" s="198"/>
+      <c r="O370" s="198"/>
+      <c r="P370" s="198"/>
     </row>
     <row r="371" spans="2:16" ht="21">
-      <c r="B371" s="209"/>
-      <c r="C371" s="209"/>
-      <c r="D371" s="209"/>
-      <c r="E371" s="203"/>
+      <c r="B371" s="199"/>
+      <c r="C371" s="199"/>
+      <c r="D371" s="199"/>
+      <c r="E371" s="205"/>
       <c r="F371" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G371" s="209"/>
+      <c r="G371" s="199"/>
       <c r="H371" s="81">
         <v>2</v>
       </c>
-      <c r="I371" s="209"/>
+      <c r="I371" s="199"/>
       <c r="J371" s="10">
         <f t="shared" si="3"/>
         <v>4.9919999999999999E-2</v>
@@ -19472,33 +19947,33 @@
       <c r="M371" s="81">
         <v>20</v>
       </c>
-      <c r="N371" s="211"/>
-      <c r="O371" s="211"/>
-      <c r="P371" s="211"/>
+      <c r="N371" s="198"/>
+      <c r="O371" s="198"/>
+      <c r="P371" s="198"/>
     </row>
     <row r="372" spans="2:16" ht="21">
-      <c r="B372" s="210" t="s">
+      <c r="B372" s="203" t="s">
         <v>208</v>
       </c>
       <c r="C372" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="D372" s="210" t="s">
+      <c r="D372" s="203" t="s">
         <v>207</v>
       </c>
-      <c r="E372" s="201">
+      <c r="E372" s="204">
         <v>45678</v>
       </c>
       <c r="F372" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G372" s="210" t="s">
+      <c r="G372" s="203" t="s">
         <v>32</v>
       </c>
       <c r="H372" s="81">
         <v>3</v>
       </c>
-      <c r="I372" s="210">
+      <c r="I372" s="203">
         <v>20</v>
       </c>
       <c r="J372" s="10">
@@ -19514,25 +19989,25 @@
       <c r="M372" s="81">
         <v>28</v>
       </c>
-      <c r="N372" s="211"/>
-      <c r="O372" s="211"/>
-      <c r="P372" s="211"/>
+      <c r="N372" s="198"/>
+      <c r="O372" s="198"/>
+      <c r="P372" s="198"/>
     </row>
     <row r="373" spans="2:16" ht="21">
-      <c r="B373" s="211"/>
+      <c r="B373" s="198"/>
       <c r="C373" s="81">
         <v>2660</v>
       </c>
-      <c r="D373" s="211"/>
-      <c r="E373" s="202"/>
+      <c r="D373" s="198"/>
+      <c r="E373" s="215"/>
       <c r="F373" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G373" s="211"/>
+      <c r="G373" s="198"/>
       <c r="H373" s="81">
         <v>10</v>
       </c>
-      <c r="I373" s="211"/>
+      <c r="I373" s="198"/>
       <c r="J373" s="10">
         <f t="shared" si="3"/>
         <v>4.2335999999999999E-2</v>
@@ -19546,25 +20021,25 @@
       <c r="M373" s="81">
         <v>28</v>
       </c>
-      <c r="N373" s="211"/>
-      <c r="O373" s="211"/>
-      <c r="P373" s="211"/>
+      <c r="N373" s="198"/>
+      <c r="O373" s="198"/>
+      <c r="P373" s="198"/>
     </row>
     <row r="374" spans="2:16" ht="21">
-      <c r="B374" s="209"/>
+      <c r="B374" s="199"/>
       <c r="C374" s="81">
         <v>2461</v>
       </c>
-      <c r="D374" s="209"/>
-      <c r="E374" s="203"/>
+      <c r="D374" s="199"/>
+      <c r="E374" s="205"/>
       <c r="F374" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G374" s="209"/>
+      <c r="G374" s="199"/>
       <c r="H374" s="81">
         <v>130</v>
       </c>
-      <c r="I374" s="209"/>
+      <c r="I374" s="199"/>
       <c r="J374" s="10">
         <f t="shared" si="3"/>
         <v>0.1176</v>
@@ -19578,17 +20053,17 @@
       <c r="M374" s="81">
         <v>56</v>
       </c>
-      <c r="N374" s="209"/>
-      <c r="O374" s="209"/>
-      <c r="P374" s="209"/>
+      <c r="N374" s="199"/>
+      <c r="O374" s="199"/>
+      <c r="P374" s="199"/>
     </row>
     <row r="375" spans="2:16" ht="22.5">
-      <c r="B375" s="190" t="s">
+      <c r="B375" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C375" s="190"/>
-      <c r="D375" s="190"/>
-      <c r="E375" s="190"/>
+      <c r="C375" s="186"/>
+      <c r="D375" s="186"/>
+      <c r="E375" s="186"/>
       <c r="F375" s="64" t="s">
         <v>31</v>
       </c>
@@ -19657,12 +20132,12 @@
       </c>
     </row>
     <row r="377" spans="2:16" ht="22.5">
-      <c r="B377" s="190" t="s">
+      <c r="B377" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C377" s="190"/>
-      <c r="D377" s="190"/>
-      <c r="E377" s="190"/>
+      <c r="C377" s="186"/>
+      <c r="D377" s="186"/>
+      <c r="E377" s="186"/>
       <c r="F377" s="153" t="s">
         <v>30</v>
       </c>
@@ -19682,28 +20157,28 @@
       <c r="P377" s="97"/>
     </row>
     <row r="378" spans="2:16" ht="21">
-      <c r="B378" s="212" t="s">
+      <c r="B378" s="209" t="s">
         <v>479</v>
       </c>
-      <c r="C378" s="212" t="s">
+      <c r="C378" s="209" t="s">
         <v>480</v>
       </c>
-      <c r="D378" s="212" t="s">
+      <c r="D378" s="209" t="s">
         <v>74</v>
       </c>
-      <c r="E378" s="215">
+      <c r="E378" s="211">
         <v>45702</v>
       </c>
       <c r="F378" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G378" s="212" t="s">
+      <c r="G378" s="209" t="s">
         <v>481</v>
       </c>
       <c r="H378" s="94">
         <v>65</v>
       </c>
-      <c r="I378" s="212">
+      <c r="I378" s="209">
         <v>2065</v>
       </c>
       <c r="J378" s="95">
@@ -19718,13 +20193,13 @@
       <c r="M378" s="94">
         <v>171</v>
       </c>
-      <c r="N378" s="218">
+      <c r="N378" s="249">
         <v>45707</v>
       </c>
-      <c r="O378" s="218">
+      <c r="O378" s="249">
         <v>45737</v>
       </c>
-      <c r="P378" s="212" t="s">
+      <c r="P378" s="209" t="s">
         <v>551</v>
       </c>
     </row>
@@ -19732,11 +20207,11 @@
       <c r="B379" s="213"/>
       <c r="C379" s="213"/>
       <c r="D379" s="213"/>
-      <c r="E379" s="216"/>
+      <c r="E379" s="214"/>
       <c r="F379" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="G379" s="214"/>
+      <c r="G379" s="210"/>
       <c r="H379" s="94">
         <v>65</v>
       </c>
@@ -19758,10 +20233,10 @@
       <c r="P379" s="213"/>
     </row>
     <row r="380" spans="2:16" ht="42">
-      <c r="B380" s="214"/>
-      <c r="C380" s="214"/>
-      <c r="D380" s="214"/>
-      <c r="E380" s="217"/>
+      <c r="B380" s="210"/>
+      <c r="C380" s="210"/>
+      <c r="D380" s="210"/>
+      <c r="E380" s="212"/>
       <c r="F380" s="93" t="s">
         <v>482</v>
       </c>
@@ -19771,7 +20246,7 @@
       <c r="H380" s="94">
         <v>180</v>
       </c>
-      <c r="I380" s="214"/>
+      <c r="I380" s="210"/>
       <c r="J380" s="95">
         <v>4.4021999999999997</v>
       </c>
@@ -19784,17 +20259,17 @@
       <c r="M380" s="94">
         <v>165</v>
       </c>
-      <c r="N380" s="214"/>
-      <c r="O380" s="214"/>
-      <c r="P380" s="214"/>
+      <c r="N380" s="210"/>
+      <c r="O380" s="210"/>
+      <c r="P380" s="210"/>
     </row>
     <row r="381" spans="2:16" ht="22.5">
-      <c r="B381" s="190" t="s">
+      <c r="B381" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C381" s="190"/>
-      <c r="D381" s="190"/>
-      <c r="E381" s="190"/>
+      <c r="C381" s="186"/>
+      <c r="D381" s="186"/>
+      <c r="E381" s="186"/>
       <c r="F381" s="153" t="s">
         <v>25</v>
       </c>
@@ -19861,12 +20336,12 @@
       </c>
     </row>
     <row r="383" spans="2:16" ht="22.5">
-      <c r="B383" s="190" t="s">
+      <c r="B383" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C383" s="190"/>
-      <c r="D383" s="190"/>
-      <c r="E383" s="190"/>
+      <c r="C383" s="186"/>
+      <c r="D383" s="186"/>
+      <c r="E383" s="186"/>
       <c r="F383" s="153" t="s">
         <v>15</v>
       </c>
@@ -19927,12 +20402,12 @@
       </c>
     </row>
     <row r="385" spans="2:16" ht="22.5">
-      <c r="B385" s="190" t="s">
+      <c r="B385" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C385" s="190"/>
-      <c r="D385" s="190"/>
-      <c r="E385" s="190"/>
+      <c r="C385" s="186"/>
+      <c r="D385" s="186"/>
+      <c r="E385" s="186"/>
       <c r="F385" s="153" t="s">
         <v>21</v>
       </c>
@@ -20001,12 +20476,12 @@
       </c>
     </row>
     <row r="387" spans="2:16" ht="22.5">
-      <c r="B387" s="190" t="s">
+      <c r="B387" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C387" s="190"/>
-      <c r="D387" s="190"/>
-      <c r="E387" s="190"/>
+      <c r="C387" s="186"/>
+      <c r="D387" s="186"/>
+      <c r="E387" s="186"/>
       <c r="F387" s="153" t="s">
         <v>516</v>
       </c>
@@ -20067,12 +20542,12 @@
       <c r="P388" s="90"/>
     </row>
     <row r="389" spans="2:16" ht="22.5">
-      <c r="B389" s="190" t="s">
+      <c r="B389" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C389" s="190"/>
-      <c r="D389" s="190"/>
-      <c r="E389" s="190"/>
+      <c r="C389" s="186"/>
+      <c r="D389" s="186"/>
+      <c r="E389" s="186"/>
       <c r="F389" s="153" t="s">
         <v>19</v>
       </c>
@@ -20136,12 +20611,12 @@
       <c r="P390" s="94"/>
     </row>
     <row r="391" spans="2:16" ht="22.5">
-      <c r="B391" s="190" t="s">
+      <c r="B391" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C391" s="190"/>
-      <c r="D391" s="190"/>
-      <c r="E391" s="190"/>
+      <c r="C391" s="186"/>
+      <c r="D391" s="186"/>
+      <c r="E391" s="186"/>
       <c r="F391" s="153" t="s">
         <v>557</v>
       </c>
@@ -20208,12 +20683,12 @@
       <c r="P392" s="90"/>
     </row>
     <row r="393" spans="2:16" ht="22.5">
-      <c r="B393" s="190" t="s">
+      <c r="B393" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C393" s="190"/>
-      <c r="D393" s="190"/>
-      <c r="E393" s="190"/>
+      <c r="C393" s="186"/>
+      <c r="D393" s="186"/>
+      <c r="E393" s="186"/>
       <c r="F393" s="153" t="s">
         <v>560</v>
       </c>
@@ -20282,12 +20757,12 @@
       </c>
     </row>
     <row r="395" spans="2:16" ht="22.5">
-      <c r="B395" s="190" t="s">
+      <c r="B395" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C395" s="190"/>
-      <c r="D395" s="190"/>
-      <c r="E395" s="190"/>
+      <c r="C395" s="186"/>
+      <c r="D395" s="186"/>
+      <c r="E395" s="186"/>
       <c r="F395" s="153" t="s">
         <v>564</v>
       </c>
@@ -20350,12 +20825,12 @@
       </c>
     </row>
     <row r="397" spans="2:16" ht="22.5">
-      <c r="B397" s="190" t="s">
+      <c r="B397" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C397" s="190"/>
-      <c r="D397" s="190"/>
-      <c r="E397" s="190"/>
+      <c r="C397" s="186"/>
+      <c r="D397" s="186"/>
+      <c r="E397" s="186"/>
       <c r="F397" s="153" t="s">
         <v>22</v>
       </c>
@@ -20420,12 +20895,12 @@
       </c>
     </row>
     <row r="399" spans="2:16" ht="22.5">
-      <c r="B399" s="190" t="s">
+      <c r="B399" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C399" s="190"/>
-      <c r="D399" s="190"/>
-      <c r="E399" s="190"/>
+      <c r="C399" s="186"/>
+      <c r="D399" s="186"/>
+      <c r="E399" s="186"/>
       <c r="F399" s="64" t="s">
         <v>30</v>
       </c>
@@ -20492,12 +20967,12 @@
       </c>
     </row>
     <row r="401" spans="2:16" ht="22.5">
-      <c r="B401" s="190" t="s">
+      <c r="B401" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C401" s="190"/>
-      <c r="D401" s="190"/>
-      <c r="E401" s="190"/>
+      <c r="C401" s="186"/>
+      <c r="D401" s="186"/>
+      <c r="E401" s="186"/>
       <c r="F401" s="64" t="s">
         <v>516</v>
       </c>
@@ -20560,12 +21035,12 @@
       <c r="P402" s="81"/>
     </row>
     <row r="403" spans="2:16" ht="22.5">
-      <c r="B403" s="190" t="s">
+      <c r="B403" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C403" s="190"/>
-      <c r="D403" s="190"/>
-      <c r="E403" s="190"/>
+      <c r="C403" s="186"/>
+      <c r="D403" s="186"/>
+      <c r="E403" s="186"/>
       <c r="F403" s="64" t="s">
         <v>388</v>
       </c>
@@ -20632,12 +21107,12 @@
       <c r="P404" s="90"/>
     </row>
     <row r="405" spans="2:16" ht="22.5">
-      <c r="B405" s="190" t="s">
+      <c r="B405" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C405" s="190"/>
-      <c r="D405" s="190"/>
-      <c r="E405" s="190"/>
+      <c r="C405" s="186"/>
+      <c r="D405" s="186"/>
+      <c r="E405" s="186"/>
       <c r="F405" s="153" t="s">
         <v>618</v>
       </c>
@@ -20696,12 +21171,12 @@
       <c r="P406" s="90"/>
     </row>
     <row r="407" spans="2:16" ht="22.5">
-      <c r="B407" s="190" t="s">
+      <c r="B407" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C407" s="190"/>
-      <c r="D407" s="190"/>
-      <c r="E407" s="190"/>
+      <c r="C407" s="186"/>
+      <c r="D407" s="186"/>
+      <c r="E407" s="186"/>
       <c r="F407" s="153" t="s">
         <v>21</v>
       </c>
@@ -20721,28 +21196,28 @@
       <c r="P407" s="92"/>
     </row>
     <row r="408" spans="2:16" ht="21">
-      <c r="B408" s="205" t="s">
+      <c r="B408" s="222" t="s">
         <v>633</v>
       </c>
-      <c r="C408" s="205">
+      <c r="C408" s="222">
         <v>15262730846</v>
       </c>
-      <c r="D408" s="205" t="s">
+      <c r="D408" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="E408" s="186">
+      <c r="E408" s="189">
         <v>45719</v>
       </c>
       <c r="F408" s="157" t="s">
         <v>634</v>
       </c>
-      <c r="G408" s="205" t="s">
+      <c r="G408" s="222" t="s">
         <v>71</v>
       </c>
       <c r="H408" s="90">
         <v>1500</v>
       </c>
-      <c r="I408" s="205">
+      <c r="I408" s="222">
         <v>2675</v>
       </c>
       <c r="J408" s="158">
@@ -20757,10 +21232,10 @@
       <c r="M408" s="90">
         <v>19</v>
       </c>
-      <c r="N408" s="205" t="s">
+      <c r="N408" s="222" t="s">
         <v>88</v>
       </c>
-      <c r="O408" s="205" t="s">
+      <c r="O408" s="222" t="s">
         <v>88</v>
       </c>
       <c r="P408" s="90" t="s">
@@ -20768,18 +21243,18 @@
       </c>
     </row>
     <row r="409" spans="2:16" ht="21">
-      <c r="B409" s="206"/>
-      <c r="C409" s="206"/>
-      <c r="D409" s="206"/>
-      <c r="E409" s="204"/>
+      <c r="B409" s="243"/>
+      <c r="C409" s="243"/>
+      <c r="D409" s="243"/>
+      <c r="E409" s="230"/>
       <c r="F409" s="157" t="s">
         <v>635</v>
       </c>
-      <c r="G409" s="206"/>
+      <c r="G409" s="243"/>
       <c r="H409" s="90">
         <v>1500</v>
       </c>
-      <c r="I409" s="206"/>
+      <c r="I409" s="243"/>
       <c r="J409" s="158">
         <v>4.8099999999999996</v>
       </c>
@@ -20792,25 +21267,25 @@
       <c r="M409" s="90">
         <v>25</v>
       </c>
-      <c r="N409" s="206"/>
-      <c r="O409" s="206"/>
+      <c r="N409" s="243"/>
+      <c r="O409" s="243"/>
       <c r="P409" s="90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="410" spans="2:16" ht="21">
-      <c r="B410" s="207"/>
-      <c r="C410" s="207"/>
-      <c r="D410" s="207"/>
-      <c r="E410" s="187"/>
+      <c r="B410" s="223"/>
+      <c r="C410" s="223"/>
+      <c r="D410" s="223"/>
+      <c r="E410" s="190"/>
       <c r="F410" s="157" t="s">
         <v>636</v>
       </c>
-      <c r="G410" s="207"/>
+      <c r="G410" s="223"/>
       <c r="H410" s="90">
         <v>210</v>
       </c>
-      <c r="I410" s="207"/>
+      <c r="I410" s="223"/>
       <c r="J410" s="158">
         <v>0.63724500000000006</v>
       </c>
@@ -20823,19 +21298,19 @@
       <c r="M410" s="90">
         <v>35</v>
       </c>
-      <c r="N410" s="207"/>
-      <c r="O410" s="207"/>
+      <c r="N410" s="223"/>
+      <c r="O410" s="223"/>
       <c r="P410" s="90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="411" spans="2:16" ht="22.5">
-      <c r="B411" s="190" t="s">
+      <c r="B411" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C411" s="190"/>
-      <c r="D411" s="190"/>
-      <c r="E411" s="190"/>
+      <c r="C411" s="186"/>
+      <c r="D411" s="186"/>
+      <c r="E411" s="186"/>
       <c r="F411" s="153" t="s">
         <v>409</v>
       </c>
@@ -20880,7 +21355,7 @@
       <c r="I412" s="90">
         <v>600</v>
       </c>
-      <c r="J412" s="248">
+      <c r="J412" s="184">
         <f>K412*L412*M412/1000000*50</f>
         <v>3.17625</v>
       </c>
@@ -20902,12 +21377,12 @@
       <c r="P412" s="90"/>
     </row>
     <row r="413" spans="2:16" ht="22.5">
-      <c r="B413" s="190" t="s">
+      <c r="B413" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C413" s="190"/>
-      <c r="D413" s="190"/>
-      <c r="E413" s="190"/>
+      <c r="C413" s="186"/>
+      <c r="D413" s="186"/>
+      <c r="E413" s="186"/>
       <c r="F413" s="153" t="s">
         <v>689</v>
       </c>
@@ -20917,7 +21392,7 @@
         <f>SUM(I412:I412)</f>
         <v>600</v>
       </c>
-      <c r="J413" s="249">
+      <c r="J413" s="185">
         <f>SUM(J412:J412)</f>
         <v>3.17625</v>
       </c>
@@ -20928,38 +21403,1167 @@
       <c r="O413" s="92"/>
       <c r="P413" s="92"/>
     </row>
+    <row r="414" spans="2:16" ht="42">
+      <c r="B414" s="90" t="s">
+        <v>699</v>
+      </c>
+      <c r="C414" s="90" t="s">
+        <v>700</v>
+      </c>
+      <c r="D414" s="90" t="s">
+        <v>701</v>
+      </c>
+      <c r="E414" s="91">
+        <v>45723</v>
+      </c>
+      <c r="F414" s="157" t="s">
+        <v>60</v>
+      </c>
+      <c r="G414" s="54" t="s">
+        <v>702</v>
+      </c>
+      <c r="H414" s="90">
+        <v>6</v>
+      </c>
+      <c r="I414" s="90">
+        <v>152</v>
+      </c>
+      <c r="J414" s="184">
+        <v>0.31968000000000002</v>
+      </c>
+      <c r="K414" s="90">
+        <v>74</v>
+      </c>
+      <c r="L414" s="90">
+        <v>48</v>
+      </c>
+      <c r="M414" s="90">
+        <v>15</v>
+      </c>
+      <c r="N414" s="54" t="s">
+        <v>703</v>
+      </c>
+      <c r="O414" s="54" t="s">
+        <v>703</v>
+      </c>
+      <c r="P414" s="90"/>
+    </row>
+    <row r="415" spans="2:16" ht="22.5">
+      <c r="B415" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C415" s="186"/>
+      <c r="D415" s="186"/>
+      <c r="E415" s="186"/>
+      <c r="F415" s="153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G415" s="8"/>
+      <c r="H415" s="154"/>
+      <c r="I415" s="163">
+        <v>152</v>
+      </c>
+      <c r="J415" s="185">
+        <v>0.31968000000000002</v>
+      </c>
+      <c r="K415" s="154"/>
+      <c r="L415" s="154"/>
+      <c r="M415" s="154"/>
+      <c r="N415" s="92"/>
+      <c r="O415" s="92"/>
+      <c r="P415" s="92"/>
+    </row>
+    <row r="416" spans="2:16" ht="21">
+      <c r="B416" s="90" t="s">
+        <v>704</v>
+      </c>
+      <c r="C416" s="90">
+        <v>15615700991</v>
+      </c>
+      <c r="D416" s="90" t="s">
+        <v>584</v>
+      </c>
+      <c r="E416" s="91">
+        <v>45723</v>
+      </c>
+      <c r="F416" s="157" t="s">
+        <v>705</v>
+      </c>
+      <c r="G416" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="H416" s="90">
+        <v>7500</v>
+      </c>
+      <c r="I416" s="90">
+        <v>6250</v>
+      </c>
+      <c r="J416" s="184">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="K416" s="90">
+        <v>40</v>
+      </c>
+      <c r="L416" s="90">
+        <v>34</v>
+      </c>
+      <c r="M416" s="90">
+        <v>30</v>
+      </c>
+      <c r="N416" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="O416" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P416" s="90"/>
+    </row>
+    <row r="417" spans="2:16" ht="22.5">
+      <c r="B417" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C417" s="186"/>
+      <c r="D417" s="186"/>
+      <c r="E417" s="186"/>
+      <c r="F417" s="153" t="s">
+        <v>706</v>
+      </c>
+      <c r="G417" s="154"/>
+      <c r="H417" s="154"/>
+      <c r="I417" s="154">
+        <v>6250</v>
+      </c>
+      <c r="J417" s="185">
+        <v>10.200000000000001</v>
+      </c>
+      <c r="K417" s="154"/>
+      <c r="L417" s="154"/>
+      <c r="M417" s="154"/>
+      <c r="N417" s="92"/>
+      <c r="O417" s="92"/>
+      <c r="P417" s="92"/>
+    </row>
+    <row r="418" spans="2:16" ht="21">
+      <c r="B418" s="90" t="s">
+        <v>707</v>
+      </c>
+      <c r="C418" s="90">
+        <v>15027272944</v>
+      </c>
+      <c r="D418" s="90" t="s">
+        <v>708</v>
+      </c>
+      <c r="E418" s="91">
+        <v>45722</v>
+      </c>
+      <c r="F418" s="157" t="s">
+        <v>555</v>
+      </c>
+      <c r="G418" s="54" t="s">
+        <v>709</v>
+      </c>
+      <c r="H418" s="90">
+        <v>50000</v>
+      </c>
+      <c r="I418" s="90">
+        <v>58</v>
+      </c>
+      <c r="J418" s="158">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="K418" s="90">
+        <v>37</v>
+      </c>
+      <c r="L418" s="90">
+        <v>33</v>
+      </c>
+      <c r="M418" s="90">
+        <v>24</v>
+      </c>
+      <c r="N418" s="90"/>
+      <c r="O418" s="90"/>
+      <c r="P418" s="90"/>
+    </row>
+    <row r="419" spans="2:16" ht="22.5">
+      <c r="B419" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C419" s="186"/>
+      <c r="D419" s="186"/>
+      <c r="E419" s="186"/>
+      <c r="F419" s="153" t="s">
+        <v>557</v>
+      </c>
+      <c r="G419" s="163"/>
+      <c r="H419" s="154"/>
+      <c r="I419" s="163">
+        <v>58</v>
+      </c>
+      <c r="J419" s="155">
+        <v>0.73260000000000003</v>
+      </c>
+      <c r="K419" s="154"/>
+      <c r="L419" s="154"/>
+      <c r="M419" s="154"/>
+      <c r="N419" s="92"/>
+      <c r="O419" s="92"/>
+      <c r="P419" s="92"/>
+    </row>
+    <row r="420" spans="2:16" ht="21">
+      <c r="B420" s="222" t="s">
+        <v>710</v>
+      </c>
+      <c r="C420" s="222" t="s">
+        <v>711</v>
+      </c>
+      <c r="D420" s="222" t="s">
+        <v>73</v>
+      </c>
+      <c r="E420" s="189">
+        <v>45722</v>
+      </c>
+      <c r="F420" s="157" t="s">
+        <v>712</v>
+      </c>
+      <c r="G420" s="222" t="s">
+        <v>71</v>
+      </c>
+      <c r="H420" s="90">
+        <v>1080</v>
+      </c>
+      <c r="I420" s="222">
+        <v>2700</v>
+      </c>
+      <c r="J420" s="158">
+        <v>3.2399999999999998</v>
+      </c>
+      <c r="K420" s="90">
+        <v>50</v>
+      </c>
+      <c r="L420" s="90">
+        <v>60</v>
+      </c>
+      <c r="M420" s="90">
+        <v>40</v>
+      </c>
+      <c r="N420" s="222" t="s">
+        <v>88</v>
+      </c>
+      <c r="O420" s="222" t="s">
+        <v>88</v>
+      </c>
+      <c r="P420" s="90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="421" spans="2:16" ht="21">
+      <c r="B421" s="223"/>
+      <c r="C421" s="223"/>
+      <c r="D421" s="223"/>
+      <c r="E421" s="190"/>
+      <c r="F421" s="157" t="s">
+        <v>713</v>
+      </c>
+      <c r="G421" s="223"/>
+      <c r="H421" s="90">
+        <v>2520</v>
+      </c>
+      <c r="I421" s="223"/>
+      <c r="J421" s="158">
+        <v>7.4969999999999999</v>
+      </c>
+      <c r="K421" s="90">
+        <v>70</v>
+      </c>
+      <c r="L421" s="90">
+        <v>50</v>
+      </c>
+      <c r="M421" s="90">
+        <v>34</v>
+      </c>
+      <c r="N421" s="223"/>
+      <c r="O421" s="223"/>
+      <c r="P421" s="90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="422" spans="2:16" ht="22.5">
+      <c r="B422" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C422" s="186"/>
+      <c r="D422" s="186"/>
+      <c r="E422" s="186"/>
+      <c r="F422" s="153" t="s">
+        <v>714</v>
+      </c>
+      <c r="G422" s="156"/>
+      <c r="H422" s="154"/>
+      <c r="I422" s="156">
+        <v>2700</v>
+      </c>
+      <c r="J422" s="155">
+        <v>10.737</v>
+      </c>
+      <c r="K422" s="154"/>
+      <c r="L422" s="154"/>
+      <c r="M422" s="154"/>
+      <c r="N422" s="92"/>
+      <c r="O422" s="92"/>
+      <c r="P422" s="92"/>
+    </row>
+    <row r="423" spans="2:16" ht="42">
+      <c r="B423" s="90" t="s">
+        <v>715</v>
+      </c>
+      <c r="C423" s="90">
+        <v>13169011340</v>
+      </c>
+      <c r="D423" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E423" s="91">
+        <v>45723</v>
+      </c>
+      <c r="F423" s="157" t="s">
+        <v>716</v>
+      </c>
+      <c r="G423" s="90" t="s">
+        <v>717</v>
+      </c>
+      <c r="H423" s="90">
+        <v>1837</v>
+      </c>
+      <c r="I423" s="90">
+        <v>1242</v>
+      </c>
+      <c r="J423" s="158">
+        <v>4.5</v>
+      </c>
+      <c r="K423" s="90"/>
+      <c r="L423" s="90"/>
+      <c r="M423" s="90"/>
+      <c r="N423" s="90"/>
+      <c r="O423" s="90"/>
+      <c r="P423" s="90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="424" spans="2:16" ht="22.5">
+      <c r="B424" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C424" s="186"/>
+      <c r="D424" s="186"/>
+      <c r="E424" s="186"/>
+      <c r="F424" s="153" t="s">
+        <v>718</v>
+      </c>
+      <c r="G424" s="69"/>
+      <c r="H424" s="154"/>
+      <c r="I424" s="154">
+        <v>1242</v>
+      </c>
+      <c r="J424" s="155">
+        <v>4.5</v>
+      </c>
+      <c r="K424" s="154"/>
+      <c r="L424" s="154"/>
+      <c r="M424" s="154"/>
+      <c r="N424" s="92"/>
+      <c r="O424" s="92"/>
+      <c r="P424" s="92"/>
+    </row>
+    <row r="425" spans="2:16" ht="21">
+      <c r="B425" s="222" t="s">
+        <v>719</v>
+      </c>
+      <c r="C425" s="238" t="s">
+        <v>720</v>
+      </c>
+      <c r="D425" s="222" t="s">
+        <v>184</v>
+      </c>
+      <c r="E425" s="189">
+        <v>45724</v>
+      </c>
+      <c r="F425" s="157" t="s">
+        <v>14</v>
+      </c>
+      <c r="G425" s="222" t="s">
+        <v>721</v>
+      </c>
+      <c r="H425" s="90"/>
+      <c r="I425" s="222">
+        <v>90</v>
+      </c>
+      <c r="J425" s="184">
+        <v>0.18499199999999999</v>
+      </c>
+      <c r="K425" s="90">
+        <v>41</v>
+      </c>
+      <c r="L425" s="90">
+        <v>48</v>
+      </c>
+      <c r="M425" s="90">
+        <v>47</v>
+      </c>
+      <c r="N425" s="222" t="s">
+        <v>52</v>
+      </c>
+      <c r="O425" s="222" t="s">
+        <v>52</v>
+      </c>
+      <c r="P425" s="90"/>
+    </row>
+    <row r="426" spans="2:16" ht="21">
+      <c r="B426" s="243"/>
+      <c r="C426" s="239"/>
+      <c r="D426" s="243"/>
+      <c r="E426" s="230"/>
+      <c r="F426" s="157" t="s">
+        <v>482</v>
+      </c>
+      <c r="G426" s="243"/>
+      <c r="H426" s="90"/>
+      <c r="I426" s="243"/>
+      <c r="J426" s="184">
+        <v>0.19458</v>
+      </c>
+      <c r="K426" s="90">
+        <v>45</v>
+      </c>
+      <c r="L426" s="90">
+        <v>47</v>
+      </c>
+      <c r="M426" s="90">
+        <v>46</v>
+      </c>
+      <c r="N426" s="243"/>
+      <c r="O426" s="243"/>
+      <c r="P426" s="90"/>
+    </row>
+    <row r="427" spans="2:16" ht="21">
+      <c r="B427" s="243"/>
+      <c r="C427" s="239"/>
+      <c r="D427" s="243"/>
+      <c r="E427" s="230"/>
+      <c r="F427" s="157" t="s">
+        <v>722</v>
+      </c>
+      <c r="G427" s="243"/>
+      <c r="H427" s="90"/>
+      <c r="I427" s="243"/>
+      <c r="J427" s="184">
+        <v>7.2000000000000008E-2</v>
+      </c>
+      <c r="K427" s="90">
+        <v>40</v>
+      </c>
+      <c r="L427" s="90">
+        <v>30</v>
+      </c>
+      <c r="M427" s="90">
+        <v>20</v>
+      </c>
+      <c r="N427" s="243"/>
+      <c r="O427" s="243"/>
+      <c r="P427" s="90"/>
+    </row>
+    <row r="428" spans="2:16" ht="21">
+      <c r="B428" s="223"/>
+      <c r="C428" s="240"/>
+      <c r="D428" s="223"/>
+      <c r="E428" s="190"/>
+      <c r="F428" s="157" t="s">
+        <v>26</v>
+      </c>
+      <c r="G428" s="223"/>
+      <c r="H428" s="90"/>
+      <c r="I428" s="223"/>
+      <c r="J428" s="184">
+        <v>3.0380000000000001E-2</v>
+      </c>
+      <c r="K428" s="90">
+        <v>62</v>
+      </c>
+      <c r="L428" s="90">
+        <v>49</v>
+      </c>
+      <c r="M428" s="90">
+        <v>10</v>
+      </c>
+      <c r="N428" s="223"/>
+      <c r="O428" s="223"/>
+      <c r="P428" s="90"/>
+    </row>
+    <row r="429" spans="2:16" ht="22.5">
+      <c r="B429" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C429" s="186"/>
+      <c r="D429" s="186"/>
+      <c r="E429" s="186"/>
+      <c r="F429" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="G429" s="154"/>
+      <c r="H429" s="154"/>
+      <c r="I429" s="154">
+        <v>90</v>
+      </c>
+      <c r="J429" s="185">
+        <v>0.48195200000000005</v>
+      </c>
+      <c r="K429" s="154"/>
+      <c r="L429" s="154"/>
+      <c r="M429" s="154"/>
+      <c r="N429" s="92"/>
+      <c r="O429" s="92"/>
+      <c r="P429" s="92"/>
+    </row>
+    <row r="430" spans="2:16" ht="21">
+      <c r="B430" s="90" t="s">
+        <v>723</v>
+      </c>
+      <c r="C430" s="90">
+        <v>13169011340</v>
+      </c>
+      <c r="D430" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E430" s="91">
+        <v>45723</v>
+      </c>
+      <c r="F430" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G430" s="90" t="s">
+        <v>724</v>
+      </c>
+      <c r="H430" s="90">
+        <v>1</v>
+      </c>
+      <c r="I430" s="90">
+        <v>8</v>
+      </c>
+      <c r="J430" s="158">
+        <v>8.0369999999999997E-2</v>
+      </c>
+      <c r="K430" s="90">
+        <v>47</v>
+      </c>
+      <c r="L430" s="90">
+        <v>30</v>
+      </c>
+      <c r="M430" s="90">
+        <v>57</v>
+      </c>
+      <c r="N430" s="90"/>
+      <c r="O430" s="90"/>
+      <c r="P430" s="90"/>
+    </row>
+    <row r="431" spans="2:16" ht="22.5">
+      <c r="B431" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C431" s="186"/>
+      <c r="D431" s="186"/>
+      <c r="E431" s="186"/>
+      <c r="F431" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G431" s="69"/>
+      <c r="H431" s="154"/>
+      <c r="I431" s="154">
+        <v>8</v>
+      </c>
+      <c r="J431" s="155">
+        <v>8.0369999999999997E-2</v>
+      </c>
+      <c r="K431" s="154"/>
+      <c r="L431" s="154"/>
+      <c r="M431" s="154"/>
+      <c r="N431" s="92"/>
+      <c r="O431" s="92"/>
+      <c r="P431" s="92"/>
+    </row>
+    <row r="432" spans="2:16" ht="21">
+      <c r="B432" s="90" t="s">
+        <v>725</v>
+      </c>
+      <c r="C432" s="165" t="s">
+        <v>726</v>
+      </c>
+      <c r="D432" s="90" t="s">
+        <v>727</v>
+      </c>
+      <c r="E432" s="91">
+        <v>45724</v>
+      </c>
+      <c r="F432" s="157" t="s">
+        <v>728</v>
+      </c>
+      <c r="G432" s="90" t="s">
+        <v>729</v>
+      </c>
+      <c r="H432" s="90"/>
+      <c r="I432" s="90">
+        <v>79</v>
+      </c>
+      <c r="J432" s="158">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="K432" s="90">
+        <v>37</v>
+      </c>
+      <c r="L432" s="90">
+        <v>20</v>
+      </c>
+      <c r="M432" s="90">
+        <v>25</v>
+      </c>
+      <c r="N432" s="90" t="s">
+        <v>617</v>
+      </c>
+      <c r="O432" s="90" t="s">
+        <v>617</v>
+      </c>
+      <c r="P432" s="90"/>
+    </row>
+    <row r="433" spans="2:16" ht="22.5">
+      <c r="B433" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C433" s="186"/>
+      <c r="D433" s="186"/>
+      <c r="E433" s="186"/>
+      <c r="F433" s="153" t="s">
+        <v>13</v>
+      </c>
+      <c r="G433" s="154"/>
+      <c r="H433" s="154"/>
+      <c r="I433" s="154">
+        <v>79</v>
+      </c>
+      <c r="J433" s="155">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="K433" s="154"/>
+      <c r="L433" s="154"/>
+      <c r="M433" s="154"/>
+      <c r="N433" s="92"/>
+      <c r="O433" s="92"/>
+      <c r="P433" s="92"/>
+    </row>
+    <row r="434" spans="2:16" ht="21">
+      <c r="B434" s="94" t="s">
+        <v>730</v>
+      </c>
+      <c r="C434" s="94" t="s">
+        <v>731</v>
+      </c>
+      <c r="D434" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="E434" s="98">
+        <v>45726</v>
+      </c>
+      <c r="F434" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G434" s="53" t="s">
+        <v>732</v>
+      </c>
+      <c r="H434" s="94"/>
+      <c r="I434" s="94">
+        <v>95</v>
+      </c>
+      <c r="J434" s="95">
+        <f>K434*L434*M434/1000000</f>
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="K434" s="94">
+        <v>62</v>
+      </c>
+      <c r="L434" s="94">
+        <v>75</v>
+      </c>
+      <c r="M434" s="94">
+        <v>90</v>
+      </c>
+      <c r="N434" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="O434" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="P434" s="94"/>
+    </row>
+    <row r="435" spans="2:16" ht="22.5">
+      <c r="B435" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C435" s="186"/>
+      <c r="D435" s="186"/>
+      <c r="E435" s="186"/>
+      <c r="F435" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G435" s="163"/>
+      <c r="H435" s="154"/>
+      <c r="I435" s="163">
+        <f>SUM(I434:I434)</f>
+        <v>95</v>
+      </c>
+      <c r="J435" s="155">
+        <f>SUM(J434:J434)</f>
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="K435" s="154"/>
+      <c r="L435" s="154"/>
+      <c r="M435" s="154"/>
+      <c r="N435" s="97"/>
+      <c r="O435" s="97"/>
+      <c r="P435" s="97"/>
+    </row>
+    <row r="436" spans="2:16" ht="42">
+      <c r="B436" s="209" t="s">
+        <v>733</v>
+      </c>
+      <c r="C436" s="250" t="s">
+        <v>734</v>
+      </c>
+      <c r="D436" s="209" t="s">
+        <v>735</v>
+      </c>
+      <c r="E436" s="211">
+        <v>45726</v>
+      </c>
+      <c r="F436" s="93" t="s">
+        <v>60</v>
+      </c>
+      <c r="G436" s="94" t="s">
+        <v>736</v>
+      </c>
+      <c r="H436" s="94">
+        <f>53+37+45+42+11+30</f>
+        <v>218</v>
+      </c>
+      <c r="I436" s="209">
+        <v>195</v>
+      </c>
+      <c r="J436" s="95">
+        <f>K436*L436*M436/1000000*6</f>
+        <v>0.41471999999999998</v>
+      </c>
+      <c r="K436" s="94">
+        <v>60</v>
+      </c>
+      <c r="L436" s="94">
+        <v>48</v>
+      </c>
+      <c r="M436" s="94">
+        <v>24</v>
+      </c>
+      <c r="N436" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="O436" s="209" t="s">
+        <v>82</v>
+      </c>
+      <c r="P436" s="94"/>
+    </row>
+    <row r="437" spans="2:16" ht="21">
+      <c r="B437" s="213"/>
+      <c r="C437" s="213"/>
+      <c r="D437" s="213"/>
+      <c r="E437" s="214"/>
+      <c r="F437" s="93" t="s">
+        <v>737</v>
+      </c>
+      <c r="G437" s="53" t="s">
+        <v>738</v>
+      </c>
+      <c r="H437" s="94">
+        <f>150+160+70</f>
+        <v>380</v>
+      </c>
+      <c r="I437" s="213"/>
+      <c r="J437" s="95">
+        <f>K437*L437*M437/1000000*3</f>
+        <v>8.3160000000000012E-2</v>
+      </c>
+      <c r="K437" s="94">
+        <v>30</v>
+      </c>
+      <c r="L437" s="94">
+        <v>44</v>
+      </c>
+      <c r="M437" s="94">
+        <v>21</v>
+      </c>
+      <c r="N437" s="213"/>
+      <c r="O437" s="213"/>
+      <c r="P437" s="94"/>
+    </row>
+    <row r="438" spans="2:16" ht="37.5">
+      <c r="B438" s="210"/>
+      <c r="C438" s="210"/>
+      <c r="D438" s="210"/>
+      <c r="E438" s="212"/>
+      <c r="F438" s="93" t="s">
+        <v>406</v>
+      </c>
+      <c r="G438" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="H438" s="94">
+        <v>90</v>
+      </c>
+      <c r="I438" s="210"/>
+      <c r="J438" s="95">
+        <f>K438*L438*M438/1000000</f>
+        <v>2.4552000000000001E-2</v>
+      </c>
+      <c r="K438" s="94">
+        <v>44</v>
+      </c>
+      <c r="L438" s="94">
+        <v>31</v>
+      </c>
+      <c r="M438" s="94">
+        <v>18</v>
+      </c>
+      <c r="N438" s="210"/>
+      <c r="O438" s="210"/>
+      <c r="P438" s="94"/>
+    </row>
+    <row r="439" spans="2:16" ht="22.5">
+      <c r="B439" s="186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C439" s="186"/>
+      <c r="D439" s="186"/>
+      <c r="E439" s="186"/>
+      <c r="F439" s="153" t="s">
+        <v>406</v>
+      </c>
+      <c r="G439" s="154"/>
+      <c r="H439" s="154"/>
+      <c r="I439" s="156">
+        <f>SUM(I436:I438)</f>
+        <v>195</v>
+      </c>
+      <c r="J439" s="155">
+        <f>SUM(J436:J438)</f>
+        <v>0.52243200000000001</v>
+      </c>
+      <c r="K439" s="154"/>
+      <c r="L439" s="154"/>
+      <c r="M439" s="154"/>
+      <c r="N439" s="96"/>
+      <c r="O439" s="96"/>
+      <c r="P439" s="97"/>
+    </row>
   </sheetData>
-  <mergeCells count="328">
-    <mergeCell ref="B413:E413"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="O213:O214"/>
-    <mergeCell ref="B399:E399"/>
-    <mergeCell ref="B401:E401"/>
-    <mergeCell ref="B403:E403"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="B348:E348"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="B329:B330"/>
-    <mergeCell ref="D329:D330"/>
-    <mergeCell ref="E329:E330"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B385:E385"/>
-    <mergeCell ref="B387:E387"/>
-    <mergeCell ref="B389:E389"/>
-    <mergeCell ref="B391:E391"/>
-    <mergeCell ref="B393:E393"/>
+  <mergeCells count="367">
+    <mergeCell ref="N436:N438"/>
+    <mergeCell ref="O436:O438"/>
+    <mergeCell ref="B439:E439"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="C220:C222"/>
+    <mergeCell ref="D220:D222"/>
+    <mergeCell ref="E220:E222"/>
+    <mergeCell ref="G220:G222"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="B429:E429"/>
+    <mergeCell ref="B431:E431"/>
+    <mergeCell ref="B433:E433"/>
+    <mergeCell ref="B435:E435"/>
+    <mergeCell ref="B436:B438"/>
+    <mergeCell ref="C436:C438"/>
+    <mergeCell ref="D436:D438"/>
+    <mergeCell ref="E436:E438"/>
+    <mergeCell ref="I436:I438"/>
+    <mergeCell ref="N420:N421"/>
+    <mergeCell ref="O420:O421"/>
+    <mergeCell ref="B422:E422"/>
+    <mergeCell ref="B424:E424"/>
+    <mergeCell ref="B425:B428"/>
+    <mergeCell ref="C425:C428"/>
+    <mergeCell ref="D425:D428"/>
+    <mergeCell ref="E425:E428"/>
+    <mergeCell ref="G425:G428"/>
+    <mergeCell ref="I425:I428"/>
+    <mergeCell ref="N425:N428"/>
+    <mergeCell ref="O425:O428"/>
+    <mergeCell ref="B415:E415"/>
+    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="B419:E419"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="D420:D421"/>
+    <mergeCell ref="E420:E421"/>
+    <mergeCell ref="G420:G421"/>
+    <mergeCell ref="I420:I421"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="O197:O199"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="O203:O204"/>
+    <mergeCell ref="B411:E411"/>
+    <mergeCell ref="B185:B191"/>
+    <mergeCell ref="C185:C191"/>
+    <mergeCell ref="D185:D191"/>
+    <mergeCell ref="E185:E191"/>
+    <mergeCell ref="G185:G191"/>
+    <mergeCell ref="H185:H191"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="D193:D195"/>
+    <mergeCell ref="E193:E195"/>
+    <mergeCell ref="G193:G195"/>
+    <mergeCell ref="H193:H195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B407:E407"/>
+    <mergeCell ref="B408:B410"/>
+    <mergeCell ref="C408:C410"/>
+    <mergeCell ref="D408:D410"/>
+    <mergeCell ref="E408:E410"/>
+    <mergeCell ref="G408:G410"/>
+    <mergeCell ref="I408:I410"/>
+    <mergeCell ref="N408:N410"/>
+    <mergeCell ref="O408:O410"/>
+    <mergeCell ref="B405:E405"/>
+    <mergeCell ref="B172:B179"/>
+    <mergeCell ref="C172:C179"/>
+    <mergeCell ref="D172:D179"/>
+    <mergeCell ref="E172:E179"/>
+    <mergeCell ref="G172:G179"/>
+    <mergeCell ref="H172:H179"/>
+    <mergeCell ref="O172:O179"/>
+    <mergeCell ref="B395:E395"/>
+    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="O359:O360"/>
+    <mergeCell ref="B361:E361"/>
+    <mergeCell ref="G351:G357"/>
+    <mergeCell ref="I351:I357"/>
+    <mergeCell ref="B358:E358"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="G359:G360"/>
+    <mergeCell ref="I359:I360"/>
+    <mergeCell ref="E351:E357"/>
+    <mergeCell ref="O362:O364"/>
+    <mergeCell ref="B365:E365"/>
+    <mergeCell ref="B362:B364"/>
+    <mergeCell ref="C362:C364"/>
+    <mergeCell ref="D362:D364"/>
+    <mergeCell ref="E362:E364"/>
+    <mergeCell ref="G362:G364"/>
+    <mergeCell ref="I362:I364"/>
+    <mergeCell ref="P368:P374"/>
+    <mergeCell ref="G372:G374"/>
+    <mergeCell ref="B378:B380"/>
+    <mergeCell ref="C378:C380"/>
+    <mergeCell ref="D378:D380"/>
+    <mergeCell ref="E378:E380"/>
+    <mergeCell ref="G378:G379"/>
+    <mergeCell ref="I378:I380"/>
+    <mergeCell ref="N378:N380"/>
+    <mergeCell ref="O378:O380"/>
+    <mergeCell ref="P378:P380"/>
+    <mergeCell ref="B377:E377"/>
+    <mergeCell ref="P332:P339"/>
+    <mergeCell ref="N351:N357"/>
+    <mergeCell ref="O351:O357"/>
+    <mergeCell ref="P351:P357"/>
+    <mergeCell ref="P359:P360"/>
+    <mergeCell ref="P362:P364"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="I372:I374"/>
+    <mergeCell ref="B375:E375"/>
+    <mergeCell ref="B372:B374"/>
+    <mergeCell ref="D372:D374"/>
+    <mergeCell ref="E372:E374"/>
+    <mergeCell ref="B368:B371"/>
+    <mergeCell ref="C368:C371"/>
+    <mergeCell ref="D368:D371"/>
+    <mergeCell ref="E368:E371"/>
+    <mergeCell ref="G368:G371"/>
+    <mergeCell ref="I368:I371"/>
+    <mergeCell ref="N368:N374"/>
+    <mergeCell ref="O368:O374"/>
+    <mergeCell ref="N332:N339"/>
+    <mergeCell ref="O332:O339"/>
+    <mergeCell ref="B340:E340"/>
+    <mergeCell ref="N359:N360"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="D131:D134"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="G131:G134"/>
+    <mergeCell ref="H131:H134"/>
+    <mergeCell ref="N131:N134"/>
+    <mergeCell ref="O136:O142"/>
+    <mergeCell ref="G162:G163"/>
+    <mergeCell ref="O162:O163"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="O165:O170"/>
+    <mergeCell ref="O185:O191"/>
+    <mergeCell ref="O193:O195"/>
+    <mergeCell ref="P310:P315"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B317:B319"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="E317:E319"/>
+    <mergeCell ref="G317:G319"/>
+    <mergeCell ref="D310:D315"/>
+    <mergeCell ref="E310:E315"/>
+    <mergeCell ref="G310:G311"/>
+    <mergeCell ref="B310:B315"/>
+    <mergeCell ref="C310:C315"/>
+    <mergeCell ref="I317:I319"/>
+    <mergeCell ref="N317:N319"/>
+    <mergeCell ref="O317:O319"/>
+    <mergeCell ref="P317:P319"/>
+    <mergeCell ref="I310:I315"/>
+    <mergeCell ref="N310:N315"/>
+    <mergeCell ref="O310:O315"/>
+    <mergeCell ref="P292:P304"/>
+    <mergeCell ref="G295:G300"/>
+    <mergeCell ref="B305:E305"/>
+    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B292:B304"/>
+    <mergeCell ref="C292:C304"/>
+    <mergeCell ref="D292:D304"/>
+    <mergeCell ref="E292:E304"/>
+    <mergeCell ref="G292:G294"/>
+    <mergeCell ref="I292:I304"/>
+    <mergeCell ref="N292:N304"/>
+    <mergeCell ref="O292:O304"/>
+    <mergeCell ref="P281:P282"/>
+    <mergeCell ref="B283:E283"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="O273:O277"/>
+    <mergeCell ref="P273:P277"/>
+    <mergeCell ref="G275:G276"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B280:E280"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="G281:G282"/>
+    <mergeCell ref="I281:I282"/>
+    <mergeCell ref="N281:N282"/>
+    <mergeCell ref="O281:O282"/>
+    <mergeCell ref="N273:N277"/>
+    <mergeCell ref="P263:P267"/>
+    <mergeCell ref="B268:E268"/>
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="C263:C267"/>
+    <mergeCell ref="D263:D267"/>
+    <mergeCell ref="E263:E267"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="I263:I267"/>
+    <mergeCell ref="N263:N267"/>
+    <mergeCell ref="O263:O267"/>
+    <mergeCell ref="P252:P255"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="B258:E258"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B251:E251"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="E252:E255"/>
+    <mergeCell ref="I252:I255"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O87:O89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="N252:N255"/>
+    <mergeCell ref="O252:O255"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="G111:G114"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="K87:K89"/>
+    <mergeCell ref="B75:B85"/>
+    <mergeCell ref="C75:C85"/>
+    <mergeCell ref="D75:D85"/>
+    <mergeCell ref="E75:E85"/>
+    <mergeCell ref="G75:G85"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
     <mergeCell ref="G87:G89"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="C60:C61"/>
@@ -20984,280 +22588,54 @@
     <mergeCell ref="B287:E287"/>
     <mergeCell ref="B289:E289"/>
     <mergeCell ref="B291:E291"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="O87:O89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="N252:N255"/>
-    <mergeCell ref="O252:O255"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="G111:G114"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="K87:K89"/>
-    <mergeCell ref="B75:B85"/>
-    <mergeCell ref="C75:C85"/>
-    <mergeCell ref="D75:D85"/>
-    <mergeCell ref="E75:E85"/>
-    <mergeCell ref="G75:G85"/>
-    <mergeCell ref="P252:P255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B258:E258"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B251:E251"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="E252:E255"/>
-    <mergeCell ref="I252:I255"/>
-    <mergeCell ref="P263:P267"/>
-    <mergeCell ref="B268:E268"/>
-    <mergeCell ref="B270:E270"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="C263:C267"/>
-    <mergeCell ref="D263:D267"/>
-    <mergeCell ref="E263:E267"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="I263:I267"/>
-    <mergeCell ref="N263:N267"/>
-    <mergeCell ref="O263:O267"/>
-    <mergeCell ref="P281:P282"/>
-    <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="O273:O277"/>
-    <mergeCell ref="P273:P277"/>
-    <mergeCell ref="G275:G276"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="G281:G282"/>
-    <mergeCell ref="I281:I282"/>
-    <mergeCell ref="N281:N282"/>
-    <mergeCell ref="O281:O282"/>
-    <mergeCell ref="N273:N277"/>
-    <mergeCell ref="P292:P304"/>
-    <mergeCell ref="G295:G300"/>
-    <mergeCell ref="B305:E305"/>
-    <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B292:B304"/>
-    <mergeCell ref="C292:C304"/>
-    <mergeCell ref="D292:D304"/>
-    <mergeCell ref="E292:E304"/>
-    <mergeCell ref="G292:G294"/>
-    <mergeCell ref="I292:I304"/>
-    <mergeCell ref="N292:N304"/>
-    <mergeCell ref="O292:O304"/>
-    <mergeCell ref="P310:P315"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B317:B319"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="E317:E319"/>
-    <mergeCell ref="G317:G319"/>
-    <mergeCell ref="D310:D315"/>
-    <mergeCell ref="E310:E315"/>
-    <mergeCell ref="G310:G311"/>
-    <mergeCell ref="B310:B315"/>
-    <mergeCell ref="C310:C315"/>
-    <mergeCell ref="I317:I319"/>
-    <mergeCell ref="N317:N319"/>
-    <mergeCell ref="O317:O319"/>
-    <mergeCell ref="P317:P319"/>
-    <mergeCell ref="I310:I315"/>
-    <mergeCell ref="N310:N315"/>
-    <mergeCell ref="O310:O315"/>
-    <mergeCell ref="N362:N364"/>
-    <mergeCell ref="G343:G347"/>
-    <mergeCell ref="I343:I347"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="B348:E348"/>
+    <mergeCell ref="B350:E350"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B322:E322"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="D329:D330"/>
+    <mergeCell ref="E329:E330"/>
+    <mergeCell ref="B309:E309"/>
     <mergeCell ref="B331:E331"/>
     <mergeCell ref="B332:B339"/>
     <mergeCell ref="C332:C339"/>
     <mergeCell ref="D332:D339"/>
     <mergeCell ref="E332:E339"/>
-    <mergeCell ref="G332:G339"/>
-    <mergeCell ref="I332:I339"/>
     <mergeCell ref="B342:E342"/>
     <mergeCell ref="B343:B347"/>
     <mergeCell ref="C343:C347"/>
+    <mergeCell ref="B413:E413"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="B399:E399"/>
+    <mergeCell ref="B401:E401"/>
+    <mergeCell ref="B403:E403"/>
+    <mergeCell ref="B385:E385"/>
+    <mergeCell ref="B387:E387"/>
+    <mergeCell ref="B389:E389"/>
+    <mergeCell ref="B391:E391"/>
+    <mergeCell ref="B393:E393"/>
+    <mergeCell ref="N362:N364"/>
+    <mergeCell ref="G343:G347"/>
+    <mergeCell ref="I343:I347"/>
+    <mergeCell ref="G332:G339"/>
+    <mergeCell ref="I332:I339"/>
     <mergeCell ref="D343:D347"/>
     <mergeCell ref="E343:E347"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="D131:D134"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="G131:G134"/>
-    <mergeCell ref="H131:H134"/>
-    <mergeCell ref="N131:N134"/>
-    <mergeCell ref="O136:O142"/>
-    <mergeCell ref="G162:G163"/>
-    <mergeCell ref="O162:O163"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="O165:O170"/>
-    <mergeCell ref="O185:O191"/>
-    <mergeCell ref="O193:O195"/>
-    <mergeCell ref="P332:P339"/>
-    <mergeCell ref="N351:N357"/>
-    <mergeCell ref="O351:O357"/>
-    <mergeCell ref="P351:P357"/>
-    <mergeCell ref="P359:P360"/>
-    <mergeCell ref="P362:P364"/>
-    <mergeCell ref="B367:E367"/>
-    <mergeCell ref="I372:I374"/>
-    <mergeCell ref="B375:E375"/>
-    <mergeCell ref="B372:B374"/>
-    <mergeCell ref="D372:D374"/>
-    <mergeCell ref="E372:E374"/>
-    <mergeCell ref="B368:B371"/>
-    <mergeCell ref="C368:C371"/>
-    <mergeCell ref="D368:D371"/>
-    <mergeCell ref="E368:E371"/>
-    <mergeCell ref="G368:G371"/>
-    <mergeCell ref="I368:I371"/>
-    <mergeCell ref="N368:N374"/>
-    <mergeCell ref="O368:O374"/>
-    <mergeCell ref="N332:N339"/>
-    <mergeCell ref="O332:O339"/>
-    <mergeCell ref="B340:E340"/>
-    <mergeCell ref="N359:N360"/>
     <mergeCell ref="B351:B357"/>
     <mergeCell ref="C351:C357"/>
     <mergeCell ref="D351:D357"/>
-    <mergeCell ref="P368:P374"/>
-    <mergeCell ref="G372:G374"/>
-    <mergeCell ref="B378:B380"/>
-    <mergeCell ref="C378:C380"/>
-    <mergeCell ref="D378:D380"/>
-    <mergeCell ref="E378:E380"/>
-    <mergeCell ref="G378:G379"/>
-    <mergeCell ref="I378:I380"/>
-    <mergeCell ref="N378:N380"/>
-    <mergeCell ref="O378:O380"/>
-    <mergeCell ref="P378:P380"/>
-    <mergeCell ref="B377:E377"/>
-    <mergeCell ref="E351:E357"/>
-    <mergeCell ref="O362:O364"/>
-    <mergeCell ref="B365:E365"/>
-    <mergeCell ref="B362:B364"/>
-    <mergeCell ref="C362:C364"/>
-    <mergeCell ref="D362:D364"/>
-    <mergeCell ref="E362:E364"/>
-    <mergeCell ref="G362:G364"/>
-    <mergeCell ref="I362:I364"/>
-    <mergeCell ref="I408:I410"/>
-    <mergeCell ref="N408:N410"/>
-    <mergeCell ref="O408:O410"/>
-    <mergeCell ref="B405:E405"/>
-    <mergeCell ref="B172:B179"/>
-    <mergeCell ref="C172:C179"/>
-    <mergeCell ref="D172:D179"/>
-    <mergeCell ref="E172:E179"/>
-    <mergeCell ref="G172:G179"/>
-    <mergeCell ref="H172:H179"/>
-    <mergeCell ref="O172:O179"/>
-    <mergeCell ref="B395:E395"/>
-    <mergeCell ref="B397:E397"/>
-    <mergeCell ref="O359:O360"/>
-    <mergeCell ref="B361:E361"/>
-    <mergeCell ref="G351:G357"/>
-    <mergeCell ref="I351:I357"/>
-    <mergeCell ref="B358:E358"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="E359:E360"/>
-    <mergeCell ref="G359:G360"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="B411:E411"/>
-    <mergeCell ref="B185:B191"/>
-    <mergeCell ref="C185:C191"/>
-    <mergeCell ref="D185:D191"/>
-    <mergeCell ref="E185:E191"/>
-    <mergeCell ref="G185:G191"/>
-    <mergeCell ref="H185:H191"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="D193:D195"/>
-    <mergeCell ref="E193:E195"/>
-    <mergeCell ref="G193:G195"/>
-    <mergeCell ref="H193:H195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B407:E407"/>
-    <mergeCell ref="B408:B410"/>
-    <mergeCell ref="C408:C410"/>
-    <mergeCell ref="D408:D410"/>
-    <mergeCell ref="E408:E410"/>
-    <mergeCell ref="G408:G410"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="G210:G211"/>
-    <mergeCell ref="O197:O199"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="O203:O204"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21332,12 +22710,12 @@
     </row>
     <row r="6" spans="1:16" ht="22.5">
       <c r="A6" s="30"/>
-      <c r="B6" s="190" t="s">
+      <c r="B6" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
       <c r="F6" s="64" t="s">
         <v>21</v>
       </c>
@@ -21402,12 +22780,12 @@
     </row>
     <row r="9" spans="1:16" ht="22.5">
       <c r="A9" s="30"/>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="190"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="190"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
       <c r="F9" s="76" t="s">
         <v>25</v>
       </c>
@@ -21476,12 +22854,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5">
       <c r="A12" s="30"/>
-      <c r="B12" s="190" t="s">
+      <c r="B12" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="190"/>
-      <c r="D12" s="190"/>
-      <c r="E12" s="190"/>
+      <c r="C12" s="186"/>
+      <c r="D12" s="186"/>
+      <c r="E12" s="186"/>
       <c r="F12" s="76" t="s">
         <v>15</v>
       </c>

--- a/Master/2025_MASTER.xlsx
+++ b/Master/2025_MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick Jonathan\Documents\Patrick Jonathan\CARGO\Cargo Work\Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997C73D3-04E6-4D0B-9F72-0255BDBD1082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1262E38-DA59-4A2C-BFA2-87AE5C359194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="755">
   <si>
     <t>Measurement</t>
   </si>
@@ -5156,6 +5156,21 @@
       </rPr>
       <t xml:space="preserve">  tops</t>
     </r>
+  </si>
+  <si>
+    <t>S0086450</t>
+  </si>
+  <si>
+    <t>S0086617</t>
+  </si>
+  <si>
+    <t>519211802453 /13427358735</t>
+  </si>
+  <si>
+    <t>智能开关触屏控制面板Smart switch touch screen control panel</t>
+  </si>
+  <si>
+    <t>S0086581</t>
   </si>
 </sst>
 </file>
@@ -7204,199 +7219,199 @@
     <xf numFmtId="168" fontId="36" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="174" fontId="35" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="35" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="35" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7939,14 +7954,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{126E3568-5A38-4555-95C2-66ABB16BC5FB}">
-  <dimension ref="A1:AM439"/>
+  <dimension ref="A1:AM447"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E415" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="G427" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E2" sqref="E2"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B436" sqref="B436:B438"/>
+      <selection pane="bottomRight" activeCell="B446" sqref="B446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8016,24 +8031,24 @@
       <c r="N1" s="15"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="59"/>
-      <c r="R1" s="216" t="s">
+      <c r="R1" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="217"/>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="218" t="s">
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="219"/>
-      <c r="AA1" s="219"/>
-      <c r="AB1" s="219"/>
-      <c r="AC1" s="219"/>
-      <c r="AD1" s="219"/>
-      <c r="AE1" s="219"/>
+      <c r="Z1" s="246"/>
+      <c r="AA1" s="246"/>
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="246"/>
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
       <c r="AG1" s="43"/>
       <c r="AH1" s="43"/>
       <c r="AI1" s="43"/>
@@ -8068,24 +8083,24 @@
       <c r="N2" s="15"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="59"/>
-      <c r="R2" s="216" t="s">
+      <c r="R2" s="243" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="217"/>
-      <c r="T2" s="217"/>
-      <c r="U2" s="217"/>
-      <c r="V2" s="217"/>
-      <c r="W2" s="217"/>
-      <c r="X2" s="217"/>
-      <c r="Y2" s="218" t="s">
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="U2" s="244"/>
+      <c r="V2" s="244"/>
+      <c r="W2" s="244"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="245" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="219"/>
-      <c r="AA2" s="219"/>
-      <c r="AB2" s="219"/>
-      <c r="AC2" s="219"/>
-      <c r="AD2" s="219"/>
-      <c r="AE2" s="219"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
       <c r="AG2" s="43"/>
       <c r="AH2" s="43"/>
       <c r="AI2" s="43"/>
@@ -8125,11 +8140,11 @@
       <c r="J3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="220" t="s">
+      <c r="K3" s="247" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="220"/>
-      <c r="M3" s="220"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
       <c r="N3" s="23" t="s">
         <v>2</v>
       </c>
@@ -8233,10 +8248,10 @@
       <c r="AM4" s="27"/>
     </row>
     <row r="5" spans="1:39" ht="40.5">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="248" t="s">
         <v>445</v>
       </c>
-      <c r="B5" s="221"/>
+      <c r="B5" s="248"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="140"/>
@@ -8874,25 +8889,25 @@
       <c r="A23" s="145" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="214" t="s">
         <v>241</v>
       </c>
       <c r="C23" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="193" t="s">
+      <c r="D23" s="214" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="204">
+      <c r="E23" s="217">
         <v>45661</v>
       </c>
       <c r="F23" s="113">
         <v>1</v>
       </c>
-      <c r="G23" s="193" t="s">
+      <c r="G23" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="193">
+      <c r="H23" s="214">
         <v>2</v>
       </c>
       <c r="I23" s="113">
@@ -8911,7 +8926,7 @@
         <v>13</v>
       </c>
       <c r="N23" s="113"/>
-      <c r="O23" s="193" t="s">
+      <c r="O23" s="214" t="s">
         <v>24</v>
       </c>
     </row>
@@ -8919,17 +8934,17 @@
       <c r="A24" s="145" t="s">
         <v>243</v>
       </c>
-      <c r="B24" s="194"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="194"/>
-      <c r="E24" s="205"/>
+      <c r="D24" s="216"/>
+      <c r="E24" s="219"/>
       <c r="F24" s="113">
         <v>2</v>
       </c>
-      <c r="G24" s="194"/>
-      <c r="H24" s="194"/>
+      <c r="G24" s="216"/>
+      <c r="H24" s="216"/>
       <c r="I24" s="113">
         <v>1.1000000000000001</v>
       </c>
@@ -8946,7 +8961,7 @@
         <v>13</v>
       </c>
       <c r="N24" s="113"/>
-      <c r="O24" s="194"/>
+      <c r="O24" s="216"/>
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A25" s="146"/>
@@ -9531,25 +9546,25 @@
       <c r="A42" s="145" t="s">
         <v>275</v>
       </c>
-      <c r="B42" s="193" t="s">
+      <c r="B42" s="214" t="s">
         <v>276</v>
       </c>
       <c r="C42" s="113" t="s">
         <v>277</v>
       </c>
-      <c r="D42" s="193" t="s">
+      <c r="D42" s="214" t="s">
         <v>238</v>
       </c>
-      <c r="E42" s="204">
+      <c r="E42" s="217">
         <v>45664</v>
       </c>
       <c r="F42" s="113">
         <v>1</v>
       </c>
-      <c r="G42" s="193" t="s">
+      <c r="G42" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="H42" s="193">
+      <c r="H42" s="214">
         <v>3</v>
       </c>
       <c r="I42" s="113">
@@ -9568,7 +9583,7 @@
         <v>20</v>
       </c>
       <c r="N42" s="113"/>
-      <c r="O42" s="193" t="s">
+      <c r="O42" s="214" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9576,17 +9591,17 @@
       <c r="A43" s="145" t="s">
         <v>278</v>
       </c>
-      <c r="B43" s="197"/>
+      <c r="B43" s="215"/>
       <c r="C43" s="113" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="197"/>
-      <c r="E43" s="215"/>
+      <c r="D43" s="215"/>
+      <c r="E43" s="218"/>
       <c r="F43" s="113">
         <v>2</v>
       </c>
-      <c r="G43" s="197"/>
-      <c r="H43" s="197"/>
+      <c r="G43" s="215"/>
+      <c r="H43" s="215"/>
       <c r="I43" s="113">
         <v>1.4</v>
       </c>
@@ -9603,23 +9618,23 @@
         <v>20</v>
       </c>
       <c r="N43" s="113"/>
-      <c r="O43" s="197"/>
+      <c r="O43" s="215"/>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="21">
       <c r="A44" s="145" t="s">
         <v>280</v>
       </c>
-      <c r="B44" s="194"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="D44" s="194"/>
-      <c r="E44" s="205"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="219"/>
       <c r="F44" s="113">
         <v>3</v>
       </c>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="216"/>
       <c r="I44" s="113">
         <v>2</v>
       </c>
@@ -9636,7 +9651,7 @@
         <v>20</v>
       </c>
       <c r="N44" s="113"/>
-      <c r="O44" s="194"/>
+      <c r="O44" s="216"/>
     </row>
     <row r="45" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A45" s="146"/>
@@ -9879,42 +9894,42 @@
       <c r="A52" s="147" t="s">
         <v>293</v>
       </c>
-      <c r="B52" s="222" t="s">
+      <c r="B52" s="200" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="222" t="s">
+      <c r="C52" s="200" t="s">
         <v>295</v>
       </c>
-      <c r="D52" s="222" t="s">
+      <c r="D52" s="200" t="s">
         <v>214</v>
       </c>
-      <c r="E52" s="189">
+      <c r="E52" s="193">
         <v>45666</v>
       </c>
       <c r="F52" s="90">
         <v>1</v>
       </c>
-      <c r="G52" s="222" t="s">
+      <c r="G52" s="200" t="s">
         <v>97</v>
       </c>
       <c r="H52" s="90"/>
-      <c r="I52" s="222">
+      <c r="I52" s="200">
         <v>10.199999999999999</v>
       </c>
-      <c r="J52" s="224">
+      <c r="J52" s="241">
         <v>0.10335</v>
       </c>
-      <c r="K52" s="222">
+      <c r="K52" s="200">
         <v>53</v>
       </c>
-      <c r="L52" s="222">
+      <c r="L52" s="200">
         <v>39</v>
       </c>
-      <c r="M52" s="222">
+      <c r="M52" s="200">
         <v>50</v>
       </c>
       <c r="N52" s="90"/>
-      <c r="O52" s="222" t="s">
+      <c r="O52" s="200" t="s">
         <v>296</v>
       </c>
     </row>
@@ -9922,22 +9937,22 @@
       <c r="A53" s="147" t="s">
         <v>297</v>
       </c>
-      <c r="B53" s="223"/>
-      <c r="C53" s="223"/>
-      <c r="D53" s="223"/>
-      <c r="E53" s="190"/>
+      <c r="B53" s="201"/>
+      <c r="C53" s="201"/>
+      <c r="D53" s="201"/>
+      <c r="E53" s="195"/>
       <c r="F53" s="90">
         <v>2</v>
       </c>
-      <c r="G53" s="223"/>
+      <c r="G53" s="201"/>
       <c r="H53" s="90"/>
-      <c r="I53" s="223"/>
-      <c r="J53" s="225"/>
-      <c r="K53" s="223"/>
-      <c r="L53" s="223"/>
-      <c r="M53" s="223"/>
+      <c r="I53" s="201"/>
+      <c r="J53" s="242"/>
+      <c r="K53" s="201"/>
+      <c r="L53" s="201"/>
+      <c r="M53" s="201"/>
       <c r="N53" s="90"/>
-      <c r="O53" s="223"/>
+      <c r="O53" s="201"/>
     </row>
     <row r="54" spans="1:15" s="11" customFormat="1" ht="22.5">
       <c r="A54" s="146"/>
@@ -9968,25 +9983,25 @@
       <c r="A55" s="147" t="s">
         <v>298</v>
       </c>
-      <c r="B55" s="209" t="s">
+      <c r="B55" s="186" t="s">
         <v>299</v>
       </c>
-      <c r="C55" s="209" t="s">
+      <c r="C55" s="186" t="s">
         <v>300</v>
       </c>
-      <c r="D55" s="209" t="s">
+      <c r="D55" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="211">
+      <c r="E55" s="197">
         <v>45668</v>
       </c>
       <c r="F55" s="94">
         <v>1</v>
       </c>
-      <c r="G55" s="206" t="s">
+      <c r="G55" s="213" t="s">
         <v>301</v>
       </c>
-      <c r="H55" s="209">
+      <c r="H55" s="186">
         <v>1676</v>
       </c>
       <c r="I55" s="94">
@@ -10006,7 +10021,7 @@
         <v>43</v>
       </c>
       <c r="N55" s="94"/>
-      <c r="O55" s="209" t="s">
+      <c r="O55" s="186" t="s">
         <v>302</v>
       </c>
     </row>
@@ -10014,15 +10029,15 @@
       <c r="A56" s="147" t="s">
         <v>303</v>
       </c>
-      <c r="B56" s="210"/>
-      <c r="C56" s="210"/>
-      <c r="D56" s="210"/>
-      <c r="E56" s="212"/>
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="199"/>
       <c r="F56" s="94">
         <v>2</v>
       </c>
-      <c r="G56" s="208"/>
-      <c r="H56" s="210"/>
+      <c r="G56" s="227"/>
+      <c r="H56" s="188"/>
       <c r="I56" s="94">
         <v>16.7</v>
       </c>
@@ -10040,7 +10055,7 @@
         <v>30</v>
       </c>
       <c r="N56" s="94"/>
-      <c r="O56" s="210"/>
+      <c r="O56" s="188"/>
     </row>
     <row r="57" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A57" s="146"/>
@@ -10140,25 +10155,25 @@
       <c r="A60" s="147" t="s">
         <v>309</v>
       </c>
-      <c r="B60" s="209" t="s">
+      <c r="B60" s="186" t="s">
         <v>310</v>
       </c>
-      <c r="C60" s="209" t="s">
+      <c r="C60" s="186" t="s">
         <v>311</v>
       </c>
-      <c r="D60" s="209" t="s">
+      <c r="D60" s="186" t="s">
         <v>269</v>
       </c>
-      <c r="E60" s="211">
+      <c r="E60" s="197">
         <v>45670</v>
       </c>
       <c r="F60" s="94">
         <v>1</v>
       </c>
-      <c r="G60" s="206" t="s">
+      <c r="G60" s="213" t="s">
         <v>312</v>
       </c>
-      <c r="H60" s="209">
+      <c r="H60" s="186">
         <v>145</v>
       </c>
       <c r="I60" s="94">
@@ -10178,7 +10193,7 @@
         <v>23</v>
       </c>
       <c r="N60" s="53"/>
-      <c r="O60" s="209" t="s">
+      <c r="O60" s="186" t="s">
         <v>313</v>
       </c>
     </row>
@@ -10186,15 +10201,15 @@
       <c r="A61" s="147" t="s">
         <v>314</v>
       </c>
-      <c r="B61" s="210"/>
-      <c r="C61" s="210"/>
-      <c r="D61" s="210"/>
-      <c r="E61" s="212"/>
+      <c r="B61" s="188"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="188"/>
+      <c r="E61" s="199"/>
       <c r="F61" s="94">
         <v>2</v>
       </c>
-      <c r="G61" s="208"/>
-      <c r="H61" s="210"/>
+      <c r="G61" s="227"/>
+      <c r="H61" s="188"/>
       <c r="I61" s="94">
         <v>13.7</v>
       </c>
@@ -10212,7 +10227,7 @@
         <v>49</v>
       </c>
       <c r="N61" s="94"/>
-      <c r="O61" s="210"/>
+      <c r="O61" s="188"/>
     </row>
     <row r="62" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A62" s="146"/>
@@ -10649,20 +10664,20 @@
       <c r="A75" s="147" t="s">
         <v>341</v>
       </c>
-      <c r="B75" s="187" t="s">
+      <c r="B75" s="190" t="s">
         <v>342</v>
       </c>
-      <c r="C75" s="187"/>
-      <c r="D75" s="187" t="s">
+      <c r="C75" s="190"/>
+      <c r="D75" s="190" t="s">
         <v>343</v>
       </c>
-      <c r="E75" s="189">
+      <c r="E75" s="193">
         <v>45673</v>
       </c>
       <c r="F75" s="99">
         <v>1</v>
       </c>
-      <c r="G75" s="187" t="s">
+      <c r="G75" s="190" t="s">
         <v>344</v>
       </c>
       <c r="H75" s="99">
@@ -10691,14 +10706,14 @@
       <c r="A76" s="147" t="s">
         <v>345</v>
       </c>
-      <c r="B76" s="229"/>
-      <c r="C76" s="229"/>
-      <c r="D76" s="229"/>
-      <c r="E76" s="230"/>
+      <c r="B76" s="191"/>
+      <c r="C76" s="191"/>
+      <c r="D76" s="191"/>
+      <c r="E76" s="194"/>
       <c r="F76" s="99">
         <v>2</v>
       </c>
-      <c r="G76" s="229"/>
+      <c r="G76" s="191"/>
       <c r="H76" s="99">
         <v>240</v>
       </c>
@@ -10725,14 +10740,14 @@
       <c r="A77" s="147" t="s">
         <v>346</v>
       </c>
-      <c r="B77" s="229"/>
-      <c r="C77" s="229"/>
-      <c r="D77" s="229"/>
-      <c r="E77" s="230"/>
+      <c r="B77" s="191"/>
+      <c r="C77" s="191"/>
+      <c r="D77" s="191"/>
+      <c r="E77" s="194"/>
       <c r="F77" s="99">
         <v>3</v>
       </c>
-      <c r="G77" s="229"/>
+      <c r="G77" s="191"/>
       <c r="H77" s="99">
         <v>300</v>
       </c>
@@ -10759,14 +10774,14 @@
       <c r="A78" s="147" t="s">
         <v>347</v>
       </c>
-      <c r="B78" s="229"/>
-      <c r="C78" s="229"/>
-      <c r="D78" s="229"/>
-      <c r="E78" s="230"/>
+      <c r="B78" s="191"/>
+      <c r="C78" s="191"/>
+      <c r="D78" s="191"/>
+      <c r="E78" s="194"/>
       <c r="F78" s="99">
         <v>4</v>
       </c>
-      <c r="G78" s="229"/>
+      <c r="G78" s="191"/>
       <c r="H78" s="99">
         <v>230</v>
       </c>
@@ -10793,14 +10808,14 @@
       <c r="A79" s="147" t="s">
         <v>348</v>
       </c>
-      <c r="B79" s="229"/>
-      <c r="C79" s="229"/>
-      <c r="D79" s="229"/>
-      <c r="E79" s="230"/>
+      <c r="B79" s="191"/>
+      <c r="C79" s="191"/>
+      <c r="D79" s="191"/>
+      <c r="E79" s="194"/>
       <c r="F79" s="99">
         <v>5</v>
       </c>
-      <c r="G79" s="229"/>
+      <c r="G79" s="191"/>
       <c r="H79" s="99">
         <v>220</v>
       </c>
@@ -10827,14 +10842,14 @@
       <c r="A80" s="147" t="s">
         <v>349</v>
       </c>
-      <c r="B80" s="229"/>
-      <c r="C80" s="229"/>
-      <c r="D80" s="229"/>
-      <c r="E80" s="230"/>
+      <c r="B80" s="191"/>
+      <c r="C80" s="191"/>
+      <c r="D80" s="191"/>
+      <c r="E80" s="194"/>
       <c r="F80" s="99">
         <v>6</v>
       </c>
-      <c r="G80" s="229"/>
+      <c r="G80" s="191"/>
       <c r="H80" s="99">
         <v>200</v>
       </c>
@@ -10861,14 +10876,14 @@
       <c r="A81" s="147" t="s">
         <v>350</v>
       </c>
-      <c r="B81" s="229"/>
-      <c r="C81" s="229"/>
-      <c r="D81" s="229"/>
-      <c r="E81" s="230"/>
+      <c r="B81" s="191"/>
+      <c r="C81" s="191"/>
+      <c r="D81" s="191"/>
+      <c r="E81" s="194"/>
       <c r="F81" s="99">
         <v>7</v>
       </c>
-      <c r="G81" s="229"/>
+      <c r="G81" s="191"/>
       <c r="H81" s="99">
         <v>190</v>
       </c>
@@ -10895,14 +10910,14 @@
       <c r="A82" s="147" t="s">
         <v>351</v>
       </c>
-      <c r="B82" s="229"/>
-      <c r="C82" s="229"/>
-      <c r="D82" s="229"/>
-      <c r="E82" s="230"/>
+      <c r="B82" s="191"/>
+      <c r="C82" s="191"/>
+      <c r="D82" s="191"/>
+      <c r="E82" s="194"/>
       <c r="F82" s="99">
         <v>8</v>
       </c>
-      <c r="G82" s="229"/>
+      <c r="G82" s="191"/>
       <c r="H82" s="99">
         <v>200</v>
       </c>
@@ -10929,14 +10944,14 @@
       <c r="A83" s="147" t="s">
         <v>352</v>
       </c>
-      <c r="B83" s="229"/>
-      <c r="C83" s="229"/>
-      <c r="D83" s="229"/>
-      <c r="E83" s="230"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="191"/>
+      <c r="E83" s="194"/>
       <c r="F83" s="99">
         <v>9</v>
       </c>
-      <c r="G83" s="229"/>
+      <c r="G83" s="191"/>
       <c r="H83" s="99">
         <v>200</v>
       </c>
@@ -10963,14 +10978,14 @@
       <c r="A84" s="147" t="s">
         <v>353</v>
       </c>
-      <c r="B84" s="229"/>
-      <c r="C84" s="229"/>
-      <c r="D84" s="229"/>
-      <c r="E84" s="230"/>
+      <c r="B84" s="191"/>
+      <c r="C84" s="191"/>
+      <c r="D84" s="191"/>
+      <c r="E84" s="194"/>
       <c r="F84" s="99">
         <v>10</v>
       </c>
-      <c r="G84" s="229"/>
+      <c r="G84" s="191"/>
       <c r="H84" s="99">
         <v>200</v>
       </c>
@@ -10997,14 +11012,14 @@
       <c r="A85" s="147" t="s">
         <v>354</v>
       </c>
-      <c r="B85" s="188"/>
-      <c r="C85" s="188"/>
-      <c r="D85" s="188"/>
-      <c r="E85" s="190"/>
+      <c r="B85" s="192"/>
+      <c r="C85" s="192"/>
+      <c r="D85" s="192"/>
+      <c r="E85" s="195"/>
       <c r="F85" s="99">
         <v>11</v>
       </c>
-      <c r="G85" s="188"/>
+      <c r="G85" s="192"/>
       <c r="H85" s="99">
         <v>200</v>
       </c>
@@ -11062,7 +11077,7 @@
       <c r="C87" s="94" t="s">
         <v>357</v>
       </c>
-      <c r="D87" s="209" t="s">
+      <c r="D87" s="186" t="s">
         <v>358</v>
       </c>
       <c r="E87" s="98">
@@ -11071,32 +11086,32 @@
       <c r="F87" s="94">
         <v>1</v>
       </c>
-      <c r="G87" s="206" t="s">
+      <c r="G87" s="213" t="s">
         <v>359</v>
       </c>
-      <c r="H87" s="209">
+      <c r="H87" s="186">
         <v>62</v>
       </c>
-      <c r="I87" s="209">
+      <c r="I87" s="186">
         <v>11.7</v>
       </c>
-      <c r="J87" s="231">
+      <c r="J87" s="238">
         <f>K87*L87*M87/1000000</f>
         <v>4.8543999999999997E-2</v>
       </c>
-      <c r="K87" s="209">
+      <c r="K87" s="186">
         <v>32</v>
       </c>
-      <c r="L87" s="209">
+      <c r="L87" s="186">
         <v>37</v>
       </c>
-      <c r="M87" s="209">
+      <c r="M87" s="186">
         <v>41</v>
       </c>
       <c r="N87" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="O87" s="206" t="s">
+      <c r="O87" s="213" t="s">
         <v>361</v>
       </c>
     </row>
@@ -11104,51 +11119,51 @@
       <c r="A88" s="147" t="s">
         <v>362</v>
       </c>
-      <c r="B88" s="209" t="s">
+      <c r="B88" s="186" t="s">
         <v>363</v>
       </c>
-      <c r="C88" s="209" t="s">
+      <c r="C88" s="186" t="s">
         <v>364</v>
       </c>
-      <c r="D88" s="213"/>
-      <c r="E88" s="211">
+      <c r="D88" s="187"/>
+      <c r="E88" s="197">
         <v>45673</v>
       </c>
       <c r="F88" s="94">
         <v>1</v>
       </c>
-      <c r="G88" s="207"/>
-      <c r="H88" s="213"/>
-      <c r="I88" s="213"/>
-      <c r="J88" s="232"/>
-      <c r="K88" s="213"/>
-      <c r="L88" s="213"/>
-      <c r="M88" s="213"/>
-      <c r="N88" s="206" t="s">
+      <c r="G88" s="226"/>
+      <c r="H88" s="187"/>
+      <c r="I88" s="187"/>
+      <c r="J88" s="239"/>
+      <c r="K88" s="187"/>
+      <c r="L88" s="187"/>
+      <c r="M88" s="187"/>
+      <c r="N88" s="213" t="s">
         <v>365</v>
       </c>
-      <c r="O88" s="207"/>
+      <c r="O88" s="226"/>
     </row>
     <row r="89" spans="1:15" s="101" customFormat="1" ht="21">
       <c r="A89" s="147" t="s">
         <v>366</v>
       </c>
-      <c r="B89" s="210"/>
-      <c r="C89" s="210"/>
-      <c r="D89" s="210"/>
-      <c r="E89" s="212"/>
+      <c r="B89" s="188"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="188"/>
+      <c r="E89" s="199"/>
       <c r="F89" s="94">
         <v>2</v>
       </c>
-      <c r="G89" s="208"/>
-      <c r="H89" s="210"/>
-      <c r="I89" s="210"/>
-      <c r="J89" s="233"/>
-      <c r="K89" s="210"/>
-      <c r="L89" s="210"/>
-      <c r="M89" s="210"/>
-      <c r="N89" s="208"/>
-      <c r="O89" s="208"/>
+      <c r="G89" s="227"/>
+      <c r="H89" s="188"/>
+      <c r="I89" s="188"/>
+      <c r="J89" s="240"/>
+      <c r="K89" s="188"/>
+      <c r="L89" s="188"/>
+      <c r="M89" s="188"/>
+      <c r="N89" s="227"/>
+      <c r="O89" s="227"/>
     </row>
     <row r="90" spans="1:15" s="105" customFormat="1" ht="22.5">
       <c r="A90" s="146"/>
@@ -11854,22 +11869,22 @@
       <c r="A111" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="B111" s="187" t="s">
+      <c r="B111" s="190" t="s">
         <v>172</v>
       </c>
-      <c r="C111" s="187" t="s">
+      <c r="C111" s="190" t="s">
         <v>173</v>
       </c>
-      <c r="D111" s="187" t="s">
+      <c r="D111" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="E111" s="189">
+      <c r="E111" s="193">
         <v>45680</v>
       </c>
       <c r="F111" s="99">
         <v>1</v>
       </c>
-      <c r="G111" s="191" t="s">
+      <c r="G111" s="206" t="s">
         <v>174</v>
       </c>
       <c r="H111" s="99"/>
@@ -11896,14 +11911,14 @@
       <c r="A112" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="B112" s="229"/>
-      <c r="C112" s="229"/>
-      <c r="D112" s="229"/>
-      <c r="E112" s="230"/>
+      <c r="B112" s="191"/>
+      <c r="C112" s="191"/>
+      <c r="D112" s="191"/>
+      <c r="E112" s="194"/>
       <c r="F112" s="99">
         <v>2</v>
       </c>
-      <c r="G112" s="229"/>
+      <c r="G112" s="191"/>
       <c r="H112" s="99"/>
       <c r="I112" s="99">
         <v>9.1</v>
@@ -11928,14 +11943,14 @@
       <c r="A113" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="B113" s="229"/>
-      <c r="C113" s="229"/>
-      <c r="D113" s="229"/>
-      <c r="E113" s="230"/>
+      <c r="B113" s="191"/>
+      <c r="C113" s="191"/>
+      <c r="D113" s="191"/>
+      <c r="E113" s="194"/>
       <c r="F113" s="99">
         <v>3</v>
       </c>
-      <c r="G113" s="229"/>
+      <c r="G113" s="191"/>
       <c r="H113" s="99"/>
       <c r="I113" s="99">
         <v>24.1</v>
@@ -11960,14 +11975,14 @@
       <c r="A114" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="B114" s="188"/>
-      <c r="C114" s="188"/>
-      <c r="D114" s="188"/>
-      <c r="E114" s="190"/>
+      <c r="B114" s="192"/>
+      <c r="C114" s="192"/>
+      <c r="D114" s="192"/>
+      <c r="E114" s="195"/>
       <c r="F114" s="99">
         <v>4</v>
       </c>
-      <c r="G114" s="188"/>
+      <c r="G114" s="192"/>
       <c r="H114" s="99"/>
       <c r="I114" s="99">
         <v>6.4</v>
@@ -12089,25 +12104,25 @@
       <c r="A118" s="99" t="s">
         <v>452</v>
       </c>
-      <c r="B118" s="245" t="s">
+      <c r="B118" s="230" t="s">
         <v>453</v>
       </c>
       <c r="C118" s="99" t="s">
         <v>454</v>
       </c>
-      <c r="D118" s="245" t="s">
+      <c r="D118" s="230" t="s">
         <v>449</v>
       </c>
-      <c r="E118" s="246">
+      <c r="E118" s="231">
         <v>45698</v>
       </c>
       <c r="F118" s="99">
         <v>1</v>
       </c>
-      <c r="G118" s="245" t="s">
+      <c r="G118" s="230" t="s">
         <v>450</v>
       </c>
-      <c r="H118" s="245">
+      <c r="H118" s="230">
         <v>2</v>
       </c>
       <c r="I118" s="99">
@@ -12126,7 +12141,7 @@
         <v>10</v>
       </c>
       <c r="N118" s="99"/>
-      <c r="O118" s="245" t="s">
+      <c r="O118" s="230" t="s">
         <v>24</v>
       </c>
     </row>
@@ -12134,17 +12149,17 @@
       <c r="A119" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="B119" s="245"/>
+      <c r="B119" s="230"/>
       <c r="C119" s="99" t="s">
         <v>456</v>
       </c>
-      <c r="D119" s="245"/>
-      <c r="E119" s="246"/>
+      <c r="D119" s="230"/>
+      <c r="E119" s="231"/>
       <c r="F119" s="99">
         <v>2</v>
       </c>
-      <c r="G119" s="245"/>
-      <c r="H119" s="245"/>
+      <c r="G119" s="230"/>
+      <c r="H119" s="230"/>
       <c r="I119" s="99">
         <v>1.4</v>
       </c>
@@ -12161,7 +12176,7 @@
         <v>14</v>
       </c>
       <c r="N119" s="99"/>
-      <c r="O119" s="245"/>
+      <c r="O119" s="230"/>
     </row>
     <row r="120" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A120" s="42"/>
@@ -12538,25 +12553,25 @@
       <c r="A131" s="99" t="s">
         <v>495</v>
       </c>
-      <c r="B131" s="187" t="s">
+      <c r="B131" s="190" t="s">
         <v>496</v>
       </c>
-      <c r="C131" s="187" t="s">
+      <c r="C131" s="190" t="s">
         <v>497</v>
       </c>
-      <c r="D131" s="187" t="s">
+      <c r="D131" s="190" t="s">
         <v>358</v>
       </c>
-      <c r="E131" s="189">
+      <c r="E131" s="193">
         <v>45706</v>
       </c>
       <c r="F131" s="99">
         <v>1</v>
       </c>
-      <c r="G131" s="187" t="s">
+      <c r="G131" s="190" t="s">
         <v>498</v>
       </c>
-      <c r="H131" s="187">
+      <c r="H131" s="190">
         <v>16</v>
       </c>
       <c r="I131" s="99">
@@ -12574,7 +12589,7 @@
       <c r="M131" s="99">
         <v>31</v>
       </c>
-      <c r="N131" s="191" t="s">
+      <c r="N131" s="206" t="s">
         <v>499</v>
       </c>
       <c r="O131" s="99"/>
@@ -12583,15 +12598,15 @@
       <c r="A132" s="99" t="s">
         <v>500</v>
       </c>
-      <c r="B132" s="229"/>
-      <c r="C132" s="229"/>
-      <c r="D132" s="229"/>
-      <c r="E132" s="230"/>
+      <c r="B132" s="191"/>
+      <c r="C132" s="191"/>
+      <c r="D132" s="191"/>
+      <c r="E132" s="194"/>
       <c r="F132" s="99">
         <v>2</v>
       </c>
-      <c r="G132" s="229"/>
-      <c r="H132" s="229"/>
+      <c r="G132" s="191"/>
+      <c r="H132" s="191"/>
       <c r="I132" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12607,22 +12622,22 @@
       <c r="M132" s="99">
         <v>31</v>
       </c>
-      <c r="N132" s="248"/>
+      <c r="N132" s="233"/>
       <c r="O132" s="99"/>
     </row>
     <row r="133" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A133" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="B133" s="229"/>
-      <c r="C133" s="229"/>
-      <c r="D133" s="229"/>
-      <c r="E133" s="230"/>
+      <c r="B133" s="191"/>
+      <c r="C133" s="191"/>
+      <c r="D133" s="191"/>
+      <c r="E133" s="194"/>
       <c r="F133" s="99">
         <v>3</v>
       </c>
-      <c r="G133" s="229"/>
-      <c r="H133" s="229"/>
+      <c r="G133" s="191"/>
+      <c r="H133" s="191"/>
       <c r="I133" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12638,22 +12653,22 @@
       <c r="M133" s="99">
         <v>31</v>
       </c>
-      <c r="N133" s="248"/>
+      <c r="N133" s="233"/>
       <c r="O133" s="99"/>
     </row>
     <row r="134" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A134" s="99" t="s">
         <v>501</v>
       </c>
-      <c r="B134" s="188"/>
-      <c r="C134" s="188"/>
-      <c r="D134" s="188"/>
-      <c r="E134" s="190"/>
+      <c r="B134" s="192"/>
+      <c r="C134" s="192"/>
+      <c r="D134" s="192"/>
+      <c r="E134" s="195"/>
       <c r="F134" s="99">
         <v>4</v>
       </c>
-      <c r="G134" s="188"/>
-      <c r="H134" s="188"/>
+      <c r="G134" s="192"/>
+      <c r="H134" s="192"/>
       <c r="I134" s="99">
         <v>10.199999999999999</v>
       </c>
@@ -12669,7 +12684,7 @@
       <c r="M134" s="99">
         <v>31</v>
       </c>
-      <c r="N134" s="192"/>
+      <c r="N134" s="234"/>
       <c r="O134" s="99"/>
     </row>
     <row r="135" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
@@ -12699,25 +12714,25 @@
       <c r="A136" s="94" t="s">
         <v>502</v>
       </c>
-      <c r="B136" s="209" t="s">
+      <c r="B136" s="186" t="s">
         <v>503</v>
       </c>
-      <c r="C136" s="209" t="s">
+      <c r="C136" s="186" t="s">
         <v>504</v>
       </c>
-      <c r="D136" s="209" t="s">
+      <c r="D136" s="186" t="s">
         <v>505</v>
       </c>
-      <c r="E136" s="211">
+      <c r="E136" s="197">
         <v>45706</v>
       </c>
       <c r="F136" s="94">
         <v>1</v>
       </c>
-      <c r="G136" s="206" t="s">
+      <c r="G136" s="213" t="s">
         <v>506</v>
       </c>
-      <c r="H136" s="209">
+      <c r="H136" s="186">
         <v>553</v>
       </c>
       <c r="I136" s="94">
@@ -12736,7 +12751,7 @@
         <v>49</v>
       </c>
       <c r="N136" s="94"/>
-      <c r="O136" s="209" t="s">
+      <c r="O136" s="186" t="s">
         <v>159</v>
       </c>
     </row>
@@ -12744,15 +12759,15 @@
       <c r="A137" s="94" t="s">
         <v>507</v>
       </c>
-      <c r="B137" s="213"/>
-      <c r="C137" s="213"/>
-      <c r="D137" s="213"/>
-      <c r="E137" s="214"/>
+      <c r="B137" s="187"/>
+      <c r="C137" s="187"/>
+      <c r="D137" s="187"/>
+      <c r="E137" s="198"/>
       <c r="F137" s="94">
         <v>2</v>
       </c>
-      <c r="G137" s="207"/>
-      <c r="H137" s="213"/>
+      <c r="G137" s="226"/>
+      <c r="H137" s="187"/>
       <c r="I137" s="94">
         <v>11.9</v>
       </c>
@@ -12769,21 +12784,21 @@
         <v>49</v>
       </c>
       <c r="N137" s="94"/>
-      <c r="O137" s="213"/>
+      <c r="O137" s="187"/>
     </row>
     <row r="138" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A138" s="94" t="s">
         <v>508</v>
       </c>
-      <c r="B138" s="213"/>
-      <c r="C138" s="213"/>
-      <c r="D138" s="213"/>
-      <c r="E138" s="214"/>
+      <c r="B138" s="187"/>
+      <c r="C138" s="187"/>
+      <c r="D138" s="187"/>
+      <c r="E138" s="198"/>
       <c r="F138" s="94">
         <v>3</v>
       </c>
-      <c r="G138" s="207"/>
-      <c r="H138" s="213"/>
+      <c r="G138" s="226"/>
+      <c r="H138" s="187"/>
       <c r="I138" s="94">
         <v>13.8</v>
       </c>
@@ -12800,21 +12815,21 @@
         <v>49</v>
       </c>
       <c r="N138" s="94"/>
-      <c r="O138" s="213"/>
+      <c r="O138" s="187"/>
     </row>
     <row r="139" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A139" s="94" t="s">
         <v>509</v>
       </c>
-      <c r="B139" s="213"/>
-      <c r="C139" s="213"/>
-      <c r="D139" s="213"/>
-      <c r="E139" s="214"/>
+      <c r="B139" s="187"/>
+      <c r="C139" s="187"/>
+      <c r="D139" s="187"/>
+      <c r="E139" s="198"/>
       <c r="F139" s="94">
         <v>4</v>
       </c>
-      <c r="G139" s="207"/>
-      <c r="H139" s="213"/>
+      <c r="G139" s="226"/>
+      <c r="H139" s="187"/>
       <c r="I139" s="94">
         <v>17.600000000000001</v>
       </c>
@@ -12831,21 +12846,21 @@
         <v>49</v>
       </c>
       <c r="N139" s="94"/>
-      <c r="O139" s="213"/>
+      <c r="O139" s="187"/>
     </row>
     <row r="140" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A140" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="B140" s="213"/>
-      <c r="C140" s="213"/>
-      <c r="D140" s="213"/>
-      <c r="E140" s="214"/>
+      <c r="B140" s="187"/>
+      <c r="C140" s="187"/>
+      <c r="D140" s="187"/>
+      <c r="E140" s="198"/>
       <c r="F140" s="94">
         <v>5</v>
       </c>
-      <c r="G140" s="207"/>
-      <c r="H140" s="213"/>
+      <c r="G140" s="226"/>
+      <c r="H140" s="187"/>
       <c r="I140" s="94">
         <v>7.8</v>
       </c>
@@ -12862,21 +12877,21 @@
         <v>43</v>
       </c>
       <c r="N140" s="94"/>
-      <c r="O140" s="213"/>
+      <c r="O140" s="187"/>
     </row>
     <row r="141" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A141" s="94" t="s">
         <v>511</v>
       </c>
-      <c r="B141" s="213"/>
-      <c r="C141" s="213"/>
-      <c r="D141" s="213"/>
-      <c r="E141" s="214"/>
+      <c r="B141" s="187"/>
+      <c r="C141" s="187"/>
+      <c r="D141" s="187"/>
+      <c r="E141" s="198"/>
       <c r="F141" s="94">
         <v>6</v>
       </c>
-      <c r="G141" s="207"/>
-      <c r="H141" s="213"/>
+      <c r="G141" s="226"/>
+      <c r="H141" s="187"/>
       <c r="I141" s="94">
         <v>15.5</v>
       </c>
@@ -12893,21 +12908,21 @@
         <v>49</v>
       </c>
       <c r="N141" s="94"/>
-      <c r="O141" s="213"/>
+      <c r="O141" s="187"/>
     </row>
     <row r="142" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A142" s="94" t="s">
         <v>512</v>
       </c>
-      <c r="B142" s="210"/>
-      <c r="C142" s="210"/>
-      <c r="D142" s="210"/>
-      <c r="E142" s="212"/>
+      <c r="B142" s="188"/>
+      <c r="C142" s="188"/>
+      <c r="D142" s="188"/>
+      <c r="E142" s="199"/>
       <c r="F142" s="94">
         <v>7</v>
       </c>
-      <c r="G142" s="208"/>
-      <c r="H142" s="210"/>
+      <c r="G142" s="227"/>
+      <c r="H142" s="188"/>
       <c r="I142" s="94">
         <v>14.6</v>
       </c>
@@ -12924,7 +12939,7 @@
         <v>49</v>
       </c>
       <c r="N142" s="94"/>
-      <c r="O142" s="210"/>
+      <c r="O142" s="188"/>
     </row>
     <row r="143" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A143" s="42"/>
@@ -13572,22 +13587,22 @@
       <c r="A162" s="113" t="s">
         <v>598</v>
       </c>
-      <c r="B162" s="193" t="s">
+      <c r="B162" s="214" t="s">
         <v>599</v>
       </c>
       <c r="C162" s="113" t="s">
         <v>600</v>
       </c>
-      <c r="D162" s="193" t="s">
+      <c r="D162" s="214" t="s">
         <v>238</v>
       </c>
-      <c r="E162" s="195">
+      <c r="E162" s="249">
         <v>45713</v>
       </c>
       <c r="F162" s="113">
         <v>1</v>
       </c>
-      <c r="G162" s="193" t="s">
+      <c r="G162" s="214" t="s">
         <v>97</v>
       </c>
       <c r="H162" s="113"/>
@@ -13607,7 +13622,7 @@
         <v>37</v>
       </c>
       <c r="N162" s="113"/>
-      <c r="O162" s="193" t="s">
+      <c r="O162" s="214" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13615,16 +13630,16 @@
       <c r="A163" s="113" t="s">
         <v>601</v>
       </c>
-      <c r="B163" s="194"/>
+      <c r="B163" s="216"/>
       <c r="C163" s="113" t="s">
         <v>602</v>
       </c>
-      <c r="D163" s="194"/>
-      <c r="E163" s="196"/>
+      <c r="D163" s="216"/>
+      <c r="E163" s="250"/>
       <c r="F163" s="113">
         <v>2</v>
       </c>
-      <c r="G163" s="194"/>
+      <c r="G163" s="216"/>
       <c r="H163" s="113"/>
       <c r="I163" s="113">
         <v>2</v>
@@ -13642,7 +13657,7 @@
         <v>16</v>
       </c>
       <c r="N163" s="113"/>
-      <c r="O163" s="194"/>
+      <c r="O163" s="216"/>
     </row>
     <row r="164" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A164" s="42"/>
@@ -13673,25 +13688,25 @@
       <c r="A165" s="113" t="s">
         <v>603</v>
       </c>
-      <c r="B165" s="193" t="s">
+      <c r="B165" s="214" t="s">
         <v>604</v>
       </c>
-      <c r="C165" s="193" t="s">
+      <c r="C165" s="214" t="s">
         <v>605</v>
       </c>
-      <c r="D165" s="193" t="s">
+      <c r="D165" s="214" t="s">
         <v>606</v>
       </c>
-      <c r="E165" s="195">
+      <c r="E165" s="249">
         <v>45713</v>
       </c>
       <c r="F165" s="113">
         <v>1</v>
       </c>
-      <c r="G165" s="193" t="s">
+      <c r="G165" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="H165" s="193">
+      <c r="H165" s="214">
         <v>120</v>
       </c>
       <c r="I165" s="113">
@@ -13710,7 +13725,7 @@
         <v>50</v>
       </c>
       <c r="N165" s="113"/>
-      <c r="O165" s="193" t="s">
+      <c r="O165" s="214" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13718,15 +13733,15 @@
       <c r="A166" s="113" t="s">
         <v>607</v>
       </c>
-      <c r="B166" s="197"/>
-      <c r="C166" s="197"/>
-      <c r="D166" s="197"/>
-      <c r="E166" s="198"/>
+      <c r="B166" s="215"/>
+      <c r="C166" s="215"/>
+      <c r="D166" s="215"/>
+      <c r="E166" s="223"/>
       <c r="F166" s="113">
         <v>2</v>
       </c>
-      <c r="G166" s="197"/>
-      <c r="H166" s="197"/>
+      <c r="G166" s="215"/>
+      <c r="H166" s="215"/>
       <c r="I166" s="113">
         <v>19.5</v>
       </c>
@@ -13743,21 +13758,21 @@
         <v>50</v>
       </c>
       <c r="N166" s="113"/>
-      <c r="O166" s="197"/>
+      <c r="O166" s="215"/>
     </row>
     <row r="167" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A167" s="113" t="s">
         <v>608</v>
       </c>
-      <c r="B167" s="197"/>
-      <c r="C167" s="197"/>
-      <c r="D167" s="197"/>
-      <c r="E167" s="198"/>
+      <c r="B167" s="215"/>
+      <c r="C167" s="215"/>
+      <c r="D167" s="215"/>
+      <c r="E167" s="223"/>
       <c r="F167" s="113">
         <v>3</v>
       </c>
-      <c r="G167" s="197"/>
-      <c r="H167" s="197"/>
+      <c r="G167" s="215"/>
+      <c r="H167" s="215"/>
       <c r="I167" s="113">
         <v>22</v>
       </c>
@@ -13774,21 +13789,21 @@
         <v>50</v>
       </c>
       <c r="N167" s="113"/>
-      <c r="O167" s="197"/>
+      <c r="O167" s="215"/>
     </row>
     <row r="168" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A168" s="113" t="s">
         <v>609</v>
       </c>
-      <c r="B168" s="197"/>
-      <c r="C168" s="197"/>
-      <c r="D168" s="197"/>
-      <c r="E168" s="198"/>
+      <c r="B168" s="215"/>
+      <c r="C168" s="215"/>
+      <c r="D168" s="215"/>
+      <c r="E168" s="223"/>
       <c r="F168" s="113">
         <v>4</v>
       </c>
-      <c r="G168" s="197"/>
-      <c r="H168" s="197"/>
+      <c r="G168" s="215"/>
+      <c r="H168" s="215"/>
       <c r="I168" s="113">
         <v>21.2</v>
       </c>
@@ -13805,21 +13820,21 @@
         <v>50</v>
       </c>
       <c r="N168" s="113"/>
-      <c r="O168" s="197"/>
+      <c r="O168" s="215"/>
     </row>
     <row r="169" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A169" s="113" t="s">
         <v>610</v>
       </c>
-      <c r="B169" s="197"/>
-      <c r="C169" s="197"/>
-      <c r="D169" s="197"/>
-      <c r="E169" s="198"/>
+      <c r="B169" s="215"/>
+      <c r="C169" s="215"/>
+      <c r="D169" s="215"/>
+      <c r="E169" s="223"/>
       <c r="F169" s="113">
         <v>5</v>
       </c>
-      <c r="G169" s="197"/>
-      <c r="H169" s="197"/>
+      <c r="G169" s="215"/>
+      <c r="H169" s="215"/>
       <c r="I169" s="113">
         <v>19.600000000000001</v>
       </c>
@@ -13836,21 +13851,21 @@
         <v>50</v>
       </c>
       <c r="N169" s="113"/>
-      <c r="O169" s="197"/>
+      <c r="O169" s="215"/>
     </row>
     <row r="170" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A170" s="113" t="s">
         <v>611</v>
       </c>
-      <c r="B170" s="194"/>
-      <c r="C170" s="194"/>
-      <c r="D170" s="194"/>
-      <c r="E170" s="199"/>
+      <c r="B170" s="216"/>
+      <c r="C170" s="216"/>
+      <c r="D170" s="216"/>
+      <c r="E170" s="221"/>
       <c r="F170" s="113">
         <v>6</v>
       </c>
-      <c r="G170" s="194"/>
-      <c r="H170" s="194"/>
+      <c r="G170" s="216"/>
+      <c r="H170" s="216"/>
       <c r="I170" s="113">
         <v>20.2</v>
       </c>
@@ -13867,7 +13882,7 @@
         <v>50</v>
       </c>
       <c r="N170" s="113"/>
-      <c r="O170" s="194"/>
+      <c r="O170" s="216"/>
     </row>
     <row r="171" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A171" s="42"/>
@@ -13896,25 +13911,25 @@
       <c r="A172" s="99" t="s">
         <v>619</v>
       </c>
-      <c r="B172" s="187" t="s">
+      <c r="B172" s="190" t="s">
         <v>620</v>
       </c>
-      <c r="C172" s="187" t="s">
+      <c r="C172" s="190" t="s">
         <v>621</v>
       </c>
-      <c r="D172" s="187" t="s">
+      <c r="D172" s="190" t="s">
         <v>155</v>
       </c>
-      <c r="E172" s="189">
+      <c r="E172" s="193">
         <v>45714</v>
       </c>
       <c r="F172" s="99">
         <v>1</v>
       </c>
-      <c r="G172" s="187" t="s">
+      <c r="G172" s="190" t="s">
         <v>622</v>
       </c>
-      <c r="H172" s="187"/>
+      <c r="H172" s="190"/>
       <c r="I172" s="99">
         <v>7.1</v>
       </c>
@@ -13932,7 +13947,7 @@
         <v>40</v>
       </c>
       <c r="N172" s="99"/>
-      <c r="O172" s="187" t="s">
+      <c r="O172" s="190" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13940,15 +13955,15 @@
       <c r="A173" s="99" t="s">
         <v>623</v>
       </c>
-      <c r="B173" s="229"/>
-      <c r="C173" s="229"/>
-      <c r="D173" s="229"/>
-      <c r="E173" s="230"/>
+      <c r="B173" s="191"/>
+      <c r="C173" s="191"/>
+      <c r="D173" s="191"/>
+      <c r="E173" s="194"/>
       <c r="F173" s="99">
         <v>2</v>
       </c>
-      <c r="G173" s="229"/>
-      <c r="H173" s="229"/>
+      <c r="G173" s="191"/>
+      <c r="H173" s="191"/>
       <c r="I173" s="99">
         <v>7.3</v>
       </c>
@@ -13966,21 +13981,21 @@
         <v>40</v>
       </c>
       <c r="N173" s="99"/>
-      <c r="O173" s="229"/>
+      <c r="O173" s="191"/>
     </row>
     <row r="174" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A174" s="99" t="s">
         <v>624</v>
       </c>
-      <c r="B174" s="229"/>
-      <c r="C174" s="229"/>
-      <c r="D174" s="229"/>
-      <c r="E174" s="230"/>
+      <c r="B174" s="191"/>
+      <c r="C174" s="191"/>
+      <c r="D174" s="191"/>
+      <c r="E174" s="194"/>
       <c r="F174" s="99">
         <v>3</v>
       </c>
-      <c r="G174" s="229"/>
-      <c r="H174" s="229"/>
+      <c r="G174" s="191"/>
+      <c r="H174" s="191"/>
       <c r="I174" s="99">
         <v>7</v>
       </c>
@@ -13998,21 +14013,21 @@
         <v>40</v>
       </c>
       <c r="N174" s="99"/>
-      <c r="O174" s="229"/>
+      <c r="O174" s="191"/>
     </row>
     <row r="175" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A175" s="99" t="s">
         <v>625</v>
       </c>
-      <c r="B175" s="229"/>
-      <c r="C175" s="229"/>
-      <c r="D175" s="229"/>
-      <c r="E175" s="230"/>
+      <c r="B175" s="191"/>
+      <c r="C175" s="191"/>
+      <c r="D175" s="191"/>
+      <c r="E175" s="194"/>
       <c r="F175" s="99">
         <v>4</v>
       </c>
-      <c r="G175" s="229"/>
-      <c r="H175" s="229"/>
+      <c r="G175" s="191"/>
+      <c r="H175" s="191"/>
       <c r="I175" s="99">
         <v>8.4</v>
       </c>
@@ -14030,21 +14045,21 @@
         <v>40</v>
       </c>
       <c r="N175" s="99"/>
-      <c r="O175" s="229"/>
+      <c r="O175" s="191"/>
     </row>
     <row r="176" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A176" s="99" t="s">
         <v>626</v>
       </c>
-      <c r="B176" s="229"/>
-      <c r="C176" s="229"/>
-      <c r="D176" s="229"/>
-      <c r="E176" s="230"/>
+      <c r="B176" s="191"/>
+      <c r="C176" s="191"/>
+      <c r="D176" s="191"/>
+      <c r="E176" s="194"/>
       <c r="F176" s="99">
         <v>5</v>
       </c>
-      <c r="G176" s="229"/>
-      <c r="H176" s="229"/>
+      <c r="G176" s="191"/>
+      <c r="H176" s="191"/>
       <c r="I176" s="99">
         <v>6.7</v>
       </c>
@@ -14062,21 +14077,21 @@
         <v>40</v>
       </c>
       <c r="N176" s="99"/>
-      <c r="O176" s="229"/>
+      <c r="O176" s="191"/>
     </row>
     <row r="177" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A177" s="99" t="s">
         <v>627</v>
       </c>
-      <c r="B177" s="229"/>
-      <c r="C177" s="229"/>
-      <c r="D177" s="229"/>
-      <c r="E177" s="230"/>
+      <c r="B177" s="191"/>
+      <c r="C177" s="191"/>
+      <c r="D177" s="191"/>
+      <c r="E177" s="194"/>
       <c r="F177" s="99">
         <v>6</v>
       </c>
-      <c r="G177" s="229"/>
-      <c r="H177" s="229"/>
+      <c r="G177" s="191"/>
+      <c r="H177" s="191"/>
       <c r="I177" s="99">
         <v>6.9</v>
       </c>
@@ -14094,21 +14109,21 @@
         <v>40</v>
       </c>
       <c r="N177" s="99"/>
-      <c r="O177" s="229"/>
+      <c r="O177" s="191"/>
     </row>
     <row r="178" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A178" s="99" t="s">
         <v>628</v>
       </c>
-      <c r="B178" s="229"/>
-      <c r="C178" s="229"/>
-      <c r="D178" s="229"/>
-      <c r="E178" s="230"/>
+      <c r="B178" s="191"/>
+      <c r="C178" s="191"/>
+      <c r="D178" s="191"/>
+      <c r="E178" s="194"/>
       <c r="F178" s="99">
         <v>7</v>
       </c>
-      <c r="G178" s="229"/>
-      <c r="H178" s="229"/>
+      <c r="G178" s="191"/>
+      <c r="H178" s="191"/>
       <c r="I178" s="99">
         <v>5.8</v>
       </c>
@@ -14126,21 +14141,21 @@
         <v>40</v>
       </c>
       <c r="N178" s="99"/>
-      <c r="O178" s="229"/>
+      <c r="O178" s="191"/>
     </row>
     <row r="179" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A179" s="99" t="s">
         <v>629</v>
       </c>
-      <c r="B179" s="188"/>
-      <c r="C179" s="188"/>
-      <c r="D179" s="188"/>
-      <c r="E179" s="190"/>
+      <c r="B179" s="192"/>
+      <c r="C179" s="192"/>
+      <c r="D179" s="192"/>
+      <c r="E179" s="195"/>
       <c r="F179" s="99">
         <v>8</v>
       </c>
-      <c r="G179" s="188"/>
-      <c r="H179" s="188"/>
+      <c r="G179" s="192"/>
+      <c r="H179" s="192"/>
       <c r="I179" s="99">
         <v>7.1</v>
       </c>
@@ -14158,7 +14173,7 @@
         <v>40</v>
       </c>
       <c r="N179" s="99"/>
-      <c r="O179" s="188"/>
+      <c r="O179" s="192"/>
     </row>
     <row r="180" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A180" s="178"/>
@@ -14327,25 +14342,25 @@
       <c r="A185" s="60" t="s">
         <v>644</v>
       </c>
-      <c r="B185" s="234" t="s">
+      <c r="B185" s="207" t="s">
         <v>645</v>
       </c>
-      <c r="C185" s="234" t="s">
+      <c r="C185" s="207" t="s">
         <v>646</v>
       </c>
-      <c r="D185" s="234" t="s">
+      <c r="D185" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="E185" s="235">
+      <c r="E185" s="210">
         <v>45715</v>
       </c>
       <c r="F185" s="60">
         <v>1</v>
       </c>
-      <c r="G185" s="206" t="s">
+      <c r="G185" s="213" t="s">
         <v>647</v>
       </c>
-      <c r="H185" s="234">
+      <c r="H185" s="207">
         <v>604</v>
       </c>
       <c r="I185" s="60">
@@ -14364,7 +14379,7 @@
         <v>49</v>
       </c>
       <c r="N185" s="60"/>
-      <c r="O185" s="234" t="s">
+      <c r="O185" s="207" t="s">
         <v>648</v>
       </c>
     </row>
@@ -14372,15 +14387,15 @@
       <c r="A186" s="60" t="s">
         <v>649</v>
       </c>
-      <c r="B186" s="227"/>
-      <c r="C186" s="227"/>
-      <c r="D186" s="227"/>
-      <c r="E186" s="236"/>
+      <c r="B186" s="208"/>
+      <c r="C186" s="208"/>
+      <c r="D186" s="208"/>
+      <c r="E186" s="211"/>
       <c r="F186" s="60">
         <v>2</v>
       </c>
-      <c r="G186" s="227"/>
-      <c r="H186" s="227"/>
+      <c r="G186" s="208"/>
+      <c r="H186" s="208"/>
       <c r="I186" s="60">
         <v>14.2</v>
       </c>
@@ -14397,21 +14412,21 @@
         <v>49</v>
       </c>
       <c r="N186" s="60"/>
-      <c r="O186" s="227"/>
+      <c r="O186" s="208"/>
     </row>
     <row r="187" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A187" s="60" t="s">
         <v>650</v>
       </c>
-      <c r="B187" s="227"/>
-      <c r="C187" s="227"/>
-      <c r="D187" s="227"/>
-      <c r="E187" s="236"/>
+      <c r="B187" s="208"/>
+      <c r="C187" s="208"/>
+      <c r="D187" s="208"/>
+      <c r="E187" s="211"/>
       <c r="F187" s="60">
         <v>3</v>
       </c>
-      <c r="G187" s="227"/>
-      <c r="H187" s="227"/>
+      <c r="G187" s="208"/>
+      <c r="H187" s="208"/>
       <c r="I187" s="60">
         <v>14.8</v>
       </c>
@@ -14428,21 +14443,21 @@
         <v>49</v>
       </c>
       <c r="N187" s="60"/>
-      <c r="O187" s="227"/>
+      <c r="O187" s="208"/>
     </row>
     <row r="188" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A188" s="60" t="s">
         <v>651</v>
       </c>
-      <c r="B188" s="227"/>
-      <c r="C188" s="227"/>
-      <c r="D188" s="227"/>
-      <c r="E188" s="236"/>
+      <c r="B188" s="208"/>
+      <c r="C188" s="208"/>
+      <c r="D188" s="208"/>
+      <c r="E188" s="211"/>
       <c r="F188" s="60">
         <v>4</v>
       </c>
-      <c r="G188" s="227"/>
-      <c r="H188" s="227"/>
+      <c r="G188" s="208"/>
+      <c r="H188" s="208"/>
       <c r="I188" s="60">
         <v>16.7</v>
       </c>
@@ -14459,21 +14474,21 @@
         <v>49</v>
       </c>
       <c r="N188" s="60"/>
-      <c r="O188" s="227"/>
+      <c r="O188" s="208"/>
     </row>
     <row r="189" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A189" s="60" t="s">
         <v>652</v>
       </c>
-      <c r="B189" s="227"/>
-      <c r="C189" s="227"/>
-      <c r="D189" s="227"/>
-      <c r="E189" s="236"/>
+      <c r="B189" s="208"/>
+      <c r="C189" s="208"/>
+      <c r="D189" s="208"/>
+      <c r="E189" s="211"/>
       <c r="F189" s="60">
         <v>5</v>
       </c>
-      <c r="G189" s="227"/>
-      <c r="H189" s="227"/>
+      <c r="G189" s="208"/>
+      <c r="H189" s="208"/>
       <c r="I189" s="60">
         <v>7.4</v>
       </c>
@@ -14490,21 +14505,21 @@
         <v>49</v>
       </c>
       <c r="N189" s="60"/>
-      <c r="O189" s="227"/>
+      <c r="O189" s="208"/>
     </row>
     <row r="190" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A190" s="60" t="s">
         <v>457</v>
       </c>
-      <c r="B190" s="227"/>
-      <c r="C190" s="227"/>
-      <c r="D190" s="227"/>
-      <c r="E190" s="236"/>
+      <c r="B190" s="208"/>
+      <c r="C190" s="208"/>
+      <c r="D190" s="208"/>
+      <c r="E190" s="211"/>
       <c r="F190" s="60">
         <v>6</v>
       </c>
-      <c r="G190" s="227"/>
-      <c r="H190" s="227"/>
+      <c r="G190" s="208"/>
+      <c r="H190" s="208"/>
       <c r="I190" s="60">
         <v>5.9</v>
       </c>
@@ -14521,21 +14536,21 @@
         <v>49</v>
       </c>
       <c r="N190" s="60"/>
-      <c r="O190" s="227"/>
+      <c r="O190" s="208"/>
     </row>
     <row r="191" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A191" s="60" t="s">
         <v>653</v>
       </c>
-      <c r="B191" s="228"/>
-      <c r="C191" s="228"/>
-      <c r="D191" s="228"/>
-      <c r="E191" s="237"/>
+      <c r="B191" s="209"/>
+      <c r="C191" s="209"/>
+      <c r="D191" s="209"/>
+      <c r="E191" s="212"/>
       <c r="F191" s="60">
         <v>7</v>
       </c>
-      <c r="G191" s="228"/>
-      <c r="H191" s="228"/>
+      <c r="G191" s="209"/>
+      <c r="H191" s="209"/>
       <c r="I191" s="60">
         <v>3.6</v>
       </c>
@@ -14552,7 +14567,7 @@
         <v>25</v>
       </c>
       <c r="N191" s="60"/>
-      <c r="O191" s="228"/>
+      <c r="O191" s="209"/>
     </row>
     <row r="192" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A192" s="42"/>
@@ -14581,25 +14596,25 @@
       <c r="A193" s="113" t="s">
         <v>654</v>
       </c>
-      <c r="B193" s="193" t="s">
+      <c r="B193" s="214" t="s">
         <v>655</v>
       </c>
-      <c r="C193" s="193" t="s">
+      <c r="C193" s="214" t="s">
         <v>656</v>
       </c>
-      <c r="D193" s="193" t="s">
+      <c r="D193" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="E193" s="204">
+      <c r="E193" s="217">
         <v>45715</v>
       </c>
       <c r="F193" s="113">
         <v>1</v>
       </c>
-      <c r="G193" s="193" t="s">
+      <c r="G193" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="H193" s="193">
+      <c r="H193" s="214">
         <v>20</v>
       </c>
       <c r="I193" s="113">
@@ -14618,7 +14633,7 @@
         <v>40</v>
       </c>
       <c r="N193" s="113"/>
-      <c r="O193" s="193" t="s">
+      <c r="O193" s="214" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14626,15 +14641,15 @@
       <c r="A194" s="113" t="s">
         <v>657</v>
       </c>
-      <c r="B194" s="197"/>
-      <c r="C194" s="197"/>
-      <c r="D194" s="197"/>
-      <c r="E194" s="215"/>
+      <c r="B194" s="215"/>
+      <c r="C194" s="215"/>
+      <c r="D194" s="215"/>
+      <c r="E194" s="218"/>
       <c r="F194" s="113">
         <v>2</v>
       </c>
-      <c r="G194" s="197"/>
-      <c r="H194" s="197"/>
+      <c r="G194" s="215"/>
+      <c r="H194" s="215"/>
       <c r="I194" s="113">
         <v>6.9</v>
       </c>
@@ -14651,21 +14666,21 @@
         <v>40</v>
       </c>
       <c r="N194" s="113"/>
-      <c r="O194" s="197"/>
+      <c r="O194" s="215"/>
     </row>
     <row r="195" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A195" s="113" t="s">
         <v>658</v>
       </c>
-      <c r="B195" s="194"/>
-      <c r="C195" s="194"/>
-      <c r="D195" s="194"/>
-      <c r="E195" s="205"/>
+      <c r="B195" s="216"/>
+      <c r="C195" s="216"/>
+      <c r="D195" s="216"/>
+      <c r="E195" s="219"/>
       <c r="F195" s="113">
         <v>3</v>
       </c>
-      <c r="G195" s="194"/>
-      <c r="H195" s="194"/>
+      <c r="G195" s="216"/>
+      <c r="H195" s="216"/>
       <c r="I195" s="113">
         <v>6.9</v>
       </c>
@@ -14682,7 +14697,7 @@
         <v>40</v>
       </c>
       <c r="N195" s="113"/>
-      <c r="O195" s="194"/>
+      <c r="O195" s="216"/>
     </row>
     <row r="196" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A196" s="42"/>
@@ -14711,22 +14726,22 @@
       <c r="A197" s="99" t="s">
         <v>659</v>
       </c>
-      <c r="B197" s="187" t="s">
+      <c r="B197" s="190" t="s">
         <v>660</v>
       </c>
       <c r="C197" s="99" t="s">
         <v>661</v>
       </c>
-      <c r="D197" s="187" t="s">
+      <c r="D197" s="190" t="s">
         <v>643</v>
       </c>
-      <c r="E197" s="189">
+      <c r="E197" s="193">
         <v>45716</v>
       </c>
       <c r="F197" s="99">
         <v>1</v>
       </c>
-      <c r="G197" s="187" t="s">
+      <c r="G197" s="190" t="s">
         <v>97</v>
       </c>
       <c r="H197" s="99">
@@ -14749,7 +14764,7 @@
         <v>60</v>
       </c>
       <c r="N197" s="99"/>
-      <c r="O197" s="187" t="s">
+      <c r="O197" s="190" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14757,16 +14772,16 @@
       <c r="A198" s="99" t="s">
         <v>662</v>
       </c>
-      <c r="B198" s="229"/>
+      <c r="B198" s="191"/>
       <c r="C198" s="99" t="s">
         <v>663</v>
       </c>
-      <c r="D198" s="229"/>
-      <c r="E198" s="230"/>
+      <c r="D198" s="191"/>
+      <c r="E198" s="194"/>
       <c r="F198" s="99">
         <v>2</v>
       </c>
-      <c r="G198" s="229"/>
+      <c r="G198" s="191"/>
       <c r="H198" s="99">
         <v>11</v>
       </c>
@@ -14787,22 +14802,22 @@
         <v>60</v>
       </c>
       <c r="N198" s="99"/>
-      <c r="O198" s="229"/>
+      <c r="O198" s="191"/>
     </row>
     <row r="199" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A199" s="99" t="s">
         <v>664</v>
       </c>
-      <c r="B199" s="188"/>
+      <c r="B199" s="192"/>
       <c r="C199" s="99" t="s">
         <v>665</v>
       </c>
-      <c r="D199" s="188"/>
-      <c r="E199" s="190"/>
+      <c r="D199" s="192"/>
+      <c r="E199" s="195"/>
       <c r="F199" s="99">
         <v>3</v>
       </c>
-      <c r="G199" s="188"/>
+      <c r="G199" s="192"/>
       <c r="H199" s="99">
         <v>10</v>
       </c>
@@ -14823,7 +14838,7 @@
         <v>60</v>
       </c>
       <c r="N199" s="99"/>
-      <c r="O199" s="188"/>
+      <c r="O199" s="192"/>
     </row>
     <row r="200" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A200" s="42"/>
@@ -14924,22 +14939,22 @@
       <c r="A203" s="99" t="s">
         <v>669</v>
       </c>
-      <c r="B203" s="187" t="s">
+      <c r="B203" s="190" t="s">
         <v>670</v>
       </c>
       <c r="C203" s="99" t="s">
         <v>671</v>
       </c>
-      <c r="D203" s="187" t="s">
+      <c r="D203" s="190" t="s">
         <v>643</v>
       </c>
-      <c r="E203" s="189">
+      <c r="E203" s="193">
         <v>45717</v>
       </c>
       <c r="F203" s="99">
         <v>1</v>
       </c>
-      <c r="G203" s="187" t="s">
+      <c r="G203" s="190" t="s">
         <v>97</v>
       </c>
       <c r="H203" s="99">
@@ -14961,7 +14976,7 @@
         <v>60</v>
       </c>
       <c r="N203" s="99"/>
-      <c r="O203" s="187" t="s">
+      <c r="O203" s="190" t="s">
         <v>24</v>
       </c>
     </row>
@@ -14969,16 +14984,16 @@
       <c r="A204" s="99" t="s">
         <v>672</v>
       </c>
-      <c r="B204" s="188"/>
+      <c r="B204" s="192"/>
       <c r="C204" s="99" t="s">
         <v>673</v>
       </c>
-      <c r="D204" s="188"/>
-      <c r="E204" s="190"/>
+      <c r="D204" s="192"/>
+      <c r="E204" s="195"/>
       <c r="F204" s="99">
         <v>2</v>
       </c>
-      <c r="G204" s="188"/>
+      <c r="G204" s="192"/>
       <c r="H204" s="99">
         <v>10</v>
       </c>
@@ -14998,7 +15013,7 @@
         <v>60</v>
       </c>
       <c r="N204" s="99"/>
-      <c r="O204" s="188"/>
+      <c r="O204" s="192"/>
     </row>
     <row r="205" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A205" s="178"/>
@@ -15167,20 +15182,20 @@
       <c r="A210" s="99" t="s">
         <v>682</v>
       </c>
-      <c r="B210" s="187" t="s">
+      <c r="B210" s="190" t="s">
         <v>683</v>
       </c>
       <c r="C210" s="99"/>
-      <c r="D210" s="187" t="s">
+      <c r="D210" s="190" t="s">
         <v>343</v>
       </c>
-      <c r="E210" s="189">
+      <c r="E210" s="193">
         <v>45719</v>
       </c>
       <c r="F210" s="99">
         <v>1</v>
       </c>
-      <c r="G210" s="191" t="s">
+      <c r="G210" s="206" t="s">
         <v>684</v>
       </c>
       <c r="H210" s="99">
@@ -15208,14 +15223,14 @@
       <c r="A211" s="99" t="s">
         <v>685</v>
       </c>
-      <c r="B211" s="188"/>
+      <c r="B211" s="192"/>
       <c r="C211" s="99"/>
-      <c r="D211" s="188"/>
-      <c r="E211" s="190"/>
+      <c r="D211" s="192"/>
+      <c r="E211" s="195"/>
       <c r="F211" s="99">
         <v>2</v>
       </c>
-      <c r="G211" s="188"/>
+      <c r="G211" s="192"/>
       <c r="H211" s="99">
         <v>100</v>
       </c>
@@ -15264,22 +15279,22 @@
       <c r="A213" s="99" t="s">
         <v>690</v>
       </c>
-      <c r="B213" s="187" t="s">
+      <c r="B213" s="190" t="s">
         <v>691</v>
       </c>
       <c r="C213" s="99" t="s">
         <v>692</v>
       </c>
-      <c r="D213" s="187" t="s">
+      <c r="D213" s="190" t="s">
         <v>643</v>
       </c>
-      <c r="E213" s="189">
+      <c r="E213" s="193">
         <v>45720</v>
       </c>
       <c r="F213" s="99">
         <v>1</v>
       </c>
-      <c r="G213" s="191" t="s">
+      <c r="G213" s="206" t="s">
         <v>693</v>
       </c>
       <c r="H213" s="99">
@@ -15301,7 +15316,7 @@
         <v>59</v>
       </c>
       <c r="N213" s="99"/>
-      <c r="O213" s="187" t="s">
+      <c r="O213" s="190" t="s">
         <v>24</v>
       </c>
     </row>
@@ -15309,16 +15324,16 @@
       <c r="A214" s="99" t="s">
         <v>694</v>
       </c>
-      <c r="B214" s="188"/>
+      <c r="B214" s="192"/>
       <c r="C214" s="99" t="s">
         <v>695</v>
       </c>
-      <c r="D214" s="188"/>
-      <c r="E214" s="190"/>
+      <c r="D214" s="192"/>
+      <c r="E214" s="195"/>
       <c r="F214" s="99">
         <v>2</v>
       </c>
-      <c r="G214" s="192"/>
+      <c r="G214" s="234"/>
       <c r="H214" s="99">
         <v>12</v>
       </c>
@@ -15338,7 +15353,7 @@
         <v>59</v>
       </c>
       <c r="N214" s="99"/>
-      <c r="O214" s="188"/>
+      <c r="O214" s="192"/>
     </row>
     <row r="215" spans="1:15" s="56" customFormat="1" ht="21" customHeight="1">
       <c r="A215" s="42"/>
@@ -15506,25 +15521,25 @@
       <c r="A220" s="99" t="s">
         <v>144</v>
       </c>
-      <c r="B220" s="187" t="s">
+      <c r="B220" s="190" t="s">
         <v>743</v>
       </c>
-      <c r="C220" s="187" t="s">
+      <c r="C220" s="190" t="s">
         <v>744</v>
       </c>
-      <c r="D220" s="187" t="s">
+      <c r="D220" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="E220" s="189">
+      <c r="E220" s="193">
         <v>45723</v>
       </c>
       <c r="F220" s="99">
         <v>1</v>
       </c>
-      <c r="G220" s="187" t="s">
+      <c r="G220" s="190" t="s">
         <v>745</v>
       </c>
-      <c r="H220" s="187"/>
+      <c r="H220" s="190"/>
       <c r="I220" s="99">
         <v>27.4</v>
       </c>
@@ -15548,15 +15563,15 @@
       <c r="A221" s="99" t="s">
         <v>746</v>
       </c>
-      <c r="B221" s="229"/>
-      <c r="C221" s="229"/>
-      <c r="D221" s="229"/>
-      <c r="E221" s="230"/>
+      <c r="B221" s="191"/>
+      <c r="C221" s="191"/>
+      <c r="D221" s="191"/>
+      <c r="E221" s="194"/>
       <c r="F221" s="99">
         <v>2</v>
       </c>
-      <c r="G221" s="229"/>
-      <c r="H221" s="229"/>
+      <c r="G221" s="191"/>
+      <c r="H221" s="191"/>
       <c r="I221" s="99">
         <v>16.5</v>
       </c>
@@ -15580,15 +15595,15 @@
       <c r="A222" s="99" t="s">
         <v>521</v>
       </c>
-      <c r="B222" s="188"/>
-      <c r="C222" s="188"/>
-      <c r="D222" s="188"/>
-      <c r="E222" s="190"/>
+      <c r="B222" s="192"/>
+      <c r="C222" s="192"/>
+      <c r="D222" s="192"/>
+      <c r="E222" s="195"/>
       <c r="F222" s="99">
         <v>3</v>
       </c>
-      <c r="G222" s="188"/>
-      <c r="H222" s="188"/>
+      <c r="G222" s="192"/>
+      <c r="H222" s="192"/>
       <c r="I222" s="99">
         <v>24.2</v>
       </c>
@@ -15719,10 +15734,10 @@
       <c r="E231" s="143"/>
     </row>
     <row r="248" spans="1:16" ht="40.5">
-      <c r="A248" s="247" t="s">
+      <c r="A248" s="232" t="s">
         <v>444</v>
       </c>
-      <c r="B248" s="247"/>
+      <c r="B248" s="232"/>
     </row>
     <row r="250" spans="1:16" ht="84">
       <c r="A250" s="150"/>
@@ -15772,12 +15787,12 @@
     </row>
     <row r="251" spans="1:16" ht="22.5">
       <c r="A251" s="150"/>
-      <c r="B251" s="186" t="s">
+      <c r="B251" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C251" s="186"/>
-      <c r="D251" s="186"/>
-      <c r="E251" s="186"/>
+      <c r="C251" s="189"/>
+      <c r="D251" s="189"/>
+      <c r="E251" s="189"/>
       <c r="F251" s="64" t="s">
         <v>375</v>
       </c>
@@ -15798,16 +15813,16 @@
     </row>
     <row r="252" spans="1:16" ht="37.5">
       <c r="A252" s="150"/>
-      <c r="B252" s="234" t="s">
+      <c r="B252" s="207" t="s">
         <v>376</v>
       </c>
-      <c r="C252" s="206" t="s">
+      <c r="C252" s="213" t="s">
         <v>377</v>
       </c>
-      <c r="D252" s="234" t="s">
+      <c r="D252" s="207" t="s">
         <v>378</v>
       </c>
-      <c r="E252" s="235">
+      <c r="E252" s="210">
         <v>45659</v>
       </c>
       <c r="F252" s="62" t="s">
@@ -15819,7 +15834,7 @@
       <c r="H252" s="60">
         <v>1</v>
       </c>
-      <c r="I252" s="234">
+      <c r="I252" s="207">
         <v>255</v>
       </c>
       <c r="J252" s="63">
@@ -15834,22 +15849,22 @@
       <c r="M252" s="60">
         <v>62</v>
       </c>
-      <c r="N252" s="226">
+      <c r="N252" s="229">
         <v>45663</v>
       </c>
-      <c r="O252" s="226">
+      <c r="O252" s="229">
         <v>45705</v>
       </c>
-      <c r="P252" s="234" t="s">
+      <c r="P252" s="207" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="21">
       <c r="A253" s="150"/>
-      <c r="B253" s="227"/>
-      <c r="C253" s="207"/>
-      <c r="D253" s="227"/>
-      <c r="E253" s="236"/>
+      <c r="B253" s="208"/>
+      <c r="C253" s="226"/>
+      <c r="D253" s="208"/>
+      <c r="E253" s="211"/>
       <c r="F253" s="62" t="s">
         <v>15</v>
       </c>
@@ -15859,7 +15874,7 @@
       <c r="H253" s="60">
         <v>1</v>
       </c>
-      <c r="I253" s="227"/>
+      <c r="I253" s="208"/>
       <c r="J253" s="63">
         <v>0.54978000000000005</v>
       </c>
@@ -15872,16 +15887,16 @@
       <c r="M253" s="60">
         <v>77</v>
       </c>
-      <c r="N253" s="227"/>
-      <c r="O253" s="227"/>
-      <c r="P253" s="227"/>
+      <c r="N253" s="208"/>
+      <c r="O253" s="208"/>
+      <c r="P253" s="208"/>
     </row>
     <row r="254" spans="1:16" ht="37.5">
       <c r="A254" s="150"/>
-      <c r="B254" s="227"/>
-      <c r="C254" s="207"/>
-      <c r="D254" s="227"/>
-      <c r="E254" s="236"/>
+      <c r="B254" s="208"/>
+      <c r="C254" s="226"/>
+      <c r="D254" s="208"/>
+      <c r="E254" s="211"/>
       <c r="F254" s="62" t="s">
         <v>30</v>
       </c>
@@ -15891,7 +15906,7 @@
       <c r="H254" s="60">
         <v>1</v>
       </c>
-      <c r="I254" s="227"/>
+      <c r="I254" s="208"/>
       <c r="J254" s="63">
         <v>0.51480000000000004</v>
       </c>
@@ -15904,16 +15919,16 @@
       <c r="M254" s="60">
         <v>65</v>
       </c>
-      <c r="N254" s="227"/>
-      <c r="O254" s="227"/>
-      <c r="P254" s="227"/>
+      <c r="N254" s="208"/>
+      <c r="O254" s="208"/>
+      <c r="P254" s="208"/>
     </row>
     <row r="255" spans="1:16" ht="56.25">
       <c r="A255" s="150"/>
-      <c r="B255" s="228"/>
-      <c r="C255" s="208"/>
-      <c r="D255" s="228"/>
-      <c r="E255" s="237"/>
+      <c r="B255" s="209"/>
+      <c r="C255" s="227"/>
+      <c r="D255" s="209"/>
+      <c r="E255" s="212"/>
       <c r="F255" s="62" t="s">
         <v>25</v>
       </c>
@@ -15923,7 +15938,7 @@
       <c r="H255" s="60">
         <v>1</v>
       </c>
-      <c r="I255" s="228"/>
+      <c r="I255" s="209"/>
       <c r="J255" s="63">
         <v>7.3800000000000004E-2</v>
       </c>
@@ -15936,20 +15951,20 @@
       <c r="M255" s="60">
         <v>18</v>
       </c>
-      <c r="N255" s="228"/>
-      <c r="O255" s="228"/>
-      <c r="P255" s="228"/>
+      <c r="N255" s="209"/>
+      <c r="O255" s="209"/>
+      <c r="P255" s="209"/>
     </row>
     <row r="256" spans="1:16" ht="22.5">
       <c r="A256" s="177">
         <v>45692</v>
       </c>
-      <c r="B256" s="186" t="s">
+      <c r="B256" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C256" s="186"/>
-      <c r="D256" s="186"/>
-      <c r="E256" s="186"/>
+      <c r="C256" s="189"/>
+      <c r="D256" s="189"/>
+      <c r="E256" s="189"/>
       <c r="F256" s="64" t="s">
         <v>25</v>
       </c>
@@ -16021,12 +16036,12 @@
     </row>
     <row r="258" spans="1:16" ht="22.5">
       <c r="A258" s="150"/>
-      <c r="B258" s="186" t="s">
+      <c r="B258" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C258" s="186"/>
-      <c r="D258" s="186"/>
-      <c r="E258" s="186"/>
+      <c r="C258" s="189"/>
+      <c r="D258" s="189"/>
+      <c r="E258" s="189"/>
       <c r="F258" s="64" t="s">
         <v>388</v>
       </c>
@@ -16100,12 +16115,12 @@
     </row>
     <row r="260" spans="1:16" ht="22.5">
       <c r="A260" s="150"/>
-      <c r="B260" s="186" t="s">
+      <c r="B260" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C260" s="186"/>
-      <c r="D260" s="186"/>
-      <c r="E260" s="186"/>
+      <c r="C260" s="189"/>
+      <c r="D260" s="189"/>
+      <c r="E260" s="189"/>
       <c r="F260" s="64" t="s">
         <v>391</v>
       </c>
@@ -16176,12 +16191,12 @@
     </row>
     <row r="262" spans="1:16" ht="22.5">
       <c r="A262" s="150"/>
-      <c r="B262" s="186" t="s">
+      <c r="B262" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C262" s="186"/>
-      <c r="D262" s="186"/>
-      <c r="E262" s="186"/>
+      <c r="C262" s="189"/>
+      <c r="D262" s="189"/>
+      <c r="E262" s="189"/>
       <c r="F262" s="64" t="s">
         <v>394</v>
       </c>
@@ -16202,28 +16217,28 @@
     </row>
     <row r="263" spans="1:16" ht="21">
       <c r="A263" s="150"/>
-      <c r="B263" s="203" t="s">
+      <c r="B263" s="222" t="s">
         <v>395</v>
       </c>
-      <c r="C263" s="203" t="s">
+      <c r="C263" s="222" t="s">
         <v>396</v>
       </c>
-      <c r="D263" s="203" t="s">
+      <c r="D263" s="222" t="s">
         <v>397</v>
       </c>
-      <c r="E263" s="204">
+      <c r="E263" s="217">
         <v>45660</v>
       </c>
       <c r="F263" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G263" s="238" t="s">
+      <c r="G263" s="203" t="s">
         <v>398</v>
       </c>
       <c r="H263" s="81">
         <v>130</v>
       </c>
-      <c r="I263" s="203">
+      <c r="I263" s="222">
         <v>7600</v>
       </c>
       <c r="J263" s="10">
@@ -16238,30 +16253,30 @@
       <c r="M263" s="81">
         <v>66</v>
       </c>
-      <c r="N263" s="241">
+      <c r="N263" s="220">
         <v>45665</v>
       </c>
-      <c r="O263" s="241">
+      <c r="O263" s="220">
         <v>45706</v>
       </c>
-      <c r="P263" s="203" t="s">
+      <c r="P263" s="222" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="21">
       <c r="A264" s="150"/>
-      <c r="B264" s="198"/>
-      <c r="C264" s="198"/>
-      <c r="D264" s="198"/>
-      <c r="E264" s="215"/>
+      <c r="B264" s="223"/>
+      <c r="C264" s="223"/>
+      <c r="D264" s="223"/>
+      <c r="E264" s="218"/>
       <c r="F264" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G264" s="239"/>
+      <c r="G264" s="204"/>
       <c r="H264" s="81">
         <v>120</v>
       </c>
-      <c r="I264" s="198"/>
+      <c r="I264" s="223"/>
       <c r="J264" s="10">
         <v>3.167424</v>
       </c>
@@ -16274,24 +16289,24 @@
       <c r="M264" s="81">
         <v>72</v>
       </c>
-      <c r="N264" s="198"/>
-      <c r="O264" s="198"/>
-      <c r="P264" s="198"/>
+      <c r="N264" s="223"/>
+      <c r="O264" s="223"/>
+      <c r="P264" s="223"/>
     </row>
     <row r="265" spans="1:16" ht="21">
       <c r="A265" s="150"/>
-      <c r="B265" s="198"/>
-      <c r="C265" s="198"/>
-      <c r="D265" s="198"/>
-      <c r="E265" s="215"/>
+      <c r="B265" s="223"/>
+      <c r="C265" s="223"/>
+      <c r="D265" s="223"/>
+      <c r="E265" s="218"/>
       <c r="F265" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G265" s="239"/>
+      <c r="G265" s="204"/>
       <c r="H265" s="81">
         <v>130</v>
       </c>
-      <c r="I265" s="198"/>
+      <c r="I265" s="223"/>
       <c r="J265" s="10">
         <v>3.383718</v>
       </c>
@@ -16304,24 +16319,24 @@
       <c r="M265" s="81">
         <v>71</v>
       </c>
-      <c r="N265" s="198"/>
-      <c r="O265" s="198"/>
-      <c r="P265" s="198"/>
+      <c r="N265" s="223"/>
+      <c r="O265" s="223"/>
+      <c r="P265" s="223"/>
     </row>
     <row r="266" spans="1:16" ht="21">
       <c r="A266" s="150"/>
-      <c r="B266" s="198"/>
-      <c r="C266" s="198"/>
-      <c r="D266" s="198"/>
-      <c r="E266" s="215"/>
+      <c r="B266" s="223"/>
+      <c r="C266" s="223"/>
+      <c r="D266" s="223"/>
+      <c r="E266" s="218"/>
       <c r="F266" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G266" s="240"/>
+      <c r="G266" s="205"/>
       <c r="H266" s="81">
         <v>220</v>
       </c>
-      <c r="I266" s="198"/>
+      <c r="I266" s="223"/>
       <c r="J266" s="10">
         <v>2.5405380000000002</v>
       </c>
@@ -16334,16 +16349,16 @@
       <c r="M266" s="81">
         <v>63</v>
       </c>
-      <c r="N266" s="198"/>
-      <c r="O266" s="198"/>
-      <c r="P266" s="198"/>
+      <c r="N266" s="223"/>
+      <c r="O266" s="223"/>
+      <c r="P266" s="223"/>
     </row>
     <row r="267" spans="1:16" ht="21">
       <c r="A267" s="150"/>
-      <c r="B267" s="199"/>
-      <c r="C267" s="199"/>
-      <c r="D267" s="199"/>
-      <c r="E267" s="205"/>
+      <c r="B267" s="221"/>
+      <c r="C267" s="221"/>
+      <c r="D267" s="221"/>
+      <c r="E267" s="219"/>
       <c r="F267" s="3" t="s">
         <v>13</v>
       </c>
@@ -16353,7 +16368,7 @@
       <c r="H267" s="81">
         <v>1599</v>
       </c>
-      <c r="I267" s="199"/>
+      <c r="I267" s="221"/>
       <c r="J267" s="10">
         <v>0.68834399999999996</v>
       </c>
@@ -16366,20 +16381,20 @@
       <c r="M267" s="81">
         <v>92</v>
       </c>
-      <c r="N267" s="199"/>
-      <c r="O267" s="199"/>
-      <c r="P267" s="199"/>
+      <c r="N267" s="221"/>
+      <c r="O267" s="221"/>
+      <c r="P267" s="221"/>
     </row>
     <row r="268" spans="1:16" ht="22.5">
       <c r="A268" s="177">
         <v>45689</v>
       </c>
-      <c r="B268" s="186" t="s">
+      <c r="B268" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C268" s="186"/>
-      <c r="D268" s="186"/>
-      <c r="E268" s="186"/>
+      <c r="C268" s="189"/>
+      <c r="D268" s="189"/>
+      <c r="E268" s="189"/>
       <c r="F268" s="64" t="s">
         <v>13</v>
       </c>
@@ -16446,12 +16461,12 @@
     </row>
     <row r="270" spans="1:16" ht="22.5">
       <c r="A270" s="150"/>
-      <c r="B270" s="186" t="s">
+      <c r="B270" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C270" s="186"/>
-      <c r="D270" s="186"/>
-      <c r="E270" s="186"/>
+      <c r="C270" s="189"/>
+      <c r="D270" s="189"/>
+      <c r="E270" s="189"/>
       <c r="F270" s="64" t="s">
         <v>406</v>
       </c>
@@ -16521,12 +16536,12 @@
     </row>
     <row r="272" spans="1:16" ht="22.5">
       <c r="A272" s="150"/>
-      <c r="B272" s="186" t="s">
+      <c r="B272" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C272" s="186"/>
-      <c r="D272" s="186"/>
-      <c r="E272" s="186"/>
+      <c r="C272" s="189"/>
+      <c r="D272" s="189"/>
+      <c r="E272" s="189"/>
       <c r="F272" s="64" t="s">
         <v>409</v>
       </c>
@@ -16549,16 +16564,16 @@
     </row>
     <row r="273" spans="1:16" ht="37.5">
       <c r="A273" s="177"/>
-      <c r="B273" s="203" t="s">
+      <c r="B273" s="222" t="s">
         <v>410</v>
       </c>
-      <c r="C273" s="203" t="s">
+      <c r="C273" s="222" t="s">
         <v>411</v>
       </c>
-      <c r="D273" s="203" t="s">
+      <c r="D273" s="222" t="s">
         <v>412</v>
       </c>
-      <c r="E273" s="204">
+      <c r="E273" s="217">
         <v>45665</v>
       </c>
       <c r="F273" s="3" t="s">
@@ -16587,22 +16602,22 @@
       <c r="M273" s="81">
         <v>39</v>
       </c>
-      <c r="N273" s="241">
+      <c r="N273" s="220">
         <v>45670</v>
       </c>
-      <c r="O273" s="241">
+      <c r="O273" s="220">
         <v>45712</v>
       </c>
-      <c r="P273" s="203" t="s">
+      <c r="P273" s="222" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="274" spans="1:16" ht="37.5">
       <c r="A274" s="177"/>
-      <c r="B274" s="198"/>
-      <c r="C274" s="198"/>
-      <c r="D274" s="198"/>
-      <c r="E274" s="215"/>
+      <c r="B274" s="223"/>
+      <c r="C274" s="223"/>
+      <c r="D274" s="223"/>
+      <c r="E274" s="218"/>
       <c r="F274" s="3" t="s">
         <v>99</v>
       </c>
@@ -16629,20 +16644,20 @@
       <c r="M274" s="81">
         <v>28</v>
       </c>
-      <c r="N274" s="198"/>
-      <c r="O274" s="198"/>
-      <c r="P274" s="198"/>
+      <c r="N274" s="223"/>
+      <c r="O274" s="223"/>
+      <c r="P274" s="223"/>
     </row>
     <row r="275" spans="1:16" ht="21">
       <c r="A275" s="177"/>
-      <c r="B275" s="198"/>
-      <c r="C275" s="198"/>
-      <c r="D275" s="198"/>
-      <c r="E275" s="215"/>
+      <c r="B275" s="223"/>
+      <c r="C275" s="223"/>
+      <c r="D275" s="223"/>
+      <c r="E275" s="218"/>
       <c r="F275" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="G275" s="238" t="s">
+      <c r="G275" s="203" t="s">
         <v>417</v>
       </c>
       <c r="H275" s="81">
@@ -16665,20 +16680,20 @@
       <c r="M275" s="81">
         <v>39</v>
       </c>
-      <c r="N275" s="198"/>
-      <c r="O275" s="198"/>
-      <c r="P275" s="198"/>
+      <c r="N275" s="223"/>
+      <c r="O275" s="223"/>
+      <c r="P275" s="223"/>
     </row>
     <row r="276" spans="1:16" ht="21">
       <c r="A276" s="177"/>
-      <c r="B276" s="198"/>
-      <c r="C276" s="198"/>
-      <c r="D276" s="198"/>
-      <c r="E276" s="215"/>
+      <c r="B276" s="223"/>
+      <c r="C276" s="223"/>
+      <c r="D276" s="223"/>
+      <c r="E276" s="218"/>
       <c r="F276" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="G276" s="240"/>
+      <c r="G276" s="205"/>
       <c r="H276" s="81">
         <v>48</v>
       </c>
@@ -16698,16 +16713,16 @@
       <c r="M276" s="81">
         <v>23</v>
       </c>
-      <c r="N276" s="198"/>
-      <c r="O276" s="198"/>
-      <c r="P276" s="198"/>
+      <c r="N276" s="223"/>
+      <c r="O276" s="223"/>
+      <c r="P276" s="223"/>
     </row>
     <row r="277" spans="1:16" ht="37.5">
       <c r="A277" s="177"/>
-      <c r="B277" s="199"/>
-      <c r="C277" s="199"/>
-      <c r="D277" s="199"/>
-      <c r="E277" s="205"/>
+      <c r="B277" s="221"/>
+      <c r="C277" s="221"/>
+      <c r="D277" s="221"/>
+      <c r="E277" s="219"/>
       <c r="F277" s="3" t="s">
         <v>419</v>
       </c>
@@ -16734,20 +16749,20 @@
       <c r="M277" s="81">
         <v>47</v>
       </c>
-      <c r="N277" s="199"/>
-      <c r="O277" s="199"/>
-      <c r="P277" s="199"/>
+      <c r="N277" s="221"/>
+      <c r="O277" s="221"/>
+      <c r="P277" s="221"/>
     </row>
     <row r="278" spans="1:16" ht="22.5">
       <c r="A278" s="177">
         <v>45702</v>
       </c>
-      <c r="B278" s="186" t="s">
+      <c r="B278" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="186"/>
-      <c r="D278" s="186"/>
-      <c r="E278" s="186"/>
+      <c r="C278" s="189"/>
+      <c r="D278" s="189"/>
+      <c r="E278" s="189"/>
       <c r="F278" s="64" t="s">
         <v>421</v>
       </c>
@@ -16820,12 +16835,12 @@
       <c r="A280" s="177">
         <v>45707</v>
       </c>
-      <c r="B280" s="186" t="s">
+      <c r="B280" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C280" s="186"/>
-      <c r="D280" s="186"/>
-      <c r="E280" s="186"/>
+      <c r="C280" s="189"/>
+      <c r="D280" s="189"/>
+      <c r="E280" s="189"/>
       <c r="F280" s="64" t="s">
         <v>25</v>
       </c>
@@ -16846,26 +16861,26 @@
     </row>
     <row r="281" spans="1:16" ht="21">
       <c r="A281" s="177"/>
-      <c r="B281" s="203" t="s">
+      <c r="B281" s="222" t="s">
         <v>426</v>
       </c>
-      <c r="C281" s="238" t="s">
+      <c r="C281" s="203" t="s">
         <v>427</v>
       </c>
-      <c r="D281" s="203" t="s">
+      <c r="D281" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="E281" s="204">
+      <c r="E281" s="217">
         <v>45666</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G281" s="238" t="s">
+      <c r="G281" s="203" t="s">
         <v>428</v>
       </c>
       <c r="H281" s="81"/>
-      <c r="I281" s="203">
+      <c r="I281" s="222">
         <v>13</v>
       </c>
       <c r="J281" s="10">
@@ -16880,28 +16895,28 @@
       <c r="M281" s="81">
         <v>36</v>
       </c>
-      <c r="N281" s="241">
+      <c r="N281" s="220">
         <v>45670</v>
       </c>
-      <c r="O281" s="241">
+      <c r="O281" s="220">
         <v>45712</v>
       </c>
-      <c r="P281" s="203" t="s">
+      <c r="P281" s="222" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="282" spans="1:16" ht="21">
       <c r="A282" s="177"/>
-      <c r="B282" s="199"/>
-      <c r="C282" s="240"/>
-      <c r="D282" s="199"/>
-      <c r="E282" s="205"/>
+      <c r="B282" s="221"/>
+      <c r="C282" s="205"/>
+      <c r="D282" s="221"/>
+      <c r="E282" s="219"/>
       <c r="F282" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G282" s="199"/>
+      <c r="G282" s="221"/>
       <c r="H282" s="81"/>
-      <c r="I282" s="199"/>
+      <c r="I282" s="221"/>
       <c r="J282" s="10">
         <v>2.3751000000000001E-2</v>
       </c>
@@ -16914,20 +16929,20 @@
       <c r="M282" s="81">
         <v>29</v>
       </c>
-      <c r="N282" s="199"/>
-      <c r="O282" s="199"/>
-      <c r="P282" s="199"/>
+      <c r="N282" s="221"/>
+      <c r="O282" s="221"/>
+      <c r="P282" s="221"/>
     </row>
     <row r="283" spans="1:16" ht="22.5">
       <c r="A283" s="177">
         <v>45694</v>
       </c>
-      <c r="B283" s="186" t="s">
+      <c r="B283" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C283" s="186"/>
-      <c r="D283" s="186"/>
-      <c r="E283" s="186"/>
+      <c r="C283" s="189"/>
+      <c r="D283" s="189"/>
+      <c r="E283" s="189"/>
       <c r="F283" s="64" t="s">
         <v>15</v>
       </c>
@@ -16995,12 +17010,12 @@
       </c>
     </row>
     <row r="285" spans="1:16" ht="22.5">
-      <c r="B285" s="200" t="s">
+      <c r="B285" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="C285" s="201"/>
-      <c r="D285" s="201"/>
-      <c r="E285" s="202"/>
+      <c r="C285" s="236"/>
+      <c r="D285" s="236"/>
+      <c r="E285" s="237"/>
       <c r="F285" s="64" t="s">
         <v>433</v>
       </c>
@@ -17070,12 +17085,12 @@
       </c>
     </row>
     <row r="287" spans="1:16" ht="22.5">
-      <c r="B287" s="200" t="s">
+      <c r="B287" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="C287" s="201"/>
-      <c r="D287" s="201"/>
-      <c r="E287" s="202"/>
+      <c r="C287" s="236"/>
+      <c r="D287" s="236"/>
+      <c r="E287" s="237"/>
       <c r="F287" s="135" t="s">
         <v>433</v>
       </c>
@@ -17145,12 +17160,12 @@
       </c>
     </row>
     <row r="289" spans="1:16" ht="22.5">
-      <c r="B289" s="200" t="s">
+      <c r="B289" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="C289" s="201"/>
-      <c r="D289" s="201"/>
-      <c r="E289" s="202"/>
+      <c r="C289" s="236"/>
+      <c r="D289" s="236"/>
+      <c r="E289" s="237"/>
       <c r="F289" s="64" t="s">
         <v>388</v>
       </c>
@@ -17220,12 +17235,12 @@
       </c>
     </row>
     <row r="291" spans="1:16" ht="22.5">
-      <c r="B291" s="200" t="s">
+      <c r="B291" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="C291" s="201"/>
-      <c r="D291" s="201"/>
-      <c r="E291" s="202"/>
+      <c r="C291" s="236"/>
+      <c r="D291" s="236"/>
+      <c r="E291" s="237"/>
       <c r="F291" s="64" t="s">
         <v>433</v>
       </c>
@@ -17248,28 +17263,28 @@
     </row>
     <row r="292" spans="1:16" ht="21">
       <c r="A292" s="177"/>
-      <c r="B292" s="203" t="s">
+      <c r="B292" s="222" t="s">
         <v>100</v>
       </c>
-      <c r="C292" s="203">
+      <c r="C292" s="222">
         <v>1392620920</v>
       </c>
-      <c r="D292" s="203" t="s">
+      <c r="D292" s="222" t="s">
         <v>20</v>
       </c>
-      <c r="E292" s="204">
+      <c r="E292" s="217">
         <v>45667</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G292" s="238" t="s">
+      <c r="G292" s="203" t="s">
         <v>68</v>
       </c>
       <c r="H292" s="81">
         <v>8</v>
       </c>
-      <c r="I292" s="203">
+      <c r="I292" s="222">
         <v>357</v>
       </c>
       <c r="J292" s="10">
@@ -17284,30 +17299,30 @@
       <c r="M292" s="81">
         <v>26</v>
       </c>
-      <c r="N292" s="241">
+      <c r="N292" s="220">
         <v>45670</v>
       </c>
-      <c r="O292" s="241">
+      <c r="O292" s="220">
         <v>45699</v>
       </c>
-      <c r="P292" s="203" t="s">
+      <c r="P292" s="222" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="293" spans="1:16" ht="21">
       <c r="A293" s="177"/>
-      <c r="B293" s="198"/>
-      <c r="C293" s="198"/>
-      <c r="D293" s="198"/>
-      <c r="E293" s="215"/>
+      <c r="B293" s="223"/>
+      <c r="C293" s="223"/>
+      <c r="D293" s="223"/>
+      <c r="E293" s="218"/>
       <c r="F293" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G293" s="239"/>
+      <c r="G293" s="204"/>
       <c r="H293" s="81">
         <v>2</v>
       </c>
-      <c r="I293" s="198"/>
+      <c r="I293" s="223"/>
       <c r="J293" s="10">
         <v>7.7219999999999997E-2</v>
       </c>
@@ -17320,24 +17335,24 @@
       <c r="M293" s="81">
         <v>26</v>
       </c>
-      <c r="N293" s="198"/>
-      <c r="O293" s="198"/>
-      <c r="P293" s="198"/>
+      <c r="N293" s="223"/>
+      <c r="O293" s="223"/>
+      <c r="P293" s="223"/>
     </row>
     <row r="294" spans="1:16" ht="21">
       <c r="A294" s="177"/>
-      <c r="B294" s="198"/>
-      <c r="C294" s="198"/>
-      <c r="D294" s="198"/>
-      <c r="E294" s="215"/>
+      <c r="B294" s="223"/>
+      <c r="C294" s="223"/>
+      <c r="D294" s="223"/>
+      <c r="E294" s="218"/>
       <c r="F294" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G294" s="240"/>
+      <c r="G294" s="205"/>
       <c r="H294" s="81">
         <v>4</v>
       </c>
-      <c r="I294" s="198"/>
+      <c r="I294" s="223"/>
       <c r="J294" s="10">
         <v>0.12675</v>
       </c>
@@ -17350,26 +17365,26 @@
       <c r="M294" s="81">
         <v>25</v>
       </c>
-      <c r="N294" s="198"/>
-      <c r="O294" s="198"/>
-      <c r="P294" s="198"/>
+      <c r="N294" s="223"/>
+      <c r="O294" s="223"/>
+      <c r="P294" s="223"/>
     </row>
     <row r="295" spans="1:16" ht="21">
       <c r="A295" s="177"/>
-      <c r="B295" s="198"/>
-      <c r="C295" s="198"/>
-      <c r="D295" s="198"/>
-      <c r="E295" s="215"/>
+      <c r="B295" s="223"/>
+      <c r="C295" s="223"/>
+      <c r="D295" s="223"/>
+      <c r="E295" s="218"/>
       <c r="F295" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G295" s="238" t="s">
+      <c r="G295" s="203" t="s">
         <v>58</v>
       </c>
       <c r="H295" s="81">
         <v>20</v>
       </c>
-      <c r="I295" s="198"/>
+      <c r="I295" s="223"/>
       <c r="J295" s="10">
         <v>0.31099199999999999</v>
       </c>
@@ -17382,24 +17397,24 @@
       <c r="M295" s="81">
         <v>38</v>
       </c>
-      <c r="N295" s="198"/>
-      <c r="O295" s="198"/>
-      <c r="P295" s="198"/>
+      <c r="N295" s="223"/>
+      <c r="O295" s="223"/>
+      <c r="P295" s="223"/>
     </row>
     <row r="296" spans="1:16" ht="21">
       <c r="A296" s="177"/>
-      <c r="B296" s="198"/>
-      <c r="C296" s="198"/>
-      <c r="D296" s="198"/>
-      <c r="E296" s="215"/>
+      <c r="B296" s="223"/>
+      <c r="C296" s="223"/>
+      <c r="D296" s="223"/>
+      <c r="E296" s="218"/>
       <c r="F296" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G296" s="239"/>
+      <c r="G296" s="204"/>
       <c r="H296" s="81">
         <v>10</v>
       </c>
-      <c r="I296" s="198"/>
+      <c r="I296" s="223"/>
       <c r="J296" s="10">
         <v>0.13718</v>
       </c>
@@ -17412,24 +17427,24 @@
       <c r="M296" s="81">
         <v>38</v>
       </c>
-      <c r="N296" s="198"/>
-      <c r="O296" s="198"/>
-      <c r="P296" s="198"/>
+      <c r="N296" s="223"/>
+      <c r="O296" s="223"/>
+      <c r="P296" s="223"/>
     </row>
     <row r="297" spans="1:16" ht="21">
       <c r="A297" s="177"/>
-      <c r="B297" s="198"/>
-      <c r="C297" s="198"/>
-      <c r="D297" s="198"/>
-      <c r="E297" s="215"/>
+      <c r="B297" s="223"/>
+      <c r="C297" s="223"/>
+      <c r="D297" s="223"/>
+      <c r="E297" s="218"/>
       <c r="F297" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G297" s="239"/>
+      <c r="G297" s="204"/>
       <c r="H297" s="81">
         <v>10</v>
       </c>
-      <c r="I297" s="198"/>
+      <c r="I297" s="223"/>
       <c r="J297" s="10">
         <v>0.13718</v>
       </c>
@@ -17442,24 +17457,24 @@
       <c r="M297" s="81">
         <v>38</v>
       </c>
-      <c r="N297" s="198"/>
-      <c r="O297" s="198"/>
-      <c r="P297" s="198"/>
+      <c r="N297" s="223"/>
+      <c r="O297" s="223"/>
+      <c r="P297" s="223"/>
     </row>
     <row r="298" spans="1:16" ht="21">
       <c r="A298" s="177"/>
-      <c r="B298" s="198"/>
-      <c r="C298" s="198"/>
-      <c r="D298" s="198"/>
-      <c r="E298" s="215"/>
+      <c r="B298" s="223"/>
+      <c r="C298" s="223"/>
+      <c r="D298" s="223"/>
+      <c r="E298" s="218"/>
       <c r="F298" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G298" s="239"/>
+      <c r="G298" s="204"/>
       <c r="H298" s="81">
         <v>20</v>
       </c>
-      <c r="I298" s="198"/>
+      <c r="I298" s="223"/>
       <c r="J298" s="10">
         <v>0.13718</v>
       </c>
@@ -17472,24 +17487,24 @@
       <c r="M298" s="81">
         <v>38</v>
       </c>
-      <c r="N298" s="198"/>
-      <c r="O298" s="198"/>
-      <c r="P298" s="198"/>
+      <c r="N298" s="223"/>
+      <c r="O298" s="223"/>
+      <c r="P298" s="223"/>
     </row>
     <row r="299" spans="1:16" ht="21">
       <c r="A299" s="177"/>
-      <c r="B299" s="198"/>
-      <c r="C299" s="198"/>
-      <c r="D299" s="198"/>
-      <c r="E299" s="215"/>
+      <c r="B299" s="223"/>
+      <c r="C299" s="223"/>
+      <c r="D299" s="223"/>
+      <c r="E299" s="218"/>
       <c r="F299" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G299" s="239"/>
+      <c r="G299" s="204"/>
       <c r="H299" s="81">
         <v>50</v>
       </c>
-      <c r="I299" s="198"/>
+      <c r="I299" s="223"/>
       <c r="J299" s="10">
         <v>0.68589999999999995</v>
       </c>
@@ -17502,24 +17517,24 @@
       <c r="M299" s="81">
         <v>38</v>
       </c>
-      <c r="N299" s="198"/>
-      <c r="O299" s="198"/>
-      <c r="P299" s="198"/>
+      <c r="N299" s="223"/>
+      <c r="O299" s="223"/>
+      <c r="P299" s="223"/>
     </row>
     <row r="300" spans="1:16" ht="21">
       <c r="A300" s="177"/>
-      <c r="B300" s="198"/>
-      <c r="C300" s="198"/>
-      <c r="D300" s="198"/>
-      <c r="E300" s="215"/>
+      <c r="B300" s="223"/>
+      <c r="C300" s="223"/>
+      <c r="D300" s="223"/>
+      <c r="E300" s="218"/>
       <c r="F300" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G300" s="240"/>
+      <c r="G300" s="205"/>
       <c r="H300" s="81">
         <v>10</v>
       </c>
-      <c r="I300" s="198"/>
+      <c r="I300" s="223"/>
       <c r="J300" s="10">
         <v>6.93E-2</v>
       </c>
@@ -17532,16 +17547,16 @@
       <c r="M300" s="81">
         <v>33</v>
       </c>
-      <c r="N300" s="198"/>
-      <c r="O300" s="198"/>
-      <c r="P300" s="198"/>
+      <c r="N300" s="223"/>
+      <c r="O300" s="223"/>
+      <c r="P300" s="223"/>
     </row>
     <row r="301" spans="1:16" ht="21">
       <c r="A301" s="177"/>
-      <c r="B301" s="198"/>
-      <c r="C301" s="198"/>
-      <c r="D301" s="198"/>
-      <c r="E301" s="215"/>
+      <c r="B301" s="223"/>
+      <c r="C301" s="223"/>
+      <c r="D301" s="223"/>
+      <c r="E301" s="218"/>
       <c r="F301" s="3" t="s">
         <v>28</v>
       </c>
@@ -17551,7 +17566,7 @@
       <c r="H301" s="81">
         <v>85</v>
       </c>
-      <c r="I301" s="198"/>
+      <c r="I301" s="223"/>
       <c r="J301" s="10">
         <v>3.0096000000000001E-2</v>
       </c>
@@ -17564,16 +17579,16 @@
       <c r="M301" s="81">
         <v>24</v>
       </c>
-      <c r="N301" s="198"/>
-      <c r="O301" s="198"/>
-      <c r="P301" s="198"/>
+      <c r="N301" s="223"/>
+      <c r="O301" s="223"/>
+      <c r="P301" s="223"/>
     </row>
     <row r="302" spans="1:16" ht="21">
       <c r="A302" s="177"/>
-      <c r="B302" s="198"/>
-      <c r="C302" s="198"/>
-      <c r="D302" s="198"/>
-      <c r="E302" s="215"/>
+      <c r="B302" s="223"/>
+      <c r="C302" s="223"/>
+      <c r="D302" s="223"/>
+      <c r="E302" s="218"/>
       <c r="F302" s="3" t="s">
         <v>29</v>
       </c>
@@ -17583,7 +17598,7 @@
       <c r="H302" s="81">
         <v>50</v>
       </c>
-      <c r="I302" s="198"/>
+      <c r="I302" s="223"/>
       <c r="J302" s="10">
         <v>5.3921999999999998E-2</v>
       </c>
@@ -17596,16 +17611,16 @@
       <c r="M302" s="81">
         <v>33</v>
       </c>
-      <c r="N302" s="198"/>
-      <c r="O302" s="198"/>
-      <c r="P302" s="198"/>
+      <c r="N302" s="223"/>
+      <c r="O302" s="223"/>
+      <c r="P302" s="223"/>
     </row>
     <row r="303" spans="1:16" ht="21">
       <c r="A303" s="177"/>
-      <c r="B303" s="198"/>
-      <c r="C303" s="198"/>
-      <c r="D303" s="198"/>
-      <c r="E303" s="215"/>
+      <c r="B303" s="223"/>
+      <c r="C303" s="223"/>
+      <c r="D303" s="223"/>
+      <c r="E303" s="218"/>
       <c r="F303" s="3" t="s">
         <v>57</v>
       </c>
@@ -17615,7 +17630,7 @@
       <c r="H303" s="81">
         <v>14</v>
       </c>
-      <c r="I303" s="198"/>
+      <c r="I303" s="223"/>
       <c r="J303" s="10">
         <v>0.16819999999999999</v>
       </c>
@@ -17628,16 +17643,16 @@
       <c r="M303" s="81">
         <v>20</v>
       </c>
-      <c r="N303" s="198"/>
-      <c r="O303" s="198"/>
-      <c r="P303" s="198"/>
+      <c r="N303" s="223"/>
+      <c r="O303" s="223"/>
+      <c r="P303" s="223"/>
     </row>
     <row r="304" spans="1:16" ht="37.5">
       <c r="A304" s="177"/>
-      <c r="B304" s="199"/>
-      <c r="C304" s="199"/>
-      <c r="D304" s="199"/>
-      <c r="E304" s="205"/>
+      <c r="B304" s="221"/>
+      <c r="C304" s="221"/>
+      <c r="D304" s="221"/>
+      <c r="E304" s="219"/>
       <c r="F304" s="3" t="s">
         <v>87</v>
       </c>
@@ -17647,7 +17662,7 @@
       <c r="H304" s="81">
         <v>10</v>
       </c>
-      <c r="I304" s="199"/>
+      <c r="I304" s="221"/>
       <c r="J304" s="10">
         <v>0.35963200000000001</v>
       </c>
@@ -17660,20 +17675,20 @@
       <c r="M304" s="81">
         <v>38</v>
       </c>
-      <c r="N304" s="199"/>
-      <c r="O304" s="199"/>
-      <c r="P304" s="199"/>
+      <c r="N304" s="221"/>
+      <c r="O304" s="221"/>
+      <c r="P304" s="221"/>
     </row>
     <row r="305" spans="1:16" ht="22.5">
       <c r="A305" s="177">
         <v>45702</v>
       </c>
-      <c r="B305" s="186" t="s">
+      <c r="B305" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C305" s="186"/>
-      <c r="D305" s="186"/>
-      <c r="E305" s="186"/>
+      <c r="C305" s="189"/>
+      <c r="D305" s="189"/>
+      <c r="E305" s="189"/>
       <c r="F305" s="64" t="s">
         <v>19</v>
       </c>
@@ -17742,12 +17757,12 @@
       <c r="A307" s="177">
         <v>45702</v>
       </c>
-      <c r="B307" s="186" t="s">
+      <c r="B307" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C307" s="186"/>
-      <c r="D307" s="186"/>
-      <c r="E307" s="186"/>
+      <c r="C307" s="189"/>
+      <c r="D307" s="189"/>
+      <c r="E307" s="189"/>
       <c r="F307" s="64" t="s">
         <v>25</v>
       </c>
@@ -17820,12 +17835,12 @@
       <c r="A309" s="177">
         <v>45702</v>
       </c>
-      <c r="B309" s="186" t="s">
+      <c r="B309" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C309" s="186"/>
-      <c r="D309" s="186"/>
-      <c r="E309" s="186"/>
+      <c r="C309" s="189"/>
+      <c r="D309" s="189"/>
+      <c r="E309" s="189"/>
       <c r="F309" s="64" t="s">
         <v>25</v>
       </c>
@@ -17846,28 +17861,28 @@
     </row>
     <row r="310" spans="1:16" ht="21">
       <c r="A310" s="177"/>
-      <c r="B310" s="234" t="s">
+      <c r="B310" s="207" t="s">
         <v>108</v>
       </c>
-      <c r="C310" s="206" t="s">
+      <c r="C310" s="213" t="s">
         <v>440</v>
       </c>
-      <c r="D310" s="234" t="s">
+      <c r="D310" s="207" t="s">
         <v>109</v>
       </c>
-      <c r="E310" s="235">
+      <c r="E310" s="210">
         <v>45668</v>
       </c>
       <c r="F310" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G310" s="206" t="s">
+      <c r="G310" s="213" t="s">
         <v>111</v>
       </c>
       <c r="H310" s="60">
         <v>385</v>
       </c>
-      <c r="I310" s="234">
+      <c r="I310" s="207">
         <v>1451</v>
       </c>
       <c r="J310" s="63">
@@ -17882,30 +17897,30 @@
       <c r="M310" s="60">
         <v>30</v>
       </c>
-      <c r="N310" s="226">
+      <c r="N310" s="229">
         <v>45671</v>
       </c>
-      <c r="O310" s="226">
+      <c r="O310" s="229">
         <v>45714</v>
       </c>
-      <c r="P310" s="234" t="s">
+      <c r="P310" s="207" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="21">
       <c r="A311" s="177"/>
-      <c r="B311" s="227"/>
-      <c r="C311" s="207"/>
-      <c r="D311" s="227"/>
-      <c r="E311" s="236"/>
+      <c r="B311" s="208"/>
+      <c r="C311" s="226"/>
+      <c r="D311" s="208"/>
+      <c r="E311" s="211"/>
       <c r="F311" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G311" s="208"/>
+      <c r="G311" s="227"/>
       <c r="H311" s="60">
         <v>36</v>
       </c>
-      <c r="I311" s="227"/>
+      <c r="I311" s="208"/>
       <c r="J311" s="63">
         <v>0.29759999999999998</v>
       </c>
@@ -17918,16 +17933,16 @@
       <c r="M311" s="60">
         <v>20</v>
       </c>
-      <c r="N311" s="227"/>
-      <c r="O311" s="227"/>
-      <c r="P311" s="227"/>
+      <c r="N311" s="208"/>
+      <c r="O311" s="208"/>
+      <c r="P311" s="208"/>
     </row>
     <row r="312" spans="1:16" ht="21">
       <c r="A312" s="177"/>
-      <c r="B312" s="227"/>
-      <c r="C312" s="207"/>
-      <c r="D312" s="227"/>
-      <c r="E312" s="236"/>
+      <c r="B312" s="208"/>
+      <c r="C312" s="226"/>
+      <c r="D312" s="208"/>
+      <c r="E312" s="211"/>
       <c r="F312" s="62" t="s">
         <v>113</v>
       </c>
@@ -17937,7 +17952,7 @@
       <c r="H312" s="60">
         <v>26</v>
       </c>
-      <c r="I312" s="227"/>
+      <c r="I312" s="208"/>
       <c r="J312" s="63">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -17950,16 +17965,16 @@
       <c r="M312" s="60">
         <v>33</v>
       </c>
-      <c r="N312" s="227"/>
-      <c r="O312" s="227"/>
-      <c r="P312" s="227"/>
+      <c r="N312" s="208"/>
+      <c r="O312" s="208"/>
+      <c r="P312" s="208"/>
     </row>
     <row r="313" spans="1:16" ht="21">
       <c r="A313" s="177"/>
-      <c r="B313" s="227"/>
-      <c r="C313" s="207"/>
-      <c r="D313" s="227"/>
-      <c r="E313" s="236"/>
+      <c r="B313" s="208"/>
+      <c r="C313" s="226"/>
+      <c r="D313" s="208"/>
+      <c r="E313" s="211"/>
       <c r="F313" s="62" t="s">
         <v>115</v>
       </c>
@@ -17969,7 +17984,7 @@
       <c r="H313" s="60">
         <v>121</v>
       </c>
-      <c r="I313" s="227"/>
+      <c r="I313" s="208"/>
       <c r="J313" s="63">
         <v>3.456E-2</v>
       </c>
@@ -17982,16 +17997,16 @@
       <c r="M313" s="60">
         <v>24</v>
       </c>
-      <c r="N313" s="227"/>
-      <c r="O313" s="227"/>
-      <c r="P313" s="227"/>
+      <c r="N313" s="208"/>
+      <c r="O313" s="208"/>
+      <c r="P313" s="208"/>
     </row>
     <row r="314" spans="1:16" ht="37.5">
       <c r="A314" s="177"/>
-      <c r="B314" s="227"/>
-      <c r="C314" s="207"/>
-      <c r="D314" s="227"/>
-      <c r="E314" s="236"/>
+      <c r="B314" s="208"/>
+      <c r="C314" s="226"/>
+      <c r="D314" s="208"/>
+      <c r="E314" s="211"/>
       <c r="F314" s="62" t="s">
         <v>117</v>
       </c>
@@ -18001,7 +18016,7 @@
       <c r="H314" s="60">
         <v>24</v>
       </c>
-      <c r="I314" s="227"/>
+      <c r="I314" s="208"/>
       <c r="J314" s="63">
         <v>7.4880000000000002E-2</v>
       </c>
@@ -18014,16 +18029,16 @@
       <c r="M314" s="60">
         <v>15</v>
       </c>
-      <c r="N314" s="227"/>
-      <c r="O314" s="227"/>
-      <c r="P314" s="227"/>
+      <c r="N314" s="208"/>
+      <c r="O314" s="208"/>
+      <c r="P314" s="208"/>
     </row>
     <row r="315" spans="1:16" ht="21">
       <c r="A315" s="177"/>
-      <c r="B315" s="228"/>
-      <c r="C315" s="208"/>
-      <c r="D315" s="228"/>
-      <c r="E315" s="237"/>
+      <c r="B315" s="209"/>
+      <c r="C315" s="227"/>
+      <c r="D315" s="209"/>
+      <c r="E315" s="212"/>
       <c r="F315" s="62" t="s">
         <v>118</v>
       </c>
@@ -18033,7 +18048,7 @@
       <c r="H315" s="60">
         <v>150</v>
       </c>
-      <c r="I315" s="228"/>
+      <c r="I315" s="209"/>
       <c r="J315" s="63">
         <v>1.512</v>
       </c>
@@ -18046,20 +18061,20 @@
       <c r="M315" s="60">
         <v>30</v>
       </c>
-      <c r="N315" s="228"/>
-      <c r="O315" s="228"/>
-      <c r="P315" s="228"/>
+      <c r="N315" s="209"/>
+      <c r="O315" s="209"/>
+      <c r="P315" s="209"/>
     </row>
     <row r="316" spans="1:16" ht="22.5">
       <c r="A316" s="177">
         <v>45698</v>
       </c>
-      <c r="B316" s="186" t="s">
+      <c r="B316" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C316" s="186"/>
-      <c r="D316" s="186"/>
-      <c r="E316" s="186"/>
+      <c r="C316" s="189"/>
+      <c r="D316" s="189"/>
+      <c r="E316" s="189"/>
       <c r="F316" s="64" t="s">
         <v>119</v>
       </c>
@@ -18080,28 +18095,28 @@
     </row>
     <row r="317" spans="1:16" ht="21">
       <c r="A317" s="177"/>
-      <c r="B317" s="234" t="s">
+      <c r="B317" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="C317" s="206" t="s">
+      <c r="C317" s="213" t="s">
         <v>442</v>
       </c>
-      <c r="D317" s="234" t="s">
+      <c r="D317" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="E317" s="235">
+      <c r="E317" s="210">
         <v>45668</v>
       </c>
       <c r="F317" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G317" s="206" t="s">
+      <c r="G317" s="213" t="s">
         <v>77</v>
       </c>
       <c r="H317" s="60">
         <v>300</v>
       </c>
-      <c r="I317" s="234">
+      <c r="I317" s="207">
         <v>680</v>
       </c>
       <c r="J317" s="63">
@@ -18116,30 +18131,30 @@
       <c r="M317" s="60">
         <v>24</v>
       </c>
-      <c r="N317" s="226">
+      <c r="N317" s="229">
         <v>45671</v>
       </c>
-      <c r="O317" s="226">
+      <c r="O317" s="229">
         <v>45714</v>
       </c>
-      <c r="P317" s="234" t="s">
+      <c r="P317" s="207" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="318" spans="1:16" ht="21">
       <c r="A318" s="177"/>
-      <c r="B318" s="227"/>
-      <c r="C318" s="207"/>
-      <c r="D318" s="227"/>
-      <c r="E318" s="236"/>
+      <c r="B318" s="208"/>
+      <c r="C318" s="226"/>
+      <c r="D318" s="208"/>
+      <c r="E318" s="211"/>
       <c r="F318" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="G318" s="227"/>
+      <c r="G318" s="208"/>
       <c r="H318" s="60">
         <v>80</v>
       </c>
-      <c r="I318" s="227"/>
+      <c r="I318" s="208"/>
       <c r="J318" s="63">
         <v>0.189</v>
       </c>
@@ -18152,24 +18167,24 @@
       <c r="M318" s="60">
         <v>30</v>
       </c>
-      <c r="N318" s="227"/>
-      <c r="O318" s="227"/>
-      <c r="P318" s="227"/>
+      <c r="N318" s="208"/>
+      <c r="O318" s="208"/>
+      <c r="P318" s="208"/>
     </row>
     <row r="319" spans="1:16" ht="21">
       <c r="A319" s="177"/>
-      <c r="B319" s="228"/>
-      <c r="C319" s="208"/>
-      <c r="D319" s="228"/>
-      <c r="E319" s="237"/>
+      <c r="B319" s="209"/>
+      <c r="C319" s="227"/>
+      <c r="D319" s="209"/>
+      <c r="E319" s="212"/>
       <c r="F319" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G319" s="228"/>
+      <c r="G319" s="209"/>
       <c r="H319" s="60">
         <v>5100</v>
       </c>
-      <c r="I319" s="228"/>
+      <c r="I319" s="209"/>
       <c r="J319" s="63">
         <v>2.7820800000000001</v>
       </c>
@@ -18182,20 +18197,20 @@
       <c r="M319" s="60">
         <v>28</v>
       </c>
-      <c r="N319" s="228"/>
-      <c r="O319" s="228"/>
-      <c r="P319" s="228"/>
+      <c r="N319" s="209"/>
+      <c r="O319" s="209"/>
+      <c r="P319" s="209"/>
     </row>
     <row r="320" spans="1:16" ht="22.5">
       <c r="A320" s="177">
         <v>45694</v>
       </c>
-      <c r="B320" s="186" t="s">
+      <c r="B320" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C320" s="186"/>
-      <c r="D320" s="186"/>
-      <c r="E320" s="186"/>
+      <c r="C320" s="189"/>
+      <c r="D320" s="189"/>
+      <c r="E320" s="189"/>
       <c r="F320" s="64" t="s">
         <v>113</v>
       </c>
@@ -18264,12 +18279,12 @@
       <c r="A322" s="177">
         <v>45694</v>
       </c>
-      <c r="B322" s="186" t="s">
+      <c r="B322" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C322" s="186"/>
-      <c r="D322" s="186"/>
-      <c r="E322" s="186"/>
+      <c r="C322" s="189"/>
+      <c r="D322" s="189"/>
+      <c r="E322" s="189"/>
       <c r="F322" s="64" t="s">
         <v>23</v>
       </c>
@@ -18338,12 +18353,12 @@
       <c r="A324" s="177">
         <v>45706</v>
       </c>
-      <c r="B324" s="186" t="s">
+      <c r="B324" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C324" s="186"/>
-      <c r="D324" s="186"/>
-      <c r="E324" s="186"/>
+      <c r="C324" s="189"/>
+      <c r="D324" s="189"/>
+      <c r="E324" s="189"/>
       <c r="F324" s="64" t="s">
         <v>21</v>
       </c>
@@ -18412,12 +18427,12 @@
       </c>
     </row>
     <row r="326" spans="1:16" ht="22.5">
-      <c r="B326" s="186" t="s">
+      <c r="B326" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C326" s="186"/>
-      <c r="D326" s="186"/>
-      <c r="E326" s="186"/>
+      <c r="C326" s="189"/>
+      <c r="D326" s="189"/>
+      <c r="E326" s="189"/>
       <c r="F326" s="64" t="s">
         <v>21</v>
       </c>
@@ -18484,12 +18499,12 @@
       <c r="P327" s="60"/>
     </row>
     <row r="328" spans="1:16" ht="22.5">
-      <c r="B328" s="186" t="s">
+      <c r="B328" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C328" s="186"/>
-      <c r="D328" s="186"/>
-      <c r="E328" s="186"/>
+      <c r="C328" s="189"/>
+      <c r="D328" s="189"/>
+      <c r="E328" s="189"/>
       <c r="F328" s="64" t="s">
         <v>56</v>
       </c>
@@ -18509,14 +18524,14 @@
       <c r="P328" s="55"/>
     </row>
     <row r="329" spans="1:16" ht="42">
-      <c r="B329" s="203" t="s">
+      <c r="B329" s="222" t="s">
         <v>131</v>
       </c>
       <c r="C329" s="81"/>
-      <c r="D329" s="203" t="s">
+      <c r="D329" s="222" t="s">
         <v>53</v>
       </c>
-      <c r="E329" s="204">
+      <c r="E329" s="217">
         <v>45671</v>
       </c>
       <c r="F329" s="3" t="s">
@@ -18557,10 +18572,10 @@
       </c>
     </row>
     <row r="330" spans="1:16" ht="21">
-      <c r="B330" s="199"/>
+      <c r="B330" s="221"/>
       <c r="C330" s="81"/>
-      <c r="D330" s="199"/>
-      <c r="E330" s="205"/>
+      <c r="D330" s="221"/>
+      <c r="E330" s="219"/>
       <c r="F330" s="3" t="s">
         <v>133</v>
       </c>
@@ -18591,12 +18606,12 @@
       <c r="P330" s="81"/>
     </row>
     <row r="331" spans="1:16" ht="22.5">
-      <c r="B331" s="186" t="s">
+      <c r="B331" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C331" s="186"/>
-      <c r="D331" s="186"/>
-      <c r="E331" s="186"/>
+      <c r="C331" s="189"/>
+      <c r="D331" s="189"/>
+      <c r="E331" s="189"/>
       <c r="F331" s="64" t="s">
         <v>133</v>
       </c>
@@ -18618,28 +18633,28 @@
       <c r="P331" s="67"/>
     </row>
     <row r="332" spans="1:16" ht="21">
-      <c r="B332" s="234" t="s">
+      <c r="B332" s="207" t="s">
         <v>134</v>
       </c>
-      <c r="C332" s="234">
+      <c r="C332" s="207">
         <v>13924006350</v>
       </c>
-      <c r="D332" s="234" t="s">
+      <c r="D332" s="207" t="s">
         <v>64</v>
       </c>
-      <c r="E332" s="235">
+      <c r="E332" s="210">
         <v>45672</v>
       </c>
       <c r="F332" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="G332" s="206" t="s">
+      <c r="G332" s="213" t="s">
         <v>135</v>
       </c>
       <c r="H332" s="60">
         <v>2</v>
       </c>
-      <c r="I332" s="234">
+      <c r="I332" s="207">
         <v>1478</v>
       </c>
       <c r="J332" s="63">
@@ -18655,29 +18670,29 @@
       <c r="M332" s="60">
         <v>43</v>
       </c>
-      <c r="N332" s="226">
+      <c r="N332" s="229">
         <v>45675</v>
       </c>
-      <c r="O332" s="226">
+      <c r="O332" s="229">
         <v>45703</v>
       </c>
-      <c r="P332" s="206" t="s">
+      <c r="P332" s="213" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="333" spans="1:16" ht="21">
-      <c r="B333" s="227"/>
-      <c r="C333" s="227"/>
-      <c r="D333" s="227"/>
-      <c r="E333" s="236"/>
+      <c r="B333" s="208"/>
+      <c r="C333" s="208"/>
+      <c r="D333" s="208"/>
+      <c r="E333" s="211"/>
       <c r="F333" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="G333" s="207"/>
+      <c r="G333" s="226"/>
       <c r="H333" s="60">
         <v>1</v>
       </c>
-      <c r="I333" s="227"/>
+      <c r="I333" s="208"/>
       <c r="J333" s="63">
         <f t="shared" ref="J333:J339" si="2">K333*L333*M333/1000000</f>
         <v>2.494008</v>
@@ -18691,23 +18706,23 @@
       <c r="M333" s="60">
         <v>188</v>
       </c>
-      <c r="N333" s="227"/>
-      <c r="O333" s="227"/>
-      <c r="P333" s="207"/>
+      <c r="N333" s="208"/>
+      <c r="O333" s="208"/>
+      <c r="P333" s="226"/>
     </row>
     <row r="334" spans="1:16" ht="21">
-      <c r="B334" s="227"/>
-      <c r="C334" s="227"/>
-      <c r="D334" s="227"/>
-      <c r="E334" s="236"/>
+      <c r="B334" s="208"/>
+      <c r="C334" s="208"/>
+      <c r="D334" s="208"/>
+      <c r="E334" s="211"/>
       <c r="F334" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G334" s="207"/>
+      <c r="G334" s="226"/>
       <c r="H334" s="60">
         <v>1</v>
       </c>
-      <c r="I334" s="227"/>
+      <c r="I334" s="208"/>
       <c r="J334" s="63">
         <f t="shared" si="2"/>
         <v>2.4490620000000001</v>
@@ -18721,23 +18736,23 @@
       <c r="M334" s="60">
         <v>133</v>
       </c>
-      <c r="N334" s="227"/>
-      <c r="O334" s="227"/>
-      <c r="P334" s="207"/>
+      <c r="N334" s="208"/>
+      <c r="O334" s="208"/>
+      <c r="P334" s="226"/>
     </row>
     <row r="335" spans="1:16" ht="21">
-      <c r="B335" s="227"/>
-      <c r="C335" s="227"/>
-      <c r="D335" s="227"/>
-      <c r="E335" s="236"/>
+      <c r="B335" s="208"/>
+      <c r="C335" s="208"/>
+      <c r="D335" s="208"/>
+      <c r="E335" s="211"/>
       <c r="F335" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G335" s="207"/>
+      <c r="G335" s="226"/>
       <c r="H335" s="60">
         <v>1</v>
       </c>
-      <c r="I335" s="227"/>
+      <c r="I335" s="208"/>
       <c r="J335" s="63">
         <f t="shared" si="2"/>
         <v>0.10374</v>
@@ -18751,23 +18766,23 @@
       <c r="M335" s="60">
         <v>15</v>
       </c>
-      <c r="N335" s="227"/>
-      <c r="O335" s="227"/>
-      <c r="P335" s="207"/>
+      <c r="N335" s="208"/>
+      <c r="O335" s="208"/>
+      <c r="P335" s="226"/>
     </row>
     <row r="336" spans="1:16" ht="21">
-      <c r="B336" s="227"/>
-      <c r="C336" s="227"/>
-      <c r="D336" s="227"/>
-      <c r="E336" s="236"/>
+      <c r="B336" s="208"/>
+      <c r="C336" s="208"/>
+      <c r="D336" s="208"/>
+      <c r="E336" s="211"/>
       <c r="F336" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="G336" s="207"/>
+      <c r="G336" s="226"/>
       <c r="H336" s="60">
         <v>1</v>
       </c>
-      <c r="I336" s="227"/>
+      <c r="I336" s="208"/>
       <c r="J336" s="63">
         <f t="shared" si="2"/>
         <v>1.81044</v>
@@ -18781,23 +18796,23 @@
       <c r="M336" s="60">
         <v>188</v>
       </c>
-      <c r="N336" s="227"/>
-      <c r="O336" s="227"/>
-      <c r="P336" s="207"/>
+      <c r="N336" s="208"/>
+      <c r="O336" s="208"/>
+      <c r="P336" s="226"/>
     </row>
     <row r="337" spans="1:16" ht="21">
-      <c r="B337" s="227"/>
-      <c r="C337" s="227"/>
-      <c r="D337" s="227"/>
-      <c r="E337" s="236"/>
+      <c r="B337" s="208"/>
+      <c r="C337" s="208"/>
+      <c r="D337" s="208"/>
+      <c r="E337" s="211"/>
       <c r="F337" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="G337" s="207"/>
+      <c r="G337" s="226"/>
       <c r="H337" s="60">
         <v>1</v>
       </c>
-      <c r="I337" s="227"/>
+      <c r="I337" s="208"/>
       <c r="J337" s="63">
         <f t="shared" si="2"/>
         <v>1.7482500000000001</v>
@@ -18811,23 +18826,23 @@
       <c r="M337" s="60">
         <v>175</v>
       </c>
-      <c r="N337" s="227"/>
-      <c r="O337" s="227"/>
-      <c r="P337" s="207"/>
+      <c r="N337" s="208"/>
+      <c r="O337" s="208"/>
+      <c r="P337" s="226"/>
     </row>
     <row r="338" spans="1:16" ht="21">
-      <c r="B338" s="227"/>
-      <c r="C338" s="227"/>
-      <c r="D338" s="227"/>
-      <c r="E338" s="236"/>
+      <c r="B338" s="208"/>
+      <c r="C338" s="208"/>
+      <c r="D338" s="208"/>
+      <c r="E338" s="211"/>
       <c r="F338" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="G338" s="207"/>
+      <c r="G338" s="226"/>
       <c r="H338" s="60">
         <v>1</v>
       </c>
-      <c r="I338" s="227"/>
+      <c r="I338" s="208"/>
       <c r="J338" s="63">
         <f t="shared" si="2"/>
         <v>1.2261599999999999</v>
@@ -18841,23 +18856,23 @@
       <c r="M338" s="60">
         <v>117</v>
       </c>
-      <c r="N338" s="227"/>
-      <c r="O338" s="227"/>
-      <c r="P338" s="207"/>
+      <c r="N338" s="208"/>
+      <c r="O338" s="208"/>
+      <c r="P338" s="226"/>
     </row>
     <row r="339" spans="1:16" ht="21">
-      <c r="B339" s="228"/>
-      <c r="C339" s="228"/>
-      <c r="D339" s="228"/>
-      <c r="E339" s="237"/>
+      <c r="B339" s="209"/>
+      <c r="C339" s="209"/>
+      <c r="D339" s="209"/>
+      <c r="E339" s="212"/>
       <c r="F339" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G339" s="208"/>
+      <c r="G339" s="227"/>
       <c r="H339" s="60">
         <v>1</v>
       </c>
-      <c r="I339" s="228"/>
+      <c r="I339" s="209"/>
       <c r="J339" s="63">
         <f t="shared" si="2"/>
         <v>2.0717599999999998</v>
@@ -18871,17 +18886,17 @@
       <c r="M339" s="60">
         <v>188</v>
       </c>
-      <c r="N339" s="228"/>
-      <c r="O339" s="228"/>
-      <c r="P339" s="208"/>
+      <c r="N339" s="209"/>
+      <c r="O339" s="209"/>
+      <c r="P339" s="227"/>
     </row>
     <row r="340" spans="1:16" ht="22.5">
-      <c r="B340" s="186" t="s">
+      <c r="B340" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C340" s="186"/>
-      <c r="D340" s="186"/>
-      <c r="E340" s="186"/>
+      <c r="C340" s="189"/>
+      <c r="D340" s="189"/>
+      <c r="E340" s="189"/>
       <c r="F340" s="64" t="s">
         <v>22</v>
       </c>
@@ -18950,12 +18965,12 @@
       </c>
     </row>
     <row r="342" spans="1:16" ht="22.5">
-      <c r="B342" s="186" t="s">
+      <c r="B342" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C342" s="186"/>
-      <c r="D342" s="186"/>
-      <c r="E342" s="186"/>
+      <c r="C342" s="189"/>
+      <c r="D342" s="189"/>
+      <c r="E342" s="189"/>
       <c r="F342" s="64" t="s">
         <v>21</v>
       </c>
@@ -18975,26 +18990,26 @@
       <c r="P342" s="67"/>
     </row>
     <row r="343" spans="1:16" ht="21">
-      <c r="B343" s="203" t="s">
+      <c r="B343" s="222" t="s">
         <v>182</v>
       </c>
-      <c r="C343" s="244" t="s">
+      <c r="C343" s="228" t="s">
         <v>183</v>
       </c>
-      <c r="D343" s="203" t="s">
+      <c r="D343" s="222" t="s">
         <v>184</v>
       </c>
-      <c r="E343" s="204">
+      <c r="E343" s="217">
         <v>45674</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G343" s="238" t="s">
+      <c r="G343" s="203" t="s">
         <v>185</v>
       </c>
       <c r="H343" s="81"/>
-      <c r="I343" s="203">
+      <c r="I343" s="222">
         <v>80</v>
       </c>
       <c r="J343" s="10">
@@ -19014,16 +19029,16 @@
       <c r="P343" s="81"/>
     </row>
     <row r="344" spans="1:16" ht="21">
-      <c r="B344" s="198"/>
-      <c r="C344" s="198"/>
-      <c r="D344" s="198"/>
-      <c r="E344" s="215"/>
+      <c r="B344" s="223"/>
+      <c r="C344" s="223"/>
+      <c r="D344" s="223"/>
+      <c r="E344" s="218"/>
       <c r="F344" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G344" s="198"/>
+      <c r="G344" s="223"/>
       <c r="H344" s="81"/>
-      <c r="I344" s="198"/>
+      <c r="I344" s="223"/>
       <c r="J344" s="10">
         <v>9.3149999999999997E-2</v>
       </c>
@@ -19041,16 +19056,16 @@
       <c r="P344" s="81"/>
     </row>
     <row r="345" spans="1:16" ht="21">
-      <c r="B345" s="198"/>
-      <c r="C345" s="198"/>
-      <c r="D345" s="198"/>
-      <c r="E345" s="215"/>
+      <c r="B345" s="223"/>
+      <c r="C345" s="223"/>
+      <c r="D345" s="223"/>
+      <c r="E345" s="218"/>
       <c r="F345" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G345" s="198"/>
+      <c r="G345" s="223"/>
       <c r="H345" s="81"/>
-      <c r="I345" s="198"/>
+      <c r="I345" s="223"/>
       <c r="J345" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -19068,16 +19083,16 @@
       <c r="P345" s="81"/>
     </row>
     <row r="346" spans="1:16" ht="21">
-      <c r="B346" s="198"/>
-      <c r="C346" s="198"/>
-      <c r="D346" s="198"/>
-      <c r="E346" s="215"/>
+      <c r="B346" s="223"/>
+      <c r="C346" s="223"/>
+      <c r="D346" s="223"/>
+      <c r="E346" s="218"/>
       <c r="F346" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G346" s="198"/>
+      <c r="G346" s="223"/>
       <c r="H346" s="81"/>
-      <c r="I346" s="198"/>
+      <c r="I346" s="223"/>
       <c r="J346" s="10">
         <v>9.2663999999999996E-2</v>
       </c>
@@ -19095,16 +19110,16 @@
       <c r="P346" s="81"/>
     </row>
     <row r="347" spans="1:16" ht="21">
-      <c r="B347" s="199"/>
-      <c r="C347" s="199"/>
-      <c r="D347" s="199"/>
-      <c r="E347" s="205"/>
+      <c r="B347" s="221"/>
+      <c r="C347" s="221"/>
+      <c r="D347" s="221"/>
+      <c r="E347" s="219"/>
       <c r="F347" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G347" s="199"/>
+      <c r="G347" s="221"/>
       <c r="H347" s="81"/>
-      <c r="I347" s="199"/>
+      <c r="I347" s="221"/>
       <c r="J347" s="10">
         <v>2.4570000000000002E-2</v>
       </c>
@@ -19122,12 +19137,12 @@
       <c r="P347" s="81"/>
     </row>
     <row r="348" spans="1:16" ht="22.5">
-      <c r="B348" s="186" t="s">
+      <c r="B348" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C348" s="186"/>
-      <c r="D348" s="186"/>
-      <c r="E348" s="186"/>
+      <c r="C348" s="189"/>
+      <c r="D348" s="189"/>
+      <c r="E348" s="189"/>
       <c r="F348" s="64" t="s">
         <v>13</v>
       </c>
@@ -19195,12 +19210,12 @@
       </c>
     </row>
     <row r="350" spans="1:16" ht="22.5">
-      <c r="B350" s="200" t="s">
+      <c r="B350" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="C350" s="201"/>
-      <c r="D350" s="201"/>
-      <c r="E350" s="202"/>
+      <c r="C350" s="236"/>
+      <c r="D350" s="236"/>
+      <c r="E350" s="237"/>
       <c r="F350" s="64" t="s">
         <v>21</v>
       </c>
@@ -19223,29 +19238,29 @@
     </row>
     <row r="351" spans="1:16" ht="21">
       <c r="A351" s="177"/>
-      <c r="B351" s="203" t="s">
+      <c r="B351" s="222" t="s">
         <v>190</v>
       </c>
-      <c r="C351" s="203" t="s">
+      <c r="C351" s="222" t="s">
         <v>191</v>
       </c>
-      <c r="D351" s="203" t="s">
+      <c r="D351" s="222" t="s">
         <v>18</v>
       </c>
-      <c r="E351" s="204">
+      <c r="E351" s="217">
         <v>45675</v>
       </c>
       <c r="F351" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G351" s="203" t="s">
+      <c r="G351" s="222" t="s">
         <v>192</v>
       </c>
       <c r="H351" s="81">
         <f>247*2</f>
         <v>494</v>
       </c>
-      <c r="I351" s="203">
+      <c r="I351" s="222">
         <v>1907</v>
       </c>
       <c r="J351" s="10">
@@ -19261,31 +19276,31 @@
       <c r="M351" s="81">
         <v>26</v>
       </c>
-      <c r="N351" s="241">
+      <c r="N351" s="220">
         <v>45680</v>
       </c>
-      <c r="O351" s="241">
+      <c r="O351" s="220">
         <v>45712</v>
       </c>
-      <c r="P351" s="203" t="s">
+      <c r="P351" s="222" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="352" spans="1:16" ht="21">
       <c r="A352" s="177"/>
-      <c r="B352" s="198"/>
-      <c r="C352" s="198"/>
-      <c r="D352" s="198"/>
-      <c r="E352" s="215"/>
+      <c r="B352" s="223"/>
+      <c r="C352" s="223"/>
+      <c r="D352" s="223"/>
+      <c r="E352" s="218"/>
       <c r="F352" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="G352" s="198"/>
+      <c r="G352" s="223"/>
       <c r="H352" s="81">
         <f>247*5</f>
         <v>1235</v>
       </c>
-      <c r="I352" s="198"/>
+      <c r="I352" s="223"/>
       <c r="J352" s="10">
         <f>K352*L352*M352/1000000*5</f>
         <v>0.30887999999999999</v>
@@ -19299,25 +19314,25 @@
       <c r="M352" s="81">
         <v>36</v>
       </c>
-      <c r="N352" s="198"/>
-      <c r="O352" s="198"/>
-      <c r="P352" s="198"/>
+      <c r="N352" s="223"/>
+      <c r="O352" s="223"/>
+      <c r="P352" s="223"/>
     </row>
     <row r="353" spans="1:16" ht="21">
       <c r="A353" s="177"/>
-      <c r="B353" s="198"/>
-      <c r="C353" s="198"/>
-      <c r="D353" s="198"/>
-      <c r="E353" s="215"/>
+      <c r="B353" s="223"/>
+      <c r="C353" s="223"/>
+      <c r="D353" s="223"/>
+      <c r="E353" s="218"/>
       <c r="F353" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G353" s="198"/>
+      <c r="G353" s="223"/>
       <c r="H353" s="81">
         <f>248*4</f>
         <v>992</v>
       </c>
-      <c r="I353" s="198"/>
+      <c r="I353" s="223"/>
       <c r="J353" s="10">
         <f>K353*L353*M353/1000000*4</f>
         <v>6.0720000000000003E-2</v>
@@ -19331,25 +19346,25 @@
       <c r="M353" s="81">
         <v>20</v>
       </c>
-      <c r="N353" s="198"/>
-      <c r="O353" s="198"/>
-      <c r="P353" s="198"/>
+      <c r="N353" s="223"/>
+      <c r="O353" s="223"/>
+      <c r="P353" s="223"/>
     </row>
     <row r="354" spans="1:16" ht="21">
       <c r="A354" s="177"/>
-      <c r="B354" s="198"/>
-      <c r="C354" s="198"/>
-      <c r="D354" s="198"/>
-      <c r="E354" s="215"/>
+      <c r="B354" s="223"/>
+      <c r="C354" s="223"/>
+      <c r="D354" s="223"/>
+      <c r="E354" s="218"/>
       <c r="F354" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="G354" s="198"/>
+      <c r="G354" s="223"/>
       <c r="H354" s="81">
         <f>247*25</f>
         <v>6175</v>
       </c>
-      <c r="I354" s="198"/>
+      <c r="I354" s="223"/>
       <c r="J354" s="10">
         <f>K354*L354*M354/1000000*25</f>
         <v>0.39899999999999997</v>
@@ -19363,25 +19378,25 @@
       <c r="M354" s="81">
         <v>19</v>
       </c>
-      <c r="N354" s="198"/>
-      <c r="O354" s="198"/>
-      <c r="P354" s="198"/>
+      <c r="N354" s="223"/>
+      <c r="O354" s="223"/>
+      <c r="P354" s="223"/>
     </row>
     <row r="355" spans="1:16" ht="21">
       <c r="A355" s="177"/>
-      <c r="B355" s="198"/>
-      <c r="C355" s="198"/>
-      <c r="D355" s="198"/>
-      <c r="E355" s="215"/>
+      <c r="B355" s="223"/>
+      <c r="C355" s="223"/>
+      <c r="D355" s="223"/>
+      <c r="E355" s="218"/>
       <c r="F355" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="G355" s="198"/>
+      <c r="G355" s="223"/>
       <c r="H355" s="81">
         <f>247*10</f>
         <v>2470</v>
       </c>
-      <c r="I355" s="198"/>
+      <c r="I355" s="223"/>
       <c r="J355" s="10">
         <f>K355*L355*M355/1000000*10</f>
         <v>0.60060000000000002</v>
@@ -19395,25 +19410,25 @@
       <c r="M355" s="81">
         <v>35</v>
       </c>
-      <c r="N355" s="198"/>
-      <c r="O355" s="198"/>
-      <c r="P355" s="198"/>
+      <c r="N355" s="223"/>
+      <c r="O355" s="223"/>
+      <c r="P355" s="223"/>
     </row>
     <row r="356" spans="1:16" ht="21">
       <c r="A356" s="177"/>
-      <c r="B356" s="198"/>
-      <c r="C356" s="198"/>
-      <c r="D356" s="198"/>
-      <c r="E356" s="215"/>
+      <c r="B356" s="223"/>
+      <c r="C356" s="223"/>
+      <c r="D356" s="223"/>
+      <c r="E356" s="218"/>
       <c r="F356" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="G356" s="198"/>
+      <c r="G356" s="223"/>
       <c r="H356" s="81">
         <f>248*5</f>
         <v>1240</v>
       </c>
-      <c r="I356" s="198"/>
+      <c r="I356" s="223"/>
       <c r="J356" s="10">
         <f>K356*L356*M356/1000000*5</f>
         <v>0.16355999999999998</v>
@@ -19427,25 +19442,25 @@
       <c r="M356" s="81">
         <v>24</v>
       </c>
-      <c r="N356" s="198"/>
-      <c r="O356" s="198"/>
-      <c r="P356" s="198"/>
+      <c r="N356" s="223"/>
+      <c r="O356" s="223"/>
+      <c r="P356" s="223"/>
     </row>
     <row r="357" spans="1:16" ht="21">
       <c r="A357" s="177"/>
-      <c r="B357" s="199"/>
-      <c r="C357" s="199"/>
-      <c r="D357" s="199"/>
-      <c r="E357" s="205"/>
+      <c r="B357" s="221"/>
+      <c r="C357" s="221"/>
+      <c r="D357" s="221"/>
+      <c r="E357" s="219"/>
       <c r="F357" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G357" s="199"/>
+      <c r="G357" s="221"/>
       <c r="H357" s="81">
         <f>248*15</f>
         <v>3720</v>
       </c>
-      <c r="I357" s="199"/>
+      <c r="I357" s="221"/>
       <c r="J357" s="10">
         <f>K357*L357*M357/1000000*15</f>
         <v>0.76690499999999995</v>
@@ -19459,20 +19474,20 @@
       <c r="M357" s="81">
         <v>29</v>
       </c>
-      <c r="N357" s="199"/>
-      <c r="O357" s="199"/>
-      <c r="P357" s="199"/>
+      <c r="N357" s="221"/>
+      <c r="O357" s="221"/>
+      <c r="P357" s="221"/>
     </row>
     <row r="358" spans="1:16" ht="22.5">
       <c r="A358" s="177">
         <v>45708</v>
       </c>
-      <c r="B358" s="186" t="s">
+      <c r="B358" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C358" s="186"/>
-      <c r="D358" s="186"/>
-      <c r="E358" s="186"/>
+      <c r="C358" s="189"/>
+      <c r="D358" s="189"/>
+      <c r="E358" s="189"/>
       <c r="F358" s="64" t="s">
         <v>198</v>
       </c>
@@ -19494,29 +19509,29 @@
       <c r="P358" s="67"/>
     </row>
     <row r="359" spans="1:16" ht="21">
-      <c r="B359" s="203" t="s">
+      <c r="B359" s="222" t="s">
         <v>199</v>
       </c>
-      <c r="C359" s="203" t="s">
+      <c r="C359" s="222" t="s">
         <v>200</v>
       </c>
-      <c r="D359" s="203" t="s">
+      <c r="D359" s="222" t="s">
         <v>73</v>
       </c>
-      <c r="E359" s="204">
+      <c r="E359" s="217">
         <v>45676</v>
       </c>
       <c r="F359" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G359" s="203" t="s">
+      <c r="G359" s="222" t="s">
         <v>71</v>
       </c>
       <c r="H359" s="81">
         <f>35*28</f>
         <v>980</v>
       </c>
-      <c r="I359" s="203">
+      <c r="I359" s="222">
         <f>25*52</f>
         <v>1300</v>
       </c>
@@ -19533,30 +19548,30 @@
       <c r="M359" s="81">
         <v>29</v>
       </c>
-      <c r="N359" s="241">
+      <c r="N359" s="220">
         <v>45679</v>
       </c>
-      <c r="O359" s="241">
+      <c r="O359" s="220">
         <v>45716</v>
       </c>
-      <c r="P359" s="203" t="s">
+      <c r="P359" s="222" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="360" spans="1:16" ht="21">
-      <c r="B360" s="199"/>
-      <c r="C360" s="199"/>
-      <c r="D360" s="199"/>
-      <c r="E360" s="205"/>
+      <c r="B360" s="221"/>
+      <c r="C360" s="221"/>
+      <c r="D360" s="221"/>
+      <c r="E360" s="219"/>
       <c r="F360" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G360" s="199"/>
+      <c r="G360" s="221"/>
       <c r="H360" s="81">
         <f>35*24</f>
         <v>840</v>
       </c>
-      <c r="I360" s="199"/>
+      <c r="I360" s="221"/>
       <c r="J360" s="10">
         <f>K360*L360*M360/1000000*24</f>
         <v>2.3353920000000001</v>
@@ -19570,17 +19585,17 @@
       <c r="M360" s="81">
         <v>36</v>
       </c>
-      <c r="N360" s="199"/>
-      <c r="O360" s="199"/>
-      <c r="P360" s="199"/>
+      <c r="N360" s="221"/>
+      <c r="O360" s="221"/>
+      <c r="P360" s="221"/>
     </row>
     <row r="361" spans="1:16" ht="22.5">
-      <c r="B361" s="186" t="s">
+      <c r="B361" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C361" s="186"/>
-      <c r="D361" s="186"/>
-      <c r="E361" s="186"/>
+      <c r="C361" s="189"/>
+      <c r="D361" s="189"/>
+      <c r="E361" s="189"/>
       <c r="F361" s="64" t="s">
         <v>201</v>
       </c>
@@ -19602,27 +19617,27 @@
       <c r="P361" s="67"/>
     </row>
     <row r="362" spans="1:16" ht="21">
-      <c r="B362" s="222" t="s">
+      <c r="B362" s="200" t="s">
         <v>202</v>
       </c>
-      <c r="C362" s="222"/>
-      <c r="D362" s="222" t="s">
+      <c r="C362" s="200"/>
+      <c r="D362" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="E362" s="189">
+      <c r="E362" s="193">
         <v>45677</v>
       </c>
       <c r="F362" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="G362" s="222" t="s">
+      <c r="G362" s="200" t="s">
         <v>71</v>
       </c>
       <c r="H362" s="90">
         <f>50*20+60*32+40</f>
         <v>2960</v>
       </c>
-      <c r="I362" s="222">
+      <c r="I362" s="200">
         <f>25*169</f>
         <v>4225</v>
       </c>
@@ -19639,30 +19654,30 @@
       <c r="M362" s="90">
         <v>40</v>
       </c>
-      <c r="N362" s="242">
+      <c r="N362" s="224">
         <v>45680</v>
       </c>
-      <c r="O362" s="242">
+      <c r="O362" s="224">
         <v>45716</v>
       </c>
-      <c r="P362" s="222" t="s">
+      <c r="P362" s="200" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="363" spans="1:16" ht="21">
-      <c r="B363" s="243"/>
-      <c r="C363" s="243"/>
-      <c r="D363" s="243"/>
-      <c r="E363" s="230"/>
+      <c r="B363" s="202"/>
+      <c r="C363" s="202"/>
+      <c r="D363" s="202"/>
+      <c r="E363" s="194"/>
       <c r="F363" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="G363" s="243"/>
+      <c r="G363" s="202"/>
       <c r="H363" s="90">
         <f>40*16</f>
         <v>640</v>
       </c>
-      <c r="I363" s="243"/>
+      <c r="I363" s="202"/>
       <c r="J363" s="158">
         <f>K363*L363*M363/1000000*16</f>
         <v>1.66656</v>
@@ -19676,24 +19691,24 @@
       <c r="M363" s="90">
         <v>28</v>
       </c>
-      <c r="N363" s="243"/>
-      <c r="O363" s="243"/>
-      <c r="P363" s="243"/>
+      <c r="N363" s="202"/>
+      <c r="O363" s="202"/>
+      <c r="P363" s="202"/>
     </row>
     <row r="364" spans="1:16" ht="21">
-      <c r="B364" s="223"/>
-      <c r="C364" s="223"/>
-      <c r="D364" s="223"/>
-      <c r="E364" s="190"/>
+      <c r="B364" s="201"/>
+      <c r="C364" s="201"/>
+      <c r="D364" s="201"/>
+      <c r="E364" s="195"/>
       <c r="F364" s="157" t="s">
         <v>544</v>
       </c>
-      <c r="G364" s="223"/>
+      <c r="G364" s="201"/>
       <c r="H364" s="90">
         <f>40*270</f>
         <v>10800</v>
       </c>
-      <c r="I364" s="223"/>
+      <c r="I364" s="201"/>
       <c r="J364" s="158">
         <f>K364*L364*M364/1000000*100</f>
         <v>11.899999999999999</v>
@@ -19707,17 +19722,17 @@
       <c r="M364" s="90">
         <v>70</v>
       </c>
-      <c r="N364" s="223"/>
-      <c r="O364" s="223"/>
-      <c r="P364" s="223"/>
+      <c r="N364" s="201"/>
+      <c r="O364" s="201"/>
+      <c r="P364" s="201"/>
     </row>
     <row r="365" spans="1:16" ht="22.5">
-      <c r="B365" s="186" t="s">
+      <c r="B365" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C365" s="186"/>
-      <c r="D365" s="186"/>
-      <c r="E365" s="186"/>
+      <c r="C365" s="189"/>
+      <c r="D365" s="189"/>
+      <c r="E365" s="189"/>
       <c r="F365" s="153" t="s">
         <v>545</v>
       </c>
@@ -19787,12 +19802,12 @@
       </c>
     </row>
     <row r="367" spans="1:16" ht="22.5">
-      <c r="B367" s="186" t="s">
+      <c r="B367" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C367" s="186"/>
-      <c r="D367" s="186"/>
-      <c r="E367" s="186"/>
+      <c r="C367" s="189"/>
+      <c r="D367" s="189"/>
+      <c r="E367" s="189"/>
       <c r="F367" s="153" t="s">
         <v>548</v>
       </c>
@@ -19814,28 +19829,28 @@
       <c r="P367" s="92"/>
     </row>
     <row r="368" spans="1:16" ht="21">
-      <c r="B368" s="203" t="s">
+      <c r="B368" s="222" t="s">
         <v>205</v>
       </c>
-      <c r="C368" s="244" t="s">
+      <c r="C368" s="228" t="s">
         <v>206</v>
       </c>
-      <c r="D368" s="203" t="s">
+      <c r="D368" s="222" t="s">
         <v>207</v>
       </c>
-      <c r="E368" s="204">
+      <c r="E368" s="217">
         <v>45678</v>
       </c>
       <c r="F368" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G368" s="203" t="s">
+      <c r="G368" s="222" t="s">
         <v>32</v>
       </c>
       <c r="H368" s="81">
         <v>1</v>
       </c>
-      <c r="I368" s="203">
+      <c r="I368" s="222">
         <v>37</v>
       </c>
       <c r="J368" s="10">
@@ -19851,29 +19866,29 @@
       <c r="M368" s="81">
         <v>40</v>
       </c>
-      <c r="N368" s="241">
+      <c r="N368" s="220">
         <v>45681</v>
       </c>
-      <c r="O368" s="241">
+      <c r="O368" s="220">
         <v>45714</v>
       </c>
-      <c r="P368" s="203" t="s">
+      <c r="P368" s="222" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="369" spans="2:16" ht="21">
-      <c r="B369" s="198"/>
-      <c r="C369" s="198"/>
-      <c r="D369" s="198"/>
-      <c r="E369" s="215"/>
+      <c r="B369" s="223"/>
+      <c r="C369" s="223"/>
+      <c r="D369" s="223"/>
+      <c r="E369" s="218"/>
       <c r="F369" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G369" s="198"/>
+      <c r="G369" s="223"/>
       <c r="H369" s="81">
         <v>10</v>
       </c>
-      <c r="I369" s="198"/>
+      <c r="I369" s="223"/>
       <c r="J369" s="10">
         <f t="shared" si="3"/>
         <v>0.18360000000000001</v>
@@ -19887,23 +19902,23 @@
       <c r="M369" s="81">
         <v>85</v>
       </c>
-      <c r="N369" s="198"/>
-      <c r="O369" s="198"/>
-      <c r="P369" s="198"/>
+      <c r="N369" s="223"/>
+      <c r="O369" s="223"/>
+      <c r="P369" s="223"/>
     </row>
     <row r="370" spans="2:16" ht="21">
-      <c r="B370" s="198"/>
-      <c r="C370" s="198"/>
-      <c r="D370" s="198"/>
-      <c r="E370" s="215"/>
+      <c r="B370" s="223"/>
+      <c r="C370" s="223"/>
+      <c r="D370" s="223"/>
+      <c r="E370" s="218"/>
       <c r="F370" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G370" s="198"/>
+      <c r="G370" s="223"/>
       <c r="H370" s="81">
         <v>10</v>
       </c>
-      <c r="I370" s="198"/>
+      <c r="I370" s="223"/>
       <c r="J370" s="10">
         <f t="shared" si="3"/>
         <v>0.18240999999999999</v>
@@ -19917,23 +19932,23 @@
       <c r="M370" s="81">
         <v>37</v>
       </c>
-      <c r="N370" s="198"/>
-      <c r="O370" s="198"/>
-      <c r="P370" s="198"/>
+      <c r="N370" s="223"/>
+      <c r="O370" s="223"/>
+      <c r="P370" s="223"/>
     </row>
     <row r="371" spans="2:16" ht="21">
-      <c r="B371" s="199"/>
-      <c r="C371" s="199"/>
-      <c r="D371" s="199"/>
-      <c r="E371" s="205"/>
+      <c r="B371" s="221"/>
+      <c r="C371" s="221"/>
+      <c r="D371" s="221"/>
+      <c r="E371" s="219"/>
       <c r="F371" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G371" s="199"/>
+      <c r="G371" s="221"/>
       <c r="H371" s="81">
         <v>2</v>
       </c>
-      <c r="I371" s="199"/>
+      <c r="I371" s="221"/>
       <c r="J371" s="10">
         <f t="shared" si="3"/>
         <v>4.9919999999999999E-2</v>
@@ -19947,33 +19962,33 @@
       <c r="M371" s="81">
         <v>20</v>
       </c>
-      <c r="N371" s="198"/>
-      <c r="O371" s="198"/>
-      <c r="P371" s="198"/>
+      <c r="N371" s="223"/>
+      <c r="O371" s="223"/>
+      <c r="P371" s="223"/>
     </row>
     <row r="372" spans="2:16" ht="21">
-      <c r="B372" s="203" t="s">
+      <c r="B372" s="222" t="s">
         <v>208</v>
       </c>
       <c r="C372" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="D372" s="203" t="s">
+      <c r="D372" s="222" t="s">
         <v>207</v>
       </c>
-      <c r="E372" s="204">
+      <c r="E372" s="217">
         <v>45678</v>
       </c>
       <c r="F372" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G372" s="203" t="s">
+      <c r="G372" s="222" t="s">
         <v>32</v>
       </c>
       <c r="H372" s="81">
         <v>3</v>
       </c>
-      <c r="I372" s="203">
+      <c r="I372" s="222">
         <v>20</v>
       </c>
       <c r="J372" s="10">
@@ -19989,25 +20004,25 @@
       <c r="M372" s="81">
         <v>28</v>
       </c>
-      <c r="N372" s="198"/>
-      <c r="O372" s="198"/>
-      <c r="P372" s="198"/>
+      <c r="N372" s="223"/>
+      <c r="O372" s="223"/>
+      <c r="P372" s="223"/>
     </row>
     <row r="373" spans="2:16" ht="21">
-      <c r="B373" s="198"/>
+      <c r="B373" s="223"/>
       <c r="C373" s="81">
         <v>2660</v>
       </c>
-      <c r="D373" s="198"/>
-      <c r="E373" s="215"/>
+      <c r="D373" s="223"/>
+      <c r="E373" s="218"/>
       <c r="F373" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G373" s="198"/>
+      <c r="G373" s="223"/>
       <c r="H373" s="81">
         <v>10</v>
       </c>
-      <c r="I373" s="198"/>
+      <c r="I373" s="223"/>
       <c r="J373" s="10">
         <f t="shared" si="3"/>
         <v>4.2335999999999999E-2</v>
@@ -20021,25 +20036,25 @@
       <c r="M373" s="81">
         <v>28</v>
       </c>
-      <c r="N373" s="198"/>
-      <c r="O373" s="198"/>
-      <c r="P373" s="198"/>
+      <c r="N373" s="223"/>
+      <c r="O373" s="223"/>
+      <c r="P373" s="223"/>
     </row>
     <row r="374" spans="2:16" ht="21">
-      <c r="B374" s="199"/>
+      <c r="B374" s="221"/>
       <c r="C374" s="81">
         <v>2461</v>
       </c>
-      <c r="D374" s="199"/>
-      <c r="E374" s="205"/>
+      <c r="D374" s="221"/>
+      <c r="E374" s="219"/>
       <c r="F374" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G374" s="199"/>
+      <c r="G374" s="221"/>
       <c r="H374" s="81">
         <v>130</v>
       </c>
-      <c r="I374" s="199"/>
+      <c r="I374" s="221"/>
       <c r="J374" s="10">
         <f t="shared" si="3"/>
         <v>0.1176</v>
@@ -20053,17 +20068,17 @@
       <c r="M374" s="81">
         <v>56</v>
       </c>
-      <c r="N374" s="199"/>
-      <c r="O374" s="199"/>
-      <c r="P374" s="199"/>
+      <c r="N374" s="221"/>
+      <c r="O374" s="221"/>
+      <c r="P374" s="221"/>
     </row>
     <row r="375" spans="2:16" ht="22.5">
-      <c r="B375" s="186" t="s">
+      <c r="B375" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C375" s="186"/>
-      <c r="D375" s="186"/>
-      <c r="E375" s="186"/>
+      <c r="C375" s="189"/>
+      <c r="D375" s="189"/>
+      <c r="E375" s="189"/>
       <c r="F375" s="64" t="s">
         <v>31</v>
       </c>
@@ -20132,12 +20147,12 @@
       </c>
     </row>
     <row r="377" spans="2:16" ht="22.5">
-      <c r="B377" s="186" t="s">
+      <c r="B377" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C377" s="186"/>
-      <c r="D377" s="186"/>
-      <c r="E377" s="186"/>
+      <c r="C377" s="189"/>
+      <c r="D377" s="189"/>
+      <c r="E377" s="189"/>
       <c r="F377" s="153" t="s">
         <v>30</v>
       </c>
@@ -20157,28 +20172,28 @@
       <c r="P377" s="97"/>
     </row>
     <row r="378" spans="2:16" ht="21">
-      <c r="B378" s="209" t="s">
+      <c r="B378" s="186" t="s">
         <v>479</v>
       </c>
-      <c r="C378" s="209" t="s">
+      <c r="C378" s="186" t="s">
         <v>480</v>
       </c>
-      <c r="D378" s="209" t="s">
+      <c r="D378" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="E378" s="211">
+      <c r="E378" s="197">
         <v>45702</v>
       </c>
       <c r="F378" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="G378" s="209" t="s">
+      <c r="G378" s="186" t="s">
         <v>481</v>
       </c>
       <c r="H378" s="94">
         <v>65</v>
       </c>
-      <c r="I378" s="209">
+      <c r="I378" s="186">
         <v>2065</v>
       </c>
       <c r="J378" s="95">
@@ -20193,29 +20208,29 @@
       <c r="M378" s="94">
         <v>171</v>
       </c>
-      <c r="N378" s="249">
+      <c r="N378" s="225">
         <v>45707</v>
       </c>
-      <c r="O378" s="249">
+      <c r="O378" s="225">
         <v>45737</v>
       </c>
-      <c r="P378" s="209" t="s">
+      <c r="P378" s="186" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="379" spans="2:16" ht="21">
-      <c r="B379" s="213"/>
-      <c r="C379" s="213"/>
-      <c r="D379" s="213"/>
-      <c r="E379" s="214"/>
+      <c r="B379" s="187"/>
+      <c r="C379" s="187"/>
+      <c r="D379" s="187"/>
+      <c r="E379" s="198"/>
       <c r="F379" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="G379" s="210"/>
+      <c r="G379" s="188"/>
       <c r="H379" s="94">
         <v>65</v>
       </c>
-      <c r="I379" s="213"/>
+      <c r="I379" s="187"/>
       <c r="J379" s="95">
         <v>2.8498800000000002</v>
       </c>
@@ -20228,15 +20243,15 @@
       <c r="M379" s="94">
         <v>110</v>
       </c>
-      <c r="N379" s="213"/>
-      <c r="O379" s="213"/>
-      <c r="P379" s="213"/>
+      <c r="N379" s="187"/>
+      <c r="O379" s="187"/>
+      <c r="P379" s="187"/>
     </row>
     <row r="380" spans="2:16" ht="42">
-      <c r="B380" s="210"/>
-      <c r="C380" s="210"/>
-      <c r="D380" s="210"/>
-      <c r="E380" s="212"/>
+      <c r="B380" s="188"/>
+      <c r="C380" s="188"/>
+      <c r="D380" s="188"/>
+      <c r="E380" s="199"/>
       <c r="F380" s="93" t="s">
         <v>482</v>
       </c>
@@ -20246,7 +20261,7 @@
       <c r="H380" s="94">
         <v>180</v>
       </c>
-      <c r="I380" s="210"/>
+      <c r="I380" s="188"/>
       <c r="J380" s="95">
         <v>4.4021999999999997</v>
       </c>
@@ -20259,17 +20274,17 @@
       <c r="M380" s="94">
         <v>165</v>
       </c>
-      <c r="N380" s="210"/>
-      <c r="O380" s="210"/>
-      <c r="P380" s="210"/>
+      <c r="N380" s="188"/>
+      <c r="O380" s="188"/>
+      <c r="P380" s="188"/>
     </row>
     <row r="381" spans="2:16" ht="22.5">
-      <c r="B381" s="186" t="s">
+      <c r="B381" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C381" s="186"/>
-      <c r="D381" s="186"/>
-      <c r="E381" s="186"/>
+      <c r="C381" s="189"/>
+      <c r="D381" s="189"/>
+      <c r="E381" s="189"/>
       <c r="F381" s="153" t="s">
         <v>25</v>
       </c>
@@ -20336,12 +20351,12 @@
       </c>
     </row>
     <row r="383" spans="2:16" ht="22.5">
-      <c r="B383" s="186" t="s">
+      <c r="B383" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C383" s="186"/>
-      <c r="D383" s="186"/>
-      <c r="E383" s="186"/>
+      <c r="C383" s="189"/>
+      <c r="D383" s="189"/>
+      <c r="E383" s="189"/>
       <c r="F383" s="153" t="s">
         <v>15</v>
       </c>
@@ -20402,12 +20417,12 @@
       </c>
     </row>
     <row r="385" spans="2:16" ht="22.5">
-      <c r="B385" s="186" t="s">
+      <c r="B385" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C385" s="186"/>
-      <c r="D385" s="186"/>
-      <c r="E385" s="186"/>
+      <c r="C385" s="189"/>
+      <c r="D385" s="189"/>
+      <c r="E385" s="189"/>
       <c r="F385" s="153" t="s">
         <v>21</v>
       </c>
@@ -20476,12 +20491,12 @@
       </c>
     </row>
     <row r="387" spans="2:16" ht="22.5">
-      <c r="B387" s="186" t="s">
+      <c r="B387" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C387" s="186"/>
-      <c r="D387" s="186"/>
-      <c r="E387" s="186"/>
+      <c r="C387" s="189"/>
+      <c r="D387" s="189"/>
+      <c r="E387" s="189"/>
       <c r="F387" s="153" t="s">
         <v>516</v>
       </c>
@@ -20542,12 +20557,12 @@
       <c r="P388" s="90"/>
     </row>
     <row r="389" spans="2:16" ht="22.5">
-      <c r="B389" s="186" t="s">
+      <c r="B389" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C389" s="186"/>
-      <c r="D389" s="186"/>
-      <c r="E389" s="186"/>
+      <c r="C389" s="189"/>
+      <c r="D389" s="189"/>
+      <c r="E389" s="189"/>
       <c r="F389" s="153" t="s">
         <v>19</v>
       </c>
@@ -20611,12 +20626,12 @@
       <c r="P390" s="94"/>
     </row>
     <row r="391" spans="2:16" ht="22.5">
-      <c r="B391" s="186" t="s">
+      <c r="B391" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C391" s="186"/>
-      <c r="D391" s="186"/>
-      <c r="E391" s="186"/>
+      <c r="C391" s="189"/>
+      <c r="D391" s="189"/>
+      <c r="E391" s="189"/>
       <c r="F391" s="153" t="s">
         <v>557</v>
       </c>
@@ -20683,12 +20698,12 @@
       <c r="P392" s="90"/>
     </row>
     <row r="393" spans="2:16" ht="22.5">
-      <c r="B393" s="186" t="s">
+      <c r="B393" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C393" s="186"/>
-      <c r="D393" s="186"/>
-      <c r="E393" s="186"/>
+      <c r="C393" s="189"/>
+      <c r="D393" s="189"/>
+      <c r="E393" s="189"/>
       <c r="F393" s="153" t="s">
         <v>560</v>
       </c>
@@ -20757,12 +20772,12 @@
       </c>
     </row>
     <row r="395" spans="2:16" ht="22.5">
-      <c r="B395" s="186" t="s">
+      <c r="B395" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C395" s="186"/>
-      <c r="D395" s="186"/>
-      <c r="E395" s="186"/>
+      <c r="C395" s="189"/>
+      <c r="D395" s="189"/>
+      <c r="E395" s="189"/>
       <c r="F395" s="153" t="s">
         <v>564</v>
       </c>
@@ -20825,12 +20840,12 @@
       </c>
     </row>
     <row r="397" spans="2:16" ht="22.5">
-      <c r="B397" s="186" t="s">
+      <c r="B397" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C397" s="186"/>
-      <c r="D397" s="186"/>
-      <c r="E397" s="186"/>
+      <c r="C397" s="189"/>
+      <c r="D397" s="189"/>
+      <c r="E397" s="189"/>
       <c r="F397" s="153" t="s">
         <v>22</v>
       </c>
@@ -20895,12 +20910,12 @@
       </c>
     </row>
     <row r="399" spans="2:16" ht="22.5">
-      <c r="B399" s="186" t="s">
+      <c r="B399" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C399" s="186"/>
-      <c r="D399" s="186"/>
-      <c r="E399" s="186"/>
+      <c r="C399" s="189"/>
+      <c r="D399" s="189"/>
+      <c r="E399" s="189"/>
       <c r="F399" s="64" t="s">
         <v>30</v>
       </c>
@@ -20967,12 +20982,12 @@
       </c>
     </row>
     <row r="401" spans="2:16" ht="22.5">
-      <c r="B401" s="186" t="s">
+      <c r="B401" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C401" s="186"/>
-      <c r="D401" s="186"/>
-      <c r="E401" s="186"/>
+      <c r="C401" s="189"/>
+      <c r="D401" s="189"/>
+      <c r="E401" s="189"/>
       <c r="F401" s="64" t="s">
         <v>516</v>
       </c>
@@ -21035,12 +21050,12 @@
       <c r="P402" s="81"/>
     </row>
     <row r="403" spans="2:16" ht="22.5">
-      <c r="B403" s="186" t="s">
+      <c r="B403" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C403" s="186"/>
-      <c r="D403" s="186"/>
-      <c r="E403" s="186"/>
+      <c r="C403" s="189"/>
+      <c r="D403" s="189"/>
+      <c r="E403" s="189"/>
       <c r="F403" s="64" t="s">
         <v>388</v>
       </c>
@@ -21107,12 +21122,12 @@
       <c r="P404" s="90"/>
     </row>
     <row r="405" spans="2:16" ht="22.5">
-      <c r="B405" s="186" t="s">
+      <c r="B405" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C405" s="186"/>
-      <c r="D405" s="186"/>
-      <c r="E405" s="186"/>
+      <c r="C405" s="189"/>
+      <c r="D405" s="189"/>
+      <c r="E405" s="189"/>
       <c r="F405" s="153" t="s">
         <v>618</v>
       </c>
@@ -21171,12 +21186,12 @@
       <c r="P406" s="90"/>
     </row>
     <row r="407" spans="2:16" ht="22.5">
-      <c r="B407" s="186" t="s">
+      <c r="B407" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C407" s="186"/>
-      <c r="D407" s="186"/>
-      <c r="E407" s="186"/>
+      <c r="C407" s="189"/>
+      <c r="D407" s="189"/>
+      <c r="E407" s="189"/>
       <c r="F407" s="153" t="s">
         <v>21</v>
       </c>
@@ -21196,28 +21211,28 @@
       <c r="P407" s="92"/>
     </row>
     <row r="408" spans="2:16" ht="21">
-      <c r="B408" s="222" t="s">
+      <c r="B408" s="200" t="s">
         <v>633</v>
       </c>
-      <c r="C408" s="222">
+      <c r="C408" s="200">
         <v>15262730846</v>
       </c>
-      <c r="D408" s="222" t="s">
+      <c r="D408" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="E408" s="189">
+      <c r="E408" s="193">
         <v>45719</v>
       </c>
       <c r="F408" s="157" t="s">
         <v>634</v>
       </c>
-      <c r="G408" s="222" t="s">
+      <c r="G408" s="200" t="s">
         <v>71</v>
       </c>
       <c r="H408" s="90">
         <v>1500</v>
       </c>
-      <c r="I408" s="222">
+      <c r="I408" s="200">
         <v>2675</v>
       </c>
       <c r="J408" s="158">
@@ -21232,10 +21247,10 @@
       <c r="M408" s="90">
         <v>19</v>
       </c>
-      <c r="N408" s="222" t="s">
+      <c r="N408" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="O408" s="222" t="s">
+      <c r="O408" s="200" t="s">
         <v>88</v>
       </c>
       <c r="P408" s="90" t="s">
@@ -21243,18 +21258,18 @@
       </c>
     </row>
     <row r="409" spans="2:16" ht="21">
-      <c r="B409" s="243"/>
-      <c r="C409" s="243"/>
-      <c r="D409" s="243"/>
-      <c r="E409" s="230"/>
+      <c r="B409" s="202"/>
+      <c r="C409" s="202"/>
+      <c r="D409" s="202"/>
+      <c r="E409" s="194"/>
       <c r="F409" s="157" t="s">
         <v>635</v>
       </c>
-      <c r="G409" s="243"/>
+      <c r="G409" s="202"/>
       <c r="H409" s="90">
         <v>1500</v>
       </c>
-      <c r="I409" s="243"/>
+      <c r="I409" s="202"/>
       <c r="J409" s="158">
         <v>4.8099999999999996</v>
       </c>
@@ -21267,25 +21282,25 @@
       <c r="M409" s="90">
         <v>25</v>
       </c>
-      <c r="N409" s="243"/>
-      <c r="O409" s="243"/>
+      <c r="N409" s="202"/>
+      <c r="O409" s="202"/>
       <c r="P409" s="90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="410" spans="2:16" ht="21">
-      <c r="B410" s="223"/>
-      <c r="C410" s="223"/>
-      <c r="D410" s="223"/>
-      <c r="E410" s="190"/>
+      <c r="B410" s="201"/>
+      <c r="C410" s="201"/>
+      <c r="D410" s="201"/>
+      <c r="E410" s="195"/>
       <c r="F410" s="157" t="s">
         <v>636</v>
       </c>
-      <c r="G410" s="223"/>
+      <c r="G410" s="201"/>
       <c r="H410" s="90">
         <v>210</v>
       </c>
-      <c r="I410" s="223"/>
+      <c r="I410" s="201"/>
       <c r="J410" s="158">
         <v>0.63724500000000006</v>
       </c>
@@ -21298,19 +21313,19 @@
       <c r="M410" s="90">
         <v>35</v>
       </c>
-      <c r="N410" s="223"/>
-      <c r="O410" s="223"/>
+      <c r="N410" s="201"/>
+      <c r="O410" s="201"/>
       <c r="P410" s="90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="411" spans="2:16" ht="22.5">
-      <c r="B411" s="186" t="s">
+      <c r="B411" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C411" s="186"/>
-      <c r="D411" s="186"/>
-      <c r="E411" s="186"/>
+      <c r="C411" s="189"/>
+      <c r="D411" s="189"/>
+      <c r="E411" s="189"/>
       <c r="F411" s="153" t="s">
         <v>409</v>
       </c>
@@ -21377,12 +21392,12 @@
       <c r="P412" s="90"/>
     </row>
     <row r="413" spans="2:16" ht="22.5">
-      <c r="B413" s="186" t="s">
+      <c r="B413" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C413" s="186"/>
-      <c r="D413" s="186"/>
-      <c r="E413" s="186"/>
+      <c r="C413" s="189"/>
+      <c r="D413" s="189"/>
+      <c r="E413" s="189"/>
       <c r="F413" s="153" t="s">
         <v>689</v>
       </c>
@@ -21449,12 +21464,12 @@
       <c r="P414" s="90"/>
     </row>
     <row r="415" spans="2:16" ht="22.5">
-      <c r="B415" s="186" t="s">
+      <c r="B415" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C415" s="186"/>
-      <c r="D415" s="186"/>
-      <c r="E415" s="186"/>
+      <c r="C415" s="189"/>
+      <c r="D415" s="189"/>
+      <c r="E415" s="189"/>
       <c r="F415" s="153" t="s">
         <v>17</v>
       </c>
@@ -21519,12 +21534,12 @@
       <c r="P416" s="90"/>
     </row>
     <row r="417" spans="2:16" ht="22.5">
-      <c r="B417" s="186" t="s">
+      <c r="B417" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C417" s="186"/>
-      <c r="D417" s="186"/>
-      <c r="E417" s="186"/>
+      <c r="C417" s="189"/>
+      <c r="D417" s="189"/>
+      <c r="E417" s="189"/>
       <c r="F417" s="153" t="s">
         <v>706</v>
       </c>
@@ -21585,12 +21600,12 @@
       <c r="P418" s="90"/>
     </row>
     <row r="419" spans="2:16" ht="22.5">
-      <c r="B419" s="186" t="s">
+      <c r="B419" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C419" s="186"/>
-      <c r="D419" s="186"/>
-      <c r="E419" s="186"/>
+      <c r="C419" s="189"/>
+      <c r="D419" s="189"/>
+      <c r="E419" s="189"/>
       <c r="F419" s="153" t="s">
         <v>557</v>
       </c>
@@ -21610,28 +21625,28 @@
       <c r="P419" s="92"/>
     </row>
     <row r="420" spans="2:16" ht="21">
-      <c r="B420" s="222" t="s">
+      <c r="B420" s="200" t="s">
         <v>710</v>
       </c>
-      <c r="C420" s="222" t="s">
+      <c r="C420" s="200" t="s">
         <v>711</v>
       </c>
-      <c r="D420" s="222" t="s">
+      <c r="D420" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="E420" s="189">
+      <c r="E420" s="193">
         <v>45722</v>
       </c>
       <c r="F420" s="157" t="s">
         <v>712</v>
       </c>
-      <c r="G420" s="222" t="s">
+      <c r="G420" s="200" t="s">
         <v>71</v>
       </c>
       <c r="H420" s="90">
         <v>1080</v>
       </c>
-      <c r="I420" s="222">
+      <c r="I420" s="200">
         <v>2700</v>
       </c>
       <c r="J420" s="158">
@@ -21646,10 +21661,10 @@
       <c r="M420" s="90">
         <v>40</v>
       </c>
-      <c r="N420" s="222" t="s">
+      <c r="N420" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="O420" s="222" t="s">
+      <c r="O420" s="200" t="s">
         <v>88</v>
       </c>
       <c r="P420" s="90" t="s">
@@ -21657,18 +21672,18 @@
       </c>
     </row>
     <row r="421" spans="2:16" ht="21">
-      <c r="B421" s="223"/>
-      <c r="C421" s="223"/>
-      <c r="D421" s="223"/>
-      <c r="E421" s="190"/>
+      <c r="B421" s="201"/>
+      <c r="C421" s="201"/>
+      <c r="D421" s="201"/>
+      <c r="E421" s="195"/>
       <c r="F421" s="157" t="s">
         <v>713</v>
       </c>
-      <c r="G421" s="223"/>
+      <c r="G421" s="201"/>
       <c r="H421" s="90">
         <v>2520</v>
       </c>
-      <c r="I421" s="223"/>
+      <c r="I421" s="201"/>
       <c r="J421" s="158">
         <v>7.4969999999999999</v>
       </c>
@@ -21681,19 +21696,19 @@
       <c r="M421" s="90">
         <v>34</v>
       </c>
-      <c r="N421" s="223"/>
-      <c r="O421" s="223"/>
+      <c r="N421" s="201"/>
+      <c r="O421" s="201"/>
       <c r="P421" s="90" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="422" spans="2:16" ht="22.5">
-      <c r="B422" s="186" t="s">
+      <c r="B422" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C422" s="186"/>
-      <c r="D422" s="186"/>
-      <c r="E422" s="186"/>
+      <c r="C422" s="189"/>
+      <c r="D422" s="189"/>
+      <c r="E422" s="189"/>
       <c r="F422" s="153" t="s">
         <v>714</v>
       </c>
@@ -21750,12 +21765,12 @@
       </c>
     </row>
     <row r="424" spans="2:16" ht="22.5">
-      <c r="B424" s="186" t="s">
+      <c r="B424" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C424" s="186"/>
-      <c r="D424" s="186"/>
-      <c r="E424" s="186"/>
+      <c r="C424" s="189"/>
+      <c r="D424" s="189"/>
+      <c r="E424" s="189"/>
       <c r="F424" s="153" t="s">
         <v>718</v>
       </c>
@@ -21775,26 +21790,26 @@
       <c r="P424" s="92"/>
     </row>
     <row r="425" spans="2:16" ht="21">
-      <c r="B425" s="222" t="s">
+      <c r="B425" s="200" t="s">
         <v>719</v>
       </c>
-      <c r="C425" s="238" t="s">
+      <c r="C425" s="203" t="s">
         <v>720</v>
       </c>
-      <c r="D425" s="222" t="s">
+      <c r="D425" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="E425" s="189">
+      <c r="E425" s="193">
         <v>45724</v>
       </c>
       <c r="F425" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="G425" s="222" t="s">
+      <c r="G425" s="200" t="s">
         <v>721</v>
       </c>
       <c r="H425" s="90"/>
-      <c r="I425" s="222">
+      <c r="I425" s="200">
         <v>90</v>
       </c>
       <c r="J425" s="184">
@@ -21809,25 +21824,25 @@
       <c r="M425" s="90">
         <v>47</v>
       </c>
-      <c r="N425" s="222" t="s">
+      <c r="N425" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="O425" s="222" t="s">
+      <c r="O425" s="200" t="s">
         <v>52</v>
       </c>
       <c r="P425" s="90"/>
     </row>
     <row r="426" spans="2:16" ht="21">
-      <c r="B426" s="243"/>
-      <c r="C426" s="239"/>
-      <c r="D426" s="243"/>
-      <c r="E426" s="230"/>
+      <c r="B426" s="202"/>
+      <c r="C426" s="204"/>
+      <c r="D426" s="202"/>
+      <c r="E426" s="194"/>
       <c r="F426" s="157" t="s">
         <v>482</v>
       </c>
-      <c r="G426" s="243"/>
+      <c r="G426" s="202"/>
       <c r="H426" s="90"/>
-      <c r="I426" s="243"/>
+      <c r="I426" s="202"/>
       <c r="J426" s="184">
         <v>0.19458</v>
       </c>
@@ -21840,21 +21855,21 @@
       <c r="M426" s="90">
         <v>46</v>
       </c>
-      <c r="N426" s="243"/>
-      <c r="O426" s="243"/>
+      <c r="N426" s="202"/>
+      <c r="O426" s="202"/>
       <c r="P426" s="90"/>
     </row>
     <row r="427" spans="2:16" ht="21">
-      <c r="B427" s="243"/>
-      <c r="C427" s="239"/>
-      <c r="D427" s="243"/>
-      <c r="E427" s="230"/>
+      <c r="B427" s="202"/>
+      <c r="C427" s="204"/>
+      <c r="D427" s="202"/>
+      <c r="E427" s="194"/>
       <c r="F427" s="157" t="s">
         <v>722</v>
       </c>
-      <c r="G427" s="243"/>
+      <c r="G427" s="202"/>
       <c r="H427" s="90"/>
-      <c r="I427" s="243"/>
+      <c r="I427" s="202"/>
       <c r="J427" s="184">
         <v>7.2000000000000008E-2</v>
       </c>
@@ -21867,21 +21882,21 @@
       <c r="M427" s="90">
         <v>20</v>
       </c>
-      <c r="N427" s="243"/>
-      <c r="O427" s="243"/>
+      <c r="N427" s="202"/>
+      <c r="O427" s="202"/>
       <c r="P427" s="90"/>
     </row>
     <row r="428" spans="2:16" ht="21">
-      <c r="B428" s="223"/>
-      <c r="C428" s="240"/>
-      <c r="D428" s="223"/>
-      <c r="E428" s="190"/>
+      <c r="B428" s="201"/>
+      <c r="C428" s="205"/>
+      <c r="D428" s="201"/>
+      <c r="E428" s="195"/>
       <c r="F428" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="G428" s="223"/>
+      <c r="G428" s="201"/>
       <c r="H428" s="90"/>
-      <c r="I428" s="223"/>
+      <c r="I428" s="201"/>
       <c r="J428" s="184">
         <v>3.0380000000000001E-2</v>
       </c>
@@ -21894,17 +21909,17 @@
       <c r="M428" s="90">
         <v>10</v>
       </c>
-      <c r="N428" s="223"/>
-      <c r="O428" s="223"/>
+      <c r="N428" s="201"/>
+      <c r="O428" s="201"/>
       <c r="P428" s="90"/>
     </row>
     <row r="429" spans="2:16" ht="22.5">
-      <c r="B429" s="186" t="s">
+      <c r="B429" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C429" s="186"/>
-      <c r="D429" s="186"/>
-      <c r="E429" s="186"/>
+      <c r="C429" s="189"/>
+      <c r="D429" s="189"/>
+      <c r="E429" s="189"/>
       <c r="F429" s="153" t="s">
         <v>26</v>
       </c>
@@ -21965,12 +21980,12 @@
       <c r="P430" s="90"/>
     </row>
     <row r="431" spans="2:16" ht="22.5">
-      <c r="B431" s="186" t="s">
+      <c r="B431" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C431" s="186"/>
-      <c r="D431" s="186"/>
-      <c r="E431" s="186"/>
+      <c r="C431" s="189"/>
+      <c r="D431" s="189"/>
+      <c r="E431" s="189"/>
       <c r="F431" s="153" t="s">
         <v>21</v>
       </c>
@@ -22033,12 +22048,12 @@
       <c r="P432" s="90"/>
     </row>
     <row r="433" spans="2:16" ht="22.5">
-      <c r="B433" s="186" t="s">
+      <c r="B433" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C433" s="186"/>
-      <c r="D433" s="186"/>
-      <c r="E433" s="186"/>
+      <c r="C433" s="189"/>
+      <c r="D433" s="189"/>
+      <c r="E433" s="189"/>
       <c r="F433" s="153" t="s">
         <v>13</v>
       </c>
@@ -22102,12 +22117,12 @@
       <c r="P434" s="94"/>
     </row>
     <row r="435" spans="2:16" ht="22.5">
-      <c r="B435" s="186" t="s">
+      <c r="B435" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C435" s="186"/>
-      <c r="D435" s="186"/>
-      <c r="E435" s="186"/>
+      <c r="C435" s="189"/>
+      <c r="D435" s="189"/>
+      <c r="E435" s="189"/>
       <c r="F435" s="153" t="s">
         <v>21</v>
       </c>
@@ -22129,16 +22144,16 @@
       <c r="P435" s="97"/>
     </row>
     <row r="436" spans="2:16" ht="42">
-      <c r="B436" s="209" t="s">
+      <c r="B436" s="186" t="s">
         <v>733</v>
       </c>
-      <c r="C436" s="250" t="s">
+      <c r="C436" s="196" t="s">
         <v>734</v>
       </c>
-      <c r="D436" s="209" t="s">
+      <c r="D436" s="186" t="s">
         <v>735</v>
       </c>
-      <c r="E436" s="211">
+      <c r="E436" s="197">
         <v>45726</v>
       </c>
       <c r="F436" s="93" t="s">
@@ -22151,7 +22166,7 @@
         <f>53+37+45+42+11+30</f>
         <v>218</v>
       </c>
-      <c r="I436" s="209">
+      <c r="I436" s="186">
         <v>195</v>
       </c>
       <c r="J436" s="95">
@@ -22167,19 +22182,19 @@
       <c r="M436" s="94">
         <v>24</v>
       </c>
-      <c r="N436" s="209" t="s">
+      <c r="N436" s="186" t="s">
         <v>82</v>
       </c>
-      <c r="O436" s="209" t="s">
+      <c r="O436" s="186" t="s">
         <v>82</v>
       </c>
       <c r="P436" s="94"/>
     </row>
     <row r="437" spans="2:16" ht="21">
-      <c r="B437" s="213"/>
-      <c r="C437" s="213"/>
-      <c r="D437" s="213"/>
-      <c r="E437" s="214"/>
+      <c r="B437" s="187"/>
+      <c r="C437" s="187"/>
+      <c r="D437" s="187"/>
+      <c r="E437" s="198"/>
       <c r="F437" s="93" t="s">
         <v>737</v>
       </c>
@@ -22190,7 +22205,7 @@
         <f>150+160+70</f>
         <v>380</v>
       </c>
-      <c r="I437" s="213"/>
+      <c r="I437" s="187"/>
       <c r="J437" s="95">
         <f>K437*L437*M437/1000000*3</f>
         <v>8.3160000000000012E-2</v>
@@ -22204,15 +22219,15 @@
       <c r="M437" s="94">
         <v>21</v>
       </c>
-      <c r="N437" s="213"/>
-      <c r="O437" s="213"/>
+      <c r="N437" s="187"/>
+      <c r="O437" s="187"/>
       <c r="P437" s="94"/>
     </row>
     <row r="438" spans="2:16" ht="37.5">
-      <c r="B438" s="210"/>
-      <c r="C438" s="210"/>
-      <c r="D438" s="210"/>
-      <c r="E438" s="212"/>
+      <c r="B438" s="188"/>
+      <c r="C438" s="188"/>
+      <c r="D438" s="188"/>
+      <c r="E438" s="199"/>
       <c r="F438" s="93" t="s">
         <v>406</v>
       </c>
@@ -22222,7 +22237,7 @@
       <c r="H438" s="94">
         <v>90</v>
       </c>
-      <c r="I438" s="210"/>
+      <c r="I438" s="188"/>
       <c r="J438" s="95">
         <f>K438*L438*M438/1000000</f>
         <v>2.4552000000000001E-2</v>
@@ -22236,17 +22251,17 @@
       <c r="M438" s="94">
         <v>18</v>
       </c>
-      <c r="N438" s="210"/>
-      <c r="O438" s="210"/>
+      <c r="N438" s="188"/>
+      <c r="O438" s="188"/>
       <c r="P438" s="94"/>
     </row>
     <row r="439" spans="2:16" ht="22.5">
-      <c r="B439" s="186" t="s">
+      <c r="B439" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C439" s="186"/>
-      <c r="D439" s="186"/>
-      <c r="E439" s="186"/>
+      <c r="C439" s="189"/>
+      <c r="D439" s="189"/>
+      <c r="E439" s="189"/>
       <c r="F439" s="153" t="s">
         <v>406</v>
       </c>
@@ -22267,8 +22282,626 @@
       <c r="O439" s="96"/>
       <c r="P439" s="97"/>
     </row>
+    <row r="440" spans="2:16" ht="42">
+      <c r="B440" s="90" t="s">
+        <v>750</v>
+      </c>
+      <c r="C440" s="90"/>
+      <c r="D440" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="E440" s="91">
+        <v>45728</v>
+      </c>
+      <c r="F440" s="157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G440" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="H440" s="90">
+        <f>24+15+48+25</f>
+        <v>112</v>
+      </c>
+      <c r="I440" s="90">
+        <v>100</v>
+      </c>
+      <c r="J440" s="184">
+        <f>K440*L440*M440/1000000*4</f>
+        <v>0.54432000000000003</v>
+      </c>
+      <c r="K440" s="90">
+        <v>90</v>
+      </c>
+      <c r="L440" s="90">
+        <v>54</v>
+      </c>
+      <c r="M440" s="90">
+        <v>28</v>
+      </c>
+      <c r="N440" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="O440" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="P440" s="90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="441" spans="2:16" ht="22.5">
+      <c r="B441" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441" s="189"/>
+      <c r="D441" s="189"/>
+      <c r="E441" s="189"/>
+      <c r="F441" s="153" t="s">
+        <v>25</v>
+      </c>
+      <c r="G441" s="154"/>
+      <c r="H441" s="154"/>
+      <c r="I441" s="154">
+        <f>SUM(I440:I440)</f>
+        <v>100</v>
+      </c>
+      <c r="J441" s="185">
+        <f>SUM(J440:J440)</f>
+        <v>0.54432000000000003</v>
+      </c>
+      <c r="K441" s="154"/>
+      <c r="L441" s="154"/>
+      <c r="M441" s="154"/>
+      <c r="N441" s="92"/>
+      <c r="O441" s="92"/>
+      <c r="P441" s="92"/>
+    </row>
+    <row r="442" spans="2:16" ht="21">
+      <c r="B442" s="186" t="s">
+        <v>751</v>
+      </c>
+      <c r="C442" s="196" t="s">
+        <v>752</v>
+      </c>
+      <c r="D442" s="186" t="s">
+        <v>476</v>
+      </c>
+      <c r="E442" s="197">
+        <v>45728</v>
+      </c>
+      <c r="F442" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="G442" s="213" t="s">
+        <v>753</v>
+      </c>
+      <c r="H442" s="94">
+        <v>34</v>
+      </c>
+      <c r="I442" s="186">
+        <v>17</v>
+      </c>
+      <c r="J442" s="95">
+        <v>2.4684000000000001E-2</v>
+      </c>
+      <c r="K442" s="94">
+        <v>34</v>
+      </c>
+      <c r="L442" s="94">
+        <v>33</v>
+      </c>
+      <c r="M442" s="94">
+        <v>22</v>
+      </c>
+      <c r="N442" s="186" t="s">
+        <v>82</v>
+      </c>
+      <c r="O442" s="186" t="s">
+        <v>82</v>
+      </c>
+      <c r="P442" s="94"/>
+    </row>
+    <row r="443" spans="2:16" ht="21">
+      <c r="B443" s="187"/>
+      <c r="C443" s="187"/>
+      <c r="D443" s="187"/>
+      <c r="E443" s="198"/>
+      <c r="F443" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G443" s="187"/>
+      <c r="H443" s="94">
+        <v>72</v>
+      </c>
+      <c r="I443" s="187"/>
+      <c r="J443" s="95">
+        <v>2.9568000000000001E-2</v>
+      </c>
+      <c r="K443" s="94">
+        <v>44</v>
+      </c>
+      <c r="L443" s="94">
+        <v>32</v>
+      </c>
+      <c r="M443" s="94">
+        <v>21</v>
+      </c>
+      <c r="N443" s="187"/>
+      <c r="O443" s="187"/>
+      <c r="P443" s="94"/>
+    </row>
+    <row r="444" spans="2:16" ht="21">
+      <c r="B444" s="188"/>
+      <c r="C444" s="188"/>
+      <c r="D444" s="188"/>
+      <c r="E444" s="199"/>
+      <c r="F444" s="93" t="s">
+        <v>30</v>
+      </c>
+      <c r="G444" s="188"/>
+      <c r="H444" s="94">
+        <v>5</v>
+      </c>
+      <c r="I444" s="188"/>
+      <c r="J444" s="95">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="K444" s="94">
+        <v>30</v>
+      </c>
+      <c r="L444" s="94">
+        <v>24</v>
+      </c>
+      <c r="M444" s="94">
+        <v>15</v>
+      </c>
+      <c r="N444" s="188"/>
+      <c r="O444" s="188"/>
+      <c r="P444" s="94"/>
+    </row>
+    <row r="445" spans="2:16" ht="22.5">
+      <c r="B445" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C445" s="189"/>
+      <c r="D445" s="189"/>
+      <c r="E445" s="189"/>
+      <c r="F445" s="153" t="s">
+        <v>30</v>
+      </c>
+      <c r="G445" s="169"/>
+      <c r="H445" s="154"/>
+      <c r="I445" s="169">
+        <v>17</v>
+      </c>
+      <c r="J445" s="155">
+        <v>6.5051999999999999E-2</v>
+      </c>
+      <c r="K445" s="154"/>
+      <c r="L445" s="154"/>
+      <c r="M445" s="154"/>
+      <c r="N445" s="96"/>
+      <c r="O445" s="96"/>
+      <c r="P445" s="97"/>
+    </row>
+    <row r="446" spans="2:16" ht="21">
+      <c r="B446" s="90" t="s">
+        <v>754</v>
+      </c>
+      <c r="C446" s="90">
+        <v>70462586961</v>
+      </c>
+      <c r="D446" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="E446" s="91">
+        <v>45729</v>
+      </c>
+      <c r="F446" s="157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G446" s="90"/>
+      <c r="H446" s="90"/>
+      <c r="I446" s="90">
+        <v>467</v>
+      </c>
+      <c r="J446" s="158">
+        <v>1.296</v>
+      </c>
+      <c r="K446" s="90">
+        <v>120</v>
+      </c>
+      <c r="L446" s="90">
+        <v>100</v>
+      </c>
+      <c r="M446" s="90">
+        <v>108</v>
+      </c>
+      <c r="N446" s="90"/>
+      <c r="O446" s="90"/>
+      <c r="P446" s="90"/>
+    </row>
+    <row r="447" spans="2:16" ht="22.5">
+      <c r="B447" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C447" s="189"/>
+      <c r="D447" s="189"/>
+      <c r="E447" s="189"/>
+      <c r="F447" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G447" s="154"/>
+      <c r="H447" s="154"/>
+      <c r="I447" s="154">
+        <v>467</v>
+      </c>
+      <c r="J447" s="155">
+        <v>1.296</v>
+      </c>
+      <c r="K447" s="154"/>
+      <c r="L447" s="154"/>
+      <c r="M447" s="154"/>
+      <c r="N447" s="92"/>
+      <c r="O447" s="92"/>
+      <c r="P447" s="92"/>
+    </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="378">
+    <mergeCell ref="B445:E445"/>
+    <mergeCell ref="B447:E447"/>
+    <mergeCell ref="B441:E441"/>
+    <mergeCell ref="B442:B444"/>
+    <mergeCell ref="C442:C444"/>
+    <mergeCell ref="D442:D444"/>
+    <mergeCell ref="E442:E444"/>
+    <mergeCell ref="G442:G444"/>
+    <mergeCell ref="I442:I444"/>
+    <mergeCell ref="N442:N444"/>
+    <mergeCell ref="O442:O444"/>
+    <mergeCell ref="B413:E413"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="D213:D214"/>
+    <mergeCell ref="E213:E214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="O213:O214"/>
+    <mergeCell ref="B399:E399"/>
+    <mergeCell ref="B401:E401"/>
+    <mergeCell ref="B403:E403"/>
+    <mergeCell ref="B385:E385"/>
+    <mergeCell ref="B387:E387"/>
+    <mergeCell ref="B389:E389"/>
+    <mergeCell ref="B391:E391"/>
+    <mergeCell ref="B393:E393"/>
+    <mergeCell ref="N362:N364"/>
+    <mergeCell ref="G343:G347"/>
+    <mergeCell ref="I343:I347"/>
+    <mergeCell ref="G332:G339"/>
+    <mergeCell ref="I332:I339"/>
+    <mergeCell ref="D343:D347"/>
+    <mergeCell ref="E343:E347"/>
+    <mergeCell ref="B351:B357"/>
+    <mergeCell ref="C351:C357"/>
+    <mergeCell ref="D351:D357"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="D162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="B165:B170"/>
+    <mergeCell ref="C165:C170"/>
+    <mergeCell ref="D165:D170"/>
+    <mergeCell ref="E165:E170"/>
+    <mergeCell ref="B348:E348"/>
+    <mergeCell ref="B350:E350"/>
+    <mergeCell ref="B320:E320"/>
+    <mergeCell ref="B322:E322"/>
+    <mergeCell ref="B328:E328"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="D329:D330"/>
+    <mergeCell ref="E329:E330"/>
+    <mergeCell ref="B309:E309"/>
+    <mergeCell ref="B331:E331"/>
+    <mergeCell ref="B332:B339"/>
+    <mergeCell ref="C332:C339"/>
+    <mergeCell ref="D332:D339"/>
+    <mergeCell ref="E332:E339"/>
+    <mergeCell ref="B342:E342"/>
+    <mergeCell ref="B343:B347"/>
+    <mergeCell ref="C343:C347"/>
+    <mergeCell ref="G87:G89"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="D87:D89"/>
+    <mergeCell ref="B383:E383"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="C136:C142"/>
+    <mergeCell ref="D136:D142"/>
+    <mergeCell ref="E136:E142"/>
+    <mergeCell ref="G136:G142"/>
+    <mergeCell ref="H136:H142"/>
+    <mergeCell ref="B381:E381"/>
+    <mergeCell ref="B272:E272"/>
+    <mergeCell ref="B273:B277"/>
+    <mergeCell ref="C273:C277"/>
+    <mergeCell ref="D273:D277"/>
+    <mergeCell ref="E273:E277"/>
+    <mergeCell ref="B287:E287"/>
+    <mergeCell ref="B289:E289"/>
+    <mergeCell ref="B291:E291"/>
+    <mergeCell ref="O42:O44"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R2:X2"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="G42:G44"/>
+    <mergeCell ref="H42:H44"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O87:O89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="L87:L89"/>
+    <mergeCell ref="M87:M89"/>
+    <mergeCell ref="N252:N255"/>
+    <mergeCell ref="O252:O255"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="C111:C114"/>
+    <mergeCell ref="D111:D114"/>
+    <mergeCell ref="E111:E114"/>
+    <mergeCell ref="G111:G114"/>
+    <mergeCell ref="H87:H89"/>
+    <mergeCell ref="I87:I89"/>
+    <mergeCell ref="J87:J89"/>
+    <mergeCell ref="K87:K89"/>
+    <mergeCell ref="B75:B85"/>
+    <mergeCell ref="C75:C85"/>
+    <mergeCell ref="D75:D85"/>
+    <mergeCell ref="E75:E85"/>
+    <mergeCell ref="G75:G85"/>
+    <mergeCell ref="P252:P255"/>
+    <mergeCell ref="B256:E256"/>
+    <mergeCell ref="B258:E258"/>
+    <mergeCell ref="B260:E260"/>
+    <mergeCell ref="B251:E251"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="C252:C255"/>
+    <mergeCell ref="D252:D255"/>
+    <mergeCell ref="E252:E255"/>
+    <mergeCell ref="I252:I255"/>
+    <mergeCell ref="P263:P267"/>
+    <mergeCell ref="B268:E268"/>
+    <mergeCell ref="B270:E270"/>
+    <mergeCell ref="B262:E262"/>
+    <mergeCell ref="B263:B267"/>
+    <mergeCell ref="C263:C267"/>
+    <mergeCell ref="D263:D267"/>
+    <mergeCell ref="E263:E267"/>
+    <mergeCell ref="G263:G266"/>
+    <mergeCell ref="I263:I267"/>
+    <mergeCell ref="N263:N267"/>
+    <mergeCell ref="O263:O267"/>
+    <mergeCell ref="P281:P282"/>
+    <mergeCell ref="B283:E283"/>
+    <mergeCell ref="B285:E285"/>
+    <mergeCell ref="O273:O277"/>
+    <mergeCell ref="P273:P277"/>
+    <mergeCell ref="G275:G276"/>
+    <mergeCell ref="B278:E278"/>
+    <mergeCell ref="B280:E280"/>
+    <mergeCell ref="B281:B282"/>
+    <mergeCell ref="C281:C282"/>
+    <mergeCell ref="D281:D282"/>
+    <mergeCell ref="E281:E282"/>
+    <mergeCell ref="G281:G282"/>
+    <mergeCell ref="I281:I282"/>
+    <mergeCell ref="N281:N282"/>
+    <mergeCell ref="O281:O282"/>
+    <mergeCell ref="N273:N277"/>
+    <mergeCell ref="P292:P304"/>
+    <mergeCell ref="G295:G300"/>
+    <mergeCell ref="B305:E305"/>
+    <mergeCell ref="B307:E307"/>
+    <mergeCell ref="B292:B304"/>
+    <mergeCell ref="C292:C304"/>
+    <mergeCell ref="D292:D304"/>
+    <mergeCell ref="E292:E304"/>
+    <mergeCell ref="G292:G294"/>
+    <mergeCell ref="I292:I304"/>
+    <mergeCell ref="N292:N304"/>
+    <mergeCell ref="O292:O304"/>
+    <mergeCell ref="P310:P315"/>
+    <mergeCell ref="B316:E316"/>
+    <mergeCell ref="B317:B319"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="E317:E319"/>
+    <mergeCell ref="G317:G319"/>
+    <mergeCell ref="D310:D315"/>
+    <mergeCell ref="E310:E315"/>
+    <mergeCell ref="G310:G311"/>
+    <mergeCell ref="B310:B315"/>
+    <mergeCell ref="C310:C315"/>
+    <mergeCell ref="I317:I319"/>
+    <mergeCell ref="N317:N319"/>
+    <mergeCell ref="O317:O319"/>
+    <mergeCell ref="P317:P319"/>
+    <mergeCell ref="I310:I315"/>
+    <mergeCell ref="N310:N315"/>
+    <mergeCell ref="O310:O315"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="D118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="G118:G119"/>
+    <mergeCell ref="H118:H119"/>
+    <mergeCell ref="O118:O119"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="B324:E324"/>
+    <mergeCell ref="B326:E326"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="C131:C134"/>
+    <mergeCell ref="D131:D134"/>
+    <mergeCell ref="E131:E134"/>
+    <mergeCell ref="G131:G134"/>
+    <mergeCell ref="H131:H134"/>
+    <mergeCell ref="N131:N134"/>
+    <mergeCell ref="O136:O142"/>
+    <mergeCell ref="G162:G163"/>
+    <mergeCell ref="O162:O163"/>
+    <mergeCell ref="G165:G170"/>
+    <mergeCell ref="H165:H170"/>
+    <mergeCell ref="O165:O170"/>
+    <mergeCell ref="O185:O191"/>
+    <mergeCell ref="O193:O195"/>
+    <mergeCell ref="P332:P339"/>
+    <mergeCell ref="N351:N357"/>
+    <mergeCell ref="O351:O357"/>
+    <mergeCell ref="P351:P357"/>
+    <mergeCell ref="P359:P360"/>
+    <mergeCell ref="P362:P364"/>
+    <mergeCell ref="B367:E367"/>
+    <mergeCell ref="I372:I374"/>
+    <mergeCell ref="B375:E375"/>
+    <mergeCell ref="B372:B374"/>
+    <mergeCell ref="D372:D374"/>
+    <mergeCell ref="E372:E374"/>
+    <mergeCell ref="B368:B371"/>
+    <mergeCell ref="C368:C371"/>
+    <mergeCell ref="D368:D371"/>
+    <mergeCell ref="E368:E371"/>
+    <mergeCell ref="G368:G371"/>
+    <mergeCell ref="I368:I371"/>
+    <mergeCell ref="N368:N374"/>
+    <mergeCell ref="O368:O374"/>
+    <mergeCell ref="N332:N339"/>
+    <mergeCell ref="O332:O339"/>
+    <mergeCell ref="B340:E340"/>
+    <mergeCell ref="N359:N360"/>
+    <mergeCell ref="P368:P374"/>
+    <mergeCell ref="G372:G374"/>
+    <mergeCell ref="B378:B380"/>
+    <mergeCell ref="C378:C380"/>
+    <mergeCell ref="D378:D380"/>
+    <mergeCell ref="E378:E380"/>
+    <mergeCell ref="G378:G379"/>
+    <mergeCell ref="I378:I380"/>
+    <mergeCell ref="N378:N380"/>
+    <mergeCell ref="O378:O380"/>
+    <mergeCell ref="P378:P380"/>
+    <mergeCell ref="B377:E377"/>
+    <mergeCell ref="E351:E357"/>
+    <mergeCell ref="O362:O364"/>
+    <mergeCell ref="B365:E365"/>
+    <mergeCell ref="B362:B364"/>
+    <mergeCell ref="C362:C364"/>
+    <mergeCell ref="D362:D364"/>
+    <mergeCell ref="E362:E364"/>
+    <mergeCell ref="G362:G364"/>
+    <mergeCell ref="I362:I364"/>
+    <mergeCell ref="I408:I410"/>
+    <mergeCell ref="N408:N410"/>
+    <mergeCell ref="O408:O410"/>
+    <mergeCell ref="B405:E405"/>
+    <mergeCell ref="B172:B179"/>
+    <mergeCell ref="C172:C179"/>
+    <mergeCell ref="D172:D179"/>
+    <mergeCell ref="E172:E179"/>
+    <mergeCell ref="G172:G179"/>
+    <mergeCell ref="H172:H179"/>
+    <mergeCell ref="O172:O179"/>
+    <mergeCell ref="B395:E395"/>
+    <mergeCell ref="B397:E397"/>
+    <mergeCell ref="O359:O360"/>
+    <mergeCell ref="B361:E361"/>
+    <mergeCell ref="G351:G357"/>
+    <mergeCell ref="I351:I357"/>
+    <mergeCell ref="B358:E358"/>
+    <mergeCell ref="B359:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="D359:D360"/>
+    <mergeCell ref="E359:E360"/>
+    <mergeCell ref="G359:G360"/>
+    <mergeCell ref="I359:I360"/>
+    <mergeCell ref="B411:E411"/>
+    <mergeCell ref="B185:B191"/>
+    <mergeCell ref="C185:C191"/>
+    <mergeCell ref="D185:D191"/>
+    <mergeCell ref="E185:E191"/>
+    <mergeCell ref="G185:G191"/>
+    <mergeCell ref="H185:H191"/>
+    <mergeCell ref="B193:B195"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="D193:D195"/>
+    <mergeCell ref="E193:E195"/>
+    <mergeCell ref="G193:G195"/>
+    <mergeCell ref="H193:H195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B407:E407"/>
+    <mergeCell ref="B408:B410"/>
+    <mergeCell ref="C408:C410"/>
+    <mergeCell ref="D408:D410"/>
+    <mergeCell ref="E408:E410"/>
+    <mergeCell ref="G408:G410"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="G210:G211"/>
+    <mergeCell ref="O197:O199"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="D203:D204"/>
+    <mergeCell ref="E203:E204"/>
+    <mergeCell ref="G203:G204"/>
+    <mergeCell ref="O203:O204"/>
+    <mergeCell ref="D425:D428"/>
+    <mergeCell ref="E425:E428"/>
+    <mergeCell ref="G425:G428"/>
+    <mergeCell ref="I425:I428"/>
+    <mergeCell ref="N425:N428"/>
+    <mergeCell ref="O425:O428"/>
+    <mergeCell ref="B415:E415"/>
+    <mergeCell ref="B417:E417"/>
+    <mergeCell ref="B419:E419"/>
+    <mergeCell ref="B420:B421"/>
+    <mergeCell ref="C420:C421"/>
+    <mergeCell ref="D420:D421"/>
+    <mergeCell ref="E420:E421"/>
+    <mergeCell ref="G420:G421"/>
+    <mergeCell ref="I420:I421"/>
     <mergeCell ref="N436:N438"/>
     <mergeCell ref="O436:O438"/>
     <mergeCell ref="B439:E439"/>
@@ -22293,349 +22926,6 @@
     <mergeCell ref="B424:E424"/>
     <mergeCell ref="B425:B428"/>
     <mergeCell ref="C425:C428"/>
-    <mergeCell ref="D425:D428"/>
-    <mergeCell ref="E425:E428"/>
-    <mergeCell ref="G425:G428"/>
-    <mergeCell ref="I425:I428"/>
-    <mergeCell ref="N425:N428"/>
-    <mergeCell ref="O425:O428"/>
-    <mergeCell ref="B415:E415"/>
-    <mergeCell ref="B417:E417"/>
-    <mergeCell ref="B419:E419"/>
-    <mergeCell ref="B420:B421"/>
-    <mergeCell ref="C420:C421"/>
-    <mergeCell ref="D420:D421"/>
-    <mergeCell ref="E420:E421"/>
-    <mergeCell ref="G420:G421"/>
-    <mergeCell ref="I420:I421"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="G210:G211"/>
-    <mergeCell ref="O197:O199"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="D203:D204"/>
-    <mergeCell ref="E203:E204"/>
-    <mergeCell ref="G203:G204"/>
-    <mergeCell ref="O203:O204"/>
-    <mergeCell ref="B411:E411"/>
-    <mergeCell ref="B185:B191"/>
-    <mergeCell ref="C185:C191"/>
-    <mergeCell ref="D185:D191"/>
-    <mergeCell ref="E185:E191"/>
-    <mergeCell ref="G185:G191"/>
-    <mergeCell ref="H185:H191"/>
-    <mergeCell ref="B193:B195"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="D193:D195"/>
-    <mergeCell ref="E193:E195"/>
-    <mergeCell ref="G193:G195"/>
-    <mergeCell ref="H193:H195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B407:E407"/>
-    <mergeCell ref="B408:B410"/>
-    <mergeCell ref="C408:C410"/>
-    <mergeCell ref="D408:D410"/>
-    <mergeCell ref="E408:E410"/>
-    <mergeCell ref="G408:G410"/>
-    <mergeCell ref="I408:I410"/>
-    <mergeCell ref="N408:N410"/>
-    <mergeCell ref="O408:O410"/>
-    <mergeCell ref="B405:E405"/>
-    <mergeCell ref="B172:B179"/>
-    <mergeCell ref="C172:C179"/>
-    <mergeCell ref="D172:D179"/>
-    <mergeCell ref="E172:E179"/>
-    <mergeCell ref="G172:G179"/>
-    <mergeCell ref="H172:H179"/>
-    <mergeCell ref="O172:O179"/>
-    <mergeCell ref="B395:E395"/>
-    <mergeCell ref="B397:E397"/>
-    <mergeCell ref="O359:O360"/>
-    <mergeCell ref="B361:E361"/>
-    <mergeCell ref="G351:G357"/>
-    <mergeCell ref="I351:I357"/>
-    <mergeCell ref="B358:E358"/>
-    <mergeCell ref="B359:B360"/>
-    <mergeCell ref="C359:C360"/>
-    <mergeCell ref="D359:D360"/>
-    <mergeCell ref="E359:E360"/>
-    <mergeCell ref="G359:G360"/>
-    <mergeCell ref="I359:I360"/>
-    <mergeCell ref="E351:E357"/>
-    <mergeCell ref="O362:O364"/>
-    <mergeCell ref="B365:E365"/>
-    <mergeCell ref="B362:B364"/>
-    <mergeCell ref="C362:C364"/>
-    <mergeCell ref="D362:D364"/>
-    <mergeCell ref="E362:E364"/>
-    <mergeCell ref="G362:G364"/>
-    <mergeCell ref="I362:I364"/>
-    <mergeCell ref="P368:P374"/>
-    <mergeCell ref="G372:G374"/>
-    <mergeCell ref="B378:B380"/>
-    <mergeCell ref="C378:C380"/>
-    <mergeCell ref="D378:D380"/>
-    <mergeCell ref="E378:E380"/>
-    <mergeCell ref="G378:G379"/>
-    <mergeCell ref="I378:I380"/>
-    <mergeCell ref="N378:N380"/>
-    <mergeCell ref="O378:O380"/>
-    <mergeCell ref="P378:P380"/>
-    <mergeCell ref="B377:E377"/>
-    <mergeCell ref="P332:P339"/>
-    <mergeCell ref="N351:N357"/>
-    <mergeCell ref="O351:O357"/>
-    <mergeCell ref="P351:P357"/>
-    <mergeCell ref="P359:P360"/>
-    <mergeCell ref="P362:P364"/>
-    <mergeCell ref="B367:E367"/>
-    <mergeCell ref="I372:I374"/>
-    <mergeCell ref="B375:E375"/>
-    <mergeCell ref="B372:B374"/>
-    <mergeCell ref="D372:D374"/>
-    <mergeCell ref="E372:E374"/>
-    <mergeCell ref="B368:B371"/>
-    <mergeCell ref="C368:C371"/>
-    <mergeCell ref="D368:D371"/>
-    <mergeCell ref="E368:E371"/>
-    <mergeCell ref="G368:G371"/>
-    <mergeCell ref="I368:I371"/>
-    <mergeCell ref="N368:N374"/>
-    <mergeCell ref="O368:O374"/>
-    <mergeCell ref="N332:N339"/>
-    <mergeCell ref="O332:O339"/>
-    <mergeCell ref="B340:E340"/>
-    <mergeCell ref="N359:N360"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="D118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="H118:H119"/>
-    <mergeCell ref="O118:O119"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="B324:E324"/>
-    <mergeCell ref="B326:E326"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="C131:C134"/>
-    <mergeCell ref="D131:D134"/>
-    <mergeCell ref="E131:E134"/>
-    <mergeCell ref="G131:G134"/>
-    <mergeCell ref="H131:H134"/>
-    <mergeCell ref="N131:N134"/>
-    <mergeCell ref="O136:O142"/>
-    <mergeCell ref="G162:G163"/>
-    <mergeCell ref="O162:O163"/>
-    <mergeCell ref="G165:G170"/>
-    <mergeCell ref="H165:H170"/>
-    <mergeCell ref="O165:O170"/>
-    <mergeCell ref="O185:O191"/>
-    <mergeCell ref="O193:O195"/>
-    <mergeCell ref="P310:P315"/>
-    <mergeCell ref="B316:E316"/>
-    <mergeCell ref="B317:B319"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="E317:E319"/>
-    <mergeCell ref="G317:G319"/>
-    <mergeCell ref="D310:D315"/>
-    <mergeCell ref="E310:E315"/>
-    <mergeCell ref="G310:G311"/>
-    <mergeCell ref="B310:B315"/>
-    <mergeCell ref="C310:C315"/>
-    <mergeCell ref="I317:I319"/>
-    <mergeCell ref="N317:N319"/>
-    <mergeCell ref="O317:O319"/>
-    <mergeCell ref="P317:P319"/>
-    <mergeCell ref="I310:I315"/>
-    <mergeCell ref="N310:N315"/>
-    <mergeCell ref="O310:O315"/>
-    <mergeCell ref="P292:P304"/>
-    <mergeCell ref="G295:G300"/>
-    <mergeCell ref="B305:E305"/>
-    <mergeCell ref="B307:E307"/>
-    <mergeCell ref="B292:B304"/>
-    <mergeCell ref="C292:C304"/>
-    <mergeCell ref="D292:D304"/>
-    <mergeCell ref="E292:E304"/>
-    <mergeCell ref="G292:G294"/>
-    <mergeCell ref="I292:I304"/>
-    <mergeCell ref="N292:N304"/>
-    <mergeCell ref="O292:O304"/>
-    <mergeCell ref="P281:P282"/>
-    <mergeCell ref="B283:E283"/>
-    <mergeCell ref="B285:E285"/>
-    <mergeCell ref="O273:O277"/>
-    <mergeCell ref="P273:P277"/>
-    <mergeCell ref="G275:G276"/>
-    <mergeCell ref="B278:E278"/>
-    <mergeCell ref="B280:E280"/>
-    <mergeCell ref="B281:B282"/>
-    <mergeCell ref="C281:C282"/>
-    <mergeCell ref="D281:D282"/>
-    <mergeCell ref="E281:E282"/>
-    <mergeCell ref="G281:G282"/>
-    <mergeCell ref="I281:I282"/>
-    <mergeCell ref="N281:N282"/>
-    <mergeCell ref="O281:O282"/>
-    <mergeCell ref="N273:N277"/>
-    <mergeCell ref="P263:P267"/>
-    <mergeCell ref="B268:E268"/>
-    <mergeCell ref="B270:E270"/>
-    <mergeCell ref="B262:E262"/>
-    <mergeCell ref="B263:B267"/>
-    <mergeCell ref="C263:C267"/>
-    <mergeCell ref="D263:D267"/>
-    <mergeCell ref="E263:E267"/>
-    <mergeCell ref="G263:G266"/>
-    <mergeCell ref="I263:I267"/>
-    <mergeCell ref="N263:N267"/>
-    <mergeCell ref="O263:O267"/>
-    <mergeCell ref="P252:P255"/>
-    <mergeCell ref="B256:E256"/>
-    <mergeCell ref="B258:E258"/>
-    <mergeCell ref="B260:E260"/>
-    <mergeCell ref="B251:E251"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="C252:C255"/>
-    <mergeCell ref="D252:D255"/>
-    <mergeCell ref="E252:E255"/>
-    <mergeCell ref="I252:I255"/>
-    <mergeCell ref="O60:O61"/>
-    <mergeCell ref="O87:O89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="L87:L89"/>
-    <mergeCell ref="M87:M89"/>
-    <mergeCell ref="N252:N255"/>
-    <mergeCell ref="O252:O255"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="C111:C114"/>
-    <mergeCell ref="D111:D114"/>
-    <mergeCell ref="E111:E114"/>
-    <mergeCell ref="G111:G114"/>
-    <mergeCell ref="H87:H89"/>
-    <mergeCell ref="I87:I89"/>
-    <mergeCell ref="J87:J89"/>
-    <mergeCell ref="K87:K89"/>
-    <mergeCell ref="B75:B85"/>
-    <mergeCell ref="C75:C85"/>
-    <mergeCell ref="D75:D85"/>
-    <mergeCell ref="E75:E85"/>
-    <mergeCell ref="G75:G85"/>
-    <mergeCell ref="O52:O53"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="O55:O56"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="O42:O44"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="R2:X2"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="D42:D44"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="G42:G44"/>
-    <mergeCell ref="H42:H44"/>
-    <mergeCell ref="G87:G89"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="D87:D89"/>
-    <mergeCell ref="B383:E383"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="C136:C142"/>
-    <mergeCell ref="D136:D142"/>
-    <mergeCell ref="E136:E142"/>
-    <mergeCell ref="G136:G142"/>
-    <mergeCell ref="H136:H142"/>
-    <mergeCell ref="B381:E381"/>
-    <mergeCell ref="B272:E272"/>
-    <mergeCell ref="B273:B277"/>
-    <mergeCell ref="C273:C277"/>
-    <mergeCell ref="D273:D277"/>
-    <mergeCell ref="E273:E277"/>
-    <mergeCell ref="B287:E287"/>
-    <mergeCell ref="B289:E289"/>
-    <mergeCell ref="B291:E291"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="B165:B170"/>
-    <mergeCell ref="C165:C170"/>
-    <mergeCell ref="D165:D170"/>
-    <mergeCell ref="E165:E170"/>
-    <mergeCell ref="B348:E348"/>
-    <mergeCell ref="B350:E350"/>
-    <mergeCell ref="B320:E320"/>
-    <mergeCell ref="B322:E322"/>
-    <mergeCell ref="B328:E328"/>
-    <mergeCell ref="B329:B330"/>
-    <mergeCell ref="D329:D330"/>
-    <mergeCell ref="E329:E330"/>
-    <mergeCell ref="B309:E309"/>
-    <mergeCell ref="B331:E331"/>
-    <mergeCell ref="B332:B339"/>
-    <mergeCell ref="C332:C339"/>
-    <mergeCell ref="D332:D339"/>
-    <mergeCell ref="E332:E339"/>
-    <mergeCell ref="B342:E342"/>
-    <mergeCell ref="B343:B347"/>
-    <mergeCell ref="C343:C347"/>
-    <mergeCell ref="B413:E413"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="D213:D214"/>
-    <mergeCell ref="E213:E214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="O213:O214"/>
-    <mergeCell ref="B399:E399"/>
-    <mergeCell ref="B401:E401"/>
-    <mergeCell ref="B403:E403"/>
-    <mergeCell ref="B385:E385"/>
-    <mergeCell ref="B387:E387"/>
-    <mergeCell ref="B389:E389"/>
-    <mergeCell ref="B391:E391"/>
-    <mergeCell ref="B393:E393"/>
-    <mergeCell ref="N362:N364"/>
-    <mergeCell ref="G343:G347"/>
-    <mergeCell ref="I343:I347"/>
-    <mergeCell ref="G332:G339"/>
-    <mergeCell ref="I332:I339"/>
-    <mergeCell ref="D343:D347"/>
-    <mergeCell ref="E343:E347"/>
-    <mergeCell ref="B351:B357"/>
-    <mergeCell ref="C351:C357"/>
-    <mergeCell ref="D351:D357"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22710,12 +23000,12 @@
     </row>
     <row r="6" spans="1:16" ht="22.5">
       <c r="A6" s="30"/>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
       <c r="F6" s="64" t="s">
         <v>21</v>
       </c>
@@ -22780,12 +23070,12 @@
     </row>
     <row r="9" spans="1:16" ht="22.5">
       <c r="A9" s="30"/>
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
       <c r="F9" s="76" t="s">
         <v>25</v>
       </c>
@@ -22854,12 +23144,12 @@
     </row>
     <row r="12" spans="1:16" ht="22.5">
       <c r="A12" s="30"/>
-      <c r="B12" s="186" t="s">
+      <c r="B12" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
       <c r="F12" s="76" t="s">
         <v>15</v>
       </c>
